--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="16140" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -17,6 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
   <si>
     <t>Source</t>
   </si>
@@ -508,12 +509,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>UFOP website</t>
-  </si>
-  <si>
-    <t>UFOP</t>
-  </si>
-  <si>
     <t>Price (EUR/100l)</t>
   </si>
   <si>
@@ -521,13 +516,106 @@
   </si>
   <si>
     <t>EUR/L</t>
+  </si>
+  <si>
+    <t>European Commission - Weekly Oil Bulletin</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/energy/observatory/oil/bulletin_en.htm</t>
+  </si>
+  <si>
+    <t>Calculate monthly average</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>ExchangeRateTo €</t>
+  </si>
+  <si>
+    <t>No taxes</t>
+  </si>
+  <si>
+    <t>1000L</t>
+  </si>
+  <si>
+    <t>EUR/1000L</t>
+  </si>
+  <si>
+    <t>Incl taxes</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>VAT</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Excise</t>
+  </si>
+  <si>
+    <t>Other indirect</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>EUR/L (inc tax)</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t>Gas oil automobileAutomotive gas oilDieselkraftstoff(I)</t>
+  </si>
+  <si>
+    <t>Excise rate</t>
+  </si>
+  <si>
+    <t>Oher indirect tax</t>
+  </si>
+  <si>
+    <t>VAT rate</t>
+  </si>
+  <si>
+    <t>http://www.biotanken.nl/brandstoffen/biodiesel.html</t>
+  </si>
+  <si>
+    <t>price difference per liter biodiesel with normal diesel</t>
+  </si>
+  <si>
+    <t>normal diesel, pump prices (incl tax)</t>
+  </si>
+  <si>
+    <t>Biodiesel estimated pump price (incl tax)</t>
+  </si>
+  <si>
+    <t>Biodiesel estimated pump price (Excl tax)</t>
+  </si>
+  <si>
+    <t>EC_Oil Bulletin</t>
+  </si>
+  <si>
+    <t>biotanken.nl</t>
+  </si>
+  <si>
+    <t>EC Oil bulletin</t>
+  </si>
+  <si>
+    <t>Assumed dependent on nromal diesel price</t>
+  </si>
+  <si>
+    <t>EC Oil Bulletin and biotanken.nl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="7">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -535,13 +623,23 @@
     <numFmt numFmtId="168" formatCode="0.000000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
     <numFmt numFmtId="170" formatCode="0.00000000000"/>
+    <numFmt numFmtId="171" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -771,8 +869,65 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF900000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF900000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="16"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,8 +1006,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF58C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1171,652 +1362,804 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="332">
+  <cellStyleXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="38" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="14" fontId="44" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="45" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="19" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="172" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="332">
+  <cellStyles count="335">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2059,6 +2402,9 @@
     <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2828,6 +3174,158 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>476</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9334500" y="104609900"/>
+          <a:ext cx="7137400" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>480</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="106337100"/>
+          <a:ext cx="7391400" cy="1498600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>497</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="107962700"/>
+          <a:ext cx="7213600" cy="1816100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>512</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>566</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="103365300"/>
+          <a:ext cx="6350000" cy="10312400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2945,6 +3443,26 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3494,7 +4012,9 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3518,28 +4038,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="174" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="181"/>
-      <c r="C4" s="182"/>
-      <c r="D4" s="182"/>
-      <c r="E4" s="183"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -3634,13 +4154,13 @@
       </c>
       <c r="E11" s="173">
         <f>'Research data'!G7</f>
-        <v>2.2042255648181703E-2</v>
+        <v>2.9081568260948144E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="174" t="s">
-        <v>148</v>
+      <c r="I11" s="212" t="s">
+        <v>180</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -3732,7 +4252,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -3795,30 +4315,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="175" t="s">
+      <c r="B2" s="174" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="176"/>
-      <c r="D2" s="176"/>
-      <c r="E2" s="177"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="176"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="178"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="180"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="185"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4259,7 +4779,7 @@
   <dimension ref="B1:Q36"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4330,7 +4850,7 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="P3" s="69"/>
       <c r="Q3" s="1" t="s">
@@ -4418,7 +4938,7 @@
       </c>
       <c r="G7" s="172">
         <f>O7</f>
-        <v>2.2042255648181703E-2</v>
+        <v>2.9081568260948144E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4428,11 +4948,13 @@
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="171">
-        <f>Notes!H454</f>
-        <v>2.2042255648181703E-2</v>
+        <f>Notes!F528</f>
+        <v>2.9081568260948144E-2</v>
       </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="145"/>
+      <c r="Q7" s="211" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
@@ -5081,7 +5603,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5371,7 +5893,7 @@
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -5379,12 +5901,19 @@
       <c r="I18" s="70"/>
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
-      <c r="L18" s="66"/>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="L18" s="66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" ht="16">
       <c r="B19" s="54"/>
-      <c r="E19" s="149"/>
+      <c r="E19" s="149" t="s">
+        <v>176</v>
+      </c>
       <c r="F19" s="149"/>
+      <c r="L19" s="190" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="54"/>
@@ -5404,6 +5933,9 @@
       <c r="F22" s="149"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L19" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -5416,10 +5948,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y454"/>
+  <dimension ref="A1:Y530"/>
   <sheetViews>
-    <sheetView topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="I446" sqref="I446"/>
+    <sheetView topLeftCell="A484" workbookViewId="0">
+      <selection activeCell="C470" sqref="C470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11292,7 +11824,7 @@
     </row>
     <row r="447" spans="2:25">
       <c r="F447" s="169" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G447" s="169" t="s">
         <v>140</v>
@@ -11378,7 +11910,7 @@
         <v>72.977499999999992</v>
       </c>
       <c r="I452" s="169" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="453" spans="5:9">
@@ -11387,7 +11919,7 @@
         <v>0.72977499999999995</v>
       </c>
       <c r="I453" s="169" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="454" spans="5:9">
@@ -11399,13 +11931,1513 @@
         <v>62</v>
       </c>
     </row>
+    <row r="466" spans="1:25" ht="16" thickBot="1"/>
+    <row r="467" spans="1:25" s="187" customFormat="1">
+      <c r="A467" s="159"/>
+      <c r="B467" s="186"/>
+      <c r="C467" s="186" t="s">
+        <v>25</v>
+      </c>
+      <c r="D467" s="186" t="s">
+        <v>65</v>
+      </c>
+      <c r="E467" s="186"/>
+      <c r="F467" s="186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G467" s="186"/>
+      <c r="H467" s="186"/>
+      <c r="I467" s="186"/>
+      <c r="J467" s="186"/>
+      <c r="K467" s="186"/>
+      <c r="L467" s="186"/>
+      <c r="M467" s="186"/>
+      <c r="N467" s="186"/>
+      <c r="O467" s="186"/>
+      <c r="P467" s="186"/>
+      <c r="Q467" s="186"/>
+      <c r="R467" s="186"/>
+      <c r="S467" s="186"/>
+      <c r="T467" s="186"/>
+      <c r="U467" s="186"/>
+      <c r="V467" s="159"/>
+      <c r="W467" s="159"/>
+      <c r="X467" s="159"/>
+      <c r="Y467" s="159"/>
+    </row>
+    <row r="468" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A468" s="188"/>
+      <c r="B468" s="189"/>
+      <c r="C468" s="139"/>
+      <c r="D468" s="139"/>
+      <c r="E468" s="139"/>
+      <c r="F468" s="139"/>
+      <c r="G468" s="139"/>
+      <c r="H468" s="139"/>
+      <c r="I468" s="139"/>
+      <c r="J468" s="139"/>
+      <c r="K468" s="139"/>
+      <c r="L468" s="139"/>
+      <c r="M468" s="139"/>
+      <c r="N468" s="139"/>
+      <c r="O468" s="139"/>
+      <c r="P468" s="139"/>
+      <c r="Q468" s="139"/>
+      <c r="R468" s="139"/>
+      <c r="S468" s="139"/>
+      <c r="T468" s="139"/>
+      <c r="U468" s="139"/>
+      <c r="V468" s="139"/>
+      <c r="W468" s="139"/>
+      <c r="X468" s="139"/>
+      <c r="Y468" s="139"/>
+    </row>
+    <row r="469" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A469" s="188"/>
+      <c r="B469" s="189"/>
+      <c r="C469" s="159" t="s">
+        <v>150</v>
+      </c>
+      <c r="D469" s="139"/>
+      <c r="E469" s="139"/>
+      <c r="F469" s="139"/>
+      <c r="G469" s="139"/>
+      <c r="H469" s="139"/>
+      <c r="I469" s="139"/>
+      <c r="J469" s="139"/>
+      <c r="K469" s="139"/>
+      <c r="L469" s="139"/>
+      <c r="M469" s="139"/>
+      <c r="N469" s="139"/>
+      <c r="O469" s="139"/>
+      <c r="P469" s="139"/>
+      <c r="Q469" s="139"/>
+      <c r="R469" s="139"/>
+      <c r="S469" s="139"/>
+      <c r="T469" s="139"/>
+      <c r="U469" s="139"/>
+      <c r="V469" s="139"/>
+      <c r="W469" s="139"/>
+      <c r="X469" s="139"/>
+      <c r="Y469" s="139"/>
+    </row>
+    <row r="470" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A470" s="188"/>
+      <c r="B470" s="189"/>
+      <c r="C470" s="190" t="s">
+        <v>151</v>
+      </c>
+      <c r="D470" s="139"/>
+      <c r="E470" s="139"/>
+      <c r="F470" s="139"/>
+      <c r="G470" s="139"/>
+      <c r="H470" s="139"/>
+      <c r="I470" s="139"/>
+      <c r="J470" s="139"/>
+      <c r="K470" s="139"/>
+      <c r="L470" s="139"/>
+      <c r="M470" s="139"/>
+      <c r="N470" s="139"/>
+      <c r="O470" s="139"/>
+      <c r="P470" s="139"/>
+      <c r="Q470" s="139"/>
+      <c r="R470" s="139"/>
+      <c r="S470" s="139"/>
+      <c r="T470" s="139"/>
+      <c r="U470" s="139"/>
+      <c r="V470" s="139"/>
+      <c r="W470" s="139"/>
+      <c r="X470" s="139"/>
+      <c r="Y470" s="139"/>
+    </row>
+    <row r="471" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A471" s="188"/>
+      <c r="B471" s="189"/>
+      <c r="C471" s="139"/>
+      <c r="D471" s="188"/>
+      <c r="E471" s="139"/>
+      <c r="F471" s="139"/>
+      <c r="G471" s="139"/>
+      <c r="H471" s="139"/>
+      <c r="I471" s="139"/>
+      <c r="J471" s="139"/>
+      <c r="K471" s="139"/>
+      <c r="L471" s="139"/>
+      <c r="M471" s="139"/>
+      <c r="N471" s="139"/>
+      <c r="O471" s="139"/>
+      <c r="P471" s="139"/>
+      <c r="Q471" s="139"/>
+      <c r="R471" s="139"/>
+      <c r="S471" s="139"/>
+      <c r="T471" s="139"/>
+      <c r="U471" s="139"/>
+      <c r="V471" s="139"/>
+      <c r="W471" s="139"/>
+      <c r="X471" s="139"/>
+      <c r="Y471" s="139"/>
+    </row>
+    <row r="472" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A472" s="188"/>
+      <c r="B472" s="189"/>
+      <c r="C472" s="139"/>
+      <c r="D472" s="139" t="s">
+        <v>152</v>
+      </c>
+      <c r="E472" s="139"/>
+      <c r="F472" s="139"/>
+      <c r="G472" s="139"/>
+      <c r="H472" s="139"/>
+      <c r="I472" s="139"/>
+      <c r="J472" s="139"/>
+      <c r="K472" s="139"/>
+      <c r="L472" s="139"/>
+      <c r="M472" s="139"/>
+      <c r="N472" s="139"/>
+      <c r="O472" s="139"/>
+      <c r="P472" s="139"/>
+      <c r="Q472" s="139"/>
+      <c r="R472" s="139"/>
+      <c r="S472" s="139"/>
+      <c r="T472" s="139"/>
+      <c r="U472" s="139"/>
+      <c r="V472" s="139"/>
+      <c r="W472" s="139"/>
+      <c r="X472" s="139"/>
+      <c r="Y472" s="139"/>
+    </row>
+    <row r="473" spans="1:25" s="187" customFormat="1" ht="50">
+      <c r="A473" s="188"/>
+      <c r="B473" s="189"/>
+      <c r="C473" s="139"/>
+      <c r="D473" s="191" t="s">
+        <v>3</v>
+      </c>
+      <c r="E473" s="188"/>
+      <c r="F473" s="139"/>
+      <c r="G473" s="139"/>
+      <c r="H473" s="192" t="s">
+        <v>153</v>
+      </c>
+      <c r="I473" s="193" t="s">
+        <v>154</v>
+      </c>
+      <c r="J473" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="K473" s="195" t="s">
+        <v>167</v>
+      </c>
+      <c r="L473" s="139"/>
+      <c r="M473" s="139"/>
+      <c r="N473" s="139"/>
+      <c r="O473" s="139"/>
+      <c r="P473" s="139"/>
+      <c r="Q473" s="139"/>
+      <c r="R473" s="139"/>
+      <c r="S473" s="139"/>
+      <c r="T473" s="139"/>
+      <c r="U473" s="139"/>
+      <c r="V473" s="139"/>
+    </row>
+    <row r="474" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
+      <c r="A474" s="188"/>
+      <c r="B474" s="189"/>
+      <c r="C474" s="139"/>
+      <c r="D474" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="E474" s="188"/>
+      <c r="F474" s="139"/>
+      <c r="G474" s="139"/>
+      <c r="H474" s="196"/>
+      <c r="I474" s="197"/>
+      <c r="J474" s="198" t="s">
+        <v>156</v>
+      </c>
+      <c r="K474" s="199" t="s">
+        <v>156</v>
+      </c>
+      <c r="L474" s="139"/>
+      <c r="M474" s="139"/>
+      <c r="N474" s="139"/>
+      <c r="O474" s="139"/>
+      <c r="P474" s="139"/>
+      <c r="Q474" s="139"/>
+      <c r="R474" s="139"/>
+      <c r="S474" s="139"/>
+      <c r="T474" s="139"/>
+      <c r="U474" s="139"/>
+      <c r="V474" s="139"/>
+    </row>
+    <row r="475" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
+      <c r="A475" s="188"/>
+      <c r="B475" s="189"/>
+      <c r="C475" s="139"/>
+      <c r="D475" s="139"/>
+      <c r="E475" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F475" s="200">
+        <f>AVERAGE(J475:J479)</f>
+        <v>549.61</v>
+      </c>
+      <c r="G475" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="H475" s="201">
+        <v>42219</v>
+      </c>
+      <c r="I475" s="202">
+        <v>1</v>
+      </c>
+      <c r="J475" s="206">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="K475" s="203">
+        <v>1220</v>
+      </c>
+      <c r="L475" s="139"/>
+      <c r="M475" s="139"/>
+      <c r="N475" s="139"/>
+      <c r="O475" s="139"/>
+      <c r="P475" s="139"/>
+      <c r="Q475" s="139"/>
+      <c r="R475" s="139"/>
+      <c r="S475" s="139"/>
+      <c r="T475" s="139"/>
+      <c r="U475" s="139"/>
+      <c r="V475" s="139"/>
+    </row>
+    <row r="476" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
+      <c r="A476" s="188"/>
+      <c r="B476" s="189"/>
+      <c r="C476" s="139"/>
+      <c r="D476" s="139"/>
+      <c r="E476" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F476" s="204">
+        <f>F475/1000</f>
+        <v>0.54961000000000004</v>
+      </c>
+      <c r="G476" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H476" s="201">
+        <v>42212</v>
+      </c>
+      <c r="I476" s="202">
+        <v>1</v>
+      </c>
+      <c r="J476" s="206">
+        <v>533.91</v>
+      </c>
+      <c r="K476" s="203">
+        <v>1239</v>
+      </c>
+      <c r="L476" s="139"/>
+      <c r="M476" s="139"/>
+      <c r="N476" s="139"/>
+      <c r="O476" s="139"/>
+      <c r="P476" s="139"/>
+      <c r="Q476" s="139"/>
+      <c r="R476" s="139"/>
+      <c r="S476" s="139"/>
+      <c r="T476" s="139"/>
+      <c r="U476" s="139"/>
+      <c r="V476" s="139"/>
+    </row>
+    <row r="477" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
+      <c r="A477" s="188"/>
+      <c r="B477" s="189"/>
+      <c r="C477" s="139"/>
+      <c r="D477" s="139"/>
+      <c r="E477" s="139"/>
+      <c r="F477" s="139"/>
+      <c r="G477" s="139"/>
+      <c r="H477" s="201">
+        <v>42205</v>
+      </c>
+      <c r="I477" s="202">
+        <v>1</v>
+      </c>
+      <c r="J477" s="206">
+        <v>547.13</v>
+      </c>
+      <c r="K477" s="203">
+        <v>1255</v>
+      </c>
+      <c r="L477" s="139"/>
+      <c r="M477" s="139"/>
+      <c r="N477" s="139"/>
+      <c r="O477" s="139"/>
+      <c r="P477" s="139"/>
+      <c r="Q477" s="139"/>
+      <c r="R477" s="139"/>
+      <c r="S477" s="139"/>
+      <c r="T477" s="139"/>
+      <c r="U477" s="139"/>
+      <c r="V477" s="139"/>
+    </row>
+    <row r="478" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
+      <c r="A478" s="188"/>
+      <c r="B478" s="189"/>
+      <c r="C478" s="139"/>
+      <c r="D478" s="139" t="s">
+        <v>158</v>
+      </c>
+      <c r="E478" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F478" s="200">
+        <f>AVERAGE(K475:K479)</f>
+        <v>1258</v>
+      </c>
+      <c r="G478" s="139" t="s">
+        <v>157</v>
+      </c>
+      <c r="H478" s="201">
+        <v>42198</v>
+      </c>
+      <c r="I478" s="202">
+        <v>1</v>
+      </c>
+      <c r="J478" s="206">
+        <v>568.62</v>
+      </c>
+      <c r="K478" s="203">
+        <v>1281</v>
+      </c>
+      <c r="L478" s="139"/>
+      <c r="M478" s="139"/>
+      <c r="N478" s="139"/>
+      <c r="O478" s="139"/>
+      <c r="P478" s="139"/>
+      <c r="Q478" s="139"/>
+      <c r="R478" s="139"/>
+      <c r="S478" s="139"/>
+      <c r="T478" s="139"/>
+      <c r="U478" s="139"/>
+      <c r="V478" s="139"/>
+    </row>
+    <row r="479" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
+      <c r="A479" s="188"/>
+      <c r="B479" s="189"/>
+      <c r="C479" s="139"/>
+      <c r="D479" s="139"/>
+      <c r="E479" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F479" s="204">
+        <f>F478/1000</f>
+        <v>1.258</v>
+      </c>
+      <c r="G479" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H479" s="201">
+        <v>42191</v>
+      </c>
+      <c r="I479" s="202">
+        <v>1</v>
+      </c>
+      <c r="J479" s="206">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="K479" s="203">
+        <v>1295</v>
+      </c>
+      <c r="L479" s="139"/>
+      <c r="M479" s="139"/>
+      <c r="N479" s="139"/>
+      <c r="O479" s="139"/>
+      <c r="P479" s="139"/>
+      <c r="Q479" s="139"/>
+      <c r="R479" s="139"/>
+      <c r="S479" s="139"/>
+      <c r="T479" s="139"/>
+      <c r="U479" s="139"/>
+      <c r="V479" s="139"/>
+    </row>
+    <row r="480" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A480" s="188"/>
+      <c r="B480" s="189"/>
+      <c r="C480" s="139"/>
+      <c r="D480" s="139"/>
+      <c r="E480" s="139"/>
+      <c r="F480" s="139"/>
+      <c r="G480" s="139"/>
+      <c r="H480" s="201">
+        <v>42184</v>
+      </c>
+      <c r="I480" s="202">
+        <v>1</v>
+      </c>
+      <c r="J480" s="206">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="K480" s="203">
+        <v>1295</v>
+      </c>
+      <c r="L480" s="139"/>
+      <c r="M480" s="139"/>
+      <c r="N480" s="139"/>
+      <c r="O480" s="139"/>
+      <c r="P480" s="139"/>
+      <c r="Q480" s="139"/>
+      <c r="R480" s="139"/>
+      <c r="S480" s="139"/>
+      <c r="T480" s="139"/>
+      <c r="U480" s="139"/>
+      <c r="V480" s="139"/>
+    </row>
+    <row r="481" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A481" s="188"/>
+      <c r="B481" s="189"/>
+      <c r="C481" s="139"/>
+      <c r="D481" s="142" t="s">
+        <v>159</v>
+      </c>
+      <c r="E481" s="139"/>
+      <c r="F481" s="205"/>
+      <c r="G481" s="139"/>
+      <c r="H481" s="201">
+        <v>42177</v>
+      </c>
+      <c r="I481" s="202">
+        <v>1</v>
+      </c>
+      <c r="J481" s="206">
+        <v>585.15</v>
+      </c>
+      <c r="K481" s="203">
+        <v>1301</v>
+      </c>
+      <c r="L481" s="139"/>
+      <c r="M481" s="139"/>
+      <c r="N481" s="139"/>
+      <c r="O481" s="139"/>
+      <c r="P481" s="139"/>
+      <c r="Q481" s="139"/>
+      <c r="R481" s="139"/>
+      <c r="S481" s="139"/>
+      <c r="T481" s="139"/>
+      <c r="U481" s="139"/>
+      <c r="V481" s="139"/>
+    </row>
+    <row r="482" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A482" s="188"/>
+      <c r="B482" s="189"/>
+      <c r="C482" s="139"/>
+      <c r="D482" s="139" t="s">
+        <v>160</v>
+      </c>
+      <c r="E482" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F482" s="139">
+        <v>21</v>
+      </c>
+      <c r="G482" s="139" t="s">
+        <v>161</v>
+      </c>
+      <c r="H482" s="201">
+        <v>42170</v>
+      </c>
+      <c r="I482" s="202">
+        <v>1</v>
+      </c>
+      <c r="J482" s="206">
+        <v>587.63</v>
+      </c>
+      <c r="K482" s="203">
+        <v>1304</v>
+      </c>
+      <c r="L482" s="139"/>
+      <c r="M482" s="139"/>
+      <c r="N482" s="139"/>
+      <c r="O482" s="139"/>
+      <c r="P482" s="139"/>
+      <c r="Q482" s="139"/>
+      <c r="R482" s="139"/>
+      <c r="S482" s="139"/>
+      <c r="T482" s="139"/>
+      <c r="U482" s="139"/>
+      <c r="V482" s="139"/>
+    </row>
+    <row r="483" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A483" s="188"/>
+      <c r="B483" s="189"/>
+      <c r="C483" s="139"/>
+      <c r="D483" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="E483" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F483" s="139">
+        <f>482.06/1000</f>
+        <v>0.48205999999999999</v>
+      </c>
+      <c r="G483" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H483" s="201">
+        <v>42163</v>
+      </c>
+      <c r="I483" s="202">
+        <v>1</v>
+      </c>
+      <c r="J483" s="206">
+        <v>587.63</v>
+      </c>
+      <c r="K483" s="203">
+        <v>1304</v>
+      </c>
+      <c r="L483" s="139"/>
+      <c r="M483" s="139"/>
+      <c r="N483" s="139"/>
+      <c r="O483" s="139"/>
+      <c r="P483" s="139"/>
+      <c r="Q483" s="139"/>
+      <c r="R483" s="139"/>
+      <c r="S483" s="139"/>
+      <c r="T483" s="139"/>
+      <c r="U483" s="139"/>
+      <c r="V483" s="139"/>
+    </row>
+    <row r="484" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A484" s="188"/>
+      <c r="B484" s="189"/>
+      <c r="C484" s="139"/>
+      <c r="D484" s="139" t="s">
+        <v>163</v>
+      </c>
+      <c r="E484" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F484" s="205">
+        <f>8/1000</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G484" s="139" t="s">
+        <v>149</v>
+      </c>
+      <c r="H484" s="201">
+        <v>42156</v>
+      </c>
+      <c r="I484" s="202">
+        <v>1</v>
+      </c>
+      <c r="J484" s="206">
+        <v>587.63</v>
+      </c>
+      <c r="K484" s="203">
+        <v>1304</v>
+      </c>
+      <c r="L484" s="139"/>
+      <c r="M484" s="139"/>
+      <c r="N484" s="139"/>
+      <c r="O484" s="139"/>
+      <c r="P484" s="139"/>
+      <c r="Q484" s="139"/>
+      <c r="R484" s="139"/>
+      <c r="S484" s="139"/>
+      <c r="T484" s="139"/>
+      <c r="U484" s="139"/>
+      <c r="V484" s="139"/>
+    </row>
+    <row r="485" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A485" s="188"/>
+      <c r="B485" s="189"/>
+      <c r="C485" s="139"/>
+      <c r="D485" s="139"/>
+      <c r="E485" s="139"/>
+      <c r="F485" s="139"/>
+      <c r="G485" s="139"/>
+      <c r="H485" s="201">
+        <v>42149</v>
+      </c>
+      <c r="I485" s="202">
+        <v>1</v>
+      </c>
+      <c r="J485" s="206">
+        <v>591.76</v>
+      </c>
+      <c r="K485" s="203">
+        <v>1309</v>
+      </c>
+      <c r="L485" s="139"/>
+      <c r="M485" s="139"/>
+      <c r="N485" s="139"/>
+      <c r="O485" s="139"/>
+      <c r="P485" s="139"/>
+      <c r="Q485" s="139"/>
+      <c r="R485" s="139"/>
+      <c r="S485" s="139"/>
+      <c r="T485" s="139"/>
+      <c r="U485" s="139"/>
+      <c r="V485" s="139"/>
+    </row>
+    <row r="486" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A486" s="188"/>
+      <c r="B486" s="189"/>
+      <c r="C486" s="139"/>
+      <c r="D486" s="139" t="s">
+        <v>164</v>
+      </c>
+      <c r="E486" s="188" t="s">
+        <v>166</v>
+      </c>
+      <c r="F486" s="205">
+        <f>(F484+F483+F476)*1.21</f>
+        <v>1.2580007</v>
+      </c>
+      <c r="G486" s="139" t="s">
+        <v>165</v>
+      </c>
+      <c r="H486" s="201">
+        <v>42142</v>
+      </c>
+      <c r="I486" s="202">
+        <v>1</v>
+      </c>
+      <c r="J486" s="206">
+        <v>594.24</v>
+      </c>
+      <c r="K486" s="203">
+        <v>1312</v>
+      </c>
+      <c r="L486" s="139"/>
+      <c r="M486" s="139"/>
+      <c r="N486" s="139"/>
+      <c r="O486" s="139"/>
+      <c r="P486" s="139"/>
+      <c r="Q486" s="139"/>
+      <c r="R486" s="139"/>
+      <c r="S486" s="139"/>
+      <c r="T486" s="139"/>
+      <c r="U486" s="139"/>
+      <c r="V486" s="139"/>
+    </row>
+    <row r="487" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A487" s="188"/>
+      <c r="B487" s="189"/>
+      <c r="C487" s="139"/>
+      <c r="D487" s="139"/>
+      <c r="E487" s="139"/>
+      <c r="F487" s="139"/>
+      <c r="G487" s="139"/>
+      <c r="H487" s="201">
+        <v>42135</v>
+      </c>
+      <c r="I487" s="202">
+        <v>1</v>
+      </c>
+      <c r="J487" s="206">
+        <v>595.05999999999995</v>
+      </c>
+      <c r="K487" s="203">
+        <v>1313</v>
+      </c>
+      <c r="L487" s="139"/>
+      <c r="M487" s="139"/>
+      <c r="N487" s="139"/>
+      <c r="O487" s="139"/>
+      <c r="P487" s="139"/>
+      <c r="Q487" s="139"/>
+      <c r="R487" s="139"/>
+      <c r="S487" s="139"/>
+      <c r="T487" s="139"/>
+      <c r="U487" s="139"/>
+      <c r="V487" s="139"/>
+    </row>
+    <row r="488" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A488" s="188"/>
+      <c r="B488" s="189"/>
+      <c r="C488" s="139"/>
+      <c r="D488" s="139"/>
+      <c r="E488" s="139"/>
+      <c r="F488" s="139"/>
+      <c r="G488" s="139"/>
+      <c r="H488" s="201">
+        <v>42128</v>
+      </c>
+      <c r="I488" s="202">
+        <v>1</v>
+      </c>
+      <c r="J488" s="206">
+        <v>590.11</v>
+      </c>
+      <c r="K488" s="203">
+        <v>1307</v>
+      </c>
+      <c r="L488" s="139"/>
+      <c r="M488" s="139"/>
+      <c r="N488" s="139"/>
+      <c r="O488" s="139"/>
+      <c r="P488" s="139"/>
+      <c r="Q488" s="139"/>
+      <c r="R488" s="139"/>
+      <c r="S488" s="139"/>
+      <c r="T488" s="139"/>
+      <c r="U488" s="139"/>
+      <c r="V488" s="139"/>
+    </row>
+    <row r="489" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A489" s="188"/>
+      <c r="B489" s="189"/>
+      <c r="C489" s="139"/>
+      <c r="D489" s="139"/>
+      <c r="E489" s="139"/>
+      <c r="F489" s="139"/>
+      <c r="G489" s="139"/>
+      <c r="H489" s="201">
+        <v>42121</v>
+      </c>
+      <c r="I489" s="202">
+        <v>1</v>
+      </c>
+      <c r="J489" s="206">
+        <v>591.76</v>
+      </c>
+      <c r="K489" s="203">
+        <v>1309</v>
+      </c>
+      <c r="L489" s="139"/>
+      <c r="M489" s="139"/>
+      <c r="N489" s="139"/>
+      <c r="O489" s="139"/>
+      <c r="P489" s="139"/>
+      <c r="Q489" s="139"/>
+      <c r="R489" s="139"/>
+      <c r="S489" s="139"/>
+      <c r="T489" s="139"/>
+      <c r="U489" s="139"/>
+      <c r="V489" s="139"/>
+    </row>
+    <row r="490" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A490" s="188"/>
+      <c r="B490" s="189"/>
+      <c r="C490" s="139"/>
+      <c r="D490" s="139"/>
+      <c r="E490" s="139"/>
+      <c r="F490" s="139"/>
+      <c r="G490" s="139"/>
+      <c r="H490" s="201">
+        <v>42114</v>
+      </c>
+      <c r="I490" s="202">
+        <v>1</v>
+      </c>
+      <c r="J490" s="206">
+        <v>576.88</v>
+      </c>
+      <c r="K490" s="203">
+        <v>1291</v>
+      </c>
+      <c r="L490" s="139"/>
+      <c r="M490" s="139"/>
+      <c r="N490" s="139"/>
+      <c r="O490" s="139"/>
+      <c r="P490" s="139"/>
+      <c r="Q490" s="139"/>
+      <c r="R490" s="139"/>
+      <c r="S490" s="139"/>
+      <c r="T490" s="139"/>
+      <c r="U490" s="139"/>
+      <c r="V490" s="139"/>
+    </row>
+    <row r="491" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A491" s="188"/>
+      <c r="B491" s="189"/>
+      <c r="C491" s="139"/>
+      <c r="D491" s="139"/>
+      <c r="E491" s="139"/>
+      <c r="F491" s="139"/>
+      <c r="G491" s="139"/>
+      <c r="H491" s="201">
+        <v>42107</v>
+      </c>
+      <c r="I491" s="202">
+        <v>1</v>
+      </c>
+      <c r="J491" s="206">
+        <v>553.74</v>
+      </c>
+      <c r="K491" s="203">
+        <v>1263</v>
+      </c>
+      <c r="L491" s="139"/>
+      <c r="M491" s="139"/>
+      <c r="N491" s="139"/>
+      <c r="O491" s="139"/>
+      <c r="P491" s="139"/>
+      <c r="Q491" s="139"/>
+      <c r="R491" s="139"/>
+      <c r="S491" s="139"/>
+      <c r="T491" s="139"/>
+      <c r="U491" s="139"/>
+      <c r="V491" s="139"/>
+    </row>
+    <row r="492" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A492" s="188"/>
+      <c r="B492" s="189"/>
+      <c r="C492" s="139"/>
+      <c r="D492" s="139"/>
+      <c r="E492" s="139"/>
+      <c r="F492" s="139"/>
+      <c r="G492" s="139"/>
+      <c r="H492" s="201">
+        <v>42093</v>
+      </c>
+      <c r="I492" s="202">
+        <v>1</v>
+      </c>
+      <c r="J492" s="206">
+        <v>566.14</v>
+      </c>
+      <c r="K492" s="203">
+        <v>1278</v>
+      </c>
+      <c r="L492" s="139"/>
+      <c r="M492" s="139"/>
+      <c r="N492" s="139"/>
+      <c r="O492" s="139"/>
+      <c r="P492" s="139"/>
+      <c r="Q492" s="139"/>
+      <c r="R492" s="139"/>
+      <c r="S492" s="139"/>
+      <c r="T492" s="139"/>
+      <c r="U492" s="139"/>
+      <c r="V492" s="139"/>
+    </row>
+    <row r="493" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A493" s="188"/>
+      <c r="B493" s="189"/>
+      <c r="C493" s="139"/>
+      <c r="D493" s="139"/>
+      <c r="E493" s="139"/>
+      <c r="F493" s="139"/>
+      <c r="G493" s="139"/>
+      <c r="H493" s="201">
+        <v>42086</v>
+      </c>
+      <c r="I493" s="202">
+        <v>1</v>
+      </c>
+      <c r="J493" s="206">
+        <v>567.79</v>
+      </c>
+      <c r="K493" s="203">
+        <v>1280</v>
+      </c>
+      <c r="L493" s="139"/>
+      <c r="M493" s="139"/>
+      <c r="N493" s="139"/>
+      <c r="O493" s="139"/>
+      <c r="P493" s="139"/>
+      <c r="Q493" s="139"/>
+      <c r="R493" s="139"/>
+      <c r="S493" s="139"/>
+      <c r="T493" s="139"/>
+      <c r="U493" s="139"/>
+      <c r="V493" s="139"/>
+    </row>
+    <row r="494" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A494" s="188"/>
+      <c r="B494" s="189"/>
+      <c r="C494" s="188"/>
+      <c r="D494" s="188"/>
+      <c r="E494" s="188"/>
+      <c r="F494" s="139"/>
+      <c r="G494" s="139"/>
+      <c r="H494" s="201">
+        <v>42079</v>
+      </c>
+      <c r="I494" s="202">
+        <v>1</v>
+      </c>
+      <c r="J494" s="206">
+        <v>578.54</v>
+      </c>
+      <c r="K494" s="203">
+        <v>1293</v>
+      </c>
+      <c r="L494" s="188"/>
+      <c r="M494" s="188"/>
+      <c r="N494" s="188"/>
+      <c r="O494" s="188"/>
+      <c r="P494" s="188"/>
+      <c r="Q494" s="188"/>
+      <c r="R494" s="188"/>
+      <c r="S494" s="188"/>
+      <c r="T494" s="188"/>
+      <c r="U494" s="188"/>
+      <c r="V494" s="188"/>
+    </row>
+    <row r="495" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A495" s="188"/>
+      <c r="B495" s="189"/>
+      <c r="C495" s="188"/>
+      <c r="D495" s="188"/>
+      <c r="E495" s="188"/>
+      <c r="F495" s="139"/>
+      <c r="G495" s="139"/>
+      <c r="H495" s="201">
+        <v>42072</v>
+      </c>
+      <c r="I495" s="202">
+        <v>1</v>
+      </c>
+      <c r="J495" s="206">
+        <v>579.36</v>
+      </c>
+      <c r="K495" s="203">
+        <v>1294</v>
+      </c>
+      <c r="L495" s="188"/>
+      <c r="M495" s="188"/>
+      <c r="N495" s="188"/>
+      <c r="O495" s="188"/>
+      <c r="P495" s="188"/>
+      <c r="Q495" s="188"/>
+      <c r="R495" s="188"/>
+      <c r="S495" s="188"/>
+      <c r="T495" s="188"/>
+      <c r="U495" s="188"/>
+      <c r="V495" s="188"/>
+    </row>
+    <row r="496" spans="1:22" s="187" customFormat="1" ht="16">
+      <c r="A496" s="188"/>
+      <c r="B496" s="189"/>
+      <c r="C496" s="188"/>
+      <c r="D496" s="188"/>
+      <c r="E496" s="188"/>
+      <c r="F496" s="139"/>
+      <c r="G496" s="139"/>
+      <c r="H496" s="201">
+        <v>42065</v>
+      </c>
+      <c r="I496" s="202">
+        <v>1</v>
+      </c>
+      <c r="J496" s="206">
+        <v>578.54</v>
+      </c>
+      <c r="K496" s="203">
+        <v>1293</v>
+      </c>
+      <c r="L496" s="188"/>
+      <c r="M496" s="188"/>
+      <c r="N496" s="188"/>
+      <c r="O496" s="188"/>
+      <c r="P496" s="188"/>
+      <c r="Q496" s="188"/>
+      <c r="R496" s="188"/>
+      <c r="S496" s="188"/>
+      <c r="T496" s="188"/>
+      <c r="U496" s="188"/>
+      <c r="V496" s="188"/>
+    </row>
+    <row r="497" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A497" s="188"/>
+      <c r="B497" s="189"/>
+      <c r="C497" s="188"/>
+      <c r="D497" s="188"/>
+      <c r="E497" s="188"/>
+      <c r="F497" s="139"/>
+      <c r="G497" s="139"/>
+      <c r="H497" s="201">
+        <v>42058</v>
+      </c>
+      <c r="I497" s="202">
+        <v>1</v>
+      </c>
+      <c r="J497" s="206">
+        <v>569.44000000000005</v>
+      </c>
+      <c r="K497" s="203">
+        <v>1282</v>
+      </c>
+      <c r="L497" s="188"/>
+      <c r="M497" s="188"/>
+      <c r="N497" s="188"/>
+      <c r="O497" s="188"/>
+      <c r="P497" s="188"/>
+      <c r="Q497" s="188"/>
+      <c r="R497" s="188"/>
+      <c r="S497" s="188"/>
+      <c r="T497" s="188"/>
+      <c r="U497" s="188"/>
+      <c r="V497" s="188"/>
+    </row>
+    <row r="498" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A498" s="188"/>
+      <c r="B498" s="189"/>
+      <c r="C498" s="188"/>
+      <c r="D498" s="188"/>
+      <c r="E498" s="188"/>
+      <c r="F498" s="139"/>
+      <c r="G498" s="139"/>
+      <c r="H498" s="201">
+        <v>42051</v>
+      </c>
+      <c r="I498" s="202">
+        <v>1</v>
+      </c>
+      <c r="J498" s="206">
+        <v>560.35</v>
+      </c>
+      <c r="K498" s="203">
+        <v>1271</v>
+      </c>
+      <c r="L498" s="188"/>
+      <c r="M498" s="188"/>
+      <c r="N498" s="188"/>
+      <c r="O498" s="188"/>
+      <c r="P498" s="188"/>
+      <c r="Q498" s="188"/>
+      <c r="R498" s="188"/>
+      <c r="S498" s="188"/>
+      <c r="T498" s="188"/>
+      <c r="U498" s="188"/>
+      <c r="V498" s="188"/>
+    </row>
+    <row r="499" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A499" s="188"/>
+      <c r="B499" s="189"/>
+      <c r="C499" s="188"/>
+      <c r="D499" s="188"/>
+      <c r="E499" s="188"/>
+      <c r="F499" s="139"/>
+      <c r="G499" s="139"/>
+      <c r="H499" s="201">
+        <v>42044</v>
+      </c>
+      <c r="I499" s="202">
+        <v>1</v>
+      </c>
+      <c r="J499" s="206">
+        <v>525.64</v>
+      </c>
+      <c r="K499" s="203">
+        <v>1229</v>
+      </c>
+      <c r="L499" s="188"/>
+      <c r="M499" s="188"/>
+      <c r="N499" s="188"/>
+      <c r="O499" s="188"/>
+      <c r="P499" s="188"/>
+      <c r="Q499" s="188"/>
+      <c r="R499" s="188"/>
+      <c r="S499" s="188"/>
+      <c r="T499" s="188"/>
+      <c r="U499" s="188"/>
+      <c r="V499" s="188"/>
+    </row>
+    <row r="500" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A500" s="188"/>
+      <c r="B500" s="189"/>
+      <c r="C500" s="188"/>
+      <c r="D500" s="188"/>
+      <c r="E500" s="188"/>
+      <c r="F500" s="139"/>
+      <c r="G500" s="139"/>
+      <c r="H500" s="201">
+        <v>42037</v>
+      </c>
+      <c r="I500" s="202">
+        <v>1</v>
+      </c>
+      <c r="J500" s="206">
+        <v>496.72</v>
+      </c>
+      <c r="K500" s="203">
+        <v>1194</v>
+      </c>
+      <c r="L500" s="188"/>
+      <c r="M500" s="188"/>
+      <c r="N500" s="188"/>
+      <c r="O500" s="188"/>
+      <c r="P500" s="188"/>
+      <c r="Q500" s="188"/>
+      <c r="R500" s="188"/>
+      <c r="S500" s="188"/>
+      <c r="T500" s="188"/>
+      <c r="U500" s="188"/>
+      <c r="V500" s="188"/>
+    </row>
+    <row r="501" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A501" s="188"/>
+      <c r="B501" s="189"/>
+      <c r="C501" s="188"/>
+      <c r="D501" s="188"/>
+      <c r="E501" s="188"/>
+      <c r="F501" s="139"/>
+      <c r="G501" s="139"/>
+      <c r="H501" s="201">
+        <v>42030</v>
+      </c>
+      <c r="I501" s="202">
+        <v>1</v>
+      </c>
+      <c r="J501" s="206">
+        <v>490.93</v>
+      </c>
+      <c r="K501" s="203">
+        <v>1187</v>
+      </c>
+      <c r="L501" s="188"/>
+      <c r="M501" s="188"/>
+      <c r="N501" s="188"/>
+      <c r="O501" s="188"/>
+      <c r="P501" s="188"/>
+      <c r="Q501" s="188"/>
+      <c r="R501" s="188"/>
+      <c r="S501" s="188"/>
+      <c r="T501" s="188"/>
+      <c r="U501" s="188"/>
+      <c r="V501" s="188"/>
+    </row>
+    <row r="502" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A502" s="188"/>
+      <c r="B502" s="189"/>
+      <c r="C502" s="188"/>
+      <c r="D502" s="188"/>
+      <c r="E502" s="188"/>
+      <c r="F502" s="139"/>
+      <c r="G502" s="139"/>
+      <c r="H502" s="201">
+        <v>42023</v>
+      </c>
+      <c r="I502" s="202">
+        <v>1</v>
+      </c>
+      <c r="J502" s="206">
+        <v>490.93</v>
+      </c>
+      <c r="K502" s="203">
+        <v>1187</v>
+      </c>
+      <c r="L502" s="188"/>
+      <c r="M502" s="188"/>
+      <c r="N502" s="188"/>
+      <c r="O502" s="188"/>
+      <c r="P502" s="188"/>
+      <c r="Q502" s="188"/>
+      <c r="R502" s="188"/>
+      <c r="S502" s="188"/>
+      <c r="T502" s="188"/>
+      <c r="U502" s="188"/>
+      <c r="V502" s="188"/>
+    </row>
+    <row r="503" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A503" s="188"/>
+      <c r="B503" s="189"/>
+      <c r="C503" s="188"/>
+      <c r="D503" s="188"/>
+      <c r="E503" s="188"/>
+      <c r="F503" s="139"/>
+      <c r="G503" s="139"/>
+      <c r="H503" s="201">
+        <v>42016</v>
+      </c>
+      <c r="I503" s="202">
+        <v>1</v>
+      </c>
+      <c r="J503" s="206">
+        <v>502.5</v>
+      </c>
+      <c r="K503" s="203">
+        <v>1201</v>
+      </c>
+      <c r="L503" s="188"/>
+      <c r="M503" s="188"/>
+      <c r="N503" s="188"/>
+      <c r="O503" s="188"/>
+      <c r="P503" s="188"/>
+      <c r="Q503" s="188"/>
+      <c r="R503" s="188"/>
+      <c r="S503" s="188"/>
+      <c r="T503" s="188"/>
+      <c r="U503" s="188"/>
+      <c r="V503" s="188"/>
+    </row>
+    <row r="504" spans="1:25" s="187" customFormat="1" ht="16">
+      <c r="A504" s="188"/>
+      <c r="B504" s="189"/>
+      <c r="C504" s="188"/>
+      <c r="D504" s="188"/>
+      <c r="E504" s="188"/>
+      <c r="F504" s="139"/>
+      <c r="G504" s="139"/>
+      <c r="H504" s="201">
+        <v>42009</v>
+      </c>
+      <c r="I504" s="202">
+        <v>1</v>
+      </c>
+      <c r="J504" s="206">
+        <v>508.29</v>
+      </c>
+      <c r="K504" s="203">
+        <v>1208</v>
+      </c>
+      <c r="L504" s="188"/>
+      <c r="M504" s="188"/>
+      <c r="N504" s="188"/>
+      <c r="O504" s="188"/>
+      <c r="P504" s="188"/>
+      <c r="Q504" s="188"/>
+      <c r="R504" s="188"/>
+      <c r="S504" s="188"/>
+      <c r="T504" s="188"/>
+      <c r="U504" s="188"/>
+      <c r="V504" s="188"/>
+    </row>
+    <row r="505" spans="1:25" s="187" customFormat="1">
+      <c r="B505" s="189"/>
+    </row>
+    <row r="506" spans="1:25" s="187" customFormat="1">
+      <c r="B506" s="189"/>
+    </row>
+    <row r="507" spans="1:25" s="187" customFormat="1" ht="16" thickBot="1">
+      <c r="B507" s="189"/>
+    </row>
+    <row r="508" spans="1:25" s="26" customFormat="1">
+      <c r="B508" s="129"/>
+      <c r="C508" s="129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D508" s="129" t="s">
+        <v>65</v>
+      </c>
+      <c r="E508" s="129"/>
+      <c r="F508" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="G508" s="129"/>
+      <c r="H508" s="129"/>
+      <c r="I508" s="129"/>
+      <c r="J508" s="129"/>
+      <c r="K508" s="129"/>
+      <c r="L508" s="129"/>
+      <c r="M508" s="129"/>
+      <c r="N508" s="129"/>
+      <c r="O508" s="129"/>
+      <c r="P508" s="129"/>
+      <c r="Q508" s="129"/>
+      <c r="R508" s="129"/>
+      <c r="S508" s="129"/>
+      <c r="T508" s="129"/>
+      <c r="U508" s="129"/>
+    </row>
+    <row r="509" spans="1:25" customFormat="1" ht="16">
+      <c r="B509" s="207"/>
+      <c r="C509" s="144"/>
+      <c r="D509" s="139"/>
+      <c r="E509" s="139"/>
+      <c r="F509" s="139"/>
+      <c r="G509" s="139"/>
+      <c r="H509" s="139"/>
+      <c r="I509" s="139"/>
+      <c r="J509" s="139"/>
+      <c r="K509" s="139"/>
+      <c r="L509" s="139"/>
+      <c r="M509" s="139"/>
+      <c r="N509" s="139"/>
+      <c r="O509" s="139"/>
+      <c r="P509" s="139"/>
+      <c r="Q509" s="139"/>
+      <c r="R509" s="139"/>
+      <c r="S509" s="139"/>
+      <c r="T509" s="139"/>
+      <c r="U509" s="139"/>
+      <c r="V509" s="139"/>
+      <c r="W509" s="139"/>
+      <c r="X509" s="139"/>
+      <c r="Y509" s="139"/>
+    </row>
+    <row r="510" spans="1:25" customFormat="1" ht="16">
+      <c r="B510" s="207"/>
+      <c r="C510" s="187" t="s">
+        <v>171</v>
+      </c>
+      <c r="D510" s="139"/>
+      <c r="E510" s="139"/>
+      <c r="F510" s="139"/>
+      <c r="G510" s="139"/>
+      <c r="H510" s="139"/>
+      <c r="I510" s="139"/>
+      <c r="J510" s="139"/>
+      <c r="K510" s="139"/>
+      <c r="L510" s="139"/>
+      <c r="M510" s="139"/>
+      <c r="N510" s="139"/>
+      <c r="O510" s="139"/>
+      <c r="P510" s="139"/>
+      <c r="Q510" s="139"/>
+      <c r="R510" s="139"/>
+      <c r="S510" s="139"/>
+      <c r="T510" s="139"/>
+      <c r="U510" s="139"/>
+      <c r="V510" s="139"/>
+      <c r="W510" s="139"/>
+      <c r="X510" s="139"/>
+      <c r="Y510" s="139"/>
+    </row>
+    <row r="511" spans="1:25" s="187" customFormat="1">
+      <c r="B511" s="207"/>
+    </row>
+    <row r="512" spans="1:25" s="187" customFormat="1">
+      <c r="B512" s="207"/>
+    </row>
+    <row r="513" spans="2:8" s="187" customFormat="1">
+      <c r="B513" s="207"/>
+      <c r="D513" s="187" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="514" spans="2:8" s="187" customFormat="1">
+      <c r="B514" s="207"/>
+      <c r="D514" s="187" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="515" spans="2:8" s="187" customFormat="1">
+      <c r="B515" s="207"/>
+    </row>
+    <row r="516" spans="2:8" s="187" customFormat="1">
+      <c r="B516" s="207"/>
+      <c r="F516" s="187">
+        <v>0.5</v>
+      </c>
+      <c r="G516" s="187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H516" s="187" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="517" spans="2:8" s="187" customFormat="1">
+      <c r="B517" s="207"/>
+      <c r="F517" s="208">
+        <f>F479</f>
+        <v>1.258</v>
+      </c>
+      <c r="G517" s="187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H517" s="187" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="518" spans="2:8" s="187" customFormat="1">
+      <c r="B518" s="207"/>
+      <c r="F518" s="208">
+        <f>F516+F517</f>
+        <v>1.758</v>
+      </c>
+      <c r="G518" s="187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H518" s="187" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="519" spans="2:8" s="187" customFormat="1">
+      <c r="B519" s="207"/>
+    </row>
+    <row r="520" spans="2:8" s="187" customFormat="1">
+      <c r="B520" s="207"/>
+      <c r="F520" s="187">
+        <f>F483</f>
+        <v>0.48205999999999999</v>
+      </c>
+      <c r="G520" s="187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H520" s="187" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8" s="187" customFormat="1">
+      <c r="B521" s="207"/>
+      <c r="F521" s="208">
+        <f>F484</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G521" s="187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H521" s="187" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8" s="187" customFormat="1">
+      <c r="B522" s="207"/>
+      <c r="F522" s="187">
+        <f>F482</f>
+        <v>21</v>
+      </c>
+      <c r="G522" s="187" t="s">
+        <v>161</v>
+      </c>
+      <c r="H522" s="187" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8" s="187" customFormat="1">
+      <c r="B523" s="207"/>
+    </row>
+    <row r="524" spans="2:8" s="187" customFormat="1">
+      <c r="B524" s="207"/>
+    </row>
+    <row r="525" spans="2:8" s="187" customFormat="1">
+      <c r="B525" s="207"/>
+    </row>
+    <row r="526" spans="2:8" s="187" customFormat="1">
+      <c r="B526" s="207"/>
+    </row>
+    <row r="527" spans="2:8" s="187" customFormat="1">
+      <c r="B527" s="207"/>
+      <c r="F527" s="209">
+        <f>F518/1.21-F521-F520</f>
+        <v>0.96283256198347122</v>
+      </c>
+      <c r="G527" s="187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H527" s="187" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="528" spans="2:8" s="187" customFormat="1">
+      <c r="B528" s="207"/>
+      <c r="F528" s="210">
+        <f>F527/F11</f>
+        <v>2.9081568260948144E-2</v>
+      </c>
+      <c r="G528" s="187" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="529" spans="2:2" s="187" customFormat="1">
+      <c r="B529" s="207"/>
+    </row>
+    <row r="530" spans="2:2" s="187" customFormat="1">
+      <c r="B530" s="207"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C281" r:id="rId1"/>
+    <hyperlink ref="C470" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
@@ -17,7 +17,6 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="182">
   <si>
     <t>Source</t>
   </si>
@@ -569,9 +568,6 @@
     <t>diesel</t>
   </si>
   <si>
-    <t>Gas oil automobileAutomotive gas oilDieselkraftstoff(I)</t>
-  </si>
-  <si>
     <t>Excise rate</t>
   </si>
   <si>
@@ -609,6 +605,12 @@
   </si>
   <si>
     <t>EC Oil Bulletin and biotanken.nl</t>
+  </si>
+  <si>
+    <t>Gas oil automobileAutomotive gas oilDieselkraftstoff(I) excl tax</t>
+  </si>
+  <si>
+    <t>Gas oil automobileAutomotive gas oilDieselkraftstoff(I) incl tax</t>
   </si>
 </sst>
 </file>
@@ -918,16 +920,18 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FF800000"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,14 +1040,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1440,21 +1438,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1796,7 +1779,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2065,6 +2048,48 @@
     <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="38" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="40" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2101,63 +2126,30 @@
     <xf numFmtId="0" fontId="36" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="38" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="46" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="45" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="19" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="172" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="44" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="44" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="335">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3448,26 +3440,6 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
@@ -4012,9 +3984,7 @@
   </sheetPr>
   <dimension ref="B1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4038,28 +4008,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="196" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="182"/>
+      <c r="B4" s="202"/>
+      <c r="C4" s="203"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="204"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4154,13 +4124,13 @@
       </c>
       <c r="E11" s="173">
         <f>'Research data'!G7</f>
-        <v>2.9081568260948144E-2</v>
+        <v>2.3759641623656909E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="212" t="s">
-        <v>180</v>
+      <c r="I11" s="195" t="s">
+        <v>179</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -4252,7 +4222,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -4315,30 +4285,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="196" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="176"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="177"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="179"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="201"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="183" t="s">
+      <c r="B4" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="185"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="207"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4850,7 +4820,7 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P3" s="69"/>
       <c r="Q3" s="1" t="s">
@@ -4938,7 +4908,7 @@
       </c>
       <c r="G7" s="172">
         <f>O7</f>
-        <v>2.9081568260948144E-2</v>
+        <v>2.3759641623656909E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -4949,11 +4919,11 @@
       <c r="N7" s="18"/>
       <c r="O7" s="171">
         <f>Notes!F528</f>
-        <v>2.9081568260948144E-2</v>
+        <v>2.3759641623656909E-2</v>
       </c>
       <c r="P7" s="16"/>
-      <c r="Q7" s="211" t="s">
-        <v>179</v>
+      <c r="Q7" s="194" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
@@ -5893,7 +5863,7 @@
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -5902,16 +5872,16 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F19" s="149"/>
-      <c r="L19" s="190" t="s">
+      <c r="L19" s="178" t="s">
         <v>151</v>
       </c>
     </row>
@@ -5950,8 +5920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y530"/>
   <sheetViews>
-    <sheetView topLeftCell="A484" workbookViewId="0">
-      <selection activeCell="C470" sqref="C470"/>
+    <sheetView topLeftCell="A485" workbookViewId="0">
+      <selection activeCell="K475" sqref="K475:K504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11932,42 +11902,42 @@
       </c>
     </row>
     <row r="466" spans="1:25" ht="16" thickBot="1"/>
-    <row r="467" spans="1:25" s="187" customFormat="1">
+    <row r="467" spans="1:25" s="175" customFormat="1">
       <c r="A467" s="159"/>
-      <c r="B467" s="186"/>
-      <c r="C467" s="186" t="s">
+      <c r="B467" s="174"/>
+      <c r="C467" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="D467" s="186" t="s">
+      <c r="D467" s="174" t="s">
         <v>65</v>
       </c>
-      <c r="E467" s="186"/>
-      <c r="F467" s="186" t="s">
+      <c r="E467" s="174"/>
+      <c r="F467" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="G467" s="186"/>
-      <c r="H467" s="186"/>
-      <c r="I467" s="186"/>
-      <c r="J467" s="186"/>
-      <c r="K467" s="186"/>
-      <c r="L467" s="186"/>
-      <c r="M467" s="186"/>
-      <c r="N467" s="186"/>
-      <c r="O467" s="186"/>
-      <c r="P467" s="186"/>
-      <c r="Q467" s="186"/>
-      <c r="R467" s="186"/>
-      <c r="S467" s="186"/>
-      <c r="T467" s="186"/>
-      <c r="U467" s="186"/>
+      <c r="G467" s="174"/>
+      <c r="H467" s="174"/>
+      <c r="I467" s="174"/>
+      <c r="J467" s="174"/>
+      <c r="K467" s="174"/>
+      <c r="L467" s="174"/>
+      <c r="M467" s="174"/>
+      <c r="N467" s="174"/>
+      <c r="O467" s="174"/>
+      <c r="P467" s="174"/>
+      <c r="Q467" s="174"/>
+      <c r="R467" s="174"/>
+      <c r="S467" s="174"/>
+      <c r="T467" s="174"/>
+      <c r="U467" s="174"/>
       <c r="V467" s="159"/>
       <c r="W467" s="159"/>
       <c r="X467" s="159"/>
       <c r="Y467" s="159"/>
     </row>
-    <row r="468" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A468" s="188"/>
-      <c r="B468" s="189"/>
+    <row r="468" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A468" s="176"/>
+      <c r="B468" s="177"/>
       <c r="C468" s="139"/>
       <c r="D468" s="139"/>
       <c r="E468" s="139"/>
@@ -11992,9 +11962,9 @@
       <c r="X468" s="139"/>
       <c r="Y468" s="139"/>
     </row>
-    <row r="469" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A469" s="188"/>
-      <c r="B469" s="189"/>
+    <row r="469" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A469" s="176"/>
+      <c r="B469" s="177"/>
       <c r="C469" s="159" t="s">
         <v>150</v>
       </c>
@@ -12021,10 +11991,10 @@
       <c r="X469" s="139"/>
       <c r="Y469" s="139"/>
     </row>
-    <row r="470" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A470" s="188"/>
-      <c r="B470" s="189"/>
-      <c r="C470" s="190" t="s">
+    <row r="470" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A470" s="176"/>
+      <c r="B470" s="177"/>
+      <c r="C470" s="178" t="s">
         <v>151</v>
       </c>
       <c r="D470" s="139"/>
@@ -12050,11 +12020,11 @@
       <c r="X470" s="139"/>
       <c r="Y470" s="139"/>
     </row>
-    <row r="471" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A471" s="188"/>
-      <c r="B471" s="189"/>
+    <row r="471" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A471" s="176"/>
+      <c r="B471" s="177"/>
       <c r="C471" s="139"/>
-      <c r="D471" s="188"/>
+      <c r="D471" s="176"/>
       <c r="E471" s="139"/>
       <c r="F471" s="139"/>
       <c r="G471" s="139"/>
@@ -12077,9 +12047,9 @@
       <c r="X471" s="139"/>
       <c r="Y471" s="139"/>
     </row>
-    <row r="472" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A472" s="188"/>
-      <c r="B472" s="189"/>
+    <row r="472" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A472" s="176"/>
+      <c r="B472" s="177"/>
       <c r="C472" s="139"/>
       <c r="D472" s="139" t="s">
         <v>152</v>
@@ -12106,27 +12076,27 @@
       <c r="X472" s="139"/>
       <c r="Y472" s="139"/>
     </row>
-    <row r="473" spans="1:25" s="187" customFormat="1" ht="50">
-      <c r="A473" s="188"/>
-      <c r="B473" s="189"/>
+    <row r="473" spans="1:25" s="175" customFormat="1" ht="50">
+      <c r="A473" s="176"/>
+      <c r="B473" s="177"/>
       <c r="C473" s="139"/>
-      <c r="D473" s="191" t="s">
+      <c r="D473" s="179" t="s">
         <v>3</v>
       </c>
-      <c r="E473" s="188"/>
+      <c r="E473" s="176"/>
       <c r="F473" s="139"/>
       <c r="G473" s="139"/>
-      <c r="H473" s="192" t="s">
+      <c r="H473" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="I473" s="193" t="s">
+      <c r="I473" s="209" t="s">
         <v>154</v>
       </c>
-      <c r="J473" s="194" t="s">
-        <v>167</v>
-      </c>
-      <c r="K473" s="195" t="s">
-        <v>167</v>
+      <c r="J473" s="180" t="s">
+        <v>180</v>
+      </c>
+      <c r="K473" s="181" t="s">
+        <v>181</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12140,22 +12110,22 @@
       <c r="U473" s="139"/>
       <c r="V473" s="139"/>
     </row>
-    <row r="474" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
-      <c r="A474" s="188"/>
-      <c r="B474" s="189"/>
+    <row r="474" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+      <c r="A474" s="176"/>
+      <c r="B474" s="177"/>
       <c r="C474" s="139"/>
       <c r="D474" s="139" t="s">
         <v>155</v>
       </c>
-      <c r="E474" s="188"/>
+      <c r="E474" s="176"/>
       <c r="F474" s="139"/>
       <c r="G474" s="139"/>
-      <c r="H474" s="196"/>
-      <c r="I474" s="197"/>
-      <c r="J474" s="198" t="s">
+      <c r="H474" s="182"/>
+      <c r="I474" s="183"/>
+      <c r="J474" s="184" t="s">
         <v>156</v>
       </c>
-      <c r="K474" s="199" t="s">
+      <c r="K474" s="185" t="s">
         <v>156</v>
       </c>
       <c r="L474" s="139"/>
@@ -12170,32 +12140,32 @@
       <c r="U474" s="139"/>
       <c r="V474" s="139"/>
     </row>
-    <row r="475" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
-      <c r="A475" s="188"/>
-      <c r="B475" s="189"/>
+    <row r="475" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+      <c r="A475" s="176"/>
+      <c r="B475" s="177"/>
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
-      <c r="E475" s="188" t="s">
+      <c r="E475" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F475" s="200">
+      <c r="F475" s="186">
         <f>AVERAGE(J475:J479)</f>
-        <v>549.61</v>
+        <v>371.00199999999995</v>
       </c>
       <c r="G475" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="H475" s="201">
-        <v>42219</v>
-      </c>
-      <c r="I475" s="202">
+      <c r="H475" s="187">
+        <v>42408</v>
+      </c>
+      <c r="I475" s="210">
         <v>1</v>
       </c>
-      <c r="J475" s="206">
-        <v>518.20000000000005</v>
-      </c>
-      <c r="K475" s="203">
-        <v>1220</v>
+      <c r="J475" s="211">
+        <v>371.99</v>
+      </c>
+      <c r="K475" s="213">
+        <v>1046</v>
       </c>
       <c r="L475" s="139"/>
       <c r="M475" s="139"/>
@@ -12209,32 +12179,32 @@
       <c r="U475" s="139"/>
       <c r="V475" s="139"/>
     </row>
-    <row r="476" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
-      <c r="A476" s="188"/>
-      <c r="B476" s="189"/>
+    <row r="476" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+      <c r="A476" s="176"/>
+      <c r="B476" s="177"/>
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
-      <c r="E476" s="188" t="s">
+      <c r="E476" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F476" s="204">
+      <c r="F476" s="188">
         <f>F475/1000</f>
-        <v>0.54961000000000004</v>
+        <v>0.37100199999999994</v>
       </c>
       <c r="G476" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="H476" s="201">
-        <v>42212</v>
-      </c>
-      <c r="I476" s="202">
+      <c r="H476" s="187">
+        <v>42401</v>
+      </c>
+      <c r="I476" s="210">
         <v>1</v>
       </c>
-      <c r="J476" s="206">
-        <v>533.91</v>
-      </c>
-      <c r="K476" s="203">
-        <v>1239</v>
+      <c r="J476" s="212">
+        <v>362.08</v>
+      </c>
+      <c r="K476" s="214">
+        <v>1034</v>
       </c>
       <c r="L476" s="139"/>
       <c r="M476" s="139"/>
@@ -12248,25 +12218,25 @@
       <c r="U476" s="139"/>
       <c r="V476" s="139"/>
     </row>
-    <row r="477" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
-      <c r="A477" s="188"/>
-      <c r="B477" s="189"/>
+    <row r="477" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+      <c r="A477" s="176"/>
+      <c r="B477" s="177"/>
       <c r="C477" s="139"/>
       <c r="D477" s="139"/>
       <c r="E477" s="139"/>
       <c r="F477" s="139"/>
       <c r="G477" s="139"/>
-      <c r="H477" s="201">
-        <v>42205</v>
-      </c>
-      <c r="I477" s="202">
+      <c r="H477" s="187">
+        <v>42394</v>
+      </c>
+      <c r="I477" s="210">
         <v>1</v>
       </c>
-      <c r="J477" s="206">
-        <v>547.13</v>
-      </c>
-      <c r="K477" s="203">
-        <v>1255</v>
+      <c r="J477" s="212">
+        <v>355.46</v>
+      </c>
+      <c r="K477" s="214">
+        <v>1026</v>
       </c>
       <c r="L477" s="139"/>
       <c r="M477" s="139"/>
@@ -12280,34 +12250,34 @@
       <c r="U477" s="139"/>
       <c r="V477" s="139"/>
     </row>
-    <row r="478" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
-      <c r="A478" s="188"/>
-      <c r="B478" s="189"/>
+    <row r="478" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+      <c r="A478" s="176"/>
+      <c r="B478" s="177"/>
       <c r="C478" s="139"/>
       <c r="D478" s="139" t="s">
         <v>158</v>
       </c>
-      <c r="E478" s="188" t="s">
+      <c r="E478" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F478" s="200">
+      <c r="F478" s="186">
         <f>AVERAGE(K475:K479)</f>
-        <v>1258</v>
+        <v>1044.8</v>
       </c>
       <c r="G478" s="139" t="s">
         <v>157</v>
       </c>
-      <c r="H478" s="201">
-        <v>42198</v>
-      </c>
-      <c r="I478" s="202">
+      <c r="H478" s="187">
+        <v>42387</v>
+      </c>
+      <c r="I478" s="210">
         <v>1</v>
       </c>
-      <c r="J478" s="206">
-        <v>568.62</v>
-      </c>
-      <c r="K478" s="203">
-        <v>1281</v>
+      <c r="J478" s="212">
+        <v>373.65</v>
+      </c>
+      <c r="K478" s="214">
+        <v>1048</v>
       </c>
       <c r="L478" s="139"/>
       <c r="M478" s="139"/>
@@ -12321,32 +12291,32 @@
       <c r="U478" s="139"/>
       <c r="V478" s="139"/>
     </row>
-    <row r="479" spans="1:25" s="187" customFormat="1" ht="17" thickBot="1">
-      <c r="A479" s="188"/>
-      <c r="B479" s="189"/>
+    <row r="479" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+      <c r="A479" s="176"/>
+      <c r="B479" s="177"/>
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
-      <c r="E479" s="188" t="s">
+      <c r="E479" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F479" s="204">
+      <c r="F479" s="188">
         <f>F478/1000</f>
-        <v>1.258</v>
+        <v>1.0448</v>
       </c>
       <c r="G479" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="H479" s="201">
-        <v>42191</v>
-      </c>
-      <c r="I479" s="202">
+      <c r="H479" s="187">
+        <v>42380</v>
+      </c>
+      <c r="I479" s="210">
         <v>1</v>
       </c>
-      <c r="J479" s="206">
-        <v>580.19000000000005</v>
-      </c>
-      <c r="K479" s="203">
-        <v>1295</v>
+      <c r="J479" s="212">
+        <v>391.83</v>
+      </c>
+      <c r="K479" s="214">
+        <v>1070</v>
       </c>
       <c r="L479" s="139"/>
       <c r="M479" s="139"/>
@@ -12360,25 +12330,25 @@
       <c r="U479" s="139"/>
       <c r="V479" s="139"/>
     </row>
-    <row r="480" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A480" s="188"/>
-      <c r="B480" s="189"/>
+    <row r="480" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A480" s="176"/>
+      <c r="B480" s="177"/>
       <c r="C480" s="139"/>
       <c r="D480" s="139"/>
       <c r="E480" s="139"/>
       <c r="F480" s="139"/>
       <c r="G480" s="139"/>
-      <c r="H480" s="201">
-        <v>42184</v>
-      </c>
-      <c r="I480" s="202">
+      <c r="H480" s="187">
+        <v>42373</v>
+      </c>
+      <c r="I480" s="210">
         <v>1</v>
       </c>
-      <c r="J480" s="206">
-        <v>580.19000000000005</v>
-      </c>
-      <c r="K480" s="203">
-        <v>1295</v>
+      <c r="J480" s="212">
+        <v>391.83</v>
+      </c>
+      <c r="K480" s="214">
+        <v>1070</v>
       </c>
       <c r="L480" s="139"/>
       <c r="M480" s="139"/>
@@ -12392,27 +12362,27 @@
       <c r="U480" s="139"/>
       <c r="V480" s="139"/>
     </row>
-    <row r="481" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A481" s="188"/>
-      <c r="B481" s="189"/>
+    <row r="481" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A481" s="176"/>
+      <c r="B481" s="177"/>
       <c r="C481" s="139"/>
       <c r="D481" s="142" t="s">
         <v>159</v>
       </c>
       <c r="E481" s="139"/>
-      <c r="F481" s="205"/>
+      <c r="F481" s="189"/>
       <c r="G481" s="139"/>
-      <c r="H481" s="201">
-        <v>42177</v>
-      </c>
-      <c r="I481" s="202">
+      <c r="H481" s="187">
+        <v>42352</v>
+      </c>
+      <c r="I481" s="210">
         <v>1</v>
       </c>
-      <c r="J481" s="206">
-        <v>585.15</v>
-      </c>
-      <c r="K481" s="203">
-        <v>1301</v>
+      <c r="J481" s="212">
+        <v>444.65</v>
+      </c>
+      <c r="K481" s="214">
+        <v>1131</v>
       </c>
       <c r="L481" s="139"/>
       <c r="M481" s="139"/>
@@ -12426,14 +12396,14 @@
       <c r="U481" s="139"/>
       <c r="V481" s="139"/>
     </row>
-    <row r="482" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A482" s="188"/>
-      <c r="B482" s="189"/>
+    <row r="482" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A482" s="176"/>
+      <c r="B482" s="177"/>
       <c r="C482" s="139"/>
       <c r="D482" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="E482" s="188" t="s">
+      <c r="E482" s="176" t="s">
         <v>166</v>
       </c>
       <c r="F482" s="139">
@@ -12442,17 +12412,17 @@
       <c r="G482" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="H482" s="201">
-        <v>42170</v>
-      </c>
-      <c r="I482" s="202">
+      <c r="H482" s="187">
+        <v>42345</v>
+      </c>
+      <c r="I482" s="210">
         <v>1</v>
       </c>
-      <c r="J482" s="206">
-        <v>587.63</v>
-      </c>
-      <c r="K482" s="203">
-        <v>1304</v>
+      <c r="J482" s="212">
+        <v>467.79</v>
+      </c>
+      <c r="K482" s="214">
+        <v>1159</v>
       </c>
       <c r="L482" s="139"/>
       <c r="M482" s="139"/>
@@ -12466,14 +12436,14 @@
       <c r="U482" s="139"/>
       <c r="V482" s="139"/>
     </row>
-    <row r="483" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A483" s="188"/>
-      <c r="B483" s="189"/>
+    <row r="483" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A483" s="176"/>
+      <c r="B483" s="177"/>
       <c r="C483" s="139"/>
       <c r="D483" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="E483" s="188" t="s">
+      <c r="E483" s="176" t="s">
         <v>166</v>
       </c>
       <c r="F483" s="139">
@@ -12483,17 +12453,17 @@
       <c r="G483" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="H483" s="201">
-        <v>42163</v>
-      </c>
-      <c r="I483" s="202">
+      <c r="H483" s="187">
+        <v>42338</v>
+      </c>
+      <c r="I483" s="210">
         <v>1</v>
       </c>
-      <c r="J483" s="206">
-        <v>587.63</v>
-      </c>
-      <c r="K483" s="203">
-        <v>1304</v>
+      <c r="J483" s="212">
+        <v>486.8</v>
+      </c>
+      <c r="K483" s="214">
+        <v>1182</v>
       </c>
       <c r="L483" s="139"/>
       <c r="M483" s="139"/>
@@ -12507,34 +12477,34 @@
       <c r="U483" s="139"/>
       <c r="V483" s="139"/>
     </row>
-    <row r="484" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A484" s="188"/>
-      <c r="B484" s="189"/>
+    <row r="484" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A484" s="176"/>
+      <c r="B484" s="177"/>
       <c r="C484" s="139"/>
       <c r="D484" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="E484" s="188" t="s">
+      <c r="E484" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F484" s="205">
+      <c r="F484" s="189">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G484" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="H484" s="201">
-        <v>42156</v>
-      </c>
-      <c r="I484" s="202">
+      <c r="H484" s="187">
+        <v>42331</v>
+      </c>
+      <c r="I484" s="210">
         <v>1</v>
       </c>
-      <c r="J484" s="206">
-        <v>587.63</v>
-      </c>
-      <c r="K484" s="203">
-        <v>1304</v>
+      <c r="J484" s="212">
+        <v>491.76</v>
+      </c>
+      <c r="K484" s="214">
+        <v>1188</v>
       </c>
       <c r="L484" s="139"/>
       <c r="M484" s="139"/>
@@ -12548,25 +12518,25 @@
       <c r="U484" s="139"/>
       <c r="V484" s="139"/>
     </row>
-    <row r="485" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A485" s="188"/>
-      <c r="B485" s="189"/>
+    <row r="485" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A485" s="176"/>
+      <c r="B485" s="177"/>
       <c r="C485" s="139"/>
       <c r="D485" s="139"/>
       <c r="E485" s="139"/>
       <c r="F485" s="139"/>
       <c r="G485" s="139"/>
-      <c r="H485" s="201">
-        <v>42149</v>
-      </c>
-      <c r="I485" s="202">
+      <c r="H485" s="187">
+        <v>42324</v>
+      </c>
+      <c r="I485" s="210">
         <v>1</v>
       </c>
-      <c r="J485" s="206">
-        <v>591.76</v>
-      </c>
-      <c r="K485" s="203">
-        <v>1309</v>
+      <c r="J485" s="212">
+        <v>506.63</v>
+      </c>
+      <c r="K485" s="214">
+        <v>1206</v>
       </c>
       <c r="L485" s="139"/>
       <c r="M485" s="139"/>
@@ -12580,34 +12550,34 @@
       <c r="U485" s="139"/>
       <c r="V485" s="139"/>
     </row>
-    <row r="486" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A486" s="188"/>
-      <c r="B486" s="189"/>
+    <row r="486" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A486" s="176"/>
+      <c r="B486" s="177"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="E486" s="188" t="s">
+      <c r="E486" s="176" t="s">
         <v>166</v>
       </c>
-      <c r="F486" s="205">
+      <c r="F486" s="189">
         <f>(F484+F483+F476)*1.21</f>
-        <v>1.2580007</v>
+        <v>1.0418850200000001</v>
       </c>
       <c r="G486" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="H486" s="201">
-        <v>42142</v>
-      </c>
-      <c r="I486" s="202">
+      <c r="H486" s="187">
+        <v>42317</v>
+      </c>
+      <c r="I486" s="210">
         <v>1</v>
       </c>
-      <c r="J486" s="206">
-        <v>594.24</v>
-      </c>
-      <c r="K486" s="203">
-        <v>1312</v>
+      <c r="J486" s="212">
+        <v>503.33</v>
+      </c>
+      <c r="K486" s="214">
+        <v>1202</v>
       </c>
       <c r="L486" s="139"/>
       <c r="M486" s="139"/>
@@ -12621,25 +12591,25 @@
       <c r="U486" s="139"/>
       <c r="V486" s="139"/>
     </row>
-    <row r="487" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A487" s="188"/>
-      <c r="B487" s="189"/>
+    <row r="487" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A487" s="176"/>
+      <c r="B487" s="177"/>
       <c r="C487" s="139"/>
       <c r="D487" s="139"/>
       <c r="E487" s="139"/>
       <c r="F487" s="139"/>
       <c r="G487" s="139"/>
-      <c r="H487" s="201">
-        <v>42135</v>
-      </c>
-      <c r="I487" s="202">
+      <c r="H487" s="187">
+        <v>42310</v>
+      </c>
+      <c r="I487" s="210">
         <v>1</v>
       </c>
-      <c r="J487" s="206">
-        <v>595.05999999999995</v>
-      </c>
-      <c r="K487" s="203">
-        <v>1313</v>
+      <c r="J487" s="212">
+        <v>481.01</v>
+      </c>
+      <c r="K487" s="214">
+        <v>1175</v>
       </c>
       <c r="L487" s="139"/>
       <c r="M487" s="139"/>
@@ -12653,25 +12623,25 @@
       <c r="U487" s="139"/>
       <c r="V487" s="139"/>
     </row>
-    <row r="488" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A488" s="188"/>
-      <c r="B488" s="189"/>
+    <row r="488" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A488" s="176"/>
+      <c r="B488" s="177"/>
       <c r="C488" s="139"/>
       <c r="D488" s="139"/>
       <c r="E488" s="139"/>
       <c r="F488" s="139"/>
       <c r="G488" s="139"/>
-      <c r="H488" s="201">
-        <v>42128</v>
-      </c>
-      <c r="I488" s="202">
+      <c r="H488" s="187">
+        <v>42303</v>
+      </c>
+      <c r="I488" s="210">
         <v>1</v>
       </c>
-      <c r="J488" s="206">
-        <v>590.11</v>
-      </c>
-      <c r="K488" s="203">
-        <v>1307</v>
+      <c r="J488" s="212">
+        <v>478.54</v>
+      </c>
+      <c r="K488" s="214">
+        <v>1172</v>
       </c>
       <c r="L488" s="139"/>
       <c r="M488" s="139"/>
@@ -12685,25 +12655,25 @@
       <c r="U488" s="139"/>
       <c r="V488" s="139"/>
     </row>
-    <row r="489" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A489" s="188"/>
-      <c r="B489" s="189"/>
+    <row r="489" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A489" s="176"/>
+      <c r="B489" s="177"/>
       <c r="C489" s="139"/>
       <c r="D489" s="139"/>
       <c r="E489" s="139"/>
       <c r="F489" s="139"/>
       <c r="G489" s="139"/>
-      <c r="H489" s="201">
-        <v>42121</v>
-      </c>
-      <c r="I489" s="202">
+      <c r="H489" s="187">
+        <v>42296</v>
+      </c>
+      <c r="I489" s="210">
         <v>1</v>
       </c>
-      <c r="J489" s="206">
-        <v>591.76</v>
-      </c>
-      <c r="K489" s="203">
-        <v>1309</v>
+      <c r="J489" s="212">
+        <v>493.41</v>
+      </c>
+      <c r="K489" s="214">
+        <v>1190</v>
       </c>
       <c r="L489" s="139"/>
       <c r="M489" s="139"/>
@@ -12717,25 +12687,25 @@
       <c r="U489" s="139"/>
       <c r="V489" s="139"/>
     </row>
-    <row r="490" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A490" s="188"/>
-      <c r="B490" s="189"/>
+    <row r="490" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A490" s="176"/>
+      <c r="B490" s="177"/>
       <c r="C490" s="139"/>
       <c r="D490" s="139"/>
       <c r="E490" s="139"/>
       <c r="F490" s="139"/>
       <c r="G490" s="139"/>
-      <c r="H490" s="201">
-        <v>42114</v>
-      </c>
-      <c r="I490" s="202">
+      <c r="H490" s="187">
+        <v>42289</v>
+      </c>
+      <c r="I490" s="210">
         <v>1</v>
       </c>
-      <c r="J490" s="206">
-        <v>576.88</v>
-      </c>
-      <c r="K490" s="203">
-        <v>1291</v>
+      <c r="J490" s="212">
+        <v>501.68</v>
+      </c>
+      <c r="K490" s="214">
+        <v>1200</v>
       </c>
       <c r="L490" s="139"/>
       <c r="M490" s="139"/>
@@ -12749,25 +12719,25 @@
       <c r="U490" s="139"/>
       <c r="V490" s="139"/>
     </row>
-    <row r="491" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A491" s="188"/>
-      <c r="B491" s="189"/>
+    <row r="491" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A491" s="176"/>
+      <c r="B491" s="177"/>
       <c r="C491" s="139"/>
       <c r="D491" s="139"/>
       <c r="E491" s="139"/>
       <c r="F491" s="139"/>
       <c r="G491" s="139"/>
-      <c r="H491" s="201">
-        <v>42107</v>
-      </c>
-      <c r="I491" s="202">
+      <c r="H491" s="187">
+        <v>42282</v>
+      </c>
+      <c r="I491" s="210">
         <v>1</v>
       </c>
-      <c r="J491" s="206">
-        <v>553.74</v>
-      </c>
-      <c r="K491" s="203">
-        <v>1263</v>
+      <c r="J491" s="212">
+        <v>489.28</v>
+      </c>
+      <c r="K491" s="214">
+        <v>1185</v>
       </c>
       <c r="L491" s="139"/>
       <c r="M491" s="139"/>
@@ -12781,25 +12751,25 @@
       <c r="U491" s="139"/>
       <c r="V491" s="139"/>
     </row>
-    <row r="492" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A492" s="188"/>
-      <c r="B492" s="189"/>
+    <row r="492" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A492" s="176"/>
+      <c r="B492" s="177"/>
       <c r="C492" s="139"/>
       <c r="D492" s="139"/>
       <c r="E492" s="139"/>
       <c r="F492" s="139"/>
       <c r="G492" s="139"/>
-      <c r="H492" s="201">
-        <v>42093</v>
-      </c>
-      <c r="I492" s="202">
+      <c r="H492" s="187">
+        <v>42275</v>
+      </c>
+      <c r="I492" s="210">
         <v>1</v>
       </c>
-      <c r="J492" s="206">
-        <v>566.14</v>
-      </c>
-      <c r="K492" s="203">
-        <v>1278</v>
+      <c r="J492" s="212">
+        <v>490.11</v>
+      </c>
+      <c r="K492" s="214">
+        <v>1186</v>
       </c>
       <c r="L492" s="139"/>
       <c r="M492" s="139"/>
@@ -12813,25 +12783,25 @@
       <c r="U492" s="139"/>
       <c r="V492" s="139"/>
     </row>
-    <row r="493" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A493" s="188"/>
-      <c r="B493" s="189"/>
+    <row r="493" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A493" s="176"/>
+      <c r="B493" s="177"/>
       <c r="C493" s="139"/>
       <c r="D493" s="139"/>
       <c r="E493" s="139"/>
       <c r="F493" s="139"/>
       <c r="G493" s="139"/>
-      <c r="H493" s="201">
-        <v>42086</v>
-      </c>
-      <c r="I493" s="202">
+      <c r="H493" s="187">
+        <v>42268</v>
+      </c>
+      <c r="I493" s="210">
         <v>1</v>
       </c>
-      <c r="J493" s="206">
-        <v>567.79</v>
-      </c>
-      <c r="K493" s="203">
-        <v>1280</v>
+      <c r="J493" s="212">
+        <v>498.37</v>
+      </c>
+      <c r="K493" s="214">
+        <v>1196</v>
       </c>
       <c r="L493" s="139"/>
       <c r="M493" s="139"/>
@@ -12845,366 +12815,366 @@
       <c r="U493" s="139"/>
       <c r="V493" s="139"/>
     </row>
-    <row r="494" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A494" s="188"/>
-      <c r="B494" s="189"/>
-      <c r="C494" s="188"/>
-      <c r="D494" s="188"/>
-      <c r="E494" s="188"/>
+    <row r="494" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A494" s="176"/>
+      <c r="B494" s="177"/>
+      <c r="C494" s="176"/>
+      <c r="D494" s="176"/>
+      <c r="E494" s="176"/>
       <c r="F494" s="139"/>
       <c r="G494" s="139"/>
-      <c r="H494" s="201">
-        <v>42079</v>
-      </c>
-      <c r="I494" s="202">
+      <c r="H494" s="187">
+        <v>42261</v>
+      </c>
+      <c r="I494" s="210">
         <v>1</v>
       </c>
-      <c r="J494" s="206">
-        <v>578.54</v>
-      </c>
-      <c r="K494" s="203">
-        <v>1293</v>
-      </c>
-      <c r="L494" s="188"/>
-      <c r="M494" s="188"/>
-      <c r="N494" s="188"/>
-      <c r="O494" s="188"/>
-      <c r="P494" s="188"/>
-      <c r="Q494" s="188"/>
-      <c r="R494" s="188"/>
-      <c r="S494" s="188"/>
-      <c r="T494" s="188"/>
-      <c r="U494" s="188"/>
-      <c r="V494" s="188"/>
-    </row>
-    <row r="495" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A495" s="188"/>
-      <c r="B495" s="189"/>
-      <c r="C495" s="188"/>
-      <c r="D495" s="188"/>
-      <c r="E495" s="188"/>
+      <c r="J494" s="212">
+        <v>502.5</v>
+      </c>
+      <c r="K494" s="214">
+        <v>1201</v>
+      </c>
+      <c r="L494" s="176"/>
+      <c r="M494" s="176"/>
+      <c r="N494" s="176"/>
+      <c r="O494" s="176"/>
+      <c r="P494" s="176"/>
+      <c r="Q494" s="176"/>
+      <c r="R494" s="176"/>
+      <c r="S494" s="176"/>
+      <c r="T494" s="176"/>
+      <c r="U494" s="176"/>
+      <c r="V494" s="176"/>
+    </row>
+    <row r="495" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A495" s="176"/>
+      <c r="B495" s="177"/>
+      <c r="C495" s="176"/>
+      <c r="D495" s="176"/>
+      <c r="E495" s="176"/>
       <c r="F495" s="139"/>
       <c r="G495" s="139"/>
-      <c r="H495" s="201">
-        <v>42072</v>
-      </c>
-      <c r="I495" s="202">
+      <c r="H495" s="187">
+        <v>42254</v>
+      </c>
+      <c r="I495" s="210">
         <v>1</v>
       </c>
-      <c r="J495" s="206">
-        <v>579.36</v>
-      </c>
-      <c r="K495" s="203">
-        <v>1294</v>
-      </c>
-      <c r="L495" s="188"/>
-      <c r="M495" s="188"/>
-      <c r="N495" s="188"/>
-      <c r="O495" s="188"/>
-      <c r="P495" s="188"/>
-      <c r="Q495" s="188"/>
-      <c r="R495" s="188"/>
-      <c r="S495" s="188"/>
-      <c r="T495" s="188"/>
-      <c r="U495" s="188"/>
-      <c r="V495" s="188"/>
-    </row>
-    <row r="496" spans="1:22" s="187" customFormat="1" ht="16">
-      <c r="A496" s="188"/>
-      <c r="B496" s="189"/>
-      <c r="C496" s="188"/>
-      <c r="D496" s="188"/>
-      <c r="E496" s="188"/>
+      <c r="J495" s="212">
+        <v>493.41</v>
+      </c>
+      <c r="K495" s="214">
+        <v>1190</v>
+      </c>
+      <c r="L495" s="176"/>
+      <c r="M495" s="176"/>
+      <c r="N495" s="176"/>
+      <c r="O495" s="176"/>
+      <c r="P495" s="176"/>
+      <c r="Q495" s="176"/>
+      <c r="R495" s="176"/>
+      <c r="S495" s="176"/>
+      <c r="T495" s="176"/>
+      <c r="U495" s="176"/>
+      <c r="V495" s="176"/>
+    </row>
+    <row r="496" spans="1:22" s="175" customFormat="1" ht="16">
+      <c r="A496" s="176"/>
+      <c r="B496" s="177"/>
+      <c r="C496" s="176"/>
+      <c r="D496" s="176"/>
+      <c r="E496" s="176"/>
       <c r="F496" s="139"/>
       <c r="G496" s="139"/>
-      <c r="H496" s="201">
-        <v>42065</v>
-      </c>
-      <c r="I496" s="202">
+      <c r="H496" s="187">
+        <v>42247</v>
+      </c>
+      <c r="I496" s="210">
         <v>1</v>
       </c>
-      <c r="J496" s="206">
-        <v>578.54</v>
-      </c>
-      <c r="K496" s="203">
-        <v>1293</v>
-      </c>
-      <c r="L496" s="188"/>
-      <c r="M496" s="188"/>
-      <c r="N496" s="188"/>
-      <c r="O496" s="188"/>
-      <c r="P496" s="188"/>
-      <c r="Q496" s="188"/>
-      <c r="R496" s="188"/>
-      <c r="S496" s="188"/>
-      <c r="T496" s="188"/>
-      <c r="U496" s="188"/>
-      <c r="V496" s="188"/>
-    </row>
-    <row r="497" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A497" s="188"/>
-      <c r="B497" s="189"/>
-      <c r="C497" s="188"/>
-      <c r="D497" s="188"/>
-      <c r="E497" s="188"/>
+      <c r="J496" s="212">
+        <v>466.06</v>
+      </c>
+      <c r="K496" s="215">
+        <v>1156.9100000000001</v>
+      </c>
+      <c r="L496" s="176"/>
+      <c r="M496" s="176"/>
+      <c r="N496" s="176"/>
+      <c r="O496" s="176"/>
+      <c r="P496" s="176"/>
+      <c r="Q496" s="176"/>
+      <c r="R496" s="176"/>
+      <c r="S496" s="176"/>
+      <c r="T496" s="176"/>
+      <c r="U496" s="176"/>
+      <c r="V496" s="176"/>
+    </row>
+    <row r="497" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A497" s="176"/>
+      <c r="B497" s="177"/>
+      <c r="C497" s="176"/>
+      <c r="D497" s="176"/>
+      <c r="E497" s="176"/>
       <c r="F497" s="139"/>
       <c r="G497" s="139"/>
-      <c r="H497" s="201">
-        <v>42058</v>
-      </c>
-      <c r="I497" s="202">
+      <c r="H497" s="187">
+        <v>42240</v>
+      </c>
+      <c r="I497" s="210">
         <v>1</v>
       </c>
-      <c r="J497" s="206">
-        <v>569.44000000000005</v>
-      </c>
-      <c r="K497" s="203">
-        <v>1282</v>
-      </c>
-      <c r="L497" s="188"/>
-      <c r="M497" s="188"/>
-      <c r="N497" s="188"/>
-      <c r="O497" s="188"/>
-      <c r="P497" s="188"/>
-      <c r="Q497" s="188"/>
-      <c r="R497" s="188"/>
-      <c r="S497" s="188"/>
-      <c r="T497" s="188"/>
-      <c r="U497" s="188"/>
-      <c r="V497" s="188"/>
-    </row>
-    <row r="498" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A498" s="188"/>
-      <c r="B498" s="189"/>
-      <c r="C498" s="188"/>
-      <c r="D498" s="188"/>
-      <c r="E498" s="188"/>
+      <c r="J497" s="212">
+        <v>485.97</v>
+      </c>
+      <c r="K497" s="214">
+        <v>1181</v>
+      </c>
+      <c r="L497" s="176"/>
+      <c r="M497" s="176"/>
+      <c r="N497" s="176"/>
+      <c r="O497" s="176"/>
+      <c r="P497" s="176"/>
+      <c r="Q497" s="176"/>
+      <c r="R497" s="176"/>
+      <c r="S497" s="176"/>
+      <c r="T497" s="176"/>
+      <c r="U497" s="176"/>
+      <c r="V497" s="176"/>
+    </row>
+    <row r="498" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A498" s="176"/>
+      <c r="B498" s="177"/>
+      <c r="C498" s="176"/>
+      <c r="D498" s="176"/>
+      <c r="E498" s="176"/>
       <c r="F498" s="139"/>
       <c r="G498" s="139"/>
-      <c r="H498" s="201">
-        <v>42051</v>
-      </c>
-      <c r="I498" s="202">
+      <c r="H498" s="187">
+        <v>42233</v>
+      </c>
+      <c r="I498" s="210">
         <v>1</v>
       </c>
-      <c r="J498" s="206">
-        <v>560.35</v>
-      </c>
-      <c r="K498" s="203">
-        <v>1271</v>
-      </c>
-      <c r="L498" s="188"/>
-      <c r="M498" s="188"/>
-      <c r="N498" s="188"/>
-      <c r="O498" s="188"/>
-      <c r="P498" s="188"/>
-      <c r="Q498" s="188"/>
-      <c r="R498" s="188"/>
-      <c r="S498" s="188"/>
-      <c r="T498" s="188"/>
-      <c r="U498" s="188"/>
-      <c r="V498" s="188"/>
-    </row>
-    <row r="499" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A499" s="188"/>
-      <c r="B499" s="189"/>
-      <c r="C499" s="188"/>
-      <c r="D499" s="188"/>
-      <c r="E499" s="188"/>
+      <c r="J498" s="212">
+        <v>496.72</v>
+      </c>
+      <c r="K498" s="214">
+        <v>1194</v>
+      </c>
+      <c r="L498" s="176"/>
+      <c r="M498" s="176"/>
+      <c r="N498" s="176"/>
+      <c r="O498" s="176"/>
+      <c r="P498" s="176"/>
+      <c r="Q498" s="176"/>
+      <c r="R498" s="176"/>
+      <c r="S498" s="176"/>
+      <c r="T498" s="176"/>
+      <c r="U498" s="176"/>
+      <c r="V498" s="176"/>
+    </row>
+    <row r="499" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A499" s="176"/>
+      <c r="B499" s="177"/>
+      <c r="C499" s="176"/>
+      <c r="D499" s="176"/>
+      <c r="E499" s="176"/>
       <c r="F499" s="139"/>
       <c r="G499" s="139"/>
-      <c r="H499" s="201">
-        <v>42044</v>
-      </c>
-      <c r="I499" s="202">
+      <c r="H499" s="187">
+        <v>42226</v>
+      </c>
+      <c r="I499" s="210">
         <v>1</v>
       </c>
-      <c r="J499" s="206">
-        <v>525.64</v>
-      </c>
-      <c r="K499" s="203">
-        <v>1229</v>
-      </c>
-      <c r="L499" s="188"/>
-      <c r="M499" s="188"/>
-      <c r="N499" s="188"/>
-      <c r="O499" s="188"/>
-      <c r="P499" s="188"/>
-      <c r="Q499" s="188"/>
-      <c r="R499" s="188"/>
-      <c r="S499" s="188"/>
-      <c r="T499" s="188"/>
-      <c r="U499" s="188"/>
-      <c r="V499" s="188"/>
-    </row>
-    <row r="500" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A500" s="188"/>
-      <c r="B500" s="189"/>
-      <c r="C500" s="188"/>
-      <c r="D500" s="188"/>
-      <c r="E500" s="188"/>
+      <c r="J499" s="212">
+        <v>504.98</v>
+      </c>
+      <c r="K499" s="214">
+        <v>1204</v>
+      </c>
+      <c r="L499" s="176"/>
+      <c r="M499" s="176"/>
+      <c r="N499" s="176"/>
+      <c r="O499" s="176"/>
+      <c r="P499" s="176"/>
+      <c r="Q499" s="176"/>
+      <c r="R499" s="176"/>
+      <c r="S499" s="176"/>
+      <c r="T499" s="176"/>
+      <c r="U499" s="176"/>
+      <c r="V499" s="176"/>
+    </row>
+    <row r="500" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A500" s="176"/>
+      <c r="B500" s="177"/>
+      <c r="C500" s="176"/>
+      <c r="D500" s="176"/>
+      <c r="E500" s="176"/>
       <c r="F500" s="139"/>
       <c r="G500" s="139"/>
-      <c r="H500" s="201">
-        <v>42037</v>
-      </c>
-      <c r="I500" s="202">
+      <c r="H500" s="187">
+        <v>42219</v>
+      </c>
+      <c r="I500" s="210">
         <v>1</v>
       </c>
-      <c r="J500" s="206">
-        <v>496.72</v>
-      </c>
-      <c r="K500" s="203">
-        <v>1194</v>
-      </c>
-      <c r="L500" s="188"/>
-      <c r="M500" s="188"/>
-      <c r="N500" s="188"/>
-      <c r="O500" s="188"/>
-      <c r="P500" s="188"/>
-      <c r="Q500" s="188"/>
-      <c r="R500" s="188"/>
-      <c r="S500" s="188"/>
-      <c r="T500" s="188"/>
-      <c r="U500" s="188"/>
-      <c r="V500" s="188"/>
-    </row>
-    <row r="501" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A501" s="188"/>
-      <c r="B501" s="189"/>
-      <c r="C501" s="188"/>
-      <c r="D501" s="188"/>
-      <c r="E501" s="188"/>
+      <c r="J500" s="212">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="K500" s="214">
+        <v>1220</v>
+      </c>
+      <c r="L500" s="176"/>
+      <c r="M500" s="176"/>
+      <c r="N500" s="176"/>
+      <c r="O500" s="176"/>
+      <c r="P500" s="176"/>
+      <c r="Q500" s="176"/>
+      <c r="R500" s="176"/>
+      <c r="S500" s="176"/>
+      <c r="T500" s="176"/>
+      <c r="U500" s="176"/>
+      <c r="V500" s="176"/>
+    </row>
+    <row r="501" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A501" s="176"/>
+      <c r="B501" s="177"/>
+      <c r="C501" s="176"/>
+      <c r="D501" s="176"/>
+      <c r="E501" s="176"/>
       <c r="F501" s="139"/>
       <c r="G501" s="139"/>
-      <c r="H501" s="201">
-        <v>42030</v>
-      </c>
-      <c r="I501" s="202">
+      <c r="H501" s="187">
+        <v>42212</v>
+      </c>
+      <c r="I501" s="210">
         <v>1</v>
       </c>
-      <c r="J501" s="206">
-        <v>490.93</v>
-      </c>
-      <c r="K501" s="203">
-        <v>1187</v>
-      </c>
-      <c r="L501" s="188"/>
-      <c r="M501" s="188"/>
-      <c r="N501" s="188"/>
-      <c r="O501" s="188"/>
-      <c r="P501" s="188"/>
-      <c r="Q501" s="188"/>
-      <c r="R501" s="188"/>
-      <c r="S501" s="188"/>
-      <c r="T501" s="188"/>
-      <c r="U501" s="188"/>
-      <c r="V501" s="188"/>
-    </row>
-    <row r="502" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A502" s="188"/>
-      <c r="B502" s="189"/>
-      <c r="C502" s="188"/>
-      <c r="D502" s="188"/>
-      <c r="E502" s="188"/>
+      <c r="J501" s="212">
+        <v>533.91</v>
+      </c>
+      <c r="K501" s="214">
+        <v>1239</v>
+      </c>
+      <c r="L501" s="176"/>
+      <c r="M501" s="176"/>
+      <c r="N501" s="176"/>
+      <c r="O501" s="176"/>
+      <c r="P501" s="176"/>
+      <c r="Q501" s="176"/>
+      <c r="R501" s="176"/>
+      <c r="S501" s="176"/>
+      <c r="T501" s="176"/>
+      <c r="U501" s="176"/>
+      <c r="V501" s="176"/>
+    </row>
+    <row r="502" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A502" s="176"/>
+      <c r="B502" s="177"/>
+      <c r="C502" s="176"/>
+      <c r="D502" s="176"/>
+      <c r="E502" s="176"/>
       <c r="F502" s="139"/>
       <c r="G502" s="139"/>
-      <c r="H502" s="201">
-        <v>42023</v>
-      </c>
-      <c r="I502" s="202">
+      <c r="H502" s="187">
+        <v>42205</v>
+      </c>
+      <c r="I502" s="210">
         <v>1</v>
       </c>
-      <c r="J502" s="206">
-        <v>490.93</v>
-      </c>
-      <c r="K502" s="203">
-        <v>1187</v>
-      </c>
-      <c r="L502" s="188"/>
-      <c r="M502" s="188"/>
-      <c r="N502" s="188"/>
-      <c r="O502" s="188"/>
-      <c r="P502" s="188"/>
-      <c r="Q502" s="188"/>
-      <c r="R502" s="188"/>
-      <c r="S502" s="188"/>
-      <c r="T502" s="188"/>
-      <c r="U502" s="188"/>
-      <c r="V502" s="188"/>
-    </row>
-    <row r="503" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A503" s="188"/>
-      <c r="B503" s="189"/>
-      <c r="C503" s="188"/>
-      <c r="D503" s="188"/>
-      <c r="E503" s="188"/>
+      <c r="J502" s="212">
+        <v>547.13</v>
+      </c>
+      <c r="K502" s="214">
+        <v>1255</v>
+      </c>
+      <c r="L502" s="176"/>
+      <c r="M502" s="176"/>
+      <c r="N502" s="176"/>
+      <c r="O502" s="176"/>
+      <c r="P502" s="176"/>
+      <c r="Q502" s="176"/>
+      <c r="R502" s="176"/>
+      <c r="S502" s="176"/>
+      <c r="T502" s="176"/>
+      <c r="U502" s="176"/>
+      <c r="V502" s="176"/>
+    </row>
+    <row r="503" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A503" s="176"/>
+      <c r="B503" s="177"/>
+      <c r="C503" s="176"/>
+      <c r="D503" s="176"/>
+      <c r="E503" s="176"/>
       <c r="F503" s="139"/>
       <c r="G503" s="139"/>
-      <c r="H503" s="201">
-        <v>42016</v>
-      </c>
-      <c r="I503" s="202">
+      <c r="H503" s="187">
+        <v>42198</v>
+      </c>
+      <c r="I503" s="210">
         <v>1</v>
       </c>
-      <c r="J503" s="206">
-        <v>502.5</v>
-      </c>
-      <c r="K503" s="203">
-        <v>1201</v>
-      </c>
-      <c r="L503" s="188"/>
-      <c r="M503" s="188"/>
-      <c r="N503" s="188"/>
-      <c r="O503" s="188"/>
-      <c r="P503" s="188"/>
-      <c r="Q503" s="188"/>
-      <c r="R503" s="188"/>
-      <c r="S503" s="188"/>
-      <c r="T503" s="188"/>
-      <c r="U503" s="188"/>
-      <c r="V503" s="188"/>
-    </row>
-    <row r="504" spans="1:25" s="187" customFormat="1" ht="16">
-      <c r="A504" s="188"/>
-      <c r="B504" s="189"/>
-      <c r="C504" s="188"/>
-      <c r="D504" s="188"/>
-      <c r="E504" s="188"/>
+      <c r="J503" s="212">
+        <v>568.62</v>
+      </c>
+      <c r="K503" s="214">
+        <v>1281</v>
+      </c>
+      <c r="L503" s="176"/>
+      <c r="M503" s="176"/>
+      <c r="N503" s="176"/>
+      <c r="O503" s="176"/>
+      <c r="P503" s="176"/>
+      <c r="Q503" s="176"/>
+      <c r="R503" s="176"/>
+      <c r="S503" s="176"/>
+      <c r="T503" s="176"/>
+      <c r="U503" s="176"/>
+      <c r="V503" s="176"/>
+    </row>
+    <row r="504" spans="1:25" s="175" customFormat="1" ht="16">
+      <c r="A504" s="176"/>
+      <c r="B504" s="177"/>
+      <c r="C504" s="176"/>
+      <c r="D504" s="176"/>
+      <c r="E504" s="176"/>
       <c r="F504" s="139"/>
       <c r="G504" s="139"/>
-      <c r="H504" s="201">
-        <v>42009</v>
-      </c>
-      <c r="I504" s="202">
+      <c r="H504" s="187">
+        <v>42191</v>
+      </c>
+      <c r="I504" s="210">
         <v>1</v>
       </c>
-      <c r="J504" s="206">
-        <v>508.29</v>
-      </c>
-      <c r="K504" s="203">
-        <v>1208</v>
-      </c>
-      <c r="L504" s="188"/>
-      <c r="M504" s="188"/>
-      <c r="N504" s="188"/>
-      <c r="O504" s="188"/>
-      <c r="P504" s="188"/>
-      <c r="Q504" s="188"/>
-      <c r="R504" s="188"/>
-      <c r="S504" s="188"/>
-      <c r="T504" s="188"/>
-      <c r="U504" s="188"/>
-      <c r="V504" s="188"/>
-    </row>
-    <row r="505" spans="1:25" s="187" customFormat="1">
-      <c r="B505" s="189"/>
-    </row>
-    <row r="506" spans="1:25" s="187" customFormat="1">
-      <c r="B506" s="189"/>
-    </row>
-    <row r="507" spans="1:25" s="187" customFormat="1" ht="16" thickBot="1">
-      <c r="B507" s="189"/>
+      <c r="J504" s="212">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="K504" s="214">
+        <v>1295</v>
+      </c>
+      <c r="L504" s="176"/>
+      <c r="M504" s="176"/>
+      <c r="N504" s="176"/>
+      <c r="O504" s="176"/>
+      <c r="P504" s="176"/>
+      <c r="Q504" s="176"/>
+      <c r="R504" s="176"/>
+      <c r="S504" s="176"/>
+      <c r="T504" s="176"/>
+      <c r="U504" s="176"/>
+      <c r="V504" s="176"/>
+    </row>
+    <row r="505" spans="1:25" s="175" customFormat="1">
+      <c r="B505" s="177"/>
+    </row>
+    <row r="506" spans="1:25" s="175" customFormat="1">
+      <c r="B506" s="177"/>
+    </row>
+    <row r="507" spans="1:25" s="175" customFormat="1" ht="16" thickBot="1">
+      <c r="B507" s="177"/>
     </row>
     <row r="508" spans="1:25" s="26" customFormat="1">
       <c r="B508" s="129"/>
@@ -13235,7 +13205,7 @@
       <c r="U508" s="129"/>
     </row>
     <row r="509" spans="1:25" customFormat="1" ht="16">
-      <c r="B509" s="207"/>
+      <c r="B509" s="190"/>
       <c r="C509" s="144"/>
       <c r="D509" s="139"/>
       <c r="E509" s="139"/>
@@ -13261,9 +13231,9 @@
       <c r="Y509" s="139"/>
     </row>
     <row r="510" spans="1:25" customFormat="1" ht="16">
-      <c r="B510" s="207"/>
-      <c r="C510" s="187" t="s">
-        <v>171</v>
+      <c r="B510" s="190"/>
+      <c r="C510" s="175" t="s">
+        <v>170</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
@@ -13288,147 +13258,147 @@
       <c r="X510" s="139"/>
       <c r="Y510" s="139"/>
     </row>
-    <row r="511" spans="1:25" s="187" customFormat="1">
-      <c r="B511" s="207"/>
-    </row>
-    <row r="512" spans="1:25" s="187" customFormat="1">
-      <c r="B512" s="207"/>
-    </row>
-    <row r="513" spans="2:8" s="187" customFormat="1">
-      <c r="B513" s="207"/>
-      <c r="D513" s="187" t="s">
+    <row r="511" spans="1:25" s="175" customFormat="1">
+      <c r="B511" s="190"/>
+    </row>
+    <row r="512" spans="1:25" s="175" customFormat="1">
+      <c r="B512" s="190"/>
+    </row>
+    <row r="513" spans="2:8" s="175" customFormat="1">
+      <c r="B513" s="190"/>
+      <c r="D513" s="175" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="514" spans="2:8" s="187" customFormat="1">
-      <c r="B514" s="207"/>
-      <c r="D514" s="187" t="s">
+    <row r="514" spans="2:8" s="175" customFormat="1">
+      <c r="B514" s="190"/>
+      <c r="D514" s="175" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="515" spans="2:8" s="187" customFormat="1">
-      <c r="B515" s="207"/>
-    </row>
-    <row r="516" spans="2:8" s="187" customFormat="1">
-      <c r="B516" s="207"/>
-      <c r="F516" s="187">
+    <row r="515" spans="2:8" s="175" customFormat="1">
+      <c r="B515" s="190"/>
+    </row>
+    <row r="516" spans="2:8" s="175" customFormat="1">
+      <c r="B516" s="190"/>
+      <c r="F516" s="175">
         <v>0.5</v>
       </c>
-      <c r="G516" s="187" t="s">
+      <c r="G516" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="H516" s="187" t="s">
+      <c r="H516" s="175" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="517" spans="2:8" s="175" customFormat="1">
+      <c r="B517" s="190"/>
+      <c r="F517" s="191">
+        <f>F479</f>
+        <v>1.0448</v>
+      </c>
+      <c r="G517" s="175" t="s">
+        <v>149</v>
+      </c>
+      <c r="H517" s="175" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="517" spans="2:8" s="187" customFormat="1">
-      <c r="B517" s="207"/>
-      <c r="F517" s="208">
-        <f>F479</f>
-        <v>1.258</v>
-      </c>
-      <c r="G517" s="187" t="s">
+    <row r="518" spans="2:8" s="175" customFormat="1">
+      <c r="B518" s="190"/>
+      <c r="F518" s="191">
+        <f>F516+F517</f>
+        <v>1.5448</v>
+      </c>
+      <c r="G518" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="H517" s="187" t="s">
+      <c r="H518" s="175" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="518" spans="2:8" s="187" customFormat="1">
-      <c r="B518" s="207"/>
-      <c r="F518" s="208">
-        <f>F516+F517</f>
-        <v>1.758</v>
-      </c>
-      <c r="G518" s="187" t="s">
-        <v>149</v>
-      </c>
-      <c r="H518" s="187" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="519" spans="2:8" s="187" customFormat="1">
-      <c r="B519" s="207"/>
-    </row>
-    <row r="520" spans="2:8" s="187" customFormat="1">
-      <c r="B520" s="207"/>
-      <c r="F520" s="187">
+    <row r="519" spans="2:8" s="175" customFormat="1">
+      <c r="B519" s="190"/>
+    </row>
+    <row r="520" spans="2:8" s="175" customFormat="1">
+      <c r="B520" s="190"/>
+      <c r="F520" s="175">
         <f>F483</f>
         <v>0.48205999999999999</v>
       </c>
-      <c r="G520" s="187" t="s">
+      <c r="G520" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="H520" s="187" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="521" spans="2:8" s="187" customFormat="1">
-      <c r="B521" s="207"/>
-      <c r="F521" s="208">
+      <c r="H520" s="175" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8" s="175" customFormat="1">
+      <c r="B521" s="190"/>
+      <c r="F521" s="191">
         <f>F484</f>
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G521" s="187" t="s">
+      <c r="G521" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="H521" s="187" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="522" spans="2:8" s="187" customFormat="1">
-      <c r="B522" s="207"/>
-      <c r="F522" s="187">
+      <c r="H521" s="175" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8" s="175" customFormat="1">
+      <c r="B522" s="190"/>
+      <c r="F522" s="175">
         <f>F482</f>
         <v>21</v>
       </c>
-      <c r="G522" s="187" t="s">
+      <c r="G522" s="175" t="s">
         <v>161</v>
       </c>
-      <c r="H522" s="187" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="523" spans="2:8" s="187" customFormat="1">
-      <c r="B523" s="207"/>
-    </row>
-    <row r="524" spans="2:8" s="187" customFormat="1">
-      <c r="B524" s="207"/>
-    </row>
-    <row r="525" spans="2:8" s="187" customFormat="1">
-      <c r="B525" s="207"/>
-    </row>
-    <row r="526" spans="2:8" s="187" customFormat="1">
-      <c r="B526" s="207"/>
-    </row>
-    <row r="527" spans="2:8" s="187" customFormat="1">
-      <c r="B527" s="207"/>
-      <c r="F527" s="209">
+      <c r="H522" s="175" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8" s="175" customFormat="1">
+      <c r="B523" s="190"/>
+    </row>
+    <row r="524" spans="2:8" s="175" customFormat="1">
+      <c r="B524" s="190"/>
+    </row>
+    <row r="525" spans="2:8" s="175" customFormat="1">
+      <c r="B525" s="190"/>
+    </row>
+    <row r="526" spans="2:8" s="175" customFormat="1">
+      <c r="B526" s="190"/>
+    </row>
+    <row r="527" spans="2:8" s="175" customFormat="1">
+      <c r="B527" s="190"/>
+      <c r="F527" s="192">
         <f>F518/1.21-F521-F520</f>
-        <v>0.96283256198347122</v>
-      </c>
-      <c r="G527" s="187" t="s">
+        <v>0.78663421487603302</v>
+      </c>
+      <c r="G527" s="175" t="s">
         <v>149</v>
       </c>
-      <c r="H527" s="187" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="528" spans="2:8" s="187" customFormat="1">
-      <c r="B528" s="207"/>
-      <c r="F528" s="210">
+      <c r="H527" s="175" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="528" spans="2:8" s="175" customFormat="1">
+      <c r="B528" s="190"/>
+      <c r="F528" s="193">
         <f>F527/F11</f>
-        <v>2.9081568260948144E-2</v>
-      </c>
-      <c r="G528" s="187" t="s">
+        <v>2.3759641623656909E-2</v>
+      </c>
+      <c r="G528" s="175" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="529" spans="2:2" s="187" customFormat="1">
-      <c r="B529" s="207"/>
-    </row>
-    <row r="530" spans="2:2" s="187" customFormat="1">
-      <c r="B530" s="207"/>
+    <row r="529" spans="2:2" s="175" customFormat="1">
+      <c r="B529" s="190"/>
+    </row>
+    <row r="530" spans="2:2" s="175" customFormat="1">
+      <c r="B530" s="190"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -17,6 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="181">
   <si>
     <t>Source</t>
   </si>
@@ -183,9 +184,6 @@
     <t>This is a definition</t>
   </si>
   <si>
-    <t>from sugar beets</t>
-  </si>
-  <si>
     <t>co2_exploration_per_mj</t>
   </si>
   <si>
@@ -220,9 +218,6 @@
   </si>
   <si>
     <t>starting value for NL. Share of bio-ethanol from sugar beets</t>
-  </si>
-  <si>
-    <t>from sugar cane</t>
   </si>
   <si>
     <t>energy content</t>
@@ -463,9 +458,6 @@
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
   </si>
   <si>
-    <t>N.B. These FCE attributes have to be exported to ETSource manually as this is not automated yet.</t>
-  </si>
-  <si>
     <t>mj_per_kg</t>
   </si>
   <si>
@@ -611,6 +603,36 @@
   </si>
   <si>
     <t>Gas oil automobileAutomotive gas oilDieselkraftstoff(I) incl tax</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>waste_fats</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>palm_oil</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -629,12 +651,26 @@
     <numFmt numFmtId="172" formatCode="0.00000"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1441,714 +1477,715 @@
   </borders>
   <cellStyleXfs count="335">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="38" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="40" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="39" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="44" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="24" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="48" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="46" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="46" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="44" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="44" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="335">
@@ -2497,6 +2534,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2505,13 +2546,13 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>1</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2551,6 +2592,67 @@
                   <a:cs typeface="Lucida Grande"/>
                 </a:rPr>
                 <a:t>Update carrier attributes on ETSource</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>165100</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>3949700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Lucida Grande"/>
+                  <a:ea typeface="Lucida Grande"/>
+                  <a:cs typeface="Lucida Grande"/>
+                </a:rPr>
+                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -3440,9 +3542,30 @@
     <sheetNames>
       <sheetName val="Cover sheet"/>
       <sheetName val="Dashboard"/>
+      <sheetName val="carrier_manager.xlsm"/>
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
+    </definedNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover sheet"/>
+      <sheetName val="Dashboard"/>
+    </sheetNames>
+    <definedNames>
+      <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -3808,10 +3931,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4008,28 +4131,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="196" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
+      <c r="B2" s="205" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="199"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="201"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="210"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="202"/>
-      <c r="C4" s="203"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="204"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4082,7 +4205,7 @@
     <row r="9" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="159" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4120,7 +4243,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="173">
         <f>'Research data'!G7</f>
@@ -4130,17 +4253,17 @@
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
       <c r="I11" s="195" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="165" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="47">
         <f>'Research data'!G8</f>
@@ -4150,7 +4273,7 @@
       <c r="G12" s="131"/>
       <c r="H12" s="32"/>
       <c r="I12" s="132" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J12" s="46"/>
     </row>
@@ -4160,7 +4283,7 @@
         <v>40</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="48">
         <f>'Research data'!G9</f>
@@ -4182,7 +4305,7 @@
         <v>41</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="133">
         <f>'Research data'!G10</f>
@@ -4192,7 +4315,7 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="35" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J14" s="117"/>
       <c r="K14" s="36"/>
@@ -4222,19 +4345,42 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>165100</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>3949700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>12700</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+          <mc:Fallback/>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2051" r:id="rId4" name="export_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_fce">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>165100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
+                    <xdr:rowOff>177800</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -4285,30 +4431,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="196" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="198"/>
+      <c r="B2" s="205" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="207"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="199"/>
-      <c r="C3" s="200"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="201"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="210"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="205" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="207"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="215"/>
+      <c r="E4" s="216"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4373,8 +4517,8 @@
     </row>
     <row r="10" spans="2:10" ht="16" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="131" t="s">
-        <v>46</v>
+      <c r="C10" s="204" t="s">
+        <v>179</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -4387,10 +4531,10 @@
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="124">
         <f>'Research data'!G14</f>
@@ -4398,21 +4542,21 @@
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="117"/>
     </row>
     <row r="12" spans="2:10" ht="16" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="124">
         <f>'Research data'!G15</f>
@@ -4420,21 +4564,21 @@
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="117"/>
     </row>
     <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="E13" s="124">
         <f>'Research data'!G16</f>
@@ -4442,21 +4586,21 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="117"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="124">
         <f>'Research data'!G17</f>
@@ -4464,11 +4608,11 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="117"/>
     </row>
@@ -4478,7 +4622,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="124">
         <f>'Research data'!G18</f>
@@ -4486,21 +4630,21 @@
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="117"/>
     </row>
     <row r="16" spans="2:10" ht="16" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="124">
         <f>'Research data'!G19</f>
@@ -4508,18 +4652,18 @@
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="117"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>1</v>
@@ -4530,11 +4674,11 @@
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="117"/>
     </row>
@@ -4551,8 +4695,8 @@
     </row>
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="131" t="s">
-        <v>59</v>
+      <c r="C19" s="204" t="s">
+        <v>180</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="131"/>
@@ -4565,10 +4709,10 @@
     <row r="20" spans="2:10" ht="16" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="124">
         <f>'Research data'!G23</f>
@@ -4576,21 +4720,21 @@
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" ht="16" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" s="124">
         <f>'Research data'!G24</f>
@@ -4598,21 +4742,21 @@
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" ht="16" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="134" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="E22" s="124">
         <f>'Research data'!G25</f>
@@ -4620,21 +4764,21 @@
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="16" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="134" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" s="124">
         <f>'Research data'!G26</f>
@@ -4642,11 +4786,11 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="117"/>
     </row>
@@ -4656,7 +4800,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="124">
         <f>'Research data'!G27</f>
@@ -4664,21 +4808,21 @@
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" s="124">
         <f>'Research data'!G28</f>
@@ -4686,18 +4830,18 @@
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="131" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>1</v>
@@ -4708,11 +4852,11 @@
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="131" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="132" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="117"/>
     </row>
@@ -4808,19 +4952,19 @@
       </c>
       <c r="H3" s="121"/>
       <c r="I3" s="69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P3" s="69"/>
       <c r="Q3" s="1" t="s">
@@ -4848,7 +4992,7 @@
     <row r="5" spans="2:17" ht="16" thickBot="1">
       <c r="B5" s="78"/>
       <c r="C5" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -4904,7 +5048,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="172">
         <f>O7</f>
@@ -4923,22 +5067,22 @@
       </c>
       <c r="P7" s="16"/>
       <c r="Q7" s="194" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="166" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="136" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="47">
         <f>I8</f>
@@ -4970,7 +5114,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="47">
         <v>0</v>
@@ -4998,7 +5142,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="133">
         <f>K10</f>
@@ -5059,7 +5203,7 @@
     <row r="13" spans="2:17" ht="16" thickBot="1">
       <c r="B13" s="78"/>
       <c r="C13" s="136" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="87"/>
       <c r="E13" s="87"/>
@@ -5075,18 +5219,18 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="16" thickBot="1">
       <c r="B14" s="78"/>
       <c r="C14" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="88"/>
       <c r="E14" s="88"/>
       <c r="F14" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G14" s="124">
         <f>M14</f>
@@ -5105,18 +5249,18 @@
       <c r="O14" s="18"/>
       <c r="P14" s="82"/>
       <c r="Q14" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="16" thickBot="1">
       <c r="B15" s="78"/>
       <c r="C15" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="34"/>
       <c r="E15" s="34"/>
       <c r="F15" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="124">
         <f t="shared" ref="G15:G19" si="0">M15</f>
@@ -5135,18 +5279,18 @@
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="16" thickBot="1">
       <c r="B16" s="78"/>
       <c r="C16" s="138" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="124">
         <f t="shared" si="0"/>
@@ -5165,18 +5309,18 @@
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:17" ht="16" thickBot="1">
       <c r="B17" s="78"/>
       <c r="C17" s="138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="124">
         <f t="shared" si="0"/>
@@ -5195,7 +5339,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="2:17" ht="16" thickBot="1">
@@ -5206,7 +5350,7 @@
       <c r="D18" s="89"/>
       <c r="E18" s="89"/>
       <c r="F18" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="124">
         <f t="shared" si="0"/>
@@ -5225,18 +5369,18 @@
       <c r="O18" s="18"/>
       <c r="P18" s="82"/>
       <c r="Q18" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="16" thickBot="1">
       <c r="B19" s="78"/>
       <c r="C19" s="138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="34"/>
       <c r="E19" s="34"/>
       <c r="F19" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="124">
         <f t="shared" si="0"/>
@@ -5255,13 +5399,13 @@
       <c r="O19" s="18"/>
       <c r="P19" s="82"/>
       <c r="Q19" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:17" ht="16" thickBot="1">
       <c r="B20" s="78"/>
       <c r="C20" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
@@ -5284,7 +5428,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="82"/>
       <c r="Q20" s="145" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="2:17" ht="16" thickBot="1">
@@ -5308,7 +5452,7 @@
     <row r="22" spans="2:17" ht="16" thickBot="1">
       <c r="B22" s="78"/>
       <c r="C22" s="136" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D22" s="90"/>
       <c r="E22" s="90"/>
@@ -5324,18 +5468,18 @@
       <c r="O22" s="18"/>
       <c r="P22" s="80"/>
       <c r="Q22" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="2:17" ht="16" thickBot="1">
       <c r="B23" s="78"/>
       <c r="C23" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" s="93"/>
       <c r="E23" s="93"/>
       <c r="F23" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" s="48">
         <f>M23</f>
@@ -5354,16 +5498,16 @@
       <c r="O23" s="18"/>
       <c r="P23" s="80"/>
       <c r="Q23" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:17" ht="16" thickBot="1">
       <c r="B24" s="78"/>
       <c r="C24" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" s="124">
         <f t="shared" ref="G24:G29" si="1">M24</f>
@@ -5381,16 +5525,16 @@
       <c r="O24" s="18"/>
       <c r="P24" s="82"/>
       <c r="Q24" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="2:17" ht="16" thickBot="1">
       <c r="B25" s="78"/>
       <c r="C25" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>52</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>53</v>
       </c>
       <c r="G25" s="124">
         <f t="shared" si="1"/>
@@ -5408,16 +5552,16 @@
       <c r="O25" s="18"/>
       <c r="P25" s="82"/>
       <c r="Q25" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:17" ht="16" thickBot="1">
       <c r="B26" s="78"/>
       <c r="C26" s="138" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26" s="124">
         <f t="shared" si="1"/>
@@ -5435,7 +5579,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="82"/>
       <c r="Q26" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:17" ht="16" thickBot="1">
@@ -5444,7 +5588,7 @@
         <v>40</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="124">
         <f t="shared" si="1"/>
@@ -5462,16 +5606,16 @@
       <c r="O27" s="18"/>
       <c r="P27" s="82"/>
       <c r="Q27" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="2:17" ht="16" thickBot="1">
       <c r="B28" s="78"/>
       <c r="C28" s="138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" s="124">
         <f t="shared" si="1"/>
@@ -5489,13 +5633,13 @@
       <c r="O28" s="18"/>
       <c r="P28" s="85"/>
       <c r="Q28" s="145" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="2:17" ht="16" thickBot="1">
       <c r="B29" s="78"/>
       <c r="C29" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29" s="24" t="s">
         <v>1</v>
@@ -5515,7 +5659,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="85"/>
       <c r="Q29" s="145" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="2:17" ht="16" thickBot="1">
@@ -5678,25 +5822,25 @@
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="167" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="168" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L7" s="58"/>
     </row>
@@ -5733,21 +5877,21 @@
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="147" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L10" s="71"/>
     </row>
@@ -5806,11 +5950,11 @@
     <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="147"/>
       <c r="G15" s="62" t="s">
@@ -5824,7 +5968,7 @@
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="68" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="66"/>
     </row>
@@ -5853,17 +5997,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="68"/>
       <c r="L17" s="151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="54"/>
       <c r="C18" s="62" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -5872,17 +6016,17 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F19" s="149"/>
       <c r="L19" s="178" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -5940,7 +6084,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E2" s="129"/>
       <c r="F2" s="129" t="s">
@@ -5987,7 +6131,7 @@
     <row r="4" spans="2:25" customFormat="1" ht="16">
       <c r="B4" s="126"/>
       <c r="C4" s="139" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="139"/>
       <c r="E4" s="139"/>
@@ -6100,10 +6244,10 @@
         <v>890</v>
       </c>
       <c r="G8" s="140" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I8" s="139"/>
       <c r="J8" s="139"/>
@@ -6131,10 +6275,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="G9" s="139" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H9" s="141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I9" s="139"/>
       <c r="J9" s="139"/>
@@ -6163,10 +6307,10 @@
         <v>0.89</v>
       </c>
       <c r="G10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H10" s="141" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I10" s="139"/>
       <c r="J10" s="139"/>
@@ -6195,10 +6339,10 @@
         <v>33.108000000000004</v>
       </c>
       <c r="G11" s="139" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H11" s="141" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I11" s="139"/>
       <c r="J11" s="139"/>
@@ -6765,7 +6909,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" s="129"/>
       <c r="F62" s="129" t="s">
@@ -6816,7 +6960,7 @@
     <row r="64" spans="2:25" customFormat="1" ht="16">
       <c r="B64" s="126"/>
       <c r="C64" s="139" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
@@ -7031,7 +7175,7 @@
       <c r="B72" s="126"/>
       <c r="C72" s="139"/>
       <c r="D72" s="155" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E72" s="139"/>
       <c r="F72" s="139"/>
@@ -7527,7 +7671,7 @@
       <c r="C91" s="139"/>
       <c r="D91" s="139"/>
       <c r="E91" s="142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
@@ -7554,10 +7698,10 @@
         <v>1600</v>
       </c>
       <c r="G92" s="139" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H92" s="139" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K92" s="139"/>
       <c r="O92" s="139"/>
@@ -7577,22 +7721,22 @@
       <c r="C93" s="139"/>
       <c r="D93" s="139"/>
       <c r="E93" s="139" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F93" s="139">
         <v>4.5</v>
       </c>
       <c r="G93" s="139" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H93" s="139" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I93" s="139">
         <v>1485</v>
       </c>
       <c r="J93" s="139" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K93" s="139"/>
       <c r="L93" s="139"/>
@@ -7616,16 +7760,16 @@
       <c r="C94" s="139"/>
       <c r="D94" s="139"/>
       <c r="E94" s="139" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F94" s="139">
         <v>3.25</v>
       </c>
       <c r="G94" s="139" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H94" s="139" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K94" s="139"/>
       <c r="L94" s="139"/>
@@ -7677,7 +7821,7 @@
         <v>160000</v>
       </c>
       <c r="G96" s="139" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H96" s="139"/>
       <c r="K96" s="139"/>
@@ -7706,7 +7850,7 @@
         <v>5269465.2944731945</v>
       </c>
       <c r="G97" s="139" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H97" s="139"/>
       <c r="K97" s="139"/>
@@ -7780,7 +7924,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E100" s="129"/>
       <c r="F100" s="129" t="s">
@@ -7831,7 +7975,7 @@
     <row r="102" spans="1:25" customFormat="1" ht="16">
       <c r="B102" s="126"/>
       <c r="C102" s="139" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D102" s="139"/>
       <c r="E102" s="139"/>
@@ -7861,7 +8005,7 @@
       <c r="C103" s="139"/>
       <c r="D103" s="139"/>
       <c r="F103" s="142" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G103" s="139"/>
       <c r="H103" s="139"/>
@@ -7894,10 +8038,10 @@
         <v>200000</v>
       </c>
       <c r="H104" s="139" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I104" s="139" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J104" s="139"/>
       <c r="K104" s="139"/>
@@ -7925,17 +8069,17 @@
       </c>
       <c r="G105" s="139"/>
       <c r="H105" s="139" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I105" s="139" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J105" s="139"/>
       <c r="K105" s="139">
         <v>3.78541178</v>
       </c>
       <c r="L105" s="139" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M105" s="139"/>
       <c r="N105" s="139"/>
@@ -7961,10 +8105,10 @@
       </c>
       <c r="G106" s="139"/>
       <c r="H106" s="139" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I106" s="139" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J106" s="139"/>
       <c r="K106" s="143"/>
@@ -7993,10 +8137,10 @@
       </c>
       <c r="G107" s="139"/>
       <c r="H107" s="139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I107" s="139" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J107" s="139"/>
       <c r="K107" s="139"/>
@@ -8022,7 +8166,7 @@
       <c r="F108" s="139"/>
       <c r="G108" s="139"/>
       <c r="H108" s="139" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I108" s="139"/>
       <c r="J108" s="139"/>
@@ -8099,13 +8243,13 @@
       <c r="C111" s="139"/>
       <c r="D111" s="139"/>
       <c r="E111" s="139" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F111" s="139">
         <v>118170</v>
       </c>
       <c r="G111" s="139" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H111" s="139"/>
       <c r="I111" s="139"/>
@@ -8136,7 +8280,7 @@
         <v>124669350</v>
       </c>
       <c r="G112" s="139" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H112" s="139"/>
       <c r="I112" s="139"/>
@@ -8167,7 +8311,7 @@
         <v>124.66934999999999</v>
       </c>
       <c r="G113" s="139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H113" s="139"/>
       <c r="I113" s="139"/>
@@ -8198,7 +8342,7 @@
         <v>32.934158090457466</v>
       </c>
       <c r="G114" s="142" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H114" s="139"/>
       <c r="I114" s="139"/>
@@ -8302,13 +8446,13 @@
       <c r="C118" s="139"/>
       <c r="D118" s="139"/>
       <c r="E118" s="139" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F118" s="139">
         <v>127042</v>
       </c>
       <c r="G118" s="139" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H118" s="139"/>
       <c r="I118" s="139"/>
@@ -8339,7 +8483,7 @@
         <v>134029310</v>
       </c>
       <c r="G119" s="139" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H119" s="139"/>
       <c r="I119" s="139"/>
@@ -8370,7 +8514,7 @@
         <v>134.02931000000001</v>
       </c>
       <c r="G120" s="139" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H120" s="139"/>
       <c r="I120" s="139"/>
@@ -8401,7 +8545,7 @@
         <v>35.406797936260453</v>
       </c>
       <c r="G121" s="139" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H121" s="139"/>
       <c r="I121" s="139"/>
@@ -8922,7 +9066,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E141" s="129"/>
       <c r="F141" s="129" t="s">
@@ -8973,7 +9117,7 @@
     <row r="143" spans="2:25" customFormat="1" ht="16">
       <c r="B143" s="126"/>
       <c r="C143" s="147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D143" s="139"/>
       <c r="E143" s="139"/>
@@ -9898,19 +10042,19 @@
     <row r="256" spans="2:7" customFormat="1" ht="16">
       <c r="B256" s="126"/>
       <c r="G256" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="257" spans="2:7" customFormat="1" ht="16">
       <c r="B257" s="126"/>
       <c r="G257" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="2:7" customFormat="1" ht="16">
       <c r="B258" s="126"/>
       <c r="G258" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="259" spans="2:7" customFormat="1" ht="16">
@@ -9982,7 +10126,7 @@
         <v>25</v>
       </c>
       <c r="D280" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E280" s="129"/>
       <c r="F280" s="129" t="s">
@@ -10007,7 +10151,7 @@
     <row r="281" spans="2:25" customFormat="1" ht="16">
       <c r="B281" s="126"/>
       <c r="C281" s="144" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D281" s="139"/>
       <c r="E281" s="139"/>
@@ -10091,11 +10235,11 @@
       <c r="C284" s="139"/>
       <c r="D284" s="139"/>
       <c r="E284" s="139" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F284" s="139"/>
       <c r="G284" s="139" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H284" s="139"/>
       <c r="I284" s="139"/>
@@ -10121,11 +10265,11 @@
       <c r="C285" s="139"/>
       <c r="D285" s="139"/>
       <c r="E285" s="139" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F285" s="139"/>
       <c r="G285" s="139" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H285" s="139"/>
       <c r="I285" s="139"/>
@@ -10750,7 +10894,7 @@
         <v>25</v>
       </c>
       <c r="D309" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E309" s="129"/>
       <c r="F309" s="129" t="s">
@@ -10801,7 +10945,7 @@
     <row r="311" spans="2:25" customFormat="1" ht="17">
       <c r="B311" s="126"/>
       <c r="C311" s="151" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D311" s="139"/>
       <c r="E311" s="139"/>
@@ -10885,12 +11029,12 @@
     </row>
     <row r="320" spans="2:25">
       <c r="E320" s="152" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="321" spans="4:11">
       <c r="E321" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F321" s="139"/>
       <c r="G321" s="139"/>
@@ -10898,16 +11042,16 @@
         <v>0</v>
       </c>
       <c r="I321" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J321" s="139"/>
       <c r="K321" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="322" spans="4:11">
       <c r="E322" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F322" s="139"/>
       <c r="G322" s="139"/>
@@ -10915,14 +11059,14 @@
         <v>0</v>
       </c>
       <c r="I322" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J322" s="139"/>
       <c r="K322" s="139"/>
     </row>
     <row r="323" spans="4:11">
       <c r="E323" s="139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F323" s="139"/>
       <c r="G323" s="139"/>
@@ -10930,7 +11074,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I323" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J323" s="139"/>
       <c r="K323" s="139"/>
@@ -10938,7 +11082,7 @@
     <row r="324" spans="4:11">
       <c r="D324" s="139"/>
       <c r="E324" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F324" s="139"/>
       <c r="G324" s="139"/>
@@ -10946,7 +11090,7 @@
         <v>0.6</v>
       </c>
       <c r="I324" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J324" s="139"/>
       <c r="K324" s="139"/>
@@ -10962,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J325" s="139"/>
       <c r="K325" s="139"/>
@@ -10970,7 +11114,7 @@
     <row r="326" spans="4:11">
       <c r="D326" s="139"/>
       <c r="E326" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F326" s="139"/>
       <c r="G326" s="139"/>
@@ -10978,11 +11122,11 @@
         <v>0</v>
       </c>
       <c r="I326" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J326" s="139"/>
       <c r="K326" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="327" spans="4:11">
@@ -11006,7 +11150,7 @@
     <row r="329" spans="4:11">
       <c r="D329" s="139"/>
       <c r="E329" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F329" s="139"/>
       <c r="G329" s="139"/>
@@ -11015,16 +11159,16 @@
         <v>0</v>
       </c>
       <c r="I329" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J329" s="139"/>
       <c r="K329" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="330" spans="4:11">
       <c r="E330" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F330" s="139"/>
       <c r="G330" s="139"/>
@@ -11033,14 +11177,14 @@
         <v>0</v>
       </c>
       <c r="I330" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J330" s="139"/>
       <c r="K330" s="139"/>
     </row>
     <row r="331" spans="4:11">
       <c r="E331" s="139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F331" s="139"/>
       <c r="G331" s="139"/>
@@ -11049,14 +11193,14 @@
         <v>2.01E-2</v>
       </c>
       <c r="I331" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J331" s="139"/>
       <c r="K331" s="139"/>
     </row>
     <row r="332" spans="4:11">
       <c r="E332" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F332" s="139"/>
       <c r="G332" s="139"/>
@@ -11065,7 +11209,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I332" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J332" s="139"/>
       <c r="K332" s="139"/>
@@ -11081,14 +11225,14 @@
         <v>0</v>
       </c>
       <c r="I333" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J333" s="139"/>
       <c r="K333" s="139"/>
     </row>
     <row r="334" spans="4:11">
       <c r="E334" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F334" s="139"/>
       <c r="G334" s="139"/>
@@ -11097,16 +11241,16 @@
         <v>0</v>
       </c>
       <c r="I334" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J334" s="139"/>
       <c r="K334" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="337" spans="5:11">
       <c r="E337" s="153" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F337" s="154"/>
       <c r="G337" s="154"/>
@@ -11117,7 +11261,7 @@
     </row>
     <row r="338" spans="5:11">
       <c r="E338" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F338" s="139"/>
       <c r="G338" s="139"/>
@@ -11125,16 +11269,16 @@
         <v>0</v>
       </c>
       <c r="I338" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J338" s="139"/>
       <c r="K338" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="339" spans="5:11">
       <c r="E339" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F339" s="139"/>
       <c r="G339" s="139"/>
@@ -11142,14 +11286,14 @@
         <v>14.7</v>
       </c>
       <c r="I339" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J339" s="139"/>
       <c r="K339" s="139"/>
     </row>
     <row r="340" spans="5:11">
       <c r="E340" s="139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F340" s="139"/>
       <c r="G340" s="139"/>
@@ -11157,14 +11301,14 @@
         <v>9.4</v>
       </c>
       <c r="I340" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J340" s="139"/>
       <c r="K340" s="139"/>
     </row>
     <row r="341" spans="5:11">
       <c r="E341" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F341" s="139"/>
       <c r="G341" s="139"/>
@@ -11172,7 +11316,7 @@
         <v>0.7</v>
       </c>
       <c r="I341" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J341" s="139"/>
       <c r="K341" s="139"/>
@@ -11187,14 +11331,14 @@
         <v>0</v>
       </c>
       <c r="I342" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J342" s="139"/>
       <c r="K342" s="139"/>
     </row>
     <row r="343" spans="5:11">
       <c r="E343" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F343" s="139"/>
       <c r="G343" s="139"/>
@@ -11202,11 +11346,11 @@
         <v>0</v>
       </c>
       <c r="I343" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J343" s="139"/>
       <c r="K343" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="344" spans="5:11">
@@ -11229,7 +11373,7 @@
     </row>
     <row r="346" spans="5:11">
       <c r="E346" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F346" s="139"/>
       <c r="G346" s="139"/>
@@ -11238,16 +11382,16 @@
         <v>0</v>
       </c>
       <c r="I346" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J346" s="139"/>
       <c r="K346" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="347" spans="5:11">
       <c r="E347" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F347" s="139"/>
       <c r="G347" s="139"/>
@@ -11256,14 +11400,14 @@
         <v>1.47E-2</v>
       </c>
       <c r="I347" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J347" s="139"/>
       <c r="K347" s="139"/>
     </row>
     <row r="348" spans="5:11">
       <c r="E348" s="139" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F348" s="139"/>
       <c r="G348" s="139"/>
@@ -11272,14 +11416,14 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I348" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J348" s="139"/>
       <c r="K348" s="139"/>
     </row>
     <row r="349" spans="5:11">
       <c r="E349" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F349" s="139"/>
       <c r="G349" s="139"/>
@@ -11288,7 +11432,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I349" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J349" s="139"/>
       <c r="K349" s="139"/>
@@ -11304,14 +11448,14 @@
         <v>0</v>
       </c>
       <c r="I350" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J350" s="139"/>
       <c r="K350" s="139"/>
     </row>
     <row r="351" spans="5:11">
       <c r="E351" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F351" s="139"/>
       <c r="G351" s="139"/>
@@ -11320,11 +11464,11 @@
         <v>0</v>
       </c>
       <c r="I351" s="139" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J351" s="139"/>
       <c r="K351" s="139" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="368" ht="16" thickBot="1"/>
@@ -11334,7 +11478,7 @@
         <v>25</v>
       </c>
       <c r="D369" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E369" s="129"/>
       <c r="F369" s="129" t="s">
@@ -11385,7 +11529,7 @@
     <row r="371" spans="2:25" customFormat="1" ht="17">
       <c r="B371" s="126"/>
       <c r="C371" s="151" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D371" s="139"/>
       <c r="E371" s="139"/>
@@ -11439,7 +11583,7 @@
     <row r="373" spans="2:25" customFormat="1" ht="16">
       <c r="B373" s="126"/>
       <c r="C373" s="139" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D373" s="139"/>
       <c r="E373" s="139"/>
@@ -11492,16 +11636,16 @@
         <v>27</v>
       </c>
       <c r="E381" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F381">
         <v>37.299999999999997</v>
       </c>
       <c r="G381" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H381" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="382" spans="2:25" customFormat="1" ht="16">
@@ -11511,7 +11655,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="G382" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="383" spans="2:25" customFormat="1" ht="16">
@@ -11520,10 +11664,10 @@
         <v>0.9</v>
       </c>
       <c r="G383" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H383" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="384" spans="2:25" customFormat="1" ht="16">
@@ -11533,7 +11677,7 @@
         <v>33.57</v>
       </c>
       <c r="G384" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="385" spans="2:2" customFormat="1" ht="16">
@@ -11662,7 +11806,7 @@
         <v>25</v>
       </c>
       <c r="D432" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E432" s="129"/>
       <c r="F432" s="129" t="s">
@@ -11713,7 +11857,7 @@
     <row r="434" spans="2:25" customFormat="1" ht="17">
       <c r="B434" s="126"/>
       <c r="C434" s="151" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D434" s="139"/>
       <c r="E434" s="139"/>
@@ -11770,7 +11914,7 @@
       <c r="D436" s="139"/>
       <c r="E436" s="139"/>
       <c r="F436" s="139" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G436" s="139"/>
       <c r="H436" s="139"/>
@@ -11794,18 +11938,18 @@
     </row>
     <row r="447" spans="2:25">
       <c r="F447" s="169" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G447" s="169" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H447" s="169" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="448" spans="2:25">
       <c r="E448" s="169" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F448" s="125">
         <v>118.33</v>
@@ -11820,7 +11964,7 @@
     </row>
     <row r="449" spans="5:9">
       <c r="E449" s="169" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F449" s="125">
         <v>118.5</v>
@@ -11835,7 +11979,7 @@
     </row>
     <row r="450" spans="5:9">
       <c r="E450" s="169" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F450" s="125">
         <v>117.05</v>
@@ -11850,7 +11994,7 @@
     </row>
     <row r="451" spans="5:9">
       <c r="E451" s="169" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F451" s="125">
         <v>118.15</v>
@@ -11865,7 +12009,7 @@
     </row>
     <row r="452" spans="5:9">
       <c r="E452" s="169" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F452" s="125">
         <f>AVERAGE(F448:F451)</f>
@@ -11880,7 +12024,7 @@
         <v>72.977499999999992</v>
       </c>
       <c r="I452" s="169" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="453" spans="5:9">
@@ -11889,7 +12033,7 @@
         <v>0.72977499999999995</v>
       </c>
       <c r="I453" s="169" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="5:9">
@@ -11898,7 +12042,7 @@
         <v>2.2042255648181703E-2</v>
       </c>
       <c r="I454" s="169" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="466" spans="1:25" ht="16" thickBot="1"/>
@@ -11909,7 +12053,7 @@
         <v>25</v>
       </c>
       <c r="D467" s="174" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E467" s="174"/>
       <c r="F467" s="174" t="s">
@@ -11966,7 +12110,7 @@
       <c r="A469" s="176"/>
       <c r="B469" s="177"/>
       <c r="C469" s="159" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D469" s="139"/>
       <c r="E469" s="139"/>
@@ -11995,7 +12139,7 @@
       <c r="A470" s="176"/>
       <c r="B470" s="177"/>
       <c r="C470" s="178" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D470" s="139"/>
       <c r="E470" s="139"/>
@@ -12052,7 +12196,7 @@
       <c r="B472" s="177"/>
       <c r="C472" s="139"/>
       <c r="D472" s="139" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E472" s="139"/>
       <c r="F472" s="139"/>
@@ -12086,17 +12230,17 @@
       <c r="E473" s="176"/>
       <c r="F473" s="139"/>
       <c r="G473" s="139"/>
-      <c r="H473" s="208" t="s">
-        <v>153</v>
-      </c>
-      <c r="I473" s="209" t="s">
-        <v>154</v>
+      <c r="H473" s="196" t="s">
+        <v>150</v>
+      </c>
+      <c r="I473" s="197" t="s">
+        <v>151</v>
       </c>
       <c r="J473" s="180" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K473" s="181" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12115,7 +12259,7 @@
       <c r="B474" s="177"/>
       <c r="C474" s="139"/>
       <c r="D474" s="139" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E474" s="176"/>
       <c r="F474" s="139"/>
@@ -12123,10 +12267,10 @@
       <c r="H474" s="182"/>
       <c r="I474" s="183"/>
       <c r="J474" s="184" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K474" s="185" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L474" s="139"/>
       <c r="M474" s="139"/>
@@ -12146,25 +12290,25 @@
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
       <c r="E475" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F475" s="186">
         <f>AVERAGE(J475:J479)</f>
         <v>371.00199999999995</v>
       </c>
       <c r="G475" s="139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H475" s="187">
         <v>42408</v>
       </c>
-      <c r="I475" s="210">
+      <c r="I475" s="198">
         <v>1</v>
       </c>
-      <c r="J475" s="211">
+      <c r="J475" s="199">
         <v>371.99</v>
       </c>
-      <c r="K475" s="213">
+      <c r="K475" s="201">
         <v>1046</v>
       </c>
       <c r="L475" s="139"/>
@@ -12185,25 +12329,25 @@
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
       <c r="E476" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F476" s="188">
         <f>F475/1000</f>
         <v>0.37100199999999994</v>
       </c>
       <c r="G476" s="139" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H476" s="187">
         <v>42401</v>
       </c>
-      <c r="I476" s="210">
+      <c r="I476" s="198">
         <v>1</v>
       </c>
-      <c r="J476" s="212">
+      <c r="J476" s="200">
         <v>362.08</v>
       </c>
-      <c r="K476" s="214">
+      <c r="K476" s="202">
         <v>1034</v>
       </c>
       <c r="L476" s="139"/>
@@ -12229,13 +12373,13 @@
       <c r="H477" s="187">
         <v>42394</v>
       </c>
-      <c r="I477" s="210">
+      <c r="I477" s="198">
         <v>1</v>
       </c>
-      <c r="J477" s="212">
+      <c r="J477" s="200">
         <v>355.46</v>
       </c>
-      <c r="K477" s="214">
+      <c r="K477" s="202">
         <v>1026</v>
       </c>
       <c r="L477" s="139"/>
@@ -12255,28 +12399,28 @@
       <c r="B478" s="177"/>
       <c r="C478" s="139"/>
       <c r="D478" s="139" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E478" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F478" s="186">
         <f>AVERAGE(K475:K479)</f>
         <v>1044.8</v>
       </c>
       <c r="G478" s="139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H478" s="187">
         <v>42387</v>
       </c>
-      <c r="I478" s="210">
+      <c r="I478" s="198">
         <v>1</v>
       </c>
-      <c r="J478" s="212">
+      <c r="J478" s="200">
         <v>373.65</v>
       </c>
-      <c r="K478" s="214">
+      <c r="K478" s="202">
         <v>1048</v>
       </c>
       <c r="L478" s="139"/>
@@ -12297,25 +12441,25 @@
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
       <c r="E479" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F479" s="188">
         <f>F478/1000</f>
         <v>1.0448</v>
       </c>
       <c r="G479" s="139" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H479" s="187">
         <v>42380</v>
       </c>
-      <c r="I479" s="210">
+      <c r="I479" s="198">
         <v>1</v>
       </c>
-      <c r="J479" s="212">
+      <c r="J479" s="200">
         <v>391.83</v>
       </c>
-      <c r="K479" s="214">
+      <c r="K479" s="202">
         <v>1070</v>
       </c>
       <c r="L479" s="139"/>
@@ -12341,13 +12485,13 @@
       <c r="H480" s="187">
         <v>42373</v>
       </c>
-      <c r="I480" s="210">
+      <c r="I480" s="198">
         <v>1</v>
       </c>
-      <c r="J480" s="212">
+      <c r="J480" s="200">
         <v>391.83</v>
       </c>
-      <c r="K480" s="214">
+      <c r="K480" s="202">
         <v>1070</v>
       </c>
       <c r="L480" s="139"/>
@@ -12367,7 +12511,7 @@
       <c r="B481" s="177"/>
       <c r="C481" s="139"/>
       <c r="D481" s="142" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E481" s="139"/>
       <c r="F481" s="189"/>
@@ -12375,13 +12519,13 @@
       <c r="H481" s="187">
         <v>42352</v>
       </c>
-      <c r="I481" s="210">
+      <c r="I481" s="198">
         <v>1</v>
       </c>
-      <c r="J481" s="212">
+      <c r="J481" s="200">
         <v>444.65</v>
       </c>
-      <c r="K481" s="214">
+      <c r="K481" s="202">
         <v>1131</v>
       </c>
       <c r="L481" s="139"/>
@@ -12401,27 +12545,27 @@
       <c r="B482" s="177"/>
       <c r="C482" s="139"/>
       <c r="D482" s="139" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E482" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F482" s="139">
         <v>21</v>
       </c>
       <c r="G482" s="139" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H482" s="187">
         <v>42345</v>
       </c>
-      <c r="I482" s="210">
+      <c r="I482" s="198">
         <v>1</v>
       </c>
-      <c r="J482" s="212">
+      <c r="J482" s="200">
         <v>467.79</v>
       </c>
-      <c r="K482" s="214">
+      <c r="K482" s="202">
         <v>1159</v>
       </c>
       <c r="L482" s="139"/>
@@ -12441,28 +12585,28 @@
       <c r="B483" s="177"/>
       <c r="C483" s="139"/>
       <c r="D483" s="139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E483" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F483" s="139">
         <f>482.06/1000</f>
         <v>0.48205999999999999</v>
       </c>
       <c r="G483" s="139" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H483" s="187">
         <v>42338</v>
       </c>
-      <c r="I483" s="210">
+      <c r="I483" s="198">
         <v>1</v>
       </c>
-      <c r="J483" s="212">
+      <c r="J483" s="200">
         <v>486.8</v>
       </c>
-      <c r="K483" s="214">
+      <c r="K483" s="202">
         <v>1182</v>
       </c>
       <c r="L483" s="139"/>
@@ -12482,28 +12626,28 @@
       <c r="B484" s="177"/>
       <c r="C484" s="139"/>
       <c r="D484" s="139" t="s">
+        <v>160</v>
+      </c>
+      <c r="E484" s="176" t="s">
         <v>163</v>
-      </c>
-      <c r="E484" s="176" t="s">
-        <v>166</v>
       </c>
       <c r="F484" s="189">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G484" s="139" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H484" s="187">
         <v>42331</v>
       </c>
-      <c r="I484" s="210">
+      <c r="I484" s="198">
         <v>1</v>
       </c>
-      <c r="J484" s="212">
+      <c r="J484" s="200">
         <v>491.76</v>
       </c>
-      <c r="K484" s="214">
+      <c r="K484" s="202">
         <v>1188</v>
       </c>
       <c r="L484" s="139"/>
@@ -12529,13 +12673,13 @@
       <c r="H485" s="187">
         <v>42324</v>
       </c>
-      <c r="I485" s="210">
+      <c r="I485" s="198">
         <v>1</v>
       </c>
-      <c r="J485" s="212">
+      <c r="J485" s="200">
         <v>506.63</v>
       </c>
-      <c r="K485" s="214">
+      <c r="K485" s="202">
         <v>1206</v>
       </c>
       <c r="L485" s="139"/>
@@ -12555,28 +12699,28 @@
       <c r="B486" s="177"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E486" s="176" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F486" s="189">
         <f>(F484+F483+F476)*1.21</f>
         <v>1.0418850200000001</v>
       </c>
       <c r="G486" s="139" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H486" s="187">
         <v>42317</v>
       </c>
-      <c r="I486" s="210">
+      <c r="I486" s="198">
         <v>1</v>
       </c>
-      <c r="J486" s="212">
+      <c r="J486" s="200">
         <v>503.33</v>
       </c>
-      <c r="K486" s="214">
+      <c r="K486" s="202">
         <v>1202</v>
       </c>
       <c r="L486" s="139"/>
@@ -12602,13 +12746,13 @@
       <c r="H487" s="187">
         <v>42310</v>
       </c>
-      <c r="I487" s="210">
+      <c r="I487" s="198">
         <v>1</v>
       </c>
-      <c r="J487" s="212">
+      <c r="J487" s="200">
         <v>481.01</v>
       </c>
-      <c r="K487" s="214">
+      <c r="K487" s="202">
         <v>1175</v>
       </c>
       <c r="L487" s="139"/>
@@ -12634,13 +12778,13 @@
       <c r="H488" s="187">
         <v>42303</v>
       </c>
-      <c r="I488" s="210">
+      <c r="I488" s="198">
         <v>1</v>
       </c>
-      <c r="J488" s="212">
+      <c r="J488" s="200">
         <v>478.54</v>
       </c>
-      <c r="K488" s="214">
+      <c r="K488" s="202">
         <v>1172</v>
       </c>
       <c r="L488" s="139"/>
@@ -12666,13 +12810,13 @@
       <c r="H489" s="187">
         <v>42296</v>
       </c>
-      <c r="I489" s="210">
+      <c r="I489" s="198">
         <v>1</v>
       </c>
-      <c r="J489" s="212">
+      <c r="J489" s="200">
         <v>493.41</v>
       </c>
-      <c r="K489" s="214">
+      <c r="K489" s="202">
         <v>1190</v>
       </c>
       <c r="L489" s="139"/>
@@ -12698,13 +12842,13 @@
       <c r="H490" s="187">
         <v>42289</v>
       </c>
-      <c r="I490" s="210">
+      <c r="I490" s="198">
         <v>1</v>
       </c>
-      <c r="J490" s="212">
+      <c r="J490" s="200">
         <v>501.68</v>
       </c>
-      <c r="K490" s="214">
+      <c r="K490" s="202">
         <v>1200</v>
       </c>
       <c r="L490" s="139"/>
@@ -12730,13 +12874,13 @@
       <c r="H491" s="187">
         <v>42282</v>
       </c>
-      <c r="I491" s="210">
+      <c r="I491" s="198">
         <v>1</v>
       </c>
-      <c r="J491" s="212">
+      <c r="J491" s="200">
         <v>489.28</v>
       </c>
-      <c r="K491" s="214">
+      <c r="K491" s="202">
         <v>1185</v>
       </c>
       <c r="L491" s="139"/>
@@ -12762,13 +12906,13 @@
       <c r="H492" s="187">
         <v>42275</v>
       </c>
-      <c r="I492" s="210">
+      <c r="I492" s="198">
         <v>1</v>
       </c>
-      <c r="J492" s="212">
+      <c r="J492" s="200">
         <v>490.11</v>
       </c>
-      <c r="K492" s="214">
+      <c r="K492" s="202">
         <v>1186</v>
       </c>
       <c r="L492" s="139"/>
@@ -12794,13 +12938,13 @@
       <c r="H493" s="187">
         <v>42268</v>
       </c>
-      <c r="I493" s="210">
+      <c r="I493" s="198">
         <v>1</v>
       </c>
-      <c r="J493" s="212">
+      <c r="J493" s="200">
         <v>498.37</v>
       </c>
-      <c r="K493" s="214">
+      <c r="K493" s="202">
         <v>1196</v>
       </c>
       <c r="L493" s="139"/>
@@ -12826,13 +12970,13 @@
       <c r="H494" s="187">
         <v>42261</v>
       </c>
-      <c r="I494" s="210">
+      <c r="I494" s="198">
         <v>1</v>
       </c>
-      <c r="J494" s="212">
+      <c r="J494" s="200">
         <v>502.5</v>
       </c>
-      <c r="K494" s="214">
+      <c r="K494" s="202">
         <v>1201</v>
       </c>
       <c r="L494" s="176"/>
@@ -12858,13 +13002,13 @@
       <c r="H495" s="187">
         <v>42254</v>
       </c>
-      <c r="I495" s="210">
+      <c r="I495" s="198">
         <v>1</v>
       </c>
-      <c r="J495" s="212">
+      <c r="J495" s="200">
         <v>493.41</v>
       </c>
-      <c r="K495" s="214">
+      <c r="K495" s="202">
         <v>1190</v>
       </c>
       <c r="L495" s="176"/>
@@ -12890,13 +13034,13 @@
       <c r="H496" s="187">
         <v>42247</v>
       </c>
-      <c r="I496" s="210">
+      <c r="I496" s="198">
         <v>1</v>
       </c>
-      <c r="J496" s="212">
+      <c r="J496" s="200">
         <v>466.06</v>
       </c>
-      <c r="K496" s="215">
+      <c r="K496" s="203">
         <v>1156.9100000000001</v>
       </c>
       <c r="L496" s="176"/>
@@ -12922,13 +13066,13 @@
       <c r="H497" s="187">
         <v>42240</v>
       </c>
-      <c r="I497" s="210">
+      <c r="I497" s="198">
         <v>1</v>
       </c>
-      <c r="J497" s="212">
+      <c r="J497" s="200">
         <v>485.97</v>
       </c>
-      <c r="K497" s="214">
+      <c r="K497" s="202">
         <v>1181</v>
       </c>
       <c r="L497" s="176"/>
@@ -12954,13 +13098,13 @@
       <c r="H498" s="187">
         <v>42233</v>
       </c>
-      <c r="I498" s="210">
+      <c r="I498" s="198">
         <v>1</v>
       </c>
-      <c r="J498" s="212">
+      <c r="J498" s="200">
         <v>496.72</v>
       </c>
-      <c r="K498" s="214">
+      <c r="K498" s="202">
         <v>1194</v>
       </c>
       <c r="L498" s="176"/>
@@ -12986,13 +13130,13 @@
       <c r="H499" s="187">
         <v>42226</v>
       </c>
-      <c r="I499" s="210">
+      <c r="I499" s="198">
         <v>1</v>
       </c>
-      <c r="J499" s="212">
+      <c r="J499" s="200">
         <v>504.98</v>
       </c>
-      <c r="K499" s="214">
+      <c r="K499" s="202">
         <v>1204</v>
       </c>
       <c r="L499" s="176"/>
@@ -13018,13 +13162,13 @@
       <c r="H500" s="187">
         <v>42219</v>
       </c>
-      <c r="I500" s="210">
+      <c r="I500" s="198">
         <v>1</v>
       </c>
-      <c r="J500" s="212">
+      <c r="J500" s="200">
         <v>518.20000000000005</v>
       </c>
-      <c r="K500" s="214">
+      <c r="K500" s="202">
         <v>1220</v>
       </c>
       <c r="L500" s="176"/>
@@ -13050,13 +13194,13 @@
       <c r="H501" s="187">
         <v>42212</v>
       </c>
-      <c r="I501" s="210">
+      <c r="I501" s="198">
         <v>1</v>
       </c>
-      <c r="J501" s="212">
+      <c r="J501" s="200">
         <v>533.91</v>
       </c>
-      <c r="K501" s="214">
+      <c r="K501" s="202">
         <v>1239</v>
       </c>
       <c r="L501" s="176"/>
@@ -13082,13 +13226,13 @@
       <c r="H502" s="187">
         <v>42205</v>
       </c>
-      <c r="I502" s="210">
+      <c r="I502" s="198">
         <v>1</v>
       </c>
-      <c r="J502" s="212">
+      <c r="J502" s="200">
         <v>547.13</v>
       </c>
-      <c r="K502" s="214">
+      <c r="K502" s="202">
         <v>1255</v>
       </c>
       <c r="L502" s="176"/>
@@ -13114,13 +13258,13 @@
       <c r="H503" s="187">
         <v>42198</v>
       </c>
-      <c r="I503" s="210">
+      <c r="I503" s="198">
         <v>1</v>
       </c>
-      <c r="J503" s="212">
+      <c r="J503" s="200">
         <v>568.62</v>
       </c>
-      <c r="K503" s="214">
+      <c r="K503" s="202">
         <v>1281</v>
       </c>
       <c r="L503" s="176"/>
@@ -13146,13 +13290,13 @@
       <c r="H504" s="187">
         <v>42191</v>
       </c>
-      <c r="I504" s="210">
+      <c r="I504" s="198">
         <v>1</v>
       </c>
-      <c r="J504" s="212">
+      <c r="J504" s="200">
         <v>580.19000000000005</v>
       </c>
-      <c r="K504" s="214">
+      <c r="K504" s="202">
         <v>1295</v>
       </c>
       <c r="L504" s="176"/>
@@ -13182,7 +13326,7 @@
         <v>25</v>
       </c>
       <c r="D508" s="129" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E508" s="129"/>
       <c r="F508" s="129" t="s">
@@ -13233,7 +13377,7 @@
     <row r="510" spans="1:25" customFormat="1" ht="16">
       <c r="B510" s="190"/>
       <c r="C510" s="175" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
@@ -13267,13 +13411,13 @@
     <row r="513" spans="2:8" s="175" customFormat="1">
       <c r="B513" s="190"/>
       <c r="D513" s="175" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="514" spans="2:8" s="175" customFormat="1">
       <c r="B514" s="190"/>
       <c r="D514" s="175" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="515" spans="2:8" s="175" customFormat="1">
@@ -13285,10 +13429,10 @@
         <v>0.5</v>
       </c>
       <c r="G516" s="175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H516" s="175" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="517" spans="2:8" s="175" customFormat="1">
@@ -13298,10 +13442,10 @@
         <v>1.0448</v>
       </c>
       <c r="G517" s="175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H517" s="175" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="518" spans="2:8" s="175" customFormat="1">
@@ -13311,10 +13455,10 @@
         <v>1.5448</v>
       </c>
       <c r="G518" s="175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H518" s="175" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="519" spans="2:8" s="175" customFormat="1">
@@ -13327,10 +13471,10 @@
         <v>0.48205999999999999</v>
       </c>
       <c r="G520" s="175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H520" s="175" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="521" spans="2:8" s="175" customFormat="1">
@@ -13340,10 +13484,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G521" s="175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H521" s="175" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="522" spans="2:8" s="175" customFormat="1">
@@ -13353,10 +13497,10 @@
         <v>21</v>
       </c>
       <c r="G522" s="175" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H522" s="175" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="523" spans="2:8" s="175" customFormat="1">
@@ -13378,10 +13522,10 @@
         <v>0.78663421487603302</v>
       </c>
       <c r="G527" s="175" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H527" s="175" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="528" spans="2:8" s="175" customFormat="1">
@@ -13391,7 +13535,7 @@
         <v>2.3759641623656909E-2</v>
       </c>
       <c r="G528" s="175" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="529" spans="2:2" s="175" customFormat="1">

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -17,7 +17,6 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="189">
   <si>
     <t>Source</t>
   </si>
@@ -179,9 +178,6 @@
   </si>
   <si>
     <t>Quintel definition</t>
-  </si>
-  <si>
-    <t>This is a definition</t>
   </si>
   <si>
     <t>co2_exploration_per_mj</t>
@@ -633,6 +629,52 @@
       </rPr>
       <t>palm_oil</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>potential_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>co2_conversion_per_mj</t>
+    </r>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>http://refman.et-model.com/publications/1710</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IPCC_2006_Guidelines for National Greenhouse Gas Inventories - Vol 2 Energy - Ch 1 Introduction.pdf</t>
+  </si>
+  <si>
+    <t>kg CO2/TJ</t>
+  </si>
+  <si>
+    <t>TJ/MJ</t>
+  </si>
+  <si>
+    <t>CO2 emission from biomass is defined as 0</t>
+  </si>
+  <si>
+    <t>Actual CO2 emission from biomass</t>
   </si>
 </sst>
 </file>
@@ -651,12 +693,19 @@
     <numFmt numFmtId="172" formatCode="0.00000"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -965,6 +1014,20 @@
       <sz val="10"/>
       <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1475,720 +1538,760 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="335">
+  <cellStyleXfs count="360">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="48" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="28" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="40" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="26" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="47" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="48" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="335">
+  <cellStyles count="360">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2434,6 +2537,31 @@
     <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3384,16 +3512,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>512</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>566</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>565</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3410,8 +3538,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9296400" y="103365300"/>
-          <a:ext cx="6350000" cy="10312400"/>
+          <a:off x="11099800" y="104597200"/>
+          <a:ext cx="6350000" cy="10998200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>571</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>611</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7899400" y="116814600"/>
+          <a:ext cx="9779000" cy="8293100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3546,30 +3712,12 @@
     </sheetNames>
     <definedNames>
       <definedName name="update_attributes"/>
+      <definedName name="update_fce"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3900,7 +4048,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -3931,10 +4081,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4105,9 +4255,11 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K15"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4131,28 +4283,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="205" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="207"/>
+      <c r="B2" s="217" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="208"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="211"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="224"/>
+      <c r="E4" s="225"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4205,7 +4357,7 @@
     <row r="9" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4243,7 +4395,7 @@
         <v>39</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="173">
         <f>'Research data'!G7</f>
@@ -4253,17 +4405,17 @@
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
       <c r="I11" s="195" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="165" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="47">
         <f>'Research data'!G8</f>
@@ -4273,7 +4425,7 @@
       <c r="G12" s="131"/>
       <c r="H12" s="32"/>
       <c r="I12" s="132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J12" s="46"/>
     </row>
@@ -4283,53 +4435,75 @@
         <v>40</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E13" s="48">
         <f>'Research data'!G9</f>
         <v>0</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="131" t="s">
-        <v>45</v>
+      <c r="G13" s="210" t="s">
+        <v>187</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="132" t="s">
+      <c r="I13" s="215" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="37" t="s">
+    <row r="14" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+      <c r="B14" s="25"/>
+      <c r="C14" s="205" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="214">
+        <f>'Research data'!G10</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="210" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="215" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="2:11" ht="16" thickBot="1">
+      <c r="B15" s="41"/>
+      <c r="C15" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="133">
-        <f>'Research data'!G10</f>
+      <c r="D15" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="133">
+        <f>'Research data'!G11</f>
         <v>5269465.2944731945</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14" s="117"/>
-      <c r="K14" s="36"/>
-    </row>
-    <row r="15" spans="2:11" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="117"/>
+      <c r="K15" s="36"/>
+    </row>
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4345,7 +4519,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_attributes">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -4368,7 +4542,7 @@
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
             <control shapeId="2051" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[3]!update_fce">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>6</xdr:col>
@@ -4431,28 +4605,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="205" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="207"/>
+      <c r="B2" s="217" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="218"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="219"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="208"/>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="210"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="221"/>
+      <c r="E3" s="222"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="214"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="216"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
+      <c r="E4" s="228"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4518,7 +4692,7 @@
     <row r="10" spans="2:10" ht="16" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -4531,88 +4705,88 @@
     <row r="11" spans="2:10" ht="16" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="124">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="117"/>
     </row>
     <row r="12" spans="2:10" ht="16" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="124">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G16</f>
         <v>0</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J12" s="117"/>
     </row>
     <row r="13" spans="2:10" ht="16" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="E13" s="124">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G17</f>
         <v>2.01E-2</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="117"/>
     </row>
     <row r="14" spans="2:10" ht="16" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="124">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G18</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="117"/>
     </row>
@@ -4622,63 +4796,63 @@
         <v>40</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="124">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J15" s="117"/>
     </row>
     <row r="16" spans="2:10" ht="16" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="124">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J16" s="117"/>
     </row>
     <row r="17" spans="2:10" ht="16" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G21</f>
         <v>0.2</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="117"/>
     </row>
@@ -4696,7 +4870,7 @@
     <row r="19" spans="2:10" ht="16" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="204" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="131"/>
@@ -4709,88 +4883,88 @@
     <row r="20" spans="2:10" ht="16" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="124">
-        <f>'Research data'!G23</f>
+        <f>'Research data'!G24</f>
         <v>0</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" ht="16" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E21" s="124">
-        <f>'Research data'!G24</f>
+        <f>'Research data'!G25</f>
         <v>1.47E-2</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" ht="16" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="134" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="E22" s="124">
-        <f>'Research data'!G25</f>
+        <f>'Research data'!G26</f>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="16" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" s="124">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G27</f>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J23" s="117"/>
     </row>
@@ -4800,63 +4974,63 @@
         <v>40</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="124">
-        <f>'Research data'!G27</f>
+        <f>'Research data'!G28</f>
         <v>0</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="96" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="16" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="124">
-        <f>'Research data'!G28</f>
+        <f>'Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="131" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="123" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" ht="16" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>1</v>
       </c>
       <c r="E26" s="48">
-        <f>'Research data'!G29</f>
+        <f>'Research data'!G30</f>
         <v>0.8</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="131" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="132" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J26" s="117"/>
     </row>
@@ -4890,10 +5064,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:Q36"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4913,13 +5087,14 @@
     <col min="13" max="13" width="8.5" style="73" customWidth="1"/>
     <col min="14" max="14" width="2.75" style="73" customWidth="1"/>
     <col min="15" max="15" width="8.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="73" customWidth="1"/>
-    <col min="17" max="17" width="60" style="72" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="72"/>
+    <col min="16" max="16" width="8.875" style="73" customWidth="1"/>
+    <col min="17" max="17" width="2.75" style="73" customWidth="1"/>
+    <col min="18" max="18" width="60" style="72" customWidth="1"/>
+    <col min="19" max="16384" width="10.625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:18" ht="16" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="74"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -4935,9 +5110,10 @@
       <c r="N2" s="76"/>
       <c r="O2" s="76"/>
       <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
-    </row>
-    <row r="3" spans="2:17" s="26" customFormat="1">
+      <c r="Q2" s="76"/>
+      <c r="R2" s="77"/>
+    </row>
+    <row r="3" spans="2:18" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="121" t="s">
         <v>30</v>
@@ -4952,26 +5128,29 @@
       </c>
       <c r="H3" s="121"/>
       <c r="I3" s="69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P3" s="69" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:18">
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -4986,13 +5165,14 @@
       <c r="M4" s="118"/>
       <c r="N4" s="120"/>
       <c r="O4" s="118"/>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+      <c r="P4" s="118"/>
+      <c r="Q4" s="120"/>
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="2:18" ht="16" thickBot="1">
       <c r="B5" s="78"/>
       <c r="C5" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -5007,9 +5187,10 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="2:18" ht="16" thickBot="1">
       <c r="B6" s="78"/>
       <c r="C6" s="135" t="s">
         <v>38</v>
@@ -5033,10 +5214,10 @@
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="136" t="s">
         <v>39</v>
@@ -5048,7 +5229,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="172">
         <f>O7</f>
@@ -5065,24 +5246,25 @@
         <f>Notes!F528</f>
         <v>2.3759641623656909E-2</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="194" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="P7" s="208"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="194" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="166" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="E8" s="136" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>59</v>
       </c>
       <c r="G8" s="47">
         <f>I8</f>
@@ -5100,9 +5282,10 @@
       <c r="N8" s="18"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="2:17" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="137" t="s">
         <v>40</v>
@@ -5114,7 +5297,7 @@
         <v>40</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="47">
         <v>0</v>
@@ -5128,68 +5311,79 @@
       <c r="N9" s="18"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
-      <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="2:17" ht="16" thickBot="1">
-      <c r="B10" s="78"/>
-      <c r="C10" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>41</v>
-      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="206" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
       <c r="F10" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="133">
-        <f>K10</f>
-        <v>5269465.2944731945</v>
-      </c>
-      <c r="H10" s="85"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="214">
+        <f>P10</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="133">
-        <f>Notes!F97</f>
-        <v>5269465.2944731945</v>
-      </c>
+      <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="145"/>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="P10" s="214">
+        <f>Notes!G600</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" ht="16" thickBot="1">
       <c r="B11" s="78"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+      <c r="C11" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="133">
+        <f>K11</f>
+        <v>5269465.2944731945</v>
+      </c>
+      <c r="H11" s="85"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="K11" s="133">
+        <f>Notes!F97</f>
+        <v>5269465.2944731945</v>
+      </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
-      <c r="Q11" s="145"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="145"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="78"/>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5198,18 +5392,19 @@
       <c r="N12" s="18"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="145"/>
-    </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="145"/>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="78"/>
-      <c r="C13" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="131"/>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="114"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5218,83 +5413,76 @@
       <c r="N13" s="18"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
-      <c r="Q13" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="145"/>
+    </row>
+    <row r="14" spans="2:18" ht="16" thickBot="1">
       <c r="B14" s="78"/>
-      <c r="C14" s="138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="124">
-        <f>M14</f>
-        <v>0</v>
-      </c>
+      <c r="C14" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="85"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="124">
-        <f>Notes!H329</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="16" thickBot="1">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="16" thickBot="1">
       <c r="B15" s="78"/>
       <c r="C15" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="124">
-        <f t="shared" ref="G15:G19" si="0">M15</f>
+        <f>M15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="124">
-        <f>Notes!H330</f>
+        <f>Notes!H329</f>
         <v>0</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1">
+      <c r="P15" s="18"/>
+      <c r="Q15" s="82"/>
+      <c r="R15" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="16" thickBot="1">
       <c r="B16" s="78"/>
       <c r="C16" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" s="124">
-        <f t="shared" si="0"/>
-        <v>2.01E-2</v>
+        <f t="shared" ref="G16:G20" si="0">M16</f>
+        <v>0</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5302,17 +5490,18 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="124">
-        <f>Notes!H331</f>
-        <v>2.01E-2</v>
+        <f>Notes!H330</f>
+        <v>0</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" ht="16" thickBot="1">
+      <c r="P16" s="18"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="16" thickBot="1">
       <c r="B17" s="78"/>
       <c r="C17" s="138" t="s">
         <v>50</v>
@@ -5320,11 +5509,11 @@
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="124">
         <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <v>2.01E-2</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5332,77 +5521,80 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="124">
-        <f>Notes!H332</f>
-        <v>5.9999999999999995E-4</v>
+        <f>Notes!H331</f>
+        <v>2.01E-2</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" ht="16" thickBot="1">
+      <c r="P17" s="18"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="16" thickBot="1">
       <c r="B18" s="78"/>
       <c r="C18" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+        <v>49</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="85"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="124">
-        <f>Notes!H333</f>
-        <v>0</v>
+        <f>Notes!H332</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
+      <c r="P18" s="18"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="16" thickBot="1">
       <c r="B19" s="78"/>
       <c r="C19" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="124">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="124">
-        <f>Notes!H334</f>
+        <f>Notes!H333</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17" ht="16" thickBot="1">
+      <c r="P19" s="18"/>
+      <c r="Q19" s="82"/>
+      <c r="R19" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="16" thickBot="1">
       <c r="B20" s="78"/>
       <c r="C20" s="138" t="s">
         <v>48</v>
@@ -5410,52 +5602,64 @@
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="48">
-        <f>M20</f>
-        <v>0.2</v>
+        <v>51</v>
+      </c>
+      <c r="G20" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="48">
-        <v>0.2</v>
+      <c r="M20" s="124">
+        <f>Notes!H334</f>
+        <v>0</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="145" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+      <c r="P20" s="18"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="16" thickBot="1">
       <c r="B21" s="78"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="85"/>
+      <c r="C21" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48">
+        <f>M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="48">
+        <v>0.2</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="145"/>
-    </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+      <c r="P21" s="18"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="145" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" ht="16" thickBot="1">
       <c r="B22" s="78"/>
-      <c r="C22" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="131"/>
       <c r="G22" s="131"/>
       <c r="H22" s="85"/>
@@ -5463,159 +5667,158 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="131"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="16" thickBot="1">
+      <c r="P22" s="18"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="145"/>
+    </row>
+    <row r="23" spans="2:18" ht="16" thickBot="1">
       <c r="B23" s="78"/>
-      <c r="C23" s="138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="48">
-        <f>M23</f>
-        <v>0</v>
-      </c>
+      <c r="C23" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
       <c r="H23" s="85"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="48">
-        <f>Notes!H346</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="131"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17" ht="16" thickBot="1">
+      <c r="P23" s="18"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" ht="16" thickBot="1">
       <c r="B24" s="78"/>
       <c r="C24" s="138" t="s">
-        <v>47</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="124">
-        <f t="shared" ref="G24:G29" si="1">M24</f>
-        <v>1.47E-2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G24" s="48">
+        <f>M24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="85"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="124">
-        <f>Notes!H347</f>
-        <v>1.47E-2</v>
+      <c r="M24" s="48">
+        <f>Notes!H346</f>
+        <v>0</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" ht="16" thickBot="1">
+      <c r="P24" s="18"/>
+      <c r="Q24" s="80"/>
+      <c r="R24" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" ht="16" thickBot="1">
       <c r="B25" s="78"/>
       <c r="C25" s="138" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="G25" s="124">
-        <f t="shared" si="1"/>
-        <v>9.4000000000000004E-3</v>
+        <f t="shared" ref="G25:G30" si="1">M25</f>
+        <v>1.47E-2</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="124">
-        <f>Notes!H348</f>
-        <v>9.4000000000000004E-3</v>
+        <f>Notes!H347</f>
+        <v>1.47E-2</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:17" ht="16" thickBot="1">
+      <c r="P25" s="18"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="16" thickBot="1">
       <c r="B26" s="78"/>
       <c r="C26" s="138" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="124">
         <f t="shared" si="1"/>
-        <v>6.9999999999999999E-4</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="124">
-        <f>Notes!H349</f>
-        <v>6.9999999999999999E-4</v>
+        <f>Notes!H348</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="16" thickBot="1">
+      <c r="P26" s="18"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="16" thickBot="1">
       <c r="B27" s="78"/>
       <c r="C27" s="138" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="124">
-        <f>Notes!H350</f>
-        <v>0</v>
+        <f>Notes!H349</f>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" ht="16" thickBot="1">
+      <c r="P27" s="18"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" ht="16" thickBot="1">
       <c r="B28" s="78"/>
       <c r="C28" s="138" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="124">
         <f t="shared" si="1"/>
@@ -5626,77 +5829,113 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="124">
-        <f>Notes!H351</f>
+        <f>Notes!H350</f>
         <v>0</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="145" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" ht="16" thickBot="1">
+      <c r="P28" s="18"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" ht="16" thickBot="1">
       <c r="B29" s="78"/>
       <c r="C29" s="138" t="s">
         <v>48</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="48">
+        <v>51</v>
+      </c>
+      <c r="G29" s="124">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="48">
-        <v>0.8</v>
+      <c r="M29" s="124">
+        <f>Notes!H351</f>
+        <v>0</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="145" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="2:17" ht="16" thickBot="1">
-      <c r="B30" s="92"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="95"/>
-    </row>
-    <row r="31" spans="2:17">
-      <c r="O31" s="18"/>
-    </row>
-    <row r="32" spans="2:17">
+      <c r="P29" s="18"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="16" thickBot="1">
+      <c r="B30" s="78"/>
+      <c r="C30" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="145" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" ht="16" thickBot="1">
+      <c r="B31" s="92"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+    </row>
+    <row r="32" spans="2:18">
       <c r="O32" s="18"/>
-    </row>
-    <row r="33" spans="15:17">
+      <c r="P32" s="18"/>
+    </row>
+    <row r="33" spans="15:18">
       <c r="O33" s="18"/>
-    </row>
-    <row r="34" spans="15:17">
+      <c r="P33" s="18"/>
+    </row>
+    <row r="34" spans="15:18">
       <c r="O34" s="18"/>
-    </row>
-    <row r="35" spans="15:17">
+      <c r="P34" s="18"/>
+    </row>
+    <row r="35" spans="15:18">
       <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="15:17">
-      <c r="Q36" s="145"/>
+      <c r="P35" s="18"/>
+    </row>
+    <row r="36" spans="15:18">
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="15:18">
+      <c r="R37" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5717,7 +5956,7 @@
   <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5822,25 +6061,25 @@
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="167" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="168" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="58"/>
     </row>
@@ -5859,15 +6098,25 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="54"/>
-      <c r="C9" s="62"/>
+      <c r="C9" s="216" t="s">
+        <v>180</v>
+      </c>
       <c r="D9" s="63"/>
-      <c r="E9" s="147"/>
+      <c r="E9" s="207" t="s">
+        <v>181</v>
+      </c>
       <c r="F9" s="147"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="58"/>
+      <c r="G9" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="58" t="s">
+        <v>182</v>
+      </c>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
+      <c r="K9" s="229" t="s">
+        <v>183</v>
+      </c>
       <c r="L9" s="71"/>
     </row>
     <row r="10" spans="2:12">
@@ -5877,21 +6126,21 @@
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="147" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L10" s="71"/>
     </row>
@@ -5950,11 +6199,11 @@
     <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="147"/>
       <c r="G15" s="62" t="s">
@@ -5968,7 +6217,7 @@
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="66"/>
     </row>
@@ -5997,17 +6246,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="68"/>
       <c r="L17" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="54"/>
       <c r="C18" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -6016,17 +6265,17 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="16">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F19" s="149"/>
       <c r="L19" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -6062,10 +6311,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y530"/>
+  <dimension ref="A1:AI626"/>
   <sheetViews>
-    <sheetView topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="K475" sqref="K475:K504"/>
+    <sheetView topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="E575" sqref="E575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6084,7 +6333,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="129"/>
       <c r="F2" s="129" t="s">
@@ -6131,7 +6380,7 @@
     <row r="4" spans="2:25" customFormat="1" ht="16">
       <c r="B4" s="126"/>
       <c r="C4" s="139" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="139"/>
       <c r="E4" s="139"/>
@@ -6244,10 +6493,10 @@
         <v>890</v>
       </c>
       <c r="G8" s="140" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="141" t="s">
         <v>65</v>
-      </c>
-      <c r="H8" s="141" t="s">
-        <v>66</v>
       </c>
       <c r="I8" s="139"/>
       <c r="J8" s="139"/>
@@ -6275,10 +6524,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="G9" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="141" t="s">
         <v>67</v>
-      </c>
-      <c r="H9" s="141" t="s">
-        <v>68</v>
       </c>
       <c r="I9" s="139"/>
       <c r="J9" s="139"/>
@@ -6307,10 +6556,10 @@
         <v>0.89</v>
       </c>
       <c r="G10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="141" t="s">
         <v>69</v>
-      </c>
-      <c r="H10" s="141" t="s">
-        <v>70</v>
       </c>
       <c r="I10" s="139"/>
       <c r="J10" s="139"/>
@@ -6339,10 +6588,10 @@
         <v>33.108000000000004</v>
       </c>
       <c r="G11" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="141" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I11" s="139"/>
       <c r="J11" s="139"/>
@@ -6909,7 +7158,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="129"/>
       <c r="F62" s="129" t="s">
@@ -6960,7 +7209,7 @@
     <row r="64" spans="2:25" customFormat="1" ht="16">
       <c r="B64" s="126"/>
       <c r="C64" s="139" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
@@ -7175,7 +7424,7 @@
       <c r="B72" s="126"/>
       <c r="C72" s="139"/>
       <c r="D72" s="155" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="139"/>
       <c r="F72" s="139"/>
@@ -7671,7 +7920,7 @@
       <c r="C91" s="139"/>
       <c r="D91" s="139"/>
       <c r="E91" s="142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
@@ -7698,10 +7947,10 @@
         <v>1600</v>
       </c>
       <c r="G92" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="H92" s="139" t="s">
         <v>94</v>
-      </c>
-      <c r="H92" s="139" t="s">
-        <v>95</v>
       </c>
       <c r="K92" s="139"/>
       <c r="O92" s="139"/>
@@ -7721,22 +7970,22 @@
       <c r="C93" s="139"/>
       <c r="D93" s="139"/>
       <c r="E93" s="139" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F93" s="139">
         <v>4.5</v>
       </c>
       <c r="G93" s="139" t="s">
+        <v>96</v>
+      </c>
+      <c r="H93" s="139" t="s">
         <v>97</v>
-      </c>
-      <c r="H93" s="139" t="s">
-        <v>98</v>
       </c>
       <c r="I93" s="139">
         <v>1485</v>
       </c>
       <c r="J93" s="139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K93" s="139"/>
       <c r="L93" s="139"/>
@@ -7760,16 +8009,16 @@
       <c r="C94" s="139"/>
       <c r="D94" s="139"/>
       <c r="E94" s="139" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F94" s="139">
         <v>3.25</v>
       </c>
       <c r="G94" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="H94" s="139" t="s">
         <v>101</v>
-      </c>
-      <c r="H94" s="139" t="s">
-        <v>102</v>
       </c>
       <c r="K94" s="139"/>
       <c r="L94" s="139"/>
@@ -7821,7 +8070,7 @@
         <v>160000</v>
       </c>
       <c r="G96" s="139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H96" s="139"/>
       <c r="K96" s="139"/>
@@ -7850,7 +8099,7 @@
         <v>5269465.2944731945</v>
       </c>
       <c r="G97" s="139" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H97" s="139"/>
       <c r="K97" s="139"/>
@@ -7924,7 +8173,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E100" s="129"/>
       <c r="F100" s="129" t="s">
@@ -7975,7 +8224,7 @@
     <row r="102" spans="1:25" customFormat="1" ht="16">
       <c r="B102" s="126"/>
       <c r="C102" s="139" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D102" s="139"/>
       <c r="E102" s="139"/>
@@ -8005,7 +8254,7 @@
       <c r="C103" s="139"/>
       <c r="D103" s="139"/>
       <c r="F103" s="142" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G103" s="139"/>
       <c r="H103" s="139"/>
@@ -8038,10 +8287,10 @@
         <v>200000</v>
       </c>
       <c r="H104" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="I104" s="139" t="s">
         <v>105</v>
-      </c>
-      <c r="I104" s="139" t="s">
-        <v>106</v>
       </c>
       <c r="J104" s="139"/>
       <c r="K104" s="139"/>
@@ -8069,17 +8318,17 @@
       </c>
       <c r="G105" s="139"/>
       <c r="H105" s="139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I105" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J105" s="139"/>
       <c r="K105" s="139">
         <v>3.78541178</v>
       </c>
       <c r="L105" s="139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M105" s="139"/>
       <c r="N105" s="139"/>
@@ -8105,10 +8354,10 @@
       </c>
       <c r="G106" s="139"/>
       <c r="H106" s="139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I106" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J106" s="139"/>
       <c r="K106" s="143"/>
@@ -8137,10 +8386,10 @@
       </c>
       <c r="G107" s="139"/>
       <c r="H107" s="139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I107" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J107" s="139"/>
       <c r="K107" s="139"/>
@@ -8166,7 +8415,7 @@
       <c r="F108" s="139"/>
       <c r="G108" s="139"/>
       <c r="H108" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I108" s="139"/>
       <c r="J108" s="139"/>
@@ -8243,13 +8492,13 @@
       <c r="C111" s="139"/>
       <c r="D111" s="139"/>
       <c r="E111" s="139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F111" s="139">
         <v>118170</v>
       </c>
       <c r="G111" s="139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H111" s="139"/>
       <c r="I111" s="139"/>
@@ -8280,7 +8529,7 @@
         <v>124669350</v>
       </c>
       <c r="G112" s="139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H112" s="139"/>
       <c r="I112" s="139"/>
@@ -8311,7 +8560,7 @@
         <v>124.66934999999999</v>
       </c>
       <c r="G113" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H113" s="139"/>
       <c r="I113" s="139"/>
@@ -8342,7 +8591,7 @@
         <v>32.934158090457466</v>
       </c>
       <c r="G114" s="142" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H114" s="139"/>
       <c r="I114" s="139"/>
@@ -8446,13 +8695,13 @@
       <c r="C118" s="139"/>
       <c r="D118" s="139"/>
       <c r="E118" s="139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F118" s="139">
         <v>127042</v>
       </c>
       <c r="G118" s="139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H118" s="139"/>
       <c r="I118" s="139"/>
@@ -8483,7 +8732,7 @@
         <v>134029310</v>
       </c>
       <c r="G119" s="139" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H119" s="139"/>
       <c r="I119" s="139"/>
@@ -8514,7 +8763,7 @@
         <v>134.02931000000001</v>
       </c>
       <c r="G120" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H120" s="139"/>
       <c r="I120" s="139"/>
@@ -8545,7 +8794,7 @@
         <v>35.406797936260453</v>
       </c>
       <c r="G121" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H121" s="139"/>
       <c r="I121" s="139"/>
@@ -9066,7 +9315,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E141" s="129"/>
       <c r="F141" s="129" t="s">
@@ -9117,7 +9366,7 @@
     <row r="143" spans="2:25" customFormat="1" ht="16">
       <c r="B143" s="126"/>
       <c r="C143" s="147" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D143" s="139"/>
       <c r="E143" s="139"/>
@@ -10042,19 +10291,19 @@
     <row r="256" spans="2:7" customFormat="1" ht="16">
       <c r="B256" s="126"/>
       <c r="G256" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="257" spans="2:7" customFormat="1" ht="16">
       <c r="B257" s="126"/>
       <c r="G257" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="258" spans="2:7" customFormat="1" ht="16">
       <c r="B258" s="126"/>
       <c r="G258" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="2:7" customFormat="1" ht="16">
@@ -10126,7 +10375,7 @@
         <v>25</v>
       </c>
       <c r="D280" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E280" s="129"/>
       <c r="F280" s="129" t="s">
@@ -10151,7 +10400,7 @@
     <row r="281" spans="2:25" customFormat="1" ht="16">
       <c r="B281" s="126"/>
       <c r="C281" s="144" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D281" s="139"/>
       <c r="E281" s="139"/>
@@ -10235,11 +10484,11 @@
       <c r="C284" s="139"/>
       <c r="D284" s="139"/>
       <c r="E284" s="139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F284" s="139"/>
       <c r="G284" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H284" s="139"/>
       <c r="I284" s="139"/>
@@ -10265,11 +10514,11 @@
       <c r="C285" s="139"/>
       <c r="D285" s="139"/>
       <c r="E285" s="139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F285" s="139"/>
       <c r="G285" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H285" s="139"/>
       <c r="I285" s="139"/>
@@ -10894,7 +11143,7 @@
         <v>25</v>
       </c>
       <c r="D309" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E309" s="129"/>
       <c r="F309" s="129" t="s">
@@ -10945,7 +11194,7 @@
     <row r="311" spans="2:25" customFormat="1" ht="17">
       <c r="B311" s="126"/>
       <c r="C311" s="151" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D311" s="139"/>
       <c r="E311" s="139"/>
@@ -11029,12 +11278,12 @@
     </row>
     <row r="320" spans="2:25">
       <c r="E320" s="152" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="4:11">
       <c r="E321" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F321" s="139"/>
       <c r="G321" s="139"/>
@@ -11042,16 +11291,16 @@
         <v>0</v>
       </c>
       <c r="I321" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J321" s="139"/>
       <c r="K321" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="322" spans="4:11">
       <c r="E322" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F322" s="139"/>
       <c r="G322" s="139"/>
@@ -11059,14 +11308,14 @@
         <v>0</v>
       </c>
       <c r="I322" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J322" s="139"/>
       <c r="K322" s="139"/>
     </row>
     <row r="323" spans="4:11">
       <c r="E323" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F323" s="139"/>
       <c r="G323" s="139"/>
@@ -11074,7 +11323,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I323" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J323" s="139"/>
       <c r="K323" s="139"/>
@@ -11082,7 +11331,7 @@
     <row r="324" spans="4:11">
       <c r="D324" s="139"/>
       <c r="E324" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F324" s="139"/>
       <c r="G324" s="139"/>
@@ -11090,7 +11339,7 @@
         <v>0.6</v>
       </c>
       <c r="I324" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J324" s="139"/>
       <c r="K324" s="139"/>
@@ -11106,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J325" s="139"/>
       <c r="K325" s="139"/>
@@ -11114,7 +11363,7 @@
     <row r="326" spans="4:11">
       <c r="D326" s="139"/>
       <c r="E326" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F326" s="139"/>
       <c r="G326" s="139"/>
@@ -11122,11 +11371,11 @@
         <v>0</v>
       </c>
       <c r="I326" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J326" s="139"/>
       <c r="K326" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="327" spans="4:11">
@@ -11150,7 +11399,7 @@
     <row r="329" spans="4:11">
       <c r="D329" s="139"/>
       <c r="E329" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F329" s="139"/>
       <c r="G329" s="139"/>
@@ -11159,16 +11408,16 @@
         <v>0</v>
       </c>
       <c r="I329" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J329" s="139"/>
       <c r="K329" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="330" spans="4:11">
       <c r="E330" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F330" s="139"/>
       <c r="G330" s="139"/>
@@ -11177,14 +11426,14 @@
         <v>0</v>
       </c>
       <c r="I330" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J330" s="139"/>
       <c r="K330" s="139"/>
     </row>
     <row r="331" spans="4:11">
       <c r="E331" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F331" s="139"/>
       <c r="G331" s="139"/>
@@ -11193,14 +11442,14 @@
         <v>2.01E-2</v>
       </c>
       <c r="I331" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J331" s="139"/>
       <c r="K331" s="139"/>
     </row>
     <row r="332" spans="4:11">
       <c r="E332" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F332" s="139"/>
       <c r="G332" s="139"/>
@@ -11209,7 +11458,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I332" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J332" s="139"/>
       <c r="K332" s="139"/>
@@ -11225,14 +11474,14 @@
         <v>0</v>
       </c>
       <c r="I333" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J333" s="139"/>
       <c r="K333" s="139"/>
     </row>
     <row r="334" spans="4:11">
       <c r="E334" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F334" s="139"/>
       <c r="G334" s="139"/>
@@ -11241,16 +11490,16 @@
         <v>0</v>
       </c>
       <c r="I334" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J334" s="139"/>
       <c r="K334" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="337" spans="5:11">
       <c r="E337" s="153" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F337" s="154"/>
       <c r="G337" s="154"/>
@@ -11261,7 +11510,7 @@
     </row>
     <row r="338" spans="5:11">
       <c r="E338" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F338" s="139"/>
       <c r="G338" s="139"/>
@@ -11269,16 +11518,16 @@
         <v>0</v>
       </c>
       <c r="I338" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J338" s="139"/>
       <c r="K338" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="339" spans="5:11">
       <c r="E339" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F339" s="139"/>
       <c r="G339" s="139"/>
@@ -11286,14 +11535,14 @@
         <v>14.7</v>
       </c>
       <c r="I339" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J339" s="139"/>
       <c r="K339" s="139"/>
     </row>
     <row r="340" spans="5:11">
       <c r="E340" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F340" s="139"/>
       <c r="G340" s="139"/>
@@ -11301,14 +11550,14 @@
         <v>9.4</v>
       </c>
       <c r="I340" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J340" s="139"/>
       <c r="K340" s="139"/>
     </row>
     <row r="341" spans="5:11">
       <c r="E341" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F341" s="139"/>
       <c r="G341" s="139"/>
@@ -11316,7 +11565,7 @@
         <v>0.7</v>
       </c>
       <c r="I341" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J341" s="139"/>
       <c r="K341" s="139"/>
@@ -11331,14 +11580,14 @@
         <v>0</v>
       </c>
       <c r="I342" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J342" s="139"/>
       <c r="K342" s="139"/>
     </row>
     <row r="343" spans="5:11">
       <c r="E343" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F343" s="139"/>
       <c r="G343" s="139"/>
@@ -11346,11 +11595,11 @@
         <v>0</v>
       </c>
       <c r="I343" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J343" s="139"/>
       <c r="K343" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="344" spans="5:11">
@@ -11373,7 +11622,7 @@
     </row>
     <row r="346" spans="5:11">
       <c r="E346" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F346" s="139"/>
       <c r="G346" s="139"/>
@@ -11382,16 +11631,16 @@
         <v>0</v>
       </c>
       <c r="I346" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J346" s="139"/>
       <c r="K346" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="347" spans="5:11">
       <c r="E347" s="139" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F347" s="139"/>
       <c r="G347" s="139"/>
@@ -11400,14 +11649,14 @@
         <v>1.47E-2</v>
       </c>
       <c r="I347" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J347" s="139"/>
       <c r="K347" s="139"/>
     </row>
     <row r="348" spans="5:11">
       <c r="E348" s="139" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F348" s="139"/>
       <c r="G348" s="139"/>
@@ -11416,14 +11665,14 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I348" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J348" s="139"/>
       <c r="K348" s="139"/>
     </row>
     <row r="349" spans="5:11">
       <c r="E349" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F349" s="139"/>
       <c r="G349" s="139"/>
@@ -11432,7 +11681,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I349" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J349" s="139"/>
       <c r="K349" s="139"/>
@@ -11448,14 +11697,14 @@
         <v>0</v>
       </c>
       <c r="I350" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J350" s="139"/>
       <c r="K350" s="139"/>
     </row>
     <row r="351" spans="5:11">
       <c r="E351" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F351" s="139"/>
       <c r="G351" s="139"/>
@@ -11464,11 +11713,11 @@
         <v>0</v>
       </c>
       <c r="I351" s="139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J351" s="139"/>
       <c r="K351" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="368" ht="16" thickBot="1"/>
@@ -11478,7 +11727,7 @@
         <v>25</v>
       </c>
       <c r="D369" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E369" s="129"/>
       <c r="F369" s="129" t="s">
@@ -11529,7 +11778,7 @@
     <row r="371" spans="2:25" customFormat="1" ht="17">
       <c r="B371" s="126"/>
       <c r="C371" s="151" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D371" s="139"/>
       <c r="E371" s="139"/>
@@ -11583,7 +11832,7 @@
     <row r="373" spans="2:25" customFormat="1" ht="16">
       <c r="B373" s="126"/>
       <c r="C373" s="139" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D373" s="139"/>
       <c r="E373" s="139"/>
@@ -11636,16 +11885,16 @@
         <v>27</v>
       </c>
       <c r="E381" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F381">
         <v>37.299999999999997</v>
       </c>
       <c r="G381" t="s">
+        <v>117</v>
+      </c>
+      <c r="H381" t="s">
         <v>118</v>
-      </c>
-      <c r="H381" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="382" spans="2:25" customFormat="1" ht="16">
@@ -11655,7 +11904,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="G382" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="383" spans="2:25" customFormat="1" ht="16">
@@ -11664,10 +11913,10 @@
         <v>0.9</v>
       </c>
       <c r="G383" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H383" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="384" spans="2:25" customFormat="1" ht="16">
@@ -11677,7 +11926,7 @@
         <v>33.57</v>
       </c>
       <c r="G384" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="385" spans="2:2" customFormat="1" ht="16">
@@ -11806,7 +12055,7 @@
         <v>25</v>
       </c>
       <c r="D432" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E432" s="129"/>
       <c r="F432" s="129" t="s">
@@ -11857,7 +12106,7 @@
     <row r="434" spans="2:25" customFormat="1" ht="17">
       <c r="B434" s="126"/>
       <c r="C434" s="151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D434" s="139"/>
       <c r="E434" s="139"/>
@@ -11914,7 +12163,7 @@
       <c r="D436" s="139"/>
       <c r="E436" s="139"/>
       <c r="F436" s="139" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G436" s="139"/>
       <c r="H436" s="139"/>
@@ -11938,18 +12187,18 @@
     </row>
     <row r="447" spans="2:25">
       <c r="F447" s="169" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G447" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="H447" s="169" t="s">
         <v>137</v>
-      </c>
-      <c r="H447" s="169" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="448" spans="2:25">
       <c r="E448" s="169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F448" s="125">
         <v>118.33</v>
@@ -11964,7 +12213,7 @@
     </row>
     <row r="449" spans="5:9">
       <c r="E449" s="169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F449" s="125">
         <v>118.5</v>
@@ -11979,7 +12228,7 @@
     </row>
     <row r="450" spans="5:9">
       <c r="E450" s="169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F450" s="125">
         <v>117.05</v>
@@ -11994,7 +12243,7 @@
     </row>
     <row r="451" spans="5:9">
       <c r="E451" s="169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F451" s="125">
         <v>118.15</v>
@@ -12009,7 +12258,7 @@
     </row>
     <row r="452" spans="5:9">
       <c r="E452" s="169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F452" s="125">
         <f>AVERAGE(F448:F451)</f>
@@ -12024,7 +12273,7 @@
         <v>72.977499999999992</v>
       </c>
       <c r="I452" s="169" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="453" spans="5:9">
@@ -12033,7 +12282,7 @@
         <v>0.72977499999999995</v>
       </c>
       <c r="I453" s="169" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="454" spans="5:9">
@@ -12042,7 +12291,7 @@
         <v>2.2042255648181703E-2</v>
       </c>
       <c r="I454" s="169" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="466" spans="1:25" ht="16" thickBot="1"/>
@@ -12053,7 +12302,7 @@
         <v>25</v>
       </c>
       <c r="D467" s="174" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E467" s="174"/>
       <c r="F467" s="174" t="s">
@@ -12110,7 +12359,7 @@
       <c r="A469" s="176"/>
       <c r="B469" s="177"/>
       <c r="C469" s="159" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D469" s="139"/>
       <c r="E469" s="139"/>
@@ -12139,7 +12388,7 @@
       <c r="A470" s="176"/>
       <c r="B470" s="177"/>
       <c r="C470" s="178" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D470" s="139"/>
       <c r="E470" s="139"/>
@@ -12196,7 +12445,7 @@
       <c r="B472" s="177"/>
       <c r="C472" s="139"/>
       <c r="D472" s="139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E472" s="139"/>
       <c r="F472" s="139"/>
@@ -12231,16 +12480,16 @@
       <c r="F473" s="139"/>
       <c r="G473" s="139"/>
       <c r="H473" s="196" t="s">
+        <v>149</v>
+      </c>
+      <c r="I473" s="197" t="s">
         <v>150</v>
       </c>
-      <c r="I473" s="197" t="s">
-        <v>151</v>
-      </c>
       <c r="J473" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="K473" s="181" t="s">
         <v>177</v>
-      </c>
-      <c r="K473" s="181" t="s">
-        <v>178</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12259,7 +12508,7 @@
       <c r="B474" s="177"/>
       <c r="C474" s="139"/>
       <c r="D474" s="139" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E474" s="176"/>
       <c r="F474" s="139"/>
@@ -12267,10 +12516,10 @@
       <c r="H474" s="182"/>
       <c r="I474" s="183"/>
       <c r="J474" s="184" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K474" s="185" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L474" s="139"/>
       <c r="M474" s="139"/>
@@ -12290,14 +12539,14 @@
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
       <c r="E475" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F475" s="186">
         <f>AVERAGE(J475:J479)</f>
         <v>371.00199999999995</v>
       </c>
       <c r="G475" s="139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H475" s="187">
         <v>42408</v>
@@ -12329,14 +12578,14 @@
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
       <c r="E476" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F476" s="188">
         <f>F475/1000</f>
         <v>0.37100199999999994</v>
       </c>
       <c r="G476" s="139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H476" s="187">
         <v>42401</v>
@@ -12399,17 +12648,17 @@
       <c r="B478" s="177"/>
       <c r="C478" s="139"/>
       <c r="D478" s="139" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E478" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F478" s="186">
         <f>AVERAGE(K475:K479)</f>
         <v>1044.8</v>
       </c>
       <c r="G478" s="139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H478" s="187">
         <v>42387</v>
@@ -12441,14 +12690,14 @@
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
       <c r="E479" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F479" s="188">
         <f>F478/1000</f>
         <v>1.0448</v>
       </c>
       <c r="G479" s="139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H479" s="187">
         <v>42380</v>
@@ -12511,7 +12760,7 @@
       <c r="B481" s="177"/>
       <c r="C481" s="139"/>
       <c r="D481" s="142" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E481" s="139"/>
       <c r="F481" s="189"/>
@@ -12545,16 +12794,16 @@
       <c r="B482" s="177"/>
       <c r="C482" s="139"/>
       <c r="D482" s="139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E482" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F482" s="139">
         <v>21</v>
       </c>
       <c r="G482" s="139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H482" s="187">
         <v>42345</v>
@@ -12585,17 +12834,17 @@
       <c r="B483" s="177"/>
       <c r="C483" s="139"/>
       <c r="D483" s="139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E483" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F483" s="139">
         <f>482.06/1000</f>
         <v>0.48205999999999999</v>
       </c>
       <c r="G483" s="139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H483" s="187">
         <v>42338</v>
@@ -12626,17 +12875,17 @@
       <c r="B484" s="177"/>
       <c r="C484" s="139"/>
       <c r="D484" s="139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E484" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F484" s="189">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G484" s="139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H484" s="187">
         <v>42331</v>
@@ -12699,17 +12948,17 @@
       <c r="B486" s="177"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E486" s="176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F486" s="189">
         <f>(F484+F483+F476)*1.21</f>
         <v>1.0418850200000001</v>
       </c>
       <c r="G486" s="139" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H486" s="187">
         <v>42317</v>
@@ -13326,7 +13575,7 @@
         <v>25</v>
       </c>
       <c r="D508" s="129" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E508" s="129"/>
       <c r="F508" s="129" t="s">
@@ -13377,7 +13626,7 @@
     <row r="510" spans="1:25" customFormat="1" ht="16">
       <c r="B510" s="190"/>
       <c r="C510" s="175" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
@@ -13411,13 +13660,13 @@
     <row r="513" spans="2:8" s="175" customFormat="1">
       <c r="B513" s="190"/>
       <c r="D513" s="175" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="514" spans="2:8" s="175" customFormat="1">
       <c r="B514" s="190"/>
       <c r="D514" s="175" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="515" spans="2:8" s="175" customFormat="1">
@@ -13429,10 +13678,10 @@
         <v>0.5</v>
       </c>
       <c r="G516" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H516" s="175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="517" spans="2:8" s="175" customFormat="1">
@@ -13442,10 +13691,10 @@
         <v>1.0448</v>
       </c>
       <c r="G517" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H517" s="175" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="518" spans="2:8" s="175" customFormat="1">
@@ -13455,10 +13704,10 @@
         <v>1.5448</v>
       </c>
       <c r="G518" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H518" s="175" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="519" spans="2:8" s="175" customFormat="1">
@@ -13471,10 +13720,10 @@
         <v>0.48205999999999999</v>
       </c>
       <c r="G520" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H520" s="175" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="521" spans="2:8" s="175" customFormat="1">
@@ -13484,10 +13733,10 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G521" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H521" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="522" spans="2:8" s="175" customFormat="1">
@@ -13497,10 +13746,10 @@
         <v>21</v>
       </c>
       <c r="G522" s="175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H522" s="175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="523" spans="2:8" s="175" customFormat="1">
@@ -13522,10 +13771,10 @@
         <v>0.78663421487603302</v>
       </c>
       <c r="G527" s="175" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H527" s="175" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="528" spans="2:8" s="175" customFormat="1">
@@ -13535,7 +13784,7 @@
         <v>2.3759641623656909E-2</v>
       </c>
       <c r="G528" s="175" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="529" spans="2:2" s="175" customFormat="1">
@@ -13543,6 +13792,2191 @@
     </row>
     <row r="530" spans="2:2" s="175" customFormat="1">
       <c r="B530" s="190"/>
+    </row>
+    <row r="566" spans="2:35" ht="16" thickBot="1"/>
+    <row r="567" spans="2:35">
+      <c r="B567" s="209"/>
+      <c r="C567" s="174" t="s">
+        <v>25</v>
+      </c>
+      <c r="D567" s="174" t="s">
+        <v>62</v>
+      </c>
+      <c r="E567" s="174"/>
+      <c r="F567" s="174" t="s">
+        <v>32</v>
+      </c>
+      <c r="G567" s="174"/>
+      <c r="H567" s="174"/>
+      <c r="I567" s="174"/>
+      <c r="J567" s="174"/>
+      <c r="K567" s="174"/>
+      <c r="L567" s="174"/>
+      <c r="M567" s="174"/>
+      <c r="N567" s="174"/>
+      <c r="O567" s="174"/>
+      <c r="P567" s="174"/>
+      <c r="Q567" s="174"/>
+      <c r="R567" s="174"/>
+      <c r="S567" s="174"/>
+      <c r="T567" s="174"/>
+      <c r="U567" s="174"/>
+      <c r="V567" s="159"/>
+      <c r="W567" s="159"/>
+      <c r="X567" s="159"/>
+      <c r="Y567" s="159"/>
+      <c r="Z567" s="159"/>
+      <c r="AA567" s="159"/>
+      <c r="AB567" s="159"/>
+      <c r="AC567" s="159"/>
+      <c r="AD567" s="159"/>
+      <c r="AE567" s="159"/>
+      <c r="AF567" s="159"/>
+      <c r="AG567" s="159"/>
+      <c r="AH567" s="159"/>
+      <c r="AI567" s="159"/>
+    </row>
+    <row r="568" spans="2:35">
+      <c r="B568" s="177"/>
+      <c r="C568" s="154"/>
+      <c r="D568" s="154"/>
+      <c r="E568" s="154"/>
+      <c r="F568" s="154"/>
+      <c r="G568" s="154"/>
+      <c r="H568" s="154"/>
+      <c r="I568" s="154"/>
+      <c r="J568" s="154"/>
+      <c r="K568" s="154"/>
+      <c r="L568" s="154"/>
+      <c r="M568" s="154"/>
+      <c r="N568" s="154"/>
+      <c r="O568" s="154"/>
+      <c r="P568" s="154"/>
+      <c r="Q568" s="154"/>
+      <c r="R568" s="154"/>
+      <c r="S568" s="154"/>
+      <c r="T568" s="154"/>
+      <c r="U568" s="154"/>
+      <c r="V568" s="154"/>
+      <c r="W568" s="154"/>
+      <c r="X568" s="154"/>
+      <c r="Y568" s="154"/>
+      <c r="Z568" s="154"/>
+      <c r="AA568" s="154"/>
+      <c r="AB568" s="154"/>
+      <c r="AC568" s="154"/>
+      <c r="AD568" s="154"/>
+      <c r="AE568" s="154"/>
+      <c r="AF568" s="154"/>
+      <c r="AG568" s="154"/>
+      <c r="AH568" s="154"/>
+      <c r="AI568" s="154"/>
+    </row>
+    <row r="569" spans="2:35" ht="16">
+      <c r="B569" s="177"/>
+      <c r="C569" s="211" t="s">
+        <v>184</v>
+      </c>
+      <c r="D569" s="212"/>
+      <c r="E569" s="212"/>
+      <c r="F569" s="212"/>
+      <c r="G569" s="212"/>
+      <c r="H569" s="212"/>
+      <c r="I569" s="212"/>
+      <c r="J569" s="139"/>
+      <c r="K569" s="139"/>
+      <c r="L569" s="139"/>
+      <c r="M569" s="139"/>
+      <c r="N569" s="139"/>
+      <c r="O569" s="139"/>
+      <c r="P569" s="139"/>
+      <c r="Q569" s="139"/>
+      <c r="R569" s="139"/>
+      <c r="S569" s="139"/>
+      <c r="T569" s="139"/>
+      <c r="U569" s="139"/>
+      <c r="V569" s="139"/>
+      <c r="W569" s="139"/>
+      <c r="X569" s="139"/>
+      <c r="Y569" s="139"/>
+      <c r="Z569" s="176"/>
+      <c r="AA569" s="176"/>
+      <c r="AB569" s="176"/>
+      <c r="AC569" s="176"/>
+      <c r="AD569" s="176"/>
+      <c r="AE569" s="176"/>
+      <c r="AF569" s="176"/>
+      <c r="AG569" s="176"/>
+      <c r="AH569" s="176"/>
+      <c r="AI569" s="176"/>
+    </row>
+    <row r="570" spans="2:35" ht="16">
+      <c r="B570" s="177"/>
+      <c r="C570" s="212"/>
+      <c r="D570" s="212"/>
+      <c r="E570" s="212"/>
+      <c r="F570" s="212"/>
+      <c r="G570" s="212"/>
+      <c r="H570" s="212"/>
+      <c r="I570" s="212"/>
+      <c r="J570" s="139"/>
+      <c r="K570" s="139"/>
+      <c r="L570" s="139"/>
+      <c r="M570" s="139"/>
+      <c r="N570" s="139"/>
+      <c r="O570" s="139"/>
+      <c r="P570" s="139"/>
+      <c r="Q570" s="139"/>
+      <c r="R570" s="139"/>
+      <c r="S570" s="139"/>
+      <c r="T570" s="139"/>
+      <c r="U570" s="139"/>
+      <c r="V570" s="139"/>
+      <c r="W570" s="139"/>
+      <c r="X570" s="139"/>
+      <c r="Y570" s="139"/>
+      <c r="Z570" s="176"/>
+      <c r="AA570" s="176"/>
+      <c r="AB570" s="176"/>
+      <c r="AC570" s="176"/>
+      <c r="AD570" s="176"/>
+      <c r="AE570" s="176"/>
+      <c r="AF570" s="176"/>
+      <c r="AG570" s="176"/>
+      <c r="AH570" s="176"/>
+      <c r="AI570" s="176"/>
+    </row>
+    <row r="571" spans="2:35" ht="16">
+      <c r="B571" s="177"/>
+      <c r="C571" s="212"/>
+      <c r="D571" s="212"/>
+      <c r="E571" s="212"/>
+      <c r="F571" s="212"/>
+      <c r="G571" s="212"/>
+      <c r="H571" s="212"/>
+      <c r="I571" s="212"/>
+      <c r="J571" s="139"/>
+      <c r="K571" s="139"/>
+      <c r="L571" s="139"/>
+      <c r="M571" s="139"/>
+      <c r="N571" s="139"/>
+      <c r="O571" s="139"/>
+      <c r="P571" s="139"/>
+      <c r="Q571" s="139"/>
+      <c r="R571" s="139"/>
+      <c r="S571" s="139"/>
+      <c r="T571" s="139"/>
+      <c r="U571" s="139"/>
+      <c r="V571" s="139"/>
+      <c r="W571" s="139"/>
+      <c r="X571" s="139"/>
+      <c r="Y571" s="139"/>
+      <c r="Z571" s="176"/>
+      <c r="AA571" s="176"/>
+      <c r="AB571" s="176"/>
+      <c r="AC571" s="176"/>
+      <c r="AD571" s="176"/>
+      <c r="AE571" s="176"/>
+      <c r="AF571" s="176"/>
+      <c r="AG571" s="176"/>
+      <c r="AH571" s="176"/>
+      <c r="AI571" s="176"/>
+    </row>
+    <row r="572" spans="2:35" ht="16">
+      <c r="B572" s="177"/>
+      <c r="C572" s="212"/>
+      <c r="D572" s="212"/>
+      <c r="E572" s="212"/>
+      <c r="F572" s="212"/>
+      <c r="G572" s="212"/>
+      <c r="H572" s="212"/>
+      <c r="I572" s="212"/>
+      <c r="J572" s="139"/>
+      <c r="K572" s="139"/>
+      <c r="L572" s="139"/>
+      <c r="M572" s="139"/>
+      <c r="N572" s="139"/>
+      <c r="O572" s="139"/>
+      <c r="P572" s="139"/>
+      <c r="Q572" s="139"/>
+      <c r="R572" s="139"/>
+      <c r="S572" s="139"/>
+      <c r="T572" s="139"/>
+      <c r="U572" s="139"/>
+      <c r="V572" s="139"/>
+      <c r="W572" s="139"/>
+      <c r="X572" s="139"/>
+      <c r="Y572" s="139"/>
+      <c r="Z572" s="176"/>
+      <c r="AA572" s="176"/>
+      <c r="AB572" s="176"/>
+      <c r="AC572" s="176"/>
+      <c r="AD572" s="176"/>
+      <c r="AE572" s="176"/>
+      <c r="AF572" s="176"/>
+      <c r="AG572" s="176"/>
+      <c r="AH572" s="176"/>
+      <c r="AI572" s="176"/>
+    </row>
+    <row r="573" spans="2:35" ht="16">
+      <c r="B573" s="177"/>
+      <c r="C573" s="212"/>
+      <c r="D573" s="212"/>
+      <c r="E573" s="212"/>
+      <c r="F573" s="212"/>
+      <c r="G573" s="212"/>
+      <c r="H573" s="212"/>
+      <c r="I573" s="212"/>
+      <c r="J573" s="139"/>
+      <c r="K573" s="139"/>
+      <c r="L573" s="139"/>
+      <c r="M573" s="139"/>
+      <c r="N573" s="139"/>
+      <c r="O573" s="139"/>
+      <c r="P573" s="139"/>
+      <c r="Q573" s="139"/>
+      <c r="R573" s="139"/>
+      <c r="S573" s="139"/>
+      <c r="T573" s="139"/>
+      <c r="U573" s="139"/>
+      <c r="V573" s="139"/>
+      <c r="W573" s="139"/>
+      <c r="X573" s="139"/>
+      <c r="Y573" s="139"/>
+      <c r="Z573" s="176"/>
+      <c r="AA573" s="176"/>
+      <c r="AB573" s="176"/>
+      <c r="AC573" s="176"/>
+      <c r="AD573" s="176"/>
+      <c r="AE573" s="176"/>
+      <c r="AF573" s="176"/>
+      <c r="AG573" s="176"/>
+      <c r="AH573" s="176"/>
+      <c r="AI573" s="176"/>
+    </row>
+    <row r="574" spans="2:35" ht="16">
+      <c r="B574" s="177"/>
+      <c r="C574" s="212"/>
+      <c r="D574" s="139"/>
+      <c r="E574" s="139"/>
+      <c r="F574" s="139"/>
+      <c r="G574" s="139"/>
+      <c r="H574" s="139"/>
+      <c r="I574" s="139"/>
+      <c r="J574" s="139"/>
+      <c r="K574" s="139"/>
+      <c r="L574" s="139"/>
+      <c r="M574" s="139"/>
+      <c r="N574" s="139"/>
+      <c r="O574" s="139"/>
+      <c r="P574" s="139"/>
+      <c r="Q574" s="139"/>
+      <c r="R574" s="139"/>
+      <c r="S574" s="139"/>
+      <c r="T574" s="139"/>
+      <c r="U574" s="139"/>
+      <c r="V574" s="139"/>
+      <c r="W574" s="139"/>
+      <c r="X574" s="139"/>
+      <c r="Y574" s="139"/>
+      <c r="Z574" s="176"/>
+      <c r="AA574" s="176"/>
+      <c r="AB574" s="176"/>
+      <c r="AC574" s="176"/>
+      <c r="AD574" s="176"/>
+      <c r="AE574" s="176"/>
+      <c r="AF574" s="176"/>
+      <c r="AG574" s="176"/>
+      <c r="AH574" s="176"/>
+      <c r="AI574" s="176"/>
+    </row>
+    <row r="575" spans="2:35" ht="16">
+      <c r="B575" s="177"/>
+      <c r="C575" s="212"/>
+      <c r="D575" s="139"/>
+      <c r="E575" s="139"/>
+      <c r="F575" s="139"/>
+      <c r="G575" s="139"/>
+      <c r="H575" s="139"/>
+      <c r="I575" s="139"/>
+      <c r="J575" s="139"/>
+      <c r="K575" s="139"/>
+      <c r="L575" s="139"/>
+      <c r="M575" s="139"/>
+      <c r="N575" s="139"/>
+      <c r="O575" s="139"/>
+      <c r="P575" s="139"/>
+      <c r="Q575" s="139"/>
+      <c r="R575" s="139"/>
+      <c r="S575" s="139"/>
+      <c r="T575" s="139"/>
+      <c r="U575" s="139"/>
+      <c r="V575" s="139"/>
+      <c r="W575" s="139"/>
+      <c r="X575" s="139"/>
+      <c r="Y575" s="139"/>
+      <c r="Z575" s="176"/>
+      <c r="AA575" s="176"/>
+      <c r="AB575" s="176"/>
+      <c r="AC575" s="176"/>
+      <c r="AD575" s="176"/>
+      <c r="AE575" s="176"/>
+      <c r="AF575" s="176"/>
+      <c r="AG575" s="176"/>
+      <c r="AH575" s="176"/>
+      <c r="AI575" s="176"/>
+    </row>
+    <row r="576" spans="2:35" ht="16">
+      <c r="B576" s="177"/>
+      <c r="C576" s="212"/>
+      <c r="D576" s="139"/>
+      <c r="E576" s="139"/>
+      <c r="F576" s="139"/>
+      <c r="G576" s="139"/>
+      <c r="H576" s="139"/>
+      <c r="I576" s="139"/>
+      <c r="J576" s="139"/>
+      <c r="K576" s="139"/>
+      <c r="L576" s="139"/>
+      <c r="M576" s="139"/>
+      <c r="N576" s="139"/>
+      <c r="O576" s="139"/>
+      <c r="P576" s="139"/>
+      <c r="Q576" s="139"/>
+      <c r="R576" s="139"/>
+      <c r="S576" s="139"/>
+      <c r="T576" s="139"/>
+      <c r="U576" s="139"/>
+      <c r="V576" s="139"/>
+      <c r="W576" s="139"/>
+      <c r="X576" s="139"/>
+      <c r="Y576" s="139"/>
+      <c r="Z576" s="176"/>
+      <c r="AA576" s="176"/>
+      <c r="AB576" s="176"/>
+      <c r="AC576" s="176"/>
+      <c r="AD576" s="176"/>
+      <c r="AE576" s="176"/>
+      <c r="AF576" s="176"/>
+      <c r="AG576" s="176"/>
+      <c r="AH576" s="176"/>
+      <c r="AI576" s="176"/>
+    </row>
+    <row r="577" spans="2:35" ht="16">
+      <c r="B577" s="177"/>
+      <c r="C577" s="139"/>
+      <c r="D577" s="139"/>
+      <c r="E577" s="139"/>
+      <c r="F577" s="139"/>
+      <c r="G577" s="139"/>
+      <c r="H577" s="139"/>
+      <c r="I577" s="139"/>
+      <c r="J577" s="139"/>
+      <c r="K577" s="139"/>
+      <c r="L577" s="139"/>
+      <c r="M577" s="139"/>
+      <c r="N577" s="139"/>
+      <c r="O577" s="139"/>
+      <c r="P577" s="139"/>
+      <c r="Q577" s="139"/>
+      <c r="R577" s="139"/>
+      <c r="S577" s="139"/>
+      <c r="T577" s="139"/>
+      <c r="U577" s="139"/>
+      <c r="V577" s="139"/>
+      <c r="W577" s="139"/>
+      <c r="X577" s="139"/>
+      <c r="Y577" s="139"/>
+      <c r="Z577" s="176"/>
+      <c r="AA577" s="176"/>
+      <c r="AB577" s="176"/>
+      <c r="AC577" s="176"/>
+      <c r="AD577" s="176"/>
+      <c r="AE577" s="176"/>
+      <c r="AF577" s="176"/>
+      <c r="AG577" s="176"/>
+      <c r="AH577" s="176"/>
+      <c r="AI577" s="176"/>
+    </row>
+    <row r="578" spans="2:35" ht="16">
+      <c r="B578" s="177"/>
+      <c r="C578" s="139"/>
+      <c r="D578" s="139"/>
+      <c r="E578" s="139"/>
+      <c r="F578" s="139"/>
+      <c r="G578" s="139"/>
+      <c r="H578" s="139"/>
+      <c r="I578" s="139"/>
+      <c r="J578" s="139"/>
+      <c r="K578" s="139"/>
+      <c r="L578" s="139"/>
+      <c r="M578" s="139"/>
+      <c r="N578" s="139"/>
+      <c r="O578" s="139"/>
+      <c r="P578" s="139"/>
+      <c r="Q578" s="139"/>
+      <c r="R578" s="139"/>
+      <c r="S578" s="139"/>
+      <c r="T578" s="139"/>
+      <c r="U578" s="139"/>
+      <c r="V578" s="139"/>
+      <c r="W578" s="139"/>
+      <c r="X578" s="139"/>
+      <c r="Y578" s="139"/>
+      <c r="Z578" s="176"/>
+      <c r="AA578" s="176"/>
+      <c r="AB578" s="176"/>
+      <c r="AC578" s="176"/>
+      <c r="AD578" s="176"/>
+      <c r="AE578" s="176"/>
+      <c r="AF578" s="176"/>
+      <c r="AG578" s="176"/>
+      <c r="AH578" s="176"/>
+      <c r="AI578" s="176"/>
+    </row>
+    <row r="579" spans="2:35" ht="16">
+      <c r="B579" s="177"/>
+      <c r="C579" s="139"/>
+      <c r="D579" s="139"/>
+      <c r="E579" s="139"/>
+      <c r="F579" s="139"/>
+      <c r="G579" s="139"/>
+      <c r="H579" s="139"/>
+      <c r="I579" s="139"/>
+      <c r="J579" s="139"/>
+      <c r="K579" s="139"/>
+      <c r="L579" s="139"/>
+      <c r="M579" s="139"/>
+      <c r="N579" s="139"/>
+      <c r="O579" s="139"/>
+      <c r="P579" s="139"/>
+      <c r="Q579" s="139"/>
+      <c r="R579" s="139"/>
+      <c r="S579" s="139"/>
+      <c r="T579" s="139"/>
+      <c r="U579" s="139"/>
+      <c r="V579" s="139"/>
+      <c r="W579" s="139"/>
+      <c r="X579" s="139"/>
+      <c r="Y579" s="139"/>
+      <c r="Z579" s="176"/>
+      <c r="AA579" s="176"/>
+      <c r="AB579" s="176"/>
+      <c r="AC579" s="176"/>
+      <c r="AD579" s="176"/>
+      <c r="AE579" s="176"/>
+      <c r="AF579" s="176"/>
+      <c r="AG579" s="176"/>
+      <c r="AH579" s="176"/>
+      <c r="AI579" s="176"/>
+    </row>
+    <row r="580" spans="2:35" ht="16">
+      <c r="B580" s="177"/>
+      <c r="C580" s="139"/>
+      <c r="D580" s="139"/>
+      <c r="E580" s="139"/>
+      <c r="F580" s="139"/>
+      <c r="G580" s="139"/>
+      <c r="H580" s="139"/>
+      <c r="I580" s="139"/>
+      <c r="J580" s="139"/>
+      <c r="K580" s="139"/>
+      <c r="L580" s="139"/>
+      <c r="M580" s="139"/>
+      <c r="N580" s="139"/>
+      <c r="O580" s="139"/>
+      <c r="P580" s="139"/>
+      <c r="Q580" s="139"/>
+      <c r="R580" s="139"/>
+      <c r="S580" s="139"/>
+      <c r="T580" s="139"/>
+      <c r="U580" s="139"/>
+      <c r="V580" s="139"/>
+      <c r="W580" s="139"/>
+      <c r="X580" s="139"/>
+      <c r="Y580" s="139"/>
+      <c r="Z580" s="176"/>
+      <c r="AA580" s="176"/>
+      <c r="AB580" s="176"/>
+      <c r="AC580" s="176"/>
+      <c r="AD580" s="176"/>
+      <c r="AE580" s="176"/>
+      <c r="AF580" s="176"/>
+      <c r="AG580" s="176"/>
+      <c r="AH580" s="176"/>
+      <c r="AI580" s="176"/>
+    </row>
+    <row r="581" spans="2:35" ht="16">
+      <c r="B581" s="177"/>
+      <c r="C581" s="139"/>
+      <c r="D581" s="139"/>
+      <c r="E581" s="139"/>
+      <c r="F581" s="139"/>
+      <c r="G581" s="139"/>
+      <c r="H581" s="139"/>
+      <c r="I581" s="139"/>
+      <c r="J581" s="139"/>
+      <c r="K581" s="139"/>
+      <c r="L581" s="139"/>
+      <c r="M581" s="139"/>
+      <c r="N581" s="139"/>
+      <c r="O581" s="139"/>
+      <c r="P581" s="139"/>
+      <c r="Q581" s="139"/>
+      <c r="R581" s="139"/>
+      <c r="S581" s="139"/>
+      <c r="T581" s="139"/>
+      <c r="U581" s="139"/>
+      <c r="V581" s="139"/>
+      <c r="W581" s="139"/>
+      <c r="X581" s="139"/>
+      <c r="Y581" s="139"/>
+      <c r="Z581" s="176"/>
+      <c r="AA581" s="176"/>
+      <c r="AB581" s="176"/>
+      <c r="AC581" s="176"/>
+      <c r="AD581" s="176"/>
+      <c r="AE581" s="176"/>
+      <c r="AF581" s="176"/>
+      <c r="AG581" s="176"/>
+      <c r="AH581" s="176"/>
+      <c r="AI581" s="176"/>
+    </row>
+    <row r="582" spans="2:35" ht="16">
+      <c r="B582" s="177"/>
+      <c r="C582" s="139"/>
+      <c r="D582" s="139"/>
+      <c r="E582" s="139"/>
+      <c r="F582" s="139"/>
+      <c r="G582" s="139"/>
+      <c r="H582" s="139"/>
+      <c r="I582" s="139"/>
+      <c r="J582" s="139"/>
+      <c r="K582" s="139"/>
+      <c r="L582" s="139"/>
+      <c r="M582" s="139"/>
+      <c r="N582" s="139"/>
+      <c r="O582" s="139"/>
+      <c r="P582" s="139"/>
+      <c r="Q582" s="139"/>
+      <c r="R582" s="139"/>
+      <c r="S582" s="139"/>
+      <c r="T582" s="139"/>
+      <c r="U582" s="139"/>
+      <c r="V582" s="139"/>
+      <c r="W582" s="139"/>
+      <c r="X582" s="139"/>
+      <c r="Y582" s="139"/>
+      <c r="Z582" s="176"/>
+      <c r="AA582" s="176"/>
+      <c r="AB582" s="176"/>
+      <c r="AC582" s="176"/>
+      <c r="AD582" s="176"/>
+      <c r="AE582" s="176"/>
+      <c r="AF582" s="176"/>
+      <c r="AG582" s="176"/>
+      <c r="AH582" s="176"/>
+      <c r="AI582" s="176"/>
+    </row>
+    <row r="583" spans="2:35" ht="16">
+      <c r="B583" s="177"/>
+      <c r="C583" s="139"/>
+      <c r="D583" s="139"/>
+      <c r="E583" s="139"/>
+      <c r="F583" s="139"/>
+      <c r="G583" s="139"/>
+      <c r="H583" s="139"/>
+      <c r="I583" s="139"/>
+      <c r="J583" s="139"/>
+      <c r="K583" s="139"/>
+      <c r="L583" s="139"/>
+      <c r="M583" s="139"/>
+      <c r="N583" s="139"/>
+      <c r="O583" s="139"/>
+      <c r="P583" s="139"/>
+      <c r="Q583" s="139"/>
+      <c r="R583" s="139"/>
+      <c r="S583" s="139"/>
+      <c r="T583" s="139"/>
+      <c r="U583" s="139"/>
+      <c r="V583" s="139"/>
+      <c r="W583" s="139"/>
+      <c r="X583" s="139"/>
+      <c r="Y583" s="139"/>
+      <c r="Z583" s="176"/>
+      <c r="AA583" s="176"/>
+      <c r="AB583" s="176"/>
+      <c r="AC583" s="176"/>
+      <c r="AD583" s="176"/>
+      <c r="AE583" s="176"/>
+      <c r="AF583" s="176"/>
+      <c r="AG583" s="176"/>
+      <c r="AH583" s="176"/>
+      <c r="AI583" s="176"/>
+    </row>
+    <row r="584" spans="2:35" ht="16">
+      <c r="B584" s="177"/>
+      <c r="C584" s="139"/>
+      <c r="D584" s="139"/>
+      <c r="E584" s="139"/>
+      <c r="F584" s="139"/>
+      <c r="G584" s="139"/>
+      <c r="H584" s="139"/>
+      <c r="I584" s="139"/>
+      <c r="J584" s="139"/>
+      <c r="K584" s="139"/>
+      <c r="L584" s="139"/>
+      <c r="M584" s="139"/>
+      <c r="N584" s="139"/>
+      <c r="O584" s="139"/>
+      <c r="P584" s="139"/>
+      <c r="Q584" s="139"/>
+      <c r="R584" s="139"/>
+      <c r="S584" s="139"/>
+      <c r="T584" s="139"/>
+      <c r="U584" s="139"/>
+      <c r="V584" s="139"/>
+      <c r="W584" s="139"/>
+      <c r="X584" s="139"/>
+      <c r="Y584" s="139"/>
+      <c r="Z584" s="176"/>
+      <c r="AA584" s="176"/>
+      <c r="AB584" s="176"/>
+      <c r="AC584" s="176"/>
+      <c r="AD584" s="176"/>
+      <c r="AE584" s="176"/>
+      <c r="AF584" s="176"/>
+      <c r="AG584" s="176"/>
+      <c r="AH584" s="176"/>
+      <c r="AI584" s="176"/>
+    </row>
+    <row r="585" spans="2:35" ht="16">
+      <c r="B585" s="177"/>
+      <c r="C585" s="139"/>
+      <c r="D585" s="139"/>
+      <c r="E585" s="139"/>
+      <c r="F585" s="139"/>
+      <c r="G585" s="139"/>
+      <c r="H585" s="139"/>
+      <c r="I585" s="139"/>
+      <c r="J585" s="139"/>
+      <c r="K585" s="139"/>
+      <c r="L585" s="139"/>
+      <c r="M585" s="139"/>
+      <c r="N585" s="139"/>
+      <c r="O585" s="139"/>
+      <c r="P585" s="139"/>
+      <c r="Q585" s="139"/>
+      <c r="R585" s="139"/>
+      <c r="S585" s="139"/>
+      <c r="T585" s="139"/>
+      <c r="U585" s="139"/>
+      <c r="V585" s="139"/>
+      <c r="W585" s="139"/>
+      <c r="X585" s="139"/>
+      <c r="Y585" s="139"/>
+      <c r="Z585" s="176"/>
+      <c r="AA585" s="176"/>
+      <c r="AB585" s="176"/>
+      <c r="AC585" s="176"/>
+      <c r="AD585" s="176"/>
+      <c r="AE585" s="176"/>
+      <c r="AF585" s="176"/>
+      <c r="AG585" s="176"/>
+      <c r="AH585" s="176"/>
+      <c r="AI585" s="176"/>
+    </row>
+    <row r="586" spans="2:35" ht="16">
+      <c r="B586" s="177"/>
+      <c r="C586" s="139"/>
+      <c r="D586" s="139"/>
+      <c r="E586" s="139"/>
+      <c r="F586" s="139"/>
+      <c r="G586" s="139"/>
+      <c r="H586" s="139"/>
+      <c r="I586" s="139"/>
+      <c r="J586" s="139"/>
+      <c r="K586" s="139"/>
+      <c r="L586" s="139"/>
+      <c r="M586" s="139"/>
+      <c r="N586" s="139"/>
+      <c r="O586" s="139"/>
+      <c r="P586" s="139"/>
+      <c r="Q586" s="139"/>
+      <c r="R586" s="139"/>
+      <c r="S586" s="139"/>
+      <c r="T586" s="139"/>
+      <c r="U586" s="139"/>
+      <c r="V586" s="139"/>
+      <c r="W586" s="139"/>
+      <c r="X586" s="139"/>
+      <c r="Y586" s="139"/>
+      <c r="Z586" s="176"/>
+      <c r="AA586" s="176"/>
+      <c r="AB586" s="176"/>
+      <c r="AC586" s="176"/>
+      <c r="AD586" s="176"/>
+      <c r="AE586" s="176"/>
+      <c r="AF586" s="176"/>
+      <c r="AG586" s="176"/>
+      <c r="AH586" s="176"/>
+      <c r="AI586" s="176"/>
+    </row>
+    <row r="587" spans="2:35" ht="16">
+      <c r="B587" s="177"/>
+      <c r="C587" s="139"/>
+      <c r="D587" s="139"/>
+      <c r="E587" s="139"/>
+      <c r="F587" s="139"/>
+      <c r="G587" s="139"/>
+      <c r="H587" s="139"/>
+      <c r="I587" s="139"/>
+      <c r="J587" s="139"/>
+      <c r="K587" s="139"/>
+      <c r="L587" s="139"/>
+      <c r="M587" s="139"/>
+      <c r="N587" s="139"/>
+      <c r="O587" s="139"/>
+      <c r="P587" s="139"/>
+      <c r="Q587" s="139"/>
+      <c r="R587" s="139"/>
+      <c r="S587" s="139"/>
+      <c r="T587" s="139"/>
+      <c r="U587" s="139"/>
+      <c r="V587" s="139"/>
+      <c r="W587" s="139"/>
+      <c r="X587" s="139"/>
+      <c r="Y587" s="139"/>
+      <c r="Z587" s="176"/>
+      <c r="AA587" s="176"/>
+      <c r="AB587" s="176"/>
+      <c r="AC587" s="176"/>
+      <c r="AD587" s="176"/>
+      <c r="AE587" s="176"/>
+      <c r="AF587" s="176"/>
+      <c r="AG587" s="176"/>
+      <c r="AH587" s="176"/>
+      <c r="AI587" s="176"/>
+    </row>
+    <row r="588" spans="2:35" ht="16">
+      <c r="B588" s="177"/>
+      <c r="C588" s="139"/>
+      <c r="D588" s="139"/>
+      <c r="E588" s="139"/>
+      <c r="F588" s="139"/>
+      <c r="G588" s="139"/>
+      <c r="H588" s="139"/>
+      <c r="I588" s="139"/>
+      <c r="J588" s="139"/>
+      <c r="K588" s="139"/>
+      <c r="L588" s="139"/>
+      <c r="M588" s="139"/>
+      <c r="N588" s="139"/>
+      <c r="O588" s="139"/>
+      <c r="P588" s="139"/>
+      <c r="Q588" s="139"/>
+      <c r="R588" s="139"/>
+      <c r="S588" s="139"/>
+      <c r="T588" s="139"/>
+      <c r="U588" s="139"/>
+      <c r="V588" s="139"/>
+      <c r="W588" s="139"/>
+      <c r="X588" s="139"/>
+      <c r="Y588" s="139"/>
+      <c r="Z588" s="176"/>
+      <c r="AA588" s="176"/>
+      <c r="AB588" s="176"/>
+      <c r="AC588" s="176"/>
+      <c r="AD588" s="176"/>
+      <c r="AE588" s="176"/>
+      <c r="AF588" s="176"/>
+      <c r="AG588" s="176"/>
+      <c r="AH588" s="176"/>
+      <c r="AI588" s="176"/>
+    </row>
+    <row r="589" spans="2:35" ht="16">
+      <c r="B589" s="177"/>
+      <c r="C589" s="139"/>
+      <c r="D589" s="139"/>
+      <c r="E589" s="139"/>
+      <c r="F589" s="139"/>
+      <c r="G589" s="139"/>
+      <c r="H589" s="139"/>
+      <c r="I589" s="139"/>
+      <c r="J589" s="139"/>
+      <c r="K589" s="139"/>
+      <c r="L589" s="139"/>
+      <c r="M589" s="139"/>
+      <c r="N589" s="139"/>
+      <c r="O589" s="139"/>
+      <c r="P589" s="139"/>
+      <c r="Q589" s="139"/>
+      <c r="R589" s="139"/>
+      <c r="S589" s="139"/>
+      <c r="T589" s="139"/>
+      <c r="U589" s="139"/>
+      <c r="V589" s="139"/>
+      <c r="W589" s="139"/>
+      <c r="X589" s="139"/>
+      <c r="Y589" s="139"/>
+      <c r="Z589" s="176"/>
+      <c r="AA589" s="176"/>
+      <c r="AB589" s="176"/>
+      <c r="AC589" s="176"/>
+      <c r="AD589" s="176"/>
+      <c r="AE589" s="176"/>
+      <c r="AF589" s="176"/>
+      <c r="AG589" s="176"/>
+      <c r="AH589" s="176"/>
+      <c r="AI589" s="176"/>
+    </row>
+    <row r="590" spans="2:35" ht="16">
+      <c r="B590" s="177"/>
+      <c r="C590" s="139"/>
+      <c r="D590" s="139"/>
+      <c r="E590" s="139"/>
+      <c r="F590" s="139"/>
+      <c r="G590" s="139"/>
+      <c r="H590" s="139"/>
+      <c r="I590" s="139"/>
+      <c r="J590" s="139"/>
+      <c r="K590" s="139"/>
+      <c r="L590" s="139"/>
+      <c r="M590" s="139"/>
+      <c r="N590" s="139"/>
+      <c r="O590" s="139"/>
+      <c r="P590" s="139"/>
+      <c r="Q590" s="139"/>
+      <c r="R590" s="139"/>
+      <c r="S590" s="139"/>
+      <c r="T590" s="139"/>
+      <c r="U590" s="139"/>
+      <c r="V590" s="139"/>
+      <c r="W590" s="139"/>
+      <c r="X590" s="139"/>
+      <c r="Y590" s="139"/>
+      <c r="Z590" s="176"/>
+      <c r="AA590" s="176"/>
+      <c r="AB590" s="176"/>
+      <c r="AC590" s="176"/>
+      <c r="AD590" s="176"/>
+      <c r="AE590" s="176"/>
+      <c r="AF590" s="176"/>
+      <c r="AG590" s="176"/>
+      <c r="AH590" s="176"/>
+      <c r="AI590" s="176"/>
+    </row>
+    <row r="591" spans="2:35" ht="16">
+      <c r="B591" s="177"/>
+      <c r="C591" s="139"/>
+      <c r="D591" s="139"/>
+      <c r="E591" s="139"/>
+      <c r="F591" s="139"/>
+      <c r="G591" s="139"/>
+      <c r="H591" s="139"/>
+      <c r="I591" s="139"/>
+      <c r="J591" s="139"/>
+      <c r="K591" s="139"/>
+      <c r="L591" s="139"/>
+      <c r="M591" s="139"/>
+      <c r="N591" s="139"/>
+      <c r="O591" s="139"/>
+      <c r="P591" s="139"/>
+      <c r="Q591" s="139"/>
+      <c r="R591" s="139"/>
+      <c r="S591" s="139"/>
+      <c r="T591" s="139"/>
+      <c r="U591" s="139"/>
+      <c r="V591" s="139"/>
+      <c r="W591" s="139"/>
+      <c r="X591" s="139"/>
+      <c r="Y591" s="139"/>
+      <c r="Z591" s="176"/>
+      <c r="AA591" s="176"/>
+      <c r="AB591" s="176"/>
+      <c r="AC591" s="176"/>
+      <c r="AD591" s="176"/>
+      <c r="AE591" s="176"/>
+      <c r="AF591" s="176"/>
+      <c r="AG591" s="176"/>
+      <c r="AH591" s="176"/>
+      <c r="AI591" s="176"/>
+    </row>
+    <row r="592" spans="2:35" ht="16">
+      <c r="B592" s="177"/>
+      <c r="C592" s="139"/>
+      <c r="D592" s="139"/>
+      <c r="E592" s="139"/>
+      <c r="F592" s="139"/>
+      <c r="G592" s="139"/>
+      <c r="H592" s="139"/>
+      <c r="I592" s="139"/>
+      <c r="J592" s="139"/>
+      <c r="K592" s="139"/>
+      <c r="L592" s="139"/>
+      <c r="M592" s="139"/>
+      <c r="N592" s="139"/>
+      <c r="O592" s="139"/>
+      <c r="P592" s="139"/>
+      <c r="Q592" s="139"/>
+      <c r="R592" s="139"/>
+      <c r="S592" s="139"/>
+      <c r="T592" s="139"/>
+      <c r="U592" s="139"/>
+      <c r="V592" s="139"/>
+      <c r="W592" s="139"/>
+      <c r="X592" s="139"/>
+      <c r="Y592" s="139"/>
+      <c r="Z592" s="176"/>
+      <c r="AA592" s="176"/>
+      <c r="AB592" s="176"/>
+      <c r="AC592" s="176"/>
+      <c r="AD592" s="176"/>
+      <c r="AE592" s="176"/>
+      <c r="AF592" s="176"/>
+      <c r="AG592" s="176"/>
+      <c r="AH592" s="176"/>
+      <c r="AI592" s="176"/>
+    </row>
+    <row r="593" spans="2:35" ht="16">
+      <c r="B593" s="177"/>
+      <c r="C593" s="139"/>
+      <c r="D593" s="139"/>
+      <c r="E593" s="139"/>
+      <c r="F593" s="139"/>
+      <c r="G593" s="139"/>
+      <c r="H593" s="139"/>
+      <c r="I593" s="139"/>
+      <c r="J593" s="139"/>
+      <c r="K593" s="139"/>
+      <c r="L593" s="139"/>
+      <c r="M593" s="139"/>
+      <c r="N593" s="139"/>
+      <c r="O593" s="139"/>
+      <c r="P593" s="139"/>
+      <c r="Q593" s="139"/>
+      <c r="R593" s="139"/>
+      <c r="S593" s="139"/>
+      <c r="T593" s="139"/>
+      <c r="U593" s="139"/>
+      <c r="V593" s="139"/>
+      <c r="W593" s="139"/>
+      <c r="X593" s="139"/>
+      <c r="Y593" s="139"/>
+      <c r="Z593" s="176"/>
+      <c r="AA593" s="176"/>
+      <c r="AB593" s="176"/>
+      <c r="AC593" s="176"/>
+      <c r="AD593" s="176"/>
+      <c r="AE593" s="176"/>
+      <c r="AF593" s="176"/>
+      <c r="AG593" s="176"/>
+      <c r="AH593" s="176"/>
+      <c r="AI593" s="176"/>
+    </row>
+    <row r="594" spans="2:35" ht="16">
+      <c r="B594" s="177"/>
+      <c r="C594" s="176"/>
+      <c r="D594" s="176"/>
+      <c r="E594" s="176"/>
+      <c r="F594" s="176"/>
+      <c r="G594" s="176"/>
+      <c r="H594" s="176"/>
+      <c r="I594" s="176"/>
+      <c r="J594" s="176"/>
+      <c r="K594" s="176"/>
+      <c r="L594" s="176"/>
+      <c r="M594" s="176"/>
+      <c r="N594" s="176"/>
+      <c r="O594" s="176"/>
+      <c r="P594" s="176"/>
+      <c r="Q594" s="176"/>
+      <c r="R594" s="176"/>
+      <c r="S594" s="176"/>
+      <c r="T594" s="176"/>
+      <c r="U594" s="176"/>
+      <c r="V594" s="176"/>
+      <c r="W594" s="176"/>
+      <c r="X594" s="176"/>
+      <c r="Y594" s="176"/>
+      <c r="Z594" s="176"/>
+      <c r="AA594" s="176"/>
+      <c r="AB594" s="176"/>
+      <c r="AC594" s="176"/>
+      <c r="AD594" s="176"/>
+      <c r="AE594" s="176"/>
+      <c r="AF594" s="176"/>
+      <c r="AG594" s="176"/>
+      <c r="AH594" s="176"/>
+      <c r="AI594" s="176"/>
+    </row>
+    <row r="595" spans="2:35" ht="16">
+      <c r="B595" s="177"/>
+      <c r="C595" s="176"/>
+      <c r="D595" s="176"/>
+      <c r="E595" s="176"/>
+      <c r="F595" s="176"/>
+      <c r="G595" s="176"/>
+      <c r="H595" s="176"/>
+      <c r="I595" s="176"/>
+      <c r="J595" s="176"/>
+      <c r="K595" s="176"/>
+      <c r="L595" s="176"/>
+      <c r="M595" s="176"/>
+      <c r="N595" s="176"/>
+      <c r="O595" s="176"/>
+      <c r="P595" s="176"/>
+      <c r="Q595" s="176"/>
+      <c r="R595" s="176"/>
+      <c r="S595" s="176"/>
+      <c r="T595" s="176"/>
+      <c r="U595" s="176"/>
+      <c r="V595" s="176"/>
+      <c r="W595" s="176"/>
+      <c r="X595" s="176"/>
+      <c r="Y595" s="176"/>
+      <c r="Z595" s="176"/>
+      <c r="AA595" s="176"/>
+      <c r="AB595" s="176"/>
+      <c r="AC595" s="176"/>
+      <c r="AD595" s="176"/>
+      <c r="AE595" s="176"/>
+      <c r="AF595" s="176"/>
+      <c r="AG595" s="176"/>
+      <c r="AH595" s="176"/>
+      <c r="AI595" s="176"/>
+    </row>
+    <row r="596" spans="2:35" ht="16">
+      <c r="B596" s="177"/>
+      <c r="C596" s="176"/>
+      <c r="D596" s="176"/>
+      <c r="E596" s="176"/>
+      <c r="F596" s="176"/>
+      <c r="G596" s="176"/>
+      <c r="H596" s="176"/>
+      <c r="I596" s="176"/>
+      <c r="J596" s="176"/>
+      <c r="K596" s="176"/>
+      <c r="L596" s="176"/>
+      <c r="M596" s="176"/>
+      <c r="N596" s="176"/>
+      <c r="O596" s="176"/>
+      <c r="P596" s="176"/>
+      <c r="Q596" s="176"/>
+      <c r="R596" s="176"/>
+      <c r="S596" s="176"/>
+      <c r="T596" s="176"/>
+      <c r="U596" s="176"/>
+      <c r="V596" s="176"/>
+      <c r="W596" s="176"/>
+      <c r="X596" s="176"/>
+      <c r="Y596" s="176"/>
+      <c r="Z596" s="176"/>
+      <c r="AA596" s="176"/>
+      <c r="AB596" s="176"/>
+      <c r="AC596" s="176"/>
+      <c r="AD596" s="176"/>
+      <c r="AE596" s="176"/>
+      <c r="AF596" s="176"/>
+      <c r="AG596" s="176"/>
+      <c r="AH596" s="176"/>
+      <c r="AI596" s="176"/>
+    </row>
+    <row r="597" spans="2:35" ht="16">
+      <c r="B597" s="177"/>
+      <c r="C597" s="176"/>
+      <c r="D597" s="176"/>
+      <c r="E597" s="176"/>
+      <c r="F597" s="176"/>
+      <c r="G597" s="176"/>
+      <c r="H597" s="176"/>
+      <c r="I597" s="176"/>
+      <c r="J597" s="176"/>
+      <c r="K597" s="176"/>
+      <c r="L597" s="176"/>
+      <c r="M597" s="176"/>
+      <c r="N597" s="176"/>
+      <c r="O597" s="176"/>
+      <c r="P597" s="176"/>
+      <c r="Q597" s="176"/>
+      <c r="R597" s="176"/>
+      <c r="S597" s="176"/>
+      <c r="T597" s="176"/>
+      <c r="U597" s="176"/>
+      <c r="V597" s="176"/>
+      <c r="W597" s="176"/>
+      <c r="X597" s="176"/>
+      <c r="Y597" s="176"/>
+      <c r="Z597" s="176"/>
+      <c r="AA597" s="176"/>
+      <c r="AB597" s="176"/>
+      <c r="AC597" s="176"/>
+      <c r="AD597" s="176"/>
+      <c r="AE597" s="176"/>
+      <c r="AF597" s="176"/>
+      <c r="AG597" s="176"/>
+      <c r="AH597" s="176"/>
+      <c r="AI597" s="176"/>
+    </row>
+    <row r="598" spans="2:35" ht="16">
+      <c r="B598" s="177"/>
+      <c r="C598" s="176"/>
+      <c r="D598" s="212">
+        <v>1.24</v>
+      </c>
+      <c r="E598" s="213"/>
+      <c r="F598" s="212"/>
+      <c r="G598" s="212">
+        <v>70800</v>
+      </c>
+      <c r="H598" s="212" t="s">
+        <v>185</v>
+      </c>
+      <c r="I598" s="212"/>
+      <c r="J598" s="176"/>
+      <c r="K598" s="176"/>
+      <c r="L598" s="176"/>
+      <c r="M598" s="176"/>
+      <c r="N598" s="176"/>
+      <c r="O598" s="176"/>
+      <c r="P598" s="176"/>
+      <c r="Q598" s="176"/>
+      <c r="R598" s="176"/>
+      <c r="S598" s="176"/>
+      <c r="T598" s="176"/>
+      <c r="U598" s="176"/>
+      <c r="V598" s="176"/>
+      <c r="W598" s="176"/>
+      <c r="X598" s="176"/>
+      <c r="Y598" s="176"/>
+      <c r="Z598" s="176"/>
+      <c r="AA598" s="176"/>
+      <c r="AB598" s="176"/>
+      <c r="AC598" s="176"/>
+      <c r="AD598" s="176"/>
+      <c r="AE598" s="176"/>
+      <c r="AF598" s="176"/>
+      <c r="AG598" s="176"/>
+      <c r="AH598" s="176"/>
+      <c r="AI598" s="176"/>
+    </row>
+    <row r="599" spans="2:35" ht="16">
+      <c r="B599" s="177"/>
+      <c r="C599" s="176"/>
+      <c r="D599" s="212"/>
+      <c r="E599" s="213"/>
+      <c r="F599" s="212"/>
+      <c r="G599" s="212">
+        <f>10^6</f>
+        <v>1000000</v>
+      </c>
+      <c r="H599" s="212" t="s">
+        <v>186</v>
+      </c>
+      <c r="I599" s="212"/>
+      <c r="J599" s="176"/>
+      <c r="K599" s="176"/>
+      <c r="L599" s="176"/>
+      <c r="M599" s="176"/>
+      <c r="N599" s="176"/>
+      <c r="O599" s="176"/>
+      <c r="P599" s="176"/>
+      <c r="Q599" s="176"/>
+      <c r="R599" s="176"/>
+      <c r="S599" s="176"/>
+      <c r="T599" s="176"/>
+      <c r="U599" s="176"/>
+      <c r="V599" s="176"/>
+      <c r="W599" s="176"/>
+      <c r="X599" s="176"/>
+      <c r="Y599" s="176"/>
+      <c r="Z599" s="176"/>
+      <c r="AA599" s="176"/>
+      <c r="AB599" s="176"/>
+      <c r="AC599" s="176"/>
+      <c r="AD599" s="176"/>
+      <c r="AE599" s="176"/>
+      <c r="AF599" s="176"/>
+      <c r="AG599" s="176"/>
+      <c r="AH599" s="176"/>
+      <c r="AI599" s="176"/>
+    </row>
+    <row r="600" spans="2:35" ht="16">
+      <c r="B600" s="177"/>
+      <c r="C600" s="176"/>
+      <c r="D600" s="212"/>
+      <c r="E600" s="213"/>
+      <c r="F600" s="212"/>
+      <c r="G600" s="212">
+        <f>G598/G599</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="H600" s="212" t="s">
+        <v>185</v>
+      </c>
+      <c r="I600" s="212"/>
+      <c r="J600" s="176"/>
+      <c r="K600" s="176"/>
+      <c r="L600" s="176"/>
+      <c r="M600" s="176"/>
+      <c r="N600" s="176"/>
+      <c r="O600" s="176"/>
+      <c r="P600" s="176"/>
+      <c r="Q600" s="176"/>
+      <c r="R600" s="176"/>
+      <c r="S600" s="176"/>
+      <c r="T600" s="176"/>
+      <c r="U600" s="176"/>
+      <c r="V600" s="176"/>
+      <c r="W600" s="176"/>
+      <c r="X600" s="176"/>
+      <c r="Y600" s="176"/>
+      <c r="Z600" s="176"/>
+      <c r="AA600" s="176"/>
+      <c r="AB600" s="176"/>
+      <c r="AC600" s="176"/>
+      <c r="AD600" s="176"/>
+      <c r="AE600" s="176"/>
+      <c r="AF600" s="176"/>
+      <c r="AG600" s="176"/>
+      <c r="AH600" s="176"/>
+      <c r="AI600" s="176"/>
+    </row>
+    <row r="601" spans="2:35" ht="16">
+      <c r="B601" s="177"/>
+      <c r="C601" s="176"/>
+      <c r="D601" s="139"/>
+      <c r="E601" s="139"/>
+      <c r="F601" s="139"/>
+      <c r="G601" s="139"/>
+      <c r="H601" s="139"/>
+      <c r="I601" s="139"/>
+      <c r="J601" s="176"/>
+      <c r="K601" s="176"/>
+      <c r="L601" s="176"/>
+      <c r="M601" s="176"/>
+      <c r="N601" s="176"/>
+      <c r="O601" s="176"/>
+      <c r="P601" s="176"/>
+      <c r="Q601" s="176"/>
+      <c r="R601" s="176"/>
+      <c r="S601" s="176"/>
+      <c r="T601" s="176"/>
+      <c r="U601" s="176"/>
+      <c r="V601" s="176"/>
+      <c r="W601" s="176"/>
+      <c r="X601" s="176"/>
+      <c r="Y601" s="176"/>
+      <c r="Z601" s="176"/>
+      <c r="AA601" s="176"/>
+      <c r="AB601" s="176"/>
+      <c r="AC601" s="176"/>
+      <c r="AD601" s="176"/>
+      <c r="AE601" s="176"/>
+      <c r="AF601" s="176"/>
+      <c r="AG601" s="176"/>
+      <c r="AH601" s="176"/>
+      <c r="AI601" s="176"/>
+    </row>
+    <row r="602" spans="2:35" ht="16">
+      <c r="B602" s="177"/>
+      <c r="C602" s="176"/>
+      <c r="D602" s="139"/>
+      <c r="E602" s="139"/>
+      <c r="F602" s="139"/>
+      <c r="G602" s="139"/>
+      <c r="H602" s="139"/>
+      <c r="I602" s="139"/>
+      <c r="J602" s="176"/>
+      <c r="K602" s="176"/>
+      <c r="L602" s="176"/>
+      <c r="M602" s="176"/>
+      <c r="N602" s="176"/>
+      <c r="O602" s="176"/>
+      <c r="P602" s="176"/>
+      <c r="Q602" s="176"/>
+      <c r="R602" s="176"/>
+      <c r="S602" s="176"/>
+      <c r="T602" s="176"/>
+      <c r="U602" s="176"/>
+      <c r="V602" s="176"/>
+      <c r="W602" s="176"/>
+      <c r="X602" s="176"/>
+      <c r="Y602" s="176"/>
+      <c r="Z602" s="176"/>
+      <c r="AA602" s="176"/>
+      <c r="AB602" s="176"/>
+      <c r="AC602" s="176"/>
+      <c r="AD602" s="176"/>
+      <c r="AE602" s="176"/>
+      <c r="AF602" s="176"/>
+      <c r="AG602" s="176"/>
+      <c r="AH602" s="176"/>
+      <c r="AI602" s="176"/>
+    </row>
+    <row r="603" spans="2:35" ht="16">
+      <c r="B603" s="177"/>
+      <c r="C603" s="176"/>
+      <c r="D603" s="139"/>
+      <c r="E603" s="139"/>
+      <c r="F603" s="139"/>
+      <c r="G603" s="139"/>
+      <c r="H603" s="139"/>
+      <c r="I603" s="139"/>
+      <c r="J603" s="176"/>
+      <c r="K603" s="176"/>
+      <c r="L603" s="176"/>
+      <c r="M603" s="176"/>
+      <c r="N603" s="176"/>
+      <c r="O603" s="176"/>
+      <c r="P603" s="176"/>
+      <c r="Q603" s="176"/>
+      <c r="R603" s="176"/>
+      <c r="S603" s="176"/>
+      <c r="T603" s="176"/>
+      <c r="U603" s="176"/>
+      <c r="V603" s="176"/>
+      <c r="W603" s="176"/>
+      <c r="X603" s="176"/>
+      <c r="Y603" s="176"/>
+      <c r="Z603" s="176"/>
+      <c r="AA603" s="176"/>
+      <c r="AB603" s="176"/>
+      <c r="AC603" s="176"/>
+      <c r="AD603" s="176"/>
+      <c r="AE603" s="176"/>
+      <c r="AF603" s="176"/>
+      <c r="AG603" s="176"/>
+      <c r="AH603" s="176"/>
+      <c r="AI603" s="176"/>
+    </row>
+    <row r="604" spans="2:35" ht="16">
+      <c r="B604" s="177"/>
+      <c r="C604" s="176"/>
+      <c r="D604" s="139"/>
+      <c r="E604" s="139"/>
+      <c r="F604" s="139"/>
+      <c r="G604" s="139"/>
+      <c r="H604" s="139"/>
+      <c r="I604" s="139"/>
+      <c r="J604" s="176"/>
+      <c r="K604" s="176"/>
+      <c r="L604" s="176"/>
+      <c r="M604" s="176"/>
+      <c r="N604" s="176"/>
+      <c r="O604" s="176"/>
+      <c r="P604" s="176"/>
+      <c r="Q604" s="176"/>
+      <c r="R604" s="176"/>
+      <c r="S604" s="176"/>
+      <c r="T604" s="176"/>
+      <c r="U604" s="176"/>
+      <c r="V604" s="176"/>
+      <c r="W604" s="176"/>
+      <c r="X604" s="176"/>
+      <c r="Y604" s="176"/>
+      <c r="Z604" s="176"/>
+      <c r="AA604" s="176"/>
+      <c r="AB604" s="176"/>
+      <c r="AC604" s="176"/>
+      <c r="AD604" s="176"/>
+      <c r="AE604" s="176"/>
+      <c r="AF604" s="176"/>
+      <c r="AG604" s="176"/>
+      <c r="AH604" s="176"/>
+      <c r="AI604" s="176"/>
+    </row>
+    <row r="605" spans="2:35" ht="16">
+      <c r="B605" s="177"/>
+      <c r="C605" s="176"/>
+      <c r="D605" s="176"/>
+      <c r="E605" s="176"/>
+      <c r="F605" s="176"/>
+      <c r="G605" s="176"/>
+      <c r="H605" s="176"/>
+      <c r="I605" s="176"/>
+      <c r="J605" s="176"/>
+      <c r="K605" s="176"/>
+      <c r="L605" s="176"/>
+      <c r="M605" s="176"/>
+      <c r="N605" s="176"/>
+      <c r="O605" s="176"/>
+      <c r="P605" s="176"/>
+      <c r="Q605" s="176"/>
+      <c r="R605" s="176"/>
+      <c r="S605" s="176"/>
+      <c r="T605" s="176"/>
+      <c r="U605" s="176"/>
+      <c r="V605" s="176"/>
+      <c r="W605" s="176"/>
+      <c r="X605" s="176"/>
+      <c r="Y605" s="176"/>
+      <c r="Z605" s="176"/>
+      <c r="AA605" s="176"/>
+      <c r="AB605" s="176"/>
+      <c r="AC605" s="176"/>
+      <c r="AD605" s="176"/>
+      <c r="AE605" s="176"/>
+      <c r="AF605" s="176"/>
+      <c r="AG605" s="176"/>
+      <c r="AH605" s="176"/>
+      <c r="AI605" s="176"/>
+    </row>
+    <row r="606" spans="2:35" ht="16">
+      <c r="B606" s="177"/>
+      <c r="C606" s="176"/>
+      <c r="D606" s="176"/>
+      <c r="E606" s="176"/>
+      <c r="F606" s="176"/>
+      <c r="G606" s="176"/>
+      <c r="H606" s="176"/>
+      <c r="I606" s="176"/>
+      <c r="J606" s="176"/>
+      <c r="K606" s="176"/>
+      <c r="L606" s="176"/>
+      <c r="M606" s="176"/>
+      <c r="N606" s="176"/>
+      <c r="O606" s="176"/>
+      <c r="P606" s="176"/>
+      <c r="Q606" s="176"/>
+      <c r="R606" s="176"/>
+      <c r="S606" s="176"/>
+      <c r="T606" s="176"/>
+      <c r="U606" s="176"/>
+      <c r="V606" s="176"/>
+      <c r="W606" s="176"/>
+      <c r="X606" s="176"/>
+      <c r="Y606" s="176"/>
+      <c r="Z606" s="176"/>
+      <c r="AA606" s="176"/>
+      <c r="AB606" s="176"/>
+      <c r="AC606" s="176"/>
+      <c r="AD606" s="176"/>
+      <c r="AE606" s="176"/>
+      <c r="AF606" s="176"/>
+      <c r="AG606" s="176"/>
+      <c r="AH606" s="176"/>
+      <c r="AI606" s="176"/>
+    </row>
+    <row r="607" spans="2:35" ht="16">
+      <c r="B607" s="177"/>
+      <c r="C607" s="176"/>
+      <c r="D607" s="176"/>
+      <c r="E607" s="176"/>
+      <c r="F607" s="176"/>
+      <c r="G607" s="176"/>
+      <c r="H607" s="176"/>
+      <c r="I607" s="176"/>
+      <c r="J607" s="176"/>
+      <c r="K607" s="176"/>
+      <c r="L607" s="176"/>
+      <c r="M607" s="176"/>
+      <c r="N607" s="176"/>
+      <c r="O607" s="176"/>
+      <c r="P607" s="176"/>
+      <c r="Q607" s="176"/>
+      <c r="R607" s="176"/>
+      <c r="S607" s="176"/>
+      <c r="T607" s="176"/>
+      <c r="U607" s="176"/>
+      <c r="V607" s="176"/>
+      <c r="W607" s="176"/>
+      <c r="X607" s="176"/>
+      <c r="Y607" s="176"/>
+      <c r="Z607" s="176"/>
+      <c r="AA607" s="176"/>
+      <c r="AB607" s="176"/>
+      <c r="AC607" s="176"/>
+      <c r="AD607" s="176"/>
+      <c r="AE607" s="176"/>
+      <c r="AF607" s="176"/>
+      <c r="AG607" s="176"/>
+      <c r="AH607" s="176"/>
+      <c r="AI607" s="176"/>
+    </row>
+    <row r="608" spans="2:35" ht="16">
+      <c r="B608" s="177"/>
+      <c r="C608" s="176"/>
+      <c r="D608" s="176"/>
+      <c r="E608" s="176"/>
+      <c r="F608" s="176"/>
+      <c r="G608" s="176"/>
+      <c r="H608" s="176"/>
+      <c r="I608" s="176"/>
+      <c r="J608" s="176"/>
+      <c r="K608" s="176"/>
+      <c r="L608" s="176"/>
+      <c r="M608" s="176"/>
+      <c r="N608" s="176"/>
+      <c r="O608" s="176"/>
+      <c r="P608" s="176"/>
+      <c r="Q608" s="176"/>
+      <c r="R608" s="176"/>
+      <c r="S608" s="176"/>
+      <c r="T608" s="176"/>
+      <c r="U608" s="176"/>
+      <c r="V608" s="176"/>
+      <c r="W608" s="176"/>
+      <c r="X608" s="176"/>
+      <c r="Y608" s="176"/>
+      <c r="Z608" s="176"/>
+      <c r="AA608" s="176"/>
+      <c r="AB608" s="176"/>
+      <c r="AC608" s="176"/>
+      <c r="AD608" s="176"/>
+      <c r="AE608" s="176"/>
+      <c r="AF608" s="176"/>
+      <c r="AG608" s="176"/>
+      <c r="AH608" s="176"/>
+      <c r="AI608" s="176"/>
+    </row>
+    <row r="609" spans="2:35" ht="16">
+      <c r="B609" s="177"/>
+      <c r="C609" s="176"/>
+      <c r="D609" s="176"/>
+      <c r="E609" s="176"/>
+      <c r="F609" s="176"/>
+      <c r="G609" s="176"/>
+      <c r="H609" s="176"/>
+      <c r="I609" s="176"/>
+      <c r="J609" s="176"/>
+      <c r="K609" s="176"/>
+      <c r="L609" s="176"/>
+      <c r="M609" s="176"/>
+      <c r="N609" s="176"/>
+      <c r="O609" s="176"/>
+      <c r="P609" s="176"/>
+      <c r="Q609" s="176"/>
+      <c r="R609" s="176"/>
+      <c r="S609" s="176"/>
+      <c r="T609" s="176"/>
+      <c r="U609" s="176"/>
+      <c r="V609" s="176"/>
+      <c r="W609" s="176"/>
+      <c r="X609" s="176"/>
+      <c r="Y609" s="176"/>
+      <c r="Z609" s="176"/>
+      <c r="AA609" s="176"/>
+      <c r="AB609" s="176"/>
+      <c r="AC609" s="176"/>
+      <c r="AD609" s="176"/>
+      <c r="AE609" s="176"/>
+      <c r="AF609" s="176"/>
+      <c r="AG609" s="176"/>
+      <c r="AH609" s="176"/>
+      <c r="AI609" s="176"/>
+    </row>
+    <row r="610" spans="2:35" ht="16">
+      <c r="B610" s="177"/>
+      <c r="C610" s="176"/>
+      <c r="D610" s="176"/>
+      <c r="E610" s="176"/>
+      <c r="F610" s="176"/>
+      <c r="G610" s="176"/>
+      <c r="H610" s="176"/>
+      <c r="I610" s="176"/>
+      <c r="J610" s="176"/>
+      <c r="K610" s="176"/>
+      <c r="L610" s="176"/>
+      <c r="M610" s="176"/>
+      <c r="N610" s="176"/>
+      <c r="O610" s="176"/>
+      <c r="P610" s="176"/>
+      <c r="Q610" s="176"/>
+      <c r="R610" s="176"/>
+      <c r="S610" s="176"/>
+      <c r="T610" s="176"/>
+      <c r="U610" s="176"/>
+      <c r="V610" s="176"/>
+      <c r="W610" s="176"/>
+      <c r="X610" s="176"/>
+      <c r="Y610" s="176"/>
+      <c r="Z610" s="176"/>
+      <c r="AA610" s="176"/>
+      <c r="AB610" s="176"/>
+      <c r="AC610" s="176"/>
+      <c r="AD610" s="176"/>
+      <c r="AE610" s="176"/>
+      <c r="AF610" s="176"/>
+      <c r="AG610" s="176"/>
+      <c r="AH610" s="176"/>
+      <c r="AI610" s="176"/>
+    </row>
+    <row r="611" spans="2:35" ht="16">
+      <c r="B611" s="177"/>
+      <c r="C611" s="176"/>
+      <c r="D611" s="176"/>
+      <c r="E611" s="176"/>
+      <c r="F611" s="176"/>
+      <c r="G611" s="176"/>
+      <c r="H611" s="176"/>
+      <c r="I611" s="176"/>
+      <c r="J611" s="176"/>
+      <c r="K611" s="176"/>
+      <c r="L611" s="176"/>
+      <c r="M611" s="176"/>
+      <c r="N611" s="176"/>
+      <c r="O611" s="176"/>
+      <c r="P611" s="176"/>
+      <c r="Q611" s="176"/>
+      <c r="R611" s="176"/>
+      <c r="S611" s="176"/>
+      <c r="T611" s="176"/>
+      <c r="U611" s="176"/>
+      <c r="V611" s="176"/>
+      <c r="W611" s="176"/>
+      <c r="X611" s="176"/>
+      <c r="Y611" s="176"/>
+      <c r="Z611" s="176"/>
+      <c r="AA611" s="176"/>
+      <c r="AB611" s="176"/>
+      <c r="AC611" s="176"/>
+      <c r="AD611" s="176"/>
+      <c r="AE611" s="176"/>
+      <c r="AF611" s="176"/>
+      <c r="AG611" s="176"/>
+      <c r="AH611" s="176"/>
+      <c r="AI611" s="176"/>
+    </row>
+    <row r="612" spans="2:35" ht="16">
+      <c r="B612" s="177"/>
+      <c r="C612" s="176"/>
+      <c r="D612" s="176"/>
+      <c r="E612" s="176"/>
+      <c r="F612" s="176"/>
+      <c r="G612" s="176"/>
+      <c r="H612" s="176"/>
+      <c r="I612" s="176"/>
+      <c r="J612" s="176"/>
+      <c r="K612" s="176"/>
+      <c r="L612" s="176"/>
+      <c r="M612" s="176"/>
+      <c r="N612" s="176"/>
+      <c r="O612" s="176"/>
+      <c r="P612" s="176"/>
+      <c r="Q612" s="176"/>
+      <c r="R612" s="176"/>
+      <c r="S612" s="176"/>
+      <c r="T612" s="176"/>
+      <c r="U612" s="176"/>
+      <c r="V612" s="176"/>
+      <c r="W612" s="176"/>
+      <c r="X612" s="176"/>
+      <c r="Y612" s="176"/>
+      <c r="Z612" s="176"/>
+      <c r="AA612" s="176"/>
+      <c r="AB612" s="176"/>
+      <c r="AC612" s="176"/>
+      <c r="AD612" s="176"/>
+      <c r="AE612" s="176"/>
+      <c r="AF612" s="176"/>
+      <c r="AG612" s="176"/>
+      <c r="AH612" s="176"/>
+      <c r="AI612" s="176"/>
+    </row>
+    <row r="613" spans="2:35" ht="16">
+      <c r="B613" s="177"/>
+      <c r="C613" s="176"/>
+      <c r="D613" s="176"/>
+      <c r="E613" s="176"/>
+      <c r="F613" s="176"/>
+      <c r="G613" s="176"/>
+      <c r="H613" s="176"/>
+      <c r="I613" s="176"/>
+      <c r="J613" s="176"/>
+      <c r="K613" s="176"/>
+      <c r="L613" s="176"/>
+      <c r="M613" s="176"/>
+      <c r="N613" s="176"/>
+      <c r="O613" s="176"/>
+      <c r="P613" s="176"/>
+      <c r="Q613" s="176"/>
+      <c r="R613" s="176"/>
+      <c r="S613" s="176"/>
+      <c r="T613" s="176"/>
+      <c r="U613" s="176"/>
+      <c r="V613" s="176"/>
+      <c r="W613" s="176"/>
+      <c r="X613" s="176"/>
+      <c r="Y613" s="176"/>
+      <c r="Z613" s="176"/>
+      <c r="AA613" s="176"/>
+      <c r="AB613" s="176"/>
+      <c r="AC613" s="176"/>
+      <c r="AD613" s="176"/>
+      <c r="AE613" s="176"/>
+      <c r="AF613" s="176"/>
+      <c r="AG613" s="176"/>
+      <c r="AH613" s="176"/>
+      <c r="AI613" s="176"/>
+    </row>
+    <row r="614" spans="2:35" ht="16">
+      <c r="B614" s="177"/>
+      <c r="C614" s="176"/>
+      <c r="D614" s="176"/>
+      <c r="E614" s="176"/>
+      <c r="F614" s="176"/>
+      <c r="G614" s="176"/>
+      <c r="H614" s="176"/>
+      <c r="I614" s="176"/>
+      <c r="J614" s="176"/>
+      <c r="K614" s="176"/>
+      <c r="L614" s="176"/>
+      <c r="M614" s="176"/>
+      <c r="N614" s="176"/>
+      <c r="O614" s="176"/>
+      <c r="P614" s="176"/>
+      <c r="Q614" s="176"/>
+      <c r="R614" s="176"/>
+      <c r="S614" s="176"/>
+      <c r="T614" s="176"/>
+      <c r="U614" s="176"/>
+      <c r="V614" s="176"/>
+      <c r="W614" s="176"/>
+      <c r="X614" s="176"/>
+      <c r="Y614" s="176"/>
+      <c r="Z614" s="176"/>
+      <c r="AA614" s="176"/>
+      <c r="AB614" s="176"/>
+      <c r="AC614" s="176"/>
+      <c r="AD614" s="176"/>
+      <c r="AE614" s="176"/>
+      <c r="AF614" s="176"/>
+      <c r="AG614" s="176"/>
+      <c r="AH614" s="176"/>
+      <c r="AI614" s="176"/>
+    </row>
+    <row r="615" spans="2:35" ht="16">
+      <c r="B615" s="177"/>
+      <c r="C615" s="176"/>
+      <c r="D615" s="176"/>
+      <c r="E615" s="176"/>
+      <c r="F615" s="176"/>
+      <c r="G615" s="176"/>
+      <c r="H615" s="176"/>
+      <c r="I615" s="176"/>
+      <c r="J615" s="176"/>
+      <c r="K615" s="176"/>
+      <c r="L615" s="176"/>
+      <c r="M615" s="176"/>
+      <c r="N615" s="176"/>
+      <c r="O615" s="176"/>
+      <c r="P615" s="176"/>
+      <c r="Q615" s="176"/>
+      <c r="R615" s="176"/>
+      <c r="S615" s="176"/>
+      <c r="T615" s="176"/>
+      <c r="U615" s="176"/>
+      <c r="V615" s="176"/>
+      <c r="W615" s="176"/>
+      <c r="X615" s="176"/>
+      <c r="Y615" s="176"/>
+      <c r="Z615" s="176"/>
+      <c r="AA615" s="176"/>
+      <c r="AB615" s="176"/>
+      <c r="AC615" s="176"/>
+      <c r="AD615" s="176"/>
+      <c r="AE615" s="176"/>
+      <c r="AF615" s="176"/>
+      <c r="AG615" s="176"/>
+      <c r="AH615" s="176"/>
+      <c r="AI615" s="176"/>
+    </row>
+    <row r="616" spans="2:35" ht="16">
+      <c r="B616" s="177"/>
+      <c r="C616" s="176"/>
+      <c r="D616" s="176"/>
+      <c r="E616" s="176"/>
+      <c r="F616" s="176"/>
+      <c r="G616" s="176"/>
+      <c r="H616" s="176"/>
+      <c r="I616" s="176"/>
+      <c r="J616" s="176"/>
+      <c r="K616" s="176"/>
+      <c r="L616" s="176"/>
+      <c r="M616" s="176"/>
+      <c r="N616" s="176"/>
+      <c r="O616" s="176"/>
+      <c r="P616" s="176"/>
+      <c r="Q616" s="176"/>
+      <c r="R616" s="176"/>
+      <c r="S616" s="176"/>
+      <c r="T616" s="176"/>
+      <c r="U616" s="176"/>
+      <c r="V616" s="176"/>
+      <c r="W616" s="176"/>
+      <c r="X616" s="176"/>
+      <c r="Y616" s="176"/>
+      <c r="Z616" s="176"/>
+      <c r="AA616" s="176"/>
+      <c r="AB616" s="176"/>
+      <c r="AC616" s="176"/>
+      <c r="AD616" s="176"/>
+      <c r="AE616" s="176"/>
+      <c r="AF616" s="176"/>
+      <c r="AG616" s="176"/>
+      <c r="AH616" s="176"/>
+      <c r="AI616" s="176"/>
+    </row>
+    <row r="617" spans="2:35" ht="16">
+      <c r="B617" s="177"/>
+      <c r="C617" s="176"/>
+      <c r="D617" s="176"/>
+      <c r="E617" s="176"/>
+      <c r="F617" s="176"/>
+      <c r="G617" s="176"/>
+      <c r="H617" s="176"/>
+      <c r="I617" s="176"/>
+      <c r="J617" s="176"/>
+      <c r="K617" s="176"/>
+      <c r="L617" s="176"/>
+      <c r="M617" s="176"/>
+      <c r="N617" s="176"/>
+      <c r="O617" s="176"/>
+      <c r="P617" s="176"/>
+      <c r="Q617" s="176"/>
+      <c r="R617" s="176"/>
+      <c r="S617" s="176"/>
+      <c r="T617" s="176"/>
+      <c r="U617" s="176"/>
+      <c r="V617" s="176"/>
+      <c r="W617" s="176"/>
+      <c r="X617" s="176"/>
+      <c r="Y617" s="176"/>
+      <c r="Z617" s="176"/>
+      <c r="AA617" s="176"/>
+      <c r="AB617" s="176"/>
+      <c r="AC617" s="176"/>
+      <c r="AD617" s="176"/>
+      <c r="AE617" s="176"/>
+      <c r="AF617" s="176"/>
+      <c r="AG617" s="176"/>
+      <c r="AH617" s="176"/>
+      <c r="AI617" s="176"/>
+    </row>
+    <row r="618" spans="2:35" ht="16">
+      <c r="B618" s="177"/>
+      <c r="C618" s="176"/>
+      <c r="D618" s="176"/>
+      <c r="E618" s="176"/>
+      <c r="F618" s="176"/>
+      <c r="G618" s="176"/>
+      <c r="H618" s="176"/>
+      <c r="I618" s="176"/>
+      <c r="J618" s="176"/>
+      <c r="K618" s="176"/>
+      <c r="L618" s="176"/>
+      <c r="M618" s="176"/>
+      <c r="N618" s="176"/>
+      <c r="O618" s="176"/>
+      <c r="P618" s="176"/>
+      <c r="Q618" s="176"/>
+      <c r="R618" s="176"/>
+      <c r="S618" s="176"/>
+      <c r="T618" s="176"/>
+      <c r="U618" s="176"/>
+      <c r="V618" s="176"/>
+      <c r="W618" s="176"/>
+      <c r="X618" s="176"/>
+      <c r="Y618" s="176"/>
+      <c r="Z618" s="176"/>
+      <c r="AA618" s="176"/>
+      <c r="AB618" s="176"/>
+      <c r="AC618" s="176"/>
+      <c r="AD618" s="176"/>
+      <c r="AE618" s="176"/>
+      <c r="AF618" s="176"/>
+      <c r="AG618" s="176"/>
+      <c r="AH618" s="176"/>
+      <c r="AI618" s="176"/>
+    </row>
+    <row r="619" spans="2:35" ht="16">
+      <c r="B619" s="177"/>
+      <c r="C619" s="176"/>
+      <c r="D619" s="176"/>
+      <c r="E619" s="176"/>
+      <c r="F619" s="176"/>
+      <c r="G619" s="176"/>
+      <c r="H619" s="176"/>
+      <c r="I619" s="176"/>
+      <c r="J619" s="176"/>
+      <c r="K619" s="176"/>
+      <c r="L619" s="176"/>
+      <c r="M619" s="176"/>
+      <c r="N619" s="176"/>
+      <c r="O619" s="176"/>
+      <c r="P619" s="176"/>
+      <c r="Q619" s="176"/>
+      <c r="R619" s="176"/>
+      <c r="S619" s="176"/>
+      <c r="T619" s="176"/>
+      <c r="U619" s="176"/>
+      <c r="V619" s="176"/>
+      <c r="W619" s="176"/>
+      <c r="X619" s="176"/>
+      <c r="Y619" s="176"/>
+      <c r="Z619" s="176"/>
+      <c r="AA619" s="176"/>
+      <c r="AB619" s="176"/>
+      <c r="AC619" s="176"/>
+      <c r="AD619" s="176"/>
+      <c r="AE619" s="176"/>
+      <c r="AF619" s="176"/>
+      <c r="AG619" s="176"/>
+      <c r="AH619" s="176"/>
+      <c r="AI619" s="176"/>
+    </row>
+    <row r="620" spans="2:35" ht="16">
+      <c r="B620" s="177"/>
+      <c r="C620" s="176"/>
+      <c r="D620" s="176"/>
+      <c r="E620" s="176"/>
+      <c r="F620" s="176"/>
+      <c r="G620" s="176"/>
+      <c r="H620" s="176"/>
+      <c r="I620" s="176"/>
+      <c r="J620" s="176"/>
+      <c r="K620" s="176"/>
+      <c r="L620" s="176"/>
+      <c r="M620" s="176"/>
+      <c r="N620" s="176"/>
+      <c r="O620" s="176"/>
+      <c r="P620" s="176"/>
+      <c r="Q620" s="176"/>
+      <c r="R620" s="176"/>
+      <c r="S620" s="176"/>
+      <c r="T620" s="176"/>
+      <c r="U620" s="176"/>
+      <c r="V620" s="176"/>
+      <c r="W620" s="176"/>
+      <c r="X620" s="176"/>
+      <c r="Y620" s="176"/>
+      <c r="Z620" s="176"/>
+      <c r="AA620" s="176"/>
+      <c r="AB620" s="176"/>
+      <c r="AC620" s="176"/>
+      <c r="AD620" s="176"/>
+      <c r="AE620" s="176"/>
+      <c r="AF620" s="176"/>
+      <c r="AG620" s="176"/>
+      <c r="AH620" s="176"/>
+      <c r="AI620" s="176"/>
+    </row>
+    <row r="621" spans="2:35" ht="16">
+      <c r="B621" s="177"/>
+      <c r="C621" s="176"/>
+      <c r="D621" s="176"/>
+      <c r="E621" s="176"/>
+      <c r="F621" s="176"/>
+      <c r="G621" s="176"/>
+      <c r="H621" s="176"/>
+      <c r="I621" s="176"/>
+      <c r="J621" s="176"/>
+      <c r="K621" s="176"/>
+      <c r="L621" s="176"/>
+      <c r="M621" s="176"/>
+      <c r="N621" s="176"/>
+      <c r="O621" s="176"/>
+      <c r="P621" s="176"/>
+      <c r="Q621" s="176"/>
+      <c r="R621" s="176"/>
+      <c r="S621" s="176"/>
+      <c r="T621" s="176"/>
+      <c r="U621" s="176"/>
+      <c r="V621" s="176"/>
+      <c r="W621" s="176"/>
+      <c r="X621" s="176"/>
+      <c r="Y621" s="176"/>
+      <c r="Z621" s="176"/>
+      <c r="AA621" s="176"/>
+      <c r="AB621" s="176"/>
+      <c r="AC621" s="176"/>
+      <c r="AD621" s="176"/>
+      <c r="AE621" s="176"/>
+      <c r="AF621" s="176"/>
+      <c r="AG621" s="176"/>
+      <c r="AH621" s="176"/>
+      <c r="AI621" s="176"/>
+    </row>
+    <row r="622" spans="2:35" ht="16">
+      <c r="B622" s="177"/>
+      <c r="C622" s="176"/>
+      <c r="D622" s="176"/>
+      <c r="E622" s="176"/>
+      <c r="F622" s="176"/>
+      <c r="G622" s="176"/>
+      <c r="H622" s="176"/>
+      <c r="I622" s="176"/>
+      <c r="J622" s="176"/>
+      <c r="K622" s="176"/>
+      <c r="L622" s="176"/>
+      <c r="M622" s="176"/>
+      <c r="N622" s="176"/>
+      <c r="O622" s="176"/>
+      <c r="P622" s="176"/>
+      <c r="Q622" s="176"/>
+      <c r="R622" s="176"/>
+      <c r="S622" s="176"/>
+      <c r="T622" s="176"/>
+      <c r="U622" s="176"/>
+      <c r="V622" s="176"/>
+      <c r="W622" s="176"/>
+      <c r="X622" s="176"/>
+      <c r="Y622" s="176"/>
+      <c r="Z622" s="176"/>
+      <c r="AA622" s="176"/>
+      <c r="AB622" s="176"/>
+      <c r="AC622" s="176"/>
+      <c r="AD622" s="176"/>
+      <c r="AE622" s="176"/>
+      <c r="AF622" s="176"/>
+      <c r="AG622" s="176"/>
+      <c r="AH622" s="176"/>
+      <c r="AI622" s="176"/>
+    </row>
+    <row r="623" spans="2:35" ht="16">
+      <c r="B623" s="177"/>
+      <c r="C623" s="176"/>
+      <c r="D623" s="176"/>
+      <c r="E623" s="176"/>
+      <c r="F623" s="176"/>
+      <c r="G623" s="176"/>
+      <c r="H623" s="176"/>
+      <c r="I623" s="176"/>
+      <c r="J623" s="176"/>
+      <c r="K623" s="176"/>
+      <c r="L623" s="176"/>
+      <c r="M623" s="176"/>
+      <c r="N623" s="176"/>
+      <c r="O623" s="176"/>
+      <c r="P623" s="176"/>
+      <c r="Q623" s="176"/>
+      <c r="R623" s="176"/>
+      <c r="S623" s="176"/>
+      <c r="T623" s="176"/>
+      <c r="U623" s="176"/>
+      <c r="V623" s="176"/>
+      <c r="W623" s="176"/>
+      <c r="X623" s="176"/>
+      <c r="Y623" s="176"/>
+      <c r="Z623" s="176"/>
+      <c r="AA623" s="176"/>
+      <c r="AB623" s="176"/>
+      <c r="AC623" s="176"/>
+      <c r="AD623" s="176"/>
+      <c r="AE623" s="176"/>
+      <c r="AF623" s="176"/>
+      <c r="AG623" s="176"/>
+      <c r="AH623" s="176"/>
+      <c r="AI623" s="176"/>
+    </row>
+    <row r="624" spans="2:35" ht="16">
+      <c r="B624" s="177"/>
+      <c r="C624" s="176"/>
+      <c r="D624" s="176"/>
+      <c r="E624" s="176"/>
+      <c r="F624" s="176"/>
+      <c r="G624" s="176"/>
+      <c r="H624" s="176"/>
+      <c r="I624" s="176"/>
+      <c r="J624" s="176"/>
+      <c r="K624" s="176"/>
+      <c r="L624" s="176"/>
+      <c r="M624" s="176"/>
+      <c r="N624" s="176"/>
+      <c r="O624" s="176"/>
+      <c r="P624" s="176"/>
+      <c r="Q624" s="176"/>
+      <c r="R624" s="176"/>
+      <c r="S624" s="176"/>
+      <c r="T624" s="176"/>
+      <c r="U624" s="176"/>
+      <c r="V624" s="176"/>
+      <c r="W624" s="176"/>
+      <c r="X624" s="176"/>
+      <c r="Y624" s="176"/>
+      <c r="Z624" s="176"/>
+      <c r="AA624" s="176"/>
+      <c r="AB624" s="176"/>
+      <c r="AC624" s="176"/>
+      <c r="AD624" s="176"/>
+      <c r="AE624" s="176"/>
+      <c r="AF624" s="176"/>
+      <c r="AG624" s="176"/>
+      <c r="AH624" s="176"/>
+      <c r="AI624" s="176"/>
+    </row>
+    <row r="625" spans="2:35" ht="16">
+      <c r="B625" s="177"/>
+      <c r="C625" s="176"/>
+      <c r="D625" s="176"/>
+      <c r="E625" s="176"/>
+      <c r="F625" s="176"/>
+      <c r="G625" s="176"/>
+      <c r="H625" s="176"/>
+      <c r="I625" s="176"/>
+      <c r="J625" s="176"/>
+      <c r="K625" s="176"/>
+      <c r="L625" s="176"/>
+      <c r="M625" s="176"/>
+      <c r="N625" s="176"/>
+      <c r="O625" s="176"/>
+      <c r="P625" s="176"/>
+      <c r="Q625" s="176"/>
+      <c r="R625" s="176"/>
+      <c r="S625" s="176"/>
+      <c r="T625" s="176"/>
+      <c r="U625" s="176"/>
+      <c r="V625" s="176"/>
+      <c r="W625" s="176"/>
+      <c r="X625" s="176"/>
+      <c r="Y625" s="176"/>
+      <c r="Z625" s="176"/>
+      <c r="AA625" s="176"/>
+      <c r="AB625" s="176"/>
+      <c r="AC625" s="176"/>
+      <c r="AD625" s="176"/>
+      <c r="AE625" s="176"/>
+      <c r="AF625" s="176"/>
+      <c r="AG625" s="176"/>
+      <c r="AH625" s="176"/>
+      <c r="AI625" s="176"/>
+    </row>
+    <row r="626" spans="2:35" ht="16">
+      <c r="B626" s="177"/>
+      <c r="C626" s="176"/>
+      <c r="D626" s="176"/>
+      <c r="E626" s="176"/>
+      <c r="F626" s="176"/>
+      <c r="G626" s="176"/>
+      <c r="H626" s="176"/>
+      <c r="I626" s="176"/>
+      <c r="J626" s="176"/>
+      <c r="K626" s="176"/>
+      <c r="L626" s="176"/>
+      <c r="M626" s="176"/>
+      <c r="N626" s="176"/>
+      <c r="O626" s="176"/>
+      <c r="P626" s="176"/>
+      <c r="Q626" s="176"/>
+      <c r="R626" s="176"/>
+      <c r="S626" s="176"/>
+      <c r="T626" s="176"/>
+      <c r="U626" s="176"/>
+      <c r="V626" s="176"/>
+      <c r="W626" s="176"/>
+      <c r="X626" s="176"/>
+      <c r="Y626" s="176"/>
+      <c r="Z626" s="176"/>
+      <c r="AA626" s="176"/>
+      <c r="AB626" s="176"/>
+      <c r="AC626" s="176"/>
+      <c r="AD626" s="176"/>
+      <c r="AE626" s="176"/>
+      <c r="AF626" s="176"/>
+      <c r="AG626" s="176"/>
+      <c r="AH626" s="176"/>
+      <c r="AI626" s="176"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="38320" yWindow="-2340" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -16,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -33,8 +37,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -446,9 +453,6 @@
   </si>
   <si>
     <t>Carrier (global properties)</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers.</t>
   </si>
   <si>
     <t>This sheet summarizes the Fuel Chain Emissions attributes formatted in the way they are used by the Energy Transition Model. These FCE are only specified for carriers and at the moment only for NL.</t>
@@ -676,6 +680,11 @@
   <si>
     <t>Actual CO2 emission from biomass</t>
   </si>
+  <si>
+    <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
+- The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
+- The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
 </sst>
 </file>
 
@@ -693,7 +702,7 @@
     <numFmt numFmtId="172" formatCode="0.00000"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -947,11 +956,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1140,7 +1144,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1403,26 +1407,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1903,7 +1887,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2168,40 +2152,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="41" fillId="15" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="46" fillId="17" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="45" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="47" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2211,31 +2195,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="173" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="48" fillId="16" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="48" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="47" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="49" fillId="16" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="48" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="47" fillId="18" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="47" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="46" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="47" fillId="18" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="46" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2247,19 +2231,20 @@
     <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2268,28 +2253,33 @@
     <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="360">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2655,145 +2645,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
-<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update carrier attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>177800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2051" name="export_fce" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2051"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update FCE attributes on ETSource (next sheet)</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3590,7 +3450,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -3697,27 +3557,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="carrier_manager.xlsm"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="update_attributes"/>
-      <definedName name="update_fce"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4052,33 +3891,33 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.125" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.625" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1">
+    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="20">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
         <v>124</v>
@@ -4087,7 +3926,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -4096,7 +3935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -4105,17 +3944,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="97" t="s">
         <v>15</v>
@@ -4123,13 +3962,13 @@
       <c r="C9" s="98"/>
       <c r="D9" s="160"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="99"/>
       <c r="C10" s="100"/>
       <c r="D10" s="161"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="99" t="s">
         <v>16</v>
@@ -4139,7 +3978,7 @@
       </c>
       <c r="D11" s="161"/>
     </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
+    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="99"/>
       <c r="C12" s="20" t="s">
@@ -4147,7 +3986,7 @@
       </c>
       <c r="D12" s="161"/>
     </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
+    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="99"/>
       <c r="C13" s="102" t="s">
@@ -4155,7 +3994,7 @@
       </c>
       <c r="D13" s="161"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="99"/>
       <c r="C14" s="100" t="s">
@@ -4163,13 +4002,13 @@
       </c>
       <c r="D14" s="161"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="99"/>
       <c r="C15" s="100"/>
       <c r="D15" s="161"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="99" t="s">
         <v>21</v>
@@ -4179,7 +4018,7 @@
       </c>
       <c r="D16" s="161"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="99"/>
       <c r="C17" s="104" t="s">
@@ -4187,7 +4026,7 @@
       </c>
       <c r="D17" s="161"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="99"/>
       <c r="C18" s="105" t="s">
@@ -4195,7 +4034,7 @@
       </c>
       <c r="D18" s="161"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="99"/>
       <c r="C19" s="106" t="s">
@@ -4203,7 +4042,7 @@
       </c>
       <c r="D19" s="161"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="107"/>
       <c r="C20" s="108" t="s">
@@ -4211,7 +4050,7 @@
       </c>
       <c r="D20" s="161"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="107"/>
       <c r="C21" s="109" t="s">
@@ -4219,7 +4058,7 @@
       </c>
       <c r="D21" s="161"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="107"/>
       <c r="C22" s="110" t="s">
@@ -4227,14 +4066,14 @@
       </c>
       <c r="D22" s="161"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="107"/>
       <c r="C23" s="111" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="161"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" s="162"/>
       <c r="C24" s="163"/>
       <c r="D24" s="164"/>
@@ -4242,76 +4081,71 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1">
-      <c r="B2" s="217" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="218" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
       <c r="E2" s="219"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="220"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="221"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
       <c r="E3" s="222"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="223"/>
-      <c r="C4" s="224"/>
-      <c r="D4" s="224"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="223"/>
+    </row>
+    <row r="4" spans="2:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="224"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
       <c r="E4" s="225"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+      <c r="F4" s="225"/>
+      <c r="G4" s="226"/>
+    </row>
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4322,7 +4156,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:11" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="112"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4343,7 +4177,7 @@
       </c>
       <c r="J7" s="116"/>
     </row>
-    <row r="8" spans="2:11" s="45" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4354,7 +4188,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25"/>
       <c r="C9" s="159" t="s">
         <v>126</v>
@@ -4367,7 +4201,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25"/>
       <c r="C10" s="122" t="s">
         <v>38</v>
@@ -4389,7 +4223,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
       <c r="C11" s="131" t="s">
         <v>39</v>
@@ -4405,14 +4239,14 @@
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
       <c r="I11" s="195" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25"/>
       <c r="C12" s="165" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>58</v>
@@ -4425,11 +4259,11 @@
       <c r="G12" s="131"/>
       <c r="H12" s="32"/>
       <c r="I12" s="132" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="13" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="25"/>
       <c r="C13" s="37" t="s">
         <v>40</v>
@@ -4443,7 +4277,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="210" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="215" t="s">
@@ -4451,10 +4285,10 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" s="45" customFormat="1" ht="19" thickBot="1">
+    <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="205" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>51</v>
@@ -4465,15 +4299,15 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="210" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="215" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="37" t="s">
         <v>41</v>
@@ -4494,7 +4328,7 @@
       <c r="J15" s="117"/>
       <c r="K15" s="36"/>
     </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1">
+    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="42"/>
       <c r="C16" s="43"/>
       <c r="D16" s="43"/>
@@ -4507,70 +4341,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E4"/>
+    <mergeCell ref="B2:G4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_attributes">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2051" r:id="rId4" name="export_fce">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[2]!update_fce">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>177800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>4</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4583,57 +4357,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="217" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="218"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="219"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="218" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="227"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="221"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="228"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="226"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="227"/>
-      <c r="E4" s="228"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="229"/>
+      <c r="C4" s="230"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="231"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1">
+    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4644,7 +4418,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="18">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="112"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4665,7 +4439,7 @@
       </c>
       <c r="J7" s="116"/>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="41"/>
       <c r="C8" s="86"/>
       <c r="D8" s="114"/>
@@ -4676,7 +4450,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="117"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -4689,10 +4463,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="117"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1">
+    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
       <c r="C10" s="204" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -4702,7 +4476,7 @@
       <c r="I10" s="131"/>
       <c r="J10" s="117"/>
     </row>
-    <row r="11" spans="2:10" ht="16" thickBot="1">
+    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41"/>
       <c r="C11" s="134" t="s">
         <v>45</v>
@@ -4724,7 +4498,7 @@
       </c>
       <c r="J11" s="117"/>
     </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1">
+    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="41"/>
       <c r="C12" s="134" t="s">
         <v>46</v>
@@ -4746,7 +4520,7 @@
       </c>
       <c r="J12" s="117"/>
     </row>
-    <row r="13" spans="2:10" ht="16" thickBot="1">
+    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="41"/>
       <c r="C13" s="134" t="s">
         <v>50</v>
@@ -4768,7 +4542,7 @@
       </c>
       <c r="J13" s="117"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1">
+    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41"/>
       <c r="C14" s="134" t="s">
         <v>49</v>
@@ -4790,7 +4564,7 @@
       </c>
       <c r="J14" s="117"/>
     </row>
-    <row r="15" spans="2:10" ht="16" thickBot="1">
+    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41"/>
       <c r="C15" s="134" t="s">
         <v>40</v>
@@ -4812,7 +4586,7 @@
       </c>
       <c r="J15" s="117"/>
     </row>
-    <row r="16" spans="2:10" ht="16" thickBot="1">
+    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41"/>
       <c r="C16" s="134" t="s">
         <v>48</v>
@@ -4834,7 +4608,7 @@
       </c>
       <c r="J16" s="117"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="41"/>
       <c r="C17" s="134" t="s">
         <v>47</v>
@@ -4856,7 +4630,7 @@
       </c>
       <c r="J17" s="117"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="41"/>
       <c r="C18" s="131"/>
       <c r="D18" s="131"/>
@@ -4867,10 +4641,10 @@
       <c r="I18" s="131"/>
       <c r="J18" s="117"/>
     </row>
-    <row r="19" spans="2:10" ht="16" thickBot="1">
+    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="204" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="131"/>
@@ -4880,7 +4654,7 @@
       <c r="I19" s="131"/>
       <c r="J19" s="117"/>
     </row>
-    <row r="20" spans="2:10" ht="16" thickBot="1">
+    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="41"/>
       <c r="C20" s="134" t="s">
         <v>45</v>
@@ -4902,7 +4676,7 @@
       </c>
       <c r="J20" s="117"/>
     </row>
-    <row r="21" spans="2:10" ht="16" thickBot="1">
+    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="41"/>
       <c r="C21" s="134" t="s">
         <v>46</v>
@@ -4924,7 +4698,7 @@
       </c>
       <c r="J21" s="117"/>
     </row>
-    <row r="22" spans="2:10" ht="16" thickBot="1">
+    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="41"/>
       <c r="C22" s="134" t="s">
         <v>50</v>
@@ -4946,7 +4720,7 @@
       </c>
       <c r="J22" s="117"/>
     </row>
-    <row r="23" spans="2:10" ht="16" thickBot="1">
+    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="41"/>
       <c r="C23" s="134" t="s">
         <v>49</v>
@@ -4968,7 +4742,7 @@
       </c>
       <c r="J23" s="117"/>
     </row>
-    <row r="24" spans="2:10" ht="16" thickBot="1">
+    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="41"/>
       <c r="C24" s="134" t="s">
         <v>40</v>
@@ -4990,7 +4764,7 @@
       </c>
       <c r="J24" s="117"/>
     </row>
-    <row r="25" spans="2:10" ht="16" thickBot="1">
+    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="41"/>
       <c r="C25" s="134" t="s">
         <v>48</v>
@@ -5012,7 +4786,7 @@
       </c>
       <c r="J25" s="117"/>
     </row>
-    <row r="26" spans="2:10" ht="16" thickBot="1">
+    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="41"/>
       <c r="C26" s="134" t="s">
         <v>47</v>
@@ -5034,7 +4808,7 @@
       </c>
       <c r="J26" s="117"/>
     </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -5051,11 +4825,6 @@
     <mergeCell ref="B4:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5070,31 +4839,30 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="72" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="73" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="72" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="73" customWidth="1"/>
     <col min="10" max="10" width="3" style="73" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="73" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="73" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="73" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="73" customWidth="1"/>
-    <col min="15" max="15" width="8.875" style="73" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="73" customWidth="1"/>
-    <col min="17" max="17" width="2.75" style="73" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="73" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="73" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="73" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="73" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="73" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="73" customWidth="1"/>
     <col min="18" max="18" width="60" style="72" customWidth="1"/>
-    <col min="19" max="16384" width="10.625" style="72"/>
+    <col min="19" max="16384" width="10.7109375" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="16" thickBot="1"/>
-    <row r="2" spans="2:18">
+    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="74"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -5113,7 +4881,7 @@
       <c r="Q2" s="76"/>
       <c r="R2" s="77"/>
     </row>
-    <row r="3" spans="2:18" s="26" customFormat="1">
+    <row r="3" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="C3" s="121" t="s">
         <v>30</v>
@@ -5128,7 +4896,7 @@
       </c>
       <c r="H3" s="121"/>
       <c r="I3" s="69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
@@ -5140,17 +4908,17 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -5169,7 +4937,7 @@
       <c r="Q4" s="120"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="16" thickBot="1">
+    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="78"/>
       <c r="C5" s="20" t="s">
         <v>60</v>
@@ -5190,7 +4958,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="16" thickBot="1">
+    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="78"/>
       <c r="C6" s="135" t="s">
         <v>38</v>
@@ -5217,7 +4985,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="136" t="s">
         <v>39</v>
@@ -5249,13 +5017,13 @@
       <c r="P7" s="208"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="194" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="166" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" s="136" t="s">
         <v>57</v>
@@ -5285,7 +5053,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="137" t="s">
         <v>40</v>
@@ -5314,10 +5082,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="206" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="137"/>
       <c r="E10" s="137"/>
@@ -5343,7 +5111,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="16" thickBot="1">
+    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="78"/>
       <c r="C11" s="137" t="s">
         <v>41</v>
@@ -5376,7 +5144,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="145"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="78"/>
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
@@ -5395,7 +5163,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="145"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="78"/>
       <c r="C13" s="20" t="s">
         <v>37</v>
@@ -5416,7 +5184,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="145"/>
     </row>
-    <row r="14" spans="2:18" ht="16" thickBot="1">
+    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="78"/>
       <c r="C14" s="136" t="s">
         <v>88</v>
@@ -5439,7 +5207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="16" thickBot="1">
+    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="78"/>
       <c r="C15" s="138" t="s">
         <v>45</v>
@@ -5470,7 +5238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="16" thickBot="1">
+    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="78"/>
       <c r="C16" s="138" t="s">
         <v>46</v>
@@ -5501,7 +5269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="16" thickBot="1">
+    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="78"/>
       <c r="C17" s="138" t="s">
         <v>50</v>
@@ -5532,7 +5300,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="16" thickBot="1">
+    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="78"/>
       <c r="C18" s="138" t="s">
         <v>49</v>
@@ -5563,7 +5331,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="16" thickBot="1">
+    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="78"/>
       <c r="C19" s="138" t="s">
         <v>40</v>
@@ -5594,7 +5362,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="16" thickBot="1">
+    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="78"/>
       <c r="C20" s="138" t="s">
         <v>48</v>
@@ -5625,7 +5393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="2:18" ht="16" thickBot="1">
+    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="78"/>
       <c r="C21" s="138" t="s">
         <v>47</v>
@@ -5655,7 +5423,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:18" ht="16" thickBot="1">
+    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="78"/>
       <c r="C22" s="136"/>
       <c r="D22" s="91"/>
@@ -5674,7 +5442,7 @@
       <c r="Q22" s="82"/>
       <c r="R22" s="145"/>
     </row>
-    <row r="23" spans="2:18" ht="16" thickBot="1">
+    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="78"/>
       <c r="C23" s="136" t="s">
         <v>89</v>
@@ -5697,7 +5465,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="16" thickBot="1">
+    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="78"/>
       <c r="C24" s="138" t="s">
         <v>45</v>
@@ -5728,7 +5496,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="16" thickBot="1">
+    <row r="25" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="78"/>
       <c r="C25" s="138" t="s">
         <v>46</v>
@@ -5756,7 +5524,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="16" thickBot="1">
+    <row r="26" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="78"/>
       <c r="C26" s="138" t="s">
         <v>50</v>
@@ -5784,7 +5552,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="16" thickBot="1">
+    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="78"/>
       <c r="C27" s="138" t="s">
         <v>49</v>
@@ -5812,7 +5580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="16" thickBot="1">
+    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="78"/>
       <c r="C28" s="138" t="s">
         <v>40</v>
@@ -5840,7 +5608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="16" thickBot="1">
+    <row r="29" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="78"/>
       <c r="C29" s="138" t="s">
         <v>48</v>
@@ -5868,7 +5636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="16" thickBot="1">
+    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="78"/>
       <c r="C30" s="138" t="s">
         <v>47</v>
@@ -5895,7 +5663,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="2:18" ht="16" thickBot="1">
+    <row r="31" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="92"/>
       <c r="C31" s="94"/>
       <c r="D31" s="94"/>
@@ -5914,37 +5682,32 @@
       <c r="Q31" s="94"/>
       <c r="R31" s="95"/>
     </row>
-    <row r="32" spans="2:18">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="15:18">
+    <row r="33" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="15:18">
+    <row r="34" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="15:18">
+    <row r="35" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" spans="15:18">
+    <row r="36" spans="15:18" x14ac:dyDescent="0.2">
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
     </row>
-    <row r="37" spans="15:18">
+    <row r="37" spans="15:18" x14ac:dyDescent="0.2">
       <c r="R37" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5959,23 +5722,23 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.125" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.125" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.25" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.125" style="49"/>
+    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="16" thickBot="1"/>
-    <row r="2" spans="2:12">
+    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -5988,7 +5751,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -6003,7 +5766,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -6016,7 +5779,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -6045,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -6058,10 +5821,10 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="54"/>
       <c r="C7" s="167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="139" t="s">
@@ -6075,15 +5838,15 @@
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="168" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L7" s="58"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="54"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
@@ -6096,30 +5859,30 @@
       <c r="K8" s="58"/>
       <c r="L8" s="71"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="216" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="207" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F9" s="147"/>
       <c r="G9" s="57" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="229" t="s">
-        <v>183</v>
+      <c r="K9" s="217" t="s">
+        <v>182</v>
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="54"/>
       <c r="C10" s="150" t="s">
         <v>41</v>
@@ -6144,7 +5907,7 @@
       </c>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="54"/>
       <c r="C11" s="62"/>
       <c r="D11" s="67"/>
@@ -6157,7 +5920,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -6170,7 +5933,7 @@
       <c r="K12" s="65"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="54"/>
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
@@ -6183,7 +5946,7 @@
       <c r="K13" s="65"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="54"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -6196,7 +5959,7 @@
       <c r="K14" s="65"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
         <v>84</v>
@@ -6221,7 +5984,7 @@
       </c>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="54"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -6234,7 +5997,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="2:12" ht="17">
+    <row r="17" spans="2:12" ht="21" x14ac:dyDescent="0.25">
       <c r="B17" s="54"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -6246,17 +6009,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="68"/>
       <c r="L17" s="151" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="54"/>
       <c r="C18" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -6265,32 +6028,32 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" ht="16">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F19" s="149"/>
       <c r="L19" s="178" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="54"/>
       <c r="C20" s="67"/>
       <c r="E20" s="149"/>
       <c r="F20" s="149"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="54"/>
       <c r="C21" s="130"/>
       <c r="E21" s="149"/>
       <c r="F21" s="149"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="54"/>
       <c r="E22" s="149"/>
       <c r="F22" s="149"/>
@@ -6301,11 +6064,6 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6317,17 +6075,17 @@
       <selection activeCell="E575" sqref="E575"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="125" customWidth="1"/>
     <col min="2" max="2" width="5" style="125" customWidth="1"/>
     <col min="3" max="5" width="7" style="125"/>
-    <col min="6" max="6" width="10.875" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="125" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="7" style="125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="16" thickBot="1"/>
-    <row r="2" spans="2:25" s="26" customFormat="1">
+    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="128"/>
       <c r="C2" s="129" t="s">
         <v>25</v>
@@ -6355,7 +6113,7 @@
       <c r="T2" s="129"/>
       <c r="U2" s="129"/>
     </row>
-    <row r="3" spans="2:25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B3" s="126"/>
       <c r="C3" s="127"/>
       <c r="D3" s="127"/>
@@ -6377,7 +6135,7 @@
       <c r="T3" s="127"/>
       <c r="U3" s="127"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" ht="16">
+    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="126"/>
       <c r="C4" s="139" t="s">
         <v>63</v>
@@ -6405,7 +6163,7 @@
       <c r="X4" s="139"/>
       <c r="Y4" s="139"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" ht="16">
+    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="126"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139"/>
@@ -6431,7 +6189,7 @@
       <c r="X5" s="139"/>
       <c r="Y5" s="139"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" ht="16">
+    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="126"/>
       <c r="C6" s="139"/>
       <c r="D6" s="139"/>
@@ -6457,7 +6215,7 @@
       <c r="X6" s="139"/>
       <c r="Y6" s="139"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" ht="16">
+    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="126"/>
       <c r="C7" s="139"/>
       <c r="D7" s="139"/>
@@ -6483,7 +6241,7 @@
       <c r="X7" s="139"/>
       <c r="Y7" s="139"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" ht="16">
+    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="126"/>
       <c r="C8" s="139"/>
       <c r="D8" s="139">
@@ -6516,7 +6274,7 @@
       <c r="X8" s="139"/>
       <c r="Y8" s="139"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" ht="16">
+    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="126"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
@@ -6547,7 +6305,7 @@
       <c r="X9" s="139"/>
       <c r="Y9" s="139"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" ht="16">
+    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="126"/>
       <c r="C10" s="139"/>
       <c r="D10" s="139"/>
@@ -6579,7 +6337,7 @@
       <c r="X10" s="139"/>
       <c r="Y10" s="139"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" ht="16">
+    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="126"/>
       <c r="C11" s="139"/>
       <c r="D11" s="139"/>
@@ -6611,7 +6369,7 @@
       <c r="X11" s="139"/>
       <c r="Y11" s="139"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" ht="16">
+    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="126"/>
       <c r="C12" s="139"/>
       <c r="D12" s="139"/>
@@ -6637,7 +6395,7 @@
       <c r="X12" s="139"/>
       <c r="Y12" s="139"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" ht="16">
+    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="126"/>
       <c r="C13" s="139"/>
       <c r="D13" s="139"/>
@@ -6663,7 +6421,7 @@
       <c r="X13" s="139"/>
       <c r="Y13" s="139"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" ht="16">
+    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="126"/>
       <c r="C14" s="139"/>
       <c r="D14" s="139"/>
@@ -6689,7 +6447,7 @@
       <c r="X14" s="139"/>
       <c r="Y14" s="139"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" ht="16">
+    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="126"/>
       <c r="C15" s="139"/>
       <c r="D15" s="139"/>
@@ -6715,7 +6473,7 @@
       <c r="X15" s="139"/>
       <c r="Y15" s="139"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" ht="16">
+    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="126"/>
       <c r="C16" s="139"/>
       <c r="D16" s="139"/>
@@ -6741,7 +6499,7 @@
       <c r="X16" s="139"/>
       <c r="Y16" s="139"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" ht="16">
+    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="126"/>
       <c r="C17" s="139"/>
       <c r="D17" s="139"/>
@@ -6767,7 +6525,7 @@
       <c r="X17" s="139"/>
       <c r="Y17" s="139"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" ht="16">
+    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="126"/>
       <c r="C18" s="139"/>
       <c r="D18" s="139"/>
@@ -6793,7 +6551,7 @@
       <c r="X18" s="139"/>
       <c r="Y18" s="139"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" ht="16">
+    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="126"/>
       <c r="C19" s="139"/>
       <c r="D19" s="139"/>
@@ -6819,7 +6577,7 @@
       <c r="X19" s="139"/>
       <c r="Y19" s="139"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" ht="16">
+    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="126"/>
       <c r="C20" s="139"/>
       <c r="D20" s="139"/>
@@ -6845,7 +6603,7 @@
       <c r="X20" s="139"/>
       <c r="Y20" s="139"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" ht="16">
+    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="126"/>
       <c r="C21" s="139"/>
       <c r="D21" s="139"/>
@@ -6871,7 +6629,7 @@
       <c r="X21" s="139"/>
       <c r="Y21" s="139"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" ht="16">
+    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="126"/>
       <c r="C22" s="139"/>
       <c r="D22" s="139"/>
@@ -6897,7 +6655,7 @@
       <c r="X22" s="139"/>
       <c r="Y22" s="139"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" ht="16">
+    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="126"/>
       <c r="C23" s="139"/>
       <c r="D23" s="139"/>
@@ -6923,7 +6681,7 @@
       <c r="X23" s="139"/>
       <c r="Y23" s="139"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" ht="16">
+    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="126"/>
       <c r="C24" s="139"/>
       <c r="D24" s="139"/>
@@ -6949,7 +6707,7 @@
       <c r="X24" s="139"/>
       <c r="Y24" s="139"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" ht="16">
+    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="126"/>
       <c r="C25" s="139"/>
       <c r="D25" s="139"/>
@@ -6975,7 +6733,7 @@
       <c r="X25" s="139"/>
       <c r="Y25" s="139"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" ht="16">
+    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="126"/>
       <c r="C26" s="139"/>
       <c r="D26" s="139"/>
@@ -7001,7 +6759,7 @@
       <c r="X26" s="139"/>
       <c r="Y26" s="139"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" ht="16">
+    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="126"/>
       <c r="C27" s="139"/>
       <c r="D27" s="139"/>
@@ -7027,7 +6785,7 @@
       <c r="X27" s="139"/>
       <c r="Y27" s="139"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" ht="16">
+    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="126"/>
       <c r="C28" s="139"/>
       <c r="D28" s="139"/>
@@ -7053,106 +6811,106 @@
       <c r="X28" s="139"/>
       <c r="Y28" s="139"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" ht="16">
+    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="126"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" ht="16">
+    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="126"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" ht="16">
+    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="126"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" ht="16">
+    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="126"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" ht="16">
+    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="126"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" ht="16">
+    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="126"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" ht="16">
+    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="126"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" ht="16">
+    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="126"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" ht="16">
+    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="126"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" ht="16">
+    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="126"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" ht="16">
+    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="126"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" ht="16">
+    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="126"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" ht="16">
+    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="126"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" ht="16">
+    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="126"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" ht="16">
+    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="126"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" ht="16">
+    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="126"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" ht="16">
+    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="126"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" ht="16">
+    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="126"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" ht="16">
+    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="126"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" ht="16">
+    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="126"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" ht="16">
+    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="126"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" ht="16">
+    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="126"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" ht="16">
+    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="126"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" ht="16">
+    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="126"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" ht="16">
+    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="126"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" ht="16">
+    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="126"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" ht="16">
+    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B55" s="126"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" ht="16">
+    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B56" s="126"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" ht="16">
+    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="126"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" ht="16">
+    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="126"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" ht="16">
+    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="126"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" ht="16">
+    <row r="60" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B60" s="126"/>
     </row>
-    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B61" s="126"/>
     </row>
-    <row r="62" spans="2:25" s="26" customFormat="1">
+    <row r="62" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B62" s="129"/>
       <c r="C62" s="129" t="s">
         <v>25</v>
@@ -7180,7 +6938,7 @@
       <c r="T62" s="129"/>
       <c r="U62" s="129"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" ht="16">
+    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="126"/>
       <c r="C63" s="139"/>
       <c r="D63" s="139"/>
@@ -7206,7 +6964,7 @@
       <c r="X63" s="139"/>
       <c r="Y63" s="139"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" ht="16">
+    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B64" s="126"/>
       <c r="C64" s="139" t="s">
         <v>90</v>
@@ -7234,7 +6992,7 @@
       <c r="X64" s="139"/>
       <c r="Y64" s="139"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" ht="16">
+    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B65" s="126"/>
       <c r="C65" s="139"/>
       <c r="D65" s="139"/>
@@ -7260,7 +7018,7 @@
       <c r="X65" s="139"/>
       <c r="Y65" s="139"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" ht="16">
+    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="126"/>
       <c r="C66" s="139"/>
       <c r="D66" s="139">
@@ -7288,7 +7046,7 @@
       <c r="X66" s="139"/>
       <c r="Y66" s="139"/>
     </row>
-    <row r="67" spans="2:25" customFormat="1" ht="16">
+    <row r="67" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="126"/>
       <c r="C67" s="139"/>
       <c r="D67" s="139"/>
@@ -7314,7 +7072,7 @@
       <c r="X67" s="139"/>
       <c r="Y67" s="139"/>
     </row>
-    <row r="68" spans="2:25" customFormat="1" ht="16">
+    <row r="68" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="126"/>
       <c r="C68" s="139"/>
       <c r="D68" s="139"/>
@@ -7340,7 +7098,7 @@
       <c r="X68" s="139"/>
       <c r="Y68" s="139"/>
     </row>
-    <row r="69" spans="2:25" customFormat="1" ht="16">
+    <row r="69" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B69" s="126"/>
       <c r="C69" s="139"/>
       <c r="D69" s="139"/>
@@ -7366,7 +7124,7 @@
       <c r="X69" s="139"/>
       <c r="Y69" s="139"/>
     </row>
-    <row r="70" spans="2:25" customFormat="1" ht="16">
+    <row r="70" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B70" s="126"/>
       <c r="C70" s="139"/>
       <c r="D70" s="139"/>
@@ -7392,7 +7150,7 @@
       <c r="X70" s="139"/>
       <c r="Y70" s="139"/>
     </row>
-    <row r="71" spans="2:25" customFormat="1" ht="16">
+    <row r="71" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B71" s="126"/>
       <c r="C71" s="139"/>
       <c r="D71" s="139">
@@ -7420,7 +7178,7 @@
       <c r="X71" s="139"/>
       <c r="Y71" s="139"/>
     </row>
-    <row r="72" spans="2:25" customFormat="1" ht="16">
+    <row r="72" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B72" s="126"/>
       <c r="C72" s="139"/>
       <c r="D72" s="155" t="s">
@@ -7448,7 +7206,7 @@
       <c r="X72" s="139"/>
       <c r="Y72" s="139"/>
     </row>
-    <row r="73" spans="2:25" customFormat="1" ht="16">
+    <row r="73" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="126"/>
       <c r="C73" s="139"/>
       <c r="D73" s="139"/>
@@ -7474,7 +7232,7 @@
       <c r="X73" s="139"/>
       <c r="Y73" s="139"/>
     </row>
-    <row r="74" spans="2:25" customFormat="1" ht="16">
+    <row r="74" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B74" s="126"/>
       <c r="C74" s="139"/>
       <c r="D74" s="139"/>
@@ -7500,7 +7258,7 @@
       <c r="X74" s="139"/>
       <c r="Y74" s="139"/>
     </row>
-    <row r="75" spans="2:25" customFormat="1" ht="16">
+    <row r="75" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="126"/>
       <c r="C75" s="139"/>
       <c r="D75" s="139"/>
@@ -7526,7 +7284,7 @@
       <c r="X75" s="139"/>
       <c r="Y75" s="139"/>
     </row>
-    <row r="76" spans="2:25" customFormat="1" ht="16">
+    <row r="76" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="126"/>
       <c r="C76" s="139"/>
       <c r="D76" s="139"/>
@@ -7552,7 +7310,7 @@
       <c r="X76" s="139"/>
       <c r="Y76" s="139"/>
     </row>
-    <row r="77" spans="2:25" customFormat="1" ht="16">
+    <row r="77" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B77" s="126"/>
       <c r="C77" s="139"/>
       <c r="D77" s="139"/>
@@ -7578,7 +7336,7 @@
       <c r="X77" s="139"/>
       <c r="Y77" s="139"/>
     </row>
-    <row r="78" spans="2:25" customFormat="1" ht="16">
+    <row r="78" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="126"/>
       <c r="C78" s="139"/>
       <c r="D78" s="139"/>
@@ -7604,7 +7362,7 @@
       <c r="X78" s="139"/>
       <c r="Y78" s="139"/>
     </row>
-    <row r="79" spans="2:25" customFormat="1" ht="16">
+    <row r="79" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="126"/>
       <c r="C79" s="139"/>
       <c r="D79" s="139"/>
@@ -7630,7 +7388,7 @@
       <c r="X79" s="139"/>
       <c r="Y79" s="139"/>
     </row>
-    <row r="80" spans="2:25" customFormat="1" ht="16">
+    <row r="80" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="126"/>
       <c r="C80" s="139"/>
       <c r="D80" s="139"/>
@@ -7656,7 +7414,7 @@
       <c r="X80" s="139"/>
       <c r="Y80" s="139"/>
     </row>
-    <row r="81" spans="1:25" customFormat="1" ht="16">
+    <row r="81" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="126"/>
       <c r="C81" s="139"/>
       <c r="D81" s="139"/>
@@ -7682,7 +7440,7 @@
       <c r="X81" s="139"/>
       <c r="Y81" s="139"/>
     </row>
-    <row r="82" spans="1:25" customFormat="1" ht="16">
+    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="126"/>
       <c r="C82" s="139"/>
       <c r="D82" s="139"/>
@@ -7708,7 +7466,7 @@
       <c r="X82" s="139"/>
       <c r="Y82" s="139"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" ht="16">
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="126"/>
       <c r="C83" s="139"/>
       <c r="D83" s="139"/>
@@ -7734,7 +7492,7 @@
       <c r="X83" s="139"/>
       <c r="Y83" s="139"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" ht="16">
+    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B84" s="126"/>
       <c r="C84" s="139"/>
       <c r="D84" s="139"/>
@@ -7760,7 +7518,7 @@
       <c r="X84" s="139"/>
       <c r="Y84" s="139"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" ht="16">
+    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B85" s="126"/>
       <c r="C85" s="139"/>
       <c r="D85" s="125"/>
@@ -7786,7 +7544,7 @@
       <c r="X85" s="139"/>
       <c r="Y85" s="139"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" ht="16">
+    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B86" s="126"/>
       <c r="C86" s="139"/>
       <c r="D86" s="139"/>
@@ -7812,7 +7570,7 @@
       <c r="X86" s="139"/>
       <c r="Y86" s="139"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" ht="16">
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="126"/>
       <c r="C87" s="139"/>
       <c r="D87" s="139">
@@ -7840,7 +7598,7 @@
       <c r="X87" s="139"/>
       <c r="Y87" s="139"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" ht="16">
+    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="126"/>
       <c r="C88" s="139"/>
       <c r="D88" s="139"/>
@@ -7866,7 +7624,7 @@
       <c r="X88" s="139"/>
       <c r="Y88" s="139"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" ht="16">
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B89" s="126"/>
       <c r="C89" s="139"/>
       <c r="D89" s="139"/>
@@ -7892,7 +7650,7 @@
       <c r="X89" s="139"/>
       <c r="Y89" s="139"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" ht="16">
+    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B90" s="126"/>
       <c r="C90" s="139"/>
       <c r="D90" s="139"/>
@@ -7915,7 +7673,7 @@
       <c r="X90" s="139"/>
       <c r="Y90" s="139"/>
     </row>
-    <row r="91" spans="1:25" customFormat="1" ht="16">
+    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B91" s="126"/>
       <c r="C91" s="139"/>
       <c r="D91" s="139"/>
@@ -7938,7 +7696,7 @@
       <c r="X91" s="139"/>
       <c r="Y91" s="139"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" ht="16">
+    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="126"/>
       <c r="C92" s="139"/>
       <c r="D92" s="139"/>
@@ -7965,7 +7723,7 @@
       <c r="X92" s="139"/>
       <c r="Y92" s="139"/>
     </row>
-    <row r="93" spans="1:25" customFormat="1" ht="16">
+    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="126"/>
       <c r="C93" s="139"/>
       <c r="D93" s="139"/>
@@ -8003,7 +7761,7 @@
       <c r="X93" s="139"/>
       <c r="Y93" s="139"/>
     </row>
-    <row r="94" spans="1:25" customFormat="1" ht="16">
+    <row r="94" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="139"/>
       <c r="B94" s="126"/>
       <c r="C94" s="139"/>
@@ -8035,7 +7793,7 @@
       <c r="W94" s="139"/>
       <c r="X94" s="139"/>
     </row>
-    <row r="95" spans="1:25" customFormat="1" ht="16">
+    <row r="95" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="139"/>
       <c r="B95" s="126"/>
       <c r="C95" s="139"/>
@@ -8059,7 +7817,7 @@
       <c r="W95" s="139"/>
       <c r="X95" s="139"/>
     </row>
-    <row r="96" spans="1:25" customFormat="1" ht="16">
+    <row r="96" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="139"/>
       <c r="B96" s="126"/>
       <c r="C96" s="139"/>
@@ -8088,7 +7846,7 @@
       <c r="W96" s="139"/>
       <c r="X96" s="139"/>
     </row>
-    <row r="97" spans="1:25" customFormat="1" ht="16">
+    <row r="97" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="139"/>
       <c r="B97" s="126"/>
       <c r="C97" s="139"/>
@@ -8117,7 +7875,7 @@
       <c r="W97" s="139"/>
       <c r="X97" s="139"/>
     </row>
-    <row r="98" spans="1:25" customFormat="1" ht="16">
+    <row r="98" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="139"/>
       <c r="B98" s="126"/>
       <c r="C98" s="139"/>
@@ -8141,7 +7899,7 @@
       <c r="W98" s="139"/>
       <c r="X98" s="139"/>
     </row>
-    <row r="99" spans="1:25" customFormat="1" ht="17" thickBot="1">
+    <row r="99" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="139"/>
       <c r="B99" s="126"/>
       <c r="C99" s="139"/>
@@ -8167,7 +7925,7 @@
       <c r="W99" s="139"/>
       <c r="X99" s="139"/>
     </row>
-    <row r="100" spans="1:25" s="26" customFormat="1">
+    <row r="100" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="129"/>
       <c r="C100" s="129" t="s">
         <v>25</v>
@@ -8195,7 +7953,7 @@
       <c r="T100" s="129"/>
       <c r="U100" s="129"/>
     </row>
-    <row r="101" spans="1:25" customFormat="1" ht="16">
+    <row r="101" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="126"/>
       <c r="C101" s="139"/>
       <c r="D101" s="139"/>
@@ -8221,7 +7979,7 @@
       <c r="X101" s="139"/>
       <c r="Y101" s="139"/>
     </row>
-    <row r="102" spans="1:25" customFormat="1" ht="16">
+    <row r="102" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="126"/>
       <c r="C102" s="139" t="s">
         <v>102</v>
@@ -8249,7 +8007,7 @@
       <c r="X102" s="139"/>
       <c r="Y102" s="139"/>
     </row>
-    <row r="103" spans="1:25" customFormat="1" ht="16">
+    <row r="103" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="126"/>
       <c r="C103" s="139"/>
       <c r="D103" s="139"/>
@@ -8276,7 +8034,7 @@
       <c r="X103" s="139"/>
       <c r="Y103" s="139"/>
     </row>
-    <row r="104" spans="1:25" customFormat="1" ht="16">
+    <row r="104" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="126"/>
       <c r="C104" s="139"/>
       <c r="D104" s="139"/>
@@ -8309,7 +8067,7 @@
       <c r="X104" s="139"/>
       <c r="Y104" s="139"/>
     </row>
-    <row r="105" spans="1:25" customFormat="1" ht="16">
+    <row r="105" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="126"/>
       <c r="C105" s="139"/>
       <c r="D105" s="139"/>
@@ -8344,7 +8102,7 @@
       <c r="X105" s="139"/>
       <c r="Y105" s="139"/>
     </row>
-    <row r="106" spans="1:25" customFormat="1" ht="16">
+    <row r="106" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="126"/>
       <c r="C106" s="139"/>
       <c r="D106" s="139"/>
@@ -8376,7 +8134,7 @@
       <c r="X106" s="139"/>
       <c r="Y106" s="139"/>
     </row>
-    <row r="107" spans="1:25" customFormat="1" ht="16">
+    <row r="107" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B107" s="126"/>
       <c r="C107" s="139"/>
       <c r="D107" s="139"/>
@@ -8408,7 +8166,7 @@
       <c r="X107" s="139"/>
       <c r="Y107" s="139"/>
     </row>
-    <row r="108" spans="1:25" customFormat="1" ht="16">
+    <row r="108" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B108" s="126"/>
       <c r="C108" s="139"/>
       <c r="D108" s="139"/>
@@ -8435,7 +8193,7 @@
       <c r="X108" s="139"/>
       <c r="Y108" s="139"/>
     </row>
-    <row r="109" spans="1:25" customFormat="1" ht="16">
+    <row r="109" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B109" s="126"/>
       <c r="C109" s="139"/>
       <c r="D109" s="139"/>
@@ -8461,7 +8219,7 @@
       <c r="X109" s="139"/>
       <c r="Y109" s="139"/>
     </row>
-    <row r="110" spans="1:25" customFormat="1" ht="16">
+    <row r="110" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="126"/>
       <c r="C110" s="139"/>
       <c r="D110" s="139"/>
@@ -8487,7 +8245,7 @@
       <c r="X110" s="139"/>
       <c r="Y110" s="139"/>
     </row>
-    <row r="111" spans="1:25" customFormat="1" ht="16">
+    <row r="111" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="126"/>
       <c r="C111" s="139"/>
       <c r="D111" s="139"/>
@@ -8519,7 +8277,7 @@
       <c r="X111" s="139"/>
       <c r="Y111" s="139"/>
     </row>
-    <row r="112" spans="1:25" customFormat="1" ht="16">
+    <row r="112" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="126"/>
       <c r="C112" s="139"/>
       <c r="D112" s="139"/>
@@ -8550,7 +8308,7 @@
       <c r="X112" s="139"/>
       <c r="Y112" s="139"/>
     </row>
-    <row r="113" spans="2:25" customFormat="1" ht="16">
+    <row r="113" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="126"/>
       <c r="C113" s="139"/>
       <c r="D113" s="139"/>
@@ -8581,7 +8339,7 @@
       <c r="X113" s="139"/>
       <c r="Y113" s="139"/>
     </row>
-    <row r="114" spans="2:25" customFormat="1" ht="16">
+    <row r="114" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="126"/>
       <c r="C114" s="139"/>
       <c r="D114" s="139"/>
@@ -8612,7 +8370,7 @@
       <c r="X114" s="139"/>
       <c r="Y114" s="139"/>
     </row>
-    <row r="115" spans="2:25" customFormat="1" ht="16">
+    <row r="115" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B115" s="126"/>
       <c r="C115" s="139"/>
       <c r="D115" s="139"/>
@@ -8638,7 +8396,7 @@
       <c r="X115" s="139"/>
       <c r="Y115" s="139"/>
     </row>
-    <row r="116" spans="2:25" customFormat="1" ht="16">
+    <row r="116" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B116" s="126"/>
       <c r="C116" s="139"/>
       <c r="D116" s="139"/>
@@ -8664,7 +8422,7 @@
       <c r="X116" s="139"/>
       <c r="Y116" s="139"/>
     </row>
-    <row r="117" spans="2:25" customFormat="1" ht="16">
+    <row r="117" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B117" s="126"/>
       <c r="C117" s="139"/>
       <c r="D117" s="139"/>
@@ -8690,7 +8448,7 @@
       <c r="X117" s="139"/>
       <c r="Y117" s="139"/>
     </row>
-    <row r="118" spans="2:25" customFormat="1" ht="16">
+    <row r="118" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="126"/>
       <c r="C118" s="139"/>
       <c r="D118" s="139"/>
@@ -8722,7 +8480,7 @@
       <c r="X118" s="139"/>
       <c r="Y118" s="139"/>
     </row>
-    <row r="119" spans="2:25" customFormat="1" ht="16">
+    <row r="119" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B119" s="126"/>
       <c r="C119" s="139"/>
       <c r="D119" s="139"/>
@@ -8753,7 +8511,7 @@
       <c r="X119" s="139"/>
       <c r="Y119" s="139"/>
     </row>
-    <row r="120" spans="2:25" customFormat="1" ht="16">
+    <row r="120" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B120" s="126"/>
       <c r="C120" s="139"/>
       <c r="D120" s="139"/>
@@ -8784,7 +8542,7 @@
       <c r="X120" s="139"/>
       <c r="Y120" s="139"/>
     </row>
-    <row r="121" spans="2:25" customFormat="1" ht="16">
+    <row r="121" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="126"/>
       <c r="C121" s="139"/>
       <c r="D121" s="139"/>
@@ -8815,7 +8573,7 @@
       <c r="X121" s="139"/>
       <c r="Y121" s="139"/>
     </row>
-    <row r="122" spans="2:25" customFormat="1" ht="16">
+    <row r="122" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B122" s="126"/>
       <c r="C122" s="139"/>
       <c r="D122" s="139"/>
@@ -8841,7 +8599,7 @@
       <c r="X122" s="139"/>
       <c r="Y122" s="139"/>
     </row>
-    <row r="123" spans="2:25" customFormat="1" ht="16">
+    <row r="123" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B123" s="126"/>
       <c r="C123" s="139"/>
       <c r="D123" s="139"/>
@@ -8867,7 +8625,7 @@
       <c r="X123" s="139"/>
       <c r="Y123" s="139"/>
     </row>
-    <row r="124" spans="2:25" customFormat="1" ht="16">
+    <row r="124" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="126"/>
       <c r="C124" s="139"/>
       <c r="D124" s="139"/>
@@ -8893,7 +8651,7 @@
       <c r="X124" s="139"/>
       <c r="Y124" s="139"/>
     </row>
-    <row r="125" spans="2:25" customFormat="1" ht="16">
+    <row r="125" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="126"/>
       <c r="C125" s="139"/>
       <c r="D125" s="139"/>
@@ -8919,7 +8677,7 @@
       <c r="X125" s="139"/>
       <c r="Y125" s="139"/>
     </row>
-    <row r="126" spans="2:25" customFormat="1" ht="16">
+    <row r="126" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B126" s="126"/>
       <c r="C126" s="139"/>
       <c r="D126" s="139"/>
@@ -8945,7 +8703,7 @@
       <c r="X126" s="139"/>
       <c r="Y126" s="139"/>
     </row>
-    <row r="127" spans="2:25" customFormat="1" ht="16">
+    <row r="127" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="126"/>
       <c r="C127" s="139"/>
       <c r="D127" s="139"/>
@@ -8971,7 +8729,7 @@
       <c r="X127" s="139"/>
       <c r="Y127" s="139"/>
     </row>
-    <row r="128" spans="2:25" customFormat="1" ht="16">
+    <row r="128" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="126"/>
       <c r="C128" s="139"/>
       <c r="D128" s="139"/>
@@ -8997,7 +8755,7 @@
       <c r="X128" s="139"/>
       <c r="Y128" s="139"/>
     </row>
-    <row r="129" spans="2:25" customFormat="1" ht="16">
+    <row r="129" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B129" s="126"/>
       <c r="C129" s="139"/>
       <c r="D129" s="139"/>
@@ -9023,7 +8781,7 @@
       <c r="X129" s="139"/>
       <c r="Y129" s="139"/>
     </row>
-    <row r="130" spans="2:25" customFormat="1" ht="16">
+    <row r="130" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="126"/>
       <c r="C130" s="139"/>
       <c r="D130" s="139"/>
@@ -9049,7 +8807,7 @@
       <c r="X130" s="139"/>
       <c r="Y130" s="139"/>
     </row>
-    <row r="131" spans="2:25" customFormat="1" ht="16">
+    <row r="131" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="126"/>
       <c r="C131" s="139"/>
       <c r="D131" s="139"/>
@@ -9075,7 +8833,7 @@
       <c r="X131" s="139"/>
       <c r="Y131" s="139"/>
     </row>
-    <row r="132" spans="2:25" customFormat="1" ht="16">
+    <row r="132" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="126"/>
       <c r="C132" s="139"/>
       <c r="D132" s="139"/>
@@ -9101,7 +8859,7 @@
       <c r="X132" s="139"/>
       <c r="Y132" s="139"/>
     </row>
-    <row r="133" spans="2:25" customFormat="1" ht="16">
+    <row r="133" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="126"/>
       <c r="C133" s="139"/>
       <c r="D133" s="139"/>
@@ -9127,7 +8885,7 @@
       <c r="X133" s="139"/>
       <c r="Y133" s="139"/>
     </row>
-    <row r="134" spans="2:25" customFormat="1" ht="16">
+    <row r="134" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="126"/>
       <c r="C134" s="139"/>
       <c r="D134" s="139"/>
@@ -9153,7 +8911,7 @@
       <c r="X134" s="139"/>
       <c r="Y134" s="139"/>
     </row>
-    <row r="135" spans="2:25" customFormat="1" ht="16">
+    <row r="135" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B135" s="126"/>
       <c r="C135" s="139"/>
       <c r="D135" s="139"/>
@@ -9179,7 +8937,7 @@
       <c r="X135" s="139"/>
       <c r="Y135" s="139"/>
     </row>
-    <row r="136" spans="2:25" customFormat="1" ht="16">
+    <row r="136" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="126"/>
       <c r="C136" s="139"/>
       <c r="D136" s="139"/>
@@ -9205,7 +8963,7 @@
       <c r="X136" s="139"/>
       <c r="Y136" s="139"/>
     </row>
-    <row r="137" spans="2:25" customFormat="1" ht="16">
+    <row r="137" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B137" s="126"/>
       <c r="C137" s="139"/>
       <c r="D137" s="139"/>
@@ -9231,7 +8989,7 @@
       <c r="X137" s="139"/>
       <c r="Y137" s="139"/>
     </row>
-    <row r="138" spans="2:25" customFormat="1" ht="16">
+    <row r="138" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="126"/>
       <c r="C138" s="139"/>
       <c r="D138" s="139"/>
@@ -9257,7 +9015,7 @@
       <c r="X138" s="139"/>
       <c r="Y138" s="139"/>
     </row>
-    <row r="139" spans="2:25" customFormat="1" ht="16">
+    <row r="139" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="126"/>
       <c r="C139" s="139"/>
       <c r="D139" s="139"/>
@@ -9283,7 +9041,7 @@
       <c r="X139" s="139"/>
       <c r="Y139" s="139"/>
     </row>
-    <row r="140" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="140" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B140" s="126"/>
       <c r="C140" s="139"/>
       <c r="D140" s="139"/>
@@ -9309,7 +9067,7 @@
       <c r="X140" s="139"/>
       <c r="Y140" s="139"/>
     </row>
-    <row r="141" spans="2:25" s="26" customFormat="1">
+    <row r="141" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="129"/>
       <c r="C141" s="129" t="s">
         <v>25</v>
@@ -9337,7 +9095,7 @@
       <c r="T141" s="129"/>
       <c r="U141" s="129"/>
     </row>
-    <row r="142" spans="2:25" customFormat="1" ht="16">
+    <row r="142" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B142" s="126"/>
       <c r="C142" s="139"/>
       <c r="D142" s="139"/>
@@ -9363,7 +9121,7 @@
       <c r="X142" s="139"/>
       <c r="Y142" s="139"/>
     </row>
-    <row r="143" spans="2:25" customFormat="1" ht="16">
+    <row r="143" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B143" s="126"/>
       <c r="C143" s="147" t="s">
         <v>76</v>
@@ -9391,7 +9149,7 @@
       <c r="X143" s="139"/>
       <c r="Y143" s="139"/>
     </row>
-    <row r="144" spans="2:25" customFormat="1" ht="16">
+    <row r="144" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B144" s="126"/>
       <c r="C144" s="125"/>
       <c r="D144" s="139"/>
@@ -9417,7 +9175,7 @@
       <c r="X144" s="139"/>
       <c r="Y144" s="139"/>
     </row>
-    <row r="145" spans="2:25" customFormat="1" ht="16">
+    <row r="145" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="126"/>
       <c r="C145" s="139"/>
       <c r="D145">
@@ -9445,7 +9203,7 @@
       <c r="X145" s="139"/>
       <c r="Y145" s="139"/>
     </row>
-    <row r="146" spans="2:25" customFormat="1" ht="16">
+    <row r="146" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="126"/>
       <c r="C146" s="139"/>
       <c r="D146" s="139"/>
@@ -9471,7 +9229,7 @@
       <c r="X146" s="139"/>
       <c r="Y146" s="139"/>
     </row>
-    <row r="147" spans="2:25" customFormat="1" ht="16">
+    <row r="147" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B147" s="126"/>
       <c r="C147" s="139"/>
       <c r="D147" s="139"/>
@@ -9496,7 +9254,7 @@
       <c r="X147" s="139"/>
       <c r="Y147" s="139"/>
     </row>
-    <row r="148" spans="2:25" customFormat="1" ht="16">
+    <row r="148" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="126"/>
       <c r="C148" s="139"/>
       <c r="D148" s="139"/>
@@ -9521,7 +9279,7 @@
       <c r="X148" s="139"/>
       <c r="Y148" s="139"/>
     </row>
-    <row r="149" spans="2:25" customFormat="1" ht="16">
+    <row r="149" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="126"/>
       <c r="C149" s="139"/>
       <c r="D149" s="139"/>
@@ -9545,7 +9303,7 @@
       <c r="X149" s="139"/>
       <c r="Y149" s="139"/>
     </row>
-    <row r="150" spans="2:25" customFormat="1" ht="16">
+    <row r="150" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B150" s="126"/>
       <c r="C150" s="139"/>
       <c r="D150" s="139"/>
@@ -9570,7 +9328,7 @@
       <c r="X150" s="139"/>
       <c r="Y150" s="139"/>
     </row>
-    <row r="151" spans="2:25" customFormat="1" ht="16">
+    <row r="151" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="126"/>
       <c r="C151" s="139"/>
       <c r="D151" s="139"/>
@@ -9596,7 +9354,7 @@
       <c r="X151" s="139"/>
       <c r="Y151" s="139"/>
     </row>
-    <row r="152" spans="2:25" customFormat="1" ht="16">
+    <row r="152" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B152" s="126"/>
       <c r="C152" s="139"/>
       <c r="D152" s="139"/>
@@ -9622,7 +9380,7 @@
       <c r="X152" s="139"/>
       <c r="Y152" s="139"/>
     </row>
-    <row r="153" spans="2:25" customFormat="1" ht="16">
+    <row r="153" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="126"/>
       <c r="C153" s="139"/>
       <c r="D153" s="139"/>
@@ -9648,7 +9406,7 @@
       <c r="X153" s="139"/>
       <c r="Y153" s="139"/>
     </row>
-    <row r="154" spans="2:25" customFormat="1" ht="16">
+    <row r="154" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="126"/>
       <c r="C154" s="139"/>
       <c r="D154" s="139"/>
@@ -9674,7 +9432,7 @@
       <c r="X154" s="139"/>
       <c r="Y154" s="139"/>
     </row>
-    <row r="155" spans="2:25" customFormat="1" ht="16">
+    <row r="155" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B155" s="126"/>
       <c r="C155" s="139"/>
       <c r="D155" s="139"/>
@@ -9700,7 +9458,7 @@
       <c r="X155" s="139"/>
       <c r="Y155" s="139"/>
     </row>
-    <row r="156" spans="2:25" customFormat="1" ht="16">
+    <row r="156" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="126"/>
       <c r="C156" s="139"/>
       <c r="D156" s="139"/>
@@ -9726,7 +9484,7 @@
       <c r="X156" s="139"/>
       <c r="Y156" s="139"/>
     </row>
-    <row r="157" spans="2:25" customFormat="1" ht="16">
+    <row r="157" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="126"/>
       <c r="C157" s="139"/>
       <c r="D157" s="139"/>
@@ -9752,7 +9510,7 @@
       <c r="X157" s="139"/>
       <c r="Y157" s="139"/>
     </row>
-    <row r="158" spans="2:25" customFormat="1" ht="16">
+    <row r="158" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B158" s="126"/>
       <c r="C158" s="139"/>
       <c r="D158" s="139"/>
@@ -9778,7 +9536,7 @@
       <c r="X158" s="139"/>
       <c r="Y158" s="139"/>
     </row>
-    <row r="159" spans="2:25" customFormat="1" ht="16">
+    <row r="159" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B159" s="126"/>
       <c r="C159" s="139"/>
       <c r="D159" s="139"/>
@@ -9804,7 +9562,7 @@
       <c r="X159" s="139"/>
       <c r="Y159" s="139"/>
     </row>
-    <row r="160" spans="2:25" customFormat="1" ht="16">
+    <row r="160" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="126"/>
       <c r="C160" s="139"/>
       <c r="D160" s="139"/>
@@ -9830,7 +9588,7 @@
       <c r="X160" s="139"/>
       <c r="Y160" s="139"/>
     </row>
-    <row r="161" spans="2:25" customFormat="1" ht="16">
+    <row r="161" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B161" s="126"/>
       <c r="C161" s="139"/>
       <c r="D161" s="139"/>
@@ -9856,7 +9614,7 @@
       <c r="X161" s="139"/>
       <c r="Y161" s="139"/>
     </row>
-    <row r="162" spans="2:25" customFormat="1" ht="16">
+    <row r="162" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B162" s="126"/>
       <c r="C162" s="139"/>
       <c r="D162" s="139"/>
@@ -9882,7 +9640,7 @@
       <c r="X162" s="139"/>
       <c r="Y162" s="139"/>
     </row>
-    <row r="163" spans="2:25" customFormat="1" ht="16">
+    <row r="163" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="126"/>
       <c r="C163" s="139"/>
       <c r="D163" s="139"/>
@@ -9908,7 +9666,7 @@
       <c r="X163" s="139"/>
       <c r="Y163" s="139"/>
     </row>
-    <row r="164" spans="2:25" customFormat="1" ht="16">
+    <row r="164" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="126"/>
       <c r="C164" s="139"/>
       <c r="D164" s="139"/>
@@ -9934,7 +9692,7 @@
       <c r="X164" s="139"/>
       <c r="Y164" s="139"/>
     </row>
-    <row r="165" spans="2:25" customFormat="1" ht="16">
+    <row r="165" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="126"/>
       <c r="C165" s="139"/>
       <c r="D165" s="139"/>
@@ -9960,7 +9718,7 @@
       <c r="X165" s="139"/>
       <c r="Y165" s="139"/>
     </row>
-    <row r="166" spans="2:25" customFormat="1" ht="16">
+    <row r="166" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B166" s="126"/>
       <c r="C166" s="139"/>
       <c r="D166" s="139"/>
@@ -9986,7 +9744,7 @@
       <c r="X166" s="139"/>
       <c r="Y166" s="139"/>
     </row>
-    <row r="167" spans="2:25" customFormat="1" ht="16">
+    <row r="167" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="126"/>
       <c r="C167" s="139"/>
       <c r="D167" s="139"/>
@@ -10012,364 +9770,364 @@
       <c r="X167" s="139"/>
       <c r="Y167" s="139"/>
     </row>
-    <row r="168" spans="2:25" customFormat="1" ht="16">
+    <row r="168" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="126"/>
     </row>
-    <row r="169" spans="2:25" customFormat="1" ht="16">
+    <row r="169" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="126"/>
     </row>
-    <row r="170" spans="2:25" customFormat="1" ht="16">
+    <row r="170" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="126"/>
     </row>
-    <row r="171" spans="2:25" customFormat="1" ht="16">
+    <row r="171" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="126"/>
     </row>
-    <row r="172" spans="2:25" customFormat="1" ht="16">
+    <row r="172" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="126"/>
       <c r="D172">
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="2:25" customFormat="1" ht="16">
+    <row r="173" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="126"/>
     </row>
-    <row r="174" spans="2:25" customFormat="1" ht="16">
+    <row r="174" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="126"/>
     </row>
-    <row r="175" spans="2:25" customFormat="1" ht="16">
+    <row r="175" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="126"/>
     </row>
-    <row r="176" spans="2:25" customFormat="1" ht="16">
+    <row r="176" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="126"/>
     </row>
-    <row r="177" spans="2:2" customFormat="1" ht="16">
+    <row r="177" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="126"/>
     </row>
-    <row r="178" spans="2:2" customFormat="1" ht="16">
+    <row r="178" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="126"/>
     </row>
-    <row r="179" spans="2:2" customFormat="1" ht="16">
+    <row r="179" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="126"/>
     </row>
-    <row r="180" spans="2:2" customFormat="1" ht="16">
+    <row r="180" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B180" s="126"/>
     </row>
-    <row r="181" spans="2:2" customFormat="1" ht="16">
+    <row r="181" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B181" s="126"/>
     </row>
-    <row r="182" spans="2:2" customFormat="1" ht="16">
+    <row r="182" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B182" s="126"/>
     </row>
-    <row r="183" spans="2:2" customFormat="1" ht="16">
+    <row r="183" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="126"/>
     </row>
-    <row r="184" spans="2:2" customFormat="1" ht="16">
+    <row r="184" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="126"/>
     </row>
-    <row r="185" spans="2:2" customFormat="1" ht="16">
+    <row r="185" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="126"/>
     </row>
-    <row r="186" spans="2:2" customFormat="1" ht="16">
+    <row r="186" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B186" s="126"/>
     </row>
-    <row r="187" spans="2:2" customFormat="1" ht="16">
+    <row r="187" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B187" s="126"/>
     </row>
-    <row r="188" spans="2:2" customFormat="1" ht="16">
+    <row r="188" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="126"/>
     </row>
-    <row r="189" spans="2:2" customFormat="1" ht="16">
+    <row r="189" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B189" s="126"/>
     </row>
-    <row r="190" spans="2:2" customFormat="1" ht="16">
+    <row r="190" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="126"/>
     </row>
-    <row r="191" spans="2:2" customFormat="1" ht="16">
+    <row r="191" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B191" s="126"/>
     </row>
-    <row r="192" spans="2:2" customFormat="1" ht="16">
+    <row r="192" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="126"/>
     </row>
-    <row r="193" spans="2:4" customFormat="1" ht="16">
+    <row r="193" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B193" s="126"/>
     </row>
-    <row r="194" spans="2:4" customFormat="1" ht="16">
+    <row r="194" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="126"/>
     </row>
-    <row r="195" spans="2:4" customFormat="1" ht="16">
+    <row r="195" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="126"/>
       <c r="D195">
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="2:4" customFormat="1" ht="16">
+    <row r="196" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B196" s="126"/>
     </row>
-    <row r="197" spans="2:4" customFormat="1" ht="16">
+    <row r="197" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B197" s="126"/>
     </row>
-    <row r="198" spans="2:4" customFormat="1" ht="16">
+    <row r="198" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="126"/>
     </row>
-    <row r="199" spans="2:4" customFormat="1" ht="16">
+    <row r="199" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B199" s="126"/>
     </row>
-    <row r="200" spans="2:4" customFormat="1" ht="16">
+    <row r="200" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="126"/>
     </row>
-    <row r="201" spans="2:4" customFormat="1" ht="16">
+    <row r="201" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B201" s="126"/>
     </row>
-    <row r="202" spans="2:4" customFormat="1" ht="16">
+    <row r="202" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B202" s="126"/>
     </row>
-    <row r="203" spans="2:4" customFormat="1" ht="16">
+    <row r="203" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B203" s="126"/>
     </row>
-    <row r="204" spans="2:4" customFormat="1" ht="16">
+    <row r="204" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B204" s="126"/>
     </row>
-    <row r="205" spans="2:4" customFormat="1" ht="16">
+    <row r="205" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="126"/>
     </row>
-    <row r="206" spans="2:4" customFormat="1" ht="16">
+    <row r="206" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B206" s="126"/>
     </row>
-    <row r="207" spans="2:4" customFormat="1" ht="16">
+    <row r="207" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B207" s="126"/>
     </row>
-    <row r="208" spans="2:4" customFormat="1" ht="16">
+    <row r="208" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="126"/>
     </row>
-    <row r="209" spans="2:4" customFormat="1" ht="16">
+    <row r="209" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B209" s="126"/>
     </row>
-    <row r="210" spans="2:4" customFormat="1" ht="16">
+    <row r="210" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B210" s="126"/>
     </row>
-    <row r="211" spans="2:4" customFormat="1" ht="16">
+    <row r="211" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B211" s="126"/>
     </row>
-    <row r="212" spans="2:4" customFormat="1" ht="16">
+    <row r="212" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B212" s="126"/>
     </row>
-    <row r="213" spans="2:4" customFormat="1" ht="16">
+    <row r="213" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B213" s="126"/>
     </row>
-    <row r="214" spans="2:4" customFormat="1" ht="16">
+    <row r="214" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B214" s="126"/>
     </row>
-    <row r="215" spans="2:4" customFormat="1" ht="16">
+    <row r="215" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B215" s="126"/>
     </row>
-    <row r="216" spans="2:4" customFormat="1" ht="16">
+    <row r="216" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B216" s="126"/>
     </row>
-    <row r="217" spans="2:4" customFormat="1" ht="16">
+    <row r="217" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B217" s="126"/>
     </row>
-    <row r="218" spans="2:4" customFormat="1" ht="16">
+    <row r="218" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B218" s="126"/>
     </row>
-    <row r="219" spans="2:4" customFormat="1" ht="16">
+    <row r="219" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B219" s="126"/>
       <c r="D219">
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="2:4" customFormat="1" ht="16">
+    <row r="220" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B220" s="126"/>
     </row>
-    <row r="221" spans="2:4" customFormat="1" ht="16">
+    <row r="221" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="126"/>
     </row>
-    <row r="222" spans="2:4" customFormat="1" ht="16">
+    <row r="222" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="126"/>
     </row>
-    <row r="223" spans="2:4" customFormat="1" ht="16">
+    <row r="223" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B223" s="126"/>
     </row>
-    <row r="224" spans="2:4" customFormat="1" ht="16">
+    <row r="224" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B224" s="126"/>
     </row>
-    <row r="225" spans="2:2" customFormat="1" ht="16">
+    <row r="225" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B225" s="126"/>
     </row>
-    <row r="226" spans="2:2" customFormat="1" ht="16">
+    <row r="226" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B226" s="126"/>
     </row>
-    <row r="227" spans="2:2" customFormat="1" ht="16">
+    <row r="227" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B227" s="126"/>
     </row>
-    <row r="228" spans="2:2" customFormat="1" ht="16">
+    <row r="228" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="126"/>
     </row>
-    <row r="229" spans="2:2" customFormat="1" ht="16">
+    <row r="229" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="126"/>
     </row>
-    <row r="230" spans="2:2" customFormat="1" ht="16">
+    <row r="230" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B230" s="126"/>
     </row>
-    <row r="231" spans="2:2" customFormat="1" ht="16">
+    <row r="231" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B231" s="126"/>
     </row>
-    <row r="232" spans="2:2" customFormat="1" ht="16">
+    <row r="232" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B232" s="126"/>
     </row>
-    <row r="233" spans="2:2" customFormat="1" ht="16">
+    <row r="233" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B233" s="126"/>
     </row>
-    <row r="234" spans="2:2" customFormat="1" ht="16">
+    <row r="234" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B234" s="126"/>
     </row>
-    <row r="235" spans="2:2" customFormat="1" ht="16">
+    <row r="235" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B235" s="126"/>
     </row>
-    <row r="236" spans="2:2" customFormat="1" ht="16">
+    <row r="236" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B236" s="126"/>
     </row>
-    <row r="237" spans="2:2" customFormat="1" ht="16">
+    <row r="237" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B237" s="126"/>
     </row>
-    <row r="238" spans="2:2" customFormat="1" ht="16">
+    <row r="238" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B238" s="126"/>
     </row>
-    <row r="239" spans="2:2" customFormat="1" ht="16">
+    <row r="239" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B239" s="126"/>
     </row>
-    <row r="240" spans="2:2" customFormat="1" ht="16">
+    <row r="240" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B240" s="126"/>
     </row>
-    <row r="241" spans="2:7" customFormat="1" ht="16">
+    <row r="241" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B241" s="126"/>
     </row>
-    <row r="242" spans="2:7" customFormat="1" ht="16">
+    <row r="242" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B242" s="126"/>
     </row>
-    <row r="243" spans="2:7" customFormat="1" ht="16">
+    <row r="243" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B243" s="126"/>
     </row>
-    <row r="244" spans="2:7" customFormat="1" ht="16">
+    <row r="244" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B244" s="126"/>
     </row>
-    <row r="245" spans="2:7" customFormat="1" ht="16">
+    <row r="245" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B245" s="126"/>
       <c r="D245">
         <v>114</v>
       </c>
     </row>
-    <row r="246" spans="2:7" customFormat="1" ht="16">
+    <row r="246" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B246" s="126"/>
     </row>
-    <row r="247" spans="2:7" customFormat="1" ht="16">
+    <row r="247" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B247" s="126"/>
     </row>
-    <row r="248" spans="2:7" customFormat="1" ht="16">
+    <row r="248" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B248" s="126"/>
     </row>
-    <row r="249" spans="2:7" customFormat="1" ht="16">
+    <row r="249" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B249" s="126"/>
     </row>
-    <row r="250" spans="2:7" customFormat="1" ht="16">
+    <row r="250" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B250" s="126"/>
     </row>
-    <row r="251" spans="2:7" customFormat="1" ht="16">
+    <row r="251" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B251" s="126"/>
     </row>
-    <row r="252" spans="2:7" customFormat="1" ht="16">
+    <row r="252" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B252" s="126"/>
     </row>
-    <row r="253" spans="2:7" customFormat="1" ht="16">
+    <row r="253" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B253" s="126"/>
     </row>
-    <row r="254" spans="2:7" customFormat="1" ht="16">
+    <row r="254" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B254" s="126"/>
     </row>
-    <row r="255" spans="2:7" customFormat="1" ht="16">
+    <row r="255" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B255" s="126"/>
     </row>
-    <row r="256" spans="2:7" customFormat="1" ht="16">
+    <row r="256" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B256" s="126"/>
       <c r="G256" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="257" spans="2:7" customFormat="1" ht="16">
+    <row r="257" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B257" s="126"/>
       <c r="G257" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="258" spans="2:7" customFormat="1" ht="16">
+    <row r="258" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B258" s="126"/>
       <c r="G258" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="2:7" customFormat="1" ht="16">
+    <row r="259" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B259" s="126"/>
     </row>
-    <row r="260" spans="2:7" customFormat="1" ht="16">
+    <row r="260" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B260" s="126"/>
     </row>
-    <row r="261" spans="2:7" customFormat="1" ht="16">
+    <row r="261" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B261" s="126"/>
     </row>
-    <row r="262" spans="2:7" customFormat="1" ht="16">
+    <row r="262" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B262" s="126"/>
     </row>
-    <row r="263" spans="2:7" customFormat="1" ht="16">
+    <row r="263" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B263" s="126"/>
     </row>
-    <row r="264" spans="2:7" customFormat="1" ht="16">
+    <row r="264" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B264" s="126"/>
     </row>
-    <row r="265" spans="2:7" customFormat="1" ht="16">
+    <row r="265" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B265" s="126"/>
     </row>
-    <row r="266" spans="2:7" customFormat="1" ht="16">
+    <row r="266" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B266" s="126"/>
     </row>
-    <row r="267" spans="2:7" customFormat="1" ht="16">
+    <row r="267" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B267" s="126"/>
     </row>
-    <row r="268" spans="2:7" customFormat="1" ht="16">
+    <row r="268" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B268" s="126"/>
     </row>
-    <row r="269" spans="2:7" customFormat="1" ht="16">
+    <row r="269" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B269" s="126"/>
     </row>
-    <row r="270" spans="2:7" customFormat="1" ht="16">
+    <row r="270" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B270" s="126"/>
     </row>
-    <row r="271" spans="2:7" customFormat="1" ht="16">
+    <row r="271" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B271" s="126"/>
     </row>
-    <row r="272" spans="2:7" customFormat="1" ht="16">
+    <row r="272" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B272" s="126"/>
     </row>
-    <row r="273" spans="2:25" customFormat="1" ht="16">
+    <row r="273" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B273" s="126"/>
     </row>
-    <row r="274" spans="2:25" customFormat="1" ht="16">
+    <row r="274" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B274" s="126"/>
     </row>
-    <row r="275" spans="2:25" customFormat="1" ht="16">
+    <row r="275" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B275" s="126"/>
     </row>
-    <row r="276" spans="2:25" customFormat="1" ht="16">
+    <row r="276" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B276" s="126"/>
     </row>
-    <row r="277" spans="2:25" customFormat="1" ht="16">
+    <row r="277" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B277" s="126"/>
     </row>
-    <row r="278" spans="2:25" customFormat="1" ht="16">
+    <row r="278" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B278" s="126"/>
     </row>
-    <row r="279" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="279" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B279" s="126"/>
     </row>
-    <row r="280" spans="2:25" s="26" customFormat="1">
+    <row r="280" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B280" s="129"/>
       <c r="C280" s="129" t="s">
         <v>25</v>
@@ -10397,7 +10155,7 @@
       <c r="T280" s="129"/>
       <c r="U280" s="129"/>
     </row>
-    <row r="281" spans="2:25" customFormat="1" ht="16">
+    <row r="281" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B281" s="126"/>
       <c r="C281" s="144" t="s">
         <v>72</v>
@@ -10425,7 +10183,7 @@
       <c r="X281" s="139"/>
       <c r="Y281" s="139"/>
     </row>
-    <row r="282" spans="2:25" customFormat="1" ht="16">
+    <row r="282" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B282" s="126"/>
       <c r="C282" s="139"/>
       <c r="D282" s="139">
@@ -10453,7 +10211,7 @@
       <c r="X282" s="139"/>
       <c r="Y282" s="139"/>
     </row>
-    <row r="283" spans="2:25" customFormat="1" ht="16">
+    <row r="283" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B283" s="126"/>
       <c r="C283" s="139"/>
       <c r="D283" s="139"/>
@@ -10479,7 +10237,7 @@
       <c r="X283" s="139"/>
       <c r="Y283" s="139"/>
     </row>
-    <row r="284" spans="2:25" customFormat="1" ht="16">
+    <row r="284" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B284" s="126"/>
       <c r="C284" s="139"/>
       <c r="D284" s="139"/>
@@ -10509,7 +10267,7 @@
       <c r="X284" s="139"/>
       <c r="Y284" s="139"/>
     </row>
-    <row r="285" spans="2:25" customFormat="1" ht="16">
+    <row r="285" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B285" s="126"/>
       <c r="C285" s="139"/>
       <c r="D285" s="139"/>
@@ -10539,7 +10297,7 @@
       <c r="X285" s="139"/>
       <c r="Y285" s="139"/>
     </row>
-    <row r="286" spans="2:25" customFormat="1" ht="16">
+    <row r="286" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B286" s="126"/>
       <c r="C286" s="139"/>
       <c r="D286" s="139"/>
@@ -10565,7 +10323,7 @@
       <c r="X286" s="139"/>
       <c r="Y286" s="139"/>
     </row>
-    <row r="287" spans="2:25" customFormat="1" ht="16">
+    <row r="287" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B287" s="126"/>
       <c r="C287" s="139"/>
       <c r="D287" s="139"/>
@@ -10591,7 +10349,7 @@
       <c r="X287" s="139"/>
       <c r="Y287" s="139"/>
     </row>
-    <row r="288" spans="2:25" customFormat="1" ht="16">
+    <row r="288" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B288" s="126"/>
       <c r="C288" s="139"/>
       <c r="D288" s="139"/>
@@ -10617,7 +10375,7 @@
       <c r="X288" s="139"/>
       <c r="Y288" s="139"/>
     </row>
-    <row r="289" spans="2:25" customFormat="1" ht="16">
+    <row r="289" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B289" s="126"/>
       <c r="C289" s="139"/>
       <c r="D289" s="139"/>
@@ -10643,7 +10401,7 @@
       <c r="X289" s="139"/>
       <c r="Y289" s="139"/>
     </row>
-    <row r="290" spans="2:25" customFormat="1" ht="16">
+    <row r="290" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B290" s="126"/>
       <c r="C290" s="139"/>
       <c r="D290" s="139"/>
@@ -10669,7 +10427,7 @@
       <c r="X290" s="139"/>
       <c r="Y290" s="139"/>
     </row>
-    <row r="291" spans="2:25" customFormat="1" ht="16">
+    <row r="291" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B291" s="126"/>
       <c r="C291" s="139"/>
       <c r="D291" s="139"/>
@@ -10695,7 +10453,7 @@
       <c r="X291" s="139"/>
       <c r="Y291" s="139"/>
     </row>
-    <row r="292" spans="2:25" customFormat="1" ht="16">
+    <row r="292" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B292" s="126"/>
       <c r="C292" s="139"/>
       <c r="D292" s="139"/>
@@ -10721,7 +10479,7 @@
       <c r="X292" s="139"/>
       <c r="Y292" s="139"/>
     </row>
-    <row r="293" spans="2:25" customFormat="1" ht="16">
+    <row r="293" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B293" s="126"/>
       <c r="C293" s="139"/>
       <c r="D293" s="139"/>
@@ -10747,7 +10505,7 @@
       <c r="X293" s="139"/>
       <c r="Y293" s="139"/>
     </row>
-    <row r="294" spans="2:25" customFormat="1" ht="16">
+    <row r="294" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B294" s="126"/>
       <c r="C294" s="139"/>
       <c r="D294" s="139"/>
@@ -10773,7 +10531,7 @@
       <c r="X294" s="139"/>
       <c r="Y294" s="139"/>
     </row>
-    <row r="295" spans="2:25" customFormat="1" ht="16">
+    <row r="295" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B295" s="126"/>
       <c r="C295" s="139"/>
       <c r="D295" s="139"/>
@@ -10799,7 +10557,7 @@
       <c r="X295" s="139"/>
       <c r="Y295" s="139"/>
     </row>
-    <row r="296" spans="2:25" customFormat="1" ht="16">
+    <row r="296" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B296" s="126"/>
       <c r="C296" s="139"/>
       <c r="D296" s="139"/>
@@ -10825,7 +10583,7 @@
       <c r="X296" s="139"/>
       <c r="Y296" s="139"/>
     </row>
-    <row r="297" spans="2:25" customFormat="1" ht="16">
+    <row r="297" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B297" s="126"/>
       <c r="C297" s="139"/>
       <c r="D297" s="139"/>
@@ -10851,7 +10609,7 @@
       <c r="X297" s="139"/>
       <c r="Y297" s="139"/>
     </row>
-    <row r="298" spans="2:25" customFormat="1" ht="16">
+    <row r="298" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B298" s="126"/>
       <c r="C298" s="139"/>
       <c r="D298" s="139"/>
@@ -10877,7 +10635,7 @@
       <c r="X298" s="139"/>
       <c r="Y298" s="139"/>
     </row>
-    <row r="299" spans="2:25" customFormat="1" ht="16">
+    <row r="299" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B299" s="126"/>
       <c r="C299" s="139"/>
       <c r="D299" s="139"/>
@@ -10903,7 +10661,7 @@
       <c r="X299" s="139"/>
       <c r="Y299" s="139"/>
     </row>
-    <row r="300" spans="2:25" customFormat="1" ht="16">
+    <row r="300" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B300" s="126"/>
       <c r="C300" s="139"/>
       <c r="D300" s="139"/>
@@ -10929,7 +10687,7 @@
       <c r="X300" s="139"/>
       <c r="Y300" s="139"/>
     </row>
-    <row r="301" spans="2:25" customFormat="1" ht="16">
+    <row r="301" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B301" s="126"/>
       <c r="C301" s="139"/>
       <c r="D301" s="139"/>
@@ -10955,7 +10713,7 @@
       <c r="X301" s="139"/>
       <c r="Y301" s="139"/>
     </row>
-    <row r="302" spans="2:25" customFormat="1" ht="16">
+    <row r="302" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B302" s="126"/>
       <c r="C302" s="139"/>
       <c r="D302" s="139"/>
@@ -10981,7 +10739,7 @@
       <c r="X302" s="139"/>
       <c r="Y302" s="139"/>
     </row>
-    <row r="303" spans="2:25" customFormat="1" ht="16">
+    <row r="303" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B303" s="126"/>
       <c r="C303" s="139"/>
       <c r="D303" s="139"/>
@@ -11007,7 +10765,7 @@
       <c r="X303" s="139"/>
       <c r="Y303" s="139"/>
     </row>
-    <row r="304" spans="2:25" customFormat="1" ht="16">
+    <row r="304" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B304" s="126"/>
       <c r="C304" s="139"/>
       <c r="D304" s="139"/>
@@ -11033,7 +10791,7 @@
       <c r="X304" s="139"/>
       <c r="Y304" s="139"/>
     </row>
-    <row r="305" spans="2:25" customFormat="1" ht="16">
+    <row r="305" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B305" s="126"/>
       <c r="C305" s="139"/>
       <c r="D305" s="139"/>
@@ -11059,7 +10817,7 @@
       <c r="X305" s="139"/>
       <c r="Y305" s="139"/>
     </row>
-    <row r="306" spans="2:25" customFormat="1" ht="16">
+    <row r="306" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B306" s="126"/>
       <c r="C306" s="139"/>
       <c r="D306" s="139"/>
@@ -11085,7 +10843,7 @@
       <c r="X306" s="139"/>
       <c r="Y306" s="139"/>
     </row>
-    <row r="307" spans="2:25" customFormat="1" ht="16">
+    <row r="307" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B307" s="126"/>
       <c r="C307" s="139"/>
       <c r="D307" s="139"/>
@@ -11111,7 +10869,7 @@
       <c r="X307" s="139"/>
       <c r="Y307" s="139"/>
     </row>
-    <row r="308" spans="2:25" customFormat="1" ht="17" thickBot="1">
+    <row r="308" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B308" s="126"/>
       <c r="C308" s="139"/>
       <c r="D308" s="139"/>
@@ -11137,7 +10895,7 @@
       <c r="X308" s="139"/>
       <c r="Y308" s="139"/>
     </row>
-    <row r="309" spans="2:25" s="26" customFormat="1">
+    <row r="309" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B309" s="129"/>
       <c r="C309" s="129" t="s">
         <v>25</v>
@@ -11165,7 +10923,7 @@
       <c r="T309" s="129"/>
       <c r="U309" s="129"/>
     </row>
-    <row r="310" spans="2:25" customFormat="1" ht="16">
+    <row r="310" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B310" s="126"/>
       <c r="C310" s="144"/>
       <c r="D310" s="139"/>
@@ -11191,7 +10949,7 @@
       <c r="X310" s="139"/>
       <c r="Y310" s="139"/>
     </row>
-    <row r="311" spans="2:25" customFormat="1" ht="17">
+    <row r="311" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B311" s="126"/>
       <c r="C311" s="151" t="s">
         <v>83</v>
@@ -11219,7 +10977,7 @@
       <c r="X311" s="139"/>
       <c r="Y311" s="139"/>
     </row>
-    <row r="312" spans="2:25" customFormat="1" ht="16">
+    <row r="312" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B312" s="126"/>
       <c r="C312" s="139"/>
       <c r="D312" s="139"/>
@@ -11245,7 +11003,7 @@
       <c r="X312" s="139"/>
       <c r="Y312" s="139"/>
     </row>
-    <row r="313" spans="2:25" customFormat="1" ht="16">
+    <row r="313" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B313" s="126"/>
       <c r="C313" s="139"/>
       <c r="D313" s="139"/>
@@ -11271,17 +11029,17 @@
       <c r="X313" s="139"/>
       <c r="Y313" s="139"/>
     </row>
-    <row r="315" spans="2:25">
+    <row r="315" spans="2:25" x14ac:dyDescent="0.2">
       <c r="D315" s="125">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="2:25">
+    <row r="320" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E320" s="152" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="4:11">
+    <row r="321" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E321" s="139" t="s">
         <v>45</v>
       </c>
@@ -11298,7 +11056,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="322" spans="4:11">
+    <row r="322" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E322" s="139" t="s">
         <v>46</v>
       </c>
@@ -11313,7 +11071,7 @@
       <c r="J322" s="139"/>
       <c r="K322" s="139"/>
     </row>
-    <row r="323" spans="4:11">
+    <row r="323" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E323" s="139" t="s">
         <v>50</v>
       </c>
@@ -11328,7 +11086,7 @@
       <c r="J323" s="139"/>
       <c r="K323" s="139"/>
     </row>
-    <row r="324" spans="4:11">
+    <row r="324" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D324" s="139"/>
       <c r="E324" s="139" t="s">
         <v>49</v>
@@ -11344,7 +11102,7 @@
       <c r="J324" s="139"/>
       <c r="K324" s="139"/>
     </row>
-    <row r="325" spans="4:11">
+    <row r="325" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D325" s="139"/>
       <c r="E325" s="139" t="s">
         <v>40</v>
@@ -11360,7 +11118,7 @@
       <c r="J325" s="139"/>
       <c r="K325" s="139"/>
     </row>
-    <row r="326" spans="4:11">
+    <row r="326" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D326" s="139"/>
       <c r="E326" s="139" t="s">
         <v>48</v>
@@ -11378,7 +11136,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="327" spans="4:11">
+    <row r="327" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D327" s="139"/>
       <c r="E327" s="139"/>
       <c r="F327" s="139"/>
@@ -11387,7 +11145,7 @@
       <c r="I327" s="139"/>
       <c r="J327" s="139"/>
     </row>
-    <row r="328" spans="4:11">
+    <row r="328" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D328" s="139"/>
       <c r="E328" s="139"/>
       <c r="F328" s="139"/>
@@ -11396,7 +11154,7 @@
       <c r="I328" s="139"/>
       <c r="J328" s="139"/>
     </row>
-    <row r="329" spans="4:11">
+    <row r="329" spans="4:11" x14ac:dyDescent="0.2">
       <c r="D329" s="139"/>
       <c r="E329" s="139" t="s">
         <v>45</v>
@@ -11415,7 +11173,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="330" spans="4:11">
+    <row r="330" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E330" s="139" t="s">
         <v>46</v>
       </c>
@@ -11431,7 +11189,7 @@
       <c r="J330" s="139"/>
       <c r="K330" s="139"/>
     </row>
-    <row r="331" spans="4:11">
+    <row r="331" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E331" s="139" t="s">
         <v>50</v>
       </c>
@@ -11447,7 +11205,7 @@
       <c r="J331" s="139"/>
       <c r="K331" s="139"/>
     </row>
-    <row r="332" spans="4:11">
+    <row r="332" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E332" s="139" t="s">
         <v>49</v>
       </c>
@@ -11463,7 +11221,7 @@
       <c r="J332" s="139"/>
       <c r="K332" s="139"/>
     </row>
-    <row r="333" spans="4:11">
+    <row r="333" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E333" s="139" t="s">
         <v>40</v>
       </c>
@@ -11479,7 +11237,7 @@
       <c r="J333" s="139"/>
       <c r="K333" s="139"/>
     </row>
-    <row r="334" spans="4:11">
+    <row r="334" spans="4:11" x14ac:dyDescent="0.2">
       <c r="E334" s="139" t="s">
         <v>48</v>
       </c>
@@ -11497,7 +11255,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="337" spans="5:11">
+    <row r="337" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E337" s="153" t="s">
         <v>89</v>
       </c>
@@ -11508,7 +11266,7 @@
       <c r="J337" s="154"/>
       <c r="K337" s="154"/>
     </row>
-    <row r="338" spans="5:11">
+    <row r="338" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E338" s="139" t="s">
         <v>45</v>
       </c>
@@ -11525,7 +11283,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="339" spans="5:11">
+    <row r="339" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E339" s="139" t="s">
         <v>46</v>
       </c>
@@ -11540,7 +11298,7 @@
       <c r="J339" s="139"/>
       <c r="K339" s="139"/>
     </row>
-    <row r="340" spans="5:11">
+    <row r="340" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E340" s="139" t="s">
         <v>50</v>
       </c>
@@ -11555,7 +11313,7 @@
       <c r="J340" s="139"/>
       <c r="K340" s="139"/>
     </row>
-    <row r="341" spans="5:11">
+    <row r="341" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E341" s="139" t="s">
         <v>49</v>
       </c>
@@ -11570,7 +11328,7 @@
       <c r="J341" s="139"/>
       <c r="K341" s="139"/>
     </row>
-    <row r="342" spans="5:11">
+    <row r="342" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E342" s="139" t="s">
         <v>40</v>
       </c>
@@ -11585,7 +11343,7 @@
       <c r="J342" s="139"/>
       <c r="K342" s="139"/>
     </row>
-    <row r="343" spans="5:11">
+    <row r="343" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E343" s="139" t="s">
         <v>48</v>
       </c>
@@ -11602,7 +11360,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="344" spans="5:11">
+    <row r="344" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E344" s="139"/>
       <c r="F344" s="139"/>
       <c r="G344" s="139"/>
@@ -11611,7 +11369,7 @@
       <c r="J344" s="139"/>
       <c r="K344" s="154"/>
     </row>
-    <row r="345" spans="5:11">
+    <row r="345" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E345" s="139"/>
       <c r="F345" s="139"/>
       <c r="G345" s="139"/>
@@ -11620,7 +11378,7 @@
       <c r="J345" s="139"/>
       <c r="K345" s="154"/>
     </row>
-    <row r="346" spans="5:11">
+    <row r="346" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E346" s="139" t="s">
         <v>45</v>
       </c>
@@ -11638,7 +11396,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="347" spans="5:11">
+    <row r="347" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E347" s="139" t="s">
         <v>46</v>
       </c>
@@ -11654,7 +11412,7 @@
       <c r="J347" s="139"/>
       <c r="K347" s="139"/>
     </row>
-    <row r="348" spans="5:11">
+    <row r="348" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E348" s="139" t="s">
         <v>50</v>
       </c>
@@ -11670,7 +11428,7 @@
       <c r="J348" s="139"/>
       <c r="K348" s="139"/>
     </row>
-    <row r="349" spans="5:11">
+    <row r="349" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E349" s="139" t="s">
         <v>49</v>
       </c>
@@ -11686,7 +11444,7 @@
       <c r="J349" s="139"/>
       <c r="K349" s="139"/>
     </row>
-    <row r="350" spans="5:11">
+    <row r="350" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E350" s="139" t="s">
         <v>40</v>
       </c>
@@ -11702,7 +11460,7 @@
       <c r="J350" s="139"/>
       <c r="K350" s="139"/>
     </row>
-    <row r="351" spans="5:11">
+    <row r="351" spans="5:11" x14ac:dyDescent="0.2">
       <c r="E351" s="139" t="s">
         <v>48</v>
       </c>
@@ -11720,8 +11478,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="368" ht="16" thickBot="1"/>
-    <row r="369" spans="2:25" s="26" customFormat="1">
+    <row r="368" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="369" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B369" s="129"/>
       <c r="C369" s="129" t="s">
         <v>25</v>
@@ -11749,7 +11507,7 @@
       <c r="T369" s="129"/>
       <c r="U369" s="129"/>
     </row>
-    <row r="370" spans="2:25" customFormat="1" ht="16">
+    <row r="370" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B370" s="126"/>
       <c r="C370" s="144"/>
       <c r="D370" s="139"/>
@@ -11775,7 +11533,7 @@
       <c r="X370" s="139"/>
       <c r="Y370" s="139"/>
     </row>
-    <row r="371" spans="2:25" customFormat="1" ht="17">
+    <row r="371" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B371" s="126"/>
       <c r="C371" s="151" t="s">
         <v>114</v>
@@ -11803,7 +11561,7 @@
       <c r="X371" s="139"/>
       <c r="Y371" s="139"/>
     </row>
-    <row r="372" spans="2:25" customFormat="1" ht="16">
+    <row r="372" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B372" s="126"/>
       <c r="C372" s="139"/>
       <c r="D372" s="139"/>
@@ -11829,7 +11587,7 @@
       <c r="X372" s="139"/>
       <c r="Y372" s="139"/>
     </row>
-    <row r="373" spans="2:25" customFormat="1" ht="16">
+    <row r="373" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B373" s="126"/>
       <c r="C373" s="139" t="s">
         <v>115</v>
@@ -11857,29 +11615,29 @@
       <c r="X373" s="139"/>
       <c r="Y373" s="139"/>
     </row>
-    <row r="374" spans="2:25" customFormat="1" ht="16">
+    <row r="374" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B374" s="126"/>
     </row>
-    <row r="375" spans="2:25" customFormat="1" ht="16">
+    <row r="375" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B375" s="126"/>
     </row>
-    <row r="376" spans="2:25" customFormat="1" ht="16">
+    <row r="376" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B376" s="126"/>
     </row>
-    <row r="377" spans="2:25" customFormat="1" ht="16">
+    <row r="377" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B377" s="126"/>
     </row>
-    <row r="378" spans="2:25" customFormat="1" ht="16">
+    <row r="378" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B378" s="126"/>
     </row>
-    <row r="379" spans="2:25" customFormat="1" ht="16">
+    <row r="379" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B379" s="126"/>
     </row>
-    <row r="380" spans="2:25" customFormat="1" ht="16">
+    <row r="380" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B380" s="126"/>
       <c r="E380" s="157"/>
     </row>
-    <row r="381" spans="2:25" customFormat="1" ht="16">
+    <row r="381" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B381" s="126"/>
       <c r="D381">
         <v>27</v>
@@ -11897,7 +11655,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="382" spans="2:25" customFormat="1" ht="16">
+    <row r="382" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B382" s="126"/>
       <c r="F382">
         <f>F381</f>
@@ -11907,7 +11665,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="383" spans="2:25" customFormat="1" ht="16">
+    <row r="383" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B383" s="126"/>
       <c r="F383">
         <v>0.9</v>
@@ -11919,7 +11677,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="384" spans="2:25" customFormat="1" ht="16">
+    <row r="384" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B384" s="126"/>
       <c r="F384">
         <f>F382*F383</f>
@@ -11929,127 +11687,127 @@
         <v>70</v>
       </c>
     </row>
-    <row r="385" spans="2:2" customFormat="1" ht="16">
+    <row r="385" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B385" s="126"/>
     </row>
-    <row r="386" spans="2:2" customFormat="1" ht="16">
+    <row r="386" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B386" s="126"/>
     </row>
-    <row r="387" spans="2:2" customFormat="1" ht="16">
+    <row r="387" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B387" s="126"/>
     </row>
-    <row r="388" spans="2:2" customFormat="1" ht="16">
+    <row r="388" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B388" s="126"/>
     </row>
-    <row r="389" spans="2:2" customFormat="1" ht="16">
+    <row r="389" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B389" s="126"/>
     </row>
-    <row r="390" spans="2:2" customFormat="1" ht="16">
+    <row r="390" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B390" s="126"/>
     </row>
-    <row r="391" spans="2:2" customFormat="1" ht="16">
+    <row r="391" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B391" s="126"/>
     </row>
-    <row r="392" spans="2:2" customFormat="1" ht="16">
+    <row r="392" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B392" s="126"/>
     </row>
-    <row r="393" spans="2:2" customFormat="1" ht="16">
+    <row r="393" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B393" s="126"/>
     </row>
-    <row r="394" spans="2:2" customFormat="1" ht="16">
+    <row r="394" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B394" s="126"/>
     </row>
-    <row r="395" spans="2:2" customFormat="1" ht="16">
+    <row r="395" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B395" s="126"/>
     </row>
-    <row r="396" spans="2:2" customFormat="1" ht="16">
+    <row r="396" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B396" s="126"/>
     </row>
-    <row r="397" spans="2:2" customFormat="1" ht="16">
+    <row r="397" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B397" s="126"/>
     </row>
-    <row r="398" spans="2:2" customFormat="1" ht="16">
+    <row r="398" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B398" s="126"/>
     </row>
-    <row r="399" spans="2:2" customFormat="1" ht="16">
+    <row r="399" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B399" s="126"/>
     </row>
-    <row r="400" spans="2:2" customFormat="1" ht="16">
+    <row r="400" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B400" s="126"/>
     </row>
-    <row r="401" spans="2:2" customFormat="1" ht="16">
+    <row r="401" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B401" s="126"/>
     </row>
-    <row r="402" spans="2:2" customFormat="1" ht="16">
+    <row r="402" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="126"/>
     </row>
-    <row r="403" spans="2:2" customFormat="1" ht="16">
+    <row r="403" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="126"/>
     </row>
-    <row r="404" spans="2:2" customFormat="1" ht="16">
+    <row r="404" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="126"/>
     </row>
-    <row r="405" spans="2:2" customFormat="1" ht="16">
+    <row r="405" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B405" s="126"/>
     </row>
-    <row r="406" spans="2:2" customFormat="1" ht="16">
+    <row r="406" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="126"/>
     </row>
-    <row r="407" spans="2:2" customFormat="1" ht="16">
+    <row r="407" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="126"/>
     </row>
-    <row r="408" spans="2:2" customFormat="1" ht="16">
+    <row r="408" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="126"/>
     </row>
-    <row r="409" spans="2:2" customFormat="1" ht="16">
+    <row r="409" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="126"/>
     </row>
-    <row r="410" spans="2:2" customFormat="1" ht="16">
+    <row r="410" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="126"/>
     </row>
-    <row r="411" spans="2:2" customFormat="1" ht="16">
+    <row r="411" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="126"/>
     </row>
-    <row r="412" spans="2:2" customFormat="1" ht="16">
+    <row r="412" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="126"/>
     </row>
-    <row r="413" spans="2:2" customFormat="1" ht="16">
+    <row r="413" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="126"/>
     </row>
-    <row r="414" spans="2:2" customFormat="1" ht="16">
+    <row r="414" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="126"/>
     </row>
-    <row r="415" spans="2:2" customFormat="1" ht="16">
+    <row r="415" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="126"/>
     </row>
-    <row r="416" spans="2:2" customFormat="1" ht="16">
+    <row r="416" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="126"/>
     </row>
-    <row r="417" spans="2:21" customFormat="1" ht="16">
+    <row r="417" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="126"/>
     </row>
-    <row r="418" spans="2:21" customFormat="1" ht="16">
+    <row r="418" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="126"/>
     </row>
-    <row r="419" spans="2:21" customFormat="1" ht="16">
+    <row r="419" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="126"/>
     </row>
-    <row r="420" spans="2:21" customFormat="1" ht="16">
+    <row r="420" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="126"/>
     </row>
-    <row r="421" spans="2:21" customFormat="1" ht="16">
+    <row r="421" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="126"/>
     </row>
-    <row r="422" spans="2:21" customFormat="1" ht="16">
+    <row r="422" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="126"/>
     </row>
-    <row r="423" spans="2:21" customFormat="1" ht="16"/>
-    <row r="424" spans="2:21" customFormat="1" ht="16"/>
-    <row r="425" spans="2:21" customFormat="1" ht="16"/>
-    <row r="426" spans="2:21" customFormat="1" ht="16"/>
-    <row r="427" spans="2:21" customFormat="1" ht="16"/>
-    <row r="431" spans="2:21" ht="16" thickBot="1"/>
-    <row r="432" spans="2:21" s="26" customFormat="1">
+    <row r="423" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="432" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B432" s="129"/>
       <c r="C432" s="129" t="s">
         <v>25</v>
@@ -12077,7 +11835,7 @@
       <c r="T432" s="129"/>
       <c r="U432" s="129"/>
     </row>
-    <row r="433" spans="2:25" customFormat="1" ht="16">
+    <row r="433" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B433" s="126"/>
       <c r="C433" s="144"/>
       <c r="D433" s="139"/>
@@ -12103,10 +11861,10 @@
       <c r="X433" s="139"/>
       <c r="Y433" s="139"/>
     </row>
-    <row r="434" spans="2:25" customFormat="1" ht="17">
+    <row r="434" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B434" s="126"/>
       <c r="C434" s="151" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D434" s="139"/>
       <c r="E434" s="139"/>
@@ -12131,7 +11889,7 @@
       <c r="X434" s="139"/>
       <c r="Y434" s="139"/>
     </row>
-    <row r="435" spans="2:25" customFormat="1" ht="16">
+    <row r="435" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B435" s="126"/>
       <c r="C435" s="139"/>
       <c r="D435" s="139"/>
@@ -12157,13 +11915,13 @@
       <c r="X435" s="139"/>
       <c r="Y435" s="139"/>
     </row>
-    <row r="436" spans="2:25" customFormat="1" ht="16">
+    <row r="436" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B436" s="126"/>
       <c r="C436" s="139"/>
       <c r="D436" s="139"/>
       <c r="E436" s="139"/>
       <c r="F436" s="139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G436" s="139"/>
       <c r="H436" s="139"/>
@@ -12185,20 +11943,20 @@
       <c r="X436" s="139"/>
       <c r="Y436" s="139"/>
     </row>
-    <row r="447" spans="2:25">
+    <row r="447" spans="2:25" x14ac:dyDescent="0.2">
       <c r="F447" s="169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G447" s="169" t="s">
+        <v>135</v>
+      </c>
+      <c r="H447" s="169" t="s">
         <v>136</v>
       </c>
-      <c r="H447" s="169" t="s">
+    </row>
+    <row r="448" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="E448" s="169" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="448" spans="2:25">
-      <c r="E448" s="169" t="s">
-        <v>138</v>
       </c>
       <c r="F448" s="125">
         <v>118.33</v>
@@ -12211,9 +11969,9 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="449" spans="5:9">
+    <row r="449" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E449" s="169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F449" s="125">
         <v>118.5</v>
@@ -12226,9 +11984,9 @@
         <v>73.47</v>
       </c>
     </row>
-    <row r="450" spans="5:9">
+    <row r="450" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E450" s="169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F450" s="125">
         <v>117.05</v>
@@ -12241,9 +11999,9 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="451" spans="5:9">
+    <row r="451" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E451" s="169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F451" s="125">
         <v>118.15</v>
@@ -12256,9 +12014,9 @@
         <v>73.12</v>
       </c>
     </row>
-    <row r="452" spans="5:9">
+    <row r="452" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E452" s="169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F452" s="125">
         <f>AVERAGE(F448:F451)</f>
@@ -12273,19 +12031,19 @@
         <v>72.977499999999992</v>
       </c>
       <c r="I452" s="169" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="453" spans="5:9">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="453" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H453" s="125">
         <f>H452/100</f>
         <v>0.72977499999999995</v>
       </c>
       <c r="I453" s="169" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="454" spans="5:9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="454" spans="5:9" x14ac:dyDescent="0.2">
       <c r="H454" s="170">
         <f>H453/F11</f>
         <v>2.2042255648181703E-2</v>
@@ -12294,8 +12052,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" thickBot="1"/>
-    <row r="467" spans="1:25" s="175" customFormat="1">
+    <row r="466" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="467" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="159"/>
       <c r="B467" s="174"/>
       <c r="C467" s="174" t="s">
@@ -12328,7 +12086,7 @@
       <c r="X467" s="159"/>
       <c r="Y467" s="159"/>
     </row>
-    <row r="468" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="468" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="176"/>
       <c r="B468" s="177"/>
       <c r="C468" s="139"/>
@@ -12355,11 +12113,11 @@
       <c r="X468" s="139"/>
       <c r="Y468" s="139"/>
     </row>
-    <row r="469" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="469" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="176"/>
       <c r="B469" s="177"/>
       <c r="C469" s="159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D469" s="139"/>
       <c r="E469" s="139"/>
@@ -12384,11 +12142,11 @@
       <c r="X469" s="139"/>
       <c r="Y469" s="139"/>
     </row>
-    <row r="470" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="470" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="176"/>
       <c r="B470" s="177"/>
       <c r="C470" s="178" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D470" s="139"/>
       <c r="E470" s="139"/>
@@ -12413,7 +12171,7 @@
       <c r="X470" s="139"/>
       <c r="Y470" s="139"/>
     </row>
-    <row r="471" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="471" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A471" s="176"/>
       <c r="B471" s="177"/>
       <c r="C471" s="139"/>
@@ -12440,12 +12198,12 @@
       <c r="X471" s="139"/>
       <c r="Y471" s="139"/>
     </row>
-    <row r="472" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="472" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A472" s="176"/>
       <c r="B472" s="177"/>
       <c r="C472" s="139"/>
       <c r="D472" s="139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E472" s="139"/>
       <c r="F472" s="139"/>
@@ -12469,7 +12227,7 @@
       <c r="X472" s="139"/>
       <c r="Y472" s="139"/>
     </row>
-    <row r="473" spans="1:25" s="175" customFormat="1" ht="50">
+    <row r="473" spans="1:25" s="175" customFormat="1" ht="77" x14ac:dyDescent="0.2">
       <c r="A473" s="176"/>
       <c r="B473" s="177"/>
       <c r="C473" s="139"/>
@@ -12480,16 +12238,16 @@
       <c r="F473" s="139"/>
       <c r="G473" s="139"/>
       <c r="H473" s="196" t="s">
+        <v>148</v>
+      </c>
+      <c r="I473" s="197" t="s">
         <v>149</v>
       </c>
-      <c r="I473" s="197" t="s">
-        <v>150</v>
-      </c>
       <c r="J473" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="K473" s="181" t="s">
         <v>176</v>
-      </c>
-      <c r="K473" s="181" t="s">
-        <v>177</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12503,12 +12261,12 @@
       <c r="U473" s="139"/>
       <c r="V473" s="139"/>
     </row>
-    <row r="474" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+    <row r="474" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A474" s="176"/>
       <c r="B474" s="177"/>
       <c r="C474" s="139"/>
       <c r="D474" s="139" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E474" s="176"/>
       <c r="F474" s="139"/>
@@ -12516,10 +12274,10 @@
       <c r="H474" s="182"/>
       <c r="I474" s="183"/>
       <c r="J474" s="184" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K474" s="185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L474" s="139"/>
       <c r="M474" s="139"/>
@@ -12533,20 +12291,20 @@
       <c r="U474" s="139"/>
       <c r="V474" s="139"/>
     </row>
-    <row r="475" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+    <row r="475" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A475" s="176"/>
       <c r="B475" s="177"/>
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
       <c r="E475" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F475" s="186">
         <f>AVERAGE(J475:J479)</f>
         <v>371.00199999999995</v>
       </c>
       <c r="G475" s="139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H475" s="187">
         <v>42408</v>
@@ -12572,20 +12330,20 @@
       <c r="U475" s="139"/>
       <c r="V475" s="139"/>
     </row>
-    <row r="476" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+    <row r="476" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A476" s="176"/>
       <c r="B476" s="177"/>
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
       <c r="E476" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F476" s="188">
         <f>F475/1000</f>
         <v>0.37100199999999994</v>
       </c>
       <c r="G476" s="139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H476" s="187">
         <v>42401</v>
@@ -12611,7 +12369,7 @@
       <c r="U476" s="139"/>
       <c r="V476" s="139"/>
     </row>
-    <row r="477" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+    <row r="477" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A477" s="176"/>
       <c r="B477" s="177"/>
       <c r="C477" s="139"/>
@@ -12643,22 +12401,22 @@
       <c r="U477" s="139"/>
       <c r="V477" s="139"/>
     </row>
-    <row r="478" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+    <row r="478" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A478" s="176"/>
       <c r="B478" s="177"/>
       <c r="C478" s="139"/>
       <c r="D478" s="139" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E478" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F478" s="186">
         <f>AVERAGE(K475:K479)</f>
         <v>1044.8</v>
       </c>
       <c r="G478" s="139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H478" s="187">
         <v>42387</v>
@@ -12684,20 +12442,20 @@
       <c r="U478" s="139"/>
       <c r="V478" s="139"/>
     </row>
-    <row r="479" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
+    <row r="479" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A479" s="176"/>
       <c r="B479" s="177"/>
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
       <c r="E479" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F479" s="188">
         <f>F478/1000</f>
         <v>1.0448</v>
       </c>
       <c r="G479" s="139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H479" s="187">
         <v>42380</v>
@@ -12723,7 +12481,7 @@
       <c r="U479" s="139"/>
       <c r="V479" s="139"/>
     </row>
-    <row r="480" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="480" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A480" s="176"/>
       <c r="B480" s="177"/>
       <c r="C480" s="139"/>
@@ -12755,12 +12513,12 @@
       <c r="U480" s="139"/>
       <c r="V480" s="139"/>
     </row>
-    <row r="481" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="481" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A481" s="176"/>
       <c r="B481" s="177"/>
       <c r="C481" s="139"/>
       <c r="D481" s="142" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E481" s="139"/>
       <c r="F481" s="189"/>
@@ -12789,21 +12547,21 @@
       <c r="U481" s="139"/>
       <c r="V481" s="139"/>
     </row>
-    <row r="482" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="482" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A482" s="176"/>
       <c r="B482" s="177"/>
       <c r="C482" s="139"/>
       <c r="D482" s="139" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E482" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F482" s="139">
         <v>21</v>
       </c>
       <c r="G482" s="139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H482" s="187">
         <v>42345</v>
@@ -12829,22 +12587,22 @@
       <c r="U482" s="139"/>
       <c r="V482" s="139"/>
     </row>
-    <row r="483" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="483" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A483" s="176"/>
       <c r="B483" s="177"/>
       <c r="C483" s="139"/>
       <c r="D483" s="139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E483" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F483" s="139">
         <f>482.06/1000</f>
         <v>0.48205999999999999</v>
       </c>
       <c r="G483" s="139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H483" s="187">
         <v>42338</v>
@@ -12870,22 +12628,22 @@
       <c r="U483" s="139"/>
       <c r="V483" s="139"/>
     </row>
-    <row r="484" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="484" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A484" s="176"/>
       <c r="B484" s="177"/>
       <c r="C484" s="139"/>
       <c r="D484" s="139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E484" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F484" s="189">
         <f>8/1000</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G484" s="139" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H484" s="187">
         <v>42331</v>
@@ -12911,7 +12669,7 @@
       <c r="U484" s="139"/>
       <c r="V484" s="139"/>
     </row>
-    <row r="485" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="485" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A485" s="176"/>
       <c r="B485" s="177"/>
       <c r="C485" s="139"/>
@@ -12943,22 +12701,22 @@
       <c r="U485" s="139"/>
       <c r="V485" s="139"/>
     </row>
-    <row r="486" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="486" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A486" s="176"/>
       <c r="B486" s="177"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E486" s="176" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F486" s="189">
         <f>(F484+F483+F476)*1.21</f>
         <v>1.0418850200000001</v>
       </c>
       <c r="G486" s="139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H486" s="187">
         <v>42317</v>
@@ -12984,7 +12742,7 @@
       <c r="U486" s="139"/>
       <c r="V486" s="139"/>
     </row>
-    <row r="487" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="487" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A487" s="176"/>
       <c r="B487" s="177"/>
       <c r="C487" s="139"/>
@@ -13016,7 +12774,7 @@
       <c r="U487" s="139"/>
       <c r="V487" s="139"/>
     </row>
-    <row r="488" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="488" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A488" s="176"/>
       <c r="B488" s="177"/>
       <c r="C488" s="139"/>
@@ -13048,7 +12806,7 @@
       <c r="U488" s="139"/>
       <c r="V488" s="139"/>
     </row>
-    <row r="489" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="489" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A489" s="176"/>
       <c r="B489" s="177"/>
       <c r="C489" s="139"/>
@@ -13080,7 +12838,7 @@
       <c r="U489" s="139"/>
       <c r="V489" s="139"/>
     </row>
-    <row r="490" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="490" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A490" s="176"/>
       <c r="B490" s="177"/>
       <c r="C490" s="139"/>
@@ -13112,7 +12870,7 @@
       <c r="U490" s="139"/>
       <c r="V490" s="139"/>
     </row>
-    <row r="491" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="491" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A491" s="176"/>
       <c r="B491" s="177"/>
       <c r="C491" s="139"/>
@@ -13144,7 +12902,7 @@
       <c r="U491" s="139"/>
       <c r="V491" s="139"/>
     </row>
-    <row r="492" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="492" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A492" s="176"/>
       <c r="B492" s="177"/>
       <c r="C492" s="139"/>
@@ -13176,7 +12934,7 @@
       <c r="U492" s="139"/>
       <c r="V492" s="139"/>
     </row>
-    <row r="493" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="493" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A493" s="176"/>
       <c r="B493" s="177"/>
       <c r="C493" s="139"/>
@@ -13208,7 +12966,7 @@
       <c r="U493" s="139"/>
       <c r="V493" s="139"/>
     </row>
-    <row r="494" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="494" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A494" s="176"/>
       <c r="B494" s="177"/>
       <c r="C494" s="176"/>
@@ -13240,7 +12998,7 @@
       <c r="U494" s="176"/>
       <c r="V494" s="176"/>
     </row>
-    <row r="495" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="495" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A495" s="176"/>
       <c r="B495" s="177"/>
       <c r="C495" s="176"/>
@@ -13272,7 +13030,7 @@
       <c r="U495" s="176"/>
       <c r="V495" s="176"/>
     </row>
-    <row r="496" spans="1:22" s="175" customFormat="1" ht="16">
+    <row r="496" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A496" s="176"/>
       <c r="B496" s="177"/>
       <c r="C496" s="176"/>
@@ -13304,7 +13062,7 @@
       <c r="U496" s="176"/>
       <c r="V496" s="176"/>
     </row>
-    <row r="497" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="497" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A497" s="176"/>
       <c r="B497" s="177"/>
       <c r="C497" s="176"/>
@@ -13336,7 +13094,7 @@
       <c r="U497" s="176"/>
       <c r="V497" s="176"/>
     </row>
-    <row r="498" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="498" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A498" s="176"/>
       <c r="B498" s="177"/>
       <c r="C498" s="176"/>
@@ -13368,7 +13126,7 @@
       <c r="U498" s="176"/>
       <c r="V498" s="176"/>
     </row>
-    <row r="499" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="499" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A499" s="176"/>
       <c r="B499" s="177"/>
       <c r="C499" s="176"/>
@@ -13400,7 +13158,7 @@
       <c r="U499" s="176"/>
       <c r="V499" s="176"/>
     </row>
-    <row r="500" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="500" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A500" s="176"/>
       <c r="B500" s="177"/>
       <c r="C500" s="176"/>
@@ -13432,7 +13190,7 @@
       <c r="U500" s="176"/>
       <c r="V500" s="176"/>
     </row>
-    <row r="501" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="501" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A501" s="176"/>
       <c r="B501" s="177"/>
       <c r="C501" s="176"/>
@@ -13464,7 +13222,7 @@
       <c r="U501" s="176"/>
       <c r="V501" s="176"/>
     </row>
-    <row r="502" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="502" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A502" s="176"/>
       <c r="B502" s="177"/>
       <c r="C502" s="176"/>
@@ -13496,7 +13254,7 @@
       <c r="U502" s="176"/>
       <c r="V502" s="176"/>
     </row>
-    <row r="503" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="503" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A503" s="176"/>
       <c r="B503" s="177"/>
       <c r="C503" s="176"/>
@@ -13528,7 +13286,7 @@
       <c r="U503" s="176"/>
       <c r="V503" s="176"/>
     </row>
-    <row r="504" spans="1:25" s="175" customFormat="1" ht="16">
+    <row r="504" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A504" s="176"/>
       <c r="B504" s="177"/>
       <c r="C504" s="176"/>
@@ -13560,16 +13318,16 @@
       <c r="U504" s="176"/>
       <c r="V504" s="176"/>
     </row>
-    <row r="505" spans="1:25" s="175" customFormat="1">
+    <row r="505" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B505" s="177"/>
     </row>
-    <row r="506" spans="1:25" s="175" customFormat="1">
+    <row r="506" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B506" s="177"/>
     </row>
-    <row r="507" spans="1:25" s="175" customFormat="1" ht="16" thickBot="1">
+    <row r="507" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="177"/>
     </row>
-    <row r="508" spans="1:25" s="26" customFormat="1">
+    <row r="508" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B508" s="129"/>
       <c r="C508" s="129" t="s">
         <v>25</v>
@@ -13597,7 +13355,7 @@
       <c r="T508" s="129"/>
       <c r="U508" s="129"/>
     </row>
-    <row r="509" spans="1:25" customFormat="1" ht="16">
+    <row r="509" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B509" s="190"/>
       <c r="C509" s="144"/>
       <c r="D509" s="139"/>
@@ -13623,10 +13381,10 @@
       <c r="X509" s="139"/>
       <c r="Y509" s="139"/>
     </row>
-    <row r="510" spans="1:25" customFormat="1" ht="16">
+    <row r="510" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B510" s="190"/>
       <c r="C510" s="175" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
@@ -13651,133 +13409,133 @@
       <c r="X510" s="139"/>
       <c r="Y510" s="139"/>
     </row>
-    <row r="511" spans="1:25" s="175" customFormat="1">
+    <row r="511" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B511" s="190"/>
     </row>
-    <row r="512" spans="1:25" s="175" customFormat="1">
+    <row r="512" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B512" s="190"/>
     </row>
-    <row r="513" spans="2:8" s="175" customFormat="1">
+    <row r="513" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B513" s="190"/>
       <c r="D513" s="175" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="514" spans="2:8" s="175" customFormat="1">
+    <row r="514" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B514" s="190"/>
       <c r="D514" s="175" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="515" spans="2:8" s="175" customFormat="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="515" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B515" s="190"/>
     </row>
-    <row r="516" spans="2:8" s="175" customFormat="1">
+    <row r="516" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B516" s="190"/>
       <c r="F516" s="175">
         <v>0.5</v>
       </c>
       <c r="G516" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H516" s="175" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="517" spans="2:8" s="175" customFormat="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="517" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B517" s="190"/>
       <c r="F517" s="191">
         <f>F479</f>
         <v>1.0448</v>
       </c>
       <c r="G517" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H517" s="175" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="518" spans="2:8" s="175" customFormat="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="518" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B518" s="190"/>
       <c r="F518" s="191">
         <f>F516+F517</f>
         <v>1.5448</v>
       </c>
       <c r="G518" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H518" s="175" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="519" spans="2:8" s="175" customFormat="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="519" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B519" s="190"/>
     </row>
-    <row r="520" spans="2:8" s="175" customFormat="1">
+    <row r="520" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B520" s="190"/>
       <c r="F520" s="175">
         <f>F483</f>
         <v>0.48205999999999999</v>
       </c>
       <c r="G520" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H520" s="175" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="521" spans="2:8" s="175" customFormat="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="521" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B521" s="190"/>
       <c r="F521" s="191">
         <f>F484</f>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G521" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H521" s="175" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="522" spans="2:8" s="175" customFormat="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="522" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B522" s="190"/>
       <c r="F522" s="175">
         <f>F482</f>
         <v>21</v>
       </c>
       <c r="G522" s="175" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H522" s="175" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="523" spans="2:8" s="175" customFormat="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="523" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B523" s="190"/>
     </row>
-    <row r="524" spans="2:8" s="175" customFormat="1">
+    <row r="524" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B524" s="190"/>
     </row>
-    <row r="525" spans="2:8" s="175" customFormat="1">
+    <row r="525" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B525" s="190"/>
     </row>
-    <row r="526" spans="2:8" s="175" customFormat="1">
+    <row r="526" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B526" s="190"/>
     </row>
-    <row r="527" spans="2:8" s="175" customFormat="1">
+    <row r="527" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B527" s="190"/>
       <c r="F527" s="192">
         <f>F518/1.21-F521-F520</f>
         <v>0.78663421487603302</v>
       </c>
       <c r="G527" s="175" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H527" s="175" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="528" spans="2:8" s="175" customFormat="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="528" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B528" s="190"/>
       <c r="F528" s="193">
         <f>F527/F11</f>
@@ -13787,14 +13545,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="529" spans="2:2" s="175" customFormat="1">
+    <row r="529" spans="2:2" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B529" s="190"/>
     </row>
-    <row r="530" spans="2:2" s="175" customFormat="1">
+    <row r="530" spans="2:2" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B530" s="190"/>
     </row>
-    <row r="566" spans="2:35" ht="16" thickBot="1"/>
-    <row r="567" spans="2:35">
+    <row r="566" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="567" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B567" s="209"/>
       <c r="C567" s="174" t="s">
         <v>25</v>
@@ -13836,7 +13594,7 @@
       <c r="AH567" s="159"/>
       <c r="AI567" s="159"/>
     </row>
-    <row r="568" spans="2:35">
+    <row r="568" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B568" s="177"/>
       <c r="C568" s="154"/>
       <c r="D568" s="154"/>
@@ -13872,10 +13630,10 @@
       <c r="AH568" s="154"/>
       <c r="AI568" s="154"/>
     </row>
-    <row r="569" spans="2:35" ht="16">
+    <row r="569" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B569" s="177"/>
       <c r="C569" s="211" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D569" s="212"/>
       <c r="E569" s="212"/>
@@ -13910,7 +13668,7 @@
       <c r="AH569" s="176"/>
       <c r="AI569" s="176"/>
     </row>
-    <row r="570" spans="2:35" ht="16">
+    <row r="570" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B570" s="177"/>
       <c r="C570" s="212"/>
       <c r="D570" s="212"/>
@@ -13946,7 +13704,7 @@
       <c r="AH570" s="176"/>
       <c r="AI570" s="176"/>
     </row>
-    <row r="571" spans="2:35" ht="16">
+    <row r="571" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B571" s="177"/>
       <c r="C571" s="212"/>
       <c r="D571" s="212"/>
@@ -13982,7 +13740,7 @@
       <c r="AH571" s="176"/>
       <c r="AI571" s="176"/>
     </row>
-    <row r="572" spans="2:35" ht="16">
+    <row r="572" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B572" s="177"/>
       <c r="C572" s="212"/>
       <c r="D572" s="212"/>
@@ -14018,7 +13776,7 @@
       <c r="AH572" s="176"/>
       <c r="AI572" s="176"/>
     </row>
-    <row r="573" spans="2:35" ht="16">
+    <row r="573" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B573" s="177"/>
       <c r="C573" s="212"/>
       <c r="D573" s="212"/>
@@ -14054,7 +13812,7 @@
       <c r="AH573" s="176"/>
       <c r="AI573" s="176"/>
     </row>
-    <row r="574" spans="2:35" ht="16">
+    <row r="574" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B574" s="177"/>
       <c r="C574" s="212"/>
       <c r="D574" s="139"/>
@@ -14090,7 +13848,7 @@
       <c r="AH574" s="176"/>
       <c r="AI574" s="176"/>
     </row>
-    <row r="575" spans="2:35" ht="16">
+    <row r="575" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B575" s="177"/>
       <c r="C575" s="212"/>
       <c r="D575" s="139"/>
@@ -14126,7 +13884,7 @@
       <c r="AH575" s="176"/>
       <c r="AI575" s="176"/>
     </row>
-    <row r="576" spans="2:35" ht="16">
+    <row r="576" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B576" s="177"/>
       <c r="C576" s="212"/>
       <c r="D576" s="139"/>
@@ -14162,7 +13920,7 @@
       <c r="AH576" s="176"/>
       <c r="AI576" s="176"/>
     </row>
-    <row r="577" spans="2:35" ht="16">
+    <row r="577" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B577" s="177"/>
       <c r="C577" s="139"/>
       <c r="D577" s="139"/>
@@ -14198,7 +13956,7 @@
       <c r="AH577" s="176"/>
       <c r="AI577" s="176"/>
     </row>
-    <row r="578" spans="2:35" ht="16">
+    <row r="578" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B578" s="177"/>
       <c r="C578" s="139"/>
       <c r="D578" s="139"/>
@@ -14234,7 +13992,7 @@
       <c r="AH578" s="176"/>
       <c r="AI578" s="176"/>
     </row>
-    <row r="579" spans="2:35" ht="16">
+    <row r="579" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B579" s="177"/>
       <c r="C579" s="139"/>
       <c r="D579" s="139"/>
@@ -14270,7 +14028,7 @@
       <c r="AH579" s="176"/>
       <c r="AI579" s="176"/>
     </row>
-    <row r="580" spans="2:35" ht="16">
+    <row r="580" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B580" s="177"/>
       <c r="C580" s="139"/>
       <c r="D580" s="139"/>
@@ -14306,7 +14064,7 @@
       <c r="AH580" s="176"/>
       <c r="AI580" s="176"/>
     </row>
-    <row r="581" spans="2:35" ht="16">
+    <row r="581" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B581" s="177"/>
       <c r="C581" s="139"/>
       <c r="D581" s="139"/>
@@ -14342,7 +14100,7 @@
       <c r="AH581" s="176"/>
       <c r="AI581" s="176"/>
     </row>
-    <row r="582" spans="2:35" ht="16">
+    <row r="582" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B582" s="177"/>
       <c r="C582" s="139"/>
       <c r="D582" s="139"/>
@@ -14378,7 +14136,7 @@
       <c r="AH582" s="176"/>
       <c r="AI582" s="176"/>
     </row>
-    <row r="583" spans="2:35" ht="16">
+    <row r="583" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B583" s="177"/>
       <c r="C583" s="139"/>
       <c r="D583" s="139"/>
@@ -14414,7 +14172,7 @@
       <c r="AH583" s="176"/>
       <c r="AI583" s="176"/>
     </row>
-    <row r="584" spans="2:35" ht="16">
+    <row r="584" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B584" s="177"/>
       <c r="C584" s="139"/>
       <c r="D584" s="139"/>
@@ -14450,7 +14208,7 @@
       <c r="AH584" s="176"/>
       <c r="AI584" s="176"/>
     </row>
-    <row r="585" spans="2:35" ht="16">
+    <row r="585" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B585" s="177"/>
       <c r="C585" s="139"/>
       <c r="D585" s="139"/>
@@ -14486,7 +14244,7 @@
       <c r="AH585" s="176"/>
       <c r="AI585" s="176"/>
     </row>
-    <row r="586" spans="2:35" ht="16">
+    <row r="586" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B586" s="177"/>
       <c r="C586" s="139"/>
       <c r="D586" s="139"/>
@@ -14522,7 +14280,7 @@
       <c r="AH586" s="176"/>
       <c r="AI586" s="176"/>
     </row>
-    <row r="587" spans="2:35" ht="16">
+    <row r="587" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B587" s="177"/>
       <c r="C587" s="139"/>
       <c r="D587" s="139"/>
@@ -14558,7 +14316,7 @@
       <c r="AH587" s="176"/>
       <c r="AI587" s="176"/>
     </row>
-    <row r="588" spans="2:35" ht="16">
+    <row r="588" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B588" s="177"/>
       <c r="C588" s="139"/>
       <c r="D588" s="139"/>
@@ -14594,7 +14352,7 @@
       <c r="AH588" s="176"/>
       <c r="AI588" s="176"/>
     </row>
-    <row r="589" spans="2:35" ht="16">
+    <row r="589" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B589" s="177"/>
       <c r="C589" s="139"/>
       <c r="D589" s="139"/>
@@ -14630,7 +14388,7 @@
       <c r="AH589" s="176"/>
       <c r="AI589" s="176"/>
     </row>
-    <row r="590" spans="2:35" ht="16">
+    <row r="590" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B590" s="177"/>
       <c r="C590" s="139"/>
       <c r="D590" s="139"/>
@@ -14666,7 +14424,7 @@
       <c r="AH590" s="176"/>
       <c r="AI590" s="176"/>
     </row>
-    <row r="591" spans="2:35" ht="16">
+    <row r="591" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B591" s="177"/>
       <c r="C591" s="139"/>
       <c r="D591" s="139"/>
@@ -14702,7 +14460,7 @@
       <c r="AH591" s="176"/>
       <c r="AI591" s="176"/>
     </row>
-    <row r="592" spans="2:35" ht="16">
+    <row r="592" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B592" s="177"/>
       <c r="C592" s="139"/>
       <c r="D592" s="139"/>
@@ -14738,7 +14496,7 @@
       <c r="AH592" s="176"/>
       <c r="AI592" s="176"/>
     </row>
-    <row r="593" spans="2:35" ht="16">
+    <row r="593" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B593" s="177"/>
       <c r="C593" s="139"/>
       <c r="D593" s="139"/>
@@ -14774,7 +14532,7 @@
       <c r="AH593" s="176"/>
       <c r="AI593" s="176"/>
     </row>
-    <row r="594" spans="2:35" ht="16">
+    <row r="594" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B594" s="177"/>
       <c r="C594" s="176"/>
       <c r="D594" s="176"/>
@@ -14810,7 +14568,7 @@
       <c r="AH594" s="176"/>
       <c r="AI594" s="176"/>
     </row>
-    <row r="595" spans="2:35" ht="16">
+    <row r="595" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B595" s="177"/>
       <c r="C595" s="176"/>
       <c r="D595" s="176"/>
@@ -14846,7 +14604,7 @@
       <c r="AH595" s="176"/>
       <c r="AI595" s="176"/>
     </row>
-    <row r="596" spans="2:35" ht="16">
+    <row r="596" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B596" s="177"/>
       <c r="C596" s="176"/>
       <c r="D596" s="176"/>
@@ -14882,7 +14640,7 @@
       <c r="AH596" s="176"/>
       <c r="AI596" s="176"/>
     </row>
-    <row r="597" spans="2:35" ht="16">
+    <row r="597" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B597" s="177"/>
       <c r="C597" s="176"/>
       <c r="D597" s="176"/>
@@ -14918,7 +14676,7 @@
       <c r="AH597" s="176"/>
       <c r="AI597" s="176"/>
     </row>
-    <row r="598" spans="2:35" ht="16">
+    <row r="598" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B598" s="177"/>
       <c r="C598" s="176"/>
       <c r="D598" s="212">
@@ -14930,7 +14688,7 @@
         <v>70800</v>
       </c>
       <c r="H598" s="212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I598" s="212"/>
       <c r="J598" s="176"/>
@@ -14960,7 +14718,7 @@
       <c r="AH598" s="176"/>
       <c r="AI598" s="176"/>
     </row>
-    <row r="599" spans="2:35" ht="16">
+    <row r="599" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B599" s="177"/>
       <c r="C599" s="176"/>
       <c r="D599" s="212"/>
@@ -14971,7 +14729,7 @@
         <v>1000000</v>
       </c>
       <c r="H599" s="212" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I599" s="212"/>
       <c r="J599" s="176"/>
@@ -15001,7 +14759,7 @@
       <c r="AH599" s="176"/>
       <c r="AI599" s="176"/>
     </row>
-    <row r="600" spans="2:35" ht="16">
+    <row r="600" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B600" s="177"/>
       <c r="C600" s="176"/>
       <c r="D600" s="212"/>
@@ -15012,7 +14770,7 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="H600" s="212" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I600" s="212"/>
       <c r="J600" s="176"/>
@@ -15042,7 +14800,7 @@
       <c r="AH600" s="176"/>
       <c r="AI600" s="176"/>
     </row>
-    <row r="601" spans="2:35" ht="16">
+    <row r="601" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B601" s="177"/>
       <c r="C601" s="176"/>
       <c r="D601" s="139"/>
@@ -15078,7 +14836,7 @@
       <c r="AH601" s="176"/>
       <c r="AI601" s="176"/>
     </row>
-    <row r="602" spans="2:35" ht="16">
+    <row r="602" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B602" s="177"/>
       <c r="C602" s="176"/>
       <c r="D602" s="139"/>
@@ -15114,7 +14872,7 @@
       <c r="AH602" s="176"/>
       <c r="AI602" s="176"/>
     </row>
-    <row r="603" spans="2:35" ht="16">
+    <row r="603" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B603" s="177"/>
       <c r="C603" s="176"/>
       <c r="D603" s="139"/>
@@ -15150,7 +14908,7 @@
       <c r="AH603" s="176"/>
       <c r="AI603" s="176"/>
     </row>
-    <row r="604" spans="2:35" ht="16">
+    <row r="604" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B604" s="177"/>
       <c r="C604" s="176"/>
       <c r="D604" s="139"/>
@@ -15186,7 +14944,7 @@
       <c r="AH604" s="176"/>
       <c r="AI604" s="176"/>
     </row>
-    <row r="605" spans="2:35" ht="16">
+    <row r="605" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B605" s="177"/>
       <c r="C605" s="176"/>
       <c r="D605" s="176"/>
@@ -15222,7 +14980,7 @@
       <c r="AH605" s="176"/>
       <c r="AI605" s="176"/>
     </row>
-    <row r="606" spans="2:35" ht="16">
+    <row r="606" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B606" s="177"/>
       <c r="C606" s="176"/>
       <c r="D606" s="176"/>
@@ -15258,7 +15016,7 @@
       <c r="AH606" s="176"/>
       <c r="AI606" s="176"/>
     </row>
-    <row r="607" spans="2:35" ht="16">
+    <row r="607" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B607" s="177"/>
       <c r="C607" s="176"/>
       <c r="D607" s="176"/>
@@ -15294,7 +15052,7 @@
       <c r="AH607" s="176"/>
       <c r="AI607" s="176"/>
     </row>
-    <row r="608" spans="2:35" ht="16">
+    <row r="608" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B608" s="177"/>
       <c r="C608" s="176"/>
       <c r="D608" s="176"/>
@@ -15330,7 +15088,7 @@
       <c r="AH608" s="176"/>
       <c r="AI608" s="176"/>
     </row>
-    <row r="609" spans="2:35" ht="16">
+    <row r="609" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B609" s="177"/>
       <c r="C609" s="176"/>
       <c r="D609" s="176"/>
@@ -15366,7 +15124,7 @@
       <c r="AH609" s="176"/>
       <c r="AI609" s="176"/>
     </row>
-    <row r="610" spans="2:35" ht="16">
+    <row r="610" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B610" s="177"/>
       <c r="C610" s="176"/>
       <c r="D610" s="176"/>
@@ -15402,7 +15160,7 @@
       <c r="AH610" s="176"/>
       <c r="AI610" s="176"/>
     </row>
-    <row r="611" spans="2:35" ht="16">
+    <row r="611" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B611" s="177"/>
       <c r="C611" s="176"/>
       <c r="D611" s="176"/>
@@ -15438,7 +15196,7 @@
       <c r="AH611" s="176"/>
       <c r="AI611" s="176"/>
     </row>
-    <row r="612" spans="2:35" ht="16">
+    <row r="612" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B612" s="177"/>
       <c r="C612" s="176"/>
       <c r="D612" s="176"/>
@@ -15474,7 +15232,7 @@
       <c r="AH612" s="176"/>
       <c r="AI612" s="176"/>
     </row>
-    <row r="613" spans="2:35" ht="16">
+    <row r="613" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B613" s="177"/>
       <c r="C613" s="176"/>
       <c r="D613" s="176"/>
@@ -15510,7 +15268,7 @@
       <c r="AH613" s="176"/>
       <c r="AI613" s="176"/>
     </row>
-    <row r="614" spans="2:35" ht="16">
+    <row r="614" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B614" s="177"/>
       <c r="C614" s="176"/>
       <c r="D614" s="176"/>
@@ -15546,7 +15304,7 @@
       <c r="AH614" s="176"/>
       <c r="AI614" s="176"/>
     </row>
-    <row r="615" spans="2:35" ht="16">
+    <row r="615" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B615" s="177"/>
       <c r="C615" s="176"/>
       <c r="D615" s="176"/>
@@ -15582,7 +15340,7 @@
       <c r="AH615" s="176"/>
       <c r="AI615" s="176"/>
     </row>
-    <row r="616" spans="2:35" ht="16">
+    <row r="616" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B616" s="177"/>
       <c r="C616" s="176"/>
       <c r="D616" s="176"/>
@@ -15618,7 +15376,7 @@
       <c r="AH616" s="176"/>
       <c r="AI616" s="176"/>
     </row>
-    <row r="617" spans="2:35" ht="16">
+    <row r="617" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B617" s="177"/>
       <c r="C617" s="176"/>
       <c r="D617" s="176"/>
@@ -15654,7 +15412,7 @@
       <c r="AH617" s="176"/>
       <c r="AI617" s="176"/>
     </row>
-    <row r="618" spans="2:35" ht="16">
+    <row r="618" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B618" s="177"/>
       <c r="C618" s="176"/>
       <c r="D618" s="176"/>
@@ -15690,7 +15448,7 @@
       <c r="AH618" s="176"/>
       <c r="AI618" s="176"/>
     </row>
-    <row r="619" spans="2:35" ht="16">
+    <row r="619" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B619" s="177"/>
       <c r="C619" s="176"/>
       <c r="D619" s="176"/>
@@ -15726,7 +15484,7 @@
       <c r="AH619" s="176"/>
       <c r="AI619" s="176"/>
     </row>
-    <row r="620" spans="2:35" ht="16">
+    <row r="620" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B620" s="177"/>
       <c r="C620" s="176"/>
       <c r="D620" s="176"/>
@@ -15762,7 +15520,7 @@
       <c r="AH620" s="176"/>
       <c r="AI620" s="176"/>
     </row>
-    <row r="621" spans="2:35" ht="16">
+    <row r="621" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B621" s="177"/>
       <c r="C621" s="176"/>
       <c r="D621" s="176"/>
@@ -15798,7 +15556,7 @@
       <c r="AH621" s="176"/>
       <c r="AI621" s="176"/>
     </row>
-    <row r="622" spans="2:35" ht="16">
+    <row r="622" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B622" s="177"/>
       <c r="C622" s="176"/>
       <c r="D622" s="176"/>
@@ -15834,7 +15592,7 @@
       <c r="AH622" s="176"/>
       <c r="AI622" s="176"/>
     </row>
-    <row r="623" spans="2:35" ht="16">
+    <row r="623" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B623" s="177"/>
       <c r="C623" s="176"/>
       <c r="D623" s="176"/>
@@ -15870,7 +15628,7 @@
       <c r="AH623" s="176"/>
       <c r="AI623" s="176"/>
     </row>
-    <row r="624" spans="2:35" ht="16">
+    <row r="624" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B624" s="177"/>
       <c r="C624" s="176"/>
       <c r="D624" s="176"/>
@@ -15906,7 +15664,7 @@
       <c r="AH624" s="176"/>
       <c r="AI624" s="176"/>
     </row>
-    <row r="625" spans="2:35" ht="16">
+    <row r="625" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B625" s="177"/>
       <c r="C625" s="176"/>
       <c r="D625" s="176"/>
@@ -15942,7 +15700,7 @@
       <c r="AH625" s="176"/>
       <c r="AI625" s="176"/>
     </row>
-    <row r="626" spans="2:35" ht="16">
+    <row r="626" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B626" s="177"/>
       <c r="C626" s="176"/>
       <c r="D626" s="176"/>
@@ -15986,10 +15744,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="-2340" windowWidth="28800" windowHeight="16100" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="185">
   <si>
     <t>Source</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Excise</t>
   </si>
   <si>
-    <t>Other indirect</t>
-  </si>
-  <si>
     <t>Check</t>
   </si>
   <si>
@@ -558,15 +555,6 @@
   </si>
   <si>
     <t>diesel</t>
-  </si>
-  <si>
-    <t>Excise rate</t>
-  </si>
-  <si>
-    <t>Oher indirect tax</t>
-  </si>
-  <si>
-    <t>VAT rate</t>
   </si>
   <si>
     <t>http://www.biotanken.nl/brandstoffen/biodiesel.html</t>
@@ -690,7 +678,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
@@ -701,13 +689,21 @@
     <numFmt numFmtId="171" formatCode="#,##0.00000"/>
     <numFmt numFmtId="172" formatCode="0.00000"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
+    <numFmt numFmtId="174" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -847,6 +843,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -854,6 +851,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -861,6 +859,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,6 +867,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -875,17 +875,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -899,11 +902,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -940,6 +945,7 @@
       <sz val="16"/>
       <color rgb="FF474747"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -978,46 +984,54 @@
       <sz val="10"/>
       <color rgb="FF900000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color rgb="FF900000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <color indexed="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF800000"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC0C0C0"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1033,8 +1047,20 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lettertype hoofdtekst"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1143,8 +1169,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1521,767 +1553,793 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="360">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="236">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="41" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="42" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="46" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="47" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="48" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="49" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="47" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="174" fontId="54" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="29" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="40" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="43" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="41" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="46" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="27" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="47" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="47" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="48" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="46" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="46" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="360" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="360">
+  <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2642,6 +2700,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="360" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2994,7 +3053,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>672158</xdr:colOff>
+      <xdr:colOff>532458</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>143156</xdr:rowOff>
     </xdr:to>
@@ -3086,7 +3145,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>706781</xdr:colOff>
+      <xdr:colOff>528981</xdr:colOff>
       <xdr:row>137</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
@@ -3296,82 +3355,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>480</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>487</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9296400" y="106337100"/>
-          <a:ext cx="7391400" cy="1498600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>488</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>497</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9296400" y="107962700"/>
-          <a:ext cx="7213600" cy="1816100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>510</xdr:row>
@@ -3380,8 +3363,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>565</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>564</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3391,7 +3374,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3416,8 +3399,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>611</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -3429,7 +3412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3893,11 +3876,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="23"/>
+    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
@@ -4091,23 +4074,23 @@
   </sheetPr>
   <dimension ref="B1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
@@ -4118,7 +4101,7 @@
     </row>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="218" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C2" s="219"/>
       <c r="D2" s="219"/>
@@ -4233,13 +4216,13 @@
       </c>
       <c r="E11" s="173">
         <f>'Research data'!G7</f>
-        <v>2.3759641623656909E-2</v>
+        <v>2.8960044113080459E-2</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
       <c r="I11" s="195" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="J11" s="46"/>
     </row>
@@ -4277,7 +4260,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="210" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="215" t="s">
@@ -4288,7 +4271,7 @@
     <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25"/>
       <c r="C14" s="205" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>51</v>
@@ -4299,11 +4282,11 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="210" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="215" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="J14" s="46"/>
     </row>
@@ -4359,17 +4342,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="38"/>
+    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
@@ -4466,7 +4449,7 @@
     <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41"/>
       <c r="C10" s="204" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -4644,7 +4627,7 @@
     <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="41"/>
       <c r="C19" s="204" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="131"/>
@@ -4841,24 +4824,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="73" customWidth="1"/>
+    <col min="1" max="2" width="3.5" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="72" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="72" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="72" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="72" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="73" customWidth="1"/>
     <col min="10" max="10" width="3" style="73" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="73" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="73" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="73" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="73" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="73" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.85546875" style="73" customWidth="1"/>
-    <col min="17" max="17" width="2.7109375" style="73" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="73" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="73" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="73" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="73" customWidth="1"/>
+    <col min="15" max="15" width="8.83203125" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" style="73" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" style="73" customWidth="1"/>
     <col min="18" max="18" width="60" style="72" customWidth="1"/>
-    <col min="19" max="16384" width="10.7109375" style="72"/>
+    <col min="19" max="16384" width="10.83203125" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4908,10 +4891,10 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
@@ -5001,7 +4984,7 @@
       </c>
       <c r="G7" s="172">
         <f>O7</f>
-        <v>2.3759641623656909E-2</v>
+        <v>2.8960044113080459E-2</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="18"/>
@@ -5012,12 +4995,12 @@
       <c r="N7" s="18"/>
       <c r="O7" s="171">
         <f>Notes!F528</f>
-        <v>2.3759641623656909E-2</v>
+        <v>2.8960044113080459E-2</v>
       </c>
       <c r="P7" s="208"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="194" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -5085,7 +5068,7 @@
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="206" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D10" s="137"/>
       <c r="E10" s="137"/>
@@ -5722,19 +5705,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.140625" style="49"/>
+    <col min="7" max="7" width="10.33203125" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -5862,23 +5845,23 @@
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="54"/>
       <c r="C9" s="216" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="207" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F9" s="147"/>
       <c r="G9" s="57" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
       <c r="K9" s="217" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L9" s="71"/>
     </row>
@@ -6019,7 +6002,7 @@
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -6028,13 +6011,13 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F19" s="149"/>
       <c r="L19" s="178" t="s">
@@ -6069,19 +6052,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI626"/>
+  <dimension ref="A1:AI631"/>
   <sheetViews>
-    <sheetView topLeftCell="A570" workbookViewId="0">
-      <selection activeCell="E575" sqref="E575"/>
+    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+      <selection activeCell="F528" sqref="F528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="125" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="125" customWidth="1"/>
     <col min="2" max="2" width="5" style="125" customWidth="1"/>
     <col min="3" max="5" width="7" style="125"/>
-    <col min="6" max="6" width="10.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="7" style="125"/>
+    <col min="6" max="6" width="10.83203125" style="125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="125"/>
+    <col min="8" max="8" width="10.33203125" style="125" customWidth="1"/>
+    <col min="9" max="16384" width="7" style="125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -12244,10 +12229,10 @@
         <v>149</v>
       </c>
       <c r="J473" s="180" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K473" s="181" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12297,26 +12282,24 @@
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
       <c r="E475" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F475" s="186">
         <f>AVERAGE(J475:J479)</f>
-        <v>371.00199999999995</v>
+        <v>545.58600000000001</v>
       </c>
       <c r="G475" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="H475" s="187">
-        <v>42408</v>
-      </c>
-      <c r="I475" s="198">
-        <v>1</v>
-      </c>
-      <c r="J475" s="199">
-        <v>371.99</v>
-      </c>
-      <c r="K475" s="201">
-        <v>1046</v>
+      <c r="H475" s="232">
+        <v>43059</v>
+      </c>
+      <c r="I475" s="183"/>
+      <c r="J475" s="233">
+        <v>550.71</v>
+      </c>
+      <c r="K475" s="234">
+        <v>1264</v>
       </c>
       <c r="L475" s="139"/>
       <c r="M475" s="139"/>
@@ -12336,26 +12319,24 @@
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
       <c r="E476" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F476" s="188">
         <f>F475/1000</f>
-        <v>0.37100199999999994</v>
+        <v>0.54558600000000002</v>
       </c>
       <c r="G476" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="H476" s="187">
-        <v>42401</v>
-      </c>
-      <c r="I476" s="198">
-        <v>1</v>
-      </c>
-      <c r="J476" s="200">
-        <v>362.08</v>
-      </c>
-      <c r="K476" s="202">
-        <v>1034</v>
+      <c r="H476" s="232">
+        <v>43052</v>
+      </c>
+      <c r="I476" s="183"/>
+      <c r="J476" s="233">
+        <v>559.79999999999995</v>
+      </c>
+      <c r="K476" s="234">
+        <v>1275</v>
       </c>
       <c r="L476" s="139"/>
       <c r="M476" s="139"/>
@@ -12377,17 +12358,15 @@
       <c r="E477" s="139"/>
       <c r="F477" s="139"/>
       <c r="G477" s="139"/>
-      <c r="H477" s="187">
-        <v>42394</v>
-      </c>
-      <c r="I477" s="198">
-        <v>1</v>
-      </c>
-      <c r="J477" s="200">
-        <v>355.46</v>
-      </c>
-      <c r="K477" s="202">
-        <v>1026</v>
+      <c r="H477" s="232">
+        <v>43045</v>
+      </c>
+      <c r="I477" s="183"/>
+      <c r="J477" s="233">
+        <v>550.71</v>
+      </c>
+      <c r="K477" s="234">
+        <v>1264</v>
       </c>
       <c r="L477" s="139"/>
       <c r="M477" s="139"/>
@@ -12409,26 +12388,24 @@
         <v>153</v>
       </c>
       <c r="E478" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F478" s="186">
         <f>AVERAGE(K475:K479)</f>
-        <v>1044.8</v>
+        <v>1257.8</v>
       </c>
       <c r="G478" s="139" t="s">
         <v>152</v>
       </c>
-      <c r="H478" s="187">
-        <v>42387</v>
-      </c>
-      <c r="I478" s="198">
-        <v>1</v>
-      </c>
-      <c r="J478" s="200">
-        <v>373.65</v>
-      </c>
-      <c r="K478" s="202">
-        <v>1048</v>
+      <c r="H478" s="232">
+        <v>43038</v>
+      </c>
+      <c r="I478" s="183"/>
+      <c r="J478" s="233">
+        <v>535.01</v>
+      </c>
+      <c r="K478" s="234">
+        <v>1245</v>
       </c>
       <c r="L478" s="139"/>
       <c r="M478" s="139"/>
@@ -12448,26 +12425,24 @@
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
       <c r="E479" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F479" s="188">
         <f>F478/1000</f>
-        <v>1.0448</v>
+        <v>1.2578</v>
       </c>
       <c r="G479" s="139" t="s">
         <v>144</v>
       </c>
-      <c r="H479" s="187">
-        <v>42380</v>
-      </c>
-      <c r="I479" s="198">
-        <v>1</v>
-      </c>
-      <c r="J479" s="200">
-        <v>391.83</v>
-      </c>
-      <c r="K479" s="202">
-        <v>1070</v>
+      <c r="H479" s="232">
+        <v>43031</v>
+      </c>
+      <c r="I479" s="183"/>
+      <c r="J479" s="233">
+        <v>531.70000000000005</v>
+      </c>
+      <c r="K479" s="234">
+        <v>1241</v>
       </c>
       <c r="L479" s="139"/>
       <c r="M479" s="139"/>
@@ -12490,16 +12465,16 @@
       <c r="F480" s="139"/>
       <c r="G480" s="139"/>
       <c r="H480" s="187">
-        <v>42373</v>
+        <v>42408</v>
       </c>
       <c r="I480" s="198">
         <v>1</v>
       </c>
-      <c r="J480" s="200">
-        <v>391.83</v>
-      </c>
-      <c r="K480" s="202">
-        <v>1070</v>
+      <c r="J480" s="199">
+        <v>371.99</v>
+      </c>
+      <c r="K480" s="201">
+        <v>1046</v>
       </c>
       <c r="L480" s="139"/>
       <c r="M480" s="139"/>
@@ -12524,16 +12499,16 @@
       <c r="F481" s="189"/>
       <c r="G481" s="139"/>
       <c r="H481" s="187">
-        <v>42352</v>
+        <v>42401</v>
       </c>
       <c r="I481" s="198">
         <v>1</v>
       </c>
       <c r="J481" s="200">
-        <v>444.65</v>
+        <v>362.08</v>
       </c>
       <c r="K481" s="202">
-        <v>1131</v>
+        <v>1034</v>
       </c>
       <c r="L481" s="139"/>
       <c r="M481" s="139"/>
@@ -12555,25 +12530,25 @@
         <v>155</v>
       </c>
       <c r="E482" s="176" t="s">
-        <v>161</v>
-      </c>
-      <c r="F482" s="139">
-        <v>21</v>
+        <v>160</v>
+      </c>
+      <c r="F482" s="235">
+        <v>0.21</v>
       </c>
       <c r="G482" s="139" t="s">
         <v>156</v>
       </c>
       <c r="H482" s="187">
-        <v>42345</v>
+        <v>42394</v>
       </c>
       <c r="I482" s="198">
         <v>1</v>
       </c>
       <c r="J482" s="200">
-        <v>467.79</v>
+        <v>355.46</v>
       </c>
       <c r="K482" s="202">
-        <v>1159</v>
+        <v>1026</v>
       </c>
       <c r="L482" s="139"/>
       <c r="M482" s="139"/>
@@ -12595,26 +12570,26 @@
         <v>157</v>
       </c>
       <c r="E483" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F483" s="139">
-        <f>482.06/1000</f>
-        <v>0.48205999999999999</v>
+        <f>F479/(1+F482)-F476</f>
+        <v>0.4939181322314049</v>
       </c>
       <c r="G483" s="139" t="s">
         <v>144</v>
       </c>
       <c r="H483" s="187">
-        <v>42338</v>
+        <v>42387</v>
       </c>
       <c r="I483" s="198">
         <v>1</v>
       </c>
       <c r="J483" s="200">
-        <v>486.8</v>
+        <v>373.65</v>
       </c>
       <c r="K483" s="202">
-        <v>1182</v>
+        <v>1048</v>
       </c>
       <c r="L483" s="139"/>
       <c r="M483" s="139"/>
@@ -12632,30 +12607,21 @@
       <c r="A484" s="176"/>
       <c r="B484" s="177"/>
       <c r="C484" s="139"/>
-      <c r="D484" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="E484" s="176" t="s">
-        <v>161</v>
-      </c>
-      <c r="F484" s="189">
-        <f>8/1000</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G484" s="139" t="s">
-        <v>144</v>
-      </c>
+      <c r="D484" s="139"/>
+      <c r="E484" s="176"/>
+      <c r="F484" s="189"/>
+      <c r="G484" s="139"/>
       <c r="H484" s="187">
-        <v>42331</v>
+        <v>42380</v>
       </c>
       <c r="I484" s="198">
         <v>1</v>
       </c>
       <c r="J484" s="200">
-        <v>491.76</v>
+        <v>391.83</v>
       </c>
       <c r="K484" s="202">
-        <v>1188</v>
+        <v>1070</v>
       </c>
       <c r="L484" s="139"/>
       <c r="M484" s="139"/>
@@ -12678,16 +12644,16 @@
       <c r="F485" s="139"/>
       <c r="G485" s="139"/>
       <c r="H485" s="187">
-        <v>42324</v>
+        <v>42373</v>
       </c>
       <c r="I485" s="198">
         <v>1</v>
       </c>
       <c r="J485" s="200">
-        <v>506.63</v>
+        <v>391.83</v>
       </c>
       <c r="K485" s="202">
-        <v>1206</v>
+        <v>1070</v>
       </c>
       <c r="L485" s="139"/>
       <c r="M485" s="139"/>
@@ -12706,29 +12672,29 @@
       <c r="B486" s="177"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E486" s="176" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F486" s="189">
         <f>(F484+F483+F476)*1.21</f>
-        <v>1.0418850200000001</v>
+        <v>1.2577999999999998</v>
       </c>
       <c r="G486" s="139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H486" s="187">
-        <v>42317</v>
+        <v>42352</v>
       </c>
       <c r="I486" s="198">
         <v>1</v>
       </c>
       <c r="J486" s="200">
-        <v>503.33</v>
+        <v>444.65</v>
       </c>
       <c r="K486" s="202">
-        <v>1202</v>
+        <v>1131</v>
       </c>
       <c r="L486" s="139"/>
       <c r="M486" s="139"/>
@@ -12751,16 +12717,16 @@
       <c r="F487" s="139"/>
       <c r="G487" s="139"/>
       <c r="H487" s="187">
-        <v>42310</v>
+        <v>42345</v>
       </c>
       <c r="I487" s="198">
         <v>1</v>
       </c>
       <c r="J487" s="200">
-        <v>481.01</v>
+        <v>467.79</v>
       </c>
       <c r="K487" s="202">
-        <v>1175</v>
+        <v>1159</v>
       </c>
       <c r="L487" s="139"/>
       <c r="M487" s="139"/>
@@ -12783,16 +12749,16 @@
       <c r="F488" s="139"/>
       <c r="G488" s="139"/>
       <c r="H488" s="187">
-        <v>42303</v>
+        <v>42338</v>
       </c>
       <c r="I488" s="198">
         <v>1</v>
       </c>
       <c r="J488" s="200">
-        <v>478.54</v>
+        <v>486.8</v>
       </c>
       <c r="K488" s="202">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="L488" s="139"/>
       <c r="M488" s="139"/>
@@ -12815,16 +12781,16 @@
       <c r="F489" s="139"/>
       <c r="G489" s="139"/>
       <c r="H489" s="187">
-        <v>42296</v>
+        <v>42331</v>
       </c>
       <c r="I489" s="198">
         <v>1</v>
       </c>
       <c r="J489" s="200">
-        <v>493.41</v>
+        <v>491.76</v>
       </c>
       <c r="K489" s="202">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L489" s="139"/>
       <c r="M489" s="139"/>
@@ -12847,16 +12813,16 @@
       <c r="F490" s="139"/>
       <c r="G490" s="139"/>
       <c r="H490" s="187">
-        <v>42289</v>
+        <v>42324</v>
       </c>
       <c r="I490" s="198">
         <v>1</v>
       </c>
       <c r="J490" s="200">
-        <v>501.68</v>
+        <v>506.63</v>
       </c>
       <c r="K490" s="202">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="L490" s="139"/>
       <c r="M490" s="139"/>
@@ -12879,16 +12845,16 @@
       <c r="F491" s="139"/>
       <c r="G491" s="139"/>
       <c r="H491" s="187">
-        <v>42282</v>
+        <v>42317</v>
       </c>
       <c r="I491" s="198">
         <v>1</v>
       </c>
       <c r="J491" s="200">
-        <v>489.28</v>
+        <v>503.33</v>
       </c>
       <c r="K491" s="202">
-        <v>1185</v>
+        <v>1202</v>
       </c>
       <c r="L491" s="139"/>
       <c r="M491" s="139"/>
@@ -12911,16 +12877,16 @@
       <c r="F492" s="139"/>
       <c r="G492" s="139"/>
       <c r="H492" s="187">
-        <v>42275</v>
+        <v>42310</v>
       </c>
       <c r="I492" s="198">
         <v>1</v>
       </c>
       <c r="J492" s="200">
-        <v>490.11</v>
+        <v>481.01</v>
       </c>
       <c r="K492" s="202">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="L492" s="139"/>
       <c r="M492" s="139"/>
@@ -12943,16 +12909,16 @@
       <c r="F493" s="139"/>
       <c r="G493" s="139"/>
       <c r="H493" s="187">
-        <v>42268</v>
+        <v>42303</v>
       </c>
       <c r="I493" s="198">
         <v>1</v>
       </c>
       <c r="J493" s="200">
-        <v>498.37</v>
+        <v>478.54</v>
       </c>
       <c r="K493" s="202">
-        <v>1196</v>
+        <v>1172</v>
       </c>
       <c r="L493" s="139"/>
       <c r="M493" s="139"/>
@@ -12975,16 +12941,16 @@
       <c r="F494" s="139"/>
       <c r="G494" s="139"/>
       <c r="H494" s="187">
-        <v>42261</v>
+        <v>42296</v>
       </c>
       <c r="I494" s="198">
         <v>1</v>
       </c>
       <c r="J494" s="200">
-        <v>502.5</v>
+        <v>493.41</v>
       </c>
       <c r="K494" s="202">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="L494" s="176"/>
       <c r="M494" s="176"/>
@@ -13007,16 +12973,16 @@
       <c r="F495" s="139"/>
       <c r="G495" s="139"/>
       <c r="H495" s="187">
-        <v>42254</v>
+        <v>42289</v>
       </c>
       <c r="I495" s="198">
         <v>1</v>
       </c>
       <c r="J495" s="200">
-        <v>493.41</v>
+        <v>501.68</v>
       </c>
       <c r="K495" s="202">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="L495" s="176"/>
       <c r="M495" s="176"/>
@@ -13039,16 +13005,16 @@
       <c r="F496" s="139"/>
       <c r="G496" s="139"/>
       <c r="H496" s="187">
-        <v>42247</v>
+        <v>42282</v>
       </c>
       <c r="I496" s="198">
         <v>1</v>
       </c>
       <c r="J496" s="200">
-        <v>466.06</v>
-      </c>
-      <c r="K496" s="203">
-        <v>1156.9100000000001</v>
+        <v>489.28</v>
+      </c>
+      <c r="K496" s="202">
+        <v>1185</v>
       </c>
       <c r="L496" s="176"/>
       <c r="M496" s="176"/>
@@ -13071,16 +13037,16 @@
       <c r="F497" s="139"/>
       <c r="G497" s="139"/>
       <c r="H497" s="187">
-        <v>42240</v>
+        <v>42275</v>
       </c>
       <c r="I497" s="198">
         <v>1</v>
       </c>
       <c r="J497" s="200">
-        <v>485.97</v>
+        <v>490.11</v>
       </c>
       <c r="K497" s="202">
-        <v>1181</v>
+        <v>1186</v>
       </c>
       <c r="L497" s="176"/>
       <c r="M497" s="176"/>
@@ -13103,16 +13069,16 @@
       <c r="F498" s="139"/>
       <c r="G498" s="139"/>
       <c r="H498" s="187">
-        <v>42233</v>
+        <v>42268</v>
       </c>
       <c r="I498" s="198">
         <v>1</v>
       </c>
       <c r="J498" s="200">
-        <v>496.72</v>
+        <v>498.37</v>
       </c>
       <c r="K498" s="202">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="L498" s="176"/>
       <c r="M498" s="176"/>
@@ -13135,16 +13101,16 @@
       <c r="F499" s="139"/>
       <c r="G499" s="139"/>
       <c r="H499" s="187">
-        <v>42226</v>
+        <v>42261</v>
       </c>
       <c r="I499" s="198">
         <v>1</v>
       </c>
       <c r="J499" s="200">
-        <v>504.98</v>
+        <v>502.5</v>
       </c>
       <c r="K499" s="202">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="L499" s="176"/>
       <c r="M499" s="176"/>
@@ -13167,16 +13133,16 @@
       <c r="F500" s="139"/>
       <c r="G500" s="139"/>
       <c r="H500" s="187">
-        <v>42219</v>
+        <v>42254</v>
       </c>
       <c r="I500" s="198">
         <v>1</v>
       </c>
       <c r="J500" s="200">
-        <v>518.20000000000005</v>
+        <v>493.41</v>
       </c>
       <c r="K500" s="202">
-        <v>1220</v>
+        <v>1190</v>
       </c>
       <c r="L500" s="176"/>
       <c r="M500" s="176"/>
@@ -13199,16 +13165,16 @@
       <c r="F501" s="139"/>
       <c r="G501" s="139"/>
       <c r="H501" s="187">
-        <v>42212</v>
+        <v>42247</v>
       </c>
       <c r="I501" s="198">
         <v>1</v>
       </c>
       <c r="J501" s="200">
-        <v>533.91</v>
-      </c>
-      <c r="K501" s="202">
-        <v>1239</v>
+        <v>466.06</v>
+      </c>
+      <c r="K501" s="203">
+        <v>1156.9100000000001</v>
       </c>
       <c r="L501" s="176"/>
       <c r="M501" s="176"/>
@@ -13231,16 +13197,16 @@
       <c r="F502" s="139"/>
       <c r="G502" s="139"/>
       <c r="H502" s="187">
-        <v>42205</v>
+        <v>42240</v>
       </c>
       <c r="I502" s="198">
         <v>1</v>
       </c>
       <c r="J502" s="200">
-        <v>547.13</v>
+        <v>485.97</v>
       </c>
       <c r="K502" s="202">
-        <v>1255</v>
+        <v>1181</v>
       </c>
       <c r="L502" s="176"/>
       <c r="M502" s="176"/>
@@ -13263,16 +13229,16 @@
       <c r="F503" s="139"/>
       <c r="G503" s="139"/>
       <c r="H503" s="187">
-        <v>42198</v>
+        <v>42233</v>
       </c>
       <c r="I503" s="198">
         <v>1</v>
       </c>
       <c r="J503" s="200">
-        <v>568.62</v>
+        <v>496.72</v>
       </c>
       <c r="K503" s="202">
-        <v>1281</v>
+        <v>1194</v>
       </c>
       <c r="L503" s="176"/>
       <c r="M503" s="176"/>
@@ -13295,16 +13261,16 @@
       <c r="F504" s="139"/>
       <c r="G504" s="139"/>
       <c r="H504" s="187">
-        <v>42191</v>
+        <v>42226</v>
       </c>
       <c r="I504" s="198">
         <v>1</v>
       </c>
       <c r="J504" s="200">
-        <v>580.19000000000005</v>
+        <v>504.98</v>
       </c>
       <c r="K504" s="202">
-        <v>1295</v>
+        <v>1204</v>
       </c>
       <c r="L504" s="176"/>
       <c r="M504" s="176"/>
@@ -13320,12 +13286,48 @@
     </row>
     <row r="505" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B505" s="177"/>
+      <c r="H505" s="187">
+        <v>42219</v>
+      </c>
+      <c r="I505" s="198">
+        <v>1</v>
+      </c>
+      <c r="J505" s="200">
+        <v>518.20000000000005</v>
+      </c>
+      <c r="K505" s="202">
+        <v>1220</v>
+      </c>
     </row>
     <row r="506" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B506" s="177"/>
+      <c r="H506" s="187">
+        <v>42212</v>
+      </c>
+      <c r="I506" s="198">
+        <v>1</v>
+      </c>
+      <c r="J506" s="200">
+        <v>533.91</v>
+      </c>
+      <c r="K506" s="202">
+        <v>1239</v>
+      </c>
     </row>
     <row r="507" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B507" s="177"/>
+      <c r="H507" s="187">
+        <v>42205</v>
+      </c>
+      <c r="I507" s="198">
+        <v>1</v>
+      </c>
+      <c r="J507" s="200">
+        <v>547.13</v>
+      </c>
+      <c r="K507" s="202">
+        <v>1255</v>
+      </c>
     </row>
     <row r="508" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B508" s="129"/>
@@ -13340,10 +13342,18 @@
         <v>32</v>
       </c>
       <c r="G508" s="129"/>
-      <c r="H508" s="129"/>
-      <c r="I508" s="129"/>
-      <c r="J508" s="129"/>
-      <c r="K508" s="129"/>
+      <c r="H508" s="187">
+        <v>42198</v>
+      </c>
+      <c r="I508" s="198">
+        <v>1</v>
+      </c>
+      <c r="J508" s="200">
+        <v>568.62</v>
+      </c>
+      <c r="K508" s="202">
+        <v>1281</v>
+      </c>
       <c r="L508" s="129"/>
       <c r="M508" s="129"/>
       <c r="N508" s="129"/>
@@ -13362,10 +13372,18 @@
       <c r="E509" s="139"/>
       <c r="F509" s="139"/>
       <c r="G509" s="139"/>
-      <c r="H509" s="139"/>
-      <c r="I509" s="139"/>
-      <c r="J509" s="139"/>
-      <c r="K509" s="139"/>
+      <c r="H509" s="187">
+        <v>42191</v>
+      </c>
+      <c r="I509" s="198">
+        <v>1</v>
+      </c>
+      <c r="J509" s="200">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="K509" s="202">
+        <v>1295</v>
+      </c>
       <c r="L509" s="139"/>
       <c r="M509" s="139"/>
       <c r="N509" s="139"/>
@@ -13384,16 +13402,16 @@
     <row r="510" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B510" s="190"/>
       <c r="C510" s="175" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
       <c r="F510" s="139"/>
       <c r="G510" s="139"/>
-      <c r="H510" s="139"/>
-      <c r="I510" s="139"/>
-      <c r="J510" s="139"/>
-      <c r="K510" s="139"/>
+      <c r="H510" s="175"/>
+      <c r="I510" s="175"/>
+      <c r="J510" s="175"/>
+      <c r="K510" s="175"/>
       <c r="L510" s="139"/>
       <c r="M510" s="139"/>
       <c r="N510" s="139"/>
@@ -13412,25 +13430,37 @@
     <row r="511" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B511" s="190"/>
     </row>
-    <row r="512" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B512" s="190"/>
     </row>
-    <row r="513" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B513" s="190"/>
       <c r="D513" s="175" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="514" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H513" s="129"/>
+      <c r="I513" s="129"/>
+      <c r="J513" s="129"/>
+      <c r="K513" s="129"/>
+    </row>
+    <row r="514" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B514" s="190"/>
       <c r="D514" s="175" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="515" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H514" s="139"/>
+      <c r="I514" s="139"/>
+      <c r="J514" s="139"/>
+      <c r="K514" s="139"/>
+    </row>
+    <row r="515" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B515" s="190"/>
-    </row>
-    <row r="516" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H515" s="139"/>
+      <c r="I515" s="139"/>
+      <c r="J515" s="139"/>
+      <c r="K515" s="139"/>
+    </row>
+    <row r="516" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B516" s="190"/>
       <c r="F516" s="175">
         <v>0.5</v>
@@ -13439,117 +13469,117 @@
         <v>144</v>
       </c>
       <c r="H516" s="175" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="517" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="517" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B517" s="190"/>
       <c r="F517" s="191">
         <f>F479</f>
-        <v>1.0448</v>
+        <v>1.2578</v>
       </c>
       <c r="G517" s="175" t="s">
         <v>144</v>
       </c>
       <c r="H517" s="175" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="518" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="518" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B518" s="190"/>
       <c r="F518" s="191">
         <f>F516+F517</f>
-        <v>1.5448</v>
+        <v>1.7578</v>
       </c>
       <c r="G518" s="175" t="s">
         <v>144</v>
       </c>
       <c r="H518" s="175" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="519" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="519" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B519" s="190"/>
     </row>
-    <row r="520" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B520" s="190"/>
-      <c r="F520" s="175">
-        <f>F483</f>
-        <v>0.48205999999999999</v>
-      </c>
-      <c r="G520" s="175" t="s">
-        <v>144</v>
-      </c>
-      <c r="H520" s="175" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="521" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B521" s="190"/>
-      <c r="F521" s="191">
-        <f>F484</f>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G521" s="175" t="s">
-        <v>144</v>
-      </c>
-      <c r="H521" s="175" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="522" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F521" s="191"/>
+    </row>
+    <row r="522" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B522" s="190"/>
-      <c r="F522" s="175">
-        <f>F482</f>
-        <v>21</v>
-      </c>
-      <c r="G522" s="175" t="s">
-        <v>156</v>
-      </c>
-      <c r="H522" s="175" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="523" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B523" s="190"/>
     </row>
-    <row r="524" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B524" s="190"/>
     </row>
-    <row r="525" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B525" s="190"/>
     </row>
-    <row r="526" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B526" s="190"/>
     </row>
-    <row r="527" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B527" s="190"/>
       <c r="F527" s="192">
-        <f>F518/1.21-F521-F520</f>
-        <v>0.78663421487603302</v>
+        <f>F518/(1+F482)-F483</f>
+        <v>0.95880914049586796</v>
       </c>
       <c r="G527" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="H527" s="175" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="528" spans="2:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B528" s="190"/>
       <c r="F528" s="193">
         <f>F527/F11</f>
-        <v>2.3759641623656909E-2</v>
+        <v>2.8960044113080459E-2</v>
       </c>
       <c r="G528" s="175" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="529" spans="2:2" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B529" s="190"/>
     </row>
-    <row r="530" spans="2:2" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B530" s="190"/>
+    </row>
+    <row r="531" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H531" s="175"/>
+      <c r="I531" s="175"/>
+      <c r="J531" s="175"/>
+      <c r="K531" s="175"/>
+    </row>
+    <row r="532" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H532" s="175" t="s">
+        <v>165</v>
+      </c>
+      <c r="I532" s="175"/>
+      <c r="J532" s="175"/>
+      <c r="K532" s="175"/>
+    </row>
+    <row r="533" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H533" s="175"/>
+      <c r="I533" s="175"/>
+      <c r="J533" s="175"/>
+      <c r="K533" s="175"/>
+    </row>
+    <row r="534" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H534" s="175"/>
+      <c r="I534" s="175"/>
+      <c r="J534" s="175"/>
+      <c r="K534" s="175"/>
+    </row>
+    <row r="535" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H535" s="175"/>
+      <c r="I535" s="175"/>
+      <c r="J535" s="175"/>
+      <c r="K535" s="175"/>
     </row>
     <row r="566" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="567" spans="2:35" x14ac:dyDescent="0.2">
@@ -13565,10 +13595,6 @@
         <v>32</v>
       </c>
       <c r="G567" s="174"/>
-      <c r="H567" s="174"/>
-      <c r="I567" s="174"/>
-      <c r="J567" s="174"/>
-      <c r="K567" s="174"/>
       <c r="L567" s="174"/>
       <c r="M567" s="174"/>
       <c r="N567" s="174"/>
@@ -13601,10 +13627,6 @@
       <c r="E568" s="154"/>
       <c r="F568" s="154"/>
       <c r="G568" s="154"/>
-      <c r="H568" s="154"/>
-      <c r="I568" s="154"/>
-      <c r="J568" s="154"/>
-      <c r="K568" s="154"/>
       <c r="L568" s="154"/>
       <c r="M568" s="154"/>
       <c r="N568" s="154"/>
@@ -13633,16 +13655,12 @@
     <row r="569" spans="2:35" x14ac:dyDescent="0.2">
       <c r="B569" s="177"/>
       <c r="C569" s="211" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D569" s="212"/>
       <c r="E569" s="212"/>
       <c r="F569" s="212"/>
       <c r="G569" s="212"/>
-      <c r="H569" s="212"/>
-      <c r="I569" s="212"/>
-      <c r="J569" s="139"/>
-      <c r="K569" s="139"/>
       <c r="L569" s="139"/>
       <c r="M569" s="139"/>
       <c r="N569" s="139"/>
@@ -13675,10 +13693,6 @@
       <c r="E570" s="212"/>
       <c r="F570" s="212"/>
       <c r="G570" s="212"/>
-      <c r="H570" s="212"/>
-      <c r="I570" s="212"/>
-      <c r="J570" s="139"/>
-      <c r="K570" s="139"/>
       <c r="L570" s="139"/>
       <c r="M570" s="139"/>
       <c r="N570" s="139"/>
@@ -13704,17 +13718,13 @@
       <c r="AH570" s="176"/>
       <c r="AI570" s="176"/>
     </row>
-    <row r="571" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="571" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B571" s="177"/>
       <c r="C571" s="212"/>
       <c r="D571" s="212"/>
       <c r="E571" s="212"/>
       <c r="F571" s="212"/>
       <c r="G571" s="212"/>
-      <c r="H571" s="212"/>
-      <c r="I571" s="212"/>
-      <c r="J571" s="139"/>
-      <c r="K571" s="139"/>
       <c r="L571" s="139"/>
       <c r="M571" s="139"/>
       <c r="N571" s="139"/>
@@ -13747,10 +13757,10 @@
       <c r="E572" s="212"/>
       <c r="F572" s="212"/>
       <c r="G572" s="212"/>
-      <c r="H572" s="212"/>
-      <c r="I572" s="212"/>
-      <c r="J572" s="139"/>
-      <c r="K572" s="139"/>
+      <c r="H572" s="174"/>
+      <c r="I572" s="174"/>
+      <c r="J572" s="174"/>
+      <c r="K572" s="174"/>
       <c r="L572" s="139"/>
       <c r="M572" s="139"/>
       <c r="N572" s="139"/>
@@ -13783,10 +13793,10 @@
       <c r="E573" s="212"/>
       <c r="F573" s="212"/>
       <c r="G573" s="212"/>
-      <c r="H573" s="212"/>
-      <c r="I573" s="212"/>
-      <c r="J573" s="139"/>
-      <c r="K573" s="139"/>
+      <c r="H573" s="154"/>
+      <c r="I573" s="154"/>
+      <c r="J573" s="154"/>
+      <c r="K573" s="154"/>
       <c r="L573" s="139"/>
       <c r="M573" s="139"/>
       <c r="N573" s="139"/>
@@ -13819,8 +13829,8 @@
       <c r="E574" s="139"/>
       <c r="F574" s="139"/>
       <c r="G574" s="139"/>
-      <c r="H574" s="139"/>
-      <c r="I574" s="139"/>
+      <c r="H574" s="212"/>
+      <c r="I574" s="212"/>
       <c r="J574" s="139"/>
       <c r="K574" s="139"/>
       <c r="L574" s="139"/>
@@ -13855,8 +13865,8 @@
       <c r="E575" s="139"/>
       <c r="F575" s="139"/>
       <c r="G575" s="139"/>
-      <c r="H575" s="139"/>
-      <c r="I575" s="139"/>
+      <c r="H575" s="212"/>
+      <c r="I575" s="212"/>
       <c r="J575" s="139"/>
       <c r="K575" s="139"/>
       <c r="L575" s="139"/>
@@ -13891,8 +13901,8 @@
       <c r="E576" s="139"/>
       <c r="F576" s="139"/>
       <c r="G576" s="139"/>
-      <c r="H576" s="139"/>
-      <c r="I576" s="139"/>
+      <c r="H576" s="212"/>
+      <c r="I576" s="212"/>
       <c r="J576" s="139"/>
       <c r="K576" s="139"/>
       <c r="L576" s="139"/>
@@ -13927,8 +13937,8 @@
       <c r="E577" s="139"/>
       <c r="F577" s="139"/>
       <c r="G577" s="139"/>
-      <c r="H577" s="139"/>
-      <c r="I577" s="139"/>
+      <c r="H577" s="212"/>
+      <c r="I577" s="212"/>
       <c r="J577" s="139"/>
       <c r="K577" s="139"/>
       <c r="L577" s="139"/>
@@ -13963,8 +13973,8 @@
       <c r="E578" s="139"/>
       <c r="F578" s="139"/>
       <c r="G578" s="139"/>
-      <c r="H578" s="139"/>
-      <c r="I578" s="139"/>
+      <c r="H578" s="212"/>
+      <c r="I578" s="212"/>
       <c r="J578" s="139"/>
       <c r="K578" s="139"/>
       <c r="L578" s="139"/>
@@ -14539,10 +14549,10 @@
       <c r="E594" s="176"/>
       <c r="F594" s="176"/>
       <c r="G594" s="176"/>
-      <c r="H594" s="176"/>
-      <c r="I594" s="176"/>
-      <c r="J594" s="176"/>
-      <c r="K594" s="176"/>
+      <c r="H594" s="139"/>
+      <c r="I594" s="139"/>
+      <c r="J594" s="139"/>
+      <c r="K594" s="139"/>
       <c r="L594" s="176"/>
       <c r="M594" s="176"/>
       <c r="N594" s="176"/>
@@ -14575,10 +14585,10 @@
       <c r="E595" s="176"/>
       <c r="F595" s="176"/>
       <c r="G595" s="176"/>
-      <c r="H595" s="176"/>
-      <c r="I595" s="176"/>
-      <c r="J595" s="176"/>
-      <c r="K595" s="176"/>
+      <c r="H595" s="139"/>
+      <c r="I595" s="139"/>
+      <c r="J595" s="139"/>
+      <c r="K595" s="139"/>
       <c r="L595" s="176"/>
       <c r="M595" s="176"/>
       <c r="N595" s="176"/>
@@ -14611,10 +14621,10 @@
       <c r="E596" s="176"/>
       <c r="F596" s="176"/>
       <c r="G596" s="176"/>
-      <c r="H596" s="176"/>
-      <c r="I596" s="176"/>
-      <c r="J596" s="176"/>
-      <c r="K596" s="176"/>
+      <c r="H596" s="139"/>
+      <c r="I596" s="139"/>
+      <c r="J596" s="139"/>
+      <c r="K596" s="139"/>
       <c r="L596" s="176"/>
       <c r="M596" s="176"/>
       <c r="N596" s="176"/>
@@ -14647,10 +14657,10 @@
       <c r="E597" s="176"/>
       <c r="F597" s="176"/>
       <c r="G597" s="176"/>
-      <c r="H597" s="176"/>
-      <c r="I597" s="176"/>
-      <c r="J597" s="176"/>
-      <c r="K597" s="176"/>
+      <c r="H597" s="139"/>
+      <c r="I597" s="139"/>
+      <c r="J597" s="139"/>
+      <c r="K597" s="139"/>
       <c r="L597" s="176"/>
       <c r="M597" s="176"/>
       <c r="N597" s="176"/>
@@ -14687,12 +14697,10 @@
       <c r="G598" s="212">
         <v>70800</v>
       </c>
-      <c r="H598" s="212" t="s">
-        <v>184</v>
-      </c>
-      <c r="I598" s="212"/>
-      <c r="J598" s="176"/>
-      <c r="K598" s="176"/>
+      <c r="H598" s="139"/>
+      <c r="I598" s="139"/>
+      <c r="J598" s="139"/>
+      <c r="K598" s="139"/>
       <c r="L598" s="176"/>
       <c r="M598" s="176"/>
       <c r="N598" s="176"/>
@@ -14728,10 +14736,8 @@
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="H599" s="212" t="s">
-        <v>185</v>
-      </c>
-      <c r="I599" s="212"/>
+      <c r="H599" s="176"/>
+      <c r="I599" s="176"/>
       <c r="J599" s="176"/>
       <c r="K599" s="176"/>
       <c r="L599" s="176"/>
@@ -14769,10 +14775,8 @@
         <f>G598/G599</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="H600" s="212" t="s">
-        <v>184</v>
-      </c>
-      <c r="I600" s="212"/>
+      <c r="H600" s="176"/>
+      <c r="I600" s="176"/>
       <c r="J600" s="176"/>
       <c r="K600" s="176"/>
       <c r="L600" s="176"/>
@@ -14807,8 +14811,8 @@
       <c r="E601" s="139"/>
       <c r="F601" s="139"/>
       <c r="G601" s="139"/>
-      <c r="H601" s="139"/>
-      <c r="I601" s="139"/>
+      <c r="H601" s="176"/>
+      <c r="I601" s="176"/>
       <c r="J601" s="176"/>
       <c r="K601" s="176"/>
       <c r="L601" s="176"/>
@@ -14843,8 +14847,8 @@
       <c r="E602" s="139"/>
       <c r="F602" s="139"/>
       <c r="G602" s="139"/>
-      <c r="H602" s="139"/>
-      <c r="I602" s="139"/>
+      <c r="H602" s="176"/>
+      <c r="I602" s="176"/>
       <c r="J602" s="176"/>
       <c r="K602" s="176"/>
       <c r="L602" s="176"/>
@@ -14879,8 +14883,10 @@
       <c r="E603" s="139"/>
       <c r="F603" s="139"/>
       <c r="G603" s="139"/>
-      <c r="H603" s="139"/>
-      <c r="I603" s="139"/>
+      <c r="H603" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="I603" s="212"/>
       <c r="J603" s="176"/>
       <c r="K603" s="176"/>
       <c r="L603" s="176"/>
@@ -14915,8 +14921,10 @@
       <c r="E604" s="139"/>
       <c r="F604" s="139"/>
       <c r="G604" s="139"/>
-      <c r="H604" s="139"/>
-      <c r="I604" s="139"/>
+      <c r="H604" s="212" t="s">
+        <v>181</v>
+      </c>
+      <c r="I604" s="212"/>
       <c r="J604" s="176"/>
       <c r="K604" s="176"/>
       <c r="L604" s="176"/>
@@ -14951,8 +14959,10 @@
       <c r="E605" s="176"/>
       <c r="F605" s="176"/>
       <c r="G605" s="176"/>
-      <c r="H605" s="176"/>
-      <c r="I605" s="176"/>
+      <c r="H605" s="212" t="s">
+        <v>180</v>
+      </c>
+      <c r="I605" s="212"/>
       <c r="J605" s="176"/>
       <c r="K605" s="176"/>
       <c r="L605" s="176"/>
@@ -14987,8 +14997,8 @@
       <c r="E606" s="176"/>
       <c r="F606" s="176"/>
       <c r="G606" s="176"/>
-      <c r="H606" s="176"/>
-      <c r="I606" s="176"/>
+      <c r="H606" s="139"/>
+      <c r="I606" s="139"/>
       <c r="J606" s="176"/>
       <c r="K606" s="176"/>
       <c r="L606" s="176"/>
@@ -15023,8 +15033,8 @@
       <c r="E607" s="176"/>
       <c r="F607" s="176"/>
       <c r="G607" s="176"/>
-      <c r="H607" s="176"/>
-      <c r="I607" s="176"/>
+      <c r="H607" s="139"/>
+      <c r="I607" s="139"/>
       <c r="J607" s="176"/>
       <c r="K607" s="176"/>
       <c r="L607" s="176"/>
@@ -15059,8 +15069,8 @@
       <c r="E608" s="176"/>
       <c r="F608" s="176"/>
       <c r="G608" s="176"/>
-      <c r="H608" s="176"/>
-      <c r="I608" s="176"/>
+      <c r="H608" s="139"/>
+      <c r="I608" s="139"/>
       <c r="J608" s="176"/>
       <c r="K608" s="176"/>
       <c r="L608" s="176"/>
@@ -15095,8 +15105,8 @@
       <c r="E609" s="176"/>
       <c r="F609" s="176"/>
       <c r="G609" s="176"/>
-      <c r="H609" s="176"/>
-      <c r="I609" s="176"/>
+      <c r="H609" s="139"/>
+      <c r="I609" s="139"/>
       <c r="J609" s="176"/>
       <c r="K609" s="176"/>
       <c r="L609" s="176"/>
@@ -15736,6 +15746,36 @@
       <c r="AH626" s="176"/>
       <c r="AI626" s="176"/>
     </row>
+    <row r="627" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="H627" s="176"/>
+      <c r="I627" s="176"/>
+      <c r="J627" s="176"/>
+      <c r="K627" s="176"/>
+    </row>
+    <row r="628" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="H628" s="176"/>
+      <c r="I628" s="176"/>
+      <c r="J628" s="176"/>
+      <c r="K628" s="176"/>
+    </row>
+    <row r="629" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="H629" s="176"/>
+      <c r="I629" s="176"/>
+      <c r="J629" s="176"/>
+      <c r="K629" s="176"/>
+    </row>
+    <row r="630" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="H630" s="176"/>
+      <c r="I630" s="176"/>
+      <c r="J630" s="176"/>
+      <c r="K630" s="176"/>
+    </row>
+    <row r="631" spans="2:35" x14ac:dyDescent="0.2">
+      <c r="H631" s="176"/>
+      <c r="I631" s="176"/>
+      <c r="J631" s="176"/>
+      <c r="K631" s="176"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C281" r:id="rId1"/>

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C27C0C-F909-BB42-A20A-0AF60439E9CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +38,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
   <si>
     <t>Source</t>
   </si>
@@ -306,9 +307,6 @@
   </si>
   <si>
     <t>NW Europe</t>
-  </si>
-  <si>
-    <t>http://refman.et-model.com/publications/1986</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -677,7 +675,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -691,7 +689,7 @@
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="55">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2286,6 +2284,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="54" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="360" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2328,16 +2336,6 @@
     <xf numFmtId="0" fontId="39" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="174" fontId="54" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="360" applyFont="1"/>
   </cellXfs>
   <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2708,6 +2706,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2729,7 +2730,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2776,7 +2783,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19"/>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2823,7 +2836,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2861,7 +2880,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2899,7 +2924,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2937,7 +2968,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2975,7 +3012,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29"/>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3013,7 +3056,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 1"/>
+        <xdr:cNvPr id="34" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3059,7 +3108,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 3"/>
+        <xdr:cNvPr id="35" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3105,7 +3160,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 2"/>
+        <xdr:cNvPr id="36" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3151,7 +3212,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 4"/>
+        <xdr:cNvPr id="38" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3198,7 +3265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 5"/>
+        <xdr:cNvPr id="39" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3245,7 +3318,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 4"/>
+        <xdr:cNvPr id="40" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3292,7 +3371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3330,7 +3415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3368,7 +3459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3406,7 +3503,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3866,15 +3969,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
@@ -3883,33 +3986,33 @@
     <col min="5" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="29" customFormat="1">
       <c r="A1" s="27"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="21">
       <c r="A2" s="7"/>
       <c r="B2" s="30" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="7"/>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
@@ -3918,7 +4021,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="7"/>
       <c r="B6" s="12" t="s">
         <v>9</v>
@@ -3927,17 +4030,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="7"/>
       <c r="B9" s="97" t="s">
         <v>15</v>
@@ -3945,13 +4048,13 @@
       <c r="C9" s="98"/>
       <c r="D9" s="160"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="7"/>
       <c r="B10" s="99"/>
       <c r="C10" s="100"/>
       <c r="D10" s="161"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="7"/>
       <c r="B11" s="99" t="s">
         <v>16</v>
@@ -3961,7 +4064,7 @@
       </c>
       <c r="D11" s="161"/>
     </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="7"/>
       <c r="B12" s="99"/>
       <c r="C12" s="20" t="s">
@@ -3969,7 +4072,7 @@
       </c>
       <c r="D12" s="161"/>
     </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="7"/>
       <c r="B13" s="99"/>
       <c r="C13" s="102" t="s">
@@ -3977,7 +4080,7 @@
       </c>
       <c r="D13" s="161"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="7"/>
       <c r="B14" s="99"/>
       <c r="C14" s="100" t="s">
@@ -3985,13 +4088,13 @@
       </c>
       <c r="D14" s="161"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="7"/>
       <c r="B15" s="99"/>
       <c r="C15" s="100"/>
       <c r="D15" s="161"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="7"/>
       <c r="B16" s="99" t="s">
         <v>21</v>
@@ -4001,7 +4104,7 @@
       </c>
       <c r="D16" s="161"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="7"/>
       <c r="B17" s="99"/>
       <c r="C17" s="104" t="s">
@@ -4009,7 +4112,7 @@
       </c>
       <c r="D17" s="161"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="7"/>
       <c r="B18" s="99"/>
       <c r="C18" s="105" t="s">
@@ -4017,7 +4120,7 @@
       </c>
       <c r="D18" s="161"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="7"/>
       <c r="B19" s="99"/>
       <c r="C19" s="106" t="s">
@@ -4025,7 +4128,7 @@
       </c>
       <c r="D19" s="161"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="7"/>
       <c r="B20" s="107"/>
       <c r="C20" s="108" t="s">
@@ -4033,7 +4136,7 @@
       </c>
       <c r="D20" s="161"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="7"/>
       <c r="B21" s="107"/>
       <c r="C21" s="109" t="s">
@@ -4041,7 +4144,7 @@
       </c>
       <c r="D21" s="161"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="7"/>
       <c r="B22" s="107"/>
       <c r="C22" s="110" t="s">
@@ -4049,14 +4152,14 @@
       </c>
       <c r="D22" s="161"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="B23" s="107"/>
       <c r="C23" s="111" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="161"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="B24" s="162"/>
       <c r="C24" s="163"/>
       <c r="D24" s="164"/>
@@ -4068,17 +4171,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K16"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G4"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -4093,42 +4196,42 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="218" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="220"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="221"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="223"/>
-    </row>
-    <row r="4" spans="2:11" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="224"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="226"/>
-    </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="222" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="223"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="224"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="226"/>
+      <c r="F3" s="226"/>
+      <c r="G3" s="227"/>
+    </row>
+    <row r="4" spans="2:10" ht="64" customHeight="1">
+      <c r="B4" s="228"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="230"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4139,7 +4242,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="112"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4160,7 +4263,7 @@
       </c>
       <c r="J7" s="116"/>
     </row>
-    <row r="8" spans="2:11" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B8" s="25"/>
       <c r="C8" s="20"/>
       <c r="D8" s="33"/>
@@ -4171,10 +4274,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="46"/>
     </row>
-    <row r="9" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4184,7 +4287,7 @@
       <c r="I9" s="20"/>
       <c r="J9" s="46"/>
     </row>
-    <row r="10" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="25"/>
       <c r="C10" s="122" t="s">
         <v>38</v>
@@ -4206,7 +4309,7 @@
       </c>
       <c r="J10" s="46"/>
     </row>
-    <row r="11" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
       <c r="C11" s="131" t="s">
         <v>39</v>
@@ -4222,14 +4325,14 @@
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
       <c r="I11" s="195" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J11" s="46"/>
     </row>
-    <row r="12" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
       <c r="C12" s="165" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>58</v>
@@ -4242,11 +4345,11 @@
       <c r="G12" s="131"/>
       <c r="H12" s="32"/>
       <c r="I12" s="132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
       <c r="C13" s="37" t="s">
         <v>40</v>
@@ -4260,7 +4363,7 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="210" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="215" t="s">
@@ -4268,10 +4371,10 @@
       </c>
       <c r="J13" s="46"/>
     </row>
-    <row r="14" spans="2:11" s="45" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
       <c r="C14" s="205" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>51</v>
@@ -4282,45 +4385,24 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="210" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="215" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41"/>
-      <c r="C15" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="133">
-        <f>'Research data'!G11</f>
-        <v>5269465.2944731945</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="117"/>
-      <c r="K15" s="36"/>
-    </row>
-    <row r="16" spans="2:11" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4332,15 +4414,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
@@ -4355,42 +4437,42 @@
     <col min="11" max="16384" width="10.83203125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="36"/>
       <c r="E1" s="36"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
     </row>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="218" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="219"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="227"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1">
+      <c r="B2" s="222" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="231"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="221"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="228"/>
+    <row r="3" spans="2:10">
+      <c r="B3" s="225"/>
+      <c r="C3" s="226"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="232"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="229"/>
-      <c r="C4" s="230"/>
-      <c r="D4" s="230"/>
-      <c r="E4" s="231"/>
+    <row r="4" spans="2:10">
+      <c r="B4" s="233"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="235"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="39"/>
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
@@ -4401,7 +4483,7 @@
       <c r="I6" s="22"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:10" s="45" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" s="45" customFormat="1" ht="19">
       <c r="B7" s="112"/>
       <c r="C7" s="21" t="s">
         <v>13</v>
@@ -4422,7 +4504,7 @@
       </c>
       <c r="J7" s="116"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="41"/>
       <c r="C8" s="86"/>
       <c r="D8" s="114"/>
@@ -4433,7 +4515,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="117"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="41"/>
       <c r="C9" s="20" t="s">
         <v>37</v>
@@ -4446,10 +4528,10 @@
       <c r="I9" s="36"/>
       <c r="J9" s="117"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="204" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -4459,7 +4541,7 @@
       <c r="I10" s="131"/>
       <c r="J10" s="117"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="134" t="s">
         <v>45</v>
@@ -4468,7 +4550,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="124">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G14</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
@@ -4481,7 +4563,7 @@
       </c>
       <c r="J11" s="117"/>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="134" t="s">
         <v>46</v>
@@ -4490,7 +4572,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="124">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F12" s="37"/>
@@ -4503,7 +4585,7 @@
       </c>
       <c r="J12" s="117"/>
     </row>
-    <row r="13" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="134" t="s">
         <v>50</v>
@@ -4512,7 +4594,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="124">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G16</f>
         <v>2.01E-2</v>
       </c>
       <c r="F13" s="37"/>
@@ -4525,7 +4607,7 @@
       </c>
       <c r="J13" s="117"/>
     </row>
-    <row r="14" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="134" t="s">
         <v>49</v>
@@ -4534,7 +4616,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="124">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G17</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="F14" s="37"/>
@@ -4547,7 +4629,7 @@
       </c>
       <c r="J14" s="117"/>
     </row>
-    <row r="15" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="17" thickBot="1">
       <c r="B15" s="41"/>
       <c r="C15" s="134" t="s">
         <v>40</v>
@@ -4556,7 +4638,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="124">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G18</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
@@ -4569,7 +4651,7 @@
       </c>
       <c r="J15" s="117"/>
     </row>
-    <row r="16" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="134" t="s">
         <v>48</v>
@@ -4578,7 +4660,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="124">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
@@ -4591,7 +4673,7 @@
       </c>
       <c r="J16" s="117"/>
     </row>
-    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="134" t="s">
         <v>47</v>
@@ -4600,7 +4682,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G21</f>
+        <f>'Research data'!G20</f>
         <v>0.2</v>
       </c>
       <c r="F17" s="37"/>
@@ -4613,7 +4695,7 @@
       </c>
       <c r="J17" s="117"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10">
       <c r="B18" s="41"/>
       <c r="C18" s="131"/>
       <c r="D18" s="131"/>
@@ -4624,10 +4706,10 @@
       <c r="I18" s="131"/>
       <c r="J18" s="117"/>
     </row>
-    <row r="19" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="204" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="131"/>
@@ -4637,7 +4719,7 @@
       <c r="I19" s="131"/>
       <c r="J19" s="117"/>
     </row>
-    <row r="20" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="134" t="s">
         <v>45</v>
@@ -4646,7 +4728,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="124">
-        <f>'Research data'!G24</f>
+        <f>'Research data'!G23</f>
         <v>0</v>
       </c>
       <c r="F20" s="37"/>
@@ -4659,7 +4741,7 @@
       </c>
       <c r="J20" s="117"/>
     </row>
-    <row r="21" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="134" t="s">
         <v>46</v>
@@ -4668,7 +4750,7 @@
         <v>51</v>
       </c>
       <c r="E21" s="124">
-        <f>'Research data'!G25</f>
+        <f>'Research data'!G24</f>
         <v>1.47E-2</v>
       </c>
       <c r="F21" s="37"/>
@@ -4681,7 +4763,7 @@
       </c>
       <c r="J21" s="117"/>
     </row>
-    <row r="22" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="134" t="s">
         <v>50</v>
@@ -4690,7 +4772,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="124">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G25</f>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="F22" s="37"/>
@@ -4703,7 +4785,7 @@
       </c>
       <c r="J22" s="117"/>
     </row>
-    <row r="23" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="134" t="s">
         <v>49</v>
@@ -4712,7 +4794,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="124">
-        <f>'Research data'!G27</f>
+        <f>'Research data'!G26</f>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="F23" s="37"/>
@@ -4725,7 +4807,7 @@
       </c>
       <c r="J23" s="117"/>
     </row>
-    <row r="24" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="17" thickBot="1">
       <c r="B24" s="41"/>
       <c r="C24" s="134" t="s">
         <v>40</v>
@@ -4734,7 +4816,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="124">
-        <f>'Research data'!G28</f>
+        <f>'Research data'!G27</f>
         <v>0</v>
       </c>
       <c r="F24" s="37"/>
@@ -4747,7 +4829,7 @@
       </c>
       <c r="J24" s="117"/>
     </row>
-    <row r="25" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="134" t="s">
         <v>48</v>
@@ -4756,7 +4838,7 @@
         <v>51</v>
       </c>
       <c r="E25" s="124">
-        <f>'Research data'!G29</f>
+        <f>'Research data'!G28</f>
         <v>0</v>
       </c>
       <c r="F25" s="37"/>
@@ -4769,7 +4851,7 @@
       </c>
       <c r="J25" s="117"/>
     </row>
-    <row r="26" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="134" t="s">
         <v>47</v>
@@ -4778,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="48">
-        <f>'Research data'!G30</f>
+        <f>'Research data'!G29</f>
         <v>0.8</v>
       </c>
       <c r="F26" s="37"/>
@@ -4791,7 +4873,7 @@
       </c>
       <c r="J26" s="117"/>
     </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="20" customHeight="1" thickBot="1">
       <c r="B27" s="42"/>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -4812,17 +4894,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R37"/>
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="72" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="72" customWidth="1"/>
@@ -4844,8 +4926,8 @@
     <col min="19" max="16384" width="10.83203125" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" ht="17" thickBot="1"/>
+    <row r="2" spans="2:18">
       <c r="B2" s="74"/>
       <c r="C2" s="75"/>
       <c r="D2" s="75"/>
@@ -4864,7 +4946,7 @@
       <c r="Q2" s="76"/>
       <c r="R2" s="77"/>
     </row>
-    <row r="3" spans="2:18" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="26" customFormat="1">
       <c r="B3" s="25"/>
       <c r="C3" s="121" t="s">
         <v>30</v>
@@ -4879,11 +4961,11 @@
       </c>
       <c r="H3" s="121"/>
       <c r="I3" s="69" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
@@ -4891,17 +4973,17 @@
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18">
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="79"/>
@@ -4920,7 +5002,7 @@
       <c r="Q4" s="120"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="78"/>
       <c r="C5" s="20" t="s">
         <v>60</v>
@@ -4941,7 +5023,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="17" thickBot="1">
       <c r="B6" s="78"/>
       <c r="C6" s="135" t="s">
         <v>38</v>
@@ -4968,7 +5050,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="5"/>
       <c r="C7" s="136" t="s">
         <v>39</v>
@@ -5000,13 +5082,13 @@
       <c r="P7" s="208"/>
       <c r="Q7" s="16"/>
       <c r="R7" s="194" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="166" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="136" t="s">
         <v>57</v>
@@ -5036,7 +5118,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
       <c r="C9" s="137" t="s">
         <v>40</v>
@@ -5065,10 +5147,10 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="206" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="137"/>
       <c r="E10" s="137"/>
@@ -5094,31 +5176,17 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18">
       <c r="B11" s="78"/>
-      <c r="C11" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="137" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="133">
-        <f>K11</f>
-        <v>5269465.2944731945</v>
-      </c>
-      <c r="H11" s="85"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
-      <c r="K11" s="133">
-        <f>Notes!F97</f>
-        <v>5269465.2944731945</v>
-      </c>
+      <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -5127,14 +5195,16 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="145"/>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18">
       <c r="B12" s="78"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
+      <c r="C12" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="84"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5146,16 +5216,16 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="145"/>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" ht="17" thickBot="1">
       <c r="B13" s="78"/>
-      <c r="C13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="114"/>
+      <c r="C13" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="131"/>
       <c r="G13" s="114"/>
-      <c r="H13" s="84"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5165,75 +5235,85 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="145"/>
-    </row>
-    <row r="14" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R13" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="78"/>
-      <c r="C14" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="114"/>
+      <c r="C14" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="124">
+        <f>M14</f>
+        <v>0</v>
+      </c>
       <c r="H14" s="85"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
+      <c r="M14" s="124">
+        <f>Notes!H329</f>
+        <v>0</v>
+      </c>
       <c r="N14" s="18"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="82"/>
       <c r="R14" s="145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="78"/>
       <c r="C15" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+        <v>46</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="124">
-        <f>M15</f>
+        <f t="shared" ref="G15:G19" si="0">M15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="85"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="124">
-        <f>Notes!H329</f>
+        <f>Notes!H330</f>
         <v>0</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="82"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="78"/>
       <c r="C16" s="138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+        <v>50</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="124">
-        <f t="shared" ref="G16:G20" si="0">M16</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.01E-2</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5241,8 +5321,8 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="124">
-        <f>Notes!H330</f>
-        <v>0</v>
+        <f>Notes!H331</f>
+        <v>2.01E-2</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -5252,10 +5332,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="78"/>
       <c r="C17" s="138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -5264,7 +5344,7 @@
       </c>
       <c r="G17" s="124">
         <f t="shared" si="0"/>
-        <v>2.01E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5272,8 +5352,8 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="124">
-        <f>Notes!H331</f>
-        <v>2.01E-2</v>
+        <f>Notes!H332</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -5283,44 +5363,44 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="78"/>
       <c r="C18" s="138" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+        <v>40</v>
+      </c>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
       <c r="F18" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="124">
         <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="85"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="124">
-        <f>Notes!H332</f>
-        <v>5.9999999999999995E-4</v>
+        <f>Notes!H333</f>
+        <v>0</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="82"/>
       <c r="R18" s="145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="78"/>
       <c r="C19" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="24" t="s">
         <v>51</v>
       </c>
@@ -5328,13 +5408,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="85"/>
+      <c r="H19" s="18"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="124">
-        <f>Notes!H333</f>
+        <f>Notes!H334</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
@@ -5345,72 +5425,62 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="78"/>
       <c r="C20" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="124">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G20" s="48">
+        <f>M20</f>
+        <v>0.2</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="124">
-        <f>Notes!H334</f>
-        <v>0</v>
+      <c r="M20" s="48">
+        <v>0.2</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="82"/>
       <c r="R20" s="145" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="78"/>
-      <c r="C21" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="48">
-        <f>M21</f>
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="18"/>
+      <c r="C21" s="136"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="48">
-        <v>0.2</v>
-      </c>
+      <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="82"/>
-      <c r="R21" s="145" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="145"/>
+    </row>
+    <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="78"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
+      <c r="C22" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="131"/>
       <c r="G22" s="131"/>
       <c r="H22" s="85"/>
@@ -5418,28 +5488,38 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
+      <c r="M22" s="131"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="145"/>
-    </row>
-    <row r="23" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="80"/>
+      <c r="R22" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="78"/>
-      <c r="C23" s="136" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
+      <c r="C23" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="48">
+        <f>M23</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="85"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="131"/>
+      <c r="M23" s="48">
+        <f>Notes!H346</f>
+        <v>0</v>
+      </c>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -5448,56 +5528,53 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="78"/>
       <c r="C24" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
+        <v>46</v>
+      </c>
       <c r="F24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="48">
-        <f>M24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="85"/>
+      <c r="G24" s="124">
+        <f t="shared" ref="G24:G29" si="1">M24</f>
+        <v>1.47E-2</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="48">
-        <f>Notes!H346</f>
-        <v>0</v>
+      <c r="M24" s="124">
+        <f>Notes!H347</f>
+        <v>1.47E-2</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="80"/>
+      <c r="Q24" s="82"/>
       <c r="R24" s="145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="78"/>
       <c r="C25" s="138" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="124">
-        <f t="shared" ref="G25:G30" si="1">M25</f>
-        <v>1.47E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="124">
-        <f>Notes!H347</f>
-        <v>1.47E-2</v>
+        <f>Notes!H348</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -5507,25 +5584,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="78"/>
       <c r="C26" s="138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="124">
         <f t="shared" si="1"/>
-        <v>9.4000000000000004E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="124">
-        <f>Notes!H348</f>
-        <v>9.4000000000000004E-3</v>
+        <f>Notes!H349</f>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -5535,25 +5612,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="78"/>
       <c r="C27" s="138" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="124">
         <f t="shared" si="1"/>
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="124">
-        <f>Notes!H349</f>
-        <v>6.9999999999999999E-4</v>
+        <f>Notes!H350</f>
+        <v>0</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -5563,10 +5640,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:18" ht="17" thickBot="1">
       <c r="B28" s="78"/>
       <c r="C28" s="138" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>51</v>
@@ -5580,113 +5657,85 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="124">
-        <f>Notes!H350</f>
+        <f>Notes!H351</f>
         <v>0</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="82"/>
+      <c r="Q28" s="85"/>
       <c r="R28" s="145" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="17" thickBot="1">
       <c r="B29" s="78"/>
       <c r="C29" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="124">
+        <v>1</v>
+      </c>
+      <c r="G29" s="48">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="124">
-        <f>Notes!H351</f>
-        <v>0</v>
+      <c r="M29" s="48">
+        <v>0.8</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="145" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="78"/>
-      <c r="C30" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="48">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="48">
-        <v>0.8</v>
-      </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="145" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="92"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="94"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="17" thickBot="1">
+      <c r="B30" s="92"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+    </row>
+    <row r="31" spans="2:18">
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+    </row>
+    <row r="32" spans="2:18">
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:18">
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="15:18">
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
     </row>
-    <row r="35" spans="15:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="15:18">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
     </row>
-    <row r="36" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-    </row>
-    <row r="37" spans="15:18" x14ac:dyDescent="0.2">
-      <c r="R37" s="145"/>
+    <row r="36" spans="15:18">
+      <c r="R36" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5695,8 +5744,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:L22"/>
@@ -5705,7 +5754,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
@@ -5720,8 +5769,8 @@
     <col min="13" max="16384" width="33.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="17" thickBot="1"/>
+    <row r="2" spans="2:12">
       <c r="B2" s="51"/>
       <c r="C2" s="52"/>
       <c r="D2" s="52"/>
@@ -5734,7 +5783,7 @@
       <c r="K2" s="53"/>
       <c r="L2" s="52"/>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12">
       <c r="B3" s="54"/>
       <c r="C3" s="55" t="s">
         <v>11</v>
@@ -5749,7 +5798,7 @@
       <c r="K3" s="56"/>
       <c r="L3" s="57"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12">
       <c r="B4" s="54"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -5762,7 +5811,7 @@
       <c r="K4" s="58"/>
       <c r="L4" s="57"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12">
       <c r="B5" s="59"/>
       <c r="C5" s="60" t="s">
         <v>13</v>
@@ -5791,7 +5840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12">
       <c r="B6" s="54"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
@@ -5804,32 +5853,32 @@
       <c r="K6" s="56"/>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="167" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="139" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>75</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="168" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L7" s="58"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12">
       <c r="B8" s="54"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
@@ -5842,55 +5891,55 @@
       <c r="K8" s="58"/>
       <c r="L8" s="71"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12">
       <c r="B9" s="54"/>
       <c r="C9" s="216" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="63"/>
       <c r="E9" s="207" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F9" s="147"/>
       <c r="G9" s="57" t="s">
         <v>75</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
       <c r="K9" s="217" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L9" s="71"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12">
       <c r="B10" s="54"/>
       <c r="C10" s="150" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="147" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G10" s="57" t="s">
         <v>77</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" s="71"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12">
       <c r="B11" s="54"/>
       <c r="C11" s="62"/>
       <c r="D11" s="67"/>
@@ -5903,7 +5952,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12">
       <c r="B12" s="54"/>
       <c r="C12" s="67"/>
       <c r="D12" s="67"/>
@@ -5916,7 +5965,7 @@
       <c r="K12" s="65"/>
       <c r="L12" s="62"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12">
       <c r="B13" s="54"/>
       <c r="C13" s="62"/>
       <c r="D13" s="67"/>
@@ -5929,7 +5978,7 @@
       <c r="K13" s="65"/>
       <c r="L13" s="62"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12">
       <c r="B14" s="54"/>
       <c r="C14" s="67"/>
       <c r="D14" s="67"/>
@@ -5942,14 +5991,14 @@
       <c r="K14" s="65"/>
       <c r="L14" s="62"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F15" s="147"/>
       <c r="G15" s="62" t="s">
@@ -5967,7 +6016,7 @@
       </c>
       <c r="L15" s="66"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12">
       <c r="B16" s="54"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -5980,7 +6029,7 @@
       <c r="K16" s="68"/>
       <c r="L16" s="66"/>
     </row>
-    <row r="17" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="21">
       <c r="B17" s="54"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -5992,17 +6041,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="68"/>
       <c r="L17" s="151" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
       <c r="B18" s="54"/>
       <c r="C18" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -6011,39 +6060,39 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F19" s="149"/>
       <c r="L19" s="178" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="B20" s="54"/>
       <c r="C20" s="67"/>
       <c r="E20" s="149"/>
       <c r="F20" s="149"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:12">
       <c r="B21" s="54"/>
       <c r="C21" s="130"/>
       <c r="E21" s="149"/>
       <c r="F21" s="149"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12">
       <c r="B22" s="54"/>
       <c r="E22" s="149"/>
       <c r="F22" s="149"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L19" r:id="rId1"/>
+    <hyperlink ref="L19" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6051,14 +6100,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI631"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A570" workbookViewId="0">
+    <sheetView topLeftCell="A570" workbookViewId="0">
       <selection activeCell="F528" sqref="F528"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5" style="125" customWidth="1"/>
     <col min="2" max="2" width="5" style="125" customWidth="1"/>
@@ -6069,8 +6118,8 @@
     <col min="9" max="16384" width="7" style="125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25" ht="17" thickBot="1"/>
+    <row r="2" spans="2:25" s="26" customFormat="1">
       <c r="B2" s="128"/>
       <c r="C2" s="129" t="s">
         <v>25</v>
@@ -6098,7 +6147,7 @@
       <c r="T2" s="129"/>
       <c r="U2" s="129"/>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:25">
       <c r="B3" s="126"/>
       <c r="C3" s="127"/>
       <c r="D3" s="127"/>
@@ -6120,7 +6169,7 @@
       <c r="T3" s="127"/>
       <c r="U3" s="127"/>
     </row>
-    <row r="4" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="126"/>
       <c r="C4" s="139" t="s">
         <v>63</v>
@@ -6148,7 +6197,7 @@
       <c r="X4" s="139"/>
       <c r="Y4" s="139"/>
     </row>
-    <row r="5" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:25" customFormat="1">
       <c r="B5" s="126"/>
       <c r="C5" s="139"/>
       <c r="D5" s="139"/>
@@ -6174,7 +6223,7 @@
       <c r="X5" s="139"/>
       <c r="Y5" s="139"/>
     </row>
-    <row r="6" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25" customFormat="1">
       <c r="B6" s="126"/>
       <c r="C6" s="139"/>
       <c r="D6" s="139"/>
@@ -6200,7 +6249,7 @@
       <c r="X6" s="139"/>
       <c r="Y6" s="139"/>
     </row>
-    <row r="7" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" customFormat="1">
       <c r="B7" s="126"/>
       <c r="C7" s="139"/>
       <c r="D7" s="139"/>
@@ -6226,7 +6275,7 @@
       <c r="X7" s="139"/>
       <c r="Y7" s="139"/>
     </row>
-    <row r="8" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" customFormat="1">
       <c r="B8" s="126"/>
       <c r="C8" s="139"/>
       <c r="D8" s="139">
@@ -6259,7 +6308,7 @@
       <c r="X8" s="139"/>
       <c r="Y8" s="139"/>
     </row>
-    <row r="9" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" customFormat="1">
       <c r="B9" s="126"/>
       <c r="C9" s="139"/>
       <c r="D9" s="139"/>
@@ -6290,7 +6339,7 @@
       <c r="X9" s="139"/>
       <c r="Y9" s="139"/>
     </row>
-    <row r="10" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" customFormat="1">
       <c r="B10" s="126"/>
       <c r="C10" s="139"/>
       <c r="D10" s="139"/>
@@ -6322,7 +6371,7 @@
       <c r="X10" s="139"/>
       <c r="Y10" s="139"/>
     </row>
-    <row r="11" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" customFormat="1">
       <c r="B11" s="126"/>
       <c r="C11" s="139"/>
       <c r="D11" s="139"/>
@@ -6354,7 +6403,7 @@
       <c r="X11" s="139"/>
       <c r="Y11" s="139"/>
     </row>
-    <row r="12" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" customFormat="1">
       <c r="B12" s="126"/>
       <c r="C12" s="139"/>
       <c r="D12" s="139"/>
@@ -6380,7 +6429,7 @@
       <c r="X12" s="139"/>
       <c r="Y12" s="139"/>
     </row>
-    <row r="13" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" customFormat="1">
       <c r="B13" s="126"/>
       <c r="C13" s="139"/>
       <c r="D13" s="139"/>
@@ -6406,7 +6455,7 @@
       <c r="X13" s="139"/>
       <c r="Y13" s="139"/>
     </row>
-    <row r="14" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" customFormat="1">
       <c r="B14" s="126"/>
       <c r="C14" s="139"/>
       <c r="D14" s="139"/>
@@ -6432,7 +6481,7 @@
       <c r="X14" s="139"/>
       <c r="Y14" s="139"/>
     </row>
-    <row r="15" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" customFormat="1">
       <c r="B15" s="126"/>
       <c r="C15" s="139"/>
       <c r="D15" s="139"/>
@@ -6458,7 +6507,7 @@
       <c r="X15" s="139"/>
       <c r="Y15" s="139"/>
     </row>
-    <row r="16" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" customFormat="1">
       <c r="B16" s="126"/>
       <c r="C16" s="139"/>
       <c r="D16" s="139"/>
@@ -6484,7 +6533,7 @@
       <c r="X16" s="139"/>
       <c r="Y16" s="139"/>
     </row>
-    <row r="17" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:25" customFormat="1">
       <c r="B17" s="126"/>
       <c r="C17" s="139"/>
       <c r="D17" s="139"/>
@@ -6510,7 +6559,7 @@
       <c r="X17" s="139"/>
       <c r="Y17" s="139"/>
     </row>
-    <row r="18" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:25" customFormat="1">
       <c r="B18" s="126"/>
       <c r="C18" s="139"/>
       <c r="D18" s="139"/>
@@ -6536,7 +6585,7 @@
       <c r="X18" s="139"/>
       <c r="Y18" s="139"/>
     </row>
-    <row r="19" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:25" customFormat="1">
       <c r="B19" s="126"/>
       <c r="C19" s="139"/>
       <c r="D19" s="139"/>
@@ -6562,7 +6611,7 @@
       <c r="X19" s="139"/>
       <c r="Y19" s="139"/>
     </row>
-    <row r="20" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:25" customFormat="1">
       <c r="B20" s="126"/>
       <c r="C20" s="139"/>
       <c r="D20" s="139"/>
@@ -6588,7 +6637,7 @@
       <c r="X20" s="139"/>
       <c r="Y20" s="139"/>
     </row>
-    <row r="21" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:25" customFormat="1">
       <c r="B21" s="126"/>
       <c r="C21" s="139"/>
       <c r="D21" s="139"/>
@@ -6614,7 +6663,7 @@
       <c r="X21" s="139"/>
       <c r="Y21" s="139"/>
     </row>
-    <row r="22" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:25" customFormat="1">
       <c r="B22" s="126"/>
       <c r="C22" s="139"/>
       <c r="D22" s="139"/>
@@ -6640,7 +6689,7 @@
       <c r="X22" s="139"/>
       <c r="Y22" s="139"/>
     </row>
-    <row r="23" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:25" customFormat="1">
       <c r="B23" s="126"/>
       <c r="C23" s="139"/>
       <c r="D23" s="139"/>
@@ -6666,7 +6715,7 @@
       <c r="X23" s="139"/>
       <c r="Y23" s="139"/>
     </row>
-    <row r="24" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:25" customFormat="1">
       <c r="B24" s="126"/>
       <c r="C24" s="139"/>
       <c r="D24" s="139"/>
@@ -6692,7 +6741,7 @@
       <c r="X24" s="139"/>
       <c r="Y24" s="139"/>
     </row>
-    <row r="25" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:25" customFormat="1">
       <c r="B25" s="126"/>
       <c r="C25" s="139"/>
       <c r="D25" s="139"/>
@@ -6718,7 +6767,7 @@
       <c r="X25" s="139"/>
       <c r="Y25" s="139"/>
     </row>
-    <row r="26" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:25" customFormat="1">
       <c r="B26" s="126"/>
       <c r="C26" s="139"/>
       <c r="D26" s="139"/>
@@ -6744,7 +6793,7 @@
       <c r="X26" s="139"/>
       <c r="Y26" s="139"/>
     </row>
-    <row r="27" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:25" customFormat="1">
       <c r="B27" s="126"/>
       <c r="C27" s="139"/>
       <c r="D27" s="139"/>
@@ -6770,7 +6819,7 @@
       <c r="X27" s="139"/>
       <c r="Y27" s="139"/>
     </row>
-    <row r="28" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:25" customFormat="1">
       <c r="B28" s="126"/>
       <c r="C28" s="139"/>
       <c r="D28" s="139"/>
@@ -6796,106 +6845,106 @@
       <c r="X28" s="139"/>
       <c r="Y28" s="139"/>
     </row>
-    <row r="29" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:25" customFormat="1">
       <c r="B29" s="126"/>
     </row>
-    <row r="30" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:25" customFormat="1">
       <c r="B30" s="126"/>
     </row>
-    <row r="31" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:25" customFormat="1">
       <c r="B31" s="126"/>
     </row>
-    <row r="32" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:25" customFormat="1">
       <c r="B32" s="126"/>
     </row>
-    <row r="33" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" customFormat="1">
       <c r="B33" s="126"/>
     </row>
-    <row r="34" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" customFormat="1">
       <c r="B34" s="126"/>
     </row>
-    <row r="35" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" customFormat="1">
       <c r="B35" s="126"/>
     </row>
-    <row r="36" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" customFormat="1">
       <c r="B36" s="126"/>
     </row>
-    <row r="37" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" customFormat="1">
       <c r="B37" s="126"/>
     </row>
-    <row r="38" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:2" customFormat="1">
       <c r="B38" s="126"/>
     </row>
-    <row r="39" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:2" customFormat="1">
       <c r="B39" s="126"/>
     </row>
-    <row r="40" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" customFormat="1">
       <c r="B40" s="126"/>
     </row>
-    <row r="41" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:2" customFormat="1">
       <c r="B41" s="126"/>
     </row>
-    <row r="42" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:2" customFormat="1">
       <c r="B42" s="126"/>
     </row>
-    <row r="43" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" customFormat="1">
       <c r="B43" s="126"/>
     </row>
-    <row r="44" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" customFormat="1">
       <c r="B44" s="126"/>
     </row>
-    <row r="45" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:2" customFormat="1">
       <c r="B45" s="126"/>
     </row>
-    <row r="46" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:2" customFormat="1">
       <c r="B46" s="126"/>
     </row>
-    <row r="47" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:2" customFormat="1">
       <c r="B47" s="126"/>
     </row>
-    <row r="48" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:2" customFormat="1">
       <c r="B48" s="126"/>
     </row>
-    <row r="49" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:25" customFormat="1">
       <c r="B49" s="126"/>
     </row>
-    <row r="50" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:25" customFormat="1">
       <c r="B50" s="126"/>
     </row>
-    <row r="51" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:25" customFormat="1">
       <c r="B51" s="126"/>
     </row>
-    <row r="52" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:25" customFormat="1">
       <c r="B52" s="126"/>
     </row>
-    <row r="53" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:25" customFormat="1">
       <c r="B53" s="126"/>
     </row>
-    <row r="54" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:25" customFormat="1">
       <c r="B54" s="126"/>
     </row>
-    <row r="55" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:25" customFormat="1">
       <c r="B55" s="126"/>
     </row>
-    <row r="56" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:25" customFormat="1">
       <c r="B56" s="126"/>
     </row>
-    <row r="57" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:25" customFormat="1">
       <c r="B57" s="126"/>
     </row>
-    <row r="58" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:25" customFormat="1">
       <c r="B58" s="126"/>
     </row>
-    <row r="59" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:25" customFormat="1">
       <c r="B59" s="126"/>
     </row>
-    <row r="60" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:25" customFormat="1">
       <c r="B60" s="126"/>
     </row>
-    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B61" s="126"/>
     </row>
-    <row r="62" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:25" s="26" customFormat="1">
       <c r="B62" s="129"/>
       <c r="C62" s="129" t="s">
         <v>25</v>
@@ -6923,7 +6972,7 @@
       <c r="T62" s="129"/>
       <c r="U62" s="129"/>
     </row>
-    <row r="63" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:25" customFormat="1">
       <c r="B63" s="126"/>
       <c r="C63" s="139"/>
       <c r="D63" s="139"/>
@@ -6949,10 +6998,10 @@
       <c r="X63" s="139"/>
       <c r="Y63" s="139"/>
     </row>
-    <row r="64" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:25" customFormat="1">
       <c r="B64" s="126"/>
       <c r="C64" s="139" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
@@ -6977,7 +7026,7 @@
       <c r="X64" s="139"/>
       <c r="Y64" s="139"/>
     </row>
-    <row r="65" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:25" customFormat="1">
       <c r="B65" s="126"/>
       <c r="C65" s="139"/>
       <c r="D65" s="139"/>
@@ -7003,7 +7052,7 @@
       <c r="X65" s="139"/>
       <c r="Y65" s="139"/>
     </row>
-    <row r="66" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:25" customFormat="1">
       <c r="B66" s="126"/>
       <c r="C66" s="139"/>
       <c r="D66" s="139">
@@ -7031,7 +7080,7 @@
       <c r="X66" s="139"/>
       <c r="Y66" s="139"/>
     </row>
-    <row r="67" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" customFormat="1">
       <c r="B67" s="126"/>
       <c r="C67" s="139"/>
       <c r="D67" s="139"/>
@@ -7057,7 +7106,7 @@
       <c r="X67" s="139"/>
       <c r="Y67" s="139"/>
     </row>
-    <row r="68" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:25" customFormat="1">
       <c r="B68" s="126"/>
       <c r="C68" s="139"/>
       <c r="D68" s="139"/>
@@ -7083,7 +7132,7 @@
       <c r="X68" s="139"/>
       <c r="Y68" s="139"/>
     </row>
-    <row r="69" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:25" customFormat="1">
       <c r="B69" s="126"/>
       <c r="C69" s="139"/>
       <c r="D69" s="139"/>
@@ -7109,7 +7158,7 @@
       <c r="X69" s="139"/>
       <c r="Y69" s="139"/>
     </row>
-    <row r="70" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:25" customFormat="1">
       <c r="B70" s="126"/>
       <c r="C70" s="139"/>
       <c r="D70" s="139"/>
@@ -7135,7 +7184,7 @@
       <c r="X70" s="139"/>
       <c r="Y70" s="139"/>
     </row>
-    <row r="71" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" customFormat="1">
       <c r="B71" s="126"/>
       <c r="C71" s="139"/>
       <c r="D71" s="139">
@@ -7163,11 +7212,11 @@
       <c r="X71" s="139"/>
       <c r="Y71" s="139"/>
     </row>
-    <row r="72" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:25" customFormat="1">
       <c r="B72" s="126"/>
       <c r="C72" s="139"/>
       <c r="D72" s="155" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E72" s="139"/>
       <c r="F72" s="139"/>
@@ -7191,7 +7240,7 @@
       <c r="X72" s="139"/>
       <c r="Y72" s="139"/>
     </row>
-    <row r="73" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" customFormat="1">
       <c r="B73" s="126"/>
       <c r="C73" s="139"/>
       <c r="D73" s="139"/>
@@ -7217,7 +7266,7 @@
       <c r="X73" s="139"/>
       <c r="Y73" s="139"/>
     </row>
-    <row r="74" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:25" customFormat="1">
       <c r="B74" s="126"/>
       <c r="C74" s="139"/>
       <c r="D74" s="139"/>
@@ -7243,7 +7292,7 @@
       <c r="X74" s="139"/>
       <c r="Y74" s="139"/>
     </row>
-    <row r="75" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:25" customFormat="1">
       <c r="B75" s="126"/>
       <c r="C75" s="139"/>
       <c r="D75" s="139"/>
@@ -7269,7 +7318,7 @@
       <c r="X75" s="139"/>
       <c r="Y75" s="139"/>
     </row>
-    <row r="76" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:25" customFormat="1">
       <c r="B76" s="126"/>
       <c r="C76" s="139"/>
       <c r="D76" s="139"/>
@@ -7295,7 +7344,7 @@
       <c r="X76" s="139"/>
       <c r="Y76" s="139"/>
     </row>
-    <row r="77" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" customFormat="1">
       <c r="B77" s="126"/>
       <c r="C77" s="139"/>
       <c r="D77" s="139"/>
@@ -7321,7 +7370,7 @@
       <c r="X77" s="139"/>
       <c r="Y77" s="139"/>
     </row>
-    <row r="78" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:25" customFormat="1">
       <c r="B78" s="126"/>
       <c r="C78" s="139"/>
       <c r="D78" s="139"/>
@@ -7347,7 +7396,7 @@
       <c r="X78" s="139"/>
       <c r="Y78" s="139"/>
     </row>
-    <row r="79" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:25" customFormat="1">
       <c r="B79" s="126"/>
       <c r="C79" s="139"/>
       <c r="D79" s="139"/>
@@ -7373,7 +7422,7 @@
       <c r="X79" s="139"/>
       <c r="Y79" s="139"/>
     </row>
-    <row r="80" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" customFormat="1">
       <c r="B80" s="126"/>
       <c r="C80" s="139"/>
       <c r="D80" s="139"/>
@@ -7399,7 +7448,7 @@
       <c r="X80" s="139"/>
       <c r="Y80" s="139"/>
     </row>
-    <row r="81" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" customFormat="1">
       <c r="B81" s="126"/>
       <c r="C81" s="139"/>
       <c r="D81" s="139"/>
@@ -7425,7 +7474,7 @@
       <c r="X81" s="139"/>
       <c r="Y81" s="139"/>
     </row>
-    <row r="82" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" customFormat="1">
       <c r="B82" s="126"/>
       <c r="C82" s="139"/>
       <c r="D82" s="139"/>
@@ -7451,7 +7500,7 @@
       <c r="X82" s="139"/>
       <c r="Y82" s="139"/>
     </row>
-    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" customFormat="1">
       <c r="B83" s="126"/>
       <c r="C83" s="139"/>
       <c r="D83" s="139"/>
@@ -7477,7 +7526,7 @@
       <c r="X83" s="139"/>
       <c r="Y83" s="139"/>
     </row>
-    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" customFormat="1">
       <c r="B84" s="126"/>
       <c r="C84" s="139"/>
       <c r="D84" s="139"/>
@@ -7503,7 +7552,7 @@
       <c r="X84" s="139"/>
       <c r="Y84" s="139"/>
     </row>
-    <row r="85" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" customFormat="1">
       <c r="B85" s="126"/>
       <c r="C85" s="139"/>
       <c r="D85" s="125"/>
@@ -7529,7 +7578,7 @@
       <c r="X85" s="139"/>
       <c r="Y85" s="139"/>
     </row>
-    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" customFormat="1">
       <c r="B86" s="126"/>
       <c r="C86" s="139"/>
       <c r="D86" s="139"/>
@@ -7555,7 +7604,7 @@
       <c r="X86" s="139"/>
       <c r="Y86" s="139"/>
     </row>
-    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" customFormat="1">
       <c r="B87" s="126"/>
       <c r="C87" s="139"/>
       <c r="D87" s="139">
@@ -7583,7 +7632,7 @@
       <c r="X87" s="139"/>
       <c r="Y87" s="139"/>
     </row>
-    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" customFormat="1">
       <c r="B88" s="126"/>
       <c r="C88" s="139"/>
       <c r="D88" s="139"/>
@@ -7609,7 +7658,7 @@
       <c r="X88" s="139"/>
       <c r="Y88" s="139"/>
     </row>
-    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" customFormat="1">
       <c r="B89" s="126"/>
       <c r="C89" s="139"/>
       <c r="D89" s="139"/>
@@ -7635,7 +7684,7 @@
       <c r="X89" s="139"/>
       <c r="Y89" s="139"/>
     </row>
-    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" customFormat="1">
       <c r="B90" s="126"/>
       <c r="C90" s="139"/>
       <c r="D90" s="139"/>
@@ -7658,12 +7707,12 @@
       <c r="X90" s="139"/>
       <c r="Y90" s="139"/>
     </row>
-    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" customFormat="1">
       <c r="B91" s="126"/>
       <c r="C91" s="139"/>
       <c r="D91" s="139"/>
       <c r="E91" s="142" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
@@ -7681,7 +7730,7 @@
       <c r="X91" s="139"/>
       <c r="Y91" s="139"/>
     </row>
-    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" customFormat="1">
       <c r="B92" s="126"/>
       <c r="C92" s="139"/>
       <c r="D92" s="139"/>
@@ -7690,10 +7739,10 @@
         <v>1600</v>
       </c>
       <c r="G92" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" s="139" t="s">
         <v>93</v>
-      </c>
-      <c r="H92" s="139" t="s">
-        <v>94</v>
       </c>
       <c r="K92" s="139"/>
       <c r="O92" s="139"/>
@@ -7708,27 +7757,27 @@
       <c r="X92" s="139"/>
       <c r="Y92" s="139"/>
     </row>
-    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" customFormat="1">
       <c r="B93" s="126"/>
       <c r="C93" s="139"/>
       <c r="D93" s="139"/>
       <c r="E93" s="139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F93" s="139">
         <v>4.5</v>
       </c>
       <c r="G93" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="H93" s="139" t="s">
         <v>96</v>
-      </c>
-      <c r="H93" s="139" t="s">
-        <v>97</v>
       </c>
       <c r="I93" s="139">
         <v>1485</v>
       </c>
       <c r="J93" s="139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K93" s="139"/>
       <c r="L93" s="139"/>
@@ -7746,22 +7795,22 @@
       <c r="X93" s="139"/>
       <c r="Y93" s="139"/>
     </row>
-    <row r="94" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" customFormat="1">
       <c r="A94" s="139"/>
       <c r="B94" s="126"/>
       <c r="C94" s="139"/>
       <c r="D94" s="139"/>
       <c r="E94" s="139" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F94" s="139">
         <v>3.25</v>
       </c>
       <c r="G94" s="139" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94" s="139" t="s">
         <v>100</v>
-      </c>
-      <c r="H94" s="139" t="s">
-        <v>101</v>
       </c>
       <c r="K94" s="139"/>
       <c r="L94" s="139"/>
@@ -7778,7 +7827,7 @@
       <c r="W94" s="139"/>
       <c r="X94" s="139"/>
     </row>
-    <row r="95" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" customFormat="1">
       <c r="A95" s="139"/>
       <c r="B95" s="126"/>
       <c r="C95" s="139"/>
@@ -7802,7 +7851,7 @@
       <c r="W95" s="139"/>
       <c r="X95" s="139"/>
     </row>
-    <row r="96" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" customFormat="1">
       <c r="A96" s="139"/>
       <c r="B96" s="126"/>
       <c r="C96" s="139"/>
@@ -7813,7 +7862,7 @@
         <v>160000</v>
       </c>
       <c r="G96" s="139" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H96" s="139"/>
       <c r="K96" s="139"/>
@@ -7831,7 +7880,7 @@
       <c r="W96" s="139"/>
       <c r="X96" s="139"/>
     </row>
-    <row r="97" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" customFormat="1">
       <c r="A97" s="139"/>
       <c r="B97" s="126"/>
       <c r="C97" s="139"/>
@@ -7860,7 +7909,7 @@
       <c r="W97" s="139"/>
       <c r="X97" s="139"/>
     </row>
-    <row r="98" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" customFormat="1">
       <c r="A98" s="139"/>
       <c r="B98" s="126"/>
       <c r="C98" s="139"/>
@@ -7884,7 +7933,7 @@
       <c r="W98" s="139"/>
       <c r="X98" s="139"/>
     </row>
-    <row r="99" spans="1:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:25" customFormat="1" ht="17" thickBot="1">
       <c r="A99" s="139"/>
       <c r="B99" s="126"/>
       <c r="C99" s="139"/>
@@ -7910,7 +7959,7 @@
       <c r="W99" s="139"/>
       <c r="X99" s="139"/>
     </row>
-    <row r="100" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" s="26" customFormat="1">
       <c r="B100" s="129"/>
       <c r="C100" s="129" t="s">
         <v>25</v>
@@ -7938,7 +7987,7 @@
       <c r="T100" s="129"/>
       <c r="U100" s="129"/>
     </row>
-    <row r="101" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" customFormat="1">
       <c r="B101" s="126"/>
       <c r="C101" s="139"/>
       <c r="D101" s="139"/>
@@ -7964,10 +8013,10 @@
       <c r="X101" s="139"/>
       <c r="Y101" s="139"/>
     </row>
-    <row r="102" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" customFormat="1">
       <c r="B102" s="126"/>
       <c r="C102" s="139" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D102" s="139"/>
       <c r="E102" s="139"/>
@@ -7992,12 +8041,12 @@
       <c r="X102" s="139"/>
       <c r="Y102" s="139"/>
     </row>
-    <row r="103" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" customFormat="1">
       <c r="B103" s="126"/>
       <c r="C103" s="139"/>
       <c r="D103" s="139"/>
       <c r="F103" s="142" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G103" s="139"/>
       <c r="H103" s="139"/>
@@ -8019,7 +8068,7 @@
       <c r="X103" s="139"/>
       <c r="Y103" s="139"/>
     </row>
-    <row r="104" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" customFormat="1">
       <c r="B104" s="126"/>
       <c r="C104" s="139"/>
       <c r="D104" s="139"/>
@@ -8030,10 +8079,10 @@
         <v>200000</v>
       </c>
       <c r="H104" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="I104" s="139" t="s">
         <v>104</v>
-      </c>
-      <c r="I104" s="139" t="s">
-        <v>105</v>
       </c>
       <c r="J104" s="139"/>
       <c r="K104" s="139"/>
@@ -8052,7 +8101,7 @@
       <c r="X104" s="139"/>
       <c r="Y104" s="139"/>
     </row>
-    <row r="105" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" customFormat="1">
       <c r="B105" s="126"/>
       <c r="C105" s="139"/>
       <c r="D105" s="139"/>
@@ -8061,17 +8110,17 @@
       </c>
       <c r="G105" s="139"/>
       <c r="H105" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I105" s="139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J105" s="139"/>
       <c r="K105" s="139">
         <v>3.78541178</v>
       </c>
       <c r="L105" s="139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M105" s="139"/>
       <c r="N105" s="139"/>
@@ -8087,7 +8136,7 @@
       <c r="X105" s="139"/>
       <c r="Y105" s="139"/>
     </row>
-    <row r="106" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" customFormat="1">
       <c r="B106" s="126"/>
       <c r="C106" s="139"/>
       <c r="D106" s="139"/>
@@ -8097,10 +8146,10 @@
       </c>
       <c r="G106" s="139"/>
       <c r="H106" s="139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I106" s="139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J106" s="139"/>
       <c r="K106" s="143"/>
@@ -8119,7 +8168,7 @@
       <c r="X106" s="139"/>
       <c r="Y106" s="139"/>
     </row>
-    <row r="107" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" customFormat="1">
       <c r="B107" s="126"/>
       <c r="C107" s="139"/>
       <c r="D107" s="139"/>
@@ -8129,10 +8178,10 @@
       </c>
       <c r="G107" s="139"/>
       <c r="H107" s="139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I107" s="139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J107" s="139"/>
       <c r="K107" s="139"/>
@@ -8151,7 +8200,7 @@
       <c r="X107" s="139"/>
       <c r="Y107" s="139"/>
     </row>
-    <row r="108" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" customFormat="1">
       <c r="B108" s="126"/>
       <c r="C108" s="139"/>
       <c r="D108" s="139"/>
@@ -8178,7 +8227,7 @@
       <c r="X108" s="139"/>
       <c r="Y108" s="139"/>
     </row>
-    <row r="109" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" customFormat="1">
       <c r="B109" s="126"/>
       <c r="C109" s="139"/>
       <c r="D109" s="139"/>
@@ -8204,7 +8253,7 @@
       <c r="X109" s="139"/>
       <c r="Y109" s="139"/>
     </row>
-    <row r="110" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" customFormat="1">
       <c r="B110" s="126"/>
       <c r="C110" s="139"/>
       <c r="D110" s="139"/>
@@ -8230,18 +8279,18 @@
       <c r="X110" s="139"/>
       <c r="Y110" s="139"/>
     </row>
-    <row r="111" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" customFormat="1">
       <c r="B111" s="126"/>
       <c r="C111" s="139"/>
       <c r="D111" s="139"/>
       <c r="E111" s="139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F111" s="139">
         <v>118170</v>
       </c>
       <c r="G111" s="139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H111" s="139"/>
       <c r="I111" s="139"/>
@@ -8262,7 +8311,7 @@
       <c r="X111" s="139"/>
       <c r="Y111" s="139"/>
     </row>
-    <row r="112" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" customFormat="1">
       <c r="B112" s="126"/>
       <c r="C112" s="139"/>
       <c r="D112" s="139"/>
@@ -8293,7 +8342,7 @@
       <c r="X112" s="139"/>
       <c r="Y112" s="139"/>
     </row>
-    <row r="113" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:25" customFormat="1">
       <c r="B113" s="126"/>
       <c r="C113" s="139"/>
       <c r="D113" s="139"/>
@@ -8303,7 +8352,7 @@
         <v>124.66934999999999</v>
       </c>
       <c r="G113" s="139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H113" s="139"/>
       <c r="I113" s="139"/>
@@ -8324,7 +8373,7 @@
       <c r="X113" s="139"/>
       <c r="Y113" s="139"/>
     </row>
-    <row r="114" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:25" customFormat="1">
       <c r="B114" s="126"/>
       <c r="C114" s="139"/>
       <c r="D114" s="139"/>
@@ -8355,7 +8404,7 @@
       <c r="X114" s="139"/>
       <c r="Y114" s="139"/>
     </row>
-    <row r="115" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:25" customFormat="1">
       <c r="B115" s="126"/>
       <c r="C115" s="139"/>
       <c r="D115" s="139"/>
@@ -8381,7 +8430,7 @@
       <c r="X115" s="139"/>
       <c r="Y115" s="139"/>
     </row>
-    <row r="116" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:25" customFormat="1">
       <c r="B116" s="126"/>
       <c r="C116" s="139"/>
       <c r="D116" s="139"/>
@@ -8407,7 +8456,7 @@
       <c r="X116" s="139"/>
       <c r="Y116" s="139"/>
     </row>
-    <row r="117" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:25" customFormat="1">
       <c r="B117" s="126"/>
       <c r="C117" s="139"/>
       <c r="D117" s="139"/>
@@ -8433,18 +8482,18 @@
       <c r="X117" s="139"/>
       <c r="Y117" s="139"/>
     </row>
-    <row r="118" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:25" customFormat="1">
       <c r="B118" s="126"/>
       <c r="C118" s="139"/>
       <c r="D118" s="139"/>
       <c r="E118" s="139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F118" s="139">
         <v>127042</v>
       </c>
       <c r="G118" s="139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H118" s="139"/>
       <c r="I118" s="139"/>
@@ -8465,7 +8514,7 @@
       <c r="X118" s="139"/>
       <c r="Y118" s="139"/>
     </row>
-    <row r="119" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:25" customFormat="1">
       <c r="B119" s="126"/>
       <c r="C119" s="139"/>
       <c r="D119" s="139"/>
@@ -8496,7 +8545,7 @@
       <c r="X119" s="139"/>
       <c r="Y119" s="139"/>
     </row>
-    <row r="120" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:25" customFormat="1">
       <c r="B120" s="126"/>
       <c r="C120" s="139"/>
       <c r="D120" s="139"/>
@@ -8506,7 +8555,7 @@
         <v>134.02931000000001</v>
       </c>
       <c r="G120" s="139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H120" s="139"/>
       <c r="I120" s="139"/>
@@ -8527,7 +8576,7 @@
       <c r="X120" s="139"/>
       <c r="Y120" s="139"/>
     </row>
-    <row r="121" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:25" customFormat="1">
       <c r="B121" s="126"/>
       <c r="C121" s="139"/>
       <c r="D121" s="139"/>
@@ -8558,7 +8607,7 @@
       <c r="X121" s="139"/>
       <c r="Y121" s="139"/>
     </row>
-    <row r="122" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:25" customFormat="1">
       <c r="B122" s="126"/>
       <c r="C122" s="139"/>
       <c r="D122" s="139"/>
@@ -8584,7 +8633,7 @@
       <c r="X122" s="139"/>
       <c r="Y122" s="139"/>
     </row>
-    <row r="123" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:25" customFormat="1">
       <c r="B123" s="126"/>
       <c r="C123" s="139"/>
       <c r="D123" s="139"/>
@@ -8610,7 +8659,7 @@
       <c r="X123" s="139"/>
       <c r="Y123" s="139"/>
     </row>
-    <row r="124" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:25" customFormat="1">
       <c r="B124" s="126"/>
       <c r="C124" s="139"/>
       <c r="D124" s="139"/>
@@ -8636,7 +8685,7 @@
       <c r="X124" s="139"/>
       <c r="Y124" s="139"/>
     </row>
-    <row r="125" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:25" customFormat="1">
       <c r="B125" s="126"/>
       <c r="C125" s="139"/>
       <c r="D125" s="139"/>
@@ -8662,7 +8711,7 @@
       <c r="X125" s="139"/>
       <c r="Y125" s="139"/>
     </row>
-    <row r="126" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:25" customFormat="1">
       <c r="B126" s="126"/>
       <c r="C126" s="139"/>
       <c r="D126" s="139"/>
@@ -8688,7 +8737,7 @@
       <c r="X126" s="139"/>
       <c r="Y126" s="139"/>
     </row>
-    <row r="127" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:25" customFormat="1">
       <c r="B127" s="126"/>
       <c r="C127" s="139"/>
       <c r="D127" s="139"/>
@@ -8714,7 +8763,7 @@
       <c r="X127" s="139"/>
       <c r="Y127" s="139"/>
     </row>
-    <row r="128" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:25" customFormat="1">
       <c r="B128" s="126"/>
       <c r="C128" s="139"/>
       <c r="D128" s="139"/>
@@ -8740,7 +8789,7 @@
       <c r="X128" s="139"/>
       <c r="Y128" s="139"/>
     </row>
-    <row r="129" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:25" customFormat="1">
       <c r="B129" s="126"/>
       <c r="C129" s="139"/>
       <c r="D129" s="139"/>
@@ -8766,7 +8815,7 @@
       <c r="X129" s="139"/>
       <c r="Y129" s="139"/>
     </row>
-    <row r="130" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:25" customFormat="1">
       <c r="B130" s="126"/>
       <c r="C130" s="139"/>
       <c r="D130" s="139"/>
@@ -8792,7 +8841,7 @@
       <c r="X130" s="139"/>
       <c r="Y130" s="139"/>
     </row>
-    <row r="131" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:25" customFormat="1">
       <c r="B131" s="126"/>
       <c r="C131" s="139"/>
       <c r="D131" s="139"/>
@@ -8818,7 +8867,7 @@
       <c r="X131" s="139"/>
       <c r="Y131" s="139"/>
     </row>
-    <row r="132" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:25" customFormat="1">
       <c r="B132" s="126"/>
       <c r="C132" s="139"/>
       <c r="D132" s="139"/>
@@ -8844,7 +8893,7 @@
       <c r="X132" s="139"/>
       <c r="Y132" s="139"/>
     </row>
-    <row r="133" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:25" customFormat="1">
       <c r="B133" s="126"/>
       <c r="C133" s="139"/>
       <c r="D133" s="139"/>
@@ -8870,7 +8919,7 @@
       <c r="X133" s="139"/>
       <c r="Y133" s="139"/>
     </row>
-    <row r="134" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:25" customFormat="1">
       <c r="B134" s="126"/>
       <c r="C134" s="139"/>
       <c r="D134" s="139"/>
@@ -8896,7 +8945,7 @@
       <c r="X134" s="139"/>
       <c r="Y134" s="139"/>
     </row>
-    <row r="135" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:25" customFormat="1">
       <c r="B135" s="126"/>
       <c r="C135" s="139"/>
       <c r="D135" s="139"/>
@@ -8922,7 +8971,7 @@
       <c r="X135" s="139"/>
       <c r="Y135" s="139"/>
     </row>
-    <row r="136" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:25" customFormat="1">
       <c r="B136" s="126"/>
       <c r="C136" s="139"/>
       <c r="D136" s="139"/>
@@ -8948,7 +8997,7 @@
       <c r="X136" s="139"/>
       <c r="Y136" s="139"/>
     </row>
-    <row r="137" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:25" customFormat="1">
       <c r="B137" s="126"/>
       <c r="C137" s="139"/>
       <c r="D137" s="139"/>
@@ -8974,7 +9023,7 @@
       <c r="X137" s="139"/>
       <c r="Y137" s="139"/>
     </row>
-    <row r="138" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:25" customFormat="1">
       <c r="B138" s="126"/>
       <c r="C138" s="139"/>
       <c r="D138" s="139"/>
@@ -9000,7 +9049,7 @@
       <c r="X138" s="139"/>
       <c r="Y138" s="139"/>
     </row>
-    <row r="139" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:25" customFormat="1">
       <c r="B139" s="126"/>
       <c r="C139" s="139"/>
       <c r="D139" s="139"/>
@@ -9026,7 +9075,7 @@
       <c r="X139" s="139"/>
       <c r="Y139" s="139"/>
     </row>
-    <row r="140" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B140" s="126"/>
       <c r="C140" s="139"/>
       <c r="D140" s="139"/>
@@ -9052,7 +9101,7 @@
       <c r="X140" s="139"/>
       <c r="Y140" s="139"/>
     </row>
-    <row r="141" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:25" s="26" customFormat="1">
       <c r="B141" s="129"/>
       <c r="C141" s="129" t="s">
         <v>25</v>
@@ -9080,7 +9129,7 @@
       <c r="T141" s="129"/>
       <c r="U141" s="129"/>
     </row>
-    <row r="142" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:25" customFormat="1">
       <c r="B142" s="126"/>
       <c r="C142" s="139"/>
       <c r="D142" s="139"/>
@@ -9106,7 +9155,7 @@
       <c r="X142" s="139"/>
       <c r="Y142" s="139"/>
     </row>
-    <row r="143" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:25" customFormat="1">
       <c r="B143" s="126"/>
       <c r="C143" s="147" t="s">
         <v>76</v>
@@ -9134,7 +9183,7 @@
       <c r="X143" s="139"/>
       <c r="Y143" s="139"/>
     </row>
-    <row r="144" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:25" customFormat="1">
       <c r="B144" s="126"/>
       <c r="C144" s="125"/>
       <c r="D144" s="139"/>
@@ -9160,7 +9209,7 @@
       <c r="X144" s="139"/>
       <c r="Y144" s="139"/>
     </row>
-    <row r="145" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:25" customFormat="1">
       <c r="B145" s="126"/>
       <c r="C145" s="139"/>
       <c r="D145">
@@ -9188,7 +9237,7 @@
       <c r="X145" s="139"/>
       <c r="Y145" s="139"/>
     </row>
-    <row r="146" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:25" customFormat="1">
       <c r="B146" s="126"/>
       <c r="C146" s="139"/>
       <c r="D146" s="139"/>
@@ -9214,7 +9263,7 @@
       <c r="X146" s="139"/>
       <c r="Y146" s="139"/>
     </row>
-    <row r="147" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:25" customFormat="1">
       <c r="B147" s="126"/>
       <c r="C147" s="139"/>
       <c r="D147" s="139"/>
@@ -9239,7 +9288,7 @@
       <c r="X147" s="139"/>
       <c r="Y147" s="139"/>
     </row>
-    <row r="148" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:25" customFormat="1">
       <c r="B148" s="126"/>
       <c r="C148" s="139"/>
       <c r="D148" s="139"/>
@@ -9264,7 +9313,7 @@
       <c r="X148" s="139"/>
       <c r="Y148" s="139"/>
     </row>
-    <row r="149" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:25" customFormat="1">
       <c r="B149" s="126"/>
       <c r="C149" s="139"/>
       <c r="D149" s="139"/>
@@ -9288,7 +9337,7 @@
       <c r="X149" s="139"/>
       <c r="Y149" s="139"/>
     </row>
-    <row r="150" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:25" customFormat="1">
       <c r="B150" s="126"/>
       <c r="C150" s="139"/>
       <c r="D150" s="139"/>
@@ -9313,7 +9362,7 @@
       <c r="X150" s="139"/>
       <c r="Y150" s="139"/>
     </row>
-    <row r="151" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:25" customFormat="1">
       <c r="B151" s="126"/>
       <c r="C151" s="139"/>
       <c r="D151" s="139"/>
@@ -9339,7 +9388,7 @@
       <c r="X151" s="139"/>
       <c r="Y151" s="139"/>
     </row>
-    <row r="152" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:25" customFormat="1">
       <c r="B152" s="126"/>
       <c r="C152" s="139"/>
       <c r="D152" s="139"/>
@@ -9365,7 +9414,7 @@
       <c r="X152" s="139"/>
       <c r="Y152" s="139"/>
     </row>
-    <row r="153" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:25" customFormat="1">
       <c r="B153" s="126"/>
       <c r="C153" s="139"/>
       <c r="D153" s="139"/>
@@ -9391,7 +9440,7 @@
       <c r="X153" s="139"/>
       <c r="Y153" s="139"/>
     </row>
-    <row r="154" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:25" customFormat="1">
       <c r="B154" s="126"/>
       <c r="C154" s="139"/>
       <c r="D154" s="139"/>
@@ -9417,7 +9466,7 @@
       <c r="X154" s="139"/>
       <c r="Y154" s="139"/>
     </row>
-    <row r="155" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:25" customFormat="1">
       <c r="B155" s="126"/>
       <c r="C155" s="139"/>
       <c r="D155" s="139"/>
@@ -9443,7 +9492,7 @@
       <c r="X155" s="139"/>
       <c r="Y155" s="139"/>
     </row>
-    <row r="156" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:25" customFormat="1">
       <c r="B156" s="126"/>
       <c r="C156" s="139"/>
       <c r="D156" s="139"/>
@@ -9469,7 +9518,7 @@
       <c r="X156" s="139"/>
       <c r="Y156" s="139"/>
     </row>
-    <row r="157" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:25" customFormat="1">
       <c r="B157" s="126"/>
       <c r="C157" s="139"/>
       <c r="D157" s="139"/>
@@ -9495,7 +9544,7 @@
       <c r="X157" s="139"/>
       <c r="Y157" s="139"/>
     </row>
-    <row r="158" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:25" customFormat="1">
       <c r="B158" s="126"/>
       <c r="C158" s="139"/>
       <c r="D158" s="139"/>
@@ -9521,7 +9570,7 @@
       <c r="X158" s="139"/>
       <c r="Y158" s="139"/>
     </row>
-    <row r="159" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:25" customFormat="1">
       <c r="B159" s="126"/>
       <c r="C159" s="139"/>
       <c r="D159" s="139"/>
@@ -9547,7 +9596,7 @@
       <c r="X159" s="139"/>
       <c r="Y159" s="139"/>
     </row>
-    <row r="160" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:25" customFormat="1">
       <c r="B160" s="126"/>
       <c r="C160" s="139"/>
       <c r="D160" s="139"/>
@@ -9573,7 +9622,7 @@
       <c r="X160" s="139"/>
       <c r="Y160" s="139"/>
     </row>
-    <row r="161" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:25" customFormat="1">
       <c r="B161" s="126"/>
       <c r="C161" s="139"/>
       <c r="D161" s="139"/>
@@ -9599,7 +9648,7 @@
       <c r="X161" s="139"/>
       <c r="Y161" s="139"/>
     </row>
-    <row r="162" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:25" customFormat="1">
       <c r="B162" s="126"/>
       <c r="C162" s="139"/>
       <c r="D162" s="139"/>
@@ -9625,7 +9674,7 @@
       <c r="X162" s="139"/>
       <c r="Y162" s="139"/>
     </row>
-    <row r="163" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:25" customFormat="1">
       <c r="B163" s="126"/>
       <c r="C163" s="139"/>
       <c r="D163" s="139"/>
@@ -9651,7 +9700,7 @@
       <c r="X163" s="139"/>
       <c r="Y163" s="139"/>
     </row>
-    <row r="164" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:25" customFormat="1">
       <c r="B164" s="126"/>
       <c r="C164" s="139"/>
       <c r="D164" s="139"/>
@@ -9677,7 +9726,7 @@
       <c r="X164" s="139"/>
       <c r="Y164" s="139"/>
     </row>
-    <row r="165" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:25" customFormat="1">
       <c r="B165" s="126"/>
       <c r="C165" s="139"/>
       <c r="D165" s="139"/>
@@ -9703,7 +9752,7 @@
       <c r="X165" s="139"/>
       <c r="Y165" s="139"/>
     </row>
-    <row r="166" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:25" customFormat="1">
       <c r="B166" s="126"/>
       <c r="C166" s="139"/>
       <c r="D166" s="139"/>
@@ -9729,7 +9778,7 @@
       <c r="X166" s="139"/>
       <c r="Y166" s="139"/>
     </row>
-    <row r="167" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:25" customFormat="1">
       <c r="B167" s="126"/>
       <c r="C167" s="139"/>
       <c r="D167" s="139"/>
@@ -9755,364 +9804,364 @@
       <c r="X167" s="139"/>
       <c r="Y167" s="139"/>
     </row>
-    <row r="168" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:25" customFormat="1">
       <c r="B168" s="126"/>
     </row>
-    <row r="169" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:25" customFormat="1">
       <c r="B169" s="126"/>
     </row>
-    <row r="170" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:25" customFormat="1">
       <c r="B170" s="126"/>
     </row>
-    <row r="171" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:25" customFormat="1">
       <c r="B171" s="126"/>
     </row>
-    <row r="172" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:25" customFormat="1">
       <c r="B172" s="126"/>
       <c r="D172">
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:25" customFormat="1">
       <c r="B173" s="126"/>
     </row>
-    <row r="174" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:25" customFormat="1">
       <c r="B174" s="126"/>
     </row>
-    <row r="175" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:25" customFormat="1">
       <c r="B175" s="126"/>
     </row>
-    <row r="176" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:25" customFormat="1">
       <c r="B176" s="126"/>
     </row>
-    <row r="177" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:2" customFormat="1">
       <c r="B177" s="126"/>
     </row>
-    <row r="178" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:2" customFormat="1">
       <c r="B178" s="126"/>
     </row>
-    <row r="179" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:2" customFormat="1">
       <c r="B179" s="126"/>
     </row>
-    <row r="180" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:2" customFormat="1">
       <c r="B180" s="126"/>
     </row>
-    <row r="181" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:2" customFormat="1">
       <c r="B181" s="126"/>
     </row>
-    <row r="182" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:2" customFormat="1">
       <c r="B182" s="126"/>
     </row>
-    <row r="183" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:2" customFormat="1">
       <c r="B183" s="126"/>
     </row>
-    <row r="184" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:2" customFormat="1">
       <c r="B184" s="126"/>
     </row>
-    <row r="185" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:2" customFormat="1">
       <c r="B185" s="126"/>
     </row>
-    <row r="186" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:2" customFormat="1">
       <c r="B186" s="126"/>
     </row>
-    <row r="187" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:2" customFormat="1">
       <c r="B187" s="126"/>
     </row>
-    <row r="188" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:2" customFormat="1">
       <c r="B188" s="126"/>
     </row>
-    <row r="189" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:2" customFormat="1">
       <c r="B189" s="126"/>
     </row>
-    <row r="190" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:2" customFormat="1">
       <c r="B190" s="126"/>
     </row>
-    <row r="191" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:2" customFormat="1">
       <c r="B191" s="126"/>
     </row>
-    <row r="192" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:2" customFormat="1">
       <c r="B192" s="126"/>
     </row>
-    <row r="193" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:4" customFormat="1">
       <c r="B193" s="126"/>
     </row>
-    <row r="194" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:4" customFormat="1">
       <c r="B194" s="126"/>
     </row>
-    <row r="195" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:4" customFormat="1">
       <c r="B195" s="126"/>
       <c r="D195">
         <v>112</v>
       </c>
     </row>
-    <row r="196" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:4" customFormat="1">
       <c r="B196" s="126"/>
     </row>
-    <row r="197" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:4" customFormat="1">
       <c r="B197" s="126"/>
     </row>
-    <row r="198" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:4" customFormat="1">
       <c r="B198" s="126"/>
     </row>
-    <row r="199" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:4" customFormat="1">
       <c r="B199" s="126"/>
     </row>
-    <row r="200" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:4" customFormat="1">
       <c r="B200" s="126"/>
     </row>
-    <row r="201" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:4" customFormat="1">
       <c r="B201" s="126"/>
     </row>
-    <row r="202" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:4" customFormat="1">
       <c r="B202" s="126"/>
     </row>
-    <row r="203" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:4" customFormat="1">
       <c r="B203" s="126"/>
     </row>
-    <row r="204" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:4" customFormat="1">
       <c r="B204" s="126"/>
     </row>
-    <row r="205" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:4" customFormat="1">
       <c r="B205" s="126"/>
     </row>
-    <row r="206" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:4" customFormat="1">
       <c r="B206" s="126"/>
     </row>
-    <row r="207" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:4" customFormat="1">
       <c r="B207" s="126"/>
     </row>
-    <row r="208" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:4" customFormat="1">
       <c r="B208" s="126"/>
     </row>
-    <row r="209" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4" customFormat="1">
       <c r="B209" s="126"/>
     </row>
-    <row r="210" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4" customFormat="1">
       <c r="B210" s="126"/>
     </row>
-    <row r="211" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4" customFormat="1">
       <c r="B211" s="126"/>
     </row>
-    <row r="212" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4" customFormat="1">
       <c r="B212" s="126"/>
     </row>
-    <row r="213" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:4" customFormat="1">
       <c r="B213" s="126"/>
     </row>
-    <row r="214" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4" customFormat="1">
       <c r="B214" s="126"/>
     </row>
-    <row r="215" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4" customFormat="1">
       <c r="B215" s="126"/>
     </row>
-    <row r="216" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4" customFormat="1">
       <c r="B216" s="126"/>
     </row>
-    <row r="217" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:4" customFormat="1">
       <c r="B217" s="126"/>
     </row>
-    <row r="218" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:4" customFormat="1">
       <c r="B218" s="126"/>
     </row>
-    <row r="219" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:4" customFormat="1">
       <c r="B219" s="126"/>
       <c r="D219">
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:4" customFormat="1">
       <c r="B220" s="126"/>
     </row>
-    <row r="221" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:4" customFormat="1">
       <c r="B221" s="126"/>
     </row>
-    <row r="222" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:4" customFormat="1">
       <c r="B222" s="126"/>
     </row>
-    <row r="223" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:4" customFormat="1">
       <c r="B223" s="126"/>
     </row>
-    <row r="224" spans="2:4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:4" customFormat="1">
       <c r="B224" s="126"/>
     </row>
-    <row r="225" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:2" customFormat="1">
       <c r="B225" s="126"/>
     </row>
-    <row r="226" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:2" customFormat="1">
       <c r="B226" s="126"/>
     </row>
-    <row r="227" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:2" customFormat="1">
       <c r="B227" s="126"/>
     </row>
-    <row r="228" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:2" customFormat="1">
       <c r="B228" s="126"/>
     </row>
-    <row r="229" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:2" customFormat="1">
       <c r="B229" s="126"/>
     </row>
-    <row r="230" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:2" customFormat="1">
       <c r="B230" s="126"/>
     </row>
-    <row r="231" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:2" customFormat="1">
       <c r="B231" s="126"/>
     </row>
-    <row r="232" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:2" customFormat="1">
       <c r="B232" s="126"/>
     </row>
-    <row r="233" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:2" customFormat="1">
       <c r="B233" s="126"/>
     </row>
-    <row r="234" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:2" customFormat="1">
       <c r="B234" s="126"/>
     </row>
-    <row r="235" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:2" customFormat="1">
       <c r="B235" s="126"/>
     </row>
-    <row r="236" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:2" customFormat="1">
       <c r="B236" s="126"/>
     </row>
-    <row r="237" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:2" customFormat="1">
       <c r="B237" s="126"/>
     </row>
-    <row r="238" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:2" customFormat="1">
       <c r="B238" s="126"/>
     </row>
-    <row r="239" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:2" customFormat="1">
       <c r="B239" s="126"/>
     </row>
-    <row r="240" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:2" customFormat="1">
       <c r="B240" s="126"/>
     </row>
-    <row r="241" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7" customFormat="1">
       <c r="B241" s="126"/>
     </row>
-    <row r="242" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7" customFormat="1">
       <c r="B242" s="126"/>
     </row>
-    <row r="243" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7" customFormat="1">
       <c r="B243" s="126"/>
     </row>
-    <row r="244" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7" customFormat="1">
       <c r="B244" s="126"/>
     </row>
-    <row r="245" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7" customFormat="1">
       <c r="B245" s="126"/>
       <c r="D245">
         <v>114</v>
       </c>
     </row>
-    <row r="246" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" customFormat="1">
       <c r="B246" s="126"/>
     </row>
-    <row r="247" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7" customFormat="1">
       <c r="B247" s="126"/>
     </row>
-    <row r="248" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7" customFormat="1">
       <c r="B248" s="126"/>
     </row>
-    <row r="249" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7" customFormat="1">
       <c r="B249" s="126"/>
     </row>
-    <row r="250" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7" customFormat="1">
       <c r="B250" s="126"/>
     </row>
-    <row r="251" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7" customFormat="1">
       <c r="B251" s="126"/>
     </row>
-    <row r="252" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7" customFormat="1">
       <c r="B252" s="126"/>
     </row>
-    <row r="253" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7" customFormat="1">
       <c r="B253" s="126"/>
     </row>
-    <row r="254" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7" customFormat="1">
       <c r="B254" s="126"/>
     </row>
-    <row r="255" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7" customFormat="1">
       <c r="B255" s="126"/>
     </row>
-    <row r="256" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7" customFormat="1">
       <c r="B256" s="126"/>
       <c r="G256" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="257" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" customFormat="1">
       <c r="B257" s="126"/>
       <c r="G257" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="258" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" customFormat="1">
       <c r="B258" s="126"/>
       <c r="G258" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="259" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" customFormat="1">
       <c r="B259" s="126"/>
     </row>
-    <row r="260" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" customFormat="1">
       <c r="B260" s="126"/>
     </row>
-    <row r="261" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" customFormat="1">
       <c r="B261" s="126"/>
     </row>
-    <row r="262" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" customFormat="1">
       <c r="B262" s="126"/>
     </row>
-    <row r="263" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" customFormat="1">
       <c r="B263" s="126"/>
     </row>
-    <row r="264" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" customFormat="1">
       <c r="B264" s="126"/>
     </row>
-    <row r="265" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" customFormat="1">
       <c r="B265" s="126"/>
     </row>
-    <row r="266" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" customFormat="1">
       <c r="B266" s="126"/>
     </row>
-    <row r="267" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" customFormat="1">
       <c r="B267" s="126"/>
     </row>
-    <row r="268" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" customFormat="1">
       <c r="B268" s="126"/>
     </row>
-    <row r="269" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" customFormat="1">
       <c r="B269" s="126"/>
     </row>
-    <row r="270" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" customFormat="1">
       <c r="B270" s="126"/>
     </row>
-    <row r="271" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" customFormat="1">
       <c r="B271" s="126"/>
     </row>
-    <row r="272" spans="2:7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" customFormat="1">
       <c r="B272" s="126"/>
     </row>
-    <row r="273" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:25" customFormat="1">
       <c r="B273" s="126"/>
     </row>
-    <row r="274" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="2:25" customFormat="1">
       <c r="B274" s="126"/>
     </row>
-    <row r="275" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="2:25" customFormat="1">
       <c r="B275" s="126"/>
     </row>
-    <row r="276" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="2:25" customFormat="1">
       <c r="B276" s="126"/>
     </row>
-    <row r="277" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="2:25" customFormat="1">
       <c r="B277" s="126"/>
     </row>
-    <row r="278" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="2:25" customFormat="1">
       <c r="B278" s="126"/>
     </row>
-    <row r="279" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B279" s="126"/>
     </row>
-    <row r="280" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="2:25" s="26" customFormat="1">
       <c r="B280" s="129"/>
       <c r="C280" s="129" t="s">
         <v>25</v>
@@ -10140,7 +10189,7 @@
       <c r="T280" s="129"/>
       <c r="U280" s="129"/>
     </row>
-    <row r="281" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="2:25" customFormat="1">
       <c r="B281" s="126"/>
       <c r="C281" s="144" t="s">
         <v>72</v>
@@ -10168,7 +10217,7 @@
       <c r="X281" s="139"/>
       <c r="Y281" s="139"/>
     </row>
-    <row r="282" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="2:25" customFormat="1">
       <c r="B282" s="126"/>
       <c r="C282" s="139"/>
       <c r="D282" s="139">
@@ -10196,7 +10245,7 @@
       <c r="X282" s="139"/>
       <c r="Y282" s="139"/>
     </row>
-    <row r="283" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="2:25" customFormat="1">
       <c r="B283" s="126"/>
       <c r="C283" s="139"/>
       <c r="D283" s="139"/>
@@ -10222,7 +10271,7 @@
       <c r="X283" s="139"/>
       <c r="Y283" s="139"/>
     </row>
-    <row r="284" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="2:25" customFormat="1">
       <c r="B284" s="126"/>
       <c r="C284" s="139"/>
       <c r="D284" s="139"/>
@@ -10252,7 +10301,7 @@
       <c r="X284" s="139"/>
       <c r="Y284" s="139"/>
     </row>
-    <row r="285" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="2:25" customFormat="1">
       <c r="B285" s="126"/>
       <c r="C285" s="139"/>
       <c r="D285" s="139"/>
@@ -10282,7 +10331,7 @@
       <c r="X285" s="139"/>
       <c r="Y285" s="139"/>
     </row>
-    <row r="286" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="2:25" customFormat="1">
       <c r="B286" s="126"/>
       <c r="C286" s="139"/>
       <c r="D286" s="139"/>
@@ -10308,7 +10357,7 @@
       <c r="X286" s="139"/>
       <c r="Y286" s="139"/>
     </row>
-    <row r="287" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="2:25" customFormat="1">
       <c r="B287" s="126"/>
       <c r="C287" s="139"/>
       <c r="D287" s="139"/>
@@ -10334,7 +10383,7 @@
       <c r="X287" s="139"/>
       <c r="Y287" s="139"/>
     </row>
-    <row r="288" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="2:25" customFormat="1">
       <c r="B288" s="126"/>
       <c r="C288" s="139"/>
       <c r="D288" s="139"/>
@@ -10360,7 +10409,7 @@
       <c r="X288" s="139"/>
       <c r="Y288" s="139"/>
     </row>
-    <row r="289" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="2:25" customFormat="1">
       <c r="B289" s="126"/>
       <c r="C289" s="139"/>
       <c r="D289" s="139"/>
@@ -10386,7 +10435,7 @@
       <c r="X289" s="139"/>
       <c r="Y289" s="139"/>
     </row>
-    <row r="290" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="2:25" customFormat="1">
       <c r="B290" s="126"/>
       <c r="C290" s="139"/>
       <c r="D290" s="139"/>
@@ -10412,7 +10461,7 @@
       <c r="X290" s="139"/>
       <c r="Y290" s="139"/>
     </row>
-    <row r="291" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="2:25" customFormat="1">
       <c r="B291" s="126"/>
       <c r="C291" s="139"/>
       <c r="D291" s="139"/>
@@ -10438,7 +10487,7 @@
       <c r="X291" s="139"/>
       <c r="Y291" s="139"/>
     </row>
-    <row r="292" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="2:25" customFormat="1">
       <c r="B292" s="126"/>
       <c r="C292" s="139"/>
       <c r="D292" s="139"/>
@@ -10464,7 +10513,7 @@
       <c r="X292" s="139"/>
       <c r="Y292" s="139"/>
     </row>
-    <row r="293" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="2:25" customFormat="1">
       <c r="B293" s="126"/>
       <c r="C293" s="139"/>
       <c r="D293" s="139"/>
@@ -10490,7 +10539,7 @@
       <c r="X293" s="139"/>
       <c r="Y293" s="139"/>
     </row>
-    <row r="294" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="2:25" customFormat="1">
       <c r="B294" s="126"/>
       <c r="C294" s="139"/>
       <c r="D294" s="139"/>
@@ -10516,7 +10565,7 @@
       <c r="X294" s="139"/>
       <c r="Y294" s="139"/>
     </row>
-    <row r="295" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="2:25" customFormat="1">
       <c r="B295" s="126"/>
       <c r="C295" s="139"/>
       <c r="D295" s="139"/>
@@ -10542,7 +10591,7 @@
       <c r="X295" s="139"/>
       <c r="Y295" s="139"/>
     </row>
-    <row r="296" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="2:25" customFormat="1">
       <c r="B296" s="126"/>
       <c r="C296" s="139"/>
       <c r="D296" s="139"/>
@@ -10568,7 +10617,7 @@
       <c r="X296" s="139"/>
       <c r="Y296" s="139"/>
     </row>
-    <row r="297" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="2:25" customFormat="1">
       <c r="B297" s="126"/>
       <c r="C297" s="139"/>
       <c r="D297" s="139"/>
@@ -10594,7 +10643,7 @@
       <c r="X297" s="139"/>
       <c r="Y297" s="139"/>
     </row>
-    <row r="298" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="2:25" customFormat="1">
       <c r="B298" s="126"/>
       <c r="C298" s="139"/>
       <c r="D298" s="139"/>
@@ -10620,7 +10669,7 @@
       <c r="X298" s="139"/>
       <c r="Y298" s="139"/>
     </row>
-    <row r="299" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="2:25" customFormat="1">
       <c r="B299" s="126"/>
       <c r="C299" s="139"/>
       <c r="D299" s="139"/>
@@ -10646,7 +10695,7 @@
       <c r="X299" s="139"/>
       <c r="Y299" s="139"/>
     </row>
-    <row r="300" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="2:25" customFormat="1">
       <c r="B300" s="126"/>
       <c r="C300" s="139"/>
       <c r="D300" s="139"/>
@@ -10672,7 +10721,7 @@
       <c r="X300" s="139"/>
       <c r="Y300" s="139"/>
     </row>
-    <row r="301" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="2:25" customFormat="1">
       <c r="B301" s="126"/>
       <c r="C301" s="139"/>
       <c r="D301" s="139"/>
@@ -10698,7 +10747,7 @@
       <c r="X301" s="139"/>
       <c r="Y301" s="139"/>
     </row>
-    <row r="302" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="2:25" customFormat="1">
       <c r="B302" s="126"/>
       <c r="C302" s="139"/>
       <c r="D302" s="139"/>
@@ -10724,7 +10773,7 @@
       <c r="X302" s="139"/>
       <c r="Y302" s="139"/>
     </row>
-    <row r="303" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="2:25" customFormat="1">
       <c r="B303" s="126"/>
       <c r="C303" s="139"/>
       <c r="D303" s="139"/>
@@ -10750,7 +10799,7 @@
       <c r="X303" s="139"/>
       <c r="Y303" s="139"/>
     </row>
-    <row r="304" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="2:25" customFormat="1">
       <c r="B304" s="126"/>
       <c r="C304" s="139"/>
       <c r="D304" s="139"/>
@@ -10776,7 +10825,7 @@
       <c r="X304" s="139"/>
       <c r="Y304" s="139"/>
     </row>
-    <row r="305" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="2:25" customFormat="1">
       <c r="B305" s="126"/>
       <c r="C305" s="139"/>
       <c r="D305" s="139"/>
@@ -10802,7 +10851,7 @@
       <c r="X305" s="139"/>
       <c r="Y305" s="139"/>
     </row>
-    <row r="306" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="2:25" customFormat="1">
       <c r="B306" s="126"/>
       <c r="C306" s="139"/>
       <c r="D306" s="139"/>
@@ -10828,7 +10877,7 @@
       <c r="X306" s="139"/>
       <c r="Y306" s="139"/>
     </row>
-    <row r="307" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="2:25" customFormat="1">
       <c r="B307" s="126"/>
       <c r="C307" s="139"/>
       <c r="D307" s="139"/>
@@ -10854,7 +10903,7 @@
       <c r="X307" s="139"/>
       <c r="Y307" s="139"/>
     </row>
-    <row r="308" spans="2:25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:25" customFormat="1" ht="17" thickBot="1">
       <c r="B308" s="126"/>
       <c r="C308" s="139"/>
       <c r="D308" s="139"/>
@@ -10880,7 +10929,7 @@
       <c r="X308" s="139"/>
       <c r="Y308" s="139"/>
     </row>
-    <row r="309" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="2:25" s="26" customFormat="1">
       <c r="B309" s="129"/>
       <c r="C309" s="129" t="s">
         <v>25</v>
@@ -10908,7 +10957,7 @@
       <c r="T309" s="129"/>
       <c r="U309" s="129"/>
     </row>
-    <row r="310" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="2:25" customFormat="1">
       <c r="B310" s="126"/>
       <c r="C310" s="144"/>
       <c r="D310" s="139"/>
@@ -10934,10 +10983,10 @@
       <c r="X310" s="139"/>
       <c r="Y310" s="139"/>
     </row>
-    <row r="311" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:25" customFormat="1" ht="21">
       <c r="B311" s="126"/>
       <c r="C311" s="151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D311" s="139"/>
       <c r="E311" s="139"/>
@@ -10962,7 +11011,7 @@
       <c r="X311" s="139"/>
       <c r="Y311" s="139"/>
     </row>
-    <row r="312" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="2:25" customFormat="1">
       <c r="B312" s="126"/>
       <c r="C312" s="139"/>
       <c r="D312" s="139"/>
@@ -10988,7 +11037,7 @@
       <c r="X312" s="139"/>
       <c r="Y312" s="139"/>
     </row>
-    <row r="313" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="2:25" customFormat="1">
       <c r="B313" s="126"/>
       <c r="C313" s="139"/>
       <c r="D313" s="139"/>
@@ -11014,17 +11063,17 @@
       <c r="X313" s="139"/>
       <c r="Y313" s="139"/>
     </row>
-    <row r="315" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="315" spans="2:25">
       <c r="D315" s="125">
         <v>12</v>
       </c>
     </row>
-    <row r="320" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="320" spans="2:25">
       <c r="E320" s="152" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="321" spans="4:11" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321" spans="4:11">
       <c r="E321" s="139" t="s">
         <v>45</v>
       </c>
@@ -11034,14 +11083,14 @@
         <v>0</v>
       </c>
       <c r="I321" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J321" s="139"/>
       <c r="K321" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="322" spans="4:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="322" spans="4:11">
       <c r="E322" s="139" t="s">
         <v>46</v>
       </c>
@@ -11051,12 +11100,12 @@
         <v>0</v>
       </c>
       <c r="I322" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J322" s="139"/>
       <c r="K322" s="139"/>
     </row>
-    <row r="323" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:11">
       <c r="E323" s="139" t="s">
         <v>50</v>
       </c>
@@ -11066,12 +11115,12 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I323" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J323" s="139"/>
       <c r="K323" s="139"/>
     </row>
-    <row r="324" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:11">
       <c r="D324" s="139"/>
       <c r="E324" s="139" t="s">
         <v>49</v>
@@ -11082,12 +11131,12 @@
         <v>0.6</v>
       </c>
       <c r="I324" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J324" s="139"/>
       <c r="K324" s="139"/>
     </row>
-    <row r="325" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:11">
       <c r="D325" s="139"/>
       <c r="E325" s="139" t="s">
         <v>40</v>
@@ -11098,12 +11147,12 @@
         <v>0</v>
       </c>
       <c r="I325" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J325" s="139"/>
       <c r="K325" s="139"/>
     </row>
-    <row r="326" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:11">
       <c r="D326" s="139"/>
       <c r="E326" s="139" t="s">
         <v>48</v>
@@ -11114,14 +11163,14 @@
         <v>0</v>
       </c>
       <c r="I326" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J326" s="139"/>
       <c r="K326" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="327" spans="4:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="327" spans="4:11">
       <c r="D327" s="139"/>
       <c r="E327" s="139"/>
       <c r="F327" s="139"/>
@@ -11130,7 +11179,7 @@
       <c r="I327" s="139"/>
       <c r="J327" s="139"/>
     </row>
-    <row r="328" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:11">
       <c r="D328" s="139"/>
       <c r="E328" s="139"/>
       <c r="F328" s="139"/>
@@ -11139,7 +11188,7 @@
       <c r="I328" s="139"/>
       <c r="J328" s="139"/>
     </row>
-    <row r="329" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:11">
       <c r="D329" s="139"/>
       <c r="E329" s="139" t="s">
         <v>45</v>
@@ -11151,14 +11200,14 @@
         <v>0</v>
       </c>
       <c r="I329" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J329" s="139"/>
       <c r="K329" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="330" spans="4:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="330" spans="4:11">
       <c r="E330" s="139" t="s">
         <v>46</v>
       </c>
@@ -11169,12 +11218,12 @@
         <v>0</v>
       </c>
       <c r="I330" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J330" s="139"/>
       <c r="K330" s="139"/>
     </row>
-    <row r="331" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:11">
       <c r="E331" s="139" t="s">
         <v>50</v>
       </c>
@@ -11185,12 +11234,12 @@
         <v>2.01E-2</v>
       </c>
       <c r="I331" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J331" s="139"/>
       <c r="K331" s="139"/>
     </row>
-    <row r="332" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:11">
       <c r="E332" s="139" t="s">
         <v>49</v>
       </c>
@@ -11201,12 +11250,12 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I332" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J332" s="139"/>
       <c r="K332" s="139"/>
     </row>
-    <row r="333" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="4:11">
       <c r="E333" s="139" t="s">
         <v>40</v>
       </c>
@@ -11217,12 +11266,12 @@
         <v>0</v>
       </c>
       <c r="I333" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J333" s="139"/>
       <c r="K333" s="139"/>
     </row>
-    <row r="334" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="4:11">
       <c r="E334" s="139" t="s">
         <v>48</v>
       </c>
@@ -11233,16 +11282,16 @@
         <v>0</v>
       </c>
       <c r="I334" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J334" s="139"/>
       <c r="K334" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="337" spans="5:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="337" spans="5:11">
       <c r="E337" s="153" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F337" s="154"/>
       <c r="G337" s="154"/>
@@ -11251,7 +11300,7 @@
       <c r="J337" s="154"/>
       <c r="K337" s="154"/>
     </row>
-    <row r="338" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="5:11">
       <c r="E338" s="139" t="s">
         <v>45</v>
       </c>
@@ -11261,14 +11310,14 @@
         <v>0</v>
       </c>
       <c r="I338" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J338" s="139"/>
       <c r="K338" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="339" spans="5:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="339" spans="5:11">
       <c r="E339" s="139" t="s">
         <v>46</v>
       </c>
@@ -11278,12 +11327,12 @@
         <v>14.7</v>
       </c>
       <c r="I339" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J339" s="139"/>
       <c r="K339" s="139"/>
     </row>
-    <row r="340" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="5:11">
       <c r="E340" s="139" t="s">
         <v>50</v>
       </c>
@@ -11293,12 +11342,12 @@
         <v>9.4</v>
       </c>
       <c r="I340" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J340" s="139"/>
       <c r="K340" s="139"/>
     </row>
-    <row r="341" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="5:11">
       <c r="E341" s="139" t="s">
         <v>49</v>
       </c>
@@ -11308,12 +11357,12 @@
         <v>0.7</v>
       </c>
       <c r="I341" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J341" s="139"/>
       <c r="K341" s="139"/>
     </row>
-    <row r="342" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="5:11">
       <c r="E342" s="139" t="s">
         <v>40</v>
       </c>
@@ -11323,12 +11372,12 @@
         <v>0</v>
       </c>
       <c r="I342" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J342" s="139"/>
       <c r="K342" s="139"/>
     </row>
-    <row r="343" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="5:11">
       <c r="E343" s="139" t="s">
         <v>48</v>
       </c>
@@ -11338,14 +11387,14 @@
         <v>0</v>
       </c>
       <c r="I343" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J343" s="139"/>
       <c r="K343" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="344" spans="5:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="344" spans="5:11">
       <c r="E344" s="139"/>
       <c r="F344" s="139"/>
       <c r="G344" s="139"/>
@@ -11354,7 +11403,7 @@
       <c r="J344" s="139"/>
       <c r="K344" s="154"/>
     </row>
-    <row r="345" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="5:11">
       <c r="E345" s="139"/>
       <c r="F345" s="139"/>
       <c r="G345" s="139"/>
@@ -11363,7 +11412,7 @@
       <c r="J345" s="139"/>
       <c r="K345" s="154"/>
     </row>
-    <row r="346" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="5:11">
       <c r="E346" s="139" t="s">
         <v>45</v>
       </c>
@@ -11374,14 +11423,14 @@
         <v>0</v>
       </c>
       <c r="I346" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J346" s="139"/>
       <c r="K346" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="347" spans="5:11" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="347" spans="5:11">
       <c r="E347" s="139" t="s">
         <v>46</v>
       </c>
@@ -11392,12 +11441,12 @@
         <v>1.47E-2</v>
       </c>
       <c r="I347" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J347" s="139"/>
       <c r="K347" s="139"/>
     </row>
-    <row r="348" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="5:11">
       <c r="E348" s="139" t="s">
         <v>50</v>
       </c>
@@ -11408,12 +11457,12 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I348" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J348" s="139"/>
       <c r="K348" s="139"/>
     </row>
-    <row r="349" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="5:11">
       <c r="E349" s="139" t="s">
         <v>49</v>
       </c>
@@ -11424,12 +11473,12 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I349" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J349" s="139"/>
       <c r="K349" s="139"/>
     </row>
-    <row r="350" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="5:11">
       <c r="E350" s="139" t="s">
         <v>40</v>
       </c>
@@ -11440,12 +11489,12 @@
         <v>0</v>
       </c>
       <c r="I350" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J350" s="139"/>
       <c r="K350" s="139"/>
     </row>
-    <row r="351" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="5:11">
       <c r="E351" s="139" t="s">
         <v>48</v>
       </c>
@@ -11456,15 +11505,15 @@
         <v>0</v>
       </c>
       <c r="I351" s="139" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J351" s="139"/>
       <c r="K351" s="139" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="368" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="369" spans="2:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="368" ht="17" thickBot="1"/>
+    <row r="369" spans="2:25" s="26" customFormat="1">
       <c r="B369" s="129"/>
       <c r="C369" s="129" t="s">
         <v>25</v>
@@ -11492,7 +11541,7 @@
       <c r="T369" s="129"/>
       <c r="U369" s="129"/>
     </row>
-    <row r="370" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:25" customFormat="1">
       <c r="B370" s="126"/>
       <c r="C370" s="144"/>
       <c r="D370" s="139"/>
@@ -11518,10 +11567,10 @@
       <c r="X370" s="139"/>
       <c r="Y370" s="139"/>
     </row>
-    <row r="371" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:25" customFormat="1" ht="21">
       <c r="B371" s="126"/>
       <c r="C371" s="151" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D371" s="139"/>
       <c r="E371" s="139"/>
@@ -11546,7 +11595,7 @@
       <c r="X371" s="139"/>
       <c r="Y371" s="139"/>
     </row>
-    <row r="372" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:25" customFormat="1">
       <c r="B372" s="126"/>
       <c r="C372" s="139"/>
       <c r="D372" s="139"/>
@@ -11572,10 +11621,10 @@
       <c r="X372" s="139"/>
       <c r="Y372" s="139"/>
     </row>
-    <row r="373" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:25" customFormat="1">
       <c r="B373" s="126"/>
       <c r="C373" s="139" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D373" s="139"/>
       <c r="E373" s="139"/>
@@ -11600,47 +11649,47 @@
       <c r="X373" s="139"/>
       <c r="Y373" s="139"/>
     </row>
-    <row r="374" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:25" customFormat="1">
       <c r="B374" s="126"/>
     </row>
-    <row r="375" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:25" customFormat="1">
       <c r="B375" s="126"/>
     </row>
-    <row r="376" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:25" customFormat="1">
       <c r="B376" s="126"/>
     </row>
-    <row r="377" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:25" customFormat="1">
       <c r="B377" s="126"/>
     </row>
-    <row r="378" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:25" customFormat="1">
       <c r="B378" s="126"/>
     </row>
-    <row r="379" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:25" customFormat="1">
       <c r="B379" s="126"/>
     </row>
-    <row r="380" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:25" customFormat="1">
       <c r="B380" s="126"/>
       <c r="E380" s="157"/>
     </row>
-    <row r="381" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:25" customFormat="1">
       <c r="B381" s="126"/>
       <c r="D381">
         <v>27</v>
       </c>
       <c r="E381" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F381">
         <v>37.299999999999997</v>
       </c>
       <c r="G381" t="s">
+        <v>116</v>
+      </c>
+      <c r="H381" t="s">
         <v>117</v>
       </c>
-      <c r="H381" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="382" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="2:25" customFormat="1">
       <c r="B382" s="126"/>
       <c r="F382">
         <f>F381</f>
@@ -11650,19 +11699,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="383" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:25" customFormat="1">
       <c r="B383" s="126"/>
       <c r="F383">
         <v>0.9</v>
       </c>
       <c r="G383" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H383" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="384" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:25" customFormat="1">
       <c r="B384" s="126"/>
       <c r="F384">
         <f>F382*F383</f>
@@ -11672,127 +11721,127 @@
         <v>70</v>
       </c>
     </row>
-    <row r="385" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:2" customFormat="1">
       <c r="B385" s="126"/>
     </row>
-    <row r="386" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:2" customFormat="1">
       <c r="B386" s="126"/>
     </row>
-    <row r="387" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:2" customFormat="1">
       <c r="B387" s="126"/>
     </row>
-    <row r="388" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:2" customFormat="1">
       <c r="B388" s="126"/>
     </row>
-    <row r="389" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:2" customFormat="1">
       <c r="B389" s="126"/>
     </row>
-    <row r="390" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:2" customFormat="1">
       <c r="B390" s="126"/>
     </row>
-    <row r="391" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:2" customFormat="1">
       <c r="B391" s="126"/>
     </row>
-    <row r="392" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:2" customFormat="1">
       <c r="B392" s="126"/>
     </row>
-    <row r="393" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:2" customFormat="1">
       <c r="B393" s="126"/>
     </row>
-    <row r="394" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:2" customFormat="1">
       <c r="B394" s="126"/>
     </row>
-    <row r="395" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:2" customFormat="1">
       <c r="B395" s="126"/>
     </row>
-    <row r="396" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:2" customFormat="1">
       <c r="B396" s="126"/>
     </row>
-    <row r="397" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:2" customFormat="1">
       <c r="B397" s="126"/>
     </row>
-    <row r="398" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:2" customFormat="1">
       <c r="B398" s="126"/>
     </row>
-    <row r="399" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:2" customFormat="1">
       <c r="B399" s="126"/>
     </row>
-    <row r="400" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:2" customFormat="1">
       <c r="B400" s="126"/>
     </row>
-    <row r="401" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:2" customFormat="1">
       <c r="B401" s="126"/>
     </row>
-    <row r="402" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:2" customFormat="1">
       <c r="B402" s="126"/>
     </row>
-    <row r="403" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:2" customFormat="1">
       <c r="B403" s="126"/>
     </row>
-    <row r="404" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:2" customFormat="1">
       <c r="B404" s="126"/>
     </row>
-    <row r="405" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:2" customFormat="1">
       <c r="B405" s="126"/>
     </row>
-    <row r="406" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:2" customFormat="1">
       <c r="B406" s="126"/>
     </row>
-    <row r="407" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:2" customFormat="1">
       <c r="B407" s="126"/>
     </row>
-    <row r="408" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:2" customFormat="1">
       <c r="B408" s="126"/>
     </row>
-    <row r="409" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:2" customFormat="1">
       <c r="B409" s="126"/>
     </row>
-    <row r="410" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:2" customFormat="1">
       <c r="B410" s="126"/>
     </row>
-    <row r="411" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:2" customFormat="1">
       <c r="B411" s="126"/>
     </row>
-    <row r="412" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:2" customFormat="1">
       <c r="B412" s="126"/>
     </row>
-    <row r="413" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:2" customFormat="1">
       <c r="B413" s="126"/>
     </row>
-    <row r="414" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:2" customFormat="1">
       <c r="B414" s="126"/>
     </row>
-    <row r="415" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:2" customFormat="1">
       <c r="B415" s="126"/>
     </row>
-    <row r="416" spans="2:2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:2" customFormat="1">
       <c r="B416" s="126"/>
     </row>
-    <row r="417" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:21" customFormat="1">
       <c r="B417" s="126"/>
     </row>
-    <row r="418" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:21" customFormat="1">
       <c r="B418" s="126"/>
     </row>
-    <row r="419" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:21" customFormat="1">
       <c r="B419" s="126"/>
     </row>
-    <row r="420" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:21" customFormat="1">
       <c r="B420" s="126"/>
     </row>
-    <row r="421" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:21" customFormat="1">
       <c r="B421" s="126"/>
     </row>
-    <row r="422" spans="2:21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:21" customFormat="1">
       <c r="B422" s="126"/>
     </row>
-    <row r="423" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="426" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="2:21" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="431" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="432" spans="2:21" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:21" customFormat="1"/>
+    <row r="424" spans="2:21" customFormat="1"/>
+    <row r="425" spans="2:21" customFormat="1"/>
+    <row r="426" spans="2:21" customFormat="1"/>
+    <row r="427" spans="2:21" customFormat="1"/>
+    <row r="431" spans="2:21" ht="17" thickBot="1"/>
+    <row r="432" spans="2:21" s="26" customFormat="1">
       <c r="B432" s="129"/>
       <c r="C432" s="129" t="s">
         <v>25</v>
@@ -11820,7 +11869,7 @@
       <c r="T432" s="129"/>
       <c r="U432" s="129"/>
     </row>
-    <row r="433" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:25" customFormat="1">
       <c r="B433" s="126"/>
       <c r="C433" s="144"/>
       <c r="D433" s="139"/>
@@ -11846,10 +11895,10 @@
       <c r="X433" s="139"/>
       <c r="Y433" s="139"/>
     </row>
-    <row r="434" spans="2:25" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:25" customFormat="1" ht="21">
       <c r="B434" s="126"/>
       <c r="C434" s="151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D434" s="139"/>
       <c r="E434" s="139"/>
@@ -11874,7 +11923,7 @@
       <c r="X434" s="139"/>
       <c r="Y434" s="139"/>
     </row>
-    <row r="435" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:25" customFormat="1">
       <c r="B435" s="126"/>
       <c r="C435" s="139"/>
       <c r="D435" s="139"/>
@@ -11900,13 +11949,13 @@
       <c r="X435" s="139"/>
       <c r="Y435" s="139"/>
     </row>
-    <row r="436" spans="2:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:25" customFormat="1">
       <c r="B436" s="126"/>
       <c r="C436" s="139"/>
       <c r="D436" s="139"/>
       <c r="E436" s="139"/>
       <c r="F436" s="139" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G436" s="139"/>
       <c r="H436" s="139"/>
@@ -11928,20 +11977,20 @@
       <c r="X436" s="139"/>
       <c r="Y436" s="139"/>
     </row>
-    <row r="447" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:25">
       <c r="F447" s="169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G447" s="169" t="s">
+        <v>134</v>
+      </c>
+      <c r="H447" s="169" t="s">
         <v>135</v>
       </c>
-      <c r="H447" s="169" t="s">
+    </row>
+    <row r="448" spans="2:25">
+      <c r="E448" s="169" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="448" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="E448" s="169" t="s">
-        <v>137</v>
       </c>
       <c r="F448" s="125">
         <v>118.33</v>
@@ -11954,9 +12003,9 @@
         <v>73.3</v>
       </c>
     </row>
-    <row r="449" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="5:9">
       <c r="E449" s="169" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F449" s="125">
         <v>118.5</v>
@@ -11969,9 +12018,9 @@
         <v>73.47</v>
       </c>
     </row>
-    <row r="450" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="5:9">
       <c r="E450" s="169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F450" s="125">
         <v>117.05</v>
@@ -11984,9 +12033,9 @@
         <v>72.02</v>
       </c>
     </row>
-    <row r="451" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="5:9">
       <c r="E451" s="169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F451" s="125">
         <v>118.15</v>
@@ -11999,9 +12048,9 @@
         <v>73.12</v>
       </c>
     </row>
-    <row r="452" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="5:9">
       <c r="E452" s="169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F452" s="125">
         <f>AVERAGE(F448:F451)</f>
@@ -12016,19 +12065,19 @@
         <v>72.977499999999992</v>
       </c>
       <c r="I452" s="169" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="453" spans="5:9" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="453" spans="5:9">
       <c r="H453" s="125">
         <f>H452/100</f>
         <v>0.72977499999999995</v>
       </c>
       <c r="I453" s="169" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="454" spans="5:9" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="454" spans="5:9">
       <c r="H454" s="170">
         <f>H453/F11</f>
         <v>2.2042255648181703E-2</v>
@@ -12037,8 +12086,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="467" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" ht="17" thickBot="1"/>
+    <row r="467" spans="1:25" s="175" customFormat="1">
       <c r="A467" s="159"/>
       <c r="B467" s="174"/>
       <c r="C467" s="174" t="s">
@@ -12071,7 +12120,7 @@
       <c r="X467" s="159"/>
       <c r="Y467" s="159"/>
     </row>
-    <row r="468" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" s="175" customFormat="1">
       <c r="A468" s="176"/>
       <c r="B468" s="177"/>
       <c r="C468" s="139"/>
@@ -12098,11 +12147,11 @@
       <c r="X468" s="139"/>
       <c r="Y468" s="139"/>
     </row>
-    <row r="469" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" s="175" customFormat="1">
       <c r="A469" s="176"/>
       <c r="B469" s="177"/>
       <c r="C469" s="159" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D469" s="139"/>
       <c r="E469" s="139"/>
@@ -12127,11 +12176,11 @@
       <c r="X469" s="139"/>
       <c r="Y469" s="139"/>
     </row>
-    <row r="470" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" s="175" customFormat="1">
       <c r="A470" s="176"/>
       <c r="B470" s="177"/>
       <c r="C470" s="178" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D470" s="139"/>
       <c r="E470" s="139"/>
@@ -12156,7 +12205,7 @@
       <c r="X470" s="139"/>
       <c r="Y470" s="139"/>
     </row>
-    <row r="471" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" s="175" customFormat="1">
       <c r="A471" s="176"/>
       <c r="B471" s="177"/>
       <c r="C471" s="139"/>
@@ -12183,12 +12232,12 @@
       <c r="X471" s="139"/>
       <c r="Y471" s="139"/>
     </row>
-    <row r="472" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" s="175" customFormat="1">
       <c r="A472" s="176"/>
       <c r="B472" s="177"/>
       <c r="C472" s="139"/>
       <c r="D472" s="139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E472" s="139"/>
       <c r="F472" s="139"/>
@@ -12212,7 +12261,7 @@
       <c r="X472" s="139"/>
       <c r="Y472" s="139"/>
     </row>
-    <row r="473" spans="1:25" s="175" customFormat="1" ht="77" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" s="175" customFormat="1" ht="84">
       <c r="A473" s="176"/>
       <c r="B473" s="177"/>
       <c r="C473" s="139"/>
@@ -12223,16 +12272,16 @@
       <c r="F473" s="139"/>
       <c r="G473" s="139"/>
       <c r="H473" s="196" t="s">
+        <v>147</v>
+      </c>
+      <c r="I473" s="197" t="s">
         <v>148</v>
       </c>
-      <c r="I473" s="197" t="s">
-        <v>149</v>
-      </c>
       <c r="J473" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="K473" s="181" t="s">
         <v>171</v>
-      </c>
-      <c r="K473" s="181" t="s">
-        <v>172</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12246,12 +12295,12 @@
       <c r="U473" s="139"/>
       <c r="V473" s="139"/>
     </row>
-    <row r="474" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="A474" s="176"/>
       <c r="B474" s="177"/>
       <c r="C474" s="139"/>
       <c r="D474" s="139" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E474" s="176"/>
       <c r="F474" s="139"/>
@@ -12259,10 +12308,10 @@
       <c r="H474" s="182"/>
       <c r="I474" s="183"/>
       <c r="J474" s="184" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K474" s="185" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L474" s="139"/>
       <c r="M474" s="139"/>
@@ -12276,29 +12325,29 @@
       <c r="U474" s="139"/>
       <c r="V474" s="139"/>
     </row>
-    <row r="475" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="A475" s="176"/>
       <c r="B475" s="177"/>
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
       <c r="E475" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F475" s="186">
         <f>AVERAGE(J475:J479)</f>
         <v>545.58600000000001</v>
       </c>
       <c r="G475" s="139" t="s">
-        <v>152</v>
-      </c>
-      <c r="H475" s="232">
+        <v>151</v>
+      </c>
+      <c r="H475" s="218">
         <v>43059</v>
       </c>
       <c r="I475" s="183"/>
-      <c r="J475" s="233">
+      <c r="J475" s="219">
         <v>550.71</v>
       </c>
-      <c r="K475" s="234">
+      <c r="K475" s="220">
         <v>1264</v>
       </c>
       <c r="L475" s="139"/>
@@ -12313,29 +12362,29 @@
       <c r="U475" s="139"/>
       <c r="V475" s="139"/>
     </row>
-    <row r="476" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="A476" s="176"/>
       <c r="B476" s="177"/>
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
       <c r="E476" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F476" s="188">
         <f>F475/1000</f>
         <v>0.54558600000000002</v>
       </c>
       <c r="G476" s="139" t="s">
-        <v>144</v>
-      </c>
-      <c r="H476" s="232">
+        <v>143</v>
+      </c>
+      <c r="H476" s="218">
         <v>43052</v>
       </c>
       <c r="I476" s="183"/>
-      <c r="J476" s="233">
+      <c r="J476" s="219">
         <v>559.79999999999995</v>
       </c>
-      <c r="K476" s="234">
+      <c r="K476" s="220">
         <v>1275</v>
       </c>
       <c r="L476" s="139"/>
@@ -12350,7 +12399,7 @@
       <c r="U476" s="139"/>
       <c r="V476" s="139"/>
     </row>
-    <row r="477" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="A477" s="176"/>
       <c r="B477" s="177"/>
       <c r="C477" s="139"/>
@@ -12358,14 +12407,14 @@
       <c r="E477" s="139"/>
       <c r="F477" s="139"/>
       <c r="G477" s="139"/>
-      <c r="H477" s="232">
+      <c r="H477" s="218">
         <v>43045</v>
       </c>
       <c r="I477" s="183"/>
-      <c r="J477" s="233">
+      <c r="J477" s="219">
         <v>550.71</v>
       </c>
-      <c r="K477" s="234">
+      <c r="K477" s="220">
         <v>1264</v>
       </c>
       <c r="L477" s="139"/>
@@ -12380,31 +12429,31 @@
       <c r="U477" s="139"/>
       <c r="V477" s="139"/>
     </row>
-    <row r="478" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="A478" s="176"/>
       <c r="B478" s="177"/>
       <c r="C478" s="139"/>
       <c r="D478" s="139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E478" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F478" s="186">
         <f>AVERAGE(K475:K479)</f>
         <v>1257.8</v>
       </c>
       <c r="G478" s="139" t="s">
-        <v>152</v>
-      </c>
-      <c r="H478" s="232">
+        <v>151</v>
+      </c>
+      <c r="H478" s="218">
         <v>43038</v>
       </c>
       <c r="I478" s="183"/>
-      <c r="J478" s="233">
+      <c r="J478" s="219">
         <v>535.01</v>
       </c>
-      <c r="K478" s="234">
+      <c r="K478" s="220">
         <v>1245</v>
       </c>
       <c r="L478" s="139"/>
@@ -12419,29 +12468,29 @@
       <c r="U478" s="139"/>
       <c r="V478" s="139"/>
     </row>
-    <row r="479" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="A479" s="176"/>
       <c r="B479" s="177"/>
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
       <c r="E479" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F479" s="188">
         <f>F478/1000</f>
         <v>1.2578</v>
       </c>
       <c r="G479" s="139" t="s">
-        <v>144</v>
-      </c>
-      <c r="H479" s="232">
+        <v>143</v>
+      </c>
+      <c r="H479" s="218">
         <v>43031</v>
       </c>
       <c r="I479" s="183"/>
-      <c r="J479" s="233">
+      <c r="J479" s="219">
         <v>531.70000000000005</v>
       </c>
-      <c r="K479" s="234">
+      <c r="K479" s="220">
         <v>1241</v>
       </c>
       <c r="L479" s="139"/>
@@ -12456,7 +12505,7 @@
       <c r="U479" s="139"/>
       <c r="V479" s="139"/>
     </row>
-    <row r="480" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" s="175" customFormat="1">
       <c r="A480" s="176"/>
       <c r="B480" s="177"/>
       <c r="C480" s="139"/>
@@ -12488,12 +12537,12 @@
       <c r="U480" s="139"/>
       <c r="V480" s="139"/>
     </row>
-    <row r="481" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:22" s="175" customFormat="1">
       <c r="A481" s="176"/>
       <c r="B481" s="177"/>
       <c r="C481" s="139"/>
       <c r="D481" s="142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E481" s="139"/>
       <c r="F481" s="189"/>
@@ -12522,21 +12571,21 @@
       <c r="U481" s="139"/>
       <c r="V481" s="139"/>
     </row>
-    <row r="482" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:22" s="175" customFormat="1">
       <c r="A482" s="176"/>
       <c r="B482" s="177"/>
       <c r="C482" s="139"/>
       <c r="D482" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="E482" s="176" t="s">
+        <v>159</v>
+      </c>
+      <c r="F482" s="221">
+        <v>0.21</v>
+      </c>
+      <c r="G482" s="139" t="s">
         <v>155</v>
-      </c>
-      <c r="E482" s="176" t="s">
-        <v>160</v>
-      </c>
-      <c r="F482" s="235">
-        <v>0.21</v>
-      </c>
-      <c r="G482" s="139" t="s">
-        <v>156</v>
       </c>
       <c r="H482" s="187">
         <v>42394</v>
@@ -12562,22 +12611,22 @@
       <c r="U482" s="139"/>
       <c r="V482" s="139"/>
     </row>
-    <row r="483" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:22" s="175" customFormat="1">
       <c r="A483" s="176"/>
       <c r="B483" s="177"/>
       <c r="C483" s="139"/>
       <c r="D483" s="139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E483" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F483" s="139">
         <f>F479/(1+F482)-F476</f>
         <v>0.4939181322314049</v>
       </c>
       <c r="G483" s="139" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H483" s="187">
         <v>42387</v>
@@ -12603,7 +12652,7 @@
       <c r="U483" s="139"/>
       <c r="V483" s="139"/>
     </row>
-    <row r="484" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:22" s="175" customFormat="1">
       <c r="A484" s="176"/>
       <c r="B484" s="177"/>
       <c r="C484" s="139"/>
@@ -12635,7 +12684,7 @@
       <c r="U484" s="139"/>
       <c r="V484" s="139"/>
     </row>
-    <row r="485" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:22" s="175" customFormat="1">
       <c r="A485" s="176"/>
       <c r="B485" s="177"/>
       <c r="C485" s="139"/>
@@ -12667,22 +12716,22 @@
       <c r="U485" s="139"/>
       <c r="V485" s="139"/>
     </row>
-    <row r="486" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:22" s="175" customFormat="1">
       <c r="A486" s="176"/>
       <c r="B486" s="177"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E486" s="176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F486" s="189">
         <f>(F484+F483+F476)*1.21</f>
         <v>1.2577999999999998</v>
       </c>
       <c r="G486" s="139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H486" s="187">
         <v>42352</v>
@@ -12708,7 +12757,7 @@
       <c r="U486" s="139"/>
       <c r="V486" s="139"/>
     </row>
-    <row r="487" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:22" s="175" customFormat="1">
       <c r="A487" s="176"/>
       <c r="B487" s="177"/>
       <c r="C487" s="139"/>
@@ -12740,7 +12789,7 @@
       <c r="U487" s="139"/>
       <c r="V487" s="139"/>
     </row>
-    <row r="488" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:22" s="175" customFormat="1">
       <c r="A488" s="176"/>
       <c r="B488" s="177"/>
       <c r="C488" s="139"/>
@@ -12772,7 +12821,7 @@
       <c r="U488" s="139"/>
       <c r="V488" s="139"/>
     </row>
-    <row r="489" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:22" s="175" customFormat="1">
       <c r="A489" s="176"/>
       <c r="B489" s="177"/>
       <c r="C489" s="139"/>
@@ -12804,7 +12853,7 @@
       <c r="U489" s="139"/>
       <c r="V489" s="139"/>
     </row>
-    <row r="490" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:22" s="175" customFormat="1">
       <c r="A490" s="176"/>
       <c r="B490" s="177"/>
       <c r="C490" s="139"/>
@@ -12836,7 +12885,7 @@
       <c r="U490" s="139"/>
       <c r="V490" s="139"/>
     </row>
-    <row r="491" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:22" s="175" customFormat="1">
       <c r="A491" s="176"/>
       <c r="B491" s="177"/>
       <c r="C491" s="139"/>
@@ -12868,7 +12917,7 @@
       <c r="U491" s="139"/>
       <c r="V491" s="139"/>
     </row>
-    <row r="492" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:22" s="175" customFormat="1">
       <c r="A492" s="176"/>
       <c r="B492" s="177"/>
       <c r="C492" s="139"/>
@@ -12900,7 +12949,7 @@
       <c r="U492" s="139"/>
       <c r="V492" s="139"/>
     </row>
-    <row r="493" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:22" s="175" customFormat="1">
       <c r="A493" s="176"/>
       <c r="B493" s="177"/>
       <c r="C493" s="139"/>
@@ -12932,7 +12981,7 @@
       <c r="U493" s="139"/>
       <c r="V493" s="139"/>
     </row>
-    <row r="494" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:22" s="175" customFormat="1">
       <c r="A494" s="176"/>
       <c r="B494" s="177"/>
       <c r="C494" s="176"/>
@@ -12964,7 +13013,7 @@
       <c r="U494" s="176"/>
       <c r="V494" s="176"/>
     </row>
-    <row r="495" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:22" s="175" customFormat="1">
       <c r="A495" s="176"/>
       <c r="B495" s="177"/>
       <c r="C495" s="176"/>
@@ -12996,7 +13045,7 @@
       <c r="U495" s="176"/>
       <c r="V495" s="176"/>
     </row>
-    <row r="496" spans="1:22" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:22" s="175" customFormat="1">
       <c r="A496" s="176"/>
       <c r="B496" s="177"/>
       <c r="C496" s="176"/>
@@ -13028,7 +13077,7 @@
       <c r="U496" s="176"/>
       <c r="V496" s="176"/>
     </row>
-    <row r="497" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" s="175" customFormat="1">
       <c r="A497" s="176"/>
       <c r="B497" s="177"/>
       <c r="C497" s="176"/>
@@ -13060,7 +13109,7 @@
       <c r="U497" s="176"/>
       <c r="V497" s="176"/>
     </row>
-    <row r="498" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" s="175" customFormat="1">
       <c r="A498" s="176"/>
       <c r="B498" s="177"/>
       <c r="C498" s="176"/>
@@ -13092,7 +13141,7 @@
       <c r="U498" s="176"/>
       <c r="V498" s="176"/>
     </row>
-    <row r="499" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" s="175" customFormat="1">
       <c r="A499" s="176"/>
       <c r="B499" s="177"/>
       <c r="C499" s="176"/>
@@ -13124,7 +13173,7 @@
       <c r="U499" s="176"/>
       <c r="V499" s="176"/>
     </row>
-    <row r="500" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" s="175" customFormat="1">
       <c r="A500" s="176"/>
       <c r="B500" s="177"/>
       <c r="C500" s="176"/>
@@ -13156,7 +13205,7 @@
       <c r="U500" s="176"/>
       <c r="V500" s="176"/>
     </row>
-    <row r="501" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:25" s="175" customFormat="1">
       <c r="A501" s="176"/>
       <c r="B501" s="177"/>
       <c r="C501" s="176"/>
@@ -13188,7 +13237,7 @@
       <c r="U501" s="176"/>
       <c r="V501" s="176"/>
     </row>
-    <row r="502" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:25" s="175" customFormat="1">
       <c r="A502" s="176"/>
       <c r="B502" s="177"/>
       <c r="C502" s="176"/>
@@ -13220,7 +13269,7 @@
       <c r="U502" s="176"/>
       <c r="V502" s="176"/>
     </row>
-    <row r="503" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:25" s="175" customFormat="1">
       <c r="A503" s="176"/>
       <c r="B503" s="177"/>
       <c r="C503" s="176"/>
@@ -13252,7 +13301,7 @@
       <c r="U503" s="176"/>
       <c r="V503" s="176"/>
     </row>
-    <row r="504" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:25" s="175" customFormat="1">
       <c r="A504" s="176"/>
       <c r="B504" s="177"/>
       <c r="C504" s="176"/>
@@ -13284,7 +13333,7 @@
       <c r="U504" s="176"/>
       <c r="V504" s="176"/>
     </row>
-    <row r="505" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:25" s="175" customFormat="1">
       <c r="B505" s="177"/>
       <c r="H505" s="187">
         <v>42219</v>
@@ -13299,7 +13348,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="506" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:25" s="175" customFormat="1">
       <c r="B506" s="177"/>
       <c r="H506" s="187">
         <v>42212</v>
@@ -13314,7 +13363,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="507" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="B507" s="177"/>
       <c r="H507" s="187">
         <v>42205</v>
@@ -13329,7 +13378,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="508" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:25" s="26" customFormat="1">
       <c r="B508" s="129"/>
       <c r="C508" s="129" t="s">
         <v>25</v>
@@ -13365,7 +13414,7 @@
       <c r="T508" s="129"/>
       <c r="U508" s="129"/>
     </row>
-    <row r="509" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:25" customFormat="1">
       <c r="B509" s="190"/>
       <c r="C509" s="144"/>
       <c r="D509" s="139"/>
@@ -13399,10 +13448,10 @@
       <c r="X509" s="139"/>
       <c r="Y509" s="139"/>
     </row>
-    <row r="510" spans="1:25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:25" customFormat="1">
       <c r="B510" s="190"/>
       <c r="C510" s="175" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
@@ -13427,113 +13476,113 @@
       <c r="X510" s="139"/>
       <c r="Y510" s="139"/>
     </row>
-    <row r="511" spans="1:25" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:25" s="175" customFormat="1">
       <c r="B511" s="190"/>
     </row>
-    <row r="512" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
       <c r="B512" s="190"/>
     </row>
-    <row r="513" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="2:11" s="175" customFormat="1">
       <c r="B513" s="190"/>
       <c r="D513" s="175" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H513" s="129"/>
       <c r="I513" s="129"/>
       <c r="J513" s="129"/>
       <c r="K513" s="129"/>
     </row>
-    <row r="514" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="2:11" s="175" customFormat="1">
       <c r="B514" s="190"/>
       <c r="D514" s="175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H514" s="139"/>
       <c r="I514" s="139"/>
       <c r="J514" s="139"/>
       <c r="K514" s="139"/>
     </row>
-    <row r="515" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="2:11" s="175" customFormat="1">
       <c r="B515" s="190"/>
       <c r="H515" s="139"/>
       <c r="I515" s="139"/>
       <c r="J515" s="139"/>
       <c r="K515" s="139"/>
     </row>
-    <row r="516" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="2:11" s="175" customFormat="1">
       <c r="B516" s="190"/>
       <c r="F516" s="175">
         <v>0.5</v>
       </c>
       <c r="G516" s="175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H516" s="175" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="517" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="517" spans="2:11" s="175" customFormat="1">
       <c r="B517" s="190"/>
       <c r="F517" s="191">
         <f>F479</f>
         <v>1.2578</v>
       </c>
       <c r="G517" s="175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H517" s="175" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="518" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="518" spans="2:11" s="175" customFormat="1">
       <c r="B518" s="190"/>
       <c r="F518" s="191">
         <f>F516+F517</f>
         <v>1.7578</v>
       </c>
       <c r="G518" s="175" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H518" s="175" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="519" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="519" spans="2:11" s="175" customFormat="1">
       <c r="B519" s="190"/>
     </row>
-    <row r="520" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="2:11" s="175" customFormat="1">
       <c r="B520" s="190"/>
     </row>
-    <row r="521" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="2:11" s="175" customFormat="1">
       <c r="B521" s="190"/>
       <c r="F521" s="191"/>
     </row>
-    <row r="522" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="2:11" s="175" customFormat="1">
       <c r="B522" s="190"/>
     </row>
-    <row r="523" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="2:11" s="175" customFormat="1">
       <c r="B523" s="190"/>
     </row>
-    <row r="524" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="2:11" s="175" customFormat="1">
       <c r="B524" s="190"/>
     </row>
-    <row r="525" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="2:11" s="175" customFormat="1">
       <c r="B525" s="190"/>
     </row>
-    <row r="526" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="2:11" s="175" customFormat="1">
       <c r="B526" s="190"/>
     </row>
-    <row r="527" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="2:11" s="175" customFormat="1">
       <c r="B527" s="190"/>
       <c r="F527" s="192">
         <f>F518/(1+F482)-F483</f>
         <v>0.95880914049586796</v>
       </c>
       <c r="G527" s="175" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="528" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="528" spans="2:11" s="175" customFormat="1">
       <c r="B528" s="190"/>
       <c r="F528" s="193">
         <f>F527/F11</f>
@@ -13543,46 +13592,46 @@
         <v>59</v>
       </c>
     </row>
-    <row r="529" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="2:11" s="175" customFormat="1">
       <c r="B529" s="190"/>
     </row>
-    <row r="530" spans="2:11" s="175" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="2:11" s="175" customFormat="1">
       <c r="B530" s="190"/>
     </row>
-    <row r="531" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="531" spans="2:11">
       <c r="H531" s="175"/>
       <c r="I531" s="175"/>
       <c r="J531" s="175"/>
       <c r="K531" s="175"/>
     </row>
-    <row r="532" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="532" spans="2:11">
       <c r="H532" s="175" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I532" s="175"/>
       <c r="J532" s="175"/>
       <c r="K532" s="175"/>
     </row>
-    <row r="533" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="533" spans="2:11">
       <c r="H533" s="175"/>
       <c r="I533" s="175"/>
       <c r="J533" s="175"/>
       <c r="K533" s="175"/>
     </row>
-    <row r="534" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="534" spans="2:11">
       <c r="H534" s="175"/>
       <c r="I534" s="175"/>
       <c r="J534" s="175"/>
       <c r="K534" s="175"/>
     </row>
-    <row r="535" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="535" spans="2:11">
       <c r="H535" s="175"/>
       <c r="I535" s="175"/>
       <c r="J535" s="175"/>
       <c r="K535" s="175"/>
     </row>
-    <row r="566" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="567" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="566" spans="2:35" ht="17" thickBot="1"/>
+    <row r="567" spans="2:35">
       <c r="B567" s="209"/>
       <c r="C567" s="174" t="s">
         <v>25</v>
@@ -13620,7 +13669,7 @@
       <c r="AH567" s="159"/>
       <c r="AI567" s="159"/>
     </row>
-    <row r="568" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="568" spans="2:35">
       <c r="B568" s="177"/>
       <c r="C568" s="154"/>
       <c r="D568" s="154"/>
@@ -13652,10 +13701,10 @@
       <c r="AH568" s="154"/>
       <c r="AI568" s="154"/>
     </row>
-    <row r="569" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="569" spans="2:35">
       <c r="B569" s="177"/>
       <c r="C569" s="211" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D569" s="212"/>
       <c r="E569" s="212"/>
@@ -13686,7 +13735,7 @@
       <c r="AH569" s="176"/>
       <c r="AI569" s="176"/>
     </row>
-    <row r="570" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="570" spans="2:35">
       <c r="B570" s="177"/>
       <c r="C570" s="212"/>
       <c r="D570" s="212"/>
@@ -13718,7 +13767,7 @@
       <c r="AH570" s="176"/>
       <c r="AI570" s="176"/>
     </row>
-    <row r="571" spans="2:35" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:35" ht="17" thickBot="1">
       <c r="B571" s="177"/>
       <c r="C571" s="212"/>
       <c r="D571" s="212"/>
@@ -13750,7 +13799,7 @@
       <c r="AH571" s="176"/>
       <c r="AI571" s="176"/>
     </row>
-    <row r="572" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="572" spans="2:35">
       <c r="B572" s="177"/>
       <c r="C572" s="212"/>
       <c r="D572" s="212"/>
@@ -13786,7 +13835,7 @@
       <c r="AH572" s="176"/>
       <c r="AI572" s="176"/>
     </row>
-    <row r="573" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="573" spans="2:35">
       <c r="B573" s="177"/>
       <c r="C573" s="212"/>
       <c r="D573" s="212"/>
@@ -13822,7 +13871,7 @@
       <c r="AH573" s="176"/>
       <c r="AI573" s="176"/>
     </row>
-    <row r="574" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="574" spans="2:35">
       <c r="B574" s="177"/>
       <c r="C574" s="212"/>
       <c r="D574" s="139"/>
@@ -13858,7 +13907,7 @@
       <c r="AH574" s="176"/>
       <c r="AI574" s="176"/>
     </row>
-    <row r="575" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="575" spans="2:35">
       <c r="B575" s="177"/>
       <c r="C575" s="212"/>
       <c r="D575" s="139"/>
@@ -13894,7 +13943,7 @@
       <c r="AH575" s="176"/>
       <c r="AI575" s="176"/>
     </row>
-    <row r="576" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="576" spans="2:35">
       <c r="B576" s="177"/>
       <c r="C576" s="212"/>
       <c r="D576" s="139"/>
@@ -13930,7 +13979,7 @@
       <c r="AH576" s="176"/>
       <c r="AI576" s="176"/>
     </row>
-    <row r="577" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="577" spans="2:35">
       <c r="B577" s="177"/>
       <c r="C577" s="139"/>
       <c r="D577" s="139"/>
@@ -13966,7 +14015,7 @@
       <c r="AH577" s="176"/>
       <c r="AI577" s="176"/>
     </row>
-    <row r="578" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="578" spans="2:35">
       <c r="B578" s="177"/>
       <c r="C578" s="139"/>
       <c r="D578" s="139"/>
@@ -14002,7 +14051,7 @@
       <c r="AH578" s="176"/>
       <c r="AI578" s="176"/>
     </row>
-    <row r="579" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="579" spans="2:35">
       <c r="B579" s="177"/>
       <c r="C579" s="139"/>
       <c r="D579" s="139"/>
@@ -14038,7 +14087,7 @@
       <c r="AH579" s="176"/>
       <c r="AI579" s="176"/>
     </row>
-    <row r="580" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="580" spans="2:35">
       <c r="B580" s="177"/>
       <c r="C580" s="139"/>
       <c r="D580" s="139"/>
@@ -14074,7 +14123,7 @@
       <c r="AH580" s="176"/>
       <c r="AI580" s="176"/>
     </row>
-    <row r="581" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="581" spans="2:35">
       <c r="B581" s="177"/>
       <c r="C581" s="139"/>
       <c r="D581" s="139"/>
@@ -14110,7 +14159,7 @@
       <c r="AH581" s="176"/>
       <c r="AI581" s="176"/>
     </row>
-    <row r="582" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="582" spans="2:35">
       <c r="B582" s="177"/>
       <c r="C582" s="139"/>
       <c r="D582" s="139"/>
@@ -14146,7 +14195,7 @@
       <c r="AH582" s="176"/>
       <c r="AI582" s="176"/>
     </row>
-    <row r="583" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="583" spans="2:35">
       <c r="B583" s="177"/>
       <c r="C583" s="139"/>
       <c r="D583" s="139"/>
@@ -14182,7 +14231,7 @@
       <c r="AH583" s="176"/>
       <c r="AI583" s="176"/>
     </row>
-    <row r="584" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="584" spans="2:35">
       <c r="B584" s="177"/>
       <c r="C584" s="139"/>
       <c r="D584" s="139"/>
@@ -14218,7 +14267,7 @@
       <c r="AH584" s="176"/>
       <c r="AI584" s="176"/>
     </row>
-    <row r="585" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="585" spans="2:35">
       <c r="B585" s="177"/>
       <c r="C585" s="139"/>
       <c r="D585" s="139"/>
@@ -14254,7 +14303,7 @@
       <c r="AH585" s="176"/>
       <c r="AI585" s="176"/>
     </row>
-    <row r="586" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="586" spans="2:35">
       <c r="B586" s="177"/>
       <c r="C586" s="139"/>
       <c r="D586" s="139"/>
@@ -14290,7 +14339,7 @@
       <c r="AH586" s="176"/>
       <c r="AI586" s="176"/>
     </row>
-    <row r="587" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="587" spans="2:35">
       <c r="B587" s="177"/>
       <c r="C587" s="139"/>
       <c r="D587" s="139"/>
@@ -14326,7 +14375,7 @@
       <c r="AH587" s="176"/>
       <c r="AI587" s="176"/>
     </row>
-    <row r="588" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="588" spans="2:35">
       <c r="B588" s="177"/>
       <c r="C588" s="139"/>
       <c r="D588" s="139"/>
@@ -14362,7 +14411,7 @@
       <c r="AH588" s="176"/>
       <c r="AI588" s="176"/>
     </row>
-    <row r="589" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="589" spans="2:35">
       <c r="B589" s="177"/>
       <c r="C589" s="139"/>
       <c r="D589" s="139"/>
@@ -14398,7 +14447,7 @@
       <c r="AH589" s="176"/>
       <c r="AI589" s="176"/>
     </row>
-    <row r="590" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="590" spans="2:35">
       <c r="B590" s="177"/>
       <c r="C590" s="139"/>
       <c r="D590" s="139"/>
@@ -14434,7 +14483,7 @@
       <c r="AH590" s="176"/>
       <c r="AI590" s="176"/>
     </row>
-    <row r="591" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="591" spans="2:35">
       <c r="B591" s="177"/>
       <c r="C591" s="139"/>
       <c r="D591" s="139"/>
@@ -14470,7 +14519,7 @@
       <c r="AH591" s="176"/>
       <c r="AI591" s="176"/>
     </row>
-    <row r="592" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="592" spans="2:35">
       <c r="B592" s="177"/>
       <c r="C592" s="139"/>
       <c r="D592" s="139"/>
@@ -14506,7 +14555,7 @@
       <c r="AH592" s="176"/>
       <c r="AI592" s="176"/>
     </row>
-    <row r="593" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="593" spans="2:35">
       <c r="B593" s="177"/>
       <c r="C593" s="139"/>
       <c r="D593" s="139"/>
@@ -14542,7 +14591,7 @@
       <c r="AH593" s="176"/>
       <c r="AI593" s="176"/>
     </row>
-    <row r="594" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="594" spans="2:35">
       <c r="B594" s="177"/>
       <c r="C594" s="176"/>
       <c r="D594" s="176"/>
@@ -14578,7 +14627,7 @@
       <c r="AH594" s="176"/>
       <c r="AI594" s="176"/>
     </row>
-    <row r="595" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="595" spans="2:35">
       <c r="B595" s="177"/>
       <c r="C595" s="176"/>
       <c r="D595" s="176"/>
@@ -14614,7 +14663,7 @@
       <c r="AH595" s="176"/>
       <c r="AI595" s="176"/>
     </row>
-    <row r="596" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="596" spans="2:35">
       <c r="B596" s="177"/>
       <c r="C596" s="176"/>
       <c r="D596" s="176"/>
@@ -14650,7 +14699,7 @@
       <c r="AH596" s="176"/>
       <c r="AI596" s="176"/>
     </row>
-    <row r="597" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="597" spans="2:35">
       <c r="B597" s="177"/>
       <c r="C597" s="176"/>
       <c r="D597" s="176"/>
@@ -14686,7 +14735,7 @@
       <c r="AH597" s="176"/>
       <c r="AI597" s="176"/>
     </row>
-    <row r="598" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="598" spans="2:35">
       <c r="B598" s="177"/>
       <c r="C598" s="176"/>
       <c r="D598" s="212">
@@ -14726,7 +14775,7 @@
       <c r="AH598" s="176"/>
       <c r="AI598" s="176"/>
     </row>
-    <row r="599" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="599" spans="2:35">
       <c r="B599" s="177"/>
       <c r="C599" s="176"/>
       <c r="D599" s="212"/>
@@ -14765,7 +14814,7 @@
       <c r="AH599" s="176"/>
       <c r="AI599" s="176"/>
     </row>
-    <row r="600" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="600" spans="2:35">
       <c r="B600" s="177"/>
       <c r="C600" s="176"/>
       <c r="D600" s="212"/>
@@ -14804,7 +14853,7 @@
       <c r="AH600" s="176"/>
       <c r="AI600" s="176"/>
     </row>
-    <row r="601" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="601" spans="2:35">
       <c r="B601" s="177"/>
       <c r="C601" s="176"/>
       <c r="D601" s="139"/>
@@ -14840,7 +14889,7 @@
       <c r="AH601" s="176"/>
       <c r="AI601" s="176"/>
     </row>
-    <row r="602" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="602" spans="2:35">
       <c r="B602" s="177"/>
       <c r="C602" s="176"/>
       <c r="D602" s="139"/>
@@ -14876,7 +14925,7 @@
       <c r="AH602" s="176"/>
       <c r="AI602" s="176"/>
     </row>
-    <row r="603" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="603" spans="2:35">
       <c r="B603" s="177"/>
       <c r="C603" s="176"/>
       <c r="D603" s="139"/>
@@ -14884,7 +14933,7 @@
       <c r="F603" s="139"/>
       <c r="G603" s="139"/>
       <c r="H603" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I603" s="212"/>
       <c r="J603" s="176"/>
@@ -14914,7 +14963,7 @@
       <c r="AH603" s="176"/>
       <c r="AI603" s="176"/>
     </row>
-    <row r="604" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="604" spans="2:35">
       <c r="B604" s="177"/>
       <c r="C604" s="176"/>
       <c r="D604" s="139"/>
@@ -14922,7 +14971,7 @@
       <c r="F604" s="139"/>
       <c r="G604" s="139"/>
       <c r="H604" s="212" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I604" s="212"/>
       <c r="J604" s="176"/>
@@ -14952,7 +15001,7 @@
       <c r="AH604" s="176"/>
       <c r="AI604" s="176"/>
     </row>
-    <row r="605" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="605" spans="2:35">
       <c r="B605" s="177"/>
       <c r="C605" s="176"/>
       <c r="D605" s="176"/>
@@ -14960,7 +15009,7 @@
       <c r="F605" s="176"/>
       <c r="G605" s="176"/>
       <c r="H605" s="212" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I605" s="212"/>
       <c r="J605" s="176"/>
@@ -14990,7 +15039,7 @@
       <c r="AH605" s="176"/>
       <c r="AI605" s="176"/>
     </row>
-    <row r="606" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="606" spans="2:35">
       <c r="B606" s="177"/>
       <c r="C606" s="176"/>
       <c r="D606" s="176"/>
@@ -15026,7 +15075,7 @@
       <c r="AH606" s="176"/>
       <c r="AI606" s="176"/>
     </row>
-    <row r="607" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="607" spans="2:35">
       <c r="B607" s="177"/>
       <c r="C607" s="176"/>
       <c r="D607" s="176"/>
@@ -15062,7 +15111,7 @@
       <c r="AH607" s="176"/>
       <c r="AI607" s="176"/>
     </row>
-    <row r="608" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="608" spans="2:35">
       <c r="B608" s="177"/>
       <c r="C608" s="176"/>
       <c r="D608" s="176"/>
@@ -15098,7 +15147,7 @@
       <c r="AH608" s="176"/>
       <c r="AI608" s="176"/>
     </row>
-    <row r="609" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="609" spans="2:35">
       <c r="B609" s="177"/>
       <c r="C609" s="176"/>
       <c r="D609" s="176"/>
@@ -15134,7 +15183,7 @@
       <c r="AH609" s="176"/>
       <c r="AI609" s="176"/>
     </row>
-    <row r="610" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="610" spans="2:35">
       <c r="B610" s="177"/>
       <c r="C610" s="176"/>
       <c r="D610" s="176"/>
@@ -15170,7 +15219,7 @@
       <c r="AH610" s="176"/>
       <c r="AI610" s="176"/>
     </row>
-    <row r="611" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="611" spans="2:35">
       <c r="B611" s="177"/>
       <c r="C611" s="176"/>
       <c r="D611" s="176"/>
@@ -15206,7 +15255,7 @@
       <c r="AH611" s="176"/>
       <c r="AI611" s="176"/>
     </row>
-    <row r="612" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="612" spans="2:35">
       <c r="B612" s="177"/>
       <c r="C612" s="176"/>
       <c r="D612" s="176"/>
@@ -15242,7 +15291,7 @@
       <c r="AH612" s="176"/>
       <c r="AI612" s="176"/>
     </row>
-    <row r="613" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="613" spans="2:35">
       <c r="B613" s="177"/>
       <c r="C613" s="176"/>
       <c r="D613" s="176"/>
@@ -15278,7 +15327,7 @@
       <c r="AH613" s="176"/>
       <c r="AI613" s="176"/>
     </row>
-    <row r="614" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="614" spans="2:35">
       <c r="B614" s="177"/>
       <c r="C614" s="176"/>
       <c r="D614" s="176"/>
@@ -15314,7 +15363,7 @@
       <c r="AH614" s="176"/>
       <c r="AI614" s="176"/>
     </row>
-    <row r="615" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="615" spans="2:35">
       <c r="B615" s="177"/>
       <c r="C615" s="176"/>
       <c r="D615" s="176"/>
@@ -15350,7 +15399,7 @@
       <c r="AH615" s="176"/>
       <c r="AI615" s="176"/>
     </row>
-    <row r="616" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="616" spans="2:35">
       <c r="B616" s="177"/>
       <c r="C616" s="176"/>
       <c r="D616" s="176"/>
@@ -15386,7 +15435,7 @@
       <c r="AH616" s="176"/>
       <c r="AI616" s="176"/>
     </row>
-    <row r="617" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="617" spans="2:35">
       <c r="B617" s="177"/>
       <c r="C617" s="176"/>
       <c r="D617" s="176"/>
@@ -15422,7 +15471,7 @@
       <c r="AH617" s="176"/>
       <c r="AI617" s="176"/>
     </row>
-    <row r="618" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="618" spans="2:35">
       <c r="B618" s="177"/>
       <c r="C618" s="176"/>
       <c r="D618" s="176"/>
@@ -15458,7 +15507,7 @@
       <c r="AH618" s="176"/>
       <c r="AI618" s="176"/>
     </row>
-    <row r="619" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="619" spans="2:35">
       <c r="B619" s="177"/>
       <c r="C619" s="176"/>
       <c r="D619" s="176"/>
@@ -15494,7 +15543,7 @@
       <c r="AH619" s="176"/>
       <c r="AI619" s="176"/>
     </row>
-    <row r="620" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="620" spans="2:35">
       <c r="B620" s="177"/>
       <c r="C620" s="176"/>
       <c r="D620" s="176"/>
@@ -15530,7 +15579,7 @@
       <c r="AH620" s="176"/>
       <c r="AI620" s="176"/>
     </row>
-    <row r="621" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="621" spans="2:35">
       <c r="B621" s="177"/>
       <c r="C621" s="176"/>
       <c r="D621" s="176"/>
@@ -15566,7 +15615,7 @@
       <c r="AH621" s="176"/>
       <c r="AI621" s="176"/>
     </row>
-    <row r="622" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="622" spans="2:35">
       <c r="B622" s="177"/>
       <c r="C622" s="176"/>
       <c r="D622" s="176"/>
@@ -15602,7 +15651,7 @@
       <c r="AH622" s="176"/>
       <c r="AI622" s="176"/>
     </row>
-    <row r="623" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="623" spans="2:35">
       <c r="B623" s="177"/>
       <c r="C623" s="176"/>
       <c r="D623" s="176"/>
@@ -15638,7 +15687,7 @@
       <c r="AH623" s="176"/>
       <c r="AI623" s="176"/>
     </row>
-    <row r="624" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="624" spans="2:35">
       <c r="B624" s="177"/>
       <c r="C624" s="176"/>
       <c r="D624" s="176"/>
@@ -15674,7 +15723,7 @@
       <c r="AH624" s="176"/>
       <c r="AI624" s="176"/>
     </row>
-    <row r="625" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="625" spans="2:35">
       <c r="B625" s="177"/>
       <c r="C625" s="176"/>
       <c r="D625" s="176"/>
@@ -15710,7 +15759,7 @@
       <c r="AH625" s="176"/>
       <c r="AI625" s="176"/>
     </row>
-    <row r="626" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="626" spans="2:35">
       <c r="B626" s="177"/>
       <c r="C626" s="176"/>
       <c r="D626" s="176"/>
@@ -15746,31 +15795,31 @@
       <c r="AH626" s="176"/>
       <c r="AI626" s="176"/>
     </row>
-    <row r="627" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="627" spans="2:35">
       <c r="H627" s="176"/>
       <c r="I627" s="176"/>
       <c r="J627" s="176"/>
       <c r="K627" s="176"/>
     </row>
-    <row r="628" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="628" spans="2:35">
       <c r="H628" s="176"/>
       <c r="I628" s="176"/>
       <c r="J628" s="176"/>
       <c r="K628" s="176"/>
     </row>
-    <row r="629" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="629" spans="2:35">
       <c r="H629" s="176"/>
       <c r="I629" s="176"/>
       <c r="J629" s="176"/>
       <c r="K629" s="176"/>
     </row>
-    <row r="630" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="630" spans="2:35">
       <c r="H630" s="176"/>
       <c r="I630" s="176"/>
       <c r="J630" s="176"/>
       <c r="K630" s="176"/>
     </row>
-    <row r="631" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="631" spans="2:35">
       <c r="H631" s="176"/>
       <c r="I631" s="176"/>
       <c r="J631" s="176"/>
@@ -15778,8 +15827,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C281" r:id="rId1"/>
-    <hyperlink ref="C470" r:id="rId2"/>
+    <hyperlink ref="C281" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="C470" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C27C0C-F909-BB42-A20A-0AF60439E9CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410209C-E5BC-674D-A7C7-391DDF142F77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -43,6 +43,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
   <si>
     <t>Source</t>
   </si>
@@ -670,6 +676,12 @@
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
+  </si>
+  <si>
+    <t>kg_per_liter</t>
+  </si>
+  <si>
+    <t>kg/liter</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1945,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2336,6 +2348,10 @@
     <xf numFmtId="0" fontId="39" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2698,7 +2714,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="360" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="360" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4175,10 +4191,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4351,58 +4367,76 @@
     </row>
     <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B13" s="25"/>
-      <c r="C13" s="37" t="s">
-        <v>40</v>
+      <c r="C13" s="237" t="s">
+        <v>184</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="48">
+        <v>185</v>
+      </c>
+      <c r="E13" s="47">
         <f>'Research data'!G9</f>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="210" t="s">
-        <v>181</v>
-      </c>
+      <c r="G13" s="131"/>
       <c r="H13" s="32"/>
-      <c r="I13" s="215" t="s">
-        <v>44</v>
-      </c>
+      <c r="I13" s="132"/>
       <c r="J13" s="46"/>
     </row>
     <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B14" s="25"/>
-      <c r="C14" s="205" t="s">
-        <v>174</v>
+      <c r="C14" s="37" t="s">
+        <v>40</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="214">
+      <c r="E14" s="48">
         <f>'Research data'!G10</f>
-        <v>7.0800000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="210" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="215" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
+      <c r="B15" s="25"/>
+      <c r="C15" s="205" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="214">
+        <f>'Research data'!G11</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="210" t="s">
+        <v>182</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="215" t="s">
         <v>175</v>
       </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4550,7 +4584,7 @@
         <v>51</v>
       </c>
       <c r="E11" s="124">
-        <f>'Research data'!G14</f>
+        <f>'Research data'!G15</f>
         <v>0</v>
       </c>
       <c r="F11" s="37"/>
@@ -4572,7 +4606,7 @@
         <v>51</v>
       </c>
       <c r="E12" s="124">
-        <f>'Research data'!G15</f>
+        <f>'Research data'!G16</f>
         <v>0</v>
       </c>
       <c r="F12" s="37"/>
@@ -4594,7 +4628,7 @@
         <v>51</v>
       </c>
       <c r="E13" s="124">
-        <f>'Research data'!G16</f>
+        <f>'Research data'!G17</f>
         <v>2.01E-2</v>
       </c>
       <c r="F13" s="37"/>
@@ -4616,7 +4650,7 @@
         <v>51</v>
       </c>
       <c r="E14" s="124">
-        <f>'Research data'!G17</f>
+        <f>'Research data'!G18</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="F14" s="37"/>
@@ -4638,7 +4672,7 @@
         <v>51</v>
       </c>
       <c r="E15" s="124">
-        <f>'Research data'!G18</f>
+        <f>'Research data'!G19</f>
         <v>0</v>
       </c>
       <c r="F15" s="37"/>
@@ -4660,7 +4694,7 @@
         <v>51</v>
       </c>
       <c r="E16" s="124">
-        <f>'Research data'!G19</f>
+        <f>'Research data'!G20</f>
         <v>0</v>
       </c>
       <c r="F16" s="37"/>
@@ -4682,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="48">
-        <f>'Research data'!G20</f>
+        <f>'Research data'!G21</f>
         <v>0.2</v>
       </c>
       <c r="F17" s="37"/>
@@ -4728,7 +4762,7 @@
         <v>51</v>
       </c>
       <c r="E20" s="124">
-        <f>'Research data'!G23</f>
+        <f>'Research data'!G24</f>
         <v>0</v>
       </c>
       <c r="F20" s="37"/>
@@ -4750,7 +4784,7 @@
         <v>51</v>
       </c>
       <c r="E21" s="124">
-        <f>'Research data'!G24</f>
+        <f>'Research data'!G25</f>
         <v>1.47E-2</v>
       </c>
       <c r="F21" s="37"/>
@@ -4772,7 +4806,7 @@
         <v>51</v>
       </c>
       <c r="E22" s="124">
-        <f>'Research data'!G25</f>
+        <f>'Research data'!G26</f>
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="F22" s="37"/>
@@ -4794,7 +4828,7 @@
         <v>51</v>
       </c>
       <c r="E23" s="124">
-        <f>'Research data'!G26</f>
+        <f>'Research data'!G27</f>
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="F23" s="37"/>
@@ -4816,7 +4850,7 @@
         <v>51</v>
       </c>
       <c r="E24" s="124">
-        <f>'Research data'!G27</f>
+        <f>'Research data'!G28</f>
         <v>0</v>
       </c>
       <c r="F24" s="37"/>
@@ -4838,7 +4872,7 @@
         <v>51</v>
       </c>
       <c r="E25" s="124">
-        <f>'Research data'!G28</f>
+        <f>'Research data'!G29</f>
         <v>0</v>
       </c>
       <c r="F25" s="37"/>
@@ -4860,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="48">
-        <f>'Research data'!G29</f>
+        <f>'Research data'!G30</f>
         <v>0.8</v>
       </c>
       <c r="F26" s="37"/>
@@ -4898,10 +4932,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:R36"/>
+  <dimension ref="B1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5120,23 +5154,23 @@
     </row>
     <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="137" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="137" t="s">
-        <v>40</v>
-      </c>
+      <c r="C9" s="236" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
       <c r="F9" s="24" t="s">
-        <v>51</v>
+        <v>185</v>
       </c>
       <c r="G9" s="47">
-        <v>0</v>
+        <f>I9</f>
+        <v>0.89</v>
       </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="18"/>
+      <c r="I9" s="47">
+        <f>Notes!F10</f>
+        <v>0.89</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -5149,17 +5183,20 @@
     </row>
     <row r="10" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="5"/>
-      <c r="C10" s="206" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
+      <c r="C10" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="137" t="s">
+        <v>40</v>
+      </c>
       <c r="F10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="214">
-        <f>P10</f>
-        <v>7.0800000000000002E-2</v>
+      <c r="G10" s="47">
+        <v>0</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="18"/>
@@ -5169,21 +5206,25 @@
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="16"/>
-      <c r="P10" s="214">
-        <f>Notes!G600</f>
-        <v>7.0800000000000002E-2</v>
-      </c>
+      <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18">
-      <c r="B11" s="78"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
+    <row r="11" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="206" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="214">
+        <f>P11</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -5191,20 +5232,21 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="214">
+        <f>Notes!G600</f>
+        <v>7.0800000000000002E-2</v>
+      </c>
       <c r="Q11" s="16"/>
-      <c r="R11" s="145"/>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18">
       <c r="B12" s="78"/>
-      <c r="C12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="84"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -5216,16 +5258,16 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="145"/>
     </row>
-    <row r="13" spans="2:18" ht="17" thickBot="1">
+    <row r="13" spans="2:18">
       <c r="B13" s="78"/>
-      <c r="C13" s="136" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="131"/>
+      <c r="C13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="114"/>
-      <c r="H13" s="85"/>
+      <c r="H13" s="84"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -5235,37 +5277,27 @@
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
-      <c r="R13" s="145" t="s">
-        <v>54</v>
-      </c>
+      <c r="R13" s="145"/>
     </row>
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="78"/>
-      <c r="C14" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14" s="124">
-        <f>M14</f>
-        <v>0</v>
-      </c>
+      <c r="C14" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="131"/>
+      <c r="G14" s="114"/>
       <c r="H14" s="85"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="124">
-        <f>Notes!H329</f>
-        <v>0</v>
-      </c>
+      <c r="M14" s="18"/>
       <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="82"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="145" t="s">
         <v>54</v>
       </c>
@@ -5273,30 +5305,30 @@
     <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="78"/>
       <c r="C15" s="138" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G15" s="124">
-        <f t="shared" ref="G15:G19" si="0">M15</f>
+        <f>M15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="85"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="124">
-        <f>Notes!H330</f>
+        <f>Notes!H329</f>
         <v>0</v>
       </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="82"/>
       <c r="R15" s="145" t="s">
         <v>54</v>
       </c>
@@ -5304,16 +5336,16 @@
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="78"/>
       <c r="C16" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+        <v>46</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="124">
-        <f t="shared" si="0"/>
-        <v>2.01E-2</v>
+        <f t="shared" ref="G16:G20" si="0">M16</f>
+        <v>0</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
@@ -5321,8 +5353,8 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="124">
-        <f>Notes!H331</f>
-        <v>2.01E-2</v>
+        <f>Notes!H330</f>
+        <v>0</v>
       </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -5335,7 +5367,7 @@
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="78"/>
       <c r="C17" s="138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
@@ -5344,7 +5376,7 @@
       </c>
       <c r="G17" s="124">
         <f t="shared" si="0"/>
-        <v>5.9999999999999995E-4</v>
+        <v>2.01E-2</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
@@ -5352,8 +5384,8 @@
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="124">
-        <f>Notes!H332</f>
-        <v>5.9999999999999995E-4</v>
+        <f>Notes!H331</f>
+        <v>2.01E-2</v>
       </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -5366,30 +5398,30 @@
     <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="78"/>
       <c r="C18" s="138" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
+        <v>49</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
       <c r="F18" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="124">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="85"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="124">
-        <f>Notes!H333</f>
-        <v>0</v>
+        <f>Notes!H332</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
-      <c r="Q18" s="82"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="145" t="s">
         <v>54</v>
       </c>
@@ -5397,10 +5429,10 @@
     <row r="19" spans="2:18" ht="17" thickBot="1">
       <c r="B19" s="78"/>
       <c r="C19" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
       <c r="F19" s="24" t="s">
         <v>51</v>
       </c>
@@ -5408,13 +5440,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="124">
-        <f>Notes!H334</f>
+        <f>Notes!H333</f>
         <v>0</v>
       </c>
       <c r="N19" s="18"/>
@@ -5428,59 +5460,69 @@
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="78"/>
       <c r="C20" s="138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="48">
-        <f>M20</f>
-        <v>0.2</v>
+        <v>51</v>
+      </c>
+      <c r="G20" s="124">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="48">
-        <v>0.2</v>
+      <c r="M20" s="124">
+        <f>Notes!H334</f>
+        <v>0</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="82"/>
       <c r="R20" s="145" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="78"/>
-      <c r="C21" s="136"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="85"/>
+      <c r="C21" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="48">
+        <f>M21</f>
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+      <c r="M21" s="48">
+        <v>0.2</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="82"/>
-      <c r="R21" s="145"/>
+      <c r="R21" s="145" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
       <c r="B22" s="78"/>
-      <c r="C22" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
       <c r="F22" s="131"/>
       <c r="G22" s="131"/>
       <c r="H22" s="85"/>
@@ -5488,38 +5530,28 @@
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="131"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
-      <c r="Q22" s="80"/>
-      <c r="R22" s="145" t="s">
-        <v>54</v>
-      </c>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="145"/>
     </row>
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="78"/>
-      <c r="C23" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="48">
-        <f>M23</f>
-        <v>0</v>
-      </c>
+      <c r="C23" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
       <c r="H23" s="85"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="48">
-        <f>Notes!H346</f>
-        <v>0</v>
-      </c>
+      <c r="M23" s="131"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -5531,27 +5563,30 @@
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="78"/>
       <c r="C24" s="138" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="124">
-        <f t="shared" ref="G24:G29" si="1">M24</f>
-        <v>1.47E-2</v>
-      </c>
+      <c r="G24" s="48">
+        <f>M24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="85"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="124">
-        <f>Notes!H347</f>
-        <v>1.47E-2</v>
+      <c r="M24" s="48">
+        <f>Notes!H346</f>
+        <v>0</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
-      <c r="Q24" s="82"/>
+      <c r="Q24" s="80"/>
       <c r="R24" s="145" t="s">
         <v>54</v>
       </c>
@@ -5559,22 +5594,22 @@
     <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="78"/>
       <c r="C25" s="138" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F25" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="124">
-        <f t="shared" si="1"/>
-        <v>9.4000000000000004E-3</v>
+        <f t="shared" ref="G25:G30" si="1">M25</f>
+        <v>1.47E-2</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="124">
-        <f>Notes!H348</f>
-        <v>9.4000000000000004E-3</v>
+        <f>Notes!H347</f>
+        <v>1.47E-2</v>
       </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -5587,22 +5622,22 @@
     <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="78"/>
       <c r="C26" s="138" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="124">
         <f t="shared" si="1"/>
-        <v>6.9999999999999999E-4</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="124">
-        <f>Notes!H349</f>
-        <v>6.9999999999999999E-4</v>
+        <f>Notes!H348</f>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -5615,22 +5650,22 @@
     <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="78"/>
       <c r="C27" s="138" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F27" s="24" t="s">
         <v>51</v>
       </c>
       <c r="G27" s="124">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="124">
-        <f>Notes!H350</f>
-        <v>0</v>
+        <f>Notes!H349</f>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -5643,7 +5678,7 @@
     <row r="28" spans="2:18" ht="17" thickBot="1">
       <c r="B28" s="78"/>
       <c r="C28" s="138" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F28" s="24" t="s">
         <v>51</v>
@@ -5657,13 +5692,13 @@
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="124">
-        <f>Notes!H351</f>
+        <f>Notes!H350</f>
         <v>0</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
-      <c r="Q28" s="85"/>
+      <c r="Q28" s="82"/>
       <c r="R28" s="145" t="s">
         <v>54</v>
       </c>
@@ -5671,52 +5706,76 @@
     <row r="29" spans="2:18" ht="17" thickBot="1">
       <c r="B29" s="78"/>
       <c r="C29" s="138" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="48">
+        <v>51</v>
+      </c>
+      <c r="G29" s="124">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="48">
-        <v>0.8</v>
+      <c r="M29" s="124">
+        <f>Notes!H351</f>
+        <v>0</v>
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="145" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" ht="17" thickBot="1">
+      <c r="B30" s="78"/>
+      <c r="C30" s="138" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="48">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="145" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="2:18" ht="17" thickBot="1">
-      <c r="B30" s="92"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-    </row>
-    <row r="31" spans="2:18">
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+    <row r="31" spans="2:18" ht="17" thickBot="1">
+      <c r="B31" s="92"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
     </row>
     <row r="32" spans="2:18">
       <c r="O32" s="18"/>
@@ -5735,7 +5794,11 @@
       <c r="P35" s="18"/>
     </row>
     <row r="36" spans="15:18">
-      <c r="R36" s="145"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+    </row>
+    <row r="37" spans="15:18">
+      <c r="R37" s="145"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6103,7 +6166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI631"/>
   <sheetViews>
-    <sheetView topLeftCell="A570" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F528" sqref="F528"/>
     </sheetView>
   </sheetViews>

--- a/carriers_source_analyses/biodiesel.carrier.xlsx
+++ b/carriers_source_analyses/biodiesel.carrier.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/carriers_source_analyses/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottevonm/Code/etdataset/carriers_source_analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5410209C-E5BC-674D-A7C7-391DDF142F77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C57823-153E-F84D-82AE-2D7B19421AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17540" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="182">
   <si>
     <t>Source</t>
   </si>
@@ -189,9 +192,6 @@
   </si>
   <si>
     <t>Quintel assumption</t>
-  </si>
-  <si>
-    <t>Quintel definition</t>
   </si>
   <si>
     <t>co2_exploration_per_mj</t>
@@ -586,9 +586,6 @@
   </si>
   <si>
     <t>Assumed dependent on nromal diesel price</t>
-  </si>
-  <si>
-    <t>EC Oil Bulletin and biotanken.nl</t>
   </si>
   <si>
     <t>Gas oil automobileAutomotive gas oilDieselkraftstoff(I) excl tax</t>
@@ -667,12 +664,6 @@
     <t>TJ/MJ</t>
   </si>
   <si>
-    <t>CO2 emission from biomass is defined as 0</t>
-  </si>
-  <si>
-    <t>Actual CO2 emission from biomass</t>
-  </si>
-  <si>
     <t>This sheet summarizes all carrier attributes formatted in the way they are used by the Energy Transition Model. This sheet contains only pure carrier values. For some countries and carriers Fuel Chain Emissions are defined (only for NL); if so these FCE are documented in a separate sheet (e.g. nl_fce). Use the Excel formulas to find the original data and sources for these numbers. 
 - The carrier analysis can be imported on ETSource by running the following rake task: rake import:carrier CARRIER="carrier name" (eg rake import:carrier CARRIER=crude_oil) 
 - The fce analysis can be imported on ETSource by running the following rake task: rake import:fce DATASET="dataset" CARRIER="carrier name" (eg rake import:fce DATASET=nl CARRIER=bio_ethanol)</t>
@@ -688,25 +679,31 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.000000"/>
     <numFmt numFmtId="168" formatCode="0.000000000"/>
     <numFmt numFmtId="169" formatCode="0.0000000000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000000"/>
     <numFmt numFmtId="171" formatCode="#,##0.00000"/>
     <numFmt numFmtId="172" formatCode="0.00000"/>
     <numFmt numFmtId="173" formatCode="0.000000"/>
     <numFmt numFmtId="174" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1581,777 +1578,772 @@
   </borders>
   <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="53" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="238">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="22" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="42" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="29" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="29" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="49" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="49" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="50" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="48" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="48" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="55" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="55" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="32" fillId="0" borderId="0" xfId="360" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="183" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="30" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="183" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="41" fillId="15" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="17" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="42" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="46" fillId="17" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="16" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="28" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="48" fillId="16" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="16" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="49" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="18" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="47" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="18" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="54" fillId="17" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="19" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" xfId="360" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3993,13 +3985,13 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="31" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="44.1640625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="2.1640625" style="23" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="23"/>
+    <col min="1" max="1" width="3.42578125" style="31" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1">
@@ -4022,10 +4014,10 @@
     <row r="4" spans="1:4">
       <c r="A4" s="7"/>
       <c r="B4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4191,25 +4183,25 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4219,30 +4211,30 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="222" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="223"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="224"/>
+      <c r="B2" s="219" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="220"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="221"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="226"/>
-      <c r="F3" s="226"/>
-      <c r="G3" s="227"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="224"/>
     </row>
     <row r="4" spans="2:10" ht="64" customHeight="1">
-      <c r="B4" s="228"/>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="230"/>
+      <c r="B4" s="225"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="227"/>
     </row>
     <row r="5" spans="2:10" ht="17" thickBot="1">
       <c r="D5" s="36"/>
@@ -4293,7 +4285,7 @@
     <row r="9" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="25"/>
       <c r="C9" s="159" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="20"/>
@@ -4327,116 +4319,52 @@
     </row>
     <row r="11" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="25"/>
-      <c r="C11" s="131" t="s">
-        <v>39</v>
+      <c r="C11" s="165" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="173">
-        <f>'Research data'!G7</f>
-        <v>2.8960044113080459E-2</v>
+        <v>57</v>
+      </c>
+      <c r="E11" s="47">
+        <f>'Research data'!G8</f>
+        <v>37.200000000000003</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131"/>
       <c r="H11" s="32"/>
-      <c r="I11" s="195" t="s">
-        <v>169</v>
+      <c r="I11" s="132" t="s">
+        <v>128</v>
       </c>
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="25"/>
-      <c r="C12" s="165" t="s">
-        <v>127</v>
+      <c r="C12" s="218" t="s">
+        <v>180</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
       <c r="E12" s="47">
-        <f>'Research data'!G8</f>
-        <v>37.200000000000003</v>
+        <f>'Research data'!G9</f>
+        <v>0.89</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="131"/>
       <c r="H12" s="32"/>
-      <c r="I12" s="132" t="s">
-        <v>129</v>
-      </c>
+      <c r="I12" s="132"/>
       <c r="J12" s="46"/>
     </row>
-    <row r="13" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B13" s="25"/>
-      <c r="C13" s="237" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="47">
-        <f>'Research data'!G9</f>
-        <v>0.89</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="46"/>
-    </row>
-    <row r="14" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B14" s="25"/>
-      <c r="C14" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="48">
-        <f>'Research data'!G10</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="210" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="215" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="46"/>
-    </row>
-    <row r="15" spans="2:10" s="45" customFormat="1" ht="20" thickBot="1">
-      <c r="B15" s="25"/>
-      <c r="C15" s="205" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="214">
-        <f>'Research data'!G11</f>
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="210" t="s">
-        <v>182</v>
-      </c>
-      <c r="H15" s="32"/>
-      <c r="I15" s="215" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" s="46"/>
-    </row>
-    <row r="16" spans="2:10" ht="20" customHeight="1" thickBot="1">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+    <row r="13" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4456,19 +4384,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="38" customWidth="1"/>
     <col min="3" max="3" width="46" style="38" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="38" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="38" customWidth="1"/>
     <col min="7" max="7" width="45" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="38" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="38" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="38" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="38"/>
+    <col min="8" max="8" width="5.140625" style="38" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="38" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="38" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -4478,28 +4406,28 @@
       <c r="G1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="15" customHeight="1">
-      <c r="B2" s="222" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="223"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="231"/>
+      <c r="B2" s="219" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="220"/>
+      <c r="D2" s="220"/>
+      <c r="E2" s="228"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="225"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="232"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="229"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="233"/>
-      <c r="C4" s="234"/>
-      <c r="D4" s="234"/>
-      <c r="E4" s="235"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="231"/>
+      <c r="D4" s="231"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
     </row>
@@ -4564,8 +4492,8 @@
     </row>
     <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="204" t="s">
-        <v>172</v>
+      <c r="C10" s="202" t="s">
+        <v>170</v>
       </c>
       <c r="D10" s="131"/>
       <c r="E10" s="131"/>
@@ -4578,10 +4506,10 @@
     <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="124">
         <f>'Research data'!G15</f>
@@ -4589,21 +4517,21 @@
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="117"/>
     </row>
     <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="41"/>
       <c r="C12" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E12" s="124">
         <f>'Research data'!G16</f>
@@ -4611,21 +4539,21 @@
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="37"/>
       <c r="I12" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="117"/>
     </row>
     <row r="13" spans="2:10" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="E13" s="124">
         <f>'Research data'!G17</f>
@@ -4633,21 +4561,21 @@
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="117"/>
     </row>
     <row r="14" spans="2:10" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" s="124">
         <f>'Research data'!G18</f>
@@ -4655,11 +4583,11 @@
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J14" s="117"/>
     </row>
@@ -4669,7 +4597,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="124">
         <f>'Research data'!G19</f>
@@ -4677,21 +4605,21 @@
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J15" s="117"/>
     </row>
     <row r="16" spans="2:10" ht="17" thickBot="1">
       <c r="B16" s="41"/>
       <c r="C16" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="124">
         <f>'Research data'!G20</f>
@@ -4699,18 +4627,18 @@
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="117"/>
     </row>
     <row r="17" spans="2:10" ht="17" thickBot="1">
       <c r="B17" s="41"/>
       <c r="C17" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>1</v>
@@ -4721,11 +4649,11 @@
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J17" s="117"/>
     </row>
@@ -4742,8 +4670,8 @@
     </row>
     <row r="19" spans="2:10" ht="17" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="204" t="s">
-        <v>173</v>
+      <c r="C19" s="202" t="s">
+        <v>171</v>
       </c>
       <c r="D19" s="131"/>
       <c r="E19" s="131"/>
@@ -4756,10 +4684,10 @@
     <row r="20" spans="2:10" ht="17" thickBot="1">
       <c r="B20" s="41"/>
       <c r="C20" s="134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" s="124">
         <f>'Research data'!G24</f>
@@ -4767,21 +4695,21 @@
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="117"/>
     </row>
     <row r="21" spans="2:10" ht="17" thickBot="1">
       <c r="B21" s="41"/>
       <c r="C21" s="134" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" s="124">
         <f>'Research data'!G25</f>
@@ -4789,21 +4717,21 @@
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H21" s="37"/>
       <c r="I21" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="117"/>
     </row>
     <row r="22" spans="2:10" ht="17" thickBot="1">
       <c r="B22" s="41"/>
       <c r="C22" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="E22" s="124">
         <f>'Research data'!G26</f>
@@ -4811,21 +4739,21 @@
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="37"/>
       <c r="I22" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="117"/>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="B23" s="41"/>
       <c r="C23" s="134" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="124">
         <f>'Research data'!G27</f>
@@ -4833,11 +4761,11 @@
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H23" s="37"/>
       <c r="I23" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="117"/>
     </row>
@@ -4847,7 +4775,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E24" s="124">
         <f>'Research data'!G28</f>
@@ -4855,21 +4783,21 @@
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H24" s="37"/>
       <c r="I24" s="96" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" s="117"/>
     </row>
     <row r="25" spans="2:10" ht="17" thickBot="1">
       <c r="B25" s="41"/>
       <c r="C25" s="134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" s="124">
         <f>'Research data'!G29</f>
@@ -4877,18 +4805,18 @@
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="131" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="123" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J25" s="117"/>
     </row>
     <row r="26" spans="2:10" ht="17" thickBot="1">
       <c r="B26" s="41"/>
       <c r="C26" s="134" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>1</v>
@@ -4899,11 +4827,11 @@
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="37"/>
       <c r="I26" s="132" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J26" s="117"/>
     </row>
@@ -4938,26 +4866,26 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="72" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="72" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="72" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="72" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="72" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" style="72" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="73" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="72" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="72" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="72" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="72" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="73" customWidth="1"/>
     <col min="10" max="10" width="3" style="73" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="73" customWidth="1"/>
-    <col min="12" max="12" width="3.33203125" style="73" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="73" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="73" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="73" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.83203125" style="73" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" style="73" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="73" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="73" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="73" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="73" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="73" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" style="73" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="73" customWidth="1"/>
     <col min="18" max="18" width="60" style="72" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="72"/>
+    <col min="19" max="16384" width="10.85546875" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="17" thickBot="1"/>
@@ -4995,22 +4923,22 @@
       </c>
       <c r="H3" s="121"/>
       <c r="I3" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J3" s="69"/>
       <c r="K3" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L3" s="69"/>
       <c r="M3" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N3" s="69"/>
       <c r="O3" s="69" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P3" s="69" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="69"/>
       <c r="R3" s="1" t="s">
@@ -5039,7 +4967,7 @@
     <row r="5" spans="2:18" ht="17" thickBot="1">
       <c r="B5" s="78"/>
       <c r="C5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -5096,7 +5024,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G7" s="172">
         <f>O7</f>
@@ -5113,25 +5041,25 @@
         <f>Notes!F528</f>
         <v>2.8960044113080459E-2</v>
       </c>
-      <c r="P7" s="208"/>
+      <c r="P7" s="205"/>
       <c r="Q7" s="16"/>
-      <c r="R7" s="194" t="s">
-        <v>168</v>
+      <c r="R7" s="193" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="5"/>
       <c r="C8" s="166" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="E8" s="136" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>58</v>
       </c>
       <c r="G8" s="47">
         <f>I8</f>
@@ -5154,13 +5082,13 @@
     </row>
     <row r="9" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="5"/>
-      <c r="C9" s="236" t="s">
-        <v>184</v>
+      <c r="C9" s="217" t="s">
+        <v>180</v>
       </c>
       <c r="D9" s="136"/>
       <c r="E9" s="136"/>
       <c r="F9" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G9" s="47">
         <f>I9</f>
@@ -5193,7 +5121,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" s="47">
         <v>0</v>
@@ -5212,15 +5140,15 @@
     </row>
     <row r="11" spans="2:18" s="6" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="5"/>
-      <c r="C11" s="206" t="s">
-        <v>174</v>
+      <c r="C11" s="203" t="s">
+        <v>172</v>
       </c>
       <c r="D11" s="137"/>
       <c r="E11" s="137"/>
       <c r="F11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="214">
+        <v>50</v>
+      </c>
+      <c r="G11" s="210">
         <f>P11</f>
         <v>7.0800000000000002E-2</v>
       </c>
@@ -5232,7 +5160,7 @@
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="214">
+      <c r="P11" s="210">
         <f>Notes!G600</f>
         <v>7.0800000000000002E-2</v>
       </c>
@@ -5282,7 +5210,7 @@
     <row r="14" spans="2:18" ht="17" thickBot="1">
       <c r="B14" s="78"/>
       <c r="C14" s="136" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="87"/>
       <c r="E14" s="87"/>
@@ -5299,18 +5227,18 @@
       <c r="P14" s="16"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="17" thickBot="1">
       <c r="B15" s="78"/>
       <c r="C15" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="88"/>
       <c r="E15" s="88"/>
       <c r="F15" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="124">
         <f>M15</f>
@@ -5330,18 +5258,18 @@
       <c r="P15" s="18"/>
       <c r="Q15" s="82"/>
       <c r="R15" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="17" thickBot="1">
       <c r="B16" s="78"/>
       <c r="C16" s="138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="34"/>
       <c r="E16" s="34"/>
       <c r="F16" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="124">
         <f t="shared" ref="G16:G20" si="0">M16</f>
@@ -5361,18 +5289,18 @@
       <c r="P16" s="18"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="17" thickBot="1">
       <c r="B17" s="78"/>
       <c r="C17" s="138" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G17" s="124">
         <f t="shared" si="0"/>
@@ -5392,18 +5320,18 @@
       <c r="P17" s="18"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="17" thickBot="1">
       <c r="B18" s="78"/>
       <c r="C18" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
       <c r="F18" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G18" s="124">
         <f t="shared" si="0"/>
@@ -5423,7 +5351,7 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="17" thickBot="1">
@@ -5434,7 +5362,7 @@
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
       <c r="F19" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="124">
         <f t="shared" si="0"/>
@@ -5454,18 +5382,18 @@
       <c r="P19" s="18"/>
       <c r="Q19" s="82"/>
       <c r="R19" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="17" thickBot="1">
       <c r="B20" s="78"/>
       <c r="C20" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="34"/>
       <c r="E20" s="34"/>
       <c r="F20" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20" s="124">
         <f t="shared" si="0"/>
@@ -5485,13 +5413,13 @@
       <c r="P20" s="18"/>
       <c r="Q20" s="82"/>
       <c r="R20" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="17" thickBot="1">
       <c r="B21" s="78"/>
       <c r="C21" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="34"/>
       <c r="E21" s="34"/>
@@ -5515,7 +5443,7 @@
       <c r="P21" s="18"/>
       <c r="Q21" s="82"/>
       <c r="R21" s="145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:18" ht="17" thickBot="1">
@@ -5540,7 +5468,7 @@
     <row r="23" spans="2:18" ht="17" thickBot="1">
       <c r="B23" s="78"/>
       <c r="C23" s="136" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="90"/>
       <c r="E23" s="90"/>
@@ -5557,18 +5485,18 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="80"/>
       <c r="R23" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:18" ht="17" thickBot="1">
       <c r="B24" s="78"/>
       <c r="C24" s="138" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="93"/>
       <c r="E24" s="93"/>
       <c r="F24" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="48">
         <f>M24</f>
@@ -5588,16 +5516,16 @@
       <c r="P24" s="18"/>
       <c r="Q24" s="80"/>
       <c r="R24" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="2:18" ht="17" thickBot="1">
       <c r="B25" s="78"/>
       <c r="C25" s="138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" s="124">
         <f t="shared" ref="G25:G30" si="1">M25</f>
@@ -5616,16 +5544,16 @@
       <c r="P25" s="18"/>
       <c r="Q25" s="82"/>
       <c r="R25" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:18" ht="17" thickBot="1">
       <c r="B26" s="78"/>
       <c r="C26" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="24" t="s">
         <v>50</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>51</v>
       </c>
       <c r="G26" s="124">
         <f t="shared" si="1"/>
@@ -5644,16 +5572,16 @@
       <c r="P26" s="18"/>
       <c r="Q26" s="82"/>
       <c r="R26" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="17" thickBot="1">
       <c r="B27" s="78"/>
       <c r="C27" s="138" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="124">
         <f t="shared" si="1"/>
@@ -5672,7 +5600,7 @@
       <c r="P27" s="18"/>
       <c r="Q27" s="82"/>
       <c r="R27" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="2:18" ht="17" thickBot="1">
@@ -5681,7 +5609,7 @@
         <v>40</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G28" s="124">
         <f t="shared" si="1"/>
@@ -5700,16 +5628,16 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="82"/>
       <c r="R28" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="2:18" ht="17" thickBot="1">
       <c r="B29" s="78"/>
       <c r="C29" s="138" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="124">
         <f t="shared" si="1"/>
@@ -5728,13 +5656,13 @@
       <c r="P29" s="18"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="145" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="2:18" ht="17" thickBot="1">
       <c r="B30" s="78"/>
       <c r="C30" s="138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" s="24" t="s">
         <v>1</v>
@@ -5755,7 +5683,7 @@
       <c r="P30" s="18"/>
       <c r="Q30" s="85"/>
       <c r="R30" s="145" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:18" ht="17" thickBot="1">
@@ -5817,19 +5745,19 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="49" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="49" customWidth="1"/>
     <col min="6" max="6" width="5" style="49" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="49" customWidth="1"/>
-    <col min="8" max="10" width="12.1640625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" style="50" customWidth="1"/>
-    <col min="12" max="12" width="87.33203125" style="49" customWidth="1"/>
-    <col min="13" max="16384" width="33.1640625" style="49"/>
+    <col min="7" max="7" width="10.28515625" style="49" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" style="50" customWidth="1"/>
+    <col min="12" max="12" width="87.28515625" style="49" customWidth="1"/>
+    <col min="13" max="16384" width="33.140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17" thickBot="1"/>
@@ -5919,25 +5847,25 @@
     <row r="7" spans="2:12">
       <c r="B7" s="54"/>
       <c r="C7" s="167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="62"/>
       <c r="E7" s="139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="168" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L7" s="58"/>
     </row>
@@ -5956,24 +5884,24 @@
     </row>
     <row r="9" spans="2:12">
       <c r="B9" s="54"/>
-      <c r="C9" s="216" t="s">
-        <v>174</v>
+      <c r="C9" s="211" t="s">
+        <v>172</v>
       </c>
       <c r="D9" s="63"/>
-      <c r="E9" s="207" t="s">
-        <v>175</v>
+      <c r="E9" s="204" t="s">
+        <v>173</v>
       </c>
       <c r="F9" s="147"/>
       <c r="G9" s="57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I9" s="58"/>
       <c r="J9" s="58"/>
-      <c r="K9" s="217" t="s">
-        <v>177</v>
+      <c r="K9" s="212" t="s">
+        <v>175</v>
       </c>
       <c r="L9" s="71"/>
     </row>
@@ -5984,21 +5912,21 @@
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="147" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G10" s="57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I10" s="58"/>
       <c r="J10" s="58"/>
       <c r="K10" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L10" s="71"/>
     </row>
@@ -6057,11 +5985,11 @@
     <row r="15" spans="2:12">
       <c r="B15" s="54"/>
       <c r="C15" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="62"/>
       <c r="E15" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" s="147"/>
       <c r="G15" s="62" t="s">
@@ -6075,7 +6003,7 @@
       </c>
       <c r="J15" s="62"/>
       <c r="K15" s="68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L15" s="66"/>
     </row>
@@ -6104,17 +6032,17 @@
       <c r="J17" s="62"/>
       <c r="K17" s="68"/>
       <c r="L17" s="151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="54"/>
       <c r="C18" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" s="62"/>
       <c r="E18" s="148" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F18" s="148"/>
       <c r="G18" s="62"/>
@@ -6123,17 +6051,17 @@
       <c r="J18" s="62"/>
       <c r="K18" s="68"/>
       <c r="L18" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="54"/>
       <c r="E19" s="149" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F19" s="149"/>
-      <c r="L19" s="178" t="s">
-        <v>145</v>
+      <c r="L19" s="177" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="2:12">
@@ -6172,12 +6100,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="125" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="125" customWidth="1"/>
     <col min="2" max="2" width="5" style="125" customWidth="1"/>
     <col min="3" max="5" width="7" style="125"/>
-    <col min="6" max="6" width="10.83203125" style="125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="125"/>
-    <col min="8" max="8" width="10.33203125" style="125" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="125" customWidth="1"/>
     <col min="9" max="16384" width="7" style="125"/>
   </cols>
   <sheetData>
@@ -6188,7 +6116,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E2" s="129"/>
       <c r="F2" s="129" t="s">
@@ -6235,7 +6163,7 @@
     <row r="4" spans="2:25" customFormat="1">
       <c r="B4" s="126"/>
       <c r="C4" s="139" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="139"/>
       <c r="E4" s="139"/>
@@ -6348,10 +6276,10 @@
         <v>890</v>
       </c>
       <c r="G8" s="140" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="141" t="s">
         <v>64</v>
-      </c>
-      <c r="H8" s="141" t="s">
-        <v>65</v>
       </c>
       <c r="I8" s="139"/>
       <c r="J8" s="139"/>
@@ -6379,10 +6307,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="G9" s="139" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="141" t="s">
         <v>66</v>
-      </c>
-      <c r="H9" s="141" t="s">
-        <v>67</v>
       </c>
       <c r="I9" s="139"/>
       <c r="J9" s="139"/>
@@ -6411,10 +6339,10 @@
         <v>0.89</v>
       </c>
       <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="141" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" s="141" t="s">
-        <v>69</v>
       </c>
       <c r="I10" s="139"/>
       <c r="J10" s="139"/>
@@ -6443,10 +6371,10 @@
         <v>33.108000000000004</v>
       </c>
       <c r="G11" s="139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="141" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I11" s="139"/>
       <c r="J11" s="139"/>
@@ -7013,7 +6941,7 @@
         <v>25</v>
       </c>
       <c r="D62" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="129"/>
       <c r="F62" s="129" t="s">
@@ -7064,7 +6992,7 @@
     <row r="64" spans="2:25" customFormat="1">
       <c r="B64" s="126"/>
       <c r="C64" s="139" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64" s="139"/>
       <c r="E64" s="139"/>
@@ -7279,7 +7207,7 @@
       <c r="B72" s="126"/>
       <c r="C72" s="139"/>
       <c r="D72" s="155" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E72" s="139"/>
       <c r="F72" s="139"/>
@@ -7775,7 +7703,7 @@
       <c r="C91" s="139"/>
       <c r="D91" s="139"/>
       <c r="E91" s="142" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F91" s="125"/>
       <c r="G91" s="125"/>
@@ -7802,10 +7730,10 @@
         <v>1600</v>
       </c>
       <c r="G92" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="H92" s="139" t="s">
         <v>92</v>
-      </c>
-      <c r="H92" s="139" t="s">
-        <v>93</v>
       </c>
       <c r="K92" s="139"/>
       <c r="O92" s="139"/>
@@ -7825,22 +7753,22 @@
       <c r="C93" s="139"/>
       <c r="D93" s="139"/>
       <c r="E93" s="139" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F93" s="139">
         <v>4.5</v>
       </c>
       <c r="G93" s="139" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" s="139" t="s">
         <v>95</v>
-      </c>
-      <c r="H93" s="139" t="s">
-        <v>96</v>
       </c>
       <c r="I93" s="139">
         <v>1485</v>
       </c>
       <c r="J93" s="139" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K93" s="139"/>
       <c r="L93" s="139"/>
@@ -7864,16 +7792,16 @@
       <c r="C94" s="139"/>
       <c r="D94" s="139"/>
       <c r="E94" s="139" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F94" s="139">
         <v>3.25</v>
       </c>
       <c r="G94" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="H94" s="139" t="s">
         <v>99</v>
-      </c>
-      <c r="H94" s="139" t="s">
-        <v>100</v>
       </c>
       <c r="K94" s="139"/>
       <c r="L94" s="139"/>
@@ -7925,7 +7853,7 @@
         <v>160000</v>
       </c>
       <c r="G96" s="139" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H96" s="139"/>
       <c r="K96" s="139"/>
@@ -7954,7 +7882,7 @@
         <v>5269465.2944731945</v>
       </c>
       <c r="G97" s="139" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H97" s="139"/>
       <c r="K97" s="139"/>
@@ -8028,7 +7956,7 @@
         <v>25</v>
       </c>
       <c r="D100" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E100" s="129"/>
       <c r="F100" s="129" t="s">
@@ -8079,7 +8007,7 @@
     <row r="102" spans="1:25" customFormat="1">
       <c r="B102" s="126"/>
       <c r="C102" s="139" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="139"/>
       <c r="E102" s="139"/>
@@ -8109,7 +8037,7 @@
       <c r="C103" s="139"/>
       <c r="D103" s="139"/>
       <c r="F103" s="142" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G103" s="139"/>
       <c r="H103" s="139"/>
@@ -8142,10 +8070,10 @@
         <v>200000</v>
       </c>
       <c r="H104" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="I104" s="139" t="s">
         <v>103</v>
-      </c>
-      <c r="I104" s="139" t="s">
-        <v>104</v>
       </c>
       <c r="J104" s="139"/>
       <c r="K104" s="139"/>
@@ -8173,17 +8101,17 @@
       </c>
       <c r="G105" s="139"/>
       <c r="H105" s="139" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I105" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J105" s="139"/>
       <c r="K105" s="139">
         <v>3.78541178</v>
       </c>
       <c r="L105" s="139" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M105" s="139"/>
       <c r="N105" s="139"/>
@@ -8209,10 +8137,10 @@
       </c>
       <c r="G106" s="139"/>
       <c r="H106" s="139" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I106" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J106" s="139"/>
       <c r="K106" s="143"/>
@@ -8241,10 +8169,10 @@
       </c>
       <c r="G107" s="139"/>
       <c r="H107" s="139" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I107" s="139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J107" s="139"/>
       <c r="K107" s="139"/>
@@ -8270,7 +8198,7 @@
       <c r="F108" s="139"/>
       <c r="G108" s="139"/>
       <c r="H108" s="139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I108" s="139"/>
       <c r="J108" s="139"/>
@@ -8347,13 +8275,13 @@
       <c r="C111" s="139"/>
       <c r="D111" s="139"/>
       <c r="E111" s="139" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F111" s="139">
         <v>118170</v>
       </c>
       <c r="G111" s="139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H111" s="139"/>
       <c r="I111" s="139"/>
@@ -8384,7 +8312,7 @@
         <v>124669350</v>
       </c>
       <c r="G112" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H112" s="139"/>
       <c r="I112" s="139"/>
@@ -8415,7 +8343,7 @@
         <v>124.66934999999999</v>
       </c>
       <c r="G113" s="139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H113" s="139"/>
       <c r="I113" s="139"/>
@@ -8446,7 +8374,7 @@
         <v>32.934158090457466</v>
       </c>
       <c r="G114" s="142" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H114" s="139"/>
       <c r="I114" s="139"/>
@@ -8550,13 +8478,13 @@
       <c r="C118" s="139"/>
       <c r="D118" s="139"/>
       <c r="E118" s="139" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F118" s="139">
         <v>127042</v>
       </c>
       <c r="G118" s="139" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H118" s="139"/>
       <c r="I118" s="139"/>
@@ -8587,7 +8515,7 @@
         <v>134029310</v>
       </c>
       <c r="G119" s="139" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H119" s="139"/>
       <c r="I119" s="139"/>
@@ -8618,7 +8546,7 @@
         <v>134.02931000000001</v>
       </c>
       <c r="G120" s="139" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H120" s="139"/>
       <c r="I120" s="139"/>
@@ -8649,7 +8577,7 @@
         <v>35.406797936260453</v>
       </c>
       <c r="G121" s="139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H121" s="139"/>
       <c r="I121" s="139"/>
@@ -9170,7 +9098,7 @@
         <v>25</v>
       </c>
       <c r="D141" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E141" s="129"/>
       <c r="F141" s="129" t="s">
@@ -9221,7 +9149,7 @@
     <row r="143" spans="2:25" customFormat="1">
       <c r="B143" s="126"/>
       <c r="C143" s="147" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D143" s="139"/>
       <c r="E143" s="139"/>
@@ -10146,19 +10074,19 @@
     <row r="256" spans="2:7" customFormat="1">
       <c r="B256" s="126"/>
       <c r="G256" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="257" spans="2:7" customFormat="1">
       <c r="B257" s="126"/>
       <c r="G257" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="258" spans="2:7" customFormat="1">
       <c r="B258" s="126"/>
       <c r="G258" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="259" spans="2:7" customFormat="1">
@@ -10230,7 +10158,7 @@
         <v>25</v>
       </c>
       <c r="D280" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E280" s="129"/>
       <c r="F280" s="129" t="s">
@@ -10255,7 +10183,7 @@
     <row r="281" spans="2:25" customFormat="1">
       <c r="B281" s="126"/>
       <c r="C281" s="144" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D281" s="139"/>
       <c r="E281" s="139"/>
@@ -10339,11 +10267,11 @@
       <c r="C284" s="139"/>
       <c r="D284" s="139"/>
       <c r="E284" s="139" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F284" s="139"/>
       <c r="G284" s="139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H284" s="139"/>
       <c r="I284" s="139"/>
@@ -10369,11 +10297,11 @@
       <c r="C285" s="139"/>
       <c r="D285" s="139"/>
       <c r="E285" s="139" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F285" s="139"/>
       <c r="G285" s="139" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H285" s="139"/>
       <c r="I285" s="139"/>
@@ -10998,7 +10926,7 @@
         <v>25</v>
       </c>
       <c r="D309" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E309" s="129"/>
       <c r="F309" s="129" t="s">
@@ -11049,7 +10977,7 @@
     <row r="311" spans="2:25" customFormat="1" ht="21">
       <c r="B311" s="126"/>
       <c r="C311" s="151" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D311" s="139"/>
       <c r="E311" s="139"/>
@@ -11133,12 +11061,12 @@
     </row>
     <row r="320" spans="2:25">
       <c r="E320" s="152" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="321" spans="4:11">
       <c r="E321" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F321" s="139"/>
       <c r="G321" s="139"/>
@@ -11146,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="I321" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J321" s="139"/>
       <c r="K321" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="322" spans="4:11">
       <c r="E322" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F322" s="139"/>
       <c r="G322" s="139"/>
@@ -11163,14 +11091,14 @@
         <v>0</v>
       </c>
       <c r="I322" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J322" s="139"/>
       <c r="K322" s="139"/>
     </row>
     <row r="323" spans="4:11">
       <c r="E323" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F323" s="139"/>
       <c r="G323" s="139"/>
@@ -11178,7 +11106,7 @@
         <v>20.100000000000001</v>
       </c>
       <c r="I323" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J323" s="139"/>
       <c r="K323" s="139"/>
@@ -11186,7 +11114,7 @@
     <row r="324" spans="4:11">
       <c r="D324" s="139"/>
       <c r="E324" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F324" s="139"/>
       <c r="G324" s="139"/>
@@ -11194,7 +11122,7 @@
         <v>0.6</v>
       </c>
       <c r="I324" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J324" s="139"/>
       <c r="K324" s="139"/>
@@ -11210,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J325" s="139"/>
       <c r="K325" s="139"/>
@@ -11218,7 +11146,7 @@
     <row r="326" spans="4:11">
       <c r="D326" s="139"/>
       <c r="E326" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F326" s="139"/>
       <c r="G326" s="139"/>
@@ -11226,11 +11154,11 @@
         <v>0</v>
       </c>
       <c r="I326" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J326" s="139"/>
       <c r="K326" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="327" spans="4:11">
@@ -11254,7 +11182,7 @@
     <row r="329" spans="4:11">
       <c r="D329" s="139"/>
       <c r="E329" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F329" s="139"/>
       <c r="G329" s="139"/>
@@ -11263,16 +11191,16 @@
         <v>0</v>
       </c>
       <c r="I329" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J329" s="139"/>
       <c r="K329" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="330" spans="4:11">
       <c r="E330" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F330" s="139"/>
       <c r="G330" s="139"/>
@@ -11281,14 +11209,14 @@
         <v>0</v>
       </c>
       <c r="I330" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J330" s="139"/>
       <c r="K330" s="139"/>
     </row>
     <row r="331" spans="4:11">
       <c r="E331" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F331" s="139"/>
       <c r="G331" s="139"/>
@@ -11297,14 +11225,14 @@
         <v>2.01E-2</v>
       </c>
       <c r="I331" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J331" s="139"/>
       <c r="K331" s="139"/>
     </row>
     <row r="332" spans="4:11">
       <c r="E332" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F332" s="139"/>
       <c r="G332" s="139"/>
@@ -11313,7 +11241,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="I332" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J332" s="139"/>
       <c r="K332" s="139"/>
@@ -11329,14 +11257,14 @@
         <v>0</v>
       </c>
       <c r="I333" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J333" s="139"/>
       <c r="K333" s="139"/>
     </row>
     <row r="334" spans="4:11">
       <c r="E334" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F334" s="139"/>
       <c r="G334" s="139"/>
@@ -11345,16 +11273,16 @@
         <v>0</v>
       </c>
       <c r="I334" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J334" s="139"/>
       <c r="K334" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="337" spans="5:11">
       <c r="E337" s="153" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F337" s="154"/>
       <c r="G337" s="154"/>
@@ -11365,7 +11293,7 @@
     </row>
     <row r="338" spans="5:11">
       <c r="E338" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F338" s="139"/>
       <c r="G338" s="139"/>
@@ -11373,16 +11301,16 @@
         <v>0</v>
       </c>
       <c r="I338" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J338" s="139"/>
       <c r="K338" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="339" spans="5:11">
       <c r="E339" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F339" s="139"/>
       <c r="G339" s="139"/>
@@ -11390,14 +11318,14 @@
         <v>14.7</v>
       </c>
       <c r="I339" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J339" s="139"/>
       <c r="K339" s="139"/>
     </row>
     <row r="340" spans="5:11">
       <c r="E340" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F340" s="139"/>
       <c r="G340" s="139"/>
@@ -11405,14 +11333,14 @@
         <v>9.4</v>
       </c>
       <c r="I340" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J340" s="139"/>
       <c r="K340" s="139"/>
     </row>
     <row r="341" spans="5:11">
       <c r="E341" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F341" s="139"/>
       <c r="G341" s="139"/>
@@ -11420,7 +11348,7 @@
         <v>0.7</v>
       </c>
       <c r="I341" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J341" s="139"/>
       <c r="K341" s="139"/>
@@ -11435,14 +11363,14 @@
         <v>0</v>
       </c>
       <c r="I342" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J342" s="139"/>
       <c r="K342" s="139"/>
     </row>
     <row r="343" spans="5:11">
       <c r="E343" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F343" s="139"/>
       <c r="G343" s="139"/>
@@ -11450,11 +11378,11 @@
         <v>0</v>
       </c>
       <c r="I343" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J343" s="139"/>
       <c r="K343" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="344" spans="5:11">
@@ -11477,7 +11405,7 @@
     </row>
     <row r="346" spans="5:11">
       <c r="E346" s="139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F346" s="139"/>
       <c r="G346" s="139"/>
@@ -11486,16 +11414,16 @@
         <v>0</v>
       </c>
       <c r="I346" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J346" s="139"/>
       <c r="K346" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="347" spans="5:11">
       <c r="E347" s="139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F347" s="139"/>
       <c r="G347" s="139"/>
@@ -11504,14 +11432,14 @@
         <v>1.47E-2</v>
       </c>
       <c r="I347" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J347" s="139"/>
       <c r="K347" s="139"/>
     </row>
     <row r="348" spans="5:11">
       <c r="E348" s="139" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F348" s="139"/>
       <c r="G348" s="139"/>
@@ -11520,14 +11448,14 @@
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="I348" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J348" s="139"/>
       <c r="K348" s="139"/>
     </row>
     <row r="349" spans="5:11">
       <c r="E349" s="139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F349" s="139"/>
       <c r="G349" s="139"/>
@@ -11536,7 +11464,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="I349" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J349" s="139"/>
       <c r="K349" s="139"/>
@@ -11552,14 +11480,14 @@
         <v>0</v>
       </c>
       <c r="I350" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J350" s="139"/>
       <c r="K350" s="139"/>
     </row>
     <row r="351" spans="5:11">
       <c r="E351" s="139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F351" s="139"/>
       <c r="G351" s="139"/>
@@ -11568,11 +11496,11 @@
         <v>0</v>
       </c>
       <c r="I351" s="139" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J351" s="139"/>
       <c r="K351" s="139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="368" ht="17" thickBot="1"/>
@@ -11582,7 +11510,7 @@
         <v>25</v>
       </c>
       <c r="D369" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E369" s="129"/>
       <c r="F369" s="129" t="s">
@@ -11633,7 +11561,7 @@
     <row r="371" spans="2:25" customFormat="1" ht="21">
       <c r="B371" s="126"/>
       <c r="C371" s="151" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D371" s="139"/>
       <c r="E371" s="139"/>
@@ -11687,7 +11615,7 @@
     <row r="373" spans="2:25" customFormat="1">
       <c r="B373" s="126"/>
       <c r="C373" s="139" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D373" s="139"/>
       <c r="E373" s="139"/>
@@ -11740,16 +11668,16 @@
         <v>27</v>
       </c>
       <c r="E381" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F381">
         <v>37.299999999999997</v>
       </c>
       <c r="G381" t="s">
+        <v>115</v>
+      </c>
+      <c r="H381" t="s">
         <v>116</v>
-      </c>
-      <c r="H381" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="382" spans="2:25" customFormat="1">
@@ -11759,7 +11687,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="G382" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="383" spans="2:25" customFormat="1">
@@ -11768,10 +11696,10 @@
         <v>0.9</v>
       </c>
       <c r="G383" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H383" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="384" spans="2:25" customFormat="1">
@@ -11781,7 +11709,7 @@
         <v>33.57</v>
       </c>
       <c r="G384" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="385" spans="2:2" customFormat="1">
@@ -11910,7 +11838,7 @@
         <v>25</v>
       </c>
       <c r="D432" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E432" s="129"/>
       <c r="F432" s="129" t="s">
@@ -11961,7 +11889,7 @@
     <row r="434" spans="2:25" customFormat="1" ht="21">
       <c r="B434" s="126"/>
       <c r="C434" s="151" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D434" s="139"/>
       <c r="E434" s="139"/>
@@ -12018,7 +11946,7 @@
       <c r="D436" s="139"/>
       <c r="E436" s="139"/>
       <c r="F436" s="139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G436" s="139"/>
       <c r="H436" s="139"/>
@@ -12042,18 +11970,18 @@
     </row>
     <row r="447" spans="2:25">
       <c r="F447" s="169" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G447" s="169" t="s">
+        <v>133</v>
+      </c>
+      <c r="H447" s="169" t="s">
         <v>134</v>
-      </c>
-      <c r="H447" s="169" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="448" spans="2:25">
       <c r="E448" s="169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F448" s="125">
         <v>118.33</v>
@@ -12068,7 +11996,7 @@
     </row>
     <row r="449" spans="5:9">
       <c r="E449" s="169" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F449" s="125">
         <v>118.5</v>
@@ -12083,7 +12011,7 @@
     </row>
     <row r="450" spans="5:9">
       <c r="E450" s="169" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F450" s="125">
         <v>117.05</v>
@@ -12098,7 +12026,7 @@
     </row>
     <row r="451" spans="5:9">
       <c r="E451" s="169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F451" s="125">
         <v>118.15</v>
@@ -12113,7 +12041,7 @@
     </row>
     <row r="452" spans="5:9">
       <c r="E452" s="169" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F452" s="125">
         <f>AVERAGE(F448:F451)</f>
@@ -12128,7 +12056,7 @@
         <v>72.977499999999992</v>
       </c>
       <c r="I452" s="169" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="453" spans="5:9">
@@ -12137,7 +12065,7 @@
         <v>0.72977499999999995</v>
       </c>
       <c r="I453" s="169" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="454" spans="5:9">
@@ -12146,46 +12074,46 @@
         <v>2.2042255648181703E-2</v>
       </c>
       <c r="I454" s="169" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="466" spans="1:25" ht="17" thickBot="1"/>
-    <row r="467" spans="1:25" s="175" customFormat="1">
+    <row r="467" spans="1:25" s="174" customFormat="1">
       <c r="A467" s="159"/>
-      <c r="B467" s="174"/>
-      <c r="C467" s="174" t="s">
+      <c r="B467" s="173"/>
+      <c r="C467" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D467" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="E467" s="174"/>
-      <c r="F467" s="174" t="s">
+      <c r="D467" s="173" t="s">
+        <v>61</v>
+      </c>
+      <c r="E467" s="173"/>
+      <c r="F467" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="G467" s="174"/>
-      <c r="H467" s="174"/>
-      <c r="I467" s="174"/>
-      <c r="J467" s="174"/>
-      <c r="K467" s="174"/>
-      <c r="L467" s="174"/>
-      <c r="M467" s="174"/>
-      <c r="N467" s="174"/>
-      <c r="O467" s="174"/>
-      <c r="P467" s="174"/>
-      <c r="Q467" s="174"/>
-      <c r="R467" s="174"/>
-      <c r="S467" s="174"/>
-      <c r="T467" s="174"/>
-      <c r="U467" s="174"/>
+      <c r="G467" s="173"/>
+      <c r="H467" s="173"/>
+      <c r="I467" s="173"/>
+      <c r="J467" s="173"/>
+      <c r="K467" s="173"/>
+      <c r="L467" s="173"/>
+      <c r="M467" s="173"/>
+      <c r="N467" s="173"/>
+      <c r="O467" s="173"/>
+      <c r="P467" s="173"/>
+      <c r="Q467" s="173"/>
+      <c r="R467" s="173"/>
+      <c r="S467" s="173"/>
+      <c r="T467" s="173"/>
+      <c r="U467" s="173"/>
       <c r="V467" s="159"/>
       <c r="W467" s="159"/>
       <c r="X467" s="159"/>
       <c r="Y467" s="159"/>
     </row>
-    <row r="468" spans="1:25" s="175" customFormat="1">
-      <c r="A468" s="176"/>
-      <c r="B468" s="177"/>
+    <row r="468" spans="1:25" s="174" customFormat="1">
+      <c r="A468" s="175"/>
+      <c r="B468" s="176"/>
       <c r="C468" s="139"/>
       <c r="D468" s="139"/>
       <c r="E468" s="139"/>
@@ -12210,11 +12138,11 @@
       <c r="X468" s="139"/>
       <c r="Y468" s="139"/>
     </row>
-    <row r="469" spans="1:25" s="175" customFormat="1">
-      <c r="A469" s="176"/>
-      <c r="B469" s="177"/>
+    <row r="469" spans="1:25" s="174" customFormat="1">
+      <c r="A469" s="175"/>
+      <c r="B469" s="176"/>
       <c r="C469" s="159" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D469" s="139"/>
       <c r="E469" s="139"/>
@@ -12239,11 +12167,11 @@
       <c r="X469" s="139"/>
       <c r="Y469" s="139"/>
     </row>
-    <row r="470" spans="1:25" s="175" customFormat="1">
-      <c r="A470" s="176"/>
-      <c r="B470" s="177"/>
-      <c r="C470" s="178" t="s">
-        <v>145</v>
+    <row r="470" spans="1:25" s="174" customFormat="1">
+      <c r="A470" s="175"/>
+      <c r="B470" s="176"/>
+      <c r="C470" s="177" t="s">
+        <v>144</v>
       </c>
       <c r="D470" s="139"/>
       <c r="E470" s="139"/>
@@ -12268,11 +12196,11 @@
       <c r="X470" s="139"/>
       <c r="Y470" s="139"/>
     </row>
-    <row r="471" spans="1:25" s="175" customFormat="1">
-      <c r="A471" s="176"/>
-      <c r="B471" s="177"/>
+    <row r="471" spans="1:25" s="174" customFormat="1">
+      <c r="A471" s="175"/>
+      <c r="B471" s="176"/>
       <c r="C471" s="139"/>
-      <c r="D471" s="176"/>
+      <c r="D471" s="175"/>
       <c r="E471" s="139"/>
       <c r="F471" s="139"/>
       <c r="G471" s="139"/>
@@ -12295,12 +12223,12 @@
       <c r="X471" s="139"/>
       <c r="Y471" s="139"/>
     </row>
-    <row r="472" spans="1:25" s="175" customFormat="1">
-      <c r="A472" s="176"/>
-      <c r="B472" s="177"/>
+    <row r="472" spans="1:25" s="174" customFormat="1">
+      <c r="A472" s="175"/>
+      <c r="B472" s="176"/>
       <c r="C472" s="139"/>
       <c r="D472" s="139" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E472" s="139"/>
       <c r="F472" s="139"/>
@@ -12324,27 +12252,27 @@
       <c r="X472" s="139"/>
       <c r="Y472" s="139"/>
     </row>
-    <row r="473" spans="1:25" s="175" customFormat="1" ht="84">
-      <c r="A473" s="176"/>
-      <c r="B473" s="177"/>
+    <row r="473" spans="1:25" s="174" customFormat="1" ht="84">
+      <c r="A473" s="175"/>
+      <c r="B473" s="176"/>
       <c r="C473" s="139"/>
-      <c r="D473" s="179" t="s">
+      <c r="D473" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="E473" s="176"/>
+      <c r="E473" s="175"/>
       <c r="F473" s="139"/>
       <c r="G473" s="139"/>
-      <c r="H473" s="196" t="s">
+      <c r="H473" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="I473" s="195" t="s">
         <v>147</v>
       </c>
-      <c r="I473" s="197" t="s">
-        <v>148</v>
-      </c>
-      <c r="J473" s="180" t="s">
-        <v>170</v>
-      </c>
-      <c r="K473" s="181" t="s">
-        <v>171</v>
+      <c r="J473" s="179" t="s">
+        <v>168</v>
+      </c>
+      <c r="K473" s="180" t="s">
+        <v>169</v>
       </c>
       <c r="L473" s="139"/>
       <c r="M473" s="139"/>
@@ -12358,23 +12286,23 @@
       <c r="U473" s="139"/>
       <c r="V473" s="139"/>
     </row>
-    <row r="474" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="A474" s="176"/>
-      <c r="B474" s="177"/>
+    <row r="474" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="A474" s="175"/>
+      <c r="B474" s="176"/>
       <c r="C474" s="139"/>
       <c r="D474" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="E474" s="176"/>
+        <v>148</v>
+      </c>
+      <c r="E474" s="175"/>
       <c r="F474" s="139"/>
       <c r="G474" s="139"/>
-      <c r="H474" s="182"/>
-      <c r="I474" s="183"/>
-      <c r="J474" s="184" t="s">
-        <v>150</v>
-      </c>
-      <c r="K474" s="185" t="s">
-        <v>150</v>
+      <c r="H474" s="181"/>
+      <c r="I474" s="182"/>
+      <c r="J474" s="183" t="s">
+        <v>149</v>
+      </c>
+      <c r="K474" s="184" t="s">
+        <v>149</v>
       </c>
       <c r="L474" s="139"/>
       <c r="M474" s="139"/>
@@ -12388,29 +12316,29 @@
       <c r="U474" s="139"/>
       <c r="V474" s="139"/>
     </row>
-    <row r="475" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="A475" s="176"/>
-      <c r="B475" s="177"/>
+    <row r="475" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="A475" s="175"/>
+      <c r="B475" s="176"/>
       <c r="C475" s="139"/>
       <c r="D475" s="139"/>
-      <c r="E475" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F475" s="186">
+      <c r="E475" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F475" s="185">
         <f>AVERAGE(J475:J479)</f>
         <v>545.58600000000001</v>
       </c>
       <c r="G475" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="H475" s="218">
+        <v>150</v>
+      </c>
+      <c r="H475" s="213">
         <v>43059</v>
       </c>
-      <c r="I475" s="183"/>
-      <c r="J475" s="219">
+      <c r="I475" s="182"/>
+      <c r="J475" s="214">
         <v>550.71</v>
       </c>
-      <c r="K475" s="220">
+      <c r="K475" s="215">
         <v>1264</v>
       </c>
       <c r="L475" s="139"/>
@@ -12425,29 +12353,29 @@
       <c r="U475" s="139"/>
       <c r="V475" s="139"/>
     </row>
-    <row r="476" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="A476" s="176"/>
-      <c r="B476" s="177"/>
+    <row r="476" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="A476" s="175"/>
+      <c r="B476" s="176"/>
       <c r="C476" s="139"/>
       <c r="D476" s="139"/>
-      <c r="E476" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F476" s="188">
+      <c r="E476" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F476" s="187">
         <f>F475/1000</f>
         <v>0.54558600000000002</v>
       </c>
       <c r="G476" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="H476" s="218">
+        <v>142</v>
+      </c>
+      <c r="H476" s="213">
         <v>43052</v>
       </c>
-      <c r="I476" s="183"/>
-      <c r="J476" s="219">
+      <c r="I476" s="182"/>
+      <c r="J476" s="214">
         <v>559.79999999999995</v>
       </c>
-      <c r="K476" s="220">
+      <c r="K476" s="215">
         <v>1275</v>
       </c>
       <c r="L476" s="139"/>
@@ -12462,22 +12390,22 @@
       <c r="U476" s="139"/>
       <c r="V476" s="139"/>
     </row>
-    <row r="477" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="A477" s="176"/>
-      <c r="B477" s="177"/>
+    <row r="477" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="A477" s="175"/>
+      <c r="B477" s="176"/>
       <c r="C477" s="139"/>
       <c r="D477" s="139"/>
       <c r="E477" s="139"/>
       <c r="F477" s="139"/>
       <c r="G477" s="139"/>
-      <c r="H477" s="218">
+      <c r="H477" s="213">
         <v>43045</v>
       </c>
-      <c r="I477" s="183"/>
-      <c r="J477" s="219">
+      <c r="I477" s="182"/>
+      <c r="J477" s="214">
         <v>550.71</v>
       </c>
-      <c r="K477" s="220">
+      <c r="K477" s="215">
         <v>1264</v>
       </c>
       <c r="L477" s="139"/>
@@ -12492,31 +12420,31 @@
       <c r="U477" s="139"/>
       <c r="V477" s="139"/>
     </row>
-    <row r="478" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="A478" s="176"/>
-      <c r="B478" s="177"/>
+    <row r="478" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="A478" s="175"/>
+      <c r="B478" s="176"/>
       <c r="C478" s="139"/>
       <c r="D478" s="139" t="s">
-        <v>152</v>
-      </c>
-      <c r="E478" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F478" s="186">
+        <v>151</v>
+      </c>
+      <c r="E478" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F478" s="185">
         <f>AVERAGE(K475:K479)</f>
         <v>1257.8</v>
       </c>
       <c r="G478" s="139" t="s">
-        <v>151</v>
-      </c>
-      <c r="H478" s="218">
+        <v>150</v>
+      </c>
+      <c r="H478" s="213">
         <v>43038</v>
       </c>
-      <c r="I478" s="183"/>
-      <c r="J478" s="219">
+      <c r="I478" s="182"/>
+      <c r="J478" s="214">
         <v>535.01</v>
       </c>
-      <c r="K478" s="220">
+      <c r="K478" s="215">
         <v>1245</v>
       </c>
       <c r="L478" s="139"/>
@@ -12531,29 +12459,29 @@
       <c r="U478" s="139"/>
       <c r="V478" s="139"/>
     </row>
-    <row r="479" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="A479" s="176"/>
-      <c r="B479" s="177"/>
+    <row r="479" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="A479" s="175"/>
+      <c r="B479" s="176"/>
       <c r="C479" s="139"/>
       <c r="D479" s="139"/>
-      <c r="E479" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F479" s="188">
+      <c r="E479" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F479" s="187">
         <f>F478/1000</f>
         <v>1.2578</v>
       </c>
       <c r="G479" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="H479" s="218">
+        <v>142</v>
+      </c>
+      <c r="H479" s="213">
         <v>43031</v>
       </c>
-      <c r="I479" s="183"/>
-      <c r="J479" s="219">
+      <c r="I479" s="182"/>
+      <c r="J479" s="214">
         <v>531.70000000000005</v>
       </c>
-      <c r="K479" s="220">
+      <c r="K479" s="215">
         <v>1241</v>
       </c>
       <c r="L479" s="139"/>
@@ -12568,24 +12496,24 @@
       <c r="U479" s="139"/>
       <c r="V479" s="139"/>
     </row>
-    <row r="480" spans="1:25" s="175" customFormat="1">
-      <c r="A480" s="176"/>
-      <c r="B480" s="177"/>
+    <row r="480" spans="1:25" s="174" customFormat="1">
+      <c r="A480" s="175"/>
+      <c r="B480" s="176"/>
       <c r="C480" s="139"/>
       <c r="D480" s="139"/>
       <c r="E480" s="139"/>
       <c r="F480" s="139"/>
       <c r="G480" s="139"/>
-      <c r="H480" s="187">
+      <c r="H480" s="186">
         <v>42408</v>
       </c>
-      <c r="I480" s="198">
+      <c r="I480" s="196">
         <v>1</v>
       </c>
-      <c r="J480" s="199">
+      <c r="J480" s="197">
         <v>371.99</v>
       </c>
-      <c r="K480" s="201">
+      <c r="K480" s="199">
         <v>1046</v>
       </c>
       <c r="L480" s="139"/>
@@ -12600,26 +12528,26 @@
       <c r="U480" s="139"/>
       <c r="V480" s="139"/>
     </row>
-    <row r="481" spans="1:22" s="175" customFormat="1">
-      <c r="A481" s="176"/>
-      <c r="B481" s="177"/>
+    <row r="481" spans="1:22" s="174" customFormat="1">
+      <c r="A481" s="175"/>
+      <c r="B481" s="176"/>
       <c r="C481" s="139"/>
       <c r="D481" s="142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E481" s="139"/>
-      <c r="F481" s="189"/>
+      <c r="F481" s="188"/>
       <c r="G481" s="139"/>
-      <c r="H481" s="187">
+      <c r="H481" s="186">
         <v>42401</v>
       </c>
-      <c r="I481" s="198">
+      <c r="I481" s="196">
         <v>1</v>
       </c>
-      <c r="J481" s="200">
+      <c r="J481" s="198">
         <v>362.08</v>
       </c>
-      <c r="K481" s="202">
+      <c r="K481" s="200">
         <v>1034</v>
       </c>
       <c r="L481" s="139"/>
@@ -12634,32 +12562,32 @@
       <c r="U481" s="139"/>
       <c r="V481" s="139"/>
     </row>
-    <row r="482" spans="1:22" s="175" customFormat="1">
-      <c r="A482" s="176"/>
-      <c r="B482" s="177"/>
+    <row r="482" spans="1:22" s="174" customFormat="1">
+      <c r="A482" s="175"/>
+      <c r="B482" s="176"/>
       <c r="C482" s="139"/>
       <c r="D482" s="139" t="s">
+        <v>153</v>
+      </c>
+      <c r="E482" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F482" s="216">
+        <v>0.21</v>
+      </c>
+      <c r="G482" s="139" t="s">
         <v>154</v>
       </c>
-      <c r="E482" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F482" s="221">
-        <v>0.21</v>
-      </c>
-      <c r="G482" s="139" t="s">
-        <v>155</v>
-      </c>
-      <c r="H482" s="187">
+      <c r="H482" s="186">
         <v>42394</v>
       </c>
-      <c r="I482" s="198">
+      <c r="I482" s="196">
         <v>1</v>
       </c>
-      <c r="J482" s="200">
+      <c r="J482" s="198">
         <v>355.46</v>
       </c>
-      <c r="K482" s="202">
+      <c r="K482" s="200">
         <v>1026</v>
       </c>
       <c r="L482" s="139"/>
@@ -12674,33 +12602,33 @@
       <c r="U482" s="139"/>
       <c r="V482" s="139"/>
     </row>
-    <row r="483" spans="1:22" s="175" customFormat="1">
-      <c r="A483" s="176"/>
-      <c r="B483" s="177"/>
+    <row r="483" spans="1:22" s="174" customFormat="1">
+      <c r="A483" s="175"/>
+      <c r="B483" s="176"/>
       <c r="C483" s="139"/>
       <c r="D483" s="139" t="s">
-        <v>156</v>
-      </c>
-      <c r="E483" s="176" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="E483" s="175" t="s">
+        <v>158</v>
       </c>
       <c r="F483" s="139">
         <f>F479/(1+F482)-F476</f>
         <v>0.4939181322314049</v>
       </c>
       <c r="G483" s="139" t="s">
-        <v>143</v>
-      </c>
-      <c r="H483" s="187">
+        <v>142</v>
+      </c>
+      <c r="H483" s="186">
         <v>42387</v>
       </c>
-      <c r="I483" s="198">
+      <c r="I483" s="196">
         <v>1</v>
       </c>
-      <c r="J483" s="200">
+      <c r="J483" s="198">
         <v>373.65</v>
       </c>
-      <c r="K483" s="202">
+      <c r="K483" s="200">
         <v>1048</v>
       </c>
       <c r="L483" s="139"/>
@@ -12715,24 +12643,24 @@
       <c r="U483" s="139"/>
       <c r="V483" s="139"/>
     </row>
-    <row r="484" spans="1:22" s="175" customFormat="1">
-      <c r="A484" s="176"/>
-      <c r="B484" s="177"/>
+    <row r="484" spans="1:22" s="174" customFormat="1">
+      <c r="A484" s="175"/>
+      <c r="B484" s="176"/>
       <c r="C484" s="139"/>
       <c r="D484" s="139"/>
-      <c r="E484" s="176"/>
-      <c r="F484" s="189"/>
+      <c r="E484" s="175"/>
+      <c r="F484" s="188"/>
       <c r="G484" s="139"/>
-      <c r="H484" s="187">
+      <c r="H484" s="186">
         <v>42380</v>
       </c>
-      <c r="I484" s="198">
+      <c r="I484" s="196">
         <v>1</v>
       </c>
-      <c r="J484" s="200">
+      <c r="J484" s="198">
         <v>391.83</v>
       </c>
-      <c r="K484" s="202">
+      <c r="K484" s="200">
         <v>1070</v>
       </c>
       <c r="L484" s="139"/>
@@ -12747,24 +12675,24 @@
       <c r="U484" s="139"/>
       <c r="V484" s="139"/>
     </row>
-    <row r="485" spans="1:22" s="175" customFormat="1">
-      <c r="A485" s="176"/>
-      <c r="B485" s="177"/>
+    <row r="485" spans="1:22" s="174" customFormat="1">
+      <c r="A485" s="175"/>
+      <c r="B485" s="176"/>
       <c r="C485" s="139"/>
       <c r="D485" s="139"/>
       <c r="E485" s="139"/>
       <c r="F485" s="139"/>
       <c r="G485" s="139"/>
-      <c r="H485" s="187">
+      <c r="H485" s="186">
         <v>42373</v>
       </c>
-      <c r="I485" s="198">
+      <c r="I485" s="196">
         <v>1</v>
       </c>
-      <c r="J485" s="200">
+      <c r="J485" s="198">
         <v>391.83</v>
       </c>
-      <c r="K485" s="202">
+      <c r="K485" s="200">
         <v>1070</v>
       </c>
       <c r="L485" s="139"/>
@@ -12779,33 +12707,33 @@
       <c r="U485" s="139"/>
       <c r="V485" s="139"/>
     </row>
-    <row r="486" spans="1:22" s="175" customFormat="1">
-      <c r="A486" s="176"/>
-      <c r="B486" s="177"/>
+    <row r="486" spans="1:22" s="174" customFormat="1">
+      <c r="A486" s="175"/>
+      <c r="B486" s="176"/>
       <c r="C486" s="139"/>
       <c r="D486" s="139" t="s">
-        <v>157</v>
-      </c>
-      <c r="E486" s="176" t="s">
-        <v>159</v>
-      </c>
-      <c r="F486" s="189">
+        <v>156</v>
+      </c>
+      <c r="E486" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="F486" s="188">
         <f>(F484+F483+F476)*1.21</f>
         <v>1.2577999999999998</v>
       </c>
       <c r="G486" s="139" t="s">
-        <v>158</v>
-      </c>
-      <c r="H486" s="187">
+        <v>157</v>
+      </c>
+      <c r="H486" s="186">
         <v>42352</v>
       </c>
-      <c r="I486" s="198">
+      <c r="I486" s="196">
         <v>1</v>
       </c>
-      <c r="J486" s="200">
+      <c r="J486" s="198">
         <v>444.65</v>
       </c>
-      <c r="K486" s="202">
+      <c r="K486" s="200">
         <v>1131</v>
       </c>
       <c r="L486" s="139"/>
@@ -12820,24 +12748,24 @@
       <c r="U486" s="139"/>
       <c r="V486" s="139"/>
     </row>
-    <row r="487" spans="1:22" s="175" customFormat="1">
-      <c r="A487" s="176"/>
-      <c r="B487" s="177"/>
+    <row r="487" spans="1:22" s="174" customFormat="1">
+      <c r="A487" s="175"/>
+      <c r="B487" s="176"/>
       <c r="C487" s="139"/>
       <c r="D487" s="139"/>
       <c r="E487" s="139"/>
       <c r="F487" s="139"/>
       <c r="G487" s="139"/>
-      <c r="H487" s="187">
+      <c r="H487" s="186">
         <v>42345</v>
       </c>
-      <c r="I487" s="198">
+      <c r="I487" s="196">
         <v>1</v>
       </c>
-      <c r="J487" s="200">
+      <c r="J487" s="198">
         <v>467.79</v>
       </c>
-      <c r="K487" s="202">
+      <c r="K487" s="200">
         <v>1159</v>
       </c>
       <c r="L487" s="139"/>
@@ -12852,24 +12780,24 @@
       <c r="U487" s="139"/>
       <c r="V487" s="139"/>
     </row>
-    <row r="488" spans="1:22" s="175" customFormat="1">
-      <c r="A488" s="176"/>
-      <c r="B488" s="177"/>
+    <row r="488" spans="1:22" s="174" customFormat="1">
+      <c r="A488" s="175"/>
+      <c r="B488" s="176"/>
       <c r="C488" s="139"/>
       <c r="D488" s="139"/>
       <c r="E488" s="139"/>
       <c r="F488" s="139"/>
       <c r="G488" s="139"/>
-      <c r="H488" s="187">
+      <c r="H488" s="186">
         <v>42338</v>
       </c>
-      <c r="I488" s="198">
+      <c r="I488" s="196">
         <v>1</v>
       </c>
-      <c r="J488" s="200">
+      <c r="J488" s="198">
         <v>486.8</v>
       </c>
-      <c r="K488" s="202">
+      <c r="K488" s="200">
         <v>1182</v>
       </c>
       <c r="L488" s="139"/>
@@ -12884,24 +12812,24 @@
       <c r="U488" s="139"/>
       <c r="V488" s="139"/>
     </row>
-    <row r="489" spans="1:22" s="175" customFormat="1">
-      <c r="A489" s="176"/>
-      <c r="B489" s="177"/>
+    <row r="489" spans="1:22" s="174" customFormat="1">
+      <c r="A489" s="175"/>
+      <c r="B489" s="176"/>
       <c r="C489" s="139"/>
       <c r="D489" s="139"/>
       <c r="E489" s="139"/>
       <c r="F489" s="139"/>
       <c r="G489" s="139"/>
-      <c r="H489" s="187">
+      <c r="H489" s="186">
         <v>42331</v>
       </c>
-      <c r="I489" s="198">
+      <c r="I489" s="196">
         <v>1</v>
       </c>
-      <c r="J489" s="200">
+      <c r="J489" s="198">
         <v>491.76</v>
       </c>
-      <c r="K489" s="202">
+      <c r="K489" s="200">
         <v>1188</v>
       </c>
       <c r="L489" s="139"/>
@@ -12916,24 +12844,24 @@
       <c r="U489" s="139"/>
       <c r="V489" s="139"/>
     </row>
-    <row r="490" spans="1:22" s="175" customFormat="1">
-      <c r="A490" s="176"/>
-      <c r="B490" s="177"/>
+    <row r="490" spans="1:22" s="174" customFormat="1">
+      <c r="A490" s="175"/>
+      <c r="B490" s="176"/>
       <c r="C490" s="139"/>
       <c r="D490" s="139"/>
       <c r="E490" s="139"/>
       <c r="F490" s="139"/>
       <c r="G490" s="139"/>
-      <c r="H490" s="187">
+      <c r="H490" s="186">
         <v>42324</v>
       </c>
-      <c r="I490" s="198">
+      <c r="I490" s="196">
         <v>1</v>
       </c>
-      <c r="J490" s="200">
+      <c r="J490" s="198">
         <v>506.63</v>
       </c>
-      <c r="K490" s="202">
+      <c r="K490" s="200">
         <v>1206</v>
       </c>
       <c r="L490" s="139"/>
@@ -12948,24 +12876,24 @@
       <c r="U490" s="139"/>
       <c r="V490" s="139"/>
     </row>
-    <row r="491" spans="1:22" s="175" customFormat="1">
-      <c r="A491" s="176"/>
-      <c r="B491" s="177"/>
+    <row r="491" spans="1:22" s="174" customFormat="1">
+      <c r="A491" s="175"/>
+      <c r="B491" s="176"/>
       <c r="C491" s="139"/>
       <c r="D491" s="139"/>
       <c r="E491" s="139"/>
       <c r="F491" s="139"/>
       <c r="G491" s="139"/>
-      <c r="H491" s="187">
+      <c r="H491" s="186">
         <v>42317</v>
       </c>
-      <c r="I491" s="198">
+      <c r="I491" s="196">
         <v>1</v>
       </c>
-      <c r="J491" s="200">
+      <c r="J491" s="198">
         <v>503.33</v>
       </c>
-      <c r="K491" s="202">
+      <c r="K491" s="200">
         <v>1202</v>
       </c>
       <c r="L491" s="139"/>
@@ -12980,24 +12908,24 @@
       <c r="U491" s="139"/>
       <c r="V491" s="139"/>
     </row>
-    <row r="492" spans="1:22" s="175" customFormat="1">
-      <c r="A492" s="176"/>
-      <c r="B492" s="177"/>
+    <row r="492" spans="1:22" s="174" customFormat="1">
+      <c r="A492" s="175"/>
+      <c r="B492" s="176"/>
       <c r="C492" s="139"/>
       <c r="D492" s="139"/>
       <c r="E492" s="139"/>
       <c r="F492" s="139"/>
       <c r="G492" s="139"/>
-      <c r="H492" s="187">
+      <c r="H492" s="186">
         <v>42310</v>
       </c>
-      <c r="I492" s="198">
+      <c r="I492" s="196">
         <v>1</v>
       </c>
-      <c r="J492" s="200">
+      <c r="J492" s="198">
         <v>481.01</v>
       </c>
-      <c r="K492" s="202">
+      <c r="K492" s="200">
         <v>1175</v>
       </c>
       <c r="L492" s="139"/>
@@ -13012,24 +12940,24 @@
       <c r="U492" s="139"/>
       <c r="V492" s="139"/>
     </row>
-    <row r="493" spans="1:22" s="175" customFormat="1">
-      <c r="A493" s="176"/>
-      <c r="B493" s="177"/>
+    <row r="493" spans="1:22" s="174" customFormat="1">
+      <c r="A493" s="175"/>
+      <c r="B493" s="176"/>
       <c r="C493" s="139"/>
       <c r="D493" s="139"/>
       <c r="E493" s="139"/>
       <c r="F493" s="139"/>
       <c r="G493" s="139"/>
-      <c r="H493" s="187">
+      <c r="H493" s="186">
         <v>42303</v>
       </c>
-      <c r="I493" s="198">
+      <c r="I493" s="196">
         <v>1</v>
       </c>
-      <c r="J493" s="200">
+      <c r="J493" s="198">
         <v>478.54</v>
       </c>
-      <c r="K493" s="202">
+      <c r="K493" s="200">
         <v>1172</v>
       </c>
       <c r="L493" s="139"/>
@@ -13044,400 +12972,400 @@
       <c r="U493" s="139"/>
       <c r="V493" s="139"/>
     </row>
-    <row r="494" spans="1:22" s="175" customFormat="1">
-      <c r="A494" s="176"/>
-      <c r="B494" s="177"/>
-      <c r="C494" s="176"/>
-      <c r="D494" s="176"/>
-      <c r="E494" s="176"/>
+    <row r="494" spans="1:22" s="174" customFormat="1">
+      <c r="A494" s="175"/>
+      <c r="B494" s="176"/>
+      <c r="C494" s="175"/>
+      <c r="D494" s="175"/>
+      <c r="E494" s="175"/>
       <c r="F494" s="139"/>
       <c r="G494" s="139"/>
-      <c r="H494" s="187">
+      <c r="H494" s="186">
         <v>42296</v>
       </c>
-      <c r="I494" s="198">
+      <c r="I494" s="196">
         <v>1</v>
       </c>
-      <c r="J494" s="200">
+      <c r="J494" s="198">
         <v>493.41</v>
       </c>
-      <c r="K494" s="202">
+      <c r="K494" s="200">
         <v>1190</v>
       </c>
-      <c r="L494" s="176"/>
-      <c r="M494" s="176"/>
-      <c r="N494" s="176"/>
-      <c r="O494" s="176"/>
-      <c r="P494" s="176"/>
-      <c r="Q494" s="176"/>
-      <c r="R494" s="176"/>
-      <c r="S494" s="176"/>
-      <c r="T494" s="176"/>
-      <c r="U494" s="176"/>
-      <c r="V494" s="176"/>
-    </row>
-    <row r="495" spans="1:22" s="175" customFormat="1">
-      <c r="A495" s="176"/>
-      <c r="B495" s="177"/>
-      <c r="C495" s="176"/>
-      <c r="D495" s="176"/>
-      <c r="E495" s="176"/>
+      <c r="L494" s="175"/>
+      <c r="M494" s="175"/>
+      <c r="N494" s="175"/>
+      <c r="O494" s="175"/>
+      <c r="P494" s="175"/>
+      <c r="Q494" s="175"/>
+      <c r="R494" s="175"/>
+      <c r="S494" s="175"/>
+      <c r="T494" s="175"/>
+      <c r="U494" s="175"/>
+      <c r="V494" s="175"/>
+    </row>
+    <row r="495" spans="1:22" s="174" customFormat="1">
+      <c r="A495" s="175"/>
+      <c r="B495" s="176"/>
+      <c r="C495" s="175"/>
+      <c r="D495" s="175"/>
+      <c r="E495" s="175"/>
       <c r="F495" s="139"/>
       <c r="G495" s="139"/>
-      <c r="H495" s="187">
+      <c r="H495" s="186">
         <v>42289</v>
       </c>
-      <c r="I495" s="198">
+      <c r="I495" s="196">
         <v>1</v>
       </c>
-      <c r="J495" s="200">
+      <c r="J495" s="198">
         <v>501.68</v>
       </c>
-      <c r="K495" s="202">
+      <c r="K495" s="200">
         <v>1200</v>
       </c>
-      <c r="L495" s="176"/>
-      <c r="M495" s="176"/>
-      <c r="N495" s="176"/>
-      <c r="O495" s="176"/>
-      <c r="P495" s="176"/>
-      <c r="Q495" s="176"/>
-      <c r="R495" s="176"/>
-      <c r="S495" s="176"/>
-      <c r="T495" s="176"/>
-      <c r="U495" s="176"/>
-      <c r="V495" s="176"/>
-    </row>
-    <row r="496" spans="1:22" s="175" customFormat="1">
-      <c r="A496" s="176"/>
-      <c r="B496" s="177"/>
-      <c r="C496" s="176"/>
-      <c r="D496" s="176"/>
-      <c r="E496" s="176"/>
+      <c r="L495" s="175"/>
+      <c r="M495" s="175"/>
+      <c r="N495" s="175"/>
+      <c r="O495" s="175"/>
+      <c r="P495" s="175"/>
+      <c r="Q495" s="175"/>
+      <c r="R495" s="175"/>
+      <c r="S495" s="175"/>
+      <c r="T495" s="175"/>
+      <c r="U495" s="175"/>
+      <c r="V495" s="175"/>
+    </row>
+    <row r="496" spans="1:22" s="174" customFormat="1">
+      <c r="A496" s="175"/>
+      <c r="B496" s="176"/>
+      <c r="C496" s="175"/>
+      <c r="D496" s="175"/>
+      <c r="E496" s="175"/>
       <c r="F496" s="139"/>
       <c r="G496" s="139"/>
-      <c r="H496" s="187">
+      <c r="H496" s="186">
         <v>42282</v>
       </c>
-      <c r="I496" s="198">
+      <c r="I496" s="196">
         <v>1</v>
       </c>
-      <c r="J496" s="200">
+      <c r="J496" s="198">
         <v>489.28</v>
       </c>
-      <c r="K496" s="202">
+      <c r="K496" s="200">
         <v>1185</v>
       </c>
-      <c r="L496" s="176"/>
-      <c r="M496" s="176"/>
-      <c r="N496" s="176"/>
-      <c r="O496" s="176"/>
-      <c r="P496" s="176"/>
-      <c r="Q496" s="176"/>
-      <c r="R496" s="176"/>
-      <c r="S496" s="176"/>
-      <c r="T496" s="176"/>
-      <c r="U496" s="176"/>
-      <c r="V496" s="176"/>
-    </row>
-    <row r="497" spans="1:25" s="175" customFormat="1">
-      <c r="A497" s="176"/>
-      <c r="B497" s="177"/>
-      <c r="C497" s="176"/>
-      <c r="D497" s="176"/>
-      <c r="E497" s="176"/>
+      <c r="L496" s="175"/>
+      <c r="M496" s="175"/>
+      <c r="N496" s="175"/>
+      <c r="O496" s="175"/>
+      <c r="P496" s="175"/>
+      <c r="Q496" s="175"/>
+      <c r="R496" s="175"/>
+      <c r="S496" s="175"/>
+      <c r="T496" s="175"/>
+      <c r="U496" s="175"/>
+      <c r="V496" s="175"/>
+    </row>
+    <row r="497" spans="1:25" s="174" customFormat="1">
+      <c r="A497" s="175"/>
+      <c r="B497" s="176"/>
+      <c r="C497" s="175"/>
+      <c r="D497" s="175"/>
+      <c r="E497" s="175"/>
       <c r="F497" s="139"/>
       <c r="G497" s="139"/>
-      <c r="H497" s="187">
+      <c r="H497" s="186">
         <v>42275</v>
       </c>
-      <c r="I497" s="198">
+      <c r="I497" s="196">
         <v>1</v>
       </c>
-      <c r="J497" s="200">
+      <c r="J497" s="198">
         <v>490.11</v>
       </c>
-      <c r="K497" s="202">
+      <c r="K497" s="200">
         <v>1186</v>
       </c>
-      <c r="L497" s="176"/>
-      <c r="M497" s="176"/>
-      <c r="N497" s="176"/>
-      <c r="O497" s="176"/>
-      <c r="P497" s="176"/>
-      <c r="Q497" s="176"/>
-      <c r="R497" s="176"/>
-      <c r="S497" s="176"/>
-      <c r="T497" s="176"/>
-      <c r="U497" s="176"/>
-      <c r="V497" s="176"/>
-    </row>
-    <row r="498" spans="1:25" s="175" customFormat="1">
-      <c r="A498" s="176"/>
-      <c r="B498" s="177"/>
-      <c r="C498" s="176"/>
-      <c r="D498" s="176"/>
-      <c r="E498" s="176"/>
+      <c r="L497" s="175"/>
+      <c r="M497" s="175"/>
+      <c r="N497" s="175"/>
+      <c r="O497" s="175"/>
+      <c r="P497" s="175"/>
+      <c r="Q497" s="175"/>
+      <c r="R497" s="175"/>
+      <c r="S497" s="175"/>
+      <c r="T497" s="175"/>
+      <c r="U497" s="175"/>
+      <c r="V497" s="175"/>
+    </row>
+    <row r="498" spans="1:25" s="174" customFormat="1">
+      <c r="A498" s="175"/>
+      <c r="B498" s="176"/>
+      <c r="C498" s="175"/>
+      <c r="D498" s="175"/>
+      <c r="E498" s="175"/>
       <c r="F498" s="139"/>
       <c r="G498" s="139"/>
-      <c r="H498" s="187">
+      <c r="H498" s="186">
         <v>42268</v>
       </c>
-      <c r="I498" s="198">
+      <c r="I498" s="196">
         <v>1</v>
       </c>
-      <c r="J498" s="200">
+      <c r="J498" s="198">
         <v>498.37</v>
       </c>
-      <c r="K498" s="202">
+      <c r="K498" s="200">
         <v>1196</v>
       </c>
-      <c r="L498" s="176"/>
-      <c r="M498" s="176"/>
-      <c r="N498" s="176"/>
-      <c r="O498" s="176"/>
-      <c r="P498" s="176"/>
-      <c r="Q498" s="176"/>
-      <c r="R498" s="176"/>
-      <c r="S498" s="176"/>
-      <c r="T498" s="176"/>
-      <c r="U498" s="176"/>
-      <c r="V498" s="176"/>
-    </row>
-    <row r="499" spans="1:25" s="175" customFormat="1">
-      <c r="A499" s="176"/>
-      <c r="B499" s="177"/>
-      <c r="C499" s="176"/>
-      <c r="D499" s="176"/>
-      <c r="E499" s="176"/>
+      <c r="L498" s="175"/>
+      <c r="M498" s="175"/>
+      <c r="N498" s="175"/>
+      <c r="O498" s="175"/>
+      <c r="P498" s="175"/>
+      <c r="Q498" s="175"/>
+      <c r="R498" s="175"/>
+      <c r="S498" s="175"/>
+      <c r="T498" s="175"/>
+      <c r="U498" s="175"/>
+      <c r="V498" s="175"/>
+    </row>
+    <row r="499" spans="1:25" s="174" customFormat="1">
+      <c r="A499" s="175"/>
+      <c r="B499" s="176"/>
+      <c r="C499" s="175"/>
+      <c r="D499" s="175"/>
+      <c r="E499" s="175"/>
       <c r="F499" s="139"/>
       <c r="G499" s="139"/>
-      <c r="H499" s="187">
+      <c r="H499" s="186">
         <v>42261</v>
       </c>
-      <c r="I499" s="198">
+      <c r="I499" s="196">
         <v>1</v>
       </c>
-      <c r="J499" s="200">
+      <c r="J499" s="198">
         <v>502.5</v>
       </c>
-      <c r="K499" s="202">
+      <c r="K499" s="200">
         <v>1201</v>
       </c>
-      <c r="L499" s="176"/>
-      <c r="M499" s="176"/>
-      <c r="N499" s="176"/>
-      <c r="O499" s="176"/>
-      <c r="P499" s="176"/>
-      <c r="Q499" s="176"/>
-      <c r="R499" s="176"/>
-      <c r="S499" s="176"/>
-      <c r="T499" s="176"/>
-      <c r="U499" s="176"/>
-      <c r="V499" s="176"/>
-    </row>
-    <row r="500" spans="1:25" s="175" customFormat="1">
-      <c r="A500" s="176"/>
-      <c r="B500" s="177"/>
-      <c r="C500" s="176"/>
-      <c r="D500" s="176"/>
-      <c r="E500" s="176"/>
+      <c r="L499" s="175"/>
+      <c r="M499" s="175"/>
+      <c r="N499" s="175"/>
+      <c r="O499" s="175"/>
+      <c r="P499" s="175"/>
+      <c r="Q499" s="175"/>
+      <c r="R499" s="175"/>
+      <c r="S499" s="175"/>
+      <c r="T499" s="175"/>
+      <c r="U499" s="175"/>
+      <c r="V499" s="175"/>
+    </row>
+    <row r="500" spans="1:25" s="174" customFormat="1">
+      <c r="A500" s="175"/>
+      <c r="B500" s="176"/>
+      <c r="C500" s="175"/>
+      <c r="D500" s="175"/>
+      <c r="E500" s="175"/>
       <c r="F500" s="139"/>
       <c r="G500" s="139"/>
-      <c r="H500" s="187">
+      <c r="H500" s="186">
         <v>42254</v>
       </c>
-      <c r="I500" s="198">
+      <c r="I500" s="196">
         <v>1</v>
       </c>
-      <c r="J500" s="200">
+      <c r="J500" s="198">
         <v>493.41</v>
       </c>
-      <c r="K500" s="202">
+      <c r="K500" s="200">
         <v>1190</v>
       </c>
-      <c r="L500" s="176"/>
-      <c r="M500" s="176"/>
-      <c r="N500" s="176"/>
-      <c r="O500" s="176"/>
-      <c r="P500" s="176"/>
-      <c r="Q500" s="176"/>
-      <c r="R500" s="176"/>
-      <c r="S500" s="176"/>
-      <c r="T500" s="176"/>
-      <c r="U500" s="176"/>
-      <c r="V500" s="176"/>
-    </row>
-    <row r="501" spans="1:25" s="175" customFormat="1">
-      <c r="A501" s="176"/>
-      <c r="B501" s="177"/>
-      <c r="C501" s="176"/>
-      <c r="D501" s="176"/>
-      <c r="E501" s="176"/>
+      <c r="L500" s="175"/>
+      <c r="M500" s="175"/>
+      <c r="N500" s="175"/>
+      <c r="O500" s="175"/>
+      <c r="P500" s="175"/>
+      <c r="Q500" s="175"/>
+      <c r="R500" s="175"/>
+      <c r="S500" s="175"/>
+      <c r="T500" s="175"/>
+      <c r="U500" s="175"/>
+      <c r="V500" s="175"/>
+    </row>
+    <row r="501" spans="1:25" s="174" customFormat="1">
+      <c r="A501" s="175"/>
+      <c r="B501" s="176"/>
+      <c r="C501" s="175"/>
+      <c r="D501" s="175"/>
+      <c r="E501" s="175"/>
       <c r="F501" s="139"/>
       <c r="G501" s="139"/>
-      <c r="H501" s="187">
+      <c r="H501" s="186">
         <v>42247</v>
       </c>
-      <c r="I501" s="198">
+      <c r="I501" s="196">
         <v>1</v>
       </c>
-      <c r="J501" s="200">
+      <c r="J501" s="198">
         <v>466.06</v>
       </c>
-      <c r="K501" s="203">
+      <c r="K501" s="201">
         <v>1156.9100000000001</v>
       </c>
-      <c r="L501" s="176"/>
-      <c r="M501" s="176"/>
-      <c r="N501" s="176"/>
-      <c r="O501" s="176"/>
-      <c r="P501" s="176"/>
-      <c r="Q501" s="176"/>
-      <c r="R501" s="176"/>
-      <c r="S501" s="176"/>
-      <c r="T501" s="176"/>
-      <c r="U501" s="176"/>
-      <c r="V501" s="176"/>
-    </row>
-    <row r="502" spans="1:25" s="175" customFormat="1">
-      <c r="A502" s="176"/>
-      <c r="B502" s="177"/>
-      <c r="C502" s="176"/>
-      <c r="D502" s="176"/>
-      <c r="E502" s="176"/>
+      <c r="L501" s="175"/>
+      <c r="M501" s="175"/>
+      <c r="N501" s="175"/>
+      <c r="O501" s="175"/>
+      <c r="P501" s="175"/>
+      <c r="Q501" s="175"/>
+      <c r="R501" s="175"/>
+      <c r="S501" s="175"/>
+      <c r="T501" s="175"/>
+      <c r="U501" s="175"/>
+      <c r="V501" s="175"/>
+    </row>
+    <row r="502" spans="1:25" s="174" customFormat="1">
+      <c r="A502" s="175"/>
+      <c r="B502" s="176"/>
+      <c r="C502" s="175"/>
+      <c r="D502" s="175"/>
+      <c r="E502" s="175"/>
       <c r="F502" s="139"/>
       <c r="G502" s="139"/>
-      <c r="H502" s="187">
+      <c r="H502" s="186">
         <v>42240</v>
       </c>
-      <c r="I502" s="198">
+      <c r="I502" s="196">
         <v>1</v>
       </c>
-      <c r="J502" s="200">
+      <c r="J502" s="198">
         <v>485.97</v>
       </c>
-      <c r="K502" s="202">
+      <c r="K502" s="200">
         <v>1181</v>
       </c>
-      <c r="L502" s="176"/>
-      <c r="M502" s="176"/>
-      <c r="N502" s="176"/>
-      <c r="O502" s="176"/>
-      <c r="P502" s="176"/>
-      <c r="Q502" s="176"/>
-      <c r="R502" s="176"/>
-      <c r="S502" s="176"/>
-      <c r="T502" s="176"/>
-      <c r="U502" s="176"/>
-      <c r="V502" s="176"/>
-    </row>
-    <row r="503" spans="1:25" s="175" customFormat="1">
-      <c r="A503" s="176"/>
-      <c r="B503" s="177"/>
-      <c r="C503" s="176"/>
-      <c r="D503" s="176"/>
-      <c r="E503" s="176"/>
+      <c r="L502" s="175"/>
+      <c r="M502" s="175"/>
+      <c r="N502" s="175"/>
+      <c r="O502" s="175"/>
+      <c r="P502" s="175"/>
+      <c r="Q502" s="175"/>
+      <c r="R502" s="175"/>
+      <c r="S502" s="175"/>
+      <c r="T502" s="175"/>
+      <c r="U502" s="175"/>
+      <c r="V502" s="175"/>
+    </row>
+    <row r="503" spans="1:25" s="174" customFormat="1">
+      <c r="A503" s="175"/>
+      <c r="B503" s="176"/>
+      <c r="C503" s="175"/>
+      <c r="D503" s="175"/>
+      <c r="E503" s="175"/>
       <c r="F503" s="139"/>
       <c r="G503" s="139"/>
-      <c r="H503" s="187">
+      <c r="H503" s="186">
         <v>42233</v>
       </c>
-      <c r="I503" s="198">
+      <c r="I503" s="196">
         <v>1</v>
       </c>
-      <c r="J503" s="200">
+      <c r="J503" s="198">
         <v>496.72</v>
       </c>
-      <c r="K503" s="202">
+      <c r="K503" s="200">
         <v>1194</v>
       </c>
-      <c r="L503" s="176"/>
-      <c r="M503" s="176"/>
-      <c r="N503" s="176"/>
-      <c r="O503" s="176"/>
-      <c r="P503" s="176"/>
-      <c r="Q503" s="176"/>
-      <c r="R503" s="176"/>
-      <c r="S503" s="176"/>
-      <c r="T503" s="176"/>
-      <c r="U503" s="176"/>
-      <c r="V503" s="176"/>
-    </row>
-    <row r="504" spans="1:25" s="175" customFormat="1">
-      <c r="A504" s="176"/>
-      <c r="B504" s="177"/>
-      <c r="C504" s="176"/>
-      <c r="D504" s="176"/>
-      <c r="E504" s="176"/>
+      <c r="L503" s="175"/>
+      <c r="M503" s="175"/>
+      <c r="N503" s="175"/>
+      <c r="O503" s="175"/>
+      <c r="P503" s="175"/>
+      <c r="Q503" s="175"/>
+      <c r="R503" s="175"/>
+      <c r="S503" s="175"/>
+      <c r="T503" s="175"/>
+      <c r="U503" s="175"/>
+      <c r="V503" s="175"/>
+    </row>
+    <row r="504" spans="1:25" s="174" customFormat="1">
+      <c r="A504" s="175"/>
+      <c r="B504" s="176"/>
+      <c r="C504" s="175"/>
+      <c r="D504" s="175"/>
+      <c r="E504" s="175"/>
       <c r="F504" s="139"/>
       <c r="G504" s="139"/>
-      <c r="H504" s="187">
+      <c r="H504" s="186">
         <v>42226</v>
       </c>
-      <c r="I504" s="198">
+      <c r="I504" s="196">
         <v>1</v>
       </c>
-      <c r="J504" s="200">
+      <c r="J504" s="198">
         <v>504.98</v>
       </c>
-      <c r="K504" s="202">
+      <c r="K504" s="200">
         <v>1204</v>
       </c>
-      <c r="L504" s="176"/>
-      <c r="M504" s="176"/>
-      <c r="N504" s="176"/>
-      <c r="O504" s="176"/>
-      <c r="P504" s="176"/>
-      <c r="Q504" s="176"/>
-      <c r="R504" s="176"/>
-      <c r="S504" s="176"/>
-      <c r="T504" s="176"/>
-      <c r="U504" s="176"/>
-      <c r="V504" s="176"/>
-    </row>
-    <row r="505" spans="1:25" s="175" customFormat="1">
-      <c r="B505" s="177"/>
-      <c r="H505" s="187">
+      <c r="L504" s="175"/>
+      <c r="M504" s="175"/>
+      <c r="N504" s="175"/>
+      <c r="O504" s="175"/>
+      <c r="P504" s="175"/>
+      <c r="Q504" s="175"/>
+      <c r="R504" s="175"/>
+      <c r="S504" s="175"/>
+      <c r="T504" s="175"/>
+      <c r="U504" s="175"/>
+      <c r="V504" s="175"/>
+    </row>
+    <row r="505" spans="1:25" s="174" customFormat="1">
+      <c r="B505" s="176"/>
+      <c r="H505" s="186">
         <v>42219</v>
       </c>
-      <c r="I505" s="198">
+      <c r="I505" s="196">
         <v>1</v>
       </c>
-      <c r="J505" s="200">
+      <c r="J505" s="198">
         <v>518.20000000000005</v>
       </c>
-      <c r="K505" s="202">
+      <c r="K505" s="200">
         <v>1220</v>
       </c>
     </row>
-    <row r="506" spans="1:25" s="175" customFormat="1">
-      <c r="B506" s="177"/>
-      <c r="H506" s="187">
+    <row r="506" spans="1:25" s="174" customFormat="1">
+      <c r="B506" s="176"/>
+      <c r="H506" s="186">
         <v>42212</v>
       </c>
-      <c r="I506" s="198">
+      <c r="I506" s="196">
         <v>1</v>
       </c>
-      <c r="J506" s="200">
+      <c r="J506" s="198">
         <v>533.91</v>
       </c>
-      <c r="K506" s="202">
+      <c r="K506" s="200">
         <v>1239</v>
       </c>
     </row>
-    <row r="507" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="B507" s="177"/>
-      <c r="H507" s="187">
+    <row r="507" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="B507" s="176"/>
+      <c r="H507" s="186">
         <v>42205</v>
       </c>
-      <c r="I507" s="198">
+      <c r="I507" s="196">
         <v>1</v>
       </c>
-      <c r="J507" s="200">
+      <c r="J507" s="198">
         <v>547.13</v>
       </c>
-      <c r="K507" s="202">
+      <c r="K507" s="200">
         <v>1255</v>
       </c>
     </row>
@@ -13447,23 +13375,23 @@
         <v>25</v>
       </c>
       <c r="D508" s="129" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E508" s="129"/>
       <c r="F508" s="129" t="s">
         <v>32</v>
       </c>
       <c r="G508" s="129"/>
-      <c r="H508" s="187">
+      <c r="H508" s="186">
         <v>42198</v>
       </c>
-      <c r="I508" s="198">
+      <c r="I508" s="196">
         <v>1</v>
       </c>
-      <c r="J508" s="200">
+      <c r="J508" s="198">
         <v>568.62</v>
       </c>
-      <c r="K508" s="202">
+      <c r="K508" s="200">
         <v>1281</v>
       </c>
       <c r="L508" s="129"/>
@@ -13478,22 +13406,22 @@
       <c r="U508" s="129"/>
     </row>
     <row r="509" spans="1:25" customFormat="1">
-      <c r="B509" s="190"/>
+      <c r="B509" s="189"/>
       <c r="C509" s="144"/>
       <c r="D509" s="139"/>
       <c r="E509" s="139"/>
       <c r="F509" s="139"/>
       <c r="G509" s="139"/>
-      <c r="H509" s="187">
+      <c r="H509" s="186">
         <v>42191</v>
       </c>
-      <c r="I509" s="198">
+      <c r="I509" s="196">
         <v>1</v>
       </c>
-      <c r="J509" s="200">
+      <c r="J509" s="198">
         <v>580.19000000000005</v>
       </c>
-      <c r="K509" s="202">
+      <c r="K509" s="200">
         <v>1295</v>
       </c>
       <c r="L509" s="139"/>
@@ -13512,18 +13440,18 @@
       <c r="Y509" s="139"/>
     </row>
     <row r="510" spans="1:25" customFormat="1">
-      <c r="B510" s="190"/>
-      <c r="C510" s="175" t="s">
-        <v>160</v>
+      <c r="B510" s="189"/>
+      <c r="C510" s="174" t="s">
+        <v>159</v>
       </c>
       <c r="D510" s="139"/>
       <c r="E510" s="139"/>
       <c r="F510" s="139"/>
       <c r="G510" s="139"/>
-      <c r="H510" s="175"/>
-      <c r="I510" s="175"/>
-      <c r="J510" s="175"/>
-      <c r="K510" s="175"/>
+      <c r="H510" s="174"/>
+      <c r="I510" s="174"/>
+      <c r="J510" s="174"/>
+      <c r="K510" s="174"/>
       <c r="L510" s="139"/>
       <c r="M510" s="139"/>
       <c r="N510" s="139"/>
@@ -13539,184 +13467,184 @@
       <c r="X510" s="139"/>
       <c r="Y510" s="139"/>
     </row>
-    <row r="511" spans="1:25" s="175" customFormat="1">
-      <c r="B511" s="190"/>
-    </row>
-    <row r="512" spans="1:25" s="175" customFormat="1" ht="17" thickBot="1">
-      <c r="B512" s="190"/>
-    </row>
-    <row r="513" spans="2:11" s="175" customFormat="1">
-      <c r="B513" s="190"/>
-      <c r="D513" s="175" t="s">
-        <v>124</v>
+    <row r="511" spans="1:25" s="174" customFormat="1">
+      <c r="B511" s="189"/>
+    </row>
+    <row r="512" spans="1:25" s="174" customFormat="1" ht="17" thickBot="1">
+      <c r="B512" s="189"/>
+    </row>
+    <row r="513" spans="2:11" s="174" customFormat="1">
+      <c r="B513" s="189"/>
+      <c r="D513" s="174" t="s">
+        <v>123</v>
       </c>
       <c r="H513" s="129"/>
       <c r="I513" s="129"/>
       <c r="J513" s="129"/>
       <c r="K513" s="129"/>
     </row>
-    <row r="514" spans="2:11" s="175" customFormat="1">
-      <c r="B514" s="190"/>
-      <c r="D514" s="175" t="s">
-        <v>133</v>
+    <row r="514" spans="2:11" s="174" customFormat="1">
+      <c r="B514" s="189"/>
+      <c r="D514" s="174" t="s">
+        <v>132</v>
       </c>
       <c r="H514" s="139"/>
       <c r="I514" s="139"/>
       <c r="J514" s="139"/>
       <c r="K514" s="139"/>
     </row>
-    <row r="515" spans="2:11" s="175" customFormat="1">
-      <c r="B515" s="190"/>
+    <row r="515" spans="2:11" s="174" customFormat="1">
+      <c r="B515" s="189"/>
       <c r="H515" s="139"/>
       <c r="I515" s="139"/>
       <c r="J515" s="139"/>
       <c r="K515" s="139"/>
     </row>
-    <row r="516" spans="2:11" s="175" customFormat="1">
-      <c r="B516" s="190"/>
-      <c r="F516" s="175">
+    <row r="516" spans="2:11" s="174" customFormat="1">
+      <c r="B516" s="189"/>
+      <c r="F516" s="174">
         <v>0.5</v>
       </c>
-      <c r="G516" s="175" t="s">
-        <v>143</v>
-      </c>
-      <c r="H516" s="175" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="517" spans="2:11" s="175" customFormat="1">
-      <c r="B517" s="190"/>
-      <c r="F517" s="191">
+      <c r="G516" s="174" t="s">
+        <v>142</v>
+      </c>
+      <c r="H516" s="174" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="517" spans="2:11" s="174" customFormat="1">
+      <c r="B517" s="189"/>
+      <c r="F517" s="190">
         <f>F479</f>
         <v>1.2578</v>
       </c>
-      <c r="G517" s="175" t="s">
-        <v>143</v>
-      </c>
-      <c r="H517" s="175" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="518" spans="2:11" s="175" customFormat="1">
-      <c r="B518" s="190"/>
-      <c r="F518" s="191">
+      <c r="G517" s="174" t="s">
+        <v>142</v>
+      </c>
+      <c r="H517" s="174" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="518" spans="2:11" s="174" customFormat="1">
+      <c r="B518" s="189"/>
+      <c r="F518" s="190">
         <f>F516+F517</f>
         <v>1.7578</v>
       </c>
-      <c r="G518" s="175" t="s">
-        <v>143</v>
-      </c>
-      <c r="H518" s="175" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="519" spans="2:11" s="175" customFormat="1">
-      <c r="B519" s="190"/>
-    </row>
-    <row r="520" spans="2:11" s="175" customFormat="1">
-      <c r="B520" s="190"/>
-    </row>
-    <row r="521" spans="2:11" s="175" customFormat="1">
-      <c r="B521" s="190"/>
-      <c r="F521" s="191"/>
-    </row>
-    <row r="522" spans="2:11" s="175" customFormat="1">
-      <c r="B522" s="190"/>
-    </row>
-    <row r="523" spans="2:11" s="175" customFormat="1">
-      <c r="B523" s="190"/>
-    </row>
-    <row r="524" spans="2:11" s="175" customFormat="1">
-      <c r="B524" s="190"/>
-    </row>
-    <row r="525" spans="2:11" s="175" customFormat="1">
-      <c r="B525" s="190"/>
-    </row>
-    <row r="526" spans="2:11" s="175" customFormat="1">
-      <c r="B526" s="190"/>
-    </row>
-    <row r="527" spans="2:11" s="175" customFormat="1">
-      <c r="B527" s="190"/>
-      <c r="F527" s="192">
+      <c r="G518" s="174" t="s">
+        <v>142</v>
+      </c>
+      <c r="H518" s="174" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="519" spans="2:11" s="174" customFormat="1">
+      <c r="B519" s="189"/>
+    </row>
+    <row r="520" spans="2:11" s="174" customFormat="1">
+      <c r="B520" s="189"/>
+    </row>
+    <row r="521" spans="2:11" s="174" customFormat="1">
+      <c r="B521" s="189"/>
+      <c r="F521" s="190"/>
+    </row>
+    <row r="522" spans="2:11" s="174" customFormat="1">
+      <c r="B522" s="189"/>
+    </row>
+    <row r="523" spans="2:11" s="174" customFormat="1">
+      <c r="B523" s="189"/>
+    </row>
+    <row r="524" spans="2:11" s="174" customFormat="1">
+      <c r="B524" s="189"/>
+    </row>
+    <row r="525" spans="2:11" s="174" customFormat="1">
+      <c r="B525" s="189"/>
+    </row>
+    <row r="526" spans="2:11" s="174" customFormat="1">
+      <c r="B526" s="189"/>
+    </row>
+    <row r="527" spans="2:11" s="174" customFormat="1">
+      <c r="B527" s="189"/>
+      <c r="F527" s="191">
         <f>F518/(1+F482)-F483</f>
         <v>0.95880914049586796</v>
       </c>
-      <c r="G527" s="175" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="528" spans="2:11" s="175" customFormat="1">
-      <c r="B528" s="190"/>
-      <c r="F528" s="193">
+      <c r="G527" s="174" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="528" spans="2:11" s="174" customFormat="1">
+      <c r="B528" s="189"/>
+      <c r="F528" s="192">
         <f>F527/F11</f>
         <v>2.8960044113080459E-2</v>
       </c>
-      <c r="G528" s="175" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="529" spans="2:11" s="175" customFormat="1">
-      <c r="B529" s="190"/>
-    </row>
-    <row r="530" spans="2:11" s="175" customFormat="1">
-      <c r="B530" s="190"/>
+      <c r="G528" s="174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="529" spans="2:11" s="174" customFormat="1">
+      <c r="B529" s="189"/>
+    </row>
+    <row r="530" spans="2:11" s="174" customFormat="1">
+      <c r="B530" s="189"/>
     </row>
     <row r="531" spans="2:11">
-      <c r="H531" s="175"/>
-      <c r="I531" s="175"/>
-      <c r="J531" s="175"/>
-      <c r="K531" s="175"/>
+      <c r="H531" s="174"/>
+      <c r="I531" s="174"/>
+      <c r="J531" s="174"/>
+      <c r="K531" s="174"/>
     </row>
     <row r="532" spans="2:11">
-      <c r="H532" s="175" t="s">
-        <v>164</v>
-      </c>
-      <c r="I532" s="175"/>
-      <c r="J532" s="175"/>
-      <c r="K532" s="175"/>
+      <c r="H532" s="174" t="s">
+        <v>163</v>
+      </c>
+      <c r="I532" s="174"/>
+      <c r="J532" s="174"/>
+      <c r="K532" s="174"/>
     </row>
     <row r="533" spans="2:11">
-      <c r="H533" s="175"/>
-      <c r="I533" s="175"/>
-      <c r="J533" s="175"/>
-      <c r="K533" s="175"/>
+      <c r="H533" s="174"/>
+      <c r="I533" s="174"/>
+      <c r="J533" s="174"/>
+      <c r="K533" s="174"/>
     </row>
     <row r="534" spans="2:11">
-      <c r="H534" s="175"/>
-      <c r="I534" s="175"/>
-      <c r="J534" s="175"/>
-      <c r="K534" s="175"/>
+      <c r="H534" s="174"/>
+      <c r="I534" s="174"/>
+      <c r="J534" s="174"/>
+      <c r="K534" s="174"/>
     </row>
     <row r="535" spans="2:11">
-      <c r="H535" s="175"/>
-      <c r="I535" s="175"/>
-      <c r="J535" s="175"/>
-      <c r="K535" s="175"/>
+      <c r="H535" s="174"/>
+      <c r="I535" s="174"/>
+      <c r="J535" s="174"/>
+      <c r="K535" s="174"/>
     </row>
     <row r="566" spans="2:35" ht="17" thickBot="1"/>
     <row r="567" spans="2:35">
-      <c r="B567" s="209"/>
-      <c r="C567" s="174" t="s">
+      <c r="B567" s="206"/>
+      <c r="C567" s="173" t="s">
         <v>25</v>
       </c>
-      <c r="D567" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="E567" s="174"/>
-      <c r="F567" s="174" t="s">
+      <c r="D567" s="173" t="s">
+        <v>61</v>
+      </c>
+      <c r="E567" s="173"/>
+      <c r="F567" s="173" t="s">
         <v>32</v>
       </c>
-      <c r="G567" s="174"/>
-      <c r="L567" s="174"/>
-      <c r="M567" s="174"/>
-      <c r="N567" s="174"/>
-      <c r="O567" s="174"/>
-      <c r="P567" s="174"/>
-      <c r="Q567" s="174"/>
-      <c r="R567" s="174"/>
-      <c r="S567" s="174"/>
-      <c r="T567" s="174"/>
-      <c r="U567" s="174"/>
+      <c r="G567" s="173"/>
+      <c r="L567" s="173"/>
+      <c r="M567" s="173"/>
+      <c r="N567" s="173"/>
+      <c r="O567" s="173"/>
+      <c r="P567" s="173"/>
+      <c r="Q567" s="173"/>
+      <c r="R567" s="173"/>
+      <c r="S567" s="173"/>
+      <c r="T567" s="173"/>
+      <c r="U567" s="173"/>
       <c r="V567" s="159"/>
       <c r="W567" s="159"/>
       <c r="X567" s="159"/>
@@ -13733,7 +13661,7 @@
       <c r="AI567" s="159"/>
     </row>
     <row r="568" spans="2:35">
-      <c r="B568" s="177"/>
+      <c r="B568" s="176"/>
       <c r="C568" s="154"/>
       <c r="D568" s="154"/>
       <c r="E568" s="154"/>
@@ -13765,14 +13693,14 @@
       <c r="AI568" s="154"/>
     </row>
     <row r="569" spans="2:35">
-      <c r="B569" s="177"/>
-      <c r="C569" s="211" t="s">
-        <v>178</v>
-      </c>
-      <c r="D569" s="212"/>
-      <c r="E569" s="212"/>
-      <c r="F569" s="212"/>
-      <c r="G569" s="212"/>
+      <c r="B569" s="176"/>
+      <c r="C569" s="207" t="s">
+        <v>176</v>
+      </c>
+      <c r="D569" s="208"/>
+      <c r="E569" s="208"/>
+      <c r="F569" s="208"/>
+      <c r="G569" s="208"/>
       <c r="L569" s="139"/>
       <c r="M569" s="139"/>
       <c r="N569" s="139"/>
@@ -13787,24 +13715,24 @@
       <c r="W569" s="139"/>
       <c r="X569" s="139"/>
       <c r="Y569" s="139"/>
-      <c r="Z569" s="176"/>
-      <c r="AA569" s="176"/>
-      <c r="AB569" s="176"/>
-      <c r="AC569" s="176"/>
-      <c r="AD569" s="176"/>
-      <c r="AE569" s="176"/>
-      <c r="AF569" s="176"/>
-      <c r="AG569" s="176"/>
-      <c r="AH569" s="176"/>
-      <c r="AI569" s="176"/>
+      <c r="Z569" s="175"/>
+      <c r="AA569" s="175"/>
+      <c r="AB569" s="175"/>
+      <c r="AC569" s="175"/>
+      <c r="AD569" s="175"/>
+      <c r="AE569" s="175"/>
+      <c r="AF569" s="175"/>
+      <c r="AG569" s="175"/>
+      <c r="AH569" s="175"/>
+      <c r="AI569" s="175"/>
     </row>
     <row r="570" spans="2:35">
-      <c r="B570" s="177"/>
-      <c r="C570" s="212"/>
-      <c r="D570" s="212"/>
-      <c r="E570" s="212"/>
-      <c r="F570" s="212"/>
-      <c r="G570" s="212"/>
+      <c r="B570" s="176"/>
+      <c r="C570" s="208"/>
+      <c r="D570" s="208"/>
+      <c r="E570" s="208"/>
+      <c r="F570" s="208"/>
+      <c r="G570" s="208"/>
       <c r="L570" s="139"/>
       <c r="M570" s="139"/>
       <c r="N570" s="139"/>
@@ -13819,24 +13747,24 @@
       <c r="W570" s="139"/>
       <c r="X570" s="139"/>
       <c r="Y570" s="139"/>
-      <c r="Z570" s="176"/>
-      <c r="AA570" s="176"/>
-      <c r="AB570" s="176"/>
-      <c r="AC570" s="176"/>
-      <c r="AD570" s="176"/>
-      <c r="AE570" s="176"/>
-      <c r="AF570" s="176"/>
-      <c r="AG570" s="176"/>
-      <c r="AH570" s="176"/>
-      <c r="AI570" s="176"/>
+      <c r="Z570" s="175"/>
+      <c r="AA570" s="175"/>
+      <c r="AB570" s="175"/>
+      <c r="AC570" s="175"/>
+      <c r="AD570" s="175"/>
+      <c r="AE570" s="175"/>
+      <c r="AF570" s="175"/>
+      <c r="AG570" s="175"/>
+      <c r="AH570" s="175"/>
+      <c r="AI570" s="175"/>
     </row>
     <row r="571" spans="2:35" ht="17" thickBot="1">
-      <c r="B571" s="177"/>
-      <c r="C571" s="212"/>
-      <c r="D571" s="212"/>
-      <c r="E571" s="212"/>
-      <c r="F571" s="212"/>
-      <c r="G571" s="212"/>
+      <c r="B571" s="176"/>
+      <c r="C571" s="208"/>
+      <c r="D571" s="208"/>
+      <c r="E571" s="208"/>
+      <c r="F571" s="208"/>
+      <c r="G571" s="208"/>
       <c r="L571" s="139"/>
       <c r="M571" s="139"/>
       <c r="N571" s="139"/>
@@ -13851,28 +13779,28 @@
       <c r="W571" s="139"/>
       <c r="X571" s="139"/>
       <c r="Y571" s="139"/>
-      <c r="Z571" s="176"/>
-      <c r="AA571" s="176"/>
-      <c r="AB571" s="176"/>
-      <c r="AC571" s="176"/>
-      <c r="AD571" s="176"/>
-      <c r="AE571" s="176"/>
-      <c r="AF571" s="176"/>
-      <c r="AG571" s="176"/>
-      <c r="AH571" s="176"/>
-      <c r="AI571" s="176"/>
+      <c r="Z571" s="175"/>
+      <c r="AA571" s="175"/>
+      <c r="AB571" s="175"/>
+      <c r="AC571" s="175"/>
+      <c r="AD571" s="175"/>
+      <c r="AE571" s="175"/>
+      <c r="AF571" s="175"/>
+      <c r="AG571" s="175"/>
+      <c r="AH571" s="175"/>
+      <c r="AI571" s="175"/>
     </row>
     <row r="572" spans="2:35">
-      <c r="B572" s="177"/>
-      <c r="C572" s="212"/>
-      <c r="D572" s="212"/>
-      <c r="E572" s="212"/>
-      <c r="F572" s="212"/>
-      <c r="G572" s="212"/>
-      <c r="H572" s="174"/>
-      <c r="I572" s="174"/>
-      <c r="J572" s="174"/>
-      <c r="K572" s="174"/>
+      <c r="B572" s="176"/>
+      <c r="C572" s="208"/>
+      <c r="D572" s="208"/>
+      <c r="E572" s="208"/>
+      <c r="F572" s="208"/>
+      <c r="G572" s="208"/>
+      <c r="H572" s="173"/>
+      <c r="I572" s="173"/>
+      <c r="J572" s="173"/>
+      <c r="K572" s="173"/>
       <c r="L572" s="139"/>
       <c r="M572" s="139"/>
       <c r="N572" s="139"/>
@@ -13887,24 +13815,24 @@
       <c r="W572" s="139"/>
       <c r="X572" s="139"/>
       <c r="Y572" s="139"/>
-      <c r="Z572" s="176"/>
-      <c r="AA572" s="176"/>
-      <c r="AB572" s="176"/>
-      <c r="AC572" s="176"/>
-      <c r="AD572" s="176"/>
-      <c r="AE572" s="176"/>
-      <c r="AF572" s="176"/>
-      <c r="AG572" s="176"/>
-      <c r="AH572" s="176"/>
-      <c r="AI572" s="176"/>
+      <c r="Z572" s="175"/>
+      <c r="AA572" s="175"/>
+      <c r="AB572" s="175"/>
+      <c r="AC572" s="175"/>
+      <c r="AD572" s="175"/>
+      <c r="AE572" s="175"/>
+      <c r="AF572" s="175"/>
+      <c r="AG572" s="175"/>
+      <c r="AH572" s="175"/>
+      <c r="AI572" s="175"/>
     </row>
     <row r="573" spans="2:35">
-      <c r="B573" s="177"/>
-      <c r="C573" s="212"/>
-      <c r="D573" s="212"/>
-      <c r="E573" s="212"/>
-      <c r="F573" s="212"/>
-      <c r="G573" s="212"/>
+      <c r="B573" s="176"/>
+      <c r="C573" s="208"/>
+      <c r="D573" s="208"/>
+      <c r="E573" s="208"/>
+      <c r="F573" s="208"/>
+      <c r="G573" s="208"/>
       <c r="H573" s="154"/>
       <c r="I573" s="154"/>
       <c r="J573" s="154"/>
@@ -13923,26 +13851,26 @@
       <c r="W573" s="139"/>
       <c r="X573" s="139"/>
       <c r="Y573" s="139"/>
-      <c r="Z573" s="176"/>
-      <c r="AA573" s="176"/>
-      <c r="AB573" s="176"/>
-      <c r="AC573" s="176"/>
-      <c r="AD573" s="176"/>
-      <c r="AE573" s="176"/>
-      <c r="AF573" s="176"/>
-      <c r="AG573" s="176"/>
-      <c r="AH573" s="176"/>
-      <c r="AI573" s="176"/>
+      <c r="Z573" s="175"/>
+      <c r="AA573" s="175"/>
+      <c r="AB573" s="175"/>
+      <c r="AC573" s="175"/>
+      <c r="AD573" s="175"/>
+      <c r="AE573" s="175"/>
+      <c r="AF573" s="175"/>
+      <c r="AG573" s="175"/>
+      <c r="AH573" s="175"/>
+      <c r="AI573" s="175"/>
     </row>
     <row r="574" spans="2:35">
-      <c r="B574" s="177"/>
-      <c r="C574" s="212"/>
+      <c r="B574" s="176"/>
+      <c r="C574" s="208"/>
       <c r="D574" s="139"/>
       <c r="E574" s="139"/>
       <c r="F574" s="139"/>
       <c r="G574" s="139"/>
-      <c r="H574" s="212"/>
-      <c r="I574" s="212"/>
+      <c r="H574" s="208"/>
+      <c r="I574" s="208"/>
       <c r="J574" s="139"/>
       <c r="K574" s="139"/>
       <c r="L574" s="139"/>
@@ -13959,26 +13887,26 @@
       <c r="W574" s="139"/>
       <c r="X574" s="139"/>
       <c r="Y574" s="139"/>
-      <c r="Z574" s="176"/>
-      <c r="AA574" s="176"/>
-      <c r="AB574" s="176"/>
-      <c r="AC574" s="176"/>
-      <c r="AD574" s="176"/>
-      <c r="AE574" s="176"/>
-      <c r="AF574" s="176"/>
-      <c r="AG574" s="176"/>
-      <c r="AH574" s="176"/>
-      <c r="AI574" s="176"/>
+      <c r="Z574" s="175"/>
+      <c r="AA574" s="175"/>
+      <c r="AB574" s="175"/>
+      <c r="AC574" s="175"/>
+      <c r="AD574" s="175"/>
+      <c r="AE574" s="175"/>
+      <c r="AF574" s="175"/>
+      <c r="AG574" s="175"/>
+      <c r="AH574" s="175"/>
+      <c r="AI574" s="175"/>
     </row>
     <row r="575" spans="2:35">
-      <c r="B575" s="177"/>
-      <c r="C575" s="212"/>
+      <c r="B575" s="176"/>
+      <c r="C575" s="208"/>
       <c r="D575" s="139"/>
       <c r="E575" s="139"/>
       <c r="F575" s="139"/>
       <c r="G575" s="139"/>
-      <c r="H575" s="212"/>
-      <c r="I575" s="212"/>
+      <c r="H575" s="208"/>
+      <c r="I575" s="208"/>
       <c r="J575" s="139"/>
       <c r="K575" s="139"/>
       <c r="L575" s="139"/>
@@ -13995,26 +13923,26 @@
       <c r="W575" s="139"/>
       <c r="X575" s="139"/>
       <c r="Y575" s="139"/>
-      <c r="Z575" s="176"/>
-      <c r="AA575" s="176"/>
-      <c r="AB575" s="176"/>
-      <c r="AC575" s="176"/>
-      <c r="AD575" s="176"/>
-      <c r="AE575" s="176"/>
-      <c r="AF575" s="176"/>
-      <c r="AG575" s="176"/>
-      <c r="AH575" s="176"/>
-      <c r="AI575" s="176"/>
+      <c r="Z575" s="175"/>
+      <c r="AA575" s="175"/>
+      <c r="AB575" s="175"/>
+      <c r="AC575" s="175"/>
+      <c r="AD575" s="175"/>
+      <c r="AE575" s="175"/>
+      <c r="AF575" s="175"/>
+      <c r="AG575" s="175"/>
+      <c r="AH575" s="175"/>
+      <c r="AI575" s="175"/>
     </row>
     <row r="576" spans="2:35">
-      <c r="B576" s="177"/>
-      <c r="C576" s="212"/>
+      <c r="B576" s="176"/>
+      <c r="C576" s="208"/>
       <c r="D576" s="139"/>
       <c r="E576" s="139"/>
       <c r="F576" s="139"/>
       <c r="G576" s="139"/>
-      <c r="H576" s="212"/>
-      <c r="I576" s="212"/>
+      <c r="H576" s="208"/>
+      <c r="I576" s="208"/>
       <c r="J576" s="139"/>
       <c r="K576" s="139"/>
       <c r="L576" s="139"/>
@@ -14031,26 +13959,26 @@
       <c r="W576" s="139"/>
       <c r="X576" s="139"/>
       <c r="Y576" s="139"/>
-      <c r="Z576" s="176"/>
-      <c r="AA576" s="176"/>
-      <c r="AB576" s="176"/>
-      <c r="AC576" s="176"/>
-      <c r="AD576" s="176"/>
-      <c r="AE576" s="176"/>
-      <c r="AF576" s="176"/>
-      <c r="AG576" s="176"/>
-      <c r="AH576" s="176"/>
-      <c r="AI576" s="176"/>
+      <c r="Z576" s="175"/>
+      <c r="AA576" s="175"/>
+      <c r="AB576" s="175"/>
+      <c r="AC576" s="175"/>
+      <c r="AD576" s="175"/>
+      <c r="AE576" s="175"/>
+      <c r="AF576" s="175"/>
+      <c r="AG576" s="175"/>
+      <c r="AH576" s="175"/>
+      <c r="AI576" s="175"/>
     </row>
     <row r="577" spans="2:35">
-      <c r="B577" s="177"/>
+      <c r="B577" s="176"/>
       <c r="C577" s="139"/>
       <c r="D577" s="139"/>
       <c r="E577" s="139"/>
       <c r="F577" s="139"/>
       <c r="G577" s="139"/>
-      <c r="H577" s="212"/>
-      <c r="I577" s="212"/>
+      <c r="H577" s="208"/>
+      <c r="I577" s="208"/>
       <c r="J577" s="139"/>
       <c r="K577" s="139"/>
       <c r="L577" s="139"/>
@@ -14067,26 +13995,26 @@
       <c r="W577" s="139"/>
       <c r="X577" s="139"/>
       <c r="Y577" s="139"/>
-      <c r="Z577" s="176"/>
-      <c r="AA577" s="176"/>
-      <c r="AB577" s="176"/>
-      <c r="AC577" s="176"/>
-      <c r="AD577" s="176"/>
-      <c r="AE577" s="176"/>
-      <c r="AF577" s="176"/>
-      <c r="AG577" s="176"/>
-      <c r="AH577" s="176"/>
-      <c r="AI577" s="176"/>
+      <c r="Z577" s="175"/>
+      <c r="AA577" s="175"/>
+      <c r="AB577" s="175"/>
+      <c r="AC577" s="175"/>
+      <c r="AD577" s="175"/>
+      <c r="AE577" s="175"/>
+      <c r="AF577" s="175"/>
+      <c r="AG577" s="175"/>
+      <c r="AH577" s="175"/>
+      <c r="AI577" s="175"/>
     </row>
     <row r="578" spans="2:35">
-      <c r="B578" s="177"/>
+      <c r="B578" s="176"/>
       <c r="C578" s="139"/>
       <c r="D578" s="139"/>
       <c r="E578" s="139"/>
       <c r="F578" s="139"/>
       <c r="G578" s="139"/>
-      <c r="H578" s="212"/>
-      <c r="I578" s="212"/>
+      <c r="H578" s="208"/>
+      <c r="I578" s="208"/>
       <c r="J578" s="139"/>
       <c r="K578" s="139"/>
       <c r="L578" s="139"/>
@@ -14103,19 +14031,19 @@
       <c r="W578" s="139"/>
       <c r="X578" s="139"/>
       <c r="Y578" s="139"/>
-      <c r="Z578" s="176"/>
-      <c r="AA578" s="176"/>
-      <c r="AB578" s="176"/>
-      <c r="AC578" s="176"/>
-      <c r="AD578" s="176"/>
-      <c r="AE578" s="176"/>
-      <c r="AF578" s="176"/>
-      <c r="AG578" s="176"/>
-      <c r="AH578" s="176"/>
-      <c r="AI578" s="176"/>
+      <c r="Z578" s="175"/>
+      <c r="AA578" s="175"/>
+      <c r="AB578" s="175"/>
+      <c r="AC578" s="175"/>
+      <c r="AD578" s="175"/>
+      <c r="AE578" s="175"/>
+      <c r="AF578" s="175"/>
+      <c r="AG578" s="175"/>
+      <c r="AH578" s="175"/>
+      <c r="AI578" s="175"/>
     </row>
     <row r="579" spans="2:35">
-      <c r="B579" s="177"/>
+      <c r="B579" s="176"/>
       <c r="C579" s="139"/>
       <c r="D579" s="139"/>
       <c r="E579" s="139"/>
@@ -14139,19 +14067,19 @@
       <c r="W579" s="139"/>
       <c r="X579" s="139"/>
       <c r="Y579" s="139"/>
-      <c r="Z579" s="176"/>
-      <c r="AA579" s="176"/>
-      <c r="AB579" s="176"/>
-      <c r="AC579" s="176"/>
-      <c r="AD579" s="176"/>
-      <c r="AE579" s="176"/>
-      <c r="AF579" s="176"/>
-      <c r="AG579" s="176"/>
-      <c r="AH579" s="176"/>
-      <c r="AI579" s="176"/>
+      <c r="Z579" s="175"/>
+      <c r="AA579" s="175"/>
+      <c r="AB579" s="175"/>
+      <c r="AC579" s="175"/>
+      <c r="AD579" s="175"/>
+      <c r="AE579" s="175"/>
+      <c r="AF579" s="175"/>
+      <c r="AG579" s="175"/>
+      <c r="AH579" s="175"/>
+      <c r="AI579" s="175"/>
     </row>
     <row r="580" spans="2:35">
-      <c r="B580" s="177"/>
+      <c r="B580" s="176"/>
       <c r="C580" s="139"/>
       <c r="D580" s="139"/>
       <c r="E580" s="139"/>
@@ -14175,19 +14103,19 @@
       <c r="W580" s="139"/>
       <c r="X580" s="139"/>
       <c r="Y580" s="139"/>
-      <c r="Z580" s="176"/>
-      <c r="AA580" s="176"/>
-      <c r="AB580" s="176"/>
-      <c r="AC580" s="176"/>
-      <c r="AD580" s="176"/>
-      <c r="AE580" s="176"/>
-      <c r="AF580" s="176"/>
-      <c r="AG580" s="176"/>
-      <c r="AH580" s="176"/>
-      <c r="AI580" s="176"/>
+      <c r="Z580" s="175"/>
+      <c r="AA580" s="175"/>
+      <c r="AB580" s="175"/>
+      <c r="AC580" s="175"/>
+      <c r="AD580" s="175"/>
+      <c r="AE580" s="175"/>
+      <c r="AF580" s="175"/>
+      <c r="AG580" s="175"/>
+      <c r="AH580" s="175"/>
+      <c r="AI580" s="175"/>
     </row>
     <row r="581" spans="2:35">
-      <c r="B581" s="177"/>
+      <c r="B581" s="176"/>
       <c r="C581" s="139"/>
       <c r="D581" s="139"/>
       <c r="E581" s="139"/>
@@ -14211,19 +14139,19 @@
       <c r="W581" s="139"/>
       <c r="X581" s="139"/>
       <c r="Y581" s="139"/>
-      <c r="Z581" s="176"/>
-      <c r="AA581" s="176"/>
-      <c r="AB581" s="176"/>
-      <c r="AC581" s="176"/>
-      <c r="AD581" s="176"/>
-      <c r="AE581" s="176"/>
-      <c r="AF581" s="176"/>
-      <c r="AG581" s="176"/>
-      <c r="AH581" s="176"/>
-      <c r="AI581" s="176"/>
+      <c r="Z581" s="175"/>
+      <c r="AA581" s="175"/>
+      <c r="AB581" s="175"/>
+      <c r="AC581" s="175"/>
+      <c r="AD581" s="175"/>
+      <c r="AE581" s="175"/>
+      <c r="AF581" s="175"/>
+      <c r="AG581" s="175"/>
+      <c r="AH581" s="175"/>
+      <c r="AI581" s="175"/>
     </row>
     <row r="582" spans="2:35">
-      <c r="B582" s="177"/>
+      <c r="B582" s="176"/>
       <c r="C582" s="139"/>
       <c r="D582" s="139"/>
       <c r="E582" s="139"/>
@@ -14247,19 +14175,19 @@
       <c r="W582" s="139"/>
       <c r="X582" s="139"/>
       <c r="Y582" s="139"/>
-      <c r="Z582" s="176"/>
-      <c r="AA582" s="176"/>
-      <c r="AB582" s="176"/>
-      <c r="AC582" s="176"/>
-      <c r="AD582" s="176"/>
-      <c r="AE582" s="176"/>
-      <c r="AF582" s="176"/>
-      <c r="AG582" s="176"/>
-      <c r="AH582" s="176"/>
-      <c r="AI582" s="176"/>
+      <c r="Z582" s="175"/>
+      <c r="AA582" s="175"/>
+      <c r="AB582" s="175"/>
+      <c r="AC582" s="175"/>
+      <c r="AD582" s="175"/>
+      <c r="AE582" s="175"/>
+      <c r="AF582" s="175"/>
+      <c r="AG582" s="175"/>
+      <c r="AH582" s="175"/>
+      <c r="AI582" s="175"/>
     </row>
     <row r="583" spans="2:35">
-      <c r="B583" s="177"/>
+      <c r="B583" s="176"/>
       <c r="C583" s="139"/>
       <c r="D583" s="139"/>
       <c r="E583" s="139"/>
@@ -14283,19 +14211,19 @@
       <c r="W583" s="139"/>
       <c r="X583" s="139"/>
       <c r="Y583" s="139"/>
-      <c r="Z583" s="176"/>
-      <c r="AA583" s="176"/>
-      <c r="AB583" s="176"/>
-      <c r="AC583" s="176"/>
-      <c r="AD583" s="176"/>
-      <c r="AE583" s="176"/>
-      <c r="AF583" s="176"/>
-      <c r="AG583" s="176"/>
-      <c r="AH583" s="176"/>
-      <c r="AI583" s="176"/>
+      <c r="Z583" s="175"/>
+      <c r="AA583" s="175"/>
+      <c r="AB583" s="175"/>
+      <c r="AC583" s="175"/>
+      <c r="AD583" s="175"/>
+      <c r="AE583" s="175"/>
+      <c r="AF583" s="175"/>
+      <c r="AG583" s="175"/>
+      <c r="AH583" s="175"/>
+      <c r="AI583" s="175"/>
     </row>
     <row r="584" spans="2:35">
-      <c r="B584" s="177"/>
+      <c r="B584" s="176"/>
       <c r="C584" s="139"/>
       <c r="D584" s="139"/>
       <c r="E584" s="139"/>
@@ -14319,19 +14247,19 @@
       <c r="W584" s="139"/>
       <c r="X584" s="139"/>
       <c r="Y584" s="139"/>
-      <c r="Z584" s="176"/>
-      <c r="AA584" s="176"/>
-      <c r="AB584" s="176"/>
-      <c r="AC584" s="176"/>
-      <c r="AD584" s="176"/>
-      <c r="AE584" s="176"/>
-      <c r="AF584" s="176"/>
-      <c r="AG584" s="176"/>
-      <c r="AH584" s="176"/>
-      <c r="AI584" s="176"/>
+      <c r="Z584" s="175"/>
+      <c r="AA584" s="175"/>
+      <c r="AB584" s="175"/>
+      <c r="AC584" s="175"/>
+      <c r="AD584" s="175"/>
+      <c r="AE584" s="175"/>
+      <c r="AF584" s="175"/>
+      <c r="AG584" s="175"/>
+      <c r="AH584" s="175"/>
+      <c r="AI584" s="175"/>
     </row>
     <row r="585" spans="2:35">
-      <c r="B585" s="177"/>
+      <c r="B585" s="176"/>
       <c r="C585" s="139"/>
       <c r="D585" s="139"/>
       <c r="E585" s="139"/>
@@ -14355,19 +14283,19 @@
       <c r="W585" s="139"/>
       <c r="X585" s="139"/>
       <c r="Y585" s="139"/>
-      <c r="Z585" s="176"/>
-      <c r="AA585" s="176"/>
-      <c r="AB585" s="176"/>
-      <c r="AC585" s="176"/>
-      <c r="AD585" s="176"/>
-      <c r="AE585" s="176"/>
-      <c r="AF585" s="176"/>
-      <c r="AG585" s="176"/>
-      <c r="AH585" s="176"/>
-      <c r="AI585" s="176"/>
+      <c r="Z585" s="175"/>
+      <c r="AA585" s="175"/>
+      <c r="AB585" s="175"/>
+      <c r="AC585" s="175"/>
+      <c r="AD585" s="175"/>
+      <c r="AE585" s="175"/>
+      <c r="AF585" s="175"/>
+      <c r="AG585" s="175"/>
+      <c r="AH585" s="175"/>
+      <c r="AI585" s="175"/>
     </row>
     <row r="586" spans="2:35">
-      <c r="B586" s="177"/>
+      <c r="B586" s="176"/>
       <c r="C586" s="139"/>
       <c r="D586" s="139"/>
       <c r="E586" s="139"/>
@@ -14391,19 +14319,19 @@
       <c r="W586" s="139"/>
       <c r="X586" s="139"/>
       <c r="Y586" s="139"/>
-      <c r="Z586" s="176"/>
-      <c r="AA586" s="176"/>
-      <c r="AB586" s="176"/>
-      <c r="AC586" s="176"/>
-      <c r="AD586" s="176"/>
-      <c r="AE586" s="176"/>
-      <c r="AF586" s="176"/>
-      <c r="AG586" s="176"/>
-      <c r="AH586" s="176"/>
-      <c r="AI586" s="176"/>
+      <c r="Z586" s="175"/>
+      <c r="AA586" s="175"/>
+      <c r="AB586" s="175"/>
+      <c r="AC586" s="175"/>
+      <c r="AD586" s="175"/>
+      <c r="AE586" s="175"/>
+      <c r="AF586" s="175"/>
+      <c r="AG586" s="175"/>
+      <c r="AH586" s="175"/>
+      <c r="AI586" s="175"/>
     </row>
     <row r="587" spans="2:35">
-      <c r="B587" s="177"/>
+      <c r="B587" s="176"/>
       <c r="C587" s="139"/>
       <c r="D587" s="139"/>
       <c r="E587" s="139"/>
@@ -14427,19 +14355,19 @@
       <c r="W587" s="139"/>
       <c r="X587" s="139"/>
       <c r="Y587" s="139"/>
-      <c r="Z587" s="176"/>
-      <c r="AA587" s="176"/>
-      <c r="AB587" s="176"/>
-      <c r="AC587" s="176"/>
-      <c r="AD587" s="176"/>
-      <c r="AE587" s="176"/>
-      <c r="AF587" s="176"/>
-      <c r="AG587" s="176"/>
-      <c r="AH587" s="176"/>
-      <c r="AI587" s="176"/>
+      <c r="Z587" s="175"/>
+      <c r="AA587" s="175"/>
+      <c r="AB587" s="175"/>
+      <c r="AC587" s="175"/>
+      <c r="AD587" s="175"/>
+      <c r="AE587" s="175"/>
+      <c r="AF587" s="175"/>
+      <c r="AG587" s="175"/>
+      <c r="AH587" s="175"/>
+      <c r="AI587" s="175"/>
     </row>
     <row r="588" spans="2:35">
-      <c r="B588" s="177"/>
+      <c r="B588" s="176"/>
       <c r="C588" s="139"/>
       <c r="D588" s="139"/>
       <c r="E588" s="139"/>
@@ -14463,19 +14391,19 @@
       <c r="W588" s="139"/>
       <c r="X588" s="139"/>
       <c r="Y588" s="139"/>
-      <c r="Z588" s="176"/>
-      <c r="AA588" s="176"/>
-      <c r="AB588" s="176"/>
-      <c r="AC588" s="176"/>
-      <c r="AD588" s="176"/>
-      <c r="AE588" s="176"/>
-      <c r="AF588" s="176"/>
-      <c r="AG588" s="176"/>
-      <c r="AH588" s="176"/>
-      <c r="AI588" s="176"/>
+      <c r="Z588" s="175"/>
+      <c r="AA588" s="175"/>
+      <c r="AB588" s="175"/>
+      <c r="AC588" s="175"/>
+      <c r="AD588" s="175"/>
+      <c r="AE588" s="175"/>
+      <c r="AF588" s="175"/>
+      <c r="AG588" s="175"/>
+      <c r="AH588" s="175"/>
+      <c r="AI588" s="175"/>
     </row>
     <row r="589" spans="2:35">
-      <c r="B589" s="177"/>
+      <c r="B589" s="176"/>
       <c r="C589" s="139"/>
       <c r="D589" s="139"/>
       <c r="E589" s="139"/>
@@ -14499,19 +14427,19 @@
       <c r="W589" s="139"/>
       <c r="X589" s="139"/>
       <c r="Y589" s="139"/>
-      <c r="Z589" s="176"/>
-      <c r="AA589" s="176"/>
-      <c r="AB589" s="176"/>
-      <c r="AC589" s="176"/>
-      <c r="AD589" s="176"/>
-      <c r="AE589" s="176"/>
-      <c r="AF589" s="176"/>
-      <c r="AG589" s="176"/>
-      <c r="AH589" s="176"/>
-      <c r="AI589" s="176"/>
+      <c r="Z589" s="175"/>
+      <c r="AA589" s="175"/>
+      <c r="AB589" s="175"/>
+      <c r="AC589" s="175"/>
+      <c r="AD589" s="175"/>
+      <c r="AE589" s="175"/>
+      <c r="AF589" s="175"/>
+      <c r="AG589" s="175"/>
+      <c r="AH589" s="175"/>
+      <c r="AI589" s="175"/>
     </row>
     <row r="590" spans="2:35">
-      <c r="B590" s="177"/>
+      <c r="B590" s="176"/>
       <c r="C590" s="139"/>
       <c r="D590" s="139"/>
       <c r="E590" s="139"/>
@@ -14535,19 +14463,19 @@
       <c r="W590" s="139"/>
       <c r="X590" s="139"/>
       <c r="Y590" s="139"/>
-      <c r="Z590" s="176"/>
-      <c r="AA590" s="176"/>
-      <c r="AB590" s="176"/>
-      <c r="AC590" s="176"/>
-      <c r="AD590" s="176"/>
-      <c r="AE590" s="176"/>
-      <c r="AF590" s="176"/>
-      <c r="AG590" s="176"/>
-      <c r="AH590" s="176"/>
-      <c r="AI590" s="176"/>
+      <c r="Z590" s="175"/>
+      <c r="AA590" s="175"/>
+      <c r="AB590" s="175"/>
+      <c r="AC590" s="175"/>
+      <c r="AD590" s="175"/>
+      <c r="AE590" s="175"/>
+      <c r="AF590" s="175"/>
+      <c r="AG590" s="175"/>
+      <c r="AH590" s="175"/>
+      <c r="AI590" s="175"/>
     </row>
     <row r="591" spans="2:35">
-      <c r="B591" s="177"/>
+      <c r="B591" s="176"/>
       <c r="C591" s="139"/>
       <c r="D591" s="139"/>
       <c r="E591" s="139"/>
@@ -14571,19 +14499,19 @@
       <c r="W591" s="139"/>
       <c r="X591" s="139"/>
       <c r="Y591" s="139"/>
-      <c r="Z591" s="176"/>
-      <c r="AA591" s="176"/>
-      <c r="AB591" s="176"/>
-      <c r="AC591" s="176"/>
-      <c r="AD591" s="176"/>
-      <c r="AE591" s="176"/>
-      <c r="AF591" s="176"/>
-      <c r="AG591" s="176"/>
-      <c r="AH591" s="176"/>
-      <c r="AI591" s="176"/>
+      <c r="Z591" s="175"/>
+      <c r="AA591" s="175"/>
+      <c r="AB591" s="175"/>
+      <c r="AC591" s="175"/>
+      <c r="AD591" s="175"/>
+      <c r="AE591" s="175"/>
+      <c r="AF591" s="175"/>
+      <c r="AG591" s="175"/>
+      <c r="AH591" s="175"/>
+      <c r="AI591" s="175"/>
     </row>
     <row r="592" spans="2:35">
-      <c r="B592" s="177"/>
+      <c r="B592" s="176"/>
       <c r="C592" s="139"/>
       <c r="D592" s="139"/>
       <c r="E592" s="139"/>
@@ -14607,19 +14535,19 @@
       <c r="W592" s="139"/>
       <c r="X592" s="139"/>
       <c r="Y592" s="139"/>
-      <c r="Z592" s="176"/>
-      <c r="AA592" s="176"/>
-      <c r="AB592" s="176"/>
-      <c r="AC592" s="176"/>
-      <c r="AD592" s="176"/>
-      <c r="AE592" s="176"/>
-      <c r="AF592" s="176"/>
-      <c r="AG592" s="176"/>
-      <c r="AH592" s="176"/>
-      <c r="AI592" s="176"/>
+      <c r="Z592" s="175"/>
+      <c r="AA592" s="175"/>
+      <c r="AB592" s="175"/>
+      <c r="AC592" s="175"/>
+      <c r="AD592" s="175"/>
+      <c r="AE592" s="175"/>
+      <c r="AF592" s="175"/>
+      <c r="AG592" s="175"/>
+      <c r="AH592" s="175"/>
+      <c r="AI592" s="175"/>
     </row>
     <row r="593" spans="2:35">
-      <c r="B593" s="177"/>
+      <c r="B593" s="176"/>
       <c r="C593" s="139"/>
       <c r="D593" s="139"/>
       <c r="E593" s="139"/>
@@ -14643,1250 +14571,1250 @@
       <c r="W593" s="139"/>
       <c r="X593" s="139"/>
       <c r="Y593" s="139"/>
-      <c r="Z593" s="176"/>
-      <c r="AA593" s="176"/>
-      <c r="AB593" s="176"/>
-      <c r="AC593" s="176"/>
-      <c r="AD593" s="176"/>
-      <c r="AE593" s="176"/>
-      <c r="AF593" s="176"/>
-      <c r="AG593" s="176"/>
-      <c r="AH593" s="176"/>
-      <c r="AI593" s="176"/>
+      <c r="Z593" s="175"/>
+      <c r="AA593" s="175"/>
+      <c r="AB593" s="175"/>
+      <c r="AC593" s="175"/>
+      <c r="AD593" s="175"/>
+      <c r="AE593" s="175"/>
+      <c r="AF593" s="175"/>
+      <c r="AG593" s="175"/>
+      <c r="AH593" s="175"/>
+      <c r="AI593" s="175"/>
     </row>
     <row r="594" spans="2:35">
-      <c r="B594" s="177"/>
-      <c r="C594" s="176"/>
-      <c r="D594" s="176"/>
-      <c r="E594" s="176"/>
-      <c r="F594" s="176"/>
-      <c r="G594" s="176"/>
+      <c r="B594" s="176"/>
+      <c r="C594" s="175"/>
+      <c r="D594" s="175"/>
+      <c r="E594" s="175"/>
+      <c r="F594" s="175"/>
+      <c r="G594" s="175"/>
       <c r="H594" s="139"/>
       <c r="I594" s="139"/>
       <c r="J594" s="139"/>
       <c r="K594" s="139"/>
-      <c r="L594" s="176"/>
-      <c r="M594" s="176"/>
-      <c r="N594" s="176"/>
-      <c r="O594" s="176"/>
-      <c r="P594" s="176"/>
-      <c r="Q594" s="176"/>
-      <c r="R594" s="176"/>
-      <c r="S594" s="176"/>
-      <c r="T594" s="176"/>
-      <c r="U594" s="176"/>
-      <c r="V594" s="176"/>
-      <c r="W594" s="176"/>
-      <c r="X594" s="176"/>
-      <c r="Y594" s="176"/>
-      <c r="Z594" s="176"/>
-      <c r="AA594" s="176"/>
-      <c r="AB594" s="176"/>
-      <c r="AC594" s="176"/>
-      <c r="AD594" s="176"/>
-      <c r="AE594" s="176"/>
-      <c r="AF594" s="176"/>
-      <c r="AG594" s="176"/>
-      <c r="AH594" s="176"/>
-      <c r="AI594" s="176"/>
+      <c r="L594" s="175"/>
+      <c r="M594" s="175"/>
+      <c r="N594" s="175"/>
+      <c r="O594" s="175"/>
+      <c r="P594" s="175"/>
+      <c r="Q594" s="175"/>
+      <c r="R594" s="175"/>
+      <c r="S594" s="175"/>
+      <c r="T594" s="175"/>
+      <c r="U594" s="175"/>
+      <c r="V594" s="175"/>
+      <c r="W594" s="175"/>
+      <c r="X594" s="175"/>
+      <c r="Y594" s="175"/>
+      <c r="Z594" s="175"/>
+      <c r="AA594" s="175"/>
+      <c r="AB594" s="175"/>
+      <c r="AC594" s="175"/>
+      <c r="AD594" s="175"/>
+      <c r="AE594" s="175"/>
+      <c r="AF594" s="175"/>
+      <c r="AG594" s="175"/>
+      <c r="AH594" s="175"/>
+      <c r="AI594" s="175"/>
     </row>
     <row r="595" spans="2:35">
-      <c r="B595" s="177"/>
-      <c r="C595" s="176"/>
-      <c r="D595" s="176"/>
-      <c r="E595" s="176"/>
-      <c r="F595" s="176"/>
-      <c r="G595" s="176"/>
+      <c r="B595" s="176"/>
+      <c r="C595" s="175"/>
+      <c r="D595" s="175"/>
+      <c r="E595" s="175"/>
+      <c r="F595" s="175"/>
+      <c r="G595" s="175"/>
       <c r="H595" s="139"/>
       <c r="I595" s="139"/>
       <c r="J595" s="139"/>
       <c r="K595" s="139"/>
-      <c r="L595" s="176"/>
-      <c r="M595" s="176"/>
-      <c r="N595" s="176"/>
-      <c r="O595" s="176"/>
-      <c r="P595" s="176"/>
-      <c r="Q595" s="176"/>
-      <c r="R595" s="176"/>
-      <c r="S595" s="176"/>
-      <c r="T595" s="176"/>
-      <c r="U595" s="176"/>
-      <c r="V595" s="176"/>
-      <c r="W595" s="176"/>
-      <c r="X595" s="176"/>
-      <c r="Y595" s="176"/>
-      <c r="Z595" s="176"/>
-      <c r="AA595" s="176"/>
-      <c r="AB595" s="176"/>
-      <c r="AC595" s="176"/>
-      <c r="AD595" s="176"/>
-      <c r="AE595" s="176"/>
-      <c r="AF595" s="176"/>
-      <c r="AG595" s="176"/>
-      <c r="AH595" s="176"/>
-      <c r="AI595" s="176"/>
+      <c r="L595" s="175"/>
+      <c r="M595" s="175"/>
+      <c r="N595" s="175"/>
+      <c r="O595" s="175"/>
+      <c r="P595" s="175"/>
+      <c r="Q595" s="175"/>
+      <c r="R595" s="175"/>
+      <c r="S595" s="175"/>
+      <c r="T595" s="175"/>
+      <c r="U595" s="175"/>
+      <c r="V595" s="175"/>
+      <c r="W595" s="175"/>
+      <c r="X595" s="175"/>
+      <c r="Y595" s="175"/>
+      <c r="Z595" s="175"/>
+      <c r="AA595" s="175"/>
+      <c r="AB595" s="175"/>
+      <c r="AC595" s="175"/>
+      <c r="AD595" s="175"/>
+      <c r="AE595" s="175"/>
+      <c r="AF595" s="175"/>
+      <c r="AG595" s="175"/>
+      <c r="AH595" s="175"/>
+      <c r="AI595" s="175"/>
     </row>
     <row r="596" spans="2:35">
-      <c r="B596" s="177"/>
-      <c r="C596" s="176"/>
-      <c r="D596" s="176"/>
-      <c r="E596" s="176"/>
-      <c r="F596" s="176"/>
-      <c r="G596" s="176"/>
+      <c r="B596" s="176"/>
+      <c r="C596" s="175"/>
+      <c r="D596" s="175"/>
+      <c r="E596" s="175"/>
+      <c r="F596" s="175"/>
+      <c r="G596" s="175"/>
       <c r="H596" s="139"/>
       <c r="I596" s="139"/>
       <c r="J596" s="139"/>
       <c r="K596" s="139"/>
-      <c r="L596" s="176"/>
-      <c r="M596" s="176"/>
-      <c r="N596" s="176"/>
-      <c r="O596" s="176"/>
-      <c r="P596" s="176"/>
-      <c r="Q596" s="176"/>
-      <c r="R596" s="176"/>
-      <c r="S596" s="176"/>
-      <c r="T596" s="176"/>
-      <c r="U596" s="176"/>
-      <c r="V596" s="176"/>
-      <c r="W596" s="176"/>
-      <c r="X596" s="176"/>
-      <c r="Y596" s="176"/>
-      <c r="Z596" s="176"/>
-      <c r="AA596" s="176"/>
-      <c r="AB596" s="176"/>
-      <c r="AC596" s="176"/>
-      <c r="AD596" s="176"/>
-      <c r="AE596" s="176"/>
-      <c r="AF596" s="176"/>
-      <c r="AG596" s="176"/>
-      <c r="AH596" s="176"/>
-      <c r="AI596" s="176"/>
+      <c r="L596" s="175"/>
+      <c r="M596" s="175"/>
+      <c r="N596" s="175"/>
+      <c r="O596" s="175"/>
+      <c r="P596" s="175"/>
+      <c r="Q596" s="175"/>
+      <c r="R596" s="175"/>
+      <c r="S596" s="175"/>
+      <c r="T596" s="175"/>
+      <c r="U596" s="175"/>
+      <c r="V596" s="175"/>
+      <c r="W596" s="175"/>
+      <c r="X596" s="175"/>
+      <c r="Y596" s="175"/>
+      <c r="Z596" s="175"/>
+      <c r="AA596" s="175"/>
+      <c r="AB596" s="175"/>
+      <c r="AC596" s="175"/>
+      <c r="AD596" s="175"/>
+      <c r="AE596" s="175"/>
+      <c r="AF596" s="175"/>
+      <c r="AG596" s="175"/>
+      <c r="AH596" s="175"/>
+      <c r="AI596" s="175"/>
     </row>
     <row r="597" spans="2:35">
-      <c r="B597" s="177"/>
-      <c r="C597" s="176"/>
-      <c r="D597" s="176"/>
-      <c r="E597" s="176"/>
-      <c r="F597" s="176"/>
-      <c r="G597" s="176"/>
+      <c r="B597" s="176"/>
+      <c r="C597" s="175"/>
+      <c r="D597" s="175"/>
+      <c r="E597" s="175"/>
+      <c r="F597" s="175"/>
+      <c r="G597" s="175"/>
       <c r="H597" s="139"/>
       <c r="I597" s="139"/>
       <c r="J597" s="139"/>
       <c r="K597" s="139"/>
-      <c r="L597" s="176"/>
-      <c r="M597" s="176"/>
-      <c r="N597" s="176"/>
-      <c r="O597" s="176"/>
-      <c r="P597" s="176"/>
-      <c r="Q597" s="176"/>
-      <c r="R597" s="176"/>
-      <c r="S597" s="176"/>
-      <c r="T597" s="176"/>
-      <c r="U597" s="176"/>
-      <c r="V597" s="176"/>
-      <c r="W597" s="176"/>
-      <c r="X597" s="176"/>
-      <c r="Y597" s="176"/>
-      <c r="Z597" s="176"/>
-      <c r="AA597" s="176"/>
-      <c r="AB597" s="176"/>
-      <c r="AC597" s="176"/>
-      <c r="AD597" s="176"/>
-      <c r="AE597" s="176"/>
-      <c r="AF597" s="176"/>
-      <c r="AG597" s="176"/>
-      <c r="AH597" s="176"/>
-      <c r="AI597" s="176"/>
+      <c r="L597" s="175"/>
+      <c r="M597" s="175"/>
+      <c r="N597" s="175"/>
+      <c r="O597" s="175"/>
+      <c r="P597" s="175"/>
+      <c r="Q597" s="175"/>
+      <c r="R597" s="175"/>
+      <c r="S597" s="175"/>
+      <c r="T597" s="175"/>
+      <c r="U597" s="175"/>
+      <c r="V597" s="175"/>
+      <c r="W597" s="175"/>
+      <c r="X597" s="175"/>
+      <c r="Y597" s="175"/>
+      <c r="Z597" s="175"/>
+      <c r="AA597" s="175"/>
+      <c r="AB597" s="175"/>
+      <c r="AC597" s="175"/>
+      <c r="AD597" s="175"/>
+      <c r="AE597" s="175"/>
+      <c r="AF597" s="175"/>
+      <c r="AG597" s="175"/>
+      <c r="AH597" s="175"/>
+      <c r="AI597" s="175"/>
     </row>
     <row r="598" spans="2:35">
-      <c r="B598" s="177"/>
-      <c r="C598" s="176"/>
-      <c r="D598" s="212">
+      <c r="B598" s="176"/>
+      <c r="C598" s="175"/>
+      <c r="D598" s="208">
         <v>1.24</v>
       </c>
-      <c r="E598" s="213"/>
-      <c r="F598" s="212"/>
-      <c r="G598" s="212">
+      <c r="E598" s="209"/>
+      <c r="F598" s="208"/>
+      <c r="G598" s="208">
         <v>70800</v>
       </c>
       <c r="H598" s="139"/>
       <c r="I598" s="139"/>
       <c r="J598" s="139"/>
       <c r="K598" s="139"/>
-      <c r="L598" s="176"/>
-      <c r="M598" s="176"/>
-      <c r="N598" s="176"/>
-      <c r="O598" s="176"/>
-      <c r="P598" s="176"/>
-      <c r="Q598" s="176"/>
-      <c r="R598" s="176"/>
-      <c r="S598" s="176"/>
-      <c r="T598" s="176"/>
-      <c r="U598" s="176"/>
-      <c r="V598" s="176"/>
-      <c r="W598" s="176"/>
-      <c r="X598" s="176"/>
-      <c r="Y598" s="176"/>
-      <c r="Z598" s="176"/>
-      <c r="AA598" s="176"/>
-      <c r="AB598" s="176"/>
-      <c r="AC598" s="176"/>
-      <c r="AD598" s="176"/>
-      <c r="AE598" s="176"/>
-      <c r="AF598" s="176"/>
-      <c r="AG598" s="176"/>
-      <c r="AH598" s="176"/>
-      <c r="AI598" s="176"/>
+      <c r="L598" s="175"/>
+      <c r="M598" s="175"/>
+      <c r="N598" s="175"/>
+      <c r="O598" s="175"/>
+      <c r="P598" s="175"/>
+      <c r="Q598" s="175"/>
+      <c r="R598" s="175"/>
+      <c r="S598" s="175"/>
+      <c r="T598" s="175"/>
+      <c r="U598" s="175"/>
+      <c r="V598" s="175"/>
+      <c r="W598" s="175"/>
+      <c r="X598" s="175"/>
+      <c r="Y598" s="175"/>
+      <c r="Z598" s="175"/>
+      <c r="AA598" s="175"/>
+      <c r="AB598" s="175"/>
+      <c r="AC598" s="175"/>
+      <c r="AD598" s="175"/>
+      <c r="AE598" s="175"/>
+      <c r="AF598" s="175"/>
+      <c r="AG598" s="175"/>
+      <c r="AH598" s="175"/>
+      <c r="AI598" s="175"/>
     </row>
     <row r="599" spans="2:35">
-      <c r="B599" s="177"/>
-      <c r="C599" s="176"/>
-      <c r="D599" s="212"/>
-      <c r="E599" s="213"/>
-      <c r="F599" s="212"/>
-      <c r="G599" s="212">
+      <c r="B599" s="176"/>
+      <c r="C599" s="175"/>
+      <c r="D599" s="208"/>
+      <c r="E599" s="209"/>
+      <c r="F599" s="208"/>
+      <c r="G599" s="208">
         <f>10^6</f>
         <v>1000000</v>
       </c>
-      <c r="H599" s="176"/>
-      <c r="I599" s="176"/>
-      <c r="J599" s="176"/>
-      <c r="K599" s="176"/>
-      <c r="L599" s="176"/>
-      <c r="M599" s="176"/>
-      <c r="N599" s="176"/>
-      <c r="O599" s="176"/>
-      <c r="P599" s="176"/>
-      <c r="Q599" s="176"/>
-      <c r="R599" s="176"/>
-      <c r="S599" s="176"/>
-      <c r="T599" s="176"/>
-      <c r="U599" s="176"/>
-      <c r="V599" s="176"/>
-      <c r="W599" s="176"/>
-      <c r="X599" s="176"/>
-      <c r="Y599" s="176"/>
-      <c r="Z599" s="176"/>
-      <c r="AA599" s="176"/>
-      <c r="AB599" s="176"/>
-      <c r="AC599" s="176"/>
-      <c r="AD599" s="176"/>
-      <c r="AE599" s="176"/>
-      <c r="AF599" s="176"/>
-      <c r="AG599" s="176"/>
-      <c r="AH599" s="176"/>
-      <c r="AI599" s="176"/>
+      <c r="H599" s="175"/>
+      <c r="I599" s="175"/>
+      <c r="J599" s="175"/>
+      <c r="K599" s="175"/>
+      <c r="L599" s="175"/>
+      <c r="M599" s="175"/>
+      <c r="N599" s="175"/>
+      <c r="O599" s="175"/>
+      <c r="P599" s="175"/>
+      <c r="Q599" s="175"/>
+      <c r="R599" s="175"/>
+      <c r="S599" s="175"/>
+      <c r="T599" s="175"/>
+      <c r="U599" s="175"/>
+      <c r="V599" s="175"/>
+      <c r="W599" s="175"/>
+      <c r="X599" s="175"/>
+      <c r="Y599" s="175"/>
+      <c r="Z599" s="175"/>
+      <c r="AA599" s="175"/>
+      <c r="AB599" s="175"/>
+      <c r="AC599" s="175"/>
+      <c r="AD599" s="175"/>
+      <c r="AE599" s="175"/>
+      <c r="AF599" s="175"/>
+      <c r="AG599" s="175"/>
+      <c r="AH599" s="175"/>
+      <c r="AI599" s="175"/>
     </row>
     <row r="600" spans="2:35">
-      <c r="B600" s="177"/>
-      <c r="C600" s="176"/>
-      <c r="D600" s="212"/>
-      <c r="E600" s="213"/>
-      <c r="F600" s="212"/>
-      <c r="G600" s="212">
+      <c r="B600" s="176"/>
+      <c r="C600" s="175"/>
+      <c r="D600" s="208"/>
+      <c r="E600" s="209"/>
+      <c r="F600" s="208"/>
+      <c r="G600" s="208">
         <f>G598/G599</f>
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="H600" s="176"/>
-      <c r="I600" s="176"/>
-      <c r="J600" s="176"/>
-      <c r="K600" s="176"/>
-      <c r="L600" s="176"/>
-      <c r="M600" s="176"/>
-      <c r="N600" s="176"/>
-      <c r="O600" s="176"/>
-      <c r="P600" s="176"/>
-      <c r="Q600" s="176"/>
-      <c r="R600" s="176"/>
-      <c r="S600" s="176"/>
-      <c r="T600" s="176"/>
-      <c r="U600" s="176"/>
-      <c r="V600" s="176"/>
-      <c r="W600" s="176"/>
-      <c r="X600" s="176"/>
-      <c r="Y600" s="176"/>
-      <c r="Z600" s="176"/>
-      <c r="AA600" s="176"/>
-      <c r="AB600" s="176"/>
-      <c r="AC600" s="176"/>
-      <c r="AD600" s="176"/>
-      <c r="AE600" s="176"/>
-      <c r="AF600" s="176"/>
-      <c r="AG600" s="176"/>
-      <c r="AH600" s="176"/>
-      <c r="AI600" s="176"/>
+      <c r="H600" s="175"/>
+      <c r="I600" s="175"/>
+      <c r="J600" s="175"/>
+      <c r="K600" s="175"/>
+      <c r="L600" s="175"/>
+      <c r="M600" s="175"/>
+      <c r="N600" s="175"/>
+      <c r="O600" s="175"/>
+      <c r="P600" s="175"/>
+      <c r="Q600" s="175"/>
+      <c r="R600" s="175"/>
+      <c r="S600" s="175"/>
+      <c r="T600" s="175"/>
+      <c r="U600" s="175"/>
+      <c r="V600" s="175"/>
+      <c r="W600" s="175"/>
+      <c r="X600" s="175"/>
+      <c r="Y600" s="175"/>
+      <c r="Z600" s="175"/>
+      <c r="AA600" s="175"/>
+      <c r="AB600" s="175"/>
+      <c r="AC600" s="175"/>
+      <c r="AD600" s="175"/>
+      <c r="AE600" s="175"/>
+      <c r="AF600" s="175"/>
+      <c r="AG600" s="175"/>
+      <c r="AH600" s="175"/>
+      <c r="AI600" s="175"/>
     </row>
     <row r="601" spans="2:35">
-      <c r="B601" s="177"/>
-      <c r="C601" s="176"/>
+      <c r="B601" s="176"/>
+      <c r="C601" s="175"/>
       <c r="D601" s="139"/>
       <c r="E601" s="139"/>
       <c r="F601" s="139"/>
       <c r="G601" s="139"/>
-      <c r="H601" s="176"/>
-      <c r="I601" s="176"/>
-      <c r="J601" s="176"/>
-      <c r="K601" s="176"/>
-      <c r="L601" s="176"/>
-      <c r="M601" s="176"/>
-      <c r="N601" s="176"/>
-      <c r="O601" s="176"/>
-      <c r="P601" s="176"/>
-      <c r="Q601" s="176"/>
-      <c r="R601" s="176"/>
-      <c r="S601" s="176"/>
-      <c r="T601" s="176"/>
-      <c r="U601" s="176"/>
-      <c r="V601" s="176"/>
-      <c r="W601" s="176"/>
-      <c r="X601" s="176"/>
-      <c r="Y601" s="176"/>
-      <c r="Z601" s="176"/>
-      <c r="AA601" s="176"/>
-      <c r="AB601" s="176"/>
-      <c r="AC601" s="176"/>
-      <c r="AD601" s="176"/>
-      <c r="AE601" s="176"/>
-      <c r="AF601" s="176"/>
-      <c r="AG601" s="176"/>
-      <c r="AH601" s="176"/>
-      <c r="AI601" s="176"/>
+      <c r="H601" s="175"/>
+      <c r="I601" s="175"/>
+      <c r="J601" s="175"/>
+      <c r="K601" s="175"/>
+      <c r="L601" s="175"/>
+      <c r="M601" s="175"/>
+      <c r="N601" s="175"/>
+      <c r="O601" s="175"/>
+      <c r="P601" s="175"/>
+      <c r="Q601" s="175"/>
+      <c r="R601" s="175"/>
+      <c r="S601" s="175"/>
+      <c r="T601" s="175"/>
+      <c r="U601" s="175"/>
+      <c r="V601" s="175"/>
+      <c r="W601" s="175"/>
+      <c r="X601" s="175"/>
+      <c r="Y601" s="175"/>
+      <c r="Z601" s="175"/>
+      <c r="AA601" s="175"/>
+      <c r="AB601" s="175"/>
+      <c r="AC601" s="175"/>
+      <c r="AD601" s="175"/>
+      <c r="AE601" s="175"/>
+      <c r="AF601" s="175"/>
+      <c r="AG601" s="175"/>
+      <c r="AH601" s="175"/>
+      <c r="AI601" s="175"/>
     </row>
     <row r="602" spans="2:35">
-      <c r="B602" s="177"/>
-      <c r="C602" s="176"/>
+      <c r="B602" s="176"/>
+      <c r="C602" s="175"/>
       <c r="D602" s="139"/>
       <c r="E602" s="139"/>
       <c r="F602" s="139"/>
       <c r="G602" s="139"/>
-      <c r="H602" s="176"/>
-      <c r="I602" s="176"/>
-      <c r="J602" s="176"/>
-      <c r="K602" s="176"/>
-      <c r="L602" s="176"/>
-      <c r="M602" s="176"/>
-      <c r="N602" s="176"/>
-      <c r="O602" s="176"/>
-      <c r="P602" s="176"/>
-      <c r="Q602" s="176"/>
-      <c r="R602" s="176"/>
-      <c r="S602" s="176"/>
-      <c r="T602" s="176"/>
-      <c r="U602" s="176"/>
-      <c r="V602" s="176"/>
-      <c r="W602" s="176"/>
-      <c r="X602" s="176"/>
-      <c r="Y602" s="176"/>
-      <c r="Z602" s="176"/>
-      <c r="AA602" s="176"/>
-      <c r="AB602" s="176"/>
-      <c r="AC602" s="176"/>
-      <c r="AD602" s="176"/>
-      <c r="AE602" s="176"/>
-      <c r="AF602" s="176"/>
-      <c r="AG602" s="176"/>
-      <c r="AH602" s="176"/>
-      <c r="AI602" s="176"/>
+      <c r="H602" s="175"/>
+      <c r="I602" s="175"/>
+      <c r="J602" s="175"/>
+      <c r="K602" s="175"/>
+      <c r="L602" s="175"/>
+      <c r="M602" s="175"/>
+      <c r="N602" s="175"/>
+      <c r="O602" s="175"/>
+      <c r="P602" s="175"/>
+      <c r="Q602" s="175"/>
+      <c r="R602" s="175"/>
+      <c r="S602" s="175"/>
+      <c r="T602" s="175"/>
+      <c r="U602" s="175"/>
+      <c r="V602" s="175"/>
+      <c r="W602" s="175"/>
+      <c r="X602" s="175"/>
+      <c r="Y602" s="175"/>
+      <c r="Z602" s="175"/>
+      <c r="AA602" s="175"/>
+      <c r="AB602" s="175"/>
+      <c r="AC602" s="175"/>
+      <c r="AD602" s="175"/>
+      <c r="AE602" s="175"/>
+      <c r="AF602" s="175"/>
+      <c r="AG602" s="175"/>
+      <c r="AH602" s="175"/>
+      <c r="AI602" s="175"/>
     </row>
     <row r="603" spans="2:35">
-      <c r="B603" s="177"/>
-      <c r="C603" s="176"/>
+      <c r="B603" s="176"/>
+      <c r="C603" s="175"/>
       <c r="D603" s="139"/>
       <c r="E603" s="139"/>
       <c r="F603" s="139"/>
       <c r="G603" s="139"/>
-      <c r="H603" s="212" t="s">
-        <v>179</v>
-      </c>
-      <c r="I603" s="212"/>
-      <c r="J603" s="176"/>
-      <c r="K603" s="176"/>
-      <c r="L603" s="176"/>
-      <c r="M603" s="176"/>
-      <c r="N603" s="176"/>
-      <c r="O603" s="176"/>
-      <c r="P603" s="176"/>
-      <c r="Q603" s="176"/>
-      <c r="R603" s="176"/>
-      <c r="S603" s="176"/>
-      <c r="T603" s="176"/>
-      <c r="U603" s="176"/>
-      <c r="V603" s="176"/>
-      <c r="W603" s="176"/>
-      <c r="X603" s="176"/>
-      <c r="Y603" s="176"/>
-      <c r="Z603" s="176"/>
-      <c r="AA603" s="176"/>
-      <c r="AB603" s="176"/>
-      <c r="AC603" s="176"/>
-      <c r="AD603" s="176"/>
-      <c r="AE603" s="176"/>
-      <c r="AF603" s="176"/>
-      <c r="AG603" s="176"/>
-      <c r="AH603" s="176"/>
-      <c r="AI603" s="176"/>
+      <c r="H603" s="208" t="s">
+        <v>177</v>
+      </c>
+      <c r="I603" s="208"/>
+      <c r="J603" s="175"/>
+      <c r="K603" s="175"/>
+      <c r="L603" s="175"/>
+      <c r="M603" s="175"/>
+      <c r="N603" s="175"/>
+      <c r="O603" s="175"/>
+      <c r="P603" s="175"/>
+      <c r="Q603" s="175"/>
+      <c r="R603" s="175"/>
+      <c r="S603" s="175"/>
+      <c r="T603" s="175"/>
+      <c r="U603" s="175"/>
+      <c r="V603" s="175"/>
+      <c r="W603" s="175"/>
+      <c r="X603" s="175"/>
+      <c r="Y603" s="175"/>
+      <c r="Z603" s="175"/>
+      <c r="AA603" s="175"/>
+      <c r="AB603" s="175"/>
+      <c r="AC603" s="175"/>
+      <c r="AD603" s="175"/>
+      <c r="AE603" s="175"/>
+      <c r="AF603" s="175"/>
+      <c r="AG603" s="175"/>
+      <c r="AH603" s="175"/>
+      <c r="AI603" s="175"/>
     </row>
     <row r="604" spans="2:35">
-      <c r="B604" s="177"/>
-      <c r="C604" s="176"/>
+      <c r="B604" s="176"/>
+      <c r="C604" s="175"/>
       <c r="D604" s="139"/>
       <c r="E604" s="139"/>
       <c r="F604" s="139"/>
       <c r="G604" s="139"/>
-      <c r="H604" s="212" t="s">
-        <v>180</v>
-      </c>
-      <c r="I604" s="212"/>
-      <c r="J604" s="176"/>
-      <c r="K604" s="176"/>
-      <c r="L604" s="176"/>
-      <c r="M604" s="176"/>
-      <c r="N604" s="176"/>
-      <c r="O604" s="176"/>
-      <c r="P604" s="176"/>
-      <c r="Q604" s="176"/>
-      <c r="R604" s="176"/>
-      <c r="S604" s="176"/>
-      <c r="T604" s="176"/>
-      <c r="U604" s="176"/>
-      <c r="V604" s="176"/>
-      <c r="W604" s="176"/>
-      <c r="X604" s="176"/>
-      <c r="Y604" s="176"/>
-      <c r="Z604" s="176"/>
-      <c r="AA604" s="176"/>
-      <c r="AB604" s="176"/>
-      <c r="AC604" s="176"/>
-      <c r="AD604" s="176"/>
-      <c r="AE604" s="176"/>
-      <c r="AF604" s="176"/>
-      <c r="AG604" s="176"/>
-      <c r="AH604" s="176"/>
-      <c r="AI604" s="176"/>
+      <c r="H604" s="208" t="s">
+        <v>178</v>
+      </c>
+      <c r="I604" s="208"/>
+      <c r="J604" s="175"/>
+      <c r="K604" s="175"/>
+      <c r="L604" s="175"/>
+      <c r="M604" s="175"/>
+      <c r="N604" s="175"/>
+      <c r="O604" s="175"/>
+      <c r="P604" s="175"/>
+      <c r="Q604" s="175"/>
+      <c r="R604" s="175"/>
+      <c r="S604" s="175"/>
+      <c r="T604" s="175"/>
+      <c r="U604" s="175"/>
+      <c r="V604" s="175"/>
+      <c r="W604" s="175"/>
+      <c r="X604" s="175"/>
+      <c r="Y604" s="175"/>
+      <c r="Z604" s="175"/>
+      <c r="AA604" s="175"/>
+      <c r="AB604" s="175"/>
+      <c r="AC604" s="175"/>
+      <c r="AD604" s="175"/>
+      <c r="AE604" s="175"/>
+      <c r="AF604" s="175"/>
+      <c r="AG604" s="175"/>
+      <c r="AH604" s="175"/>
+      <c r="AI604" s="175"/>
     </row>
     <row r="605" spans="2:35">
-      <c r="B605" s="177"/>
-      <c r="C605" s="176"/>
-      <c r="D605" s="176"/>
-      <c r="E605" s="176"/>
-      <c r="F605" s="176"/>
-      <c r="G605" s="176"/>
-      <c r="H605" s="212" t="s">
-        <v>179</v>
-      </c>
-      <c r="I605" s="212"/>
-      <c r="J605" s="176"/>
-      <c r="K605" s="176"/>
-      <c r="L605" s="176"/>
-      <c r="M605" s="176"/>
-      <c r="N605" s="176"/>
-      <c r="O605" s="176"/>
-      <c r="P605" s="176"/>
-      <c r="Q605" s="176"/>
-      <c r="R605" s="176"/>
-      <c r="S605" s="176"/>
-      <c r="T605" s="176"/>
-      <c r="U605" s="176"/>
-      <c r="V605" s="176"/>
-      <c r="W605" s="176"/>
-      <c r="X605" s="176"/>
-      <c r="Y605" s="176"/>
-      <c r="Z605" s="176"/>
-      <c r="AA605" s="176"/>
-      <c r="AB605" s="176"/>
-      <c r="AC605" s="176"/>
-      <c r="AD605" s="176"/>
-      <c r="AE605" s="176"/>
-      <c r="AF605" s="176"/>
-      <c r="AG605" s="176"/>
-      <c r="AH605" s="176"/>
-      <c r="AI605" s="176"/>
+      <c r="B605" s="176"/>
+      <c r="C605" s="175"/>
+      <c r="D605" s="175"/>
+      <c r="E605" s="175"/>
+      <c r="F605" s="175"/>
+      <c r="G605" s="175"/>
+      <c r="H605" s="208" t="s">
+        <v>177</v>
+      </c>
+      <c r="I605" s="208"/>
+      <c r="J605" s="175"/>
+      <c r="K605" s="175"/>
+      <c r="L605" s="175"/>
+      <c r="M605" s="175"/>
+      <c r="N605" s="175"/>
+      <c r="O605" s="175"/>
+      <c r="P605" s="175"/>
+      <c r="Q605" s="175"/>
+      <c r="R605" s="175"/>
+      <c r="S605" s="175"/>
+      <c r="T605" s="175"/>
+      <c r="U605" s="175"/>
+      <c r="V605" s="175"/>
+      <c r="W605" s="175"/>
+      <c r="X605" s="175"/>
+      <c r="Y605" s="175"/>
+      <c r="Z605" s="175"/>
+      <c r="AA605" s="175"/>
+      <c r="AB605" s="175"/>
+      <c r="AC605" s="175"/>
+      <c r="AD605" s="175"/>
+      <c r="AE605" s="175"/>
+      <c r="AF605" s="175"/>
+      <c r="AG605" s="175"/>
+      <c r="AH605" s="175"/>
+      <c r="AI605" s="175"/>
     </row>
     <row r="606" spans="2:35">
-      <c r="B606" s="177"/>
-      <c r="C606" s="176"/>
-      <c r="D606" s="176"/>
-      <c r="E606" s="176"/>
-      <c r="F606" s="176"/>
-      <c r="G606" s="176"/>
+      <c r="B606" s="176"/>
+      <c r="C606" s="175"/>
+      <c r="D606" s="175"/>
+      <c r="E606" s="175"/>
+      <c r="F606" s="175"/>
+      <c r="G606" s="175"/>
       <c r="H606" s="139"/>
       <c r="I606" s="139"/>
-      <c r="J606" s="176"/>
-      <c r="K606" s="176"/>
-      <c r="L606" s="176"/>
-      <c r="M606" s="176"/>
-      <c r="N606" s="176"/>
-      <c r="O606" s="176"/>
-      <c r="P606" s="176"/>
-      <c r="Q606" s="176"/>
-      <c r="R606" s="176"/>
-      <c r="S606" s="176"/>
-      <c r="T606" s="176"/>
-      <c r="U606" s="176"/>
-      <c r="V606" s="176"/>
-      <c r="W606" s="176"/>
-      <c r="X606" s="176"/>
-      <c r="Y606" s="176"/>
-      <c r="Z606" s="176"/>
-      <c r="AA606" s="176"/>
-      <c r="AB606" s="176"/>
-      <c r="AC606" s="176"/>
-      <c r="AD606" s="176"/>
-      <c r="AE606" s="176"/>
-      <c r="AF606" s="176"/>
-      <c r="AG606" s="176"/>
-      <c r="AH606" s="176"/>
-      <c r="AI606" s="176"/>
+      <c r="J606" s="175"/>
+      <c r="K606" s="175"/>
+      <c r="L606" s="175"/>
+      <c r="M606" s="175"/>
+      <c r="N606" s="175"/>
+      <c r="O606" s="175"/>
+      <c r="P606" s="175"/>
+      <c r="Q606" s="175"/>
+      <c r="R606" s="175"/>
+      <c r="S606" s="175"/>
+      <c r="T606" s="175"/>
+      <c r="U606" s="175"/>
+      <c r="V606" s="175"/>
+      <c r="W606" s="175"/>
+      <c r="X606" s="175"/>
+      <c r="Y606" s="175"/>
+      <c r="Z606" s="175"/>
+      <c r="AA606" s="175"/>
+      <c r="AB606" s="175"/>
+      <c r="AC606" s="175"/>
+      <c r="AD606" s="175"/>
+      <c r="AE606" s="175"/>
+      <c r="AF606" s="175"/>
+      <c r="AG606" s="175"/>
+      <c r="AH606" s="175"/>
+      <c r="AI606" s="175"/>
     </row>
     <row r="607" spans="2:35">
-      <c r="B607" s="177"/>
-      <c r="C607" s="176"/>
-      <c r="D607" s="176"/>
-      <c r="E607" s="176"/>
-      <c r="F607" s="176"/>
-      <c r="G607" s="176"/>
+      <c r="B607" s="176"/>
+      <c r="C607" s="175"/>
+      <c r="D607" s="175"/>
+      <c r="E607" s="175"/>
+      <c r="F607" s="175"/>
+      <c r="G607" s="175"/>
       <c r="H607" s="139"/>
       <c r="I607" s="139"/>
-      <c r="J607" s="176"/>
-      <c r="K607" s="176"/>
-      <c r="L607" s="176"/>
-      <c r="M607" s="176"/>
-      <c r="N607" s="176"/>
-      <c r="O607" s="176"/>
-      <c r="P607" s="176"/>
-      <c r="Q607" s="176"/>
-      <c r="R607" s="176"/>
-      <c r="S607" s="176"/>
-      <c r="T607" s="176"/>
-      <c r="U607" s="176"/>
-      <c r="V607" s="176"/>
-      <c r="W607" s="176"/>
-      <c r="X607" s="176"/>
-      <c r="Y607" s="176"/>
-      <c r="Z607" s="176"/>
-      <c r="AA607" s="176"/>
-      <c r="AB607" s="176"/>
-      <c r="AC607" s="176"/>
-      <c r="AD607" s="176"/>
-      <c r="AE607" s="176"/>
-      <c r="AF607" s="176"/>
-      <c r="AG607" s="176"/>
-      <c r="AH607" s="176"/>
-      <c r="AI607" s="176"/>
+      <c r="J607" s="175"/>
+      <c r="K607" s="175"/>
+      <c r="L607" s="175"/>
+      <c r="M607" s="175"/>
+      <c r="N607" s="175"/>
+      <c r="O607" s="175"/>
+      <c r="P607" s="175"/>
+      <c r="Q607" s="175"/>
+      <c r="R607" s="175"/>
+      <c r="S607" s="175"/>
+      <c r="T607" s="175"/>
+      <c r="U607" s="175"/>
+      <c r="V607" s="175"/>
+      <c r="W607" s="175"/>
+      <c r="X607" s="175"/>
+      <c r="Y607" s="175"/>
+      <c r="Z607" s="175"/>
+      <c r="AA607" s="175"/>
+      <c r="AB607" s="175"/>
+      <c r="AC607" s="175"/>
+      <c r="AD607" s="175"/>
+      <c r="AE607" s="175"/>
+      <c r="AF607" s="175"/>
+      <c r="AG607" s="175"/>
+      <c r="AH607" s="175"/>
+      <c r="AI607" s="175"/>
     </row>
     <row r="608" spans="2:35">
-      <c r="B608" s="177"/>
-      <c r="C608" s="176"/>
-      <c r="D608" s="176"/>
-      <c r="E608" s="176"/>
-      <c r="F608" s="176"/>
-      <c r="G608" s="176"/>
+      <c r="B608" s="176"/>
+      <c r="C608" s="175"/>
+      <c r="D608" s="175"/>
+      <c r="E608" s="175"/>
+      <c r="F608" s="175"/>
+      <c r="G608" s="175"/>
       <c r="H608" s="139"/>
       <c r="I608" s="139"/>
-      <c r="J608" s="176"/>
-      <c r="K608" s="176"/>
-      <c r="L608" s="176"/>
-      <c r="M608" s="176"/>
-      <c r="N608" s="176"/>
-      <c r="O608" s="176"/>
-      <c r="P608" s="176"/>
-      <c r="Q608" s="176"/>
-      <c r="R608" s="176"/>
-      <c r="S608" s="176"/>
-      <c r="T608" s="176"/>
-      <c r="U608" s="176"/>
-      <c r="V608" s="176"/>
-      <c r="W608" s="176"/>
-      <c r="X608" s="176"/>
-      <c r="Y608" s="176"/>
-      <c r="Z608" s="176"/>
-      <c r="AA608" s="176"/>
-      <c r="AB608" s="176"/>
-      <c r="AC608" s="176"/>
-      <c r="AD608" s="176"/>
-      <c r="AE608" s="176"/>
-      <c r="AF608" s="176"/>
-      <c r="AG608" s="176"/>
-      <c r="AH608" s="176"/>
-      <c r="AI608" s="176"/>
+      <c r="J608" s="175"/>
+      <c r="K608" s="175"/>
+      <c r="L608" s="175"/>
+      <c r="M608" s="175"/>
+      <c r="N608" s="175"/>
+      <c r="O608" s="175"/>
+      <c r="P608" s="175"/>
+      <c r="Q608" s="175"/>
+      <c r="R608" s="175"/>
+      <c r="S608" s="175"/>
+      <c r="T608" s="175"/>
+      <c r="U608" s="175"/>
+      <c r="V608" s="175"/>
+      <c r="W608" s="175"/>
+      <c r="X608" s="175"/>
+      <c r="Y608" s="175"/>
+      <c r="Z608" s="175"/>
+      <c r="AA608" s="175"/>
+      <c r="AB608" s="175"/>
+      <c r="AC608" s="175"/>
+      <c r="AD608" s="175"/>
+      <c r="AE608" s="175"/>
+      <c r="AF608" s="175"/>
+      <c r="AG608" s="175"/>
+      <c r="AH608" s="175"/>
+      <c r="AI608" s="175"/>
     </row>
     <row r="609" spans="2:35">
-      <c r="B609" s="177"/>
-      <c r="C609" s="176"/>
-      <c r="D609" s="176"/>
-      <c r="E609" s="176"/>
-      <c r="F609" s="176"/>
-      <c r="G609" s="176"/>
+      <c r="B609" s="176"/>
+      <c r="C609" s="175"/>
+      <c r="D609" s="175"/>
+      <c r="E609" s="175"/>
+      <c r="F609" s="175"/>
+      <c r="G609" s="175"/>
       <c r="H609" s="139"/>
       <c r="I609" s="139"/>
-      <c r="J609" s="176"/>
-      <c r="K609" s="176"/>
-      <c r="L609" s="176"/>
-      <c r="M609" s="176"/>
-      <c r="N609" s="176"/>
-      <c r="O609" s="176"/>
-      <c r="P609" s="176"/>
-      <c r="Q609" s="176"/>
-      <c r="R609" s="176"/>
-      <c r="S609" s="176"/>
-      <c r="T609" s="176"/>
-      <c r="U609" s="176"/>
-      <c r="V609" s="176"/>
-      <c r="W609" s="176"/>
-      <c r="X609" s="176"/>
-      <c r="Y609" s="176"/>
-      <c r="Z609" s="176"/>
-      <c r="AA609" s="176"/>
-      <c r="AB609" s="176"/>
-      <c r="AC609" s="176"/>
-      <c r="AD609" s="176"/>
-      <c r="AE609" s="176"/>
-      <c r="AF609" s="176"/>
-      <c r="AG609" s="176"/>
-      <c r="AH609" s="176"/>
-      <c r="AI609" s="176"/>
+      <c r="J609" s="175"/>
+      <c r="K609" s="175"/>
+      <c r="L609" s="175"/>
+      <c r="M609" s="175"/>
+      <c r="N609" s="175"/>
+      <c r="O609" s="175"/>
+      <c r="P609" s="175"/>
+      <c r="Q609" s="175"/>
+      <c r="R609" s="175"/>
+      <c r="S609" s="175"/>
+      <c r="T609" s="175"/>
+      <c r="U609" s="175"/>
+      <c r="V609" s="175"/>
+      <c r="W609" s="175"/>
+      <c r="X609" s="175"/>
+      <c r="Y609" s="175"/>
+      <c r="Z609" s="175"/>
+      <c r="AA609" s="175"/>
+      <c r="AB609" s="175"/>
+      <c r="AC609" s="175"/>
+      <c r="AD609" s="175"/>
+      <c r="AE609" s="175"/>
+      <c r="AF609" s="175"/>
+      <c r="AG609" s="175"/>
+      <c r="AH609" s="175"/>
+      <c r="AI609" s="175"/>
     </row>
     <row r="610" spans="2:35">
-      <c r="B610" s="177"/>
-      <c r="C610" s="176"/>
-      <c r="D610" s="176"/>
-      <c r="E610" s="176"/>
-      <c r="F610" s="176"/>
-      <c r="G610" s="176"/>
-      <c r="H610" s="176"/>
-      <c r="I610" s="176"/>
-      <c r="J610" s="176"/>
-      <c r="K610" s="176"/>
-      <c r="L610" s="176"/>
-      <c r="M610" s="176"/>
-      <c r="N610" s="176"/>
-      <c r="O610" s="176"/>
-      <c r="P610" s="176"/>
-      <c r="Q610" s="176"/>
-      <c r="R610" s="176"/>
-      <c r="S610" s="176"/>
-      <c r="T610" s="176"/>
-      <c r="U610" s="176"/>
-      <c r="V610" s="176"/>
-      <c r="W610" s="176"/>
-      <c r="X610" s="176"/>
-      <c r="Y610" s="176"/>
-      <c r="Z610" s="176"/>
-      <c r="AA610" s="176"/>
-      <c r="AB610" s="176"/>
-      <c r="AC610" s="176"/>
-      <c r="AD610" s="176"/>
-      <c r="AE610" s="176"/>
-      <c r="AF610" s="176"/>
-      <c r="AG610" s="176"/>
-      <c r="AH610" s="176"/>
-      <c r="AI610" s="176"/>
+      <c r="B610" s="176"/>
+      <c r="C610" s="175"/>
+      <c r="D610" s="175"/>
+      <c r="E610" s="175"/>
+      <c r="F610" s="175"/>
+      <c r="G610" s="175"/>
+      <c r="H610" s="175"/>
+      <c r="I610" s="175"/>
+      <c r="J610" s="175"/>
+      <c r="K610" s="175"/>
+      <c r="L610" s="175"/>
+      <c r="M610" s="175"/>
+      <c r="N610" s="175"/>
+      <c r="O610" s="175"/>
+      <c r="P610" s="175"/>
+      <c r="Q610" s="175"/>
+      <c r="R610" s="175"/>
+      <c r="S610" s="175"/>
+      <c r="T610" s="175"/>
+      <c r="U610" s="175"/>
+      <c r="V610" s="175"/>
+      <c r="W610" s="175"/>
+      <c r="X610" s="175"/>
+      <c r="Y610" s="175"/>
+      <c r="Z610" s="175"/>
+      <c r="AA610" s="175"/>
+      <c r="AB610" s="175"/>
+      <c r="AC610" s="175"/>
+      <c r="AD610" s="175"/>
+      <c r="AE610" s="175"/>
+      <c r="AF610" s="175"/>
+      <c r="AG610" s="175"/>
+      <c r="AH610" s="175"/>
+      <c r="AI610" s="175"/>
     </row>
     <row r="611" spans="2:35">
-      <c r="B611" s="177"/>
-      <c r="C611" s="176"/>
-      <c r="D611" s="176"/>
-      <c r="E611" s="176"/>
-      <c r="F611" s="176"/>
-      <c r="G611" s="176"/>
-      <c r="H611" s="176"/>
-      <c r="I611" s="176"/>
-      <c r="J611" s="176"/>
-      <c r="K611" s="176"/>
-      <c r="L611" s="176"/>
-      <c r="M611" s="176"/>
-      <c r="N611" s="176"/>
-      <c r="O611" s="176"/>
-      <c r="P611" s="176"/>
-      <c r="Q611" s="176"/>
-      <c r="R611" s="176"/>
-      <c r="S611" s="176"/>
-      <c r="T611" s="176"/>
-      <c r="U611" s="176"/>
-      <c r="V611" s="176"/>
-      <c r="W611" s="176"/>
-      <c r="X611" s="176"/>
-      <c r="Y611" s="176"/>
-      <c r="Z611" s="176"/>
-      <c r="AA611" s="176"/>
-      <c r="AB611" s="176"/>
-      <c r="AC611" s="176"/>
-      <c r="AD611" s="176"/>
-      <c r="AE611" s="176"/>
-      <c r="AF611" s="176"/>
-      <c r="AG611" s="176"/>
-      <c r="AH611" s="176"/>
-      <c r="AI611" s="176"/>
+      <c r="B611" s="176"/>
+      <c r="C611" s="175"/>
+      <c r="D611" s="175"/>
+      <c r="E611" s="175"/>
+      <c r="F611" s="175"/>
+      <c r="G611" s="175"/>
+      <c r="H611" s="175"/>
+      <c r="I611" s="175"/>
+      <c r="J611" s="175"/>
+      <c r="K611" s="175"/>
+      <c r="L611" s="175"/>
+      <c r="M611" s="175"/>
+      <c r="N611" s="175"/>
+      <c r="O611" s="175"/>
+      <c r="P611" s="175"/>
+      <c r="Q611" s="175"/>
+      <c r="R611" s="175"/>
+      <c r="S611" s="175"/>
+      <c r="T611" s="175"/>
+      <c r="U611" s="175"/>
+      <c r="V611" s="175"/>
+      <c r="W611" s="175"/>
+      <c r="X611" s="175"/>
+      <c r="Y611" s="175"/>
+      <c r="Z611" s="175"/>
+      <c r="AA611" s="175"/>
+      <c r="AB611" s="175"/>
+      <c r="AC611" s="175"/>
+      <c r="AD611" s="175"/>
+      <c r="AE611" s="175"/>
+      <c r="AF611" s="175"/>
+      <c r="AG611" s="175"/>
+      <c r="AH611" s="175"/>
+      <c r="AI611" s="175"/>
     </row>
     <row r="612" spans="2:35">
-      <c r="B612" s="177"/>
-      <c r="C612" s="176"/>
-      <c r="D612" s="176"/>
-      <c r="E612" s="176"/>
-      <c r="F612" s="176"/>
-      <c r="G612" s="176"/>
-      <c r="H612" s="176"/>
-      <c r="I612" s="176"/>
-      <c r="J612" s="176"/>
-      <c r="K612" s="176"/>
-      <c r="L612" s="176"/>
-      <c r="M612" s="176"/>
-      <c r="N612" s="176"/>
-      <c r="O612" s="176"/>
-      <c r="P612" s="176"/>
-      <c r="Q612" s="176"/>
-      <c r="R612" s="176"/>
-      <c r="S612" s="176"/>
-      <c r="T612" s="176"/>
-      <c r="U612" s="176"/>
-      <c r="V612" s="176"/>
-      <c r="W612" s="176"/>
-      <c r="X612" s="176"/>
-      <c r="Y612" s="176"/>
-      <c r="Z612" s="176"/>
-      <c r="AA612" s="176"/>
-      <c r="AB612" s="176"/>
-      <c r="AC612" s="176"/>
-      <c r="AD612" s="176"/>
-      <c r="AE612" s="176"/>
-      <c r="AF612" s="176"/>
-      <c r="AG612" s="176"/>
-      <c r="AH612" s="176"/>
-      <c r="AI612" s="176"/>
+      <c r="B612" s="176"/>
+      <c r="C612" s="175"/>
+      <c r="D612" s="175"/>
+      <c r="E612" s="175"/>
+      <c r="F612" s="175"/>
+      <c r="G612" s="175"/>
+      <c r="H612" s="175"/>
+      <c r="I612" s="175"/>
+      <c r="J612" s="175"/>
+      <c r="K612" s="175"/>
+      <c r="L612" s="175"/>
+      <c r="M612" s="175"/>
+      <c r="N612" s="175"/>
+      <c r="O612" s="175"/>
+      <c r="P612" s="175"/>
+      <c r="Q612" s="175"/>
+      <c r="R612" s="175"/>
+      <c r="S612" s="175"/>
+      <c r="T612" s="175"/>
+      <c r="U612" s="175"/>
+      <c r="V612" s="175"/>
+      <c r="W612" s="175"/>
+      <c r="X612" s="175"/>
+      <c r="Y612" s="175"/>
+      <c r="Z612" s="175"/>
+      <c r="AA612" s="175"/>
+      <c r="AB612" s="175"/>
+      <c r="AC612" s="175"/>
+      <c r="AD612" s="175"/>
+      <c r="AE612" s="175"/>
+      <c r="AF612" s="175"/>
+      <c r="AG612" s="175"/>
+      <c r="AH612" s="175"/>
+      <c r="AI612" s="175"/>
     </row>
     <row r="613" spans="2:35">
-      <c r="B613" s="177"/>
-      <c r="C613" s="176"/>
-      <c r="D613" s="176"/>
-      <c r="E613" s="176"/>
-      <c r="F613" s="176"/>
-      <c r="G613" s="176"/>
-      <c r="H613" s="176"/>
-      <c r="I613" s="176"/>
-      <c r="J613" s="176"/>
-      <c r="K613" s="176"/>
-      <c r="L613" s="176"/>
-      <c r="M613" s="176"/>
-      <c r="N613" s="176"/>
-      <c r="O613" s="176"/>
-      <c r="P613" s="176"/>
-      <c r="Q613" s="176"/>
-      <c r="R613" s="176"/>
-      <c r="S613" s="176"/>
-      <c r="T613" s="176"/>
-      <c r="U613" s="176"/>
-      <c r="V613" s="176"/>
-      <c r="W613" s="176"/>
-      <c r="X613" s="176"/>
-      <c r="Y613" s="176"/>
-      <c r="Z613" s="176"/>
-      <c r="AA613" s="176"/>
-      <c r="AB613" s="176"/>
-      <c r="AC613" s="176"/>
-      <c r="AD613" s="176"/>
-      <c r="AE613" s="176"/>
-      <c r="AF613" s="176"/>
-      <c r="AG613" s="176"/>
-      <c r="AH613" s="176"/>
-      <c r="AI613" s="176"/>
+      <c r="B613" s="176"/>
+      <c r="C613" s="175"/>
+      <c r="D613" s="175"/>
+      <c r="E613" s="175"/>
+      <c r="F613" s="175"/>
+      <c r="G613" s="175"/>
+      <c r="H613" s="175"/>
+      <c r="I613" s="175"/>
+      <c r="J613" s="175"/>
+      <c r="K613" s="175"/>
+      <c r="L613" s="175"/>
+      <c r="M613" s="175"/>
+      <c r="N613" s="175"/>
+      <c r="O613" s="175"/>
+      <c r="P613" s="175"/>
+      <c r="Q613" s="175"/>
+      <c r="R613" s="175"/>
+      <c r="S613" s="175"/>
+      <c r="T613" s="175"/>
+      <c r="U613" s="175"/>
+      <c r="V613" s="175"/>
+      <c r="W613" s="175"/>
+      <c r="X613" s="175"/>
+      <c r="Y613" s="175"/>
+      <c r="Z613" s="175"/>
+      <c r="AA613" s="175"/>
+      <c r="AB613" s="175"/>
+      <c r="AC613" s="175"/>
+      <c r="AD613" s="175"/>
+      <c r="AE613" s="175"/>
+      <c r="AF613" s="175"/>
+      <c r="AG613" s="175"/>
+      <c r="AH613" s="175"/>
+      <c r="AI613" s="175"/>
     </row>
     <row r="614" spans="2:35">
-      <c r="B614" s="177"/>
-      <c r="C614" s="176"/>
-      <c r="D614" s="176"/>
-      <c r="E614" s="176"/>
-      <c r="F614" s="176"/>
-      <c r="G614" s="176"/>
-      <c r="H614" s="176"/>
-      <c r="I614" s="176"/>
-      <c r="J614" s="176"/>
-      <c r="K614" s="176"/>
-      <c r="L614" s="176"/>
-      <c r="M614" s="176"/>
-      <c r="N614" s="176"/>
-      <c r="O614" s="176"/>
-      <c r="P614" s="176"/>
-      <c r="Q614" s="176"/>
-      <c r="R614" s="176"/>
-      <c r="S614" s="176"/>
-      <c r="T614" s="176"/>
-      <c r="U614" s="176"/>
-      <c r="V614" s="176"/>
-      <c r="W614" s="176"/>
-      <c r="X614" s="176"/>
-      <c r="Y614" s="176"/>
-      <c r="Z614" s="176"/>
-      <c r="AA614" s="176"/>
-      <c r="AB614" s="176"/>
-      <c r="AC614" s="176"/>
-      <c r="AD614" s="176"/>
-      <c r="AE614" s="176"/>
-      <c r="AF614" s="176"/>
-      <c r="AG614" s="176"/>
-      <c r="AH614" s="176"/>
-      <c r="AI614" s="176"/>
+      <c r="B614" s="176"/>
+      <c r="C614" s="175"/>
+      <c r="D614" s="175"/>
+      <c r="E614" s="175"/>
+      <c r="F614" s="175"/>
+      <c r="G614" s="175"/>
+      <c r="H614" s="175"/>
+      <c r="I614" s="175"/>
+      <c r="J614" s="175"/>
+      <c r="K614" s="175"/>
+      <c r="L614" s="175"/>
+      <c r="M614" s="175"/>
+      <c r="N614" s="175"/>
+      <c r="O614" s="175"/>
+      <c r="P614" s="175"/>
+      <c r="Q614" s="175"/>
+      <c r="R614" s="175"/>
+      <c r="S614" s="175"/>
+      <c r="T614" s="175"/>
+      <c r="U614" s="175"/>
+      <c r="V614" s="175"/>
+      <c r="W614" s="175"/>
+      <c r="X614" s="175"/>
+      <c r="Y614" s="175"/>
+      <c r="Z614" s="175"/>
+      <c r="AA614" s="175"/>
+      <c r="AB614" s="175"/>
+      <c r="AC614" s="175"/>
+      <c r="AD614" s="175"/>
+      <c r="AE614" s="175"/>
+      <c r="AF614" s="175"/>
+      <c r="AG614" s="175"/>
+      <c r="AH614" s="175"/>
+      <c r="AI614" s="175"/>
     </row>
     <row r="615" spans="2:35">
-      <c r="B615" s="177"/>
-      <c r="C615" s="176"/>
-      <c r="D615" s="176"/>
-      <c r="E615" s="176"/>
-      <c r="F615" s="176"/>
-      <c r="G615" s="176"/>
-      <c r="H615" s="176"/>
-      <c r="I615" s="176"/>
-      <c r="J615" s="176"/>
-      <c r="K615" s="176"/>
-      <c r="L615" s="176"/>
-      <c r="M615" s="176"/>
-      <c r="N615" s="176"/>
-      <c r="O615" s="176"/>
-      <c r="P615" s="176"/>
-      <c r="Q615" s="176"/>
-      <c r="R615" s="176"/>
-      <c r="S615" s="176"/>
-      <c r="T615" s="176"/>
-      <c r="U615" s="176"/>
-      <c r="V615" s="176"/>
-      <c r="W615" s="176"/>
-      <c r="X615" s="176"/>
-      <c r="Y615" s="176"/>
-      <c r="Z615" s="176"/>
-      <c r="AA615" s="176"/>
-      <c r="AB615" s="176"/>
-      <c r="AC615" s="176"/>
-      <c r="AD615" s="176"/>
-      <c r="AE615" s="176"/>
-      <c r="AF615" s="176"/>
-      <c r="AG615" s="176"/>
-      <c r="AH615" s="176"/>
-      <c r="AI615" s="176"/>
+      <c r="B615" s="176"/>
+      <c r="C615" s="175"/>
+      <c r="D615" s="175"/>
+      <c r="E615" s="175"/>
+      <c r="F615" s="175"/>
+      <c r="G615" s="175"/>
+      <c r="H615" s="175"/>
+      <c r="I615" s="175"/>
+      <c r="J615" s="175"/>
+      <c r="K615" s="175"/>
+      <c r="L615" s="175"/>
+      <c r="M615" s="175"/>
+      <c r="N615" s="175"/>
+      <c r="O615" s="175"/>
+      <c r="P615" s="175"/>
+      <c r="Q615" s="175"/>
+      <c r="R615" s="175"/>
+      <c r="S615" s="175"/>
+      <c r="T615" s="175"/>
+      <c r="U615" s="175"/>
+      <c r="V615" s="175"/>
+      <c r="W615" s="175"/>
+      <c r="X615" s="175"/>
+      <c r="Y615" s="175"/>
+      <c r="Z615" s="175"/>
+      <c r="AA615" s="175"/>
+      <c r="AB615" s="175"/>
+      <c r="AC615" s="175"/>
+      <c r="AD615" s="175"/>
+      <c r="AE615" s="175"/>
+      <c r="AF615" s="175"/>
+      <c r="AG615" s="175"/>
+      <c r="AH615" s="175"/>
+      <c r="AI615" s="175"/>
     </row>
     <row r="616" spans="2:35">
-      <c r="B616" s="177"/>
-      <c r="C616" s="176"/>
-      <c r="D616" s="176"/>
-      <c r="E616" s="176"/>
-      <c r="F616" s="176"/>
-      <c r="G616" s="176"/>
-      <c r="H616" s="176"/>
-      <c r="I616" s="176"/>
-      <c r="J616" s="176"/>
-      <c r="K616" s="176"/>
-      <c r="L616" s="176"/>
-      <c r="M616" s="176"/>
-      <c r="N616" s="176"/>
-      <c r="O616" s="176"/>
-      <c r="P616" s="176"/>
-      <c r="Q616" s="176"/>
-      <c r="R616" s="176"/>
-      <c r="S616" s="176"/>
-      <c r="T616" s="176"/>
-      <c r="U616" s="176"/>
-      <c r="V616" s="176"/>
-      <c r="W616" s="176"/>
-      <c r="X616" s="176"/>
-      <c r="Y616" s="176"/>
-      <c r="Z616" s="176"/>
-      <c r="AA616" s="176"/>
-      <c r="AB616" s="176"/>
-      <c r="AC616" s="176"/>
-      <c r="AD616" s="176"/>
-      <c r="AE616" s="176"/>
-      <c r="AF616" s="176"/>
-      <c r="AG616" s="176"/>
-      <c r="AH616" s="176"/>
-      <c r="AI616" s="176"/>
+      <c r="B616" s="176"/>
+      <c r="C616" s="175"/>
+      <c r="D616" s="175"/>
+      <c r="E616" s="175"/>
+      <c r="F616" s="175"/>
+      <c r="G616" s="175"/>
+      <c r="H616" s="175"/>
+      <c r="I616" s="175"/>
+      <c r="J616" s="175"/>
+      <c r="K616" s="175"/>
+      <c r="L616" s="175"/>
+      <c r="M616" s="175"/>
+      <c r="N616" s="175"/>
+      <c r="O616" s="175"/>
+      <c r="P616" s="175"/>
+      <c r="Q616" s="175"/>
+      <c r="R616" s="175"/>
+      <c r="S616" s="175"/>
+      <c r="T616" s="175"/>
+      <c r="U616" s="175"/>
+      <c r="V616" s="175"/>
+      <c r="W616" s="175"/>
+      <c r="X616" s="175"/>
+      <c r="Y616" s="175"/>
+      <c r="Z616" s="175"/>
+      <c r="AA616" s="175"/>
+      <c r="AB616" s="175"/>
+      <c r="AC616" s="175"/>
+      <c r="AD616" s="175"/>
+      <c r="AE616" s="175"/>
+      <c r="AF616" s="175"/>
+      <c r="AG616" s="175"/>
+      <c r="AH616" s="175"/>
+      <c r="AI616" s="175"/>
     </row>
     <row r="617" spans="2:35">
-      <c r="B617" s="177"/>
-      <c r="C617" s="176"/>
-      <c r="D617" s="176"/>
-      <c r="E617" s="176"/>
-      <c r="F617" s="176"/>
-      <c r="G617" s="176"/>
-      <c r="H617" s="176"/>
-      <c r="I617" s="176"/>
-      <c r="J617" s="176"/>
-      <c r="K617" s="176"/>
-      <c r="L617" s="176"/>
-      <c r="M617" s="176"/>
-      <c r="N617" s="176"/>
-      <c r="O617" s="176"/>
-      <c r="P617" s="176"/>
-      <c r="Q617" s="176"/>
-      <c r="R617" s="176"/>
-      <c r="S617" s="176"/>
-      <c r="T617" s="176"/>
-      <c r="U617" s="176"/>
-      <c r="V617" s="176"/>
-      <c r="W617" s="176"/>
-      <c r="X617" s="176"/>
-      <c r="Y617" s="176"/>
-      <c r="Z617" s="176"/>
-      <c r="AA617" s="176"/>
-      <c r="AB617" s="176"/>
-      <c r="AC617" s="176"/>
-      <c r="AD617" s="176"/>
-      <c r="AE617" s="176"/>
-      <c r="AF617" s="176"/>
-      <c r="AG617" s="176"/>
-      <c r="AH617" s="176"/>
-      <c r="AI617" s="176"/>
+      <c r="B617" s="176"/>
+      <c r="C617" s="175"/>
+      <c r="D617" s="175"/>
+      <c r="E617" s="175"/>
+      <c r="F617" s="175"/>
+      <c r="G617" s="175"/>
+      <c r="H617" s="175"/>
+      <c r="I617" s="175"/>
+      <c r="J617" s="175"/>
+      <c r="K617" s="175"/>
+      <c r="L617" s="175"/>
+      <c r="M617" s="175"/>
+      <c r="N617" s="175"/>
+      <c r="O617" s="175"/>
+      <c r="P617" s="175"/>
+      <c r="Q617" s="175"/>
+      <c r="R617" s="175"/>
+      <c r="S617" s="175"/>
+      <c r="T617" s="175"/>
+      <c r="U617" s="175"/>
+      <c r="V617" s="175"/>
+      <c r="W617" s="175"/>
+      <c r="X617" s="175"/>
+      <c r="Y617" s="175"/>
+      <c r="Z617" s="175"/>
+      <c r="AA617" s="175"/>
+      <c r="AB617" s="175"/>
+      <c r="AC617" s="175"/>
+      <c r="AD617" s="175"/>
+      <c r="AE617" s="175"/>
+      <c r="AF617" s="175"/>
+      <c r="AG617" s="175"/>
+      <c r="AH617" s="175"/>
+      <c r="AI617" s="175"/>
     </row>
     <row r="618" spans="2:35">
-      <c r="B618" s="177"/>
-      <c r="C618" s="176"/>
-      <c r="D618" s="176"/>
-      <c r="E618" s="176"/>
-      <c r="F618" s="176"/>
-      <c r="G618" s="176"/>
-      <c r="H618" s="176"/>
-      <c r="I618" s="176"/>
-      <c r="J618" s="176"/>
-      <c r="K618" s="176"/>
-      <c r="L618" s="176"/>
-      <c r="M618" s="176"/>
-      <c r="N618" s="176"/>
-      <c r="O618" s="176"/>
-      <c r="P618" s="176"/>
-      <c r="Q618" s="176"/>
-      <c r="R618" s="176"/>
-      <c r="S618" s="176"/>
-      <c r="T618" s="176"/>
-      <c r="U618" s="176"/>
-      <c r="V618" s="176"/>
-      <c r="W618" s="176"/>
-      <c r="X618" s="176"/>
-      <c r="Y618" s="176"/>
-      <c r="Z618" s="176"/>
-      <c r="AA618" s="176"/>
-      <c r="AB618" s="176"/>
-      <c r="AC618" s="176"/>
-      <c r="AD618" s="176"/>
-      <c r="AE618" s="176"/>
-      <c r="AF618" s="176"/>
-      <c r="AG618" s="176"/>
-      <c r="AH618" s="176"/>
-      <c r="AI618" s="176"/>
+      <c r="B618" s="176"/>
+      <c r="C618" s="175"/>
+      <c r="D618" s="175"/>
+      <c r="E618" s="175"/>
+      <c r="F618" s="175"/>
+      <c r="G618" s="175"/>
+      <c r="H618" s="175"/>
+      <c r="I618" s="175"/>
+      <c r="J618" s="175"/>
+      <c r="K618" s="175"/>
+      <c r="L618" s="175"/>
+      <c r="M618" s="175"/>
+      <c r="N618" s="175"/>
+      <c r="O618" s="175"/>
+      <c r="P618" s="175"/>
+      <c r="Q618" s="175"/>
+      <c r="R618" s="175"/>
+      <c r="S618" s="175"/>
+      <c r="T618" s="175"/>
+      <c r="U618" s="175"/>
+      <c r="V618" s="175"/>
+      <c r="W618" s="175"/>
+      <c r="X618" s="175"/>
+      <c r="Y618" s="175"/>
+      <c r="Z618" s="175"/>
+      <c r="AA618" s="175"/>
+      <c r="AB618" s="175"/>
+      <c r="AC618" s="175"/>
+      <c r="AD618" s="175"/>
+      <c r="AE618" s="175"/>
+      <c r="AF618" s="175"/>
+      <c r="AG618" s="175"/>
+      <c r="AH618" s="175"/>
+      <c r="AI618" s="175"/>
     </row>
     <row r="619" spans="2:35">
-      <c r="B619" s="177"/>
-      <c r="C619" s="176"/>
-      <c r="D619" s="176"/>
-      <c r="E619" s="176"/>
-      <c r="F619" s="176"/>
-      <c r="G619" s="176"/>
-      <c r="H619" s="176"/>
-      <c r="I619" s="176"/>
-      <c r="J619" s="176"/>
-      <c r="K619" s="176"/>
-      <c r="L619" s="176"/>
-      <c r="M619" s="176"/>
-      <c r="N619" s="176"/>
-      <c r="O619" s="176"/>
-      <c r="P619" s="176"/>
-      <c r="Q619" s="176"/>
-      <c r="R619" s="176"/>
-      <c r="S619" s="176"/>
-      <c r="T619" s="176"/>
-      <c r="U619" s="176"/>
-      <c r="V619" s="176"/>
-      <c r="W619" s="176"/>
-      <c r="X619" s="176"/>
-      <c r="Y619" s="176"/>
-      <c r="Z619" s="176"/>
-      <c r="AA619" s="176"/>
-      <c r="AB619" s="176"/>
-      <c r="AC619" s="176"/>
-      <c r="AD619" s="176"/>
-      <c r="AE619" s="176"/>
-      <c r="AF619" s="176"/>
-      <c r="AG619" s="176"/>
-      <c r="AH619" s="176"/>
-      <c r="AI619" s="176"/>
+      <c r="B619" s="176"/>
+      <c r="C619" s="175"/>
+      <c r="D619" s="175"/>
+      <c r="E619" s="175"/>
+      <c r="F619" s="175"/>
+      <c r="G619" s="175"/>
+      <c r="H619" s="175"/>
+      <c r="I619" s="175"/>
+      <c r="J619" s="175"/>
+      <c r="K619" s="175"/>
+      <c r="L619" s="175"/>
+      <c r="M619" s="175"/>
+      <c r="N619" s="175"/>
+      <c r="O619" s="175"/>
+      <c r="P619" s="175"/>
+      <c r="Q619" s="175"/>
+      <c r="R619" s="175"/>
+      <c r="S619" s="175"/>
+      <c r="T619" s="175"/>
+      <c r="U619" s="175"/>
+      <c r="V619" s="175"/>
+      <c r="W619" s="175"/>
+      <c r="X619" s="175"/>
+      <c r="Y619" s="175"/>
+      <c r="Z619" s="175"/>
+      <c r="AA619" s="175"/>
+      <c r="AB619" s="175"/>
+      <c r="AC619" s="175"/>
+      <c r="AD619" s="175"/>
+      <c r="AE619" s="175"/>
+      <c r="AF619" s="175"/>
+      <c r="AG619" s="175"/>
+      <c r="AH619" s="175"/>
+      <c r="AI619" s="175"/>
     </row>
     <row r="620" spans="2:35">
-      <c r="B620" s="177"/>
-      <c r="C620" s="176"/>
-      <c r="D620" s="176"/>
-      <c r="E620" s="176"/>
-      <c r="F620" s="176"/>
-      <c r="G620" s="176"/>
-      <c r="H620" s="176"/>
-      <c r="I620" s="176"/>
-      <c r="J620" s="176"/>
-      <c r="K620" s="176"/>
-      <c r="L620" s="176"/>
-      <c r="M620" s="176"/>
-      <c r="N620" s="176"/>
-      <c r="O620" s="176"/>
-      <c r="P620" s="176"/>
-      <c r="Q620" s="176"/>
-      <c r="R620" s="176"/>
-      <c r="S620" s="176"/>
-      <c r="T620" s="176"/>
-      <c r="U620" s="176"/>
-      <c r="V620" s="176"/>
-      <c r="W620" s="176"/>
-      <c r="X620" s="176"/>
-      <c r="Y620" s="176"/>
-      <c r="Z620" s="176"/>
-      <c r="AA620" s="176"/>
-      <c r="AB620" s="176"/>
-      <c r="AC620" s="176"/>
-      <c r="AD620" s="176"/>
-      <c r="AE620" s="176"/>
-      <c r="AF620" s="176"/>
-      <c r="AG620" s="176"/>
-      <c r="AH620" s="176"/>
-      <c r="AI620" s="176"/>
+      <c r="B620" s="176"/>
+      <c r="C620" s="175"/>
+      <c r="D620" s="175"/>
+      <c r="E620" s="175"/>
+      <c r="F620" s="175"/>
+      <c r="G620" s="175"/>
+      <c r="H620" s="175"/>
+      <c r="I620" s="175"/>
+      <c r="J620" s="175"/>
+      <c r="K620" s="175"/>
+      <c r="L620" s="175"/>
+      <c r="M620" s="175"/>
+      <c r="N620" s="175"/>
+      <c r="O620" s="175"/>
+      <c r="P620" s="175"/>
+      <c r="Q620" s="175"/>
+      <c r="R620" s="175"/>
+      <c r="S620" s="175"/>
+      <c r="T620" s="175"/>
+      <c r="U620" s="175"/>
+      <c r="V620" s="175"/>
+      <c r="W620" s="175"/>
+      <c r="X620" s="175"/>
+      <c r="Y620" s="175"/>
+      <c r="Z620" s="175"/>
+      <c r="AA620" s="175"/>
+      <c r="AB620" s="175"/>
+      <c r="AC620" s="175"/>
+      <c r="AD620" s="175"/>
+      <c r="AE620" s="175"/>
+      <c r="AF620" s="175"/>
+      <c r="AG620" s="175"/>
+      <c r="AH620" s="175"/>
+      <c r="AI620" s="175"/>
     </row>
     <row r="621" spans="2:35">
-      <c r="B621" s="177"/>
-      <c r="C621" s="176"/>
-      <c r="D621" s="176"/>
-      <c r="E621" s="176"/>
-      <c r="F621" s="176"/>
-      <c r="G621" s="176"/>
-      <c r="H621" s="176"/>
-      <c r="I621" s="176"/>
-      <c r="J621" s="176"/>
-      <c r="K621" s="176"/>
-      <c r="L621" s="176"/>
-      <c r="M621" s="176"/>
-      <c r="N621" s="176"/>
-      <c r="O621" s="176"/>
-      <c r="P621" s="176"/>
-      <c r="Q621" s="176"/>
-      <c r="R621" s="176"/>
-      <c r="S621" s="176"/>
-      <c r="T621" s="176"/>
-      <c r="U621" s="176"/>
-      <c r="V621" s="176"/>
-      <c r="W621" s="176"/>
-      <c r="X621" s="176"/>
-      <c r="Y621" s="176"/>
-      <c r="Z621" s="176"/>
-      <c r="AA621" s="176"/>
-      <c r="AB621" s="176"/>
-      <c r="AC621" s="176"/>
-      <c r="AD621" s="176"/>
-      <c r="AE621" s="176"/>
-      <c r="AF621" s="176"/>
-      <c r="AG621" s="176"/>
-      <c r="AH621" s="176"/>
-      <c r="AI621" s="176"/>
+      <c r="B621" s="176"/>
+      <c r="C621" s="175"/>
+      <c r="D621" s="175"/>
+      <c r="E621" s="175"/>
+      <c r="F621" s="175"/>
+      <c r="G621" s="175"/>
+      <c r="H621" s="175"/>
+      <c r="I621" s="175"/>
+      <c r="J621" s="175"/>
+      <c r="K621" s="175"/>
+      <c r="L621" s="175"/>
+      <c r="M621" s="175"/>
+      <c r="N621" s="175"/>
+      <c r="O621" s="175"/>
+      <c r="P621" s="175"/>
+      <c r="Q621" s="175"/>
+      <c r="R621" s="175"/>
+      <c r="S621" s="175"/>
+      <c r="T621" s="175"/>
+      <c r="U621" s="175"/>
+      <c r="V621" s="175"/>
+      <c r="W621" s="175"/>
+      <c r="X621" s="175"/>
+      <c r="Y621" s="175"/>
+      <c r="Z621" s="175"/>
+      <c r="AA621" s="175"/>
+      <c r="AB621" s="175"/>
+      <c r="AC621" s="175"/>
+      <c r="AD621" s="175"/>
+      <c r="AE621" s="175"/>
+      <c r="AF621" s="175"/>
+      <c r="AG621" s="175"/>
+      <c r="AH621" s="175"/>
+      <c r="AI621" s="175"/>
     </row>
     <row r="622" spans="2:35">
-      <c r="B622" s="177"/>
-      <c r="C622" s="176"/>
-      <c r="D622" s="176"/>
-      <c r="E622" s="176"/>
-      <c r="F622" s="176"/>
-      <c r="G622" s="176"/>
-      <c r="H622" s="176"/>
-      <c r="I622" s="176"/>
-      <c r="J622" s="176"/>
-      <c r="K622" s="176"/>
-      <c r="L622" s="176"/>
-      <c r="M622" s="176"/>
-      <c r="N622" s="176"/>
-      <c r="O622" s="176"/>
-      <c r="P622" s="176"/>
-      <c r="Q622" s="176"/>
-      <c r="R622" s="176"/>
-      <c r="S622" s="176"/>
-      <c r="T622" s="176"/>
-      <c r="U622" s="176"/>
-      <c r="V622" s="176"/>
-      <c r="W622" s="176"/>
-      <c r="X622" s="176"/>
-      <c r="Y622" s="176"/>
-      <c r="Z622" s="176"/>
-      <c r="AA622" s="176"/>
-      <c r="AB622" s="176"/>
-      <c r="AC622" s="176"/>
-      <c r="AD622" s="176"/>
-      <c r="AE622" s="176"/>
-      <c r="AF622" s="176"/>
-      <c r="AG622" s="176"/>
-      <c r="AH622" s="176"/>
-      <c r="AI622" s="176"/>
+      <c r="B622" s="176"/>
+      <c r="C622" s="175"/>
+      <c r="D622" s="175"/>
+      <c r="E622" s="175"/>
+      <c r="F622" s="175"/>
+      <c r="G622" s="175"/>
+      <c r="H622" s="175"/>
+      <c r="I622" s="175"/>
+      <c r="J622" s="175"/>
+      <c r="K622" s="175"/>
+      <c r="L622" s="175"/>
+      <c r="M622" s="175"/>
+      <c r="N622" s="175"/>
+      <c r="O622" s="175"/>
+      <c r="P622" s="175"/>
+      <c r="Q622" s="175"/>
+      <c r="R622" s="175"/>
+      <c r="S622" s="175"/>
+      <c r="T622" s="175"/>
+      <c r="U622" s="175"/>
+      <c r="V622" s="175"/>
+      <c r="W622" s="175"/>
+      <c r="X622" s="175"/>
+      <c r="Y622" s="175"/>
+      <c r="Z622" s="175"/>
+      <c r="AA622" s="175"/>
+      <c r="AB622" s="175"/>
+      <c r="AC622" s="175"/>
+      <c r="AD622" s="175"/>
+      <c r="AE622" s="175"/>
+      <c r="AF622" s="175"/>
+      <c r="AG622" s="175"/>
+      <c r="AH622" s="175"/>
+      <c r="AI622" s="175"/>
     </row>
     <row r="623" spans="2:35">
-      <c r="B623" s="177"/>
-      <c r="C623" s="176"/>
-      <c r="D623" s="176"/>
-      <c r="E623" s="176"/>
-      <c r="F623" s="176"/>
-      <c r="G623" s="176"/>
-      <c r="H623" s="176"/>
-      <c r="I623" s="176"/>
-      <c r="J623" s="176"/>
-      <c r="K623" s="176"/>
-      <c r="L623" s="176"/>
-      <c r="M623" s="176"/>
-      <c r="N623" s="176"/>
-      <c r="O623" s="176"/>
-      <c r="P623" s="176"/>
-      <c r="Q623" s="176"/>
-      <c r="R623" s="176"/>
-      <c r="S623" s="176"/>
-      <c r="T623" s="176"/>
-      <c r="U623" s="176"/>
-      <c r="V623" s="176"/>
-      <c r="W623" s="176"/>
-      <c r="X623" s="176"/>
-      <c r="Y623" s="176"/>
-      <c r="Z623" s="176"/>
-      <c r="AA623" s="176"/>
-      <c r="AB623" s="176"/>
-      <c r="AC623" s="176"/>
-      <c r="AD623" s="176"/>
-      <c r="AE623" s="176"/>
-      <c r="AF623" s="176"/>
-      <c r="AG623" s="176"/>
-      <c r="AH623" s="176"/>
-      <c r="AI623" s="176"/>
+      <c r="B623" s="176"/>
+      <c r="C623" s="175"/>
+      <c r="D623" s="175"/>
+      <c r="E623" s="175"/>
+      <c r="F623" s="175"/>
+      <c r="G623" s="175"/>
+      <c r="H623" s="175"/>
+      <c r="I623" s="175"/>
+      <c r="J623" s="175"/>
+      <c r="K623" s="175"/>
+      <c r="L623" s="175"/>
+      <c r="M623" s="175"/>
+      <c r="N623" s="175"/>
+      <c r="O623" s="175"/>
+      <c r="P623" s="175"/>
+      <c r="Q623" s="175"/>
+      <c r="R623" s="175"/>
+      <c r="S623" s="175"/>
+      <c r="T623" s="175"/>
+      <c r="U623" s="175"/>
+      <c r="V623" s="175"/>
+      <c r="W623" s="175"/>
+      <c r="X623" s="175"/>
+      <c r="Y623" s="175"/>
+      <c r="Z623" s="175"/>
+      <c r="AA623" s="175"/>
+      <c r="AB623" s="175"/>
+      <c r="AC623" s="175"/>
+      <c r="AD623" s="175"/>
+      <c r="AE623" s="175"/>
+      <c r="AF623" s="175"/>
+      <c r="AG623" s="175"/>
+      <c r="AH623" s="175"/>
+      <c r="AI623" s="175"/>
     </row>
     <row r="624" spans="2:35">
-      <c r="B624" s="177"/>
-      <c r="C624" s="176"/>
-      <c r="D624" s="176"/>
-      <c r="E624" s="176"/>
-      <c r="F624" s="176"/>
-      <c r="G624" s="176"/>
-      <c r="H624" s="176"/>
-      <c r="I624" s="176"/>
-      <c r="J624" s="176"/>
-      <c r="K624" s="176"/>
-      <c r="L624" s="176"/>
-      <c r="M624" s="176"/>
-      <c r="N624" s="176"/>
-      <c r="O624" s="176"/>
-      <c r="P624" s="176"/>
-      <c r="Q624" s="176"/>
-      <c r="R624" s="176"/>
-      <c r="S624" s="176"/>
-      <c r="T624" s="176"/>
-      <c r="U624" s="176"/>
-      <c r="V624" s="176"/>
-      <c r="W624" s="176"/>
-      <c r="X624" s="176"/>
-      <c r="Y624" s="176"/>
-      <c r="Z624" s="176"/>
-      <c r="AA624" s="176"/>
-      <c r="AB624" s="176"/>
-      <c r="AC624" s="176"/>
-      <c r="AD624" s="176"/>
-      <c r="AE624" s="176"/>
-      <c r="AF624" s="176"/>
-      <c r="AG624" s="176"/>
-      <c r="AH624" s="176"/>
-      <c r="AI624" s="176"/>
+      <c r="B624" s="176"/>
+      <c r="C624" s="175"/>
+      <c r="D624" s="175"/>
+      <c r="E624" s="175"/>
+      <c r="F624" s="175"/>
+      <c r="G624" s="175"/>
+      <c r="H624" s="175"/>
+      <c r="I624" s="175"/>
+      <c r="J624" s="175"/>
+      <c r="K624" s="175"/>
+      <c r="L624" s="175"/>
+      <c r="M624" s="175"/>
+      <c r="N624" s="175"/>
+      <c r="O624" s="175"/>
+      <c r="P624" s="175"/>
+      <c r="Q624" s="175"/>
+      <c r="R624" s="175"/>
+      <c r="S624" s="175"/>
+      <c r="T624" s="175"/>
+      <c r="U624" s="175"/>
+      <c r="V624" s="175"/>
+      <c r="W624" s="175"/>
+      <c r="X624" s="175"/>
+      <c r="Y624" s="175"/>
+      <c r="Z624" s="175"/>
+      <c r="AA624" s="175"/>
+      <c r="AB624" s="175"/>
+      <c r="AC624" s="175"/>
+      <c r="AD624" s="175"/>
+      <c r="AE624" s="175"/>
+      <c r="AF624" s="175"/>
+      <c r="AG624" s="175"/>
+      <c r="AH624" s="175"/>
+      <c r="AI624" s="175"/>
     </row>
     <row r="625" spans="2:35">
-      <c r="B625" s="177"/>
-      <c r="C625" s="176"/>
-      <c r="D625" s="176"/>
-      <c r="E625" s="176"/>
-      <c r="F625" s="176"/>
-      <c r="G625" s="176"/>
-      <c r="H625" s="176"/>
-      <c r="I625" s="176"/>
-      <c r="J625" s="176"/>
-      <c r="K625" s="176"/>
-      <c r="L625" s="176"/>
-      <c r="M625" s="176"/>
-      <c r="N625" s="176"/>
-      <c r="O625" s="176"/>
-      <c r="P625" s="176"/>
-      <c r="Q625" s="176"/>
-      <c r="R625" s="176"/>
-      <c r="S625" s="176"/>
-      <c r="T625" s="176"/>
-      <c r="U625" s="176"/>
-      <c r="V625" s="176"/>
-      <c r="W625" s="176"/>
-      <c r="X625" s="176"/>
-      <c r="Y625" s="176"/>
-      <c r="Z625" s="176"/>
-      <c r="AA625" s="176"/>
-      <c r="AB625" s="176"/>
-      <c r="AC625" s="176"/>
-      <c r="AD625" s="176"/>
-      <c r="AE625" s="176"/>
-      <c r="AF625" s="176"/>
-      <c r="AG625" s="176"/>
-      <c r="AH625" s="176"/>
-      <c r="AI625" s="176"/>
+      <c r="B625" s="176"/>
+      <c r="C625" s="175"/>
+      <c r="D625" s="175"/>
+      <c r="E625" s="175"/>
+      <c r="F625" s="175"/>
+      <c r="G625" s="175"/>
+      <c r="H625" s="175"/>
+      <c r="I625" s="175"/>
+      <c r="J625" s="175"/>
+      <c r="K625" s="175"/>
+      <c r="L625" s="175"/>
+      <c r="M625" s="175"/>
+      <c r="N625" s="175"/>
+      <c r="O625" s="175"/>
+      <c r="P625" s="175"/>
+      <c r="Q625" s="175"/>
+      <c r="R625" s="175"/>
+      <c r="S625" s="175"/>
+      <c r="T625" s="175"/>
+      <c r="U625" s="175"/>
+      <c r="V625" s="175"/>
+      <c r="W625" s="175"/>
+      <c r="X625" s="175"/>
+      <c r="Y625" s="175"/>
+      <c r="Z625" s="175"/>
+      <c r="AA625" s="175"/>
+      <c r="AB625" s="175"/>
+      <c r="AC625" s="175"/>
+      <c r="AD625" s="175"/>
+      <c r="AE625" s="175"/>
+      <c r="AF625" s="175"/>
+      <c r="AG625" s="175"/>
+      <c r="AH625" s="175"/>
+      <c r="AI625" s="175"/>
     </row>
     <row r="626" spans="2:35">
-      <c r="B626" s="177"/>
-      <c r="C626" s="176"/>
-      <c r="D626" s="176"/>
-      <c r="E626" s="176"/>
-      <c r="F626" s="176"/>
-      <c r="G626" s="176"/>
-      <c r="H626" s="176"/>
-      <c r="I626" s="176"/>
-      <c r="J626" s="176"/>
-      <c r="K626" s="176"/>
-      <c r="L626" s="176"/>
-      <c r="M626" s="176"/>
-      <c r="N626" s="176"/>
-      <c r="O626" s="176"/>
-      <c r="P626" s="176"/>
-      <c r="Q626" s="176"/>
-      <c r="R626" s="176"/>
-      <c r="S626" s="176"/>
-      <c r="T626" s="176"/>
-      <c r="U626" s="176"/>
-      <c r="V626" s="176"/>
-      <c r="W626" s="176"/>
-      <c r="X626" s="176"/>
-      <c r="Y626" s="176"/>
-      <c r="Z626" s="176"/>
-      <c r="AA626" s="176"/>
-      <c r="AB626" s="176"/>
-      <c r="AC626" s="176"/>
-      <c r="AD626" s="176"/>
-      <c r="AE626" s="176"/>
-      <c r="AF626" s="176"/>
-      <c r="AG626" s="176"/>
-      <c r="AH626" s="176"/>
-      <c r="AI626" s="176"/>
+      <c r="B626" s="176"/>
+      <c r="C626" s="175"/>
+      <c r="D626" s="175"/>
+      <c r="E626" s="175"/>
+      <c r="F626" s="175"/>
+      <c r="G626" s="175"/>
+      <c r="H626" s="175"/>
+      <c r="I626" s="175"/>
+      <c r="J626" s="175"/>
+      <c r="K626" s="175"/>
+      <c r="L626" s="175"/>
+      <c r="M626" s="175"/>
+      <c r="N626" s="175"/>
+      <c r="O626" s="175"/>
+      <c r="P626" s="175"/>
+      <c r="Q626" s="175"/>
+      <c r="R626" s="175"/>
+      <c r="S626" s="175"/>
+      <c r="T626" s="175"/>
+      <c r="U626" s="175"/>
+      <c r="V626" s="175"/>
+      <c r="W626" s="175"/>
+      <c r="X626" s="175"/>
+      <c r="Y626" s="175"/>
+      <c r="Z626" s="175"/>
+      <c r="AA626" s="175"/>
+      <c r="AB626" s="175"/>
+      <c r="AC626" s="175"/>
+      <c r="AD626" s="175"/>
+      <c r="AE626" s="175"/>
+      <c r="AF626" s="175"/>
+      <c r="AG626" s="175"/>
+      <c r="AH626" s="175"/>
+      <c r="AI626" s="175"/>
     </row>
     <row r="627" spans="2:35">
-      <c r="H627" s="176"/>
-      <c r="I627" s="176"/>
-      <c r="J627" s="176"/>
-      <c r="K627" s="176"/>
+      <c r="H627" s="175"/>
+      <c r="I627" s="175"/>
+      <c r="J627" s="175"/>
+      <c r="K627" s="175"/>
     </row>
     <row r="628" spans="2:35">
-      <c r="H628" s="176"/>
-      <c r="I628" s="176"/>
-      <c r="J628" s="176"/>
-      <c r="K628" s="176"/>
+      <c r="H628" s="175"/>
+      <c r="I628" s="175"/>
+      <c r="J628" s="175"/>
+      <c r="K628" s="175"/>
     </row>
     <row r="629" spans="2:35">
-      <c r="H629" s="176"/>
-      <c r="I629" s="176"/>
-      <c r="J629" s="176"/>
-      <c r="K629" s="176"/>
+      <c r="H629" s="175"/>
+      <c r="I629" s="175"/>
+      <c r="J629" s="175"/>
+      <c r="K629" s="175"/>
     </row>
     <row r="630" spans="2:35">
-      <c r="H630" s="176"/>
-      <c r="I630" s="176"/>
-      <c r="J630" s="176"/>
-      <c r="K630" s="176"/>
+      <c r="H630" s="175"/>
+      <c r="I630" s="175"/>
+      <c r="J630" s="175"/>
+      <c r="K630" s="175"/>
     </row>
     <row r="631" spans="2:35">
-      <c r="H631" s="176"/>
-      <c r="I631" s="176"/>
-      <c r="J631" s="176"/>
-      <c r="K631" s="176"/>
+      <c r="H631" s="175"/>
+      <c r="I631" s="175"/>
+      <c r="J631" s="175"/>
+      <c r="K631" s="175"/>
     </row>
   </sheetData>
   <hyperlinks>
